--- a/inventory/INVENTORY OF PYU INSCRIPTIONS.xlsx
+++ b/inventory/INVENTORY OF PYU INSCRIPTIONS.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="474">
   <si>
     <r>
       <t>Building of a shrine by Prince R</t>
@@ -1688,12 +1688,6 @@
     </r>
   </si>
   <si>
-    <t>Aung Thaw 1972: 14.</t>
-  </si>
-  <si>
-    <t>Aung Thaw points out that an identical artefact has been found at Oc Eo.</t>
-  </si>
-  <si>
     <t>Kunzeik, on bank of Sittaung river, Shwegyin township</t>
   </si>
   <si>
@@ -2079,9 +2073,6 @@
       </rPr>
       <t xml:space="preserve"> Middleton 2005: 90.</t>
     </r>
-  </si>
-  <si>
-    <t>Aung Thaw 1972: 14. — Middleton 2005: 15, 159.</t>
   </si>
   <si>
     <t>private collection</t>
@@ -2579,6 +2570,36 @@
       </rPr>
       <t xml:space="preserve"> — PPPB I, 62, 74 n. 9, 140.</t>
     </r>
+  </si>
+  <si>
+    <t>Myint Aung 1970, pl. 9a. — Aung Thaw 1972: 14.</t>
+  </si>
+  <si>
+    <t>Myint Aung 1970: 61. — Aung Thaw 1972: 14.</t>
+  </si>
+  <si>
+    <t>Myint Aung (and after him Aung Thaw) points out that an identical artefact has been found at Oc Eo. Apparently more than one specimen of this iytaglio was made; other intaglios with the same inscription but applied rather les artfully are shown and/or referred to  by Middleton 2005: 15, 159. Their provenance from 'Pyu' sites in uncertain.</t>
+  </si>
+  <si>
+    <t>Beikthano</t>
+  </si>
+  <si>
+    <t>saṁghasiri/sayasiri</t>
+  </si>
+  <si>
+    <t>whole piece 4 cm long; seal 1.5 cm diam.</t>
+  </si>
+  <si>
+    <t>National Museum, Yangon</t>
+  </si>
+  <si>
+    <t>Prakrit (?)</t>
+  </si>
+  <si>
+    <t>ASB 1959, pl. 16-17. — Aung Thaw 1968, fig. 79.9, pl. LIVab. — photos Bob Hudson.</t>
+  </si>
+  <si>
+    <t>ASB 1959, 19. — Aung Thaw 1968: 50-51. — Aung Thaw 1972: 4.</t>
   </si>
 </sst>
 </file>
@@ -2845,8 +2866,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="95">
+  <cellStyleXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3140,7 +3165,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="95">
+  <cellStyles count="99">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -3188,6 +3213,8 @@
     <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -3235,6 +3262,8 @@
     <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3527,10 +3556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K122"/>
+  <dimension ref="A1:K124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="H103" sqref="H103"/>
+    <sheetView tabSelected="1" topLeftCell="C58" workbookViewId="0">
+      <selection activeCell="J67" sqref="J67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -3556,7 +3585,7 @@
     </row>
     <row r="2" spans="1:11">
       <c r="B2" s="63" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C2" s="63"/>
       <c r="D2" s="4"/>
@@ -3640,7 +3669,7 @@
         <v>233</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="J5" s="13" t="s">
         <v>355</v>
@@ -3671,7 +3700,7 @@
       </c>
       <c r="H6" s="10"/>
       <c r="I6" s="19" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="J6" s="13" t="s">
         <v>293</v>
@@ -3706,7 +3735,7 @@
         <v>6</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="J7" s="19" t="s">
         <v>163</v>
@@ -3741,7 +3770,7 @@
         <v>7</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="J8" s="19" t="s">
         <v>164</v>
@@ -3774,7 +3803,7 @@
         <v>8</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="J9" s="19" t="s">
         <v>165</v>
@@ -3792,7 +3821,7 @@
         <v>19</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="E10" s="17" t="s">
         <v>61</v>
@@ -3807,10 +3836,10 @@
         <v>9</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="J10" s="19" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="K10" s="10" t="s">
         <v>110</v>
@@ -3824,13 +3853,13 @@
         <v>111</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D11" s="31" t="s">
         <v>268</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F11" s="19" t="s">
         <v>22</v>
@@ -3859,13 +3888,13 @@
         <v>111</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D12" s="31" t="s">
         <v>267</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>282</v>
@@ -3908,7 +3937,7 @@
         <v>23</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="J13" s="10" t="s">
         <v>274</v>
@@ -3941,7 +3970,7 @@
         <v>23</v>
       </c>
       <c r="I14" s="23" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="J14" s="10" t="s">
         <v>166</v>
@@ -3974,7 +4003,7 @@
         <v>2</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="J15" s="10" t="s">
         <v>130</v>
@@ -4092,13 +4121,13 @@
       </c>
       <c r="H19" s="49"/>
       <c r="I19" s="49" t="s">
+        <v>380</v>
+      </c>
+      <c r="J19" s="12" t="s">
         <v>382</v>
       </c>
-      <c r="J19" s="12" t="s">
-        <v>384</v>
-      </c>
       <c r="K19" s="48" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="56">
@@ -4112,23 +4141,23 @@
         <v>212</v>
       </c>
       <c r="D20" s="31" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="E20" s="19" t="s">
         <v>63</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="G20" s="24" t="s">
         <v>180</v>
       </c>
       <c r="H20" s="13"/>
       <c r="I20" s="19" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="J20" s="13" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="K20" s="13"/>
     </row>
@@ -4156,10 +4185,10 @@
       </c>
       <c r="H21" s="13"/>
       <c r="I21" s="13" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="J21" s="19" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="K21" s="13" t="s">
         <v>214</v>
@@ -4313,10 +4342,10 @@
       </c>
       <c r="H26" s="13"/>
       <c r="I26" s="13" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="J26" s="13" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="K26" s="13" t="s">
         <v>91</v>
@@ -4370,17 +4399,17 @@
         <v>64</v>
       </c>
       <c r="F28" s="19" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="G28" s="12" t="s">
         <v>307</v>
       </c>
       <c r="H28" s="13"/>
       <c r="I28" s="19" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="J28" s="13" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="K28" s="13"/>
     </row>
@@ -4389,7 +4418,7 @@
         <v>25</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C29" s="14" t="s">
         <v>31</v>
@@ -4444,7 +4473,7 @@
         <v>242</v>
       </c>
       <c r="J30" s="13" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="K30" s="13" t="s">
         <v>109</v>
@@ -4474,7 +4503,7 @@
       </c>
       <c r="H31" s="13"/>
       <c r="I31" s="13" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="J31" s="13" t="s">
         <v>218</v>
@@ -4492,13 +4521,13 @@
         <v>112</v>
       </c>
       <c r="D32" s="31" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E32" s="19" t="s">
         <v>61</v>
       </c>
       <c r="F32" s="24" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="G32" s="24" t="s">
         <v>184</v>
@@ -4506,7 +4535,7 @@
       <c r="H32" s="13"/>
       <c r="I32" s="19"/>
       <c r="J32" s="13" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="K32" s="13" t="s">
         <v>243</v>
@@ -4621,7 +4650,7 @@
         <v>337</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="H36" s="13"/>
       <c r="I36" s="13" t="s">
@@ -4657,7 +4686,7 @@
         <v>230</v>
       </c>
       <c r="J37" s="13" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="K37" s="13"/>
     </row>
@@ -4666,13 +4695,13 @@
         <v>34</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C38" s="31" t="s">
         <v>19</v>
       </c>
       <c r="D38" s="31" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="E38" s="12" t="s">
         <v>61</v>
@@ -4685,13 +4714,13 @@
       </c>
       <c r="H38" s="12"/>
       <c r="I38" s="12" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="J38" s="12" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="K38" s="12" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="56">
@@ -4730,32 +4759,32 @@
         <v>36</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C40" s="31" t="s">
         <v>34</v>
       </c>
       <c r="D40" s="31" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="E40" s="18" t="s">
         <v>61</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="H40" s="18"/>
       <c r="I40" s="18" t="s">
         <v>105</v>
       </c>
       <c r="J40" s="12" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="K40" s="12" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="84">
@@ -4763,19 +4792,19 @@
         <v>37</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C41" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D41" s="51" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="E41" s="13" t="s">
         <v>61</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="G41" s="12" t="s">
         <v>69</v>
@@ -4785,10 +4814,10 @@
         <v>105</v>
       </c>
       <c r="J41" s="13" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="K41" s="19" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="42" spans="1:11" s="22" customFormat="1" ht="28">
@@ -4870,17 +4899,17 @@
         <v>65</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G44" s="12" t="s">
         <v>290</v>
       </c>
       <c r="H44" s="13"/>
       <c r="I44" s="19" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="J44" s="13" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="K44" s="19" t="s">
         <v>292</v>
@@ -4953,7 +4982,7 @@
         <v>43</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C47" s="14"/>
       <c r="D47" s="14"/>
@@ -4961,17 +4990,17 @@
         <v>68</v>
       </c>
       <c r="F47" s="19" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="G47" s="12" t="s">
         <v>119</v>
       </c>
       <c r="H47" s="13"/>
       <c r="I47" s="19" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="J47" s="19" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="K47" s="13"/>
     </row>
@@ -4980,7 +5009,7 @@
         <v>44</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C48" s="20" t="s">
         <v>32</v>
@@ -4992,7 +5021,7 @@
         <v>65</v>
       </c>
       <c r="F48" s="19" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G48" s="12" t="s">
         <v>119</v>
@@ -5002,7 +5031,7 @@
         <v>340</v>
       </c>
       <c r="J48" s="10" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="K48" s="13" t="s">
         <v>301</v>
@@ -5016,26 +5045,26 @@
         <v>277</v>
       </c>
       <c r="C49" s="31" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="D49" s="31" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E49" s="10" t="s">
         <v>65</v>
       </c>
       <c r="F49" s="19" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="G49" s="12" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="H49" s="13"/>
       <c r="I49" s="13" t="s">
         <v>310</v>
       </c>
       <c r="J49" s="13" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="K49" s="13"/>
     </row>
@@ -5057,7 +5086,7 @@
         <v>348</v>
       </c>
       <c r="G50" s="12" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H50" s="13"/>
       <c r="I50" s="19" t="s">
@@ -5086,11 +5115,11 @@
         <v>119</v>
       </c>
       <c r="G51" s="12" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="H51" s="18"/>
       <c r="I51" s="12" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="J51" s="12"/>
       <c r="K51" s="18"/>
@@ -5113,11 +5142,11 @@
         <v>119</v>
       </c>
       <c r="G52" s="12" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="H52" s="18"/>
       <c r="I52" s="12" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="J52" s="12"/>
       <c r="K52" s="18"/>
@@ -5145,7 +5174,7 @@
         <v>250</v>
       </c>
       <c r="J53" s="19" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="K53" s="19" t="s">
         <v>258</v>
@@ -5233,7 +5262,7 @@
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="23" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="J56" s="19" t="s">
         <v>82</v>
@@ -5264,7 +5293,7 @@
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="23" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="J57" s="19" t="s">
         <v>82</v>
@@ -5295,7 +5324,7 @@
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="23" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="J58" s="19" t="s">
         <v>82</v>
@@ -5409,27 +5438,27 @@
         <v>59</v>
       </c>
       <c r="B63" s="19" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C63" s="20" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="D63" s="20"/>
       <c r="E63" s="19" t="s">
         <v>118</v>
       </c>
       <c r="F63" s="19" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="G63" s="23" t="s">
         <v>119</v>
       </c>
       <c r="H63" s="23"/>
       <c r="I63" s="23" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="J63" s="19" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="K63" s="19"/>
     </row>
@@ -5511,281 +5540,279 @@
       </c>
       <c r="H66" s="12"/>
       <c r="I66" s="12" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="J66" s="12"/>
       <c r="K66" s="12"/>
     </row>
-    <row r="67" spans="1:11" s="22" customFormat="1">
-      <c r="A67" s="44"/>
-      <c r="B67" s="45" t="s">
+    <row r="67" spans="1:11" s="53" customFormat="1" ht="42">
+      <c r="A67" s="47">
+        <v>63</v>
+      </c>
+      <c r="B67" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C67" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="D67" s="31" t="s">
+        <v>469</v>
+      </c>
+      <c r="E67" s="12" t="s">
+        <v>471</v>
+      </c>
+      <c r="F67" s="12" t="s">
+        <v>467</v>
+      </c>
+      <c r="G67" s="12" t="s">
+        <v>470</v>
+      </c>
+      <c r="H67" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="I67" s="12" t="s">
+        <v>472</v>
+      </c>
+      <c r="J67" s="12" t="s">
+        <v>473</v>
+      </c>
+      <c r="K67" s="12"/>
+    </row>
+    <row r="68" spans="1:11" s="22" customFormat="1">
+      <c r="A68" s="47"/>
+      <c r="B68" s="12"/>
+      <c r="C68" s="31"/>
+      <c r="D68" s="31"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="12"/>
+      <c r="G68" s="12"/>
+      <c r="H68" s="12"/>
+      <c r="I68" s="12"/>
+      <c r="J68" s="12"/>
+      <c r="K68" s="12"/>
+    </row>
+    <row r="69" spans="1:11" s="22" customFormat="1">
+      <c r="A69" s="44"/>
+      <c r="B69" s="45" t="s">
         <v>323</v>
       </c>
-      <c r="C67" s="46" t="s">
+      <c r="C69" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="D67" s="46"/>
-      <c r="E67" s="45" t="s">
+      <c r="D69" s="46"/>
+      <c r="E69" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="F67" s="45" t="s">
+      <c r="F69" s="45" t="s">
         <v>343</v>
       </c>
-      <c r="G67" s="45" t="s">
+      <c r="G69" s="45" t="s">
         <v>119</v>
       </c>
-      <c r="H67" s="45"/>
-      <c r="I67" s="45"/>
-      <c r="J67" s="45" t="s">
+      <c r="H69" s="45"/>
+      <c r="I69" s="45"/>
+      <c r="J69" s="45" t="s">
         <v>346</v>
       </c>
-      <c r="K67" s="45" t="s">
+      <c r="K69" s="45" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="68" spans="1:11" s="22" customFormat="1" ht="28">
-      <c r="A68" s="44"/>
-      <c r="B68" s="45" t="s">
-        <v>323</v>
-      </c>
-      <c r="C68" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="D68" s="46"/>
-      <c r="E68" s="45" t="s">
-        <v>64</v>
-      </c>
-      <c r="F68" s="45" t="s">
-        <v>343</v>
-      </c>
-      <c r="G68" s="45" t="s">
-        <v>119</v>
-      </c>
-      <c r="H68" s="39"/>
-      <c r="I68" s="45" t="s">
-        <v>342</v>
-      </c>
-      <c r="J68" s="45" t="s">
-        <v>341</v>
-      </c>
-      <c r="K68" s="39"/>
-    </row>
-    <row r="69" spans="1:11" s="22" customFormat="1" ht="28">
-      <c r="A69" s="44"/>
-      <c r="B69" s="45"/>
-      <c r="C69" s="46"/>
-      <c r="D69" s="46"/>
-      <c r="E69" s="45"/>
-      <c r="F69" s="45"/>
-      <c r="G69" s="45" t="s">
-        <v>379</v>
-      </c>
-      <c r="H69" s="39"/>
-      <c r="I69" s="61" t="s">
-        <v>381</v>
-      </c>
-      <c r="J69" s="37" t="s">
-        <v>380</v>
-      </c>
-      <c r="K69" s="39"/>
-    </row>
-    <row r="70" spans="1:11" s="22" customFormat="1" ht="56">
+    <row r="70" spans="1:11" s="22" customFormat="1" ht="28">
       <c r="A70" s="44"/>
       <c r="B70" s="45" t="s">
-        <v>117</v>
+        <v>323</v>
       </c>
       <c r="C70" s="46" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D70" s="46"/>
       <c r="E70" s="45" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F70" s="45" t="s">
-        <v>420</v>
+        <v>343</v>
       </c>
       <c r="G70" s="45" t="s">
         <v>119</v>
       </c>
-      <c r="H70" s="45"/>
+      <c r="H70" s="39"/>
       <c r="I70" s="45" t="s">
-        <v>421</v>
+        <v>342</v>
       </c>
       <c r="J70" s="45" t="s">
-        <v>423</v>
-      </c>
-      <c r="K70" s="45" t="s">
-        <v>422</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="K70" s="39"/>
     </row>
     <row r="71" spans="1:11" s="22" customFormat="1" ht="28">
       <c r="A71" s="44"/>
-      <c r="B71" s="45" t="s">
-        <v>117</v>
-      </c>
-      <c r="C71" s="46" t="s">
-        <v>19</v>
-      </c>
+      <c r="B71" s="45"/>
+      <c r="C71" s="46"/>
       <c r="D71" s="46"/>
-      <c r="E71" s="37" t="s">
-        <v>61</v>
-      </c>
+      <c r="E71" s="45"/>
       <c r="F71" s="45"/>
-      <c r="G71" s="37"/>
-      <c r="H71" s="45"/>
-      <c r="I71" s="45" t="s">
-        <v>387</v>
-      </c>
-      <c r="J71" s="45" t="s">
-        <v>386</v>
-      </c>
-      <c r="K71" s="45"/>
-    </row>
-    <row r="72" spans="1:11" s="22" customFormat="1">
+      <c r="G71" s="45" t="s">
+        <v>377</v>
+      </c>
+      <c r="H71" s="39"/>
+      <c r="I71" s="61" t="s">
+        <v>379</v>
+      </c>
+      <c r="J71" s="37" t="s">
+        <v>378</v>
+      </c>
+      <c r="K71" s="39"/>
+    </row>
+    <row r="72" spans="1:11" s="22" customFormat="1" ht="56">
       <c r="A72" s="44"/>
       <c r="B72" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="C72" s="46"/>
+      <c r="C72" s="46" t="s">
+        <v>19</v>
+      </c>
       <c r="D72" s="46"/>
-      <c r="E72" s="37"/>
-      <c r="F72" s="45"/>
-      <c r="G72" s="37"/>
+      <c r="E72" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="F72" s="45" t="s">
+        <v>417</v>
+      </c>
+      <c r="G72" s="45" t="s">
+        <v>119</v>
+      </c>
       <c r="H72" s="45"/>
-      <c r="I72" s="37" t="s">
-        <v>336</v>
-      </c>
-      <c r="J72" s="37" t="s">
-        <v>319</v>
-      </c>
-      <c r="K72" s="45"/>
-    </row>
-    <row r="73" spans="1:11" s="22" customFormat="1" ht="42">
+      <c r="I72" s="45" t="s">
+        <v>418</v>
+      </c>
+      <c r="J72" s="45" t="s">
+        <v>420</v>
+      </c>
+      <c r="K72" s="45" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" s="22" customFormat="1" ht="28">
       <c r="A73" s="44"/>
       <c r="B73" s="45" t="s">
         <v>117</v>
       </c>
       <c r="C73" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="D73" s="46"/>
+      <c r="E73" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="F73" s="45"/>
+      <c r="G73" s="37"/>
+      <c r="H73" s="45"/>
+      <c r="I73" s="45" t="s">
+        <v>385</v>
+      </c>
+      <c r="J73" s="45" t="s">
+        <v>384</v>
+      </c>
+      <c r="K73" s="45"/>
+    </row>
+    <row r="74" spans="1:11" s="22" customFormat="1">
+      <c r="A74" s="44"/>
+      <c r="B74" s="45" t="s">
+        <v>117</v>
+      </c>
+      <c r="C74" s="46"/>
+      <c r="D74" s="46"/>
+      <c r="E74" s="37"/>
+      <c r="F74" s="45"/>
+      <c r="G74" s="37"/>
+      <c r="H74" s="45"/>
+      <c r="I74" s="37" t="s">
+        <v>336</v>
+      </c>
+      <c r="J74" s="37" t="s">
+        <v>319</v>
+      </c>
+      <c r="K74" s="45"/>
+    </row>
+    <row r="75" spans="1:11" s="22" customFormat="1" ht="42">
+      <c r="A75" s="44"/>
+      <c r="B75" s="45" t="s">
+        <v>117</v>
+      </c>
+      <c r="C75" s="46" t="s">
         <v>288</v>
       </c>
-      <c r="D73" s="46"/>
-      <c r="E73" s="45" t="s">
+      <c r="D75" s="46"/>
+      <c r="E75" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="F73" s="37" t="s">
+      <c r="F75" s="37" t="s">
         <v>289</v>
       </c>
-      <c r="G73" s="37" t="s">
+      <c r="G75" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="H73" s="39"/>
-      <c r="I73" s="45" t="s">
-        <v>417</v>
-      </c>
-      <c r="J73" s="45" t="s">
-        <v>416</v>
-      </c>
-      <c r="K73" s="39"/>
-    </row>
-    <row r="74" spans="1:11" s="22" customFormat="1" ht="112">
-      <c r="A74" s="59"/>
-      <c r="B74" s="40" t="s">
-        <v>117</v>
-      </c>
-      <c r="C74" s="60" t="s">
-        <v>19</v>
-      </c>
-      <c r="D74" s="60"/>
-      <c r="E74" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="F74" s="45" t="s">
-        <v>313</v>
-      </c>
-      <c r="G74" s="37" t="s">
-        <v>119</v>
-      </c>
-      <c r="H74" s="39"/>
-      <c r="I74" s="45" t="s">
-        <v>312</v>
-      </c>
-      <c r="J74" s="45" t="s">
-        <v>311</v>
-      </c>
-      <c r="K74" s="39" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" s="22" customFormat="1" ht="42">
-      <c r="A75" s="59"/>
-      <c r="B75" s="40" t="s">
-        <v>117</v>
-      </c>
-      <c r="C75" s="60" t="s">
-        <v>32</v>
-      </c>
-      <c r="D75" s="60"/>
-      <c r="E75" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="F75" s="45"/>
-      <c r="G75" s="45"/>
       <c r="H75" s="39"/>
       <c r="I75" s="45" t="s">
+        <v>414</v>
+      </c>
+      <c r="J75" s="45" t="s">
+        <v>413</v>
+      </c>
+      <c r="K75" s="39"/>
+    </row>
+    <row r="76" spans="1:11" s="22" customFormat="1" ht="112">
+      <c r="A76" s="59"/>
+      <c r="B76" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="C76" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="D76" s="60"/>
+      <c r="E76" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="F76" s="45" t="s">
+        <v>313</v>
+      </c>
+      <c r="G76" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="H76" s="39"/>
+      <c r="I76" s="45" t="s">
+        <v>312</v>
+      </c>
+      <c r="J76" s="45" t="s">
+        <v>311</v>
+      </c>
+      <c r="K76" s="39" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" s="22" customFormat="1" ht="42">
+      <c r="A77" s="59"/>
+      <c r="B77" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="C77" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="D77" s="60"/>
+      <c r="E77" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="F77" s="45"/>
+      <c r="G77" s="45"/>
+      <c r="H77" s="39"/>
+      <c r="I77" s="45" t="s">
         <v>315</v>
       </c>
-      <c r="J75" s="45" t="s">
+      <c r="J77" s="45" t="s">
         <v>314</v>
       </c>
-      <c r="K75" s="39"/>
-    </row>
-    <row r="76" spans="1:11" s="22" customFormat="1" ht="28">
-      <c r="A76" s="44"/>
-      <c r="B76" s="45" t="s">
-        <v>117</v>
-      </c>
-      <c r="C76" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="D76" s="46"/>
-      <c r="E76" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="F76" s="45"/>
-      <c r="G76" s="37"/>
-      <c r="H76" s="45"/>
-      <c r="I76" s="45" t="s">
-        <v>328</v>
-      </c>
-      <c r="J76" s="45" t="s">
-        <v>329</v>
-      </c>
-      <c r="K76" s="45"/>
-    </row>
-    <row r="77" spans="1:11" s="22" customFormat="1">
-      <c r="A77" s="44"/>
-      <c r="B77" s="45" t="s">
-        <v>117</v>
-      </c>
-      <c r="C77" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="D77" s="46"/>
-      <c r="E77" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="F77" s="45"/>
-      <c r="G77" s="37"/>
-      <c r="H77" s="45"/>
-      <c r="I77" s="45" t="s">
-        <v>370</v>
-      </c>
-      <c r="J77" s="45" t="s">
-        <v>329</v>
-      </c>
-      <c r="K77" s="37" t="s">
-        <v>331</v>
-      </c>
+      <c r="K77" s="39"/>
     </row>
     <row r="78" spans="1:11" s="22" customFormat="1" ht="28">
       <c r="A78" s="44"/>
@@ -5793,22 +5820,20 @@
         <v>117</v>
       </c>
       <c r="C78" s="46" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="D78" s="46"/>
       <c r="E78" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="F78" s="45" t="s">
-        <v>318</v>
-      </c>
+      <c r="F78" s="45"/>
       <c r="G78" s="37"/>
       <c r="H78" s="45"/>
       <c r="I78" s="45" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="J78" s="45" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="K78" s="45"/>
     </row>
@@ -5817,19 +5842,25 @@
       <c r="B79" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="C79" s="46"/>
+      <c r="C79" s="46" t="s">
+        <v>19</v>
+      </c>
       <c r="D79" s="46"/>
-      <c r="E79" s="37"/>
+      <c r="E79" s="37" t="s">
+        <v>61</v>
+      </c>
       <c r="F79" s="45"/>
       <c r="G79" s="37"/>
       <c r="H79" s="45"/>
-      <c r="I79" s="37" t="s">
-        <v>320</v>
-      </c>
-      <c r="J79" s="37" t="s">
-        <v>319</v>
-      </c>
-      <c r="K79" s="45"/>
+      <c r="I79" s="45" t="s">
+        <v>368</v>
+      </c>
+      <c r="J79" s="45" t="s">
+        <v>329</v>
+      </c>
+      <c r="K79" s="37" t="s">
+        <v>331</v>
+      </c>
     </row>
     <row r="80" spans="1:11" s="22" customFormat="1" ht="28">
       <c r="A80" s="44"/>
@@ -5840,72 +5871,66 @@
         <v>19</v>
       </c>
       <c r="D80" s="46"/>
-      <c r="E80" s="37"/>
-      <c r="F80" s="45"/>
+      <c r="E80" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="F80" s="45" t="s">
+        <v>318</v>
+      </c>
       <c r="G80" s="37"/>
       <c r="H80" s="45"/>
       <c r="I80" s="45" t="s">
-        <v>371</v>
-      </c>
-      <c r="J80" s="37" t="s">
-        <v>322</v>
+        <v>316</v>
+      </c>
+      <c r="J80" s="45" t="s">
+        <v>317</v>
       </c>
       <c r="K80" s="45"/>
     </row>
-    <row r="81" spans="1:11" s="22" customFormat="1" ht="28">
+    <row r="81" spans="1:11" s="22" customFormat="1">
       <c r="A81" s="44"/>
       <c r="B81" s="45" t="s">
-        <v>323</v>
-      </c>
-      <c r="C81" s="46" t="s">
-        <v>19</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="C81" s="46"/>
       <c r="D81" s="46"/>
-      <c r="E81" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="F81" s="45" t="s">
-        <v>324</v>
-      </c>
+      <c r="E81" s="37"/>
+      <c r="F81" s="45"/>
       <c r="G81" s="37"/>
       <c r="H81" s="45"/>
-      <c r="I81" s="45" t="s">
-        <v>372</v>
-      </c>
-      <c r="J81" s="45" t="s">
-        <v>321</v>
+      <c r="I81" s="37" t="s">
+        <v>320</v>
+      </c>
+      <c r="J81" s="37" t="s">
+        <v>319</v>
       </c>
       <c r="K81" s="45"/>
     </row>
-    <row r="82" spans="1:11" s="22" customFormat="1">
+    <row r="82" spans="1:11" s="22" customFormat="1" ht="28">
       <c r="A82" s="44"/>
       <c r="B82" s="45" t="s">
-        <v>323</v>
+        <v>117</v>
       </c>
       <c r="C82" s="46" t="s">
         <v>19</v>
       </c>
       <c r="D82" s="46"/>
-      <c r="E82" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="F82" s="45" t="s">
-        <v>324</v>
-      </c>
+      <c r="E82" s="37"/>
+      <c r="F82" s="45"/>
       <c r="G82" s="37"/>
       <c r="H82" s="45"/>
       <c r="I82" s="45" t="s">
-        <v>373</v>
-      </c>
-      <c r="J82" s="45" t="s">
-        <v>327</v>
+        <v>369</v>
+      </c>
+      <c r="J82" s="37" t="s">
+        <v>322</v>
       </c>
       <c r="K82" s="45"/>
     </row>
-    <row r="83" spans="1:11" s="22" customFormat="1" ht="56">
+    <row r="83" spans="1:11" s="22" customFormat="1" ht="28">
       <c r="A83" s="44"/>
       <c r="B83" s="45" t="s">
-        <v>117</v>
+        <v>323</v>
       </c>
       <c r="C83" s="46" t="s">
         <v>19</v>
@@ -5915,150 +5940,150 @@
         <v>61</v>
       </c>
       <c r="F83" s="45" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G83" s="37"/>
       <c r="H83" s="45"/>
       <c r="I83" s="45" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="J83" s="45" t="s">
+        <v>321</v>
+      </c>
+      <c r="K83" s="45"/>
+    </row>
+    <row r="84" spans="1:11" s="22" customFormat="1">
+      <c r="A84" s="44"/>
+      <c r="B84" s="45" t="s">
+        <v>323</v>
+      </c>
+      <c r="C84" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="D84" s="46"/>
+      <c r="E84" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="F84" s="45" t="s">
+        <v>324</v>
+      </c>
+      <c r="G84" s="37"/>
+      <c r="H84" s="45"/>
+      <c r="I84" s="45" t="s">
+        <v>371</v>
+      </c>
+      <c r="J84" s="45" t="s">
+        <v>327</v>
+      </c>
+      <c r="K84" s="45"/>
+    </row>
+    <row r="85" spans="1:11" s="22" customFormat="1" ht="56">
+      <c r="A85" s="44"/>
+      <c r="B85" s="45" t="s">
+        <v>117</v>
+      </c>
+      <c r="C85" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="D85" s="46"/>
+      <c r="E85" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="F85" s="45" t="s">
+        <v>325</v>
+      </c>
+      <c r="G85" s="37"/>
+      <c r="H85" s="45"/>
+      <c r="I85" s="45" t="s">
+        <v>372</v>
+      </c>
+      <c r="J85" s="45" t="s">
         <v>326</v>
       </c>
-      <c r="K83" s="45"/>
-    </row>
-    <row r="84" spans="1:11" s="22" customFormat="1">
-      <c r="A84" s="36"/>
-      <c r="B84" s="37" t="s">
-        <v>117</v>
-      </c>
-      <c r="C84" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="D84" s="38"/>
-      <c r="E84" s="39"/>
-      <c r="F84" s="39"/>
-      <c r="G84" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="H84" s="39"/>
-      <c r="I84" s="39"/>
-      <c r="J84" s="39"/>
-      <c r="K84" s="39"/>
-    </row>
-    <row r="85" spans="1:11" s="22" customFormat="1">
-      <c r="A85" s="36"/>
-      <c r="B85" s="37" t="s">
-        <v>117</v>
-      </c>
-      <c r="C85" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="D85" s="38"/>
-      <c r="E85" s="39"/>
-      <c r="F85" s="39"/>
-      <c r="G85" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="H85" s="39"/>
-      <c r="I85" s="39"/>
-      <c r="J85" s="39"/>
-      <c r="K85" s="39"/>
-    </row>
-    <row r="86" spans="1:11" s="22" customFormat="1" ht="42">
+      <c r="K85" s="45"/>
+    </row>
+    <row r="86" spans="1:11" s="22" customFormat="1">
       <c r="A86" s="36"/>
       <c r="B86" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="C86" s="38"/>
+        <v>117</v>
+      </c>
+      <c r="C86" s="38" t="s">
+        <v>34</v>
+      </c>
       <c r="D86" s="38"/>
       <c r="E86" s="39"/>
       <c r="F86" s="39"/>
-      <c r="G86" s="39"/>
+      <c r="G86" s="39" t="s">
+        <v>35</v>
+      </c>
       <c r="H86" s="39"/>
-      <c r="I86" s="39" t="s">
+      <c r="I86" s="39"/>
+      <c r="J86" s="39"/>
+      <c r="K86" s="39"/>
+    </row>
+    <row r="87" spans="1:11" s="22" customFormat="1">
+      <c r="A87" s="36"/>
+      <c r="B87" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="C87" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="D87" s="38"/>
+      <c r="E87" s="39"/>
+      <c r="F87" s="39"/>
+      <c r="G87" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="H87" s="39"/>
+      <c r="I87" s="39"/>
+      <c r="J87" s="39"/>
+      <c r="K87" s="39"/>
+    </row>
+    <row r="88" spans="1:11" ht="42">
+      <c r="A88" s="36"/>
+      <c r="B88" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C88" s="38"/>
+      <c r="D88" s="38"/>
+      <c r="E88" s="39"/>
+      <c r="F88" s="39"/>
+      <c r="G88" s="39"/>
+      <c r="H88" s="39"/>
+      <c r="I88" s="39" t="s">
         <v>300</v>
       </c>
-      <c r="J86" s="39" t="s">
+      <c r="J88" s="39" t="s">
         <v>299</v>
       </c>
-      <c r="K86" s="39"/>
-    </row>
-    <row r="87" spans="1:11" ht="28">
-      <c r="A87" s="44"/>
-      <c r="B87" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="C87" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="D87" s="46"/>
-      <c r="E87" s="37"/>
-      <c r="F87" s="45"/>
-      <c r="G87" s="45" t="s">
-        <v>452</v>
-      </c>
-      <c r="H87" s="45"/>
-      <c r="I87" s="45"/>
-      <c r="J87" s="45"/>
-      <c r="K87" s="45" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" ht="98">
-      <c r="A88" s="44"/>
-      <c r="B88" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="C88" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="D88" s="46"/>
-      <c r="E88" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="F88" s="45" t="s">
-        <v>60</v>
-      </c>
-      <c r="G88" s="45" t="s">
-        <v>246</v>
-      </c>
-      <c r="H88" s="45"/>
-      <c r="I88" s="37" t="s">
-        <v>244</v>
-      </c>
-      <c r="J88" s="45"/>
-      <c r="K88" s="45" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" s="52" customFormat="1">
+      <c r="K88" s="39"/>
+    </row>
+    <row r="89" spans="1:11" ht="28">
       <c r="A89" s="44"/>
       <c r="B89" s="45" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="C89" s="46" t="s">
         <v>19</v>
       </c>
       <c r="D89" s="46"/>
-      <c r="E89" s="45" t="s">
-        <v>61</v>
-      </c>
+      <c r="E89" s="37"/>
       <c r="F89" s="45"/>
       <c r="G89" s="45" t="s">
-        <v>246</v>
+        <v>449</v>
       </c>
       <c r="H89" s="45"/>
       <c r="I89" s="45"/>
-      <c r="J89" s="45" t="s">
-        <v>76</v>
-      </c>
-      <c r="K89" s="45"/>
-    </row>
-    <row r="90" spans="1:11" s="53" customFormat="1">
+      <c r="J89" s="45"/>
+      <c r="K89" s="45" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" s="53" customFormat="1" ht="98">
       <c r="A90" s="44"/>
       <c r="B90" s="45" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="C90" s="46" t="s">
         <v>19</v>
@@ -6067,24 +6092,28 @@
       <c r="E90" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="F90" s="45"/>
+      <c r="F90" s="45" t="s">
+        <v>60</v>
+      </c>
       <c r="G90" s="45" t="s">
         <v>246</v>
       </c>
       <c r="H90" s="45"/>
-      <c r="I90" s="45"/>
-      <c r="J90" s="45" t="s">
-        <v>76</v>
-      </c>
-      <c r="K90" s="45"/>
-    </row>
-    <row r="91" spans="1:11" s="53" customFormat="1">
+      <c r="I90" s="37" t="s">
+        <v>244</v>
+      </c>
+      <c r="J90" s="45"/>
+      <c r="K90" s="45" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" s="52" customFormat="1">
       <c r="A91" s="44"/>
       <c r="B91" s="45" t="s">
         <v>71</v>
       </c>
       <c r="C91" s="46" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="D91" s="46"/>
       <c r="E91" s="45" t="s">
@@ -6092,19 +6121,19 @@
       </c>
       <c r="F91" s="45"/>
       <c r="G91" s="45" t="s">
-        <v>72</v>
+        <v>246</v>
       </c>
       <c r="H91" s="45"/>
       <c r="I91" s="45"/>
       <c r="J91" s="45" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K91" s="45"/>
     </row>
     <row r="92" spans="1:11" s="53" customFormat="1">
       <c r="A92" s="44"/>
       <c r="B92" s="45" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C92" s="46" t="s">
         <v>19</v>
@@ -6115,66 +6144,58 @@
       </c>
       <c r="F92" s="45"/>
       <c r="G92" s="45" t="s">
-        <v>72</v>
+        <v>246</v>
       </c>
       <c r="H92" s="45"/>
       <c r="I92" s="45"/>
       <c r="J92" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="K92" s="45" t="s">
-        <v>74</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="K92" s="45"/>
     </row>
     <row r="93" spans="1:11" s="53" customFormat="1">
       <c r="A93" s="44"/>
       <c r="B93" s="45" t="s">
-        <v>261</v>
+        <v>71</v>
       </c>
       <c r="C93" s="46" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="D93" s="46"/>
-      <c r="E93" s="37" t="s">
-        <v>65</v>
+      <c r="E93" s="45" t="s">
+        <v>61</v>
       </c>
       <c r="F93" s="45"/>
       <c r="G93" s="45" t="s">
-        <v>259</v>
-      </c>
-      <c r="H93" s="45" t="s">
-        <v>260</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="H93" s="45"/>
       <c r="I93" s="45"/>
-      <c r="J93" s="45"/>
-      <c r="K93" s="45" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" s="53" customFormat="1" ht="28">
+      <c r="J93" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="K93" s="45"/>
+    </row>
+    <row r="94" spans="1:11" s="53" customFormat="1">
       <c r="A94" s="44"/>
       <c r="B94" s="45" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C94" s="46" t="s">
         <v>19</v>
       </c>
       <c r="D94" s="46"/>
       <c r="E94" s="45" t="s">
-        <v>118</v>
-      </c>
-      <c r="F94" s="45" t="s">
-        <v>83</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F94" s="45"/>
       <c r="G94" s="45" t="s">
-        <v>196</v>
-      </c>
-      <c r="H94" s="45" t="s">
-        <v>202</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="H94" s="45"/>
       <c r="I94" s="45"/>
       <c r="J94" s="45" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K94" s="45" t="s">
         <v>74</v>
@@ -6183,32 +6204,32 @@
     <row r="95" spans="1:11" s="53" customFormat="1">
       <c r="A95" s="44"/>
       <c r="B95" s="45" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C95" s="46" t="s">
         <v>19</v>
       </c>
       <c r="D95" s="46"/>
-      <c r="E95" s="45" t="s">
-        <v>118</v>
+      <c r="E95" s="37" t="s">
+        <v>65</v>
       </c>
       <c r="F95" s="45"/>
       <c r="G95" s="45" t="s">
         <v>259</v>
       </c>
       <c r="H95" s="45" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="I95" s="45"/>
-      <c r="J95" s="45" t="s">
-        <v>404</v>
-      </c>
-      <c r="K95" s="45"/>
-    </row>
-    <row r="96" spans="1:11" s="53" customFormat="1">
+      <c r="J95" s="45"/>
+      <c r="K95" s="45" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" s="53" customFormat="1" ht="28">
       <c r="A96" s="44"/>
       <c r="B96" s="45" t="s">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="C96" s="46" t="s">
         <v>19</v>
@@ -6217,23 +6238,27 @@
       <c r="E96" s="45" t="s">
         <v>118</v>
       </c>
-      <c r="F96" s="45"/>
+      <c r="F96" s="45" t="s">
+        <v>83</v>
+      </c>
       <c r="G96" s="45" t="s">
-        <v>259</v>
+        <v>196</v>
       </c>
       <c r="H96" s="45" t="s">
-        <v>401</v>
+        <v>202</v>
       </c>
       <c r="I96" s="45"/>
       <c r="J96" s="45" t="s">
-        <v>403</v>
-      </c>
-      <c r="K96" s="45"/>
+        <v>82</v>
+      </c>
+      <c r="K96" s="45" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="97" spans="1:11" s="53" customFormat="1">
       <c r="A97" s="44"/>
       <c r="B97" s="45" t="s">
-        <v>399</v>
+        <v>263</v>
       </c>
       <c r="C97" s="46" t="s">
         <v>19</v>
@@ -6243,11 +6268,11 @@
         <v>118</v>
       </c>
       <c r="F97" s="45"/>
-      <c r="G97" s="37" t="s">
+      <c r="G97" s="45" t="s">
         <v>259</v>
       </c>
       <c r="H97" s="45" t="s">
-        <v>398</v>
+        <v>262</v>
       </c>
       <c r="I97" s="45"/>
       <c r="J97" s="45" t="s">
@@ -6255,10 +6280,10 @@
       </c>
       <c r="K97" s="45"/>
     </row>
-    <row r="98" spans="1:11" s="53" customFormat="1" ht="42">
+    <row r="98" spans="1:11" s="53" customFormat="1">
       <c r="A98" s="44"/>
       <c r="B98" s="45" t="s">
-        <v>203</v>
+        <v>398</v>
       </c>
       <c r="C98" s="46" t="s">
         <v>19</v>
@@ -6269,73 +6294,89 @@
       </c>
       <c r="F98" s="45"/>
       <c r="G98" s="45" t="s">
-        <v>204</v>
+        <v>259</v>
       </c>
       <c r="H98" s="45" t="s">
-        <v>205</v>
-      </c>
-      <c r="I98" s="45" t="s">
-        <v>358</v>
-      </c>
+        <v>399</v>
+      </c>
+      <c r="I98" s="45"/>
       <c r="J98" s="45" t="s">
-        <v>405</v>
-      </c>
-      <c r="K98" s="45" t="s">
-        <v>359</v>
-      </c>
+        <v>401</v>
+      </c>
+      <c r="K98" s="45"/>
     </row>
     <row r="99" spans="1:11" s="53" customFormat="1">
       <c r="A99" s="44"/>
-      <c r="B99" s="45"/>
-      <c r="C99" s="46"/>
+      <c r="B99" s="45" t="s">
+        <v>397</v>
+      </c>
+      <c r="C99" s="46" t="s">
+        <v>19</v>
+      </c>
       <c r="D99" s="46"/>
-      <c r="E99" s="45"/>
+      <c r="E99" s="45" t="s">
+        <v>118</v>
+      </c>
       <c r="F99" s="45"/>
-      <c r="G99" s="45" t="s">
-        <v>406</v>
-      </c>
-      <c r="H99" s="37" t="s">
-        <v>407</v>
+      <c r="G99" s="37" t="s">
+        <v>259</v>
+      </c>
+      <c r="H99" s="45" t="s">
+        <v>396</v>
       </c>
       <c r="I99" s="45"/>
       <c r="J99" s="45" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="K99" s="45"/>
     </row>
-    <row r="100" spans="1:11" s="52" customFormat="1">
-      <c r="A100" s="36"/>
-      <c r="B100" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="C100" s="38"/>
-      <c r="D100" s="38"/>
-      <c r="E100" s="39"/>
-      <c r="F100" s="39"/>
-      <c r="G100" s="39"/>
-      <c r="H100" s="39"/>
-      <c r="I100" s="39"/>
-      <c r="J100" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="K100" s="39"/>
-    </row>
-    <row r="101" spans="1:11" s="52" customFormat="1">
-      <c r="A101" s="36"/>
-      <c r="B101" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="C101" s="38"/>
-      <c r="D101" s="38"/>
-      <c r="E101" s="39"/>
-      <c r="F101" s="39"/>
-      <c r="G101" s="39"/>
-      <c r="H101" s="39"/>
-      <c r="I101" s="39"/>
-      <c r="J101" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="K101" s="39"/>
+    <row r="100" spans="1:11" s="53" customFormat="1" ht="182">
+      <c r="A100" s="44"/>
+      <c r="B100" s="45" t="s">
+        <v>203</v>
+      </c>
+      <c r="C100" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="D100" s="46"/>
+      <c r="E100" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="F100" s="45"/>
+      <c r="G100" s="45" t="s">
+        <v>204</v>
+      </c>
+      <c r="H100" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="I100" s="45" t="s">
+        <v>464</v>
+      </c>
+      <c r="J100" s="45" t="s">
+        <v>465</v>
+      </c>
+      <c r="K100" s="45" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" s="53" customFormat="1">
+      <c r="A101" s="44"/>
+      <c r="B101" s="45"/>
+      <c r="C101" s="46"/>
+      <c r="D101" s="46"/>
+      <c r="E101" s="45"/>
+      <c r="F101" s="45"/>
+      <c r="G101" s="45" t="s">
+        <v>403</v>
+      </c>
+      <c r="H101" s="37" t="s">
+        <v>404</v>
+      </c>
+      <c r="I101" s="45"/>
+      <c r="J101" s="45" t="s">
+        <v>405</v>
+      </c>
+      <c r="K101" s="45"/>
     </row>
     <row r="102" spans="1:11" s="52" customFormat="1">
       <c r="A102" s="36"/>
@@ -6350,14 +6391,14 @@
       <c r="H102" s="39"/>
       <c r="I102" s="39"/>
       <c r="J102" s="39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K102" s="39"/>
     </row>
-    <row r="103" spans="1:11" s="52" customFormat="1" ht="42">
+    <row r="103" spans="1:11" s="52" customFormat="1">
       <c r="A103" s="36"/>
-      <c r="B103" s="45" t="s">
-        <v>249</v>
+      <c r="B103" s="39" t="s">
+        <v>37</v>
       </c>
       <c r="C103" s="38"/>
       <c r="D103" s="38"/>
@@ -6365,53 +6406,57 @@
       <c r="F103" s="39"/>
       <c r="G103" s="39"/>
       <c r="H103" s="39"/>
-      <c r="I103" s="39" t="s">
-        <v>465</v>
-      </c>
+      <c r="I103" s="39"/>
       <c r="J103" s="39" t="s">
-        <v>466</v>
+        <v>58</v>
       </c>
       <c r="K103" s="39"/>
     </row>
     <row r="104" spans="1:11" s="52" customFormat="1">
-      <c r="A104" s="15"/>
-      <c r="B104" s="15"/>
-      <c r="C104" s="15"/>
-      <c r="D104" s="15"/>
-      <c r="E104" s="15"/>
-      <c r="F104" s="15"/>
-      <c r="G104" s="42"/>
-      <c r="H104" s="15"/>
-      <c r="I104" s="15"/>
-      <c r="J104" s="15"/>
-      <c r="K104" s="15"/>
-    </row>
-    <row r="105" spans="1:11">
-      <c r="A105" s="15"/>
-      <c r="B105" s="15"/>
-      <c r="C105" s="16"/>
-      <c r="D105" s="16"/>
-      <c r="E105" s="15"/>
-      <c r="F105" s="15"/>
-      <c r="G105" s="42"/>
-      <c r="H105" s="15"/>
-      <c r="I105" s="15"/>
-      <c r="J105" s="15"/>
-      <c r="K105" s="15"/>
-    </row>
-    <row r="106" spans="1:11">
+      <c r="A104" s="36"/>
+      <c r="B104" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C104" s="38"/>
+      <c r="D104" s="38"/>
+      <c r="E104" s="39"/>
+      <c r="F104" s="39"/>
+      <c r="G104" s="39"/>
+      <c r="H104" s="39"/>
+      <c r="I104" s="39"/>
+      <c r="J104" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="K104" s="39"/>
+    </row>
+    <row r="105" spans="1:11" s="52" customFormat="1" ht="42">
+      <c r="A105" s="36"/>
+      <c r="B105" s="45" t="s">
+        <v>249</v>
+      </c>
+      <c r="C105" s="38"/>
+      <c r="D105" s="38"/>
+      <c r="E105" s="39"/>
+      <c r="F105" s="39"/>
+      <c r="G105" s="39"/>
+      <c r="H105" s="39"/>
+      <c r="I105" s="39" t="s">
+        <v>462</v>
+      </c>
+      <c r="J105" s="39" t="s">
+        <v>463</v>
+      </c>
+      <c r="K105" s="39"/>
+    </row>
+    <row r="106" spans="1:11" s="52" customFormat="1">
       <c r="A106" s="15"/>
       <c r="B106" s="15"/>
-      <c r="C106" s="16"/>
-      <c r="D106" s="16"/>
+      <c r="C106" s="15"/>
+      <c r="D106" s="15"/>
       <c r="E106" s="15"/>
       <c r="F106" s="15"/>
-      <c r="G106" s="57" t="s">
-        <v>39</v>
-      </c>
-      <c r="H106" s="58" t="s">
-        <v>40</v>
-      </c>
+      <c r="G106" s="42"/>
+      <c r="H106" s="15"/>
       <c r="I106" s="15"/>
       <c r="J106" s="15"/>
       <c r="K106" s="15"/>
@@ -6423,12 +6468,8 @@
       <c r="D107" s="16"/>
       <c r="E107" s="15"/>
       <c r="F107" s="15"/>
-      <c r="G107" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="H107" s="34" t="s">
-        <v>42</v>
-      </c>
+      <c r="G107" s="42"/>
+      <c r="H107" s="15"/>
       <c r="I107" s="15"/>
       <c r="J107" s="15"/>
       <c r="K107" s="15"/>
@@ -6440,11 +6481,11 @@
       <c r="D108" s="16"/>
       <c r="E108" s="15"/>
       <c r="F108" s="15"/>
-      <c r="G108" s="42" t="s">
-        <v>167</v>
-      </c>
-      <c r="H108" s="15" t="s">
-        <v>43</v>
+      <c r="G108" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="H108" s="58" t="s">
+        <v>40</v>
       </c>
       <c r="I108" s="15"/>
       <c r="J108" s="15"/>
@@ -6457,11 +6498,11 @@
       <c r="D109" s="16"/>
       <c r="E109" s="15"/>
       <c r="F109" s="15"/>
-      <c r="G109" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="H109" s="15" t="s">
-        <v>45</v>
+      <c r="G109" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="H109" s="34" t="s">
+        <v>42</v>
       </c>
       <c r="I109" s="15"/>
       <c r="J109" s="15"/>
@@ -6475,10 +6516,10 @@
       <c r="E110" s="15"/>
       <c r="F110" s="15"/>
       <c r="G110" s="42" t="s">
-        <v>46</v>
+        <v>167</v>
       </c>
       <c r="H110" s="15" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I110" s="15"/>
       <c r="J110" s="15"/>
@@ -6492,10 +6533,10 @@
       <c r="E111" s="15"/>
       <c r="F111" s="15"/>
       <c r="G111" s="42" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H111" s="15" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I111" s="15"/>
       <c r="J111" s="15"/>
@@ -6509,10 +6550,10 @@
       <c r="E112" s="15"/>
       <c r="F112" s="15"/>
       <c r="G112" s="42" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H112" s="15" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="I112" s="15"/>
       <c r="J112" s="15"/>
@@ -6526,9 +6567,11 @@
       <c r="E113" s="15"/>
       <c r="F113" s="15"/>
       <c r="G113" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="H113" s="15"/>
+        <v>48</v>
+      </c>
+      <c r="H113" s="15" t="s">
+        <v>49</v>
+      </c>
       <c r="I113" s="15"/>
       <c r="J113" s="15"/>
       <c r="K113" s="15"/>
@@ -6541,10 +6584,10 @@
       <c r="E114" s="15"/>
       <c r="F114" s="15"/>
       <c r="G114" s="42" t="s">
-        <v>286</v>
+        <v>50</v>
       </c>
       <c r="H114" s="15" t="s">
-        <v>287</v>
+        <v>51</v>
       </c>
       <c r="I114" s="15"/>
       <c r="J114" s="15"/>
@@ -6558,11 +6601,9 @@
       <c r="E115" s="15"/>
       <c r="F115" s="15"/>
       <c r="G115" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="H115" s="15" t="s">
-        <v>123</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="H115" s="15"/>
       <c r="I115" s="15"/>
       <c r="J115" s="15"/>
       <c r="K115" s="15"/>
@@ -6575,10 +6616,10 @@
       <c r="E116" s="15"/>
       <c r="F116" s="15"/>
       <c r="G116" s="42" t="s">
-        <v>121</v>
+        <v>286</v>
       </c>
       <c r="H116" s="15" t="s">
-        <v>122</v>
+        <v>287</v>
       </c>
       <c r="I116" s="15"/>
       <c r="J116" s="15"/>
@@ -6592,10 +6633,10 @@
       <c r="E117" s="15"/>
       <c r="F117" s="15"/>
       <c r="G117" s="42" t="s">
-        <v>162</v>
+        <v>53</v>
       </c>
       <c r="H117" s="15" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="I117" s="15"/>
       <c r="J117" s="15"/>
@@ -6609,10 +6650,10 @@
       <c r="E118" s="15"/>
       <c r="F118" s="15"/>
       <c r="G118" s="42" t="s">
-        <v>54</v>
+        <v>121</v>
       </c>
       <c r="H118" s="15" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="I118" s="15"/>
       <c r="J118" s="15"/>
@@ -6625,24 +6666,58 @@
       <c r="D119" s="16"/>
       <c r="E119" s="15"/>
       <c r="F119" s="15"/>
-      <c r="G119" s="42"/>
-      <c r="H119" s="15"/>
+      <c r="G119" s="42" t="s">
+        <v>162</v>
+      </c>
+      <c r="H119" s="15" t="s">
+        <v>120</v>
+      </c>
       <c r="I119" s="15"/>
       <c r="J119" s="15"/>
       <c r="K119" s="15"/>
     </row>
     <row r="120" spans="1:11">
+      <c r="A120" s="15"/>
+      <c r="B120" s="15"/>
+      <c r="C120" s="16"/>
+      <c r="D120" s="16"/>
+      <c r="E120" s="15"/>
+      <c r="F120" s="15"/>
       <c r="G120" s="42" t="s">
-        <v>124</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="H120" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="I120" s="15"/>
+      <c r="J120" s="15"/>
+      <c r="K120" s="15"/>
     </row>
     <row r="121" spans="1:11">
-      <c r="G121" s="42" t="s">
-        <v>126</v>
-      </c>
+      <c r="A121" s="15"/>
+      <c r="B121" s="15"/>
+      <c r="C121" s="16"/>
+      <c r="D121" s="16"/>
+      <c r="E121" s="15"/>
+      <c r="F121" s="15"/>
+      <c r="G121" s="42"/>
+      <c r="H121" s="15"/>
+      <c r="I121" s="15"/>
+      <c r="J121" s="15"/>
+      <c r="K121" s="15"/>
     </row>
     <row r="122" spans="1:11">
       <c r="G122" s="42" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
+      <c r="G123" s="42" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
+      <c r="G124" s="42" t="s">
         <v>139</v>
       </c>
     </row>

--- a/inventory/INVENTORY OF PYU INSCRIPTIONS.xlsx
+++ b/inventory/INVENTORY OF PYU INSCRIPTIONS.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="24030"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1480" windowWidth="28780" windowHeight="11660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28460" windowHeight="9020"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" calcMode="manual" iterate="1" iterateCount="1" iterateDelta="0" concurrentCalc="0"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="500">
   <si>
     <r>
       <t>Building of a shrine by Prince R</t>
@@ -108,9 +108,6 @@
     <t>Duroiselle indicates that the urn was in the Archaeological Office at Mandalay at the time he wrote.</t>
   </si>
   <si>
-    <t>See also PYU25.</t>
-  </si>
-  <si>
     <t>Myazedi pagoda, Myinkaba, Pagan</t>
   </si>
   <si>
@@ -120,9 +117,6 @@
     <t>in situ</t>
   </si>
   <si>
-    <t>During or after the Chinese invasion of Pagan in 1287 CE</t>
-  </si>
-  <si>
     <t>Near the Tharaba gate, Pagan</t>
   </si>
   <si>
@@ -144,9 +138,6 @@
     <t>3</t>
   </si>
   <si>
-    <t>Shwegyobin</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -216,9 +207,6 @@
     <t>silver bowl</t>
   </si>
   <si>
-    <t>Chaem Kawklai</t>
-  </si>
-  <si>
     <t>Mahlo</t>
   </si>
   <si>
@@ -243,18 +231,12 @@
     <t>Pali</t>
   </si>
   <si>
-    <t>Pyu; Pali in LSB and Mon scripts; Mon?</t>
-  </si>
-  <si>
     <t>29+</t>
   </si>
   <si>
     <t>Pali (&amp;Pyu?)</t>
   </si>
   <si>
-    <t>Nay Pyi Taw Nat. Mus, 1/3/1994</t>
-  </si>
-  <si>
     <t>A:19, B:4</t>
   </si>
   <si>
@@ -354,12 +336,6 @@
     <t>earthenware urn</t>
   </si>
   <si>
-    <t xml:space="preserve"> stone funerary tablet</t>
-  </si>
-  <si>
-    <t>stone funerary tablet</t>
-  </si>
-  <si>
     <t>RTI</t>
   </si>
   <si>
@@ -498,9 +474,6 @@
     </r>
   </si>
   <si>
-    <t>Blagden 1912, 127 (6). — Chen Yi-Sein 1960. — PPPB I, 67, 76 n. 38-39.</t>
-  </si>
-  <si>
     <t>According to Luce, read by Blagden but his reading never published.</t>
   </si>
   <si>
@@ -604,18 +577,6 @@
     <t>ASB</t>
   </si>
   <si>
-    <t>Blagden 1912 (D1). — ASB 1913, 9-10, 14. — ASI 1913, pt. i 29. — PR, 47 (D), 51. — PPPB I, 48, 57 n. 13, 126-7.</t>
-  </si>
-  <si>
-    <t>Blagden 1912 (C). — ASB 1913, 13-4. — ASI 1913, pt. i 29. — PR, 47 (C), 51. — PPPB I, 48, 57 n. 13, 126-7.</t>
-  </si>
-  <si>
-    <t>Blagden 1912 (A). — ASB 1912, 11. — ASI 1912, 147. — PR, 47 (A), 50. — PPPB I, 48, 57 n. 13, 126-7.</t>
-  </si>
-  <si>
-    <t>ASI 1909-10, p. 120, pl. 50. — Blagden 1912, 127 (2). — PPPB I, 129.</t>
-  </si>
-  <si>
     <t>ASI</t>
   </si>
   <si>
@@ -645,18 +606,138 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>Blagden 1912, 127 (5).</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> — ASB </t>
-    </r>
+    <t>Sriksetra Museum, nr. 2013/6/39</t>
+  </si>
+  <si>
+    <t>Sriksetra Museum, nr. 2013/1/2</t>
+  </si>
+  <si>
+    <t>Sriksetra Museum, nr. 2013/1/1</t>
+  </si>
+  <si>
+    <t>Sriksetra Museum, nr. 2013/1/3</t>
+  </si>
+  <si>
+    <t>Sriksetra Museum, nr. 2014/1/4</t>
+  </si>
+  <si>
+    <t>in situ: Sriksetra Museum, nr. 2013/1/72</t>
+  </si>
+  <si>
+    <t>Sriksetra Museum, nr. 2013/1/48</t>
+  </si>
+  <si>
+    <t>Sriksetra Museum, nr. 2013/1/51</t>
+  </si>
+  <si>
+    <t>Sriksetra Museum, nr. 2013/1/52</t>
+  </si>
+  <si>
+    <t>Sriksetra Museum, nr. 2014/1/47</t>
+  </si>
+  <si>
+    <t>Sriksetra Museum, nr. 2013/1/76 in first Kyauk Ka Thein shed</t>
+  </si>
+  <si>
+    <t>Sriksetra Museum, nr. 2013/1/78, in second Kyauk Ka Thein shed</t>
+  </si>
+  <si>
+    <t>Sriksetra Museum, nr. 2013/1/49</t>
+  </si>
+  <si>
+    <t>Sriksetra Museum, nr. 2013/1/50</t>
+  </si>
+  <si>
+    <t>Sriksetra Museum, nr. 2013/1/53</t>
+  </si>
+  <si>
+    <t>Sriksetra Museum, nr. 2013/1/75, in first Kyaukkathein shed</t>
+  </si>
+  <si>
+    <t>Sriksetra Museum, nr. 2013/5/19</t>
+  </si>
+  <si>
+    <t>Sriksetra Museum, nr. 2013/5/20</t>
+  </si>
+  <si>
+    <t>Sriksetra Museum, nr. 2013/5/22</t>
+  </si>
+  <si>
+    <t>Sriksetra Museum, nr. 2013/5/25a</t>
+  </si>
+  <si>
+    <t>Sriksetra Museum, nr. 2013/5/25b</t>
+  </si>
+  <si>
+    <t>Sriksetra Museum, nr. 2013/5/25.4</t>
+  </si>
+  <si>
+    <t>Sriksetra Museum, nr. 2013/4/5</t>
+  </si>
+  <si>
+    <t>horse-shoe shaped stone</t>
+  </si>
+  <si>
+    <t>stone fragment</t>
+  </si>
+  <si>
+    <t>stone relief-sculpture</t>
+  </si>
+  <si>
+    <t>megalithic relief sculpture</t>
+  </si>
+  <si>
+    <t>base of megalithic relief sculpture</t>
+  </si>
+  <si>
+    <t>kumbharāśi</t>
+  </si>
+  <si>
+    <t>white intaglio</t>
+  </si>
+  <si>
+    <t>Nyaung Ku Pay monastery, Halin</t>
+  </si>
+  <si>
+    <t>dayādānaṁ</t>
+  </si>
+  <si>
+    <t>Halin Museum, without nr.</t>
+  </si>
+  <si>
+    <t>h:4.5, dia:21</t>
+  </si>
+  <si>
+    <t>h:&gt;67, w:38, d:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">formerly Pagan Museum, nr. 96; presently Halin Museum, nr. 2014/1/25 </t>
+  </si>
+  <si>
+    <t>±12</t>
+  </si>
+  <si>
+    <t>socle of stone Buddha image</t>
+  </si>
+  <si>
+    <t>A:6, B:5, C:5, D:5</t>
+  </si>
+  <si>
+    <t>h:139, w:50, d:15</t>
+  </si>
+  <si>
+    <t>For sun+moon symbol, here damaged, see PYU61</t>
+  </si>
+  <si>
+    <t>Halin inscription shed, nr. 8</t>
+  </si>
+  <si>
+    <t>h:148, w:136, d:30</t>
+  </si>
+  <si>
+    <t>Halin inscription shed, nr. 1</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -664,168 +745,6 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t>1912</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, 12 §37.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <t>Sriksetra Museum, nr. 2013/6/39</t>
-  </si>
-  <si>
-    <t>Sriksetra Museum, nr. 2013/1/2</t>
-  </si>
-  <si>
-    <t>Sriksetra Museum, nr. 2013/1/1</t>
-  </si>
-  <si>
-    <t>Sriksetra Museum, nr. 2013/1/3</t>
-  </si>
-  <si>
-    <t>Sriksetra Museum, nr. 2014/1/4</t>
-  </si>
-  <si>
-    <t>in situ: Sriksetra Museum, nr. 2013/1/72</t>
-  </si>
-  <si>
-    <t>Sriksetra Museum, nr. 2013/1/48</t>
-  </si>
-  <si>
-    <t>Sriksetra Museum, nr. 2013/1/51</t>
-  </si>
-  <si>
-    <t>Sriksetra Museum, nr. 2013/1/52</t>
-  </si>
-  <si>
-    <t>Sriksetra Museum, nr. 2014/1/47</t>
-  </si>
-  <si>
-    <t>Sriksetra Museum, nr. 2013/1/76 in first Kyauk Ka Thein shed</t>
-  </si>
-  <si>
-    <t>Sriksetra Museum, nr. 2013/1/78, in second Kyauk Ka Thein shed</t>
-  </si>
-  <si>
-    <t>Sriksetra Museum, nr. 2013/1/49</t>
-  </si>
-  <si>
-    <t>Sriksetra Museum, nr. 2013/1/50</t>
-  </si>
-  <si>
-    <t>Sriksetra Museum, nr. 2013/1/53</t>
-  </si>
-  <si>
-    <t>Sriksetra Museum, nr. 2013/1/75, in first Kyaukkathein shed</t>
-  </si>
-  <si>
-    <t>Sriksetra Museum, nr. 2013/5/19</t>
-  </si>
-  <si>
-    <t>Sriksetra Museum, nr. 2013/5/20</t>
-  </si>
-  <si>
-    <t>Sriksetra Museum, nr. 2013/5/22</t>
-  </si>
-  <si>
-    <t>Sriksetra Museum, nr. 2013/5/25a</t>
-  </si>
-  <si>
-    <t>Sriksetra Museum, nr. 2013/5/25b</t>
-  </si>
-  <si>
-    <t>Sriksetra Museum, nr. 2013/5/25.4</t>
-  </si>
-  <si>
-    <t>Sriksetra Museum, nr. 2013/4/5</t>
-  </si>
-  <si>
-    <t>horse-shoe shaped stone</t>
-  </si>
-  <si>
-    <t>stone fragment</t>
-  </si>
-  <si>
-    <t>stone relief-sculpture</t>
-  </si>
-  <si>
-    <t>megalithic relief sculpture</t>
-  </si>
-  <si>
-    <t>base of megalithic relief sculpture</t>
-  </si>
-  <si>
-    <t>kumbharāśi</t>
-  </si>
-  <si>
-    <t>white intaglio</t>
-  </si>
-  <si>
-    <t>Nyaung Ku Pay monastery, Halin</t>
-  </si>
-  <si>
-    <t>dayādānaṁ</t>
-  </si>
-  <si>
-    <t>Halin Museum, without nr.</t>
-  </si>
-  <si>
-    <t>h:4.5, dia:21</t>
-  </si>
-  <si>
-    <t>h:&gt;67, w:38, d:20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">formerly Pagan Museum, nr. 96; presently Halin Museum, nr. 2014/1/25 </t>
-  </si>
-  <si>
-    <t>±12</t>
-  </si>
-  <si>
-    <t>socle of stone Buddha image</t>
-  </si>
-  <si>
-    <t>A:6, B:5, C:5, D:5</t>
-  </si>
-  <si>
-    <t>h:139, w:50, d:15</t>
-  </si>
-  <si>
-    <t>For sun+moon symbol, here damaged, see PYU61</t>
-  </si>
-  <si>
-    <t>Halin inscription shed, nr. 8</t>
-  </si>
-  <si>
-    <t>h:148, w:136, d:30</t>
-  </si>
-  <si>
-    <t>Halin inscription shed, nr. 1</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>ASB 1964, 59.</t>
     </r>
     <r>
@@ -842,9 +761,6 @@
     <t>Halin, NE part of the city, 2 furlongs N of palace site</t>
   </si>
   <si>
-    <t>W bank of Nagayon lake, Halin</t>
-  </si>
-  <si>
     <t>traces of 3</t>
   </si>
   <si>
@@ -854,9 +770,6 @@
     <t>Halin inscription shed, nr. 9</t>
   </si>
   <si>
-    <t>S of Tagantha village, near Halin</t>
-  </si>
-  <si>
     <t>Halin inscription shed, nr. 17</t>
   </si>
   <si>
@@ -864,9 +777,6 @@
   </si>
   <si>
     <t>h:34, w:22, d:11</t>
-  </si>
-  <si>
-    <t>400 ft. S of Shwegugyi (near HL26)</t>
   </si>
   <si>
     <t>a well-preserved specimen of the type of sun+moon symbol seen, in damaged from, on PYU17</t>
@@ -948,9 +858,6 @@
     <t>ASB 1964-65, 37 §9. — Skilling 1997b: 153. — Maung Maung Swe.</t>
   </si>
   <si>
-    <t>PPPB II, pl. 54.</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">IB IV, 355a. — </t>
     </r>
@@ -983,9 +890,6 @@
     </r>
   </si>
   <si>
-    <t>PPPB II, pl. 5ef, 6d.</t>
-  </si>
-  <si>
     <t>found in 1966; text almost entirely obliterated.</t>
   </si>
   <si>
@@ -998,9 +902,6 @@
     <t>Joost Buschman, priv. collection</t>
   </si>
   <si>
-    <t>ASI 1909-10, 123.</t>
-  </si>
-  <si>
     <t>unknown; formerly at Archaeological office, Mandalay</t>
   </si>
   <si>
@@ -1070,6 +971,101 @@
     <t>Pagan Museum, nr. 74</t>
   </si>
   <si>
+    <t>h:39, dia:38</t>
+  </si>
+  <si>
+    <t>PR, 78. — PPPB I, 50, 57 n. 22, 150.</t>
+  </si>
+  <si>
+    <t>2 gold leaves</t>
+  </si>
+  <si>
+    <t>20 gold leaves</t>
+  </si>
+  <si>
+    <t>Ditto. Duplicate of PYU07.</t>
+  </si>
+  <si>
+    <t>in parts near the Kubyaukkyi temple and in the Myazedi pagoda, Myinkaba, Pagan</t>
+  </si>
+  <si>
+    <t>OBEP</t>
+  </si>
+  <si>
+    <t>Old Burma-Early Pagán</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Bago Archaeological Museum, nr. 284</t>
+  </si>
+  <si>
+    <t>h:42, w:59, d:7</t>
+  </si>
+  <si>
+    <t>face B written upside-down compared with A</t>
+  </si>
+  <si>
+    <t>Perhaps this is the second silver bowl (besides PYU38) referred to by Sein Maung Oo 1989. But: a very similar bowl, obviously by the same artisan, was/is held at Shwe Phon Pwint Library.</t>
+  </si>
+  <si>
+    <t>ASI 1928-29, pl. LI (a).</t>
+  </si>
+  <si>
+    <t>Kyundawzu village, Sriksetra</t>
+  </si>
+  <si>
+    <t>ASI 1928-29, 108. — PPPB I, 139.</t>
+  </si>
+  <si>
+    <t>7 fragments of a gold leaf</t>
+  </si>
+  <si>
+    <t>ASI 1928-29, 107; 1934-35, 47. — OBEP I, 100. — PPPB I, 152; 154; 155; 156; 158.</t>
+  </si>
+  <si>
+    <t>OBEP, pl. 55 (abc).</t>
+  </si>
+  <si>
+    <t>The references feature contradictory statements on the  nature of the material.</t>
+  </si>
+  <si>
+    <t>l:37 (Finot)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 13x10x3 in. (Luce)</t>
+  </si>
+  <si>
+    <t>Found about 35 years ago, and kept in monastery until taken to Pagan Museum. Information Aung Kyaing.</t>
+  </si>
+  <si>
+    <t>National Museum, Yangon, nr. 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> National Museum, Yangon, nr. 1640</t>
+  </si>
+  <si>
+    <t>h:58, circumference at bottom: 127, circ. at top: 104</t>
+  </si>
+  <si>
+    <t>h:106, max. circumference:273, max. depth of cavity:55</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ASI 1927, pl. XLII (g, h). — ASB 1939, pl. 4c, 5, 6. — </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mya 1961, II, pl. 4. — PPPB II, pl. 33-34.</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1077,20 +1073,17 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <t>h:39, dia:38</t>
+      <t>ASI 1927-28, 129. —</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Mya 1961, II, p. 17. — PPPB II, 155.</t>
+    </r>
   </si>
   <si>
     <r>
@@ -1100,7 +1093,227 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t>HRC rubbing. —</t>
+      <t>ASI 1927-28, pl. LV(1), LVI(d)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. — Mya 1961, II, pl. 17, 17ka. — PPPB II, pl. 60 (a, b).</t>
+    </r>
+  </si>
+  <si>
+    <t>mound nr. 2957 near Nga Shin Gan, SW of Mahtaw village, Sriksetra</t>
+  </si>
+  <si>
+    <t>Mya 1961, II, p. 23. — PPPB II, 152.</t>
+  </si>
+  <si>
+    <t>Mya 1961, II, pl. 60 (ka). — PPPB II, pl. 59 (b).</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ASB 1925, 18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. — Mya 1961, II, 31. — PPPB I, 155.</t>
+    </r>
+  </si>
+  <si>
+    <t>N of Palace, Sriksetra</t>
+  </si>
+  <si>
+    <t>ASB 1958, 65.</t>
+  </si>
+  <si>
+    <t>ASB 1958, pl. 16, 17.</t>
+  </si>
+  <si>
+    <t>Mya 1961, II, 31. — PPPB I, 155.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ASB 1925, 18. — </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mya 1961, II, 31. — PPPB I, 155.</t>
+    </r>
+  </si>
+  <si>
+    <t>fragment of votive tablet</t>
+  </si>
+  <si>
+    <t>Myinbahu pagoda, Sriksetra</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mya 1961, II, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>XX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. — PPPB I, 155.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> PPPB I, 155.</t>
+  </si>
+  <si>
+    <t>Mya 1961, II, pl. 61, 61ka. — PPPB II, pl. 58 (e).</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mya 1961, II, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>XX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. — PPPB I, 154.</t>
+    </r>
+  </si>
+  <si>
+    <t>both 3</t>
+  </si>
+  <si>
+    <t>Not in U Mya?</t>
+  </si>
+  <si>
+    <t>earthenware pottery anvil</t>
+  </si>
+  <si>
+    <t>Win Maung, priv. coll.</t>
+  </si>
+  <si>
+    <t>unknown; reportedly Pagan Museum but not found there</t>
+  </si>
+  <si>
+    <t>ASB 1958, pl. 18.</t>
+  </si>
+  <si>
+    <t>IB IV, 356b. — RTI.</t>
+  </si>
+  <si>
+    <t>ASI 1910-11, pl. XLVII (1-2). — Finot 1913, plate. — PPPB II, pl. 98 (c).</t>
+  </si>
+  <si>
+    <t>ASI 1928-29, 107. — Mya 1961, II, 32.</t>
+  </si>
+  <si>
+    <t>ASI 1928-29, pl. LII (b). — Mya 1961, II, pl. 62.</t>
+  </si>
+  <si>
+    <t>Pyogingyi mound, Hmawza</t>
+  </si>
+  <si>
+    <t>Khin Ba mound</t>
+  </si>
+  <si>
+    <t>total length:8 ⅜ in. (ASI)</t>
+  </si>
+  <si>
+    <t>ASI 1928-29, 107.</t>
+  </si>
+  <si>
+    <t>no photo published?</t>
+  </si>
+  <si>
+    <t>Maunggan or Lèbaw village, 7 miles S of Sriksetra</t>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">un Nyein 1898-99. —ASI 1907-08, 41; 1909-10, 115. — Finot 1912: 131. — PR, 44-6. — PPPB I, 61, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>73 n. 2, 175.</t>
+    </r>
+  </si>
+  <si>
+    <t>EI 5, no. 11, pl. 8 — PPPB II, pl. 98 (b).</t>
+  </si>
+  <si>
+    <t>This inscription is A208 in the EFEO inventory of Arakanese inscriptions. Rediscovered in 2009. Written report from Kaw Minn Htin, 2 March 2012. Photos by Yu Mon Phyo sent by Ye Myat Lwin.</t>
+  </si>
+  <si>
+    <t>hill called “Phaya Taung” near the local monastery at Tondaw village, 30 miles from Sandoway town, Rakhine State</t>
+  </si>
+  <si>
+    <t>4(?)</t>
+  </si>
+  <si>
+    <t>menhir</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ASI 1929-30,  pl. XLI (b). — PPPB II, pl. 53a.</t>
     </r>
     <r>
       <rPr>
@@ -1110,899 +1323,269 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t xml:space="preserve"> — RTI.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ASI 1929-30: 154-5.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — R. le May, Culture of SEA, fig. 3. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>— Aung Thaw 1972: 12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>— PPPB I, 53, 58 n. 43, 149.</t>
+    </r>
+  </si>
+  <si>
+    <t>Kunzeik, on bank of Sittaung river, Shwegyin township</t>
+  </si>
+  <si>
+    <t>Luce noted (PPPB I, 155f.): "There are at least 3 other damaged specimens (obverse and reverse) of this tablet, from the same site, at Mandalay Archaeological office". This information probably dates from 1960.</t>
+  </si>
+  <si>
+    <t>Mya 1961, II, pl. XX. — PPPB II, 58 (f).</t>
+  </si>
+  <si>
+    <t>Mya 1961, II, pl. 60 (kha). — PPPB II, 59 (c).</t>
+  </si>
+  <si>
+    <t>Mya 1961, II, pl. 60 (ga). — PPPB II, 59 (d).</t>
+  </si>
+  <si>
+    <t>PPPB II, 59 (e).</t>
+  </si>
+  <si>
+    <t>6 fragments of gold and silver  leaf</t>
+  </si>
+  <si>
+    <t>inside Bawbawgyi pagoda, Hmawza</t>
+  </si>
+  <si>
+    <t>around Bawbawgyi pagoda, Hmawza</t>
+  </si>
+  <si>
+    <t>1960: Mandalay Archaeological Office (Luce)</t>
+  </si>
+  <si>
+    <t>Not in U Mya 1961? Wrongly ascribed to Bawbawgyi pagoda by Duroiselle (1921).</t>
+  </si>
+  <si>
+    <t>ASI 1910-11, 93. — PPPB I, 158.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ASI 1927-28, pl. LIV (g, h). — IB IV, 356a. —PPPB II, pl. 16-7. — </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RTI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>ASI 1927-28, 129. — Mya 1961, II, 65. — PPPB I, 156.</t>
+  </si>
+  <si>
+    <t>ASI 1927-28, pl. LVI (d). — Mya 1961, II, pl. 12. — PPPB II, pl. 60 (c).</t>
+  </si>
+  <si>
+    <t>h:195, w:47, d:31</t>
+  </si>
+  <si>
+    <t>Aung Tha 1972: 110, 116.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Aung Thaw 1972: 110-111. — Luce 1974: 126. —</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> von Hinüber 1991: 25 n. 53. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">— Skilling </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1997a:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 95 n. 7.</t>
+    </r>
+  </si>
+  <si>
+    <t>Old Burmese, Pali, Old Mon, Pyu</t>
+  </si>
+  <si>
+    <t>A:39, B:41, C:33, D:26</t>
+  </si>
+  <si>
+    <t>A:34, B:40, C:46, D:29</t>
+  </si>
+  <si>
+    <t>ASI 1929-30, 152, 182. — PPPB I, 66, 75 n. 28, 149. — PR, 22.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ASI 1929-30, pl. XLI (a). —</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> IB IV, 357b. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">— PPPB II, pl. 52a. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>— RTI.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ASI 1934-35, pl. XXII (a). — </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">IB V, 569. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>— PPPB II, pl. 15b. —</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve"> RTI.</t>
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Prome et Samara, pl. VII, figs. 1 and 70 (p. 98).</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> — ASI 1909-10, 120. — Blagden 1912, 127 (1). — PPPB, I, 54, 59 n. 51, 134.</t>
-    </r>
-  </si>
-  <si>
-    <t>PR, 78. — PPPB I, 50, 57 n. 22, 150.</t>
-  </si>
-  <si>
-    <t>2 gold leaves</t>
-  </si>
-  <si>
-    <t>20 gold leaves</t>
-  </si>
-  <si>
-    <t>IB. — RTI</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Blagden 1911. — EB I, 1-2, 59-68. —  Shafer 320-39, 357-60. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>— PPPB I, 62, 74 n. 15. —</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Krech</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Blagden 1911. — EB I, 1-2, 59-68. —  Shafer 320-39, 357-60. —  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PPPB I, 62, 74 n. 15.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> — Krech</t>
-    </r>
-  </si>
-  <si>
-    <t>Ditto. Duplicate of PYU07.</t>
-  </si>
-  <si>
-    <t>in parts near the Kubyaukkyi temple and in the Myazedi pagoda, Myinkaba, Pagan</t>
-  </si>
-  <si>
-    <t>San Win 2000-1. — MHRJ 11.</t>
-  </si>
-  <si>
-    <t>ASI 1909-10, pl. XLIX (11).</t>
-  </si>
-  <si>
-    <t>ASI 1909-10, pl. XLIX (12-13).</t>
-  </si>
-  <si>
-    <t>OBEP</t>
-  </si>
-  <si>
-    <t>Old Burma-Early Pagán</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Shwehsandaw pagoda, Pagan</t>
-  </si>
-  <si>
-    <t>Bago Archaeological Museum, nr. 284</t>
-  </si>
-  <si>
-    <t>h:42, w:59, d:7</t>
-  </si>
-  <si>
-    <t>face B written upside-down compared with A</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Blagden 1912, 127 (E). —</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ASB 1913, 14-5; 1914-15, 21 §54. —  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PPPB I, 65, 75 n. 24, 127.</t>
-    </r>
-  </si>
-  <si>
-    <t>Perhaps this is the second silver bowl (besides PYU38) referred to by Sein Maung Oo 1989. But: a very similar bowl, obviously by the same artisan, was/is held at Shwe Phon Pwint Library.</t>
-  </si>
-  <si>
-    <t>ASI 1928-29, pl. LI (a).</t>
-  </si>
-  <si>
-    <t>Kyundawzu village, Sriksetra</t>
-  </si>
-  <si>
-    <t>ASI 1928-29, 108. — PPPB I, 139.</t>
-  </si>
-  <si>
-    <t>7 fragments of a gold leaf</t>
-  </si>
-  <si>
-    <t>ASI 1928-29, 107; 1934-35, 47. — OBEP I, 100. — PPPB I, 152; 154; 155; 156; 158.</t>
-  </si>
-  <si>
-    <t>OBEP, pl. 55 (abc).</t>
-  </si>
-  <si>
-    <t>The references feature contradictory statements on the  nature of the material.</t>
-  </si>
-  <si>
-    <t>l:37 (Finot)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 13x10x3 in. (Luce)</t>
-  </si>
-  <si>
-    <t>Legaing, Minbu</t>
-  </si>
-  <si>
-    <t>Found about 35 years ago, and kept in monastery until taken to Pagan Museum. Information Aung Kyaing.</t>
-  </si>
-  <si>
-    <t>National Museum, Yangon, nr. 9</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> National Museum, Yangon, nr. 1640</t>
-  </si>
-  <si>
-    <t>h:58, circumference at bottom: 127, circ. at top: 104</t>
-  </si>
-  <si>
-    <t>h:106, max. circumference:273, max. depth of cavity:55</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ASI 1927, pl. XLII (g, h). — ASB 1939, pl. 4c, 5, 6. — </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Mya 1961, II, pl. 4. — PPPB II, pl. 33-34.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ASI 1927-28, 129. —</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Mya 1961, II, p. 17. — PPPB II, 155.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ASI 1927-28, pl. LV(1), LVI(d)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. — Mya 1961, II, pl. 17, 17ka. — PPPB II, pl. 60 (a, b).</t>
-    </r>
-  </si>
-  <si>
-    <t>mound nr. 2957 near Nga Shin Gan, SW of Mahtaw village, Sriksetra</t>
-  </si>
-  <si>
-    <t>Mya 1961, II, p. 23. — PPPB II, 152.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ASI 1909-10, pl. XIX (11, 14).</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> — Mya 1961, II, pl. 34-35. — PPPB II, pl. 56 (d, e).</t>
-    </r>
-  </si>
-  <si>
-    <t>Mya 1961, II, pl. 60 (ka). — PPPB II, pl. 59 (b).</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ASB 1925, 18</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. — Mya 1961, II, 31. — PPPB I, 155.</t>
-    </r>
-  </si>
-  <si>
-    <t>N of Palace, Sriksetra</t>
-  </si>
-  <si>
-    <t>ASB 1958, 65.</t>
-  </si>
-  <si>
-    <t>ASB 1958, pl. 16, 17.</t>
-  </si>
-  <si>
-    <t>Mya 1961, II, 31. — PPPB I, 155.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ASB 1925, 18. — </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Mya 1961, II, 31. — PPPB I, 155.</t>
-    </r>
-  </si>
-  <si>
-    <t>fragment of votive tablet</t>
-  </si>
-  <si>
-    <t>Myinbahu pagoda, Sriksetra</t>
-  </si>
-  <si>
-    <t>Lémyethna pagoda, Sriksetra</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Mya 1961, II, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>XX</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. — PPPB I, 155.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve"> PPPB I, 155.</t>
-  </si>
-  <si>
-    <t>Mya 1961, II, pl. 61, 61ka. — PPPB II, pl. 58 (e).</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Mya 1961, II, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>XX</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. — PPPB I, 154.</t>
-    </r>
-  </si>
-  <si>
-    <t>both 3</t>
-  </si>
-  <si>
-    <t>Not in U Mya?</t>
-  </si>
-  <si>
-    <t>earthenware pottery anvil</t>
-  </si>
-  <si>
-    <t>Win Maung, priv. coll.</t>
-  </si>
-  <si>
-    <t>unknown; reportedly Pagan Museum but not found there</t>
-  </si>
-  <si>
-    <t>Tawateintha pagoda</t>
-  </si>
-  <si>
-    <t>ASB 1958, pl. 18.</t>
-  </si>
-  <si>
-    <t>Myanadi village, east of Maingmaw, XXX township</t>
-  </si>
-  <si>
-    <t>Myanmar publications?</t>
-  </si>
-  <si>
-    <t>IB IV, 356b. — RTI.</t>
-  </si>
-  <si>
-    <t>ASI 1910-11, pl. XLVII (1-2). — Finot 1913, plate. — PPPB II, pl. 98 (c).</t>
-  </si>
-  <si>
-    <t>ASI 1928-29, 107. — Mya 1961, II, 32.</t>
-  </si>
-  <si>
-    <t>ASI 1928-29, pl. LII (b). — Mya 1961, II, pl. 62.</t>
-  </si>
-  <si>
-    <t>Pyogingyi mound, Hmawza</t>
-  </si>
-  <si>
-    <t>Khin Ba mound</t>
-  </si>
-  <si>
-    <t>total length:8 ⅜ in. (ASI)</t>
-  </si>
-  <si>
-    <t>ASI 1928-29, 107.</t>
-  </si>
-  <si>
-    <t>no photo published?</t>
-  </si>
-  <si>
-    <t>Maunggan or Lèbaw village, 7 miles S of Sriksetra</t>
-  </si>
-  <si>
-    <r>
-      <t>T</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">un Nyein 1898-99. —ASI 1907-08, 41; 1909-10, 115. — Finot 1912: 131. — PR, 44-6. — PPPB I, 61, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>73 n. 2, 175.</t>
-    </r>
-  </si>
-  <si>
-    <t>EI 5, no. 11, pl. 8 — PPPB II, pl. 98 (b).</t>
-  </si>
-  <si>
-    <t>This inscription is A208 in the EFEO inventory of Arakanese inscriptions. Rediscovered in 2009. Written report from Kaw Minn Htin, 2 March 2012. Photos by Yu Mon Phyo sent by Ye Myat Lwin.</t>
-  </si>
-  <si>
-    <t>hill called “Phaya Taung” near the local monastery at Tondaw village, 30 miles from Sandoway town, Rakhine State</t>
-  </si>
-  <si>
-    <t>4(?)</t>
-  </si>
-  <si>
-    <t>menhir</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ASB 1904-05, 8-10, 35; 1914-5, 21 §54. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>— ASI 1929-30, 152. — PR, 21.—PPPB I, 66, 75 n. 27, 149. —</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Shafer, 339.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ASI 1929-30,  pl. XLI (b). — PPPB II, pl. 53a.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> — RTI.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ASI 1929-30: 154-5.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> — R. le May, Culture of SEA, fig. 3. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>— Aung Thaw 1972: 12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>— PPPB I, 53, 58 n. 43, 149.</t>
-    </r>
-  </si>
-  <si>
-    <t>Kunzeik, on bank of Sittaung river, Shwegyin township</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ASI 1909-10, p. 121 fig. 3. —  PPPB II, pl. 21 (b).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ASI 1909-10, pl. L. —</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> estampage HRC. — RTI.</t>
-    </r>
-  </si>
-  <si>
-    <t>ASI 1929-30, pl. 41e. — IB IV, 357a. — PPPB II, 52b.</t>
-  </si>
-  <si>
-    <t>IB V, 570b. — PPPB II, pl. 8abc.</t>
-  </si>
-  <si>
-    <t>Blagden 1912 (D1). — ASB 1913, pl. I, 1-2. — IB IV, 354d. — PPPB II, pl. 5a, 6a.</t>
-  </si>
-  <si>
-    <t>Blagden 1912 (C). — IB IV, 354c. — PPPB II, pl. 5bc, 6b.</t>
-  </si>
-  <si>
-    <t>Blagden 1912 (A). — ASI 1912, pl. 69 (1). — IB IV, 354a. — PPPB II, pl. 5d, 6c.</t>
-  </si>
-  <si>
-    <t>Blagden 1912 (B1). — ASI 1912, pl. LXVIII (3). — IB IV, 354b. — PPPB II, pl. 5ef, 6d.</t>
-  </si>
-  <si>
-    <t>Luce noted (PPPB I, 155f.): "There are at least 3 other damaged specimens (obverse and reverse) of this tablet, from the same site, at Mandalay Archaeological office". This information probably dates from 1960.</t>
-  </si>
-  <si>
-    <t>Mya 1961, II, pl. XX. — PPPB II, 58 (f).</t>
-  </si>
-  <si>
-    <t>Mya 1961, II, pl. 60 (kha). — PPPB II, 59 (c).</t>
-  </si>
-  <si>
-    <t>Mya 1961, II, pl. 60 (ga). — PPPB II, 59 (d).</t>
-  </si>
-  <si>
-    <t>PPPB II, 59 (e).</t>
-  </si>
-  <si>
-    <t>Prome et Samara, pl. V (3), p. 89 (fig. 62), 246 (fig. 199). — ASI 1910, pl. XLIX (12, 13). — Mya 1961, II, pl. 60 (gha). — PPPB II, 59 (f).</t>
-  </si>
-  <si>
-    <t>ASI 1910-11, pl. XLVII (4-8). — Mya 1961, II, pl. 72.</t>
-  </si>
-  <si>
-    <t>6 fragments of gold and silver  leaf</t>
-  </si>
-  <si>
-    <t>inside Bawbawgyi pagoda, Hmawza</t>
-  </si>
-  <si>
-    <t>around Bawbawgyi pagoda, Hmawza</t>
-  </si>
-  <si>
-    <t>1960: Mandalay Archaeological Office (Luce)</t>
-  </si>
-  <si>
-    <t>OBEP I, XX; II, 26.</t>
-  </si>
-  <si>
-    <t>OBEP, pl. 34 (e, f)</t>
-  </si>
-  <si>
-    <r>
-      <t>ASI 1910-11, pl. XLV</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>II (21). — PPPB II, pl. 62 (d, e).</t>
-    </r>
-  </si>
-  <si>
-    <t>Not in U Mya 1961? Wrongly ascribed to Bawbawgyi pagoda by Duroiselle (1921).</t>
-  </si>
-  <si>
-    <t>ASI 1910-11, 93. — PPPB I, 158.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ASI 1927-28, pl. LIV (g, h). — IB IV, 356a. —PPPB II, pl. 16-7. — </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>RTI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>ASI 1927-28, 129. — Mya 1961, II, 65. — PPPB I, 156.</t>
-  </si>
-  <si>
-    <t>ASI 1927-28, pl. LVI (d). — Mya 1961, II, pl. 12. — PPPB II, pl. 60 (c).</t>
-  </si>
-  <si>
-    <t>h:195, w:47, d:31</t>
-  </si>
-  <si>
-    <t>Aung Tha 1972: 110, 116.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Aung Thaw 1972: 110-111. — Luce 1974: 126. —</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> von Hinüber 1991: 25 n. 53. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">— Skilling </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1997a:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 95 n. 7.</t>
-    </r>
-  </si>
-  <si>
-    <t>Old Burmese, Pali, Old Mon, Pyu</t>
-  </si>
-  <si>
-    <t>A:39, B:41, C:33, D:26</t>
-  </si>
-  <si>
-    <t>A:34, B:40, C:46, D:29</t>
-  </si>
-  <si>
-    <t>ASI 1929-30, 152, 182. — PPPB I, 66, 75 n. 28, 149. — PR, 22.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ASI 1929-30, pl. XLI (a). —</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> IB IV, 357b. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">— PPPB II, pl. 52a. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>— RTI.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ASI 1934-35, 46. —</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> R. le May, Culture of SEA, fig. 1. — </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PPPB I, 65, 75 n. 25, 131.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">ASI 1934-35, pl. XXII (a). — </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">IB V, 569. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>— PPPB II, pl. 15b. —</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> RTI.</t>
-    </r>
-  </si>
-  <si>
     <t>apramada</t>
   </si>
   <si>
@@ -2015,66 +1598,6 @@
     <t>jīvadayā</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">White — </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Middleton 2005: 92.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>White —</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Middleton 2005: 91.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>White. —</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Middleton 2005: 90.</t>
-    </r>
-  </si>
-  <si>
     <t>private collection</t>
   </si>
   <si>
@@ -2111,9 +1634,6 @@
       </rPr>
       <t>ASI 1930–34, I, 246-7. — PPPB I, 66, 75 n. 29, 149.</t>
     </r>
-  </si>
-  <si>
-    <t>ASI 1926-27, 164. — PR, 77. — OBEP I, 99; II, 25. — PPPB I, 66, 75 n. 30.</t>
   </si>
   <si>
     <t>ASI 1926-27, pl. XXXIX (b, e). — Mya 1961, I, pl. 29-30. — OBEP, pl. 34 (c, d).</t>
@@ -2166,20 +1686,6 @@
   </si>
   <si>
     <r>
-      <t>Blagden 1912, 127 (B2). — PPPB I, 126. —</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Guy 1914, cat. 24.</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Sein Win 1997; photo Don Stadtner, Ancient Pagan; Naing Zaw 2011: 546-7 — </t>
     </r>
     <r>
@@ -2202,23 +1708,9 @@
     <t>Ushit-bin Village, Lewe Township, near Pyinmana, Nay Pyi Taw / near Shitpyin village, Leiway, Nay Pyi Taw</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ASI 1927-28, 127-8, 145. — Ray 1936: 19-20. — PPPB I, 51, 57 n. 24, 65, 74 n. 22, 131-132. — Guy 2014, cat. 41.</t>
-    </r>
-  </si>
-  <si>
     <t>h:15.7, w:9</t>
   </si>
   <si>
-    <t>Aung Seigon pagoda, Innwa, Mandalay division</t>
-  </si>
-  <si>
     <t>Yangon, Dept. of Archaeology and Museums</t>
   </si>
   <si>
@@ -2228,15 +1720,9 @@
     <t>found in 1994; the measurements are cited from Guy 2014, but are almost certainly incorrect, for the piece is taller than it is wide.</t>
   </si>
   <si>
-    <t>presence of inscription not yet noted when catalogy entry was written for Guy 2014.</t>
-  </si>
-  <si>
     <t>h:55</t>
   </si>
   <si>
-    <t>Blagden 1912 (B1). —ASB 1912, 11. — ASI 1912, 147. — PR, 47 (B), 50. — PPPB I, 48, 57 n. 13, 126-7. — Shafer, 339. — Guy 2014, cat. 24.</t>
-  </si>
-  <si>
     <t>h:83, dia:42</t>
   </si>
   <si>
@@ -2424,8 +1910,11 @@
     <t>leaves 1-18: 3 lines, leaf 19: 4 l., leaf 20: 2 l.</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">ASB 1960: 22. — Sircar 1976: 210-217. — </t>
+    <t>deposited by Department of Archaeology at National Museum, Yangon</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> IB V, 555-556 (</t>
     </r>
     <r>
       <rPr>
@@ -2434,6 +1923,152 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
+      <t>check index of plates</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>). —</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> RTI</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ASI 1926-27, pl. XXXVII (d), XXXVIII (c). — Mya 1961, II, pl. 1, 5, 6. — PPPB II, pl. 28-29. — </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RTI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Listed in continuation of Duroiselle, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A List of Inscriptions Found in Burma</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (1921), appendix B</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ASI 1909-10, pl. 49 (17-18). — ASB 1924,  pl. 3;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 1958, chart. —  PPPB II, pl. 35-36.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ASI 1909-10, 123. —ASB 1924, 26.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — PPPB I, 62, 74 n. 9, 140.</t>
+    </r>
+  </si>
+  <si>
+    <t>Myint Aung 1970, pl. 9a. — Aung Thaw 1972: 14.</t>
+  </si>
+  <si>
+    <t>Beikthano</t>
+  </si>
+  <si>
+    <t>saṁghasiri/sayasiri</t>
+  </si>
+  <si>
+    <t>whole piece 4 cm long; seal 1.5 cm diam.</t>
+  </si>
+  <si>
+    <t>National Museum, Yangon</t>
+  </si>
+  <si>
+    <t>Prakrit (?)</t>
+  </si>
+  <si>
+    <t>ASB 1959, pl. 16-17. — Aung Thaw 1968, fig. 79.9, pl. LIVab. — photos Bob Hudson.</t>
+  </si>
+  <si>
+    <t>ASB 1959, 19. — Aung Thaw 1968: 50-51. — Aung Thaw 1972: 4.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ASB 1960: 22. —Aung Thaw 1972: 32. — Sircar 1976: 210-217. — </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Aung Thaw et al. 1993: 134. </t>
     </r>
     <r>
@@ -2443,15 +2078,74 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>— Gutman 2011: 109 n. 1.</t>
-    </r>
-  </si>
-  <si>
-    <t>deposited by Department of Archaeology at National Museum, Yangon</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> IB V, 555-556 (</t>
+      <t>— Gutman 2001: 109 n. 1.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sinlu village, Pwinbyu township </t>
+  </si>
+  <si>
+    <t>Sin Phyu Ywa village (Beinnaka old city), Pyawbwe</t>
+  </si>
+  <si>
+    <t>found on 20/05/2015 by Tampawaddy Win Maung and his group; information Kyam Minn Htin email on the same day.</t>
+  </si>
+  <si>
+    <t>ASI 1926-27, pl. XXXIX (f). — OBEP, pl. 444 (a, b).</t>
+  </si>
+  <si>
+    <t>OBEP, pl. 34 (c, d).</t>
+  </si>
+  <si>
+    <t>mentions Metriya</t>
+  </si>
+  <si>
+    <t>Pagan, Shwehsandaw pagoda, relic chamber</t>
+  </si>
+  <si>
+    <t>ASI 1926-27, 164. — PR, 77. — Mya 1961, I, 23-4. — OBEP I, 99; II, 25. — PPPB I, 66, 75 n. 30.</t>
+  </si>
+  <si>
+    <t>OBEP II, 26.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">read </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>baṁḥ metriya</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> by Duroiselle, but this reading not verifiable from the existing photos.</t>
+    </r>
+  </si>
+  <si>
+    <t>National Museum, Yangon, nr. 36</t>
+  </si>
+  <si>
+    <t>ASI 1926-27, 164-5. — OBEP I, 188; II, 204.</t>
+  </si>
+  <si>
+    <t>West bank of Nagayon lake, Halin</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PPPB II, pl. 54. — </t>
     </r>
     <r>
       <rPr>
@@ -2460,7 +2154,287 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t>check index of plates</t>
+      <t>EFEO estampage n. XXX.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Payagyi pagoda</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, near Pyay</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>stone stela (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>or funerary tablet?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>South of Tagantha village, near Halin</t>
+  </si>
+  <si>
+    <t>presence of inscription not yet noted when catalogue entry was written for Guy 2014.</t>
+  </si>
+  <si>
+    <t>metal sculpture of preaching Buddha</t>
+  </si>
+  <si>
+    <t>Naional Museum, Nay Pyi Taw, 1/3/1994</t>
+  </si>
+  <si>
+    <t>Sanskrit in Gaudi; Pali in LSB and Pyu in Pyu scripts</t>
+  </si>
+  <si>
+    <t>400 ft. South of Shwegugyi (near HL26)</t>
+  </si>
+  <si>
+    <t>Myanadi village, 8 km east of Maingmaw, Myittha township, Kyaukse Dt., Mandalay Region</t>
+  </si>
+  <si>
+    <t>Aung Seigon pagoda, Innwa, Mandalay Region</t>
+  </si>
+  <si>
+    <t>Myanmar. — Moore 2009, 111.</t>
+  </si>
+  <si>
+    <t>Led-dwin, near Maingmaw</t>
+  </si>
+  <si>
+    <t>Moore 2009, 111.</t>
+  </si>
+  <si>
+    <t>Shwegyobin, Kyauktaga township, Bago region</t>
+  </si>
+  <si>
+    <t>Myint Aung 1970: 61. — Aung Thaw 1972: 14. — Skilling 2015: 66.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">White — </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Middleton 2005: 92. — Skilling 2015: 65.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>White —</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Middleton 2005: 91. — Skilling 2015: 66.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>White. —</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Middleton 2005: 90. — Skilling 2015: 66.</t>
+    </r>
+  </si>
+  <si>
+    <t>Myint Aung (as well as scholars after him) points out that an identical artefact has been found at Oc Eo. Apparently more than one specimen of this intaglio was made; other intaglios with the same inscription but applied rather les artfully are shown and/or referred to  by Middleton 2005: 15, 159. Their provenance from 'Pyu' sites in uncertain.</t>
+  </si>
+  <si>
+    <t>writing positive</t>
+  </si>
+  <si>
+    <t>must look up what IB says about this item.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Blagden 1913-14, 127 (E). — ASB 1913, 14-15; 1914-15, 21-23. —  PPPB I, 65, 75 n. 24, 127.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> stone </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>funerary tablet</t>
+    </r>
+  </si>
+  <si>
+    <t>Blagden 1913-14 (C). — IB IV, 354c. — PPPB II, pl. 5bc, 6b.</t>
+  </si>
+  <si>
+    <t>Blagden 1913-14 (A). — ASB 1912, 7, 11. — ASI 1911-12, 147. — PR, 47 (A), 50. — PPPB I, 48, 57 n. 13, 126-7.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ASB 1904-05, 8-9, 35; 1915, 21-23.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>— ASI 1929-30, 152. — PR, 21.—PPPB I, 66, 75 n. 27, 149. — Shafer 1943, 339.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EB I, 1, pl. IV (B). —</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> IB. — RTI</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lémyethna or Bobobgyi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (?) pagoda, Sriksetra</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>De Beylié 1907a, 89 fig. 62</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, pl. 5 (3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>); 1907b, 246 fig. 199. — ASI 1909-10, pl. XLIX (12, 13). — Mya 1961, II, pl. 60 (gha). — PPPB II, 59 (f).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">De Beylié 1907a, 98. </t>
     </r>
     <r>
       <rPr>
@@ -2470,7 +2444,18 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>). —</t>
+      <t>— ASI 1909-10, 120. — Blagden 1913-14, 127 (1). — PPPB, I, 54, 59 n. 51, 134.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ASI 1909-10, pl. 50 (2). —</t>
     </r>
     <r>
       <rPr>
@@ -2479,12 +2464,69 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> RTI</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ASI 1926-27, pl. XXXVII (d), XXXVIII (c). — Mya 1961, II, pl. 1, 5, 6. — PPPB II, pl. 28-29. — </t>
+      <t xml:space="preserve"> estampage HRC. — RTI.</t>
+    </r>
+  </si>
+  <si>
+    <t>During or after the Chinese invasion of Pagan in 1287 CE; but ASB 1916 suggests "probably dated 1284 A.D.".</t>
+  </si>
+  <si>
+    <t>De Beylié 1907a, 83 (n. 1). — Blagden 1913-14, 127 (6). —ASB 1916, 18 (with n. ‡). — Chen Yi-Sein 1960. — PPPB I, 67, 76 n. 38-39.</t>
+  </si>
+  <si>
+    <r>
+      <t>Blagden 1913-14, 127 (5).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — ASB 1912, 12 §37.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>ASI 1910-11, pl. 47 (4-8). — Mya 1961, II, pl. 72.</t>
+  </si>
+  <si>
+    <t>Chaem Kawklai 1992.</t>
+  </si>
+  <si>
+    <t>3.3 cm diam.</t>
+  </si>
+  <si>
+    <t>Ratchamangala Phisek National Library, Chiang Mai (Thailand), acc. nr. 034/2534</t>
+  </si>
+  <si>
+    <t>Chaem Kawklai 1992: 86, 88.</t>
+  </si>
+  <si>
+    <t>ASI 1912-13, pt. I, 29. — Blagden 1913-14 (C). — ASB 1913, 13-4; 1914, 20. — PR, 47 (C), 51. — PPPB I, 48, 57 n. 13, 126-7.</t>
+  </si>
+  <si>
+    <t>ASI 1911-12, 147. — ASI 1912-13, pt. I, 29. — ASB 1913, 9-10, 14. — Blagden 1913-14 (D1). — PR, 47 (D), 51. — PPPB I, 48, 57 n. 13, 126-7.</t>
+  </si>
+  <si>
+    <t>See also PYU25. — ASI 1911-12 fig. 1 on p. 149 shows Blagden’s D1 urn (but it is identified as being from the Bawbawgyi, which must be a mistake).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it seems to me (AG) that Luce was wrong in citing De Beylié 1907a, pl. V (3), for De Beylié does not say that that is the converse of the inscribed reverse copied in fig. 62. Comparing the other photos available, it seems obvious that de Beyilié's V (3) and 62 have no connection with each other. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">De Beylié 1907a, 89 fig. 62, </t>
     </r>
     <r>
       <rPr>
@@ -2493,51 +2535,207 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t>RTI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Listed in continuation of Duroiselle, </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A List of Inscriptions Found in Burma</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (1921), appendix B</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ASI 1909-10, pl. 49 (17-18). — ASB 1924,  pl. 3;</t>
+      <t>pl. V (3)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>; 1907b, 246 fig. 199. — ASI 1909-10, pl. XLIX (12, 13). — Mya 1961, II, pl. 60 (gha). — PPPB II, 59 (f).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ASI 1909-10, 123. — Mya 1961, II, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>XX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. — PPPB I, 155.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lémyethna or Bawbawgyi (?)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> pagoda, Sriksetra</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ASI 1909-10, pl. XIX (11).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — Mya 1961, II, pl. 34-35. — PPPB II, pl. 56 (d, e).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">same as </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="205"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>PYU013</t>
+    </r>
+  </si>
+  <si>
+    <t>same as PYU014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ASI 1909-10, pl. XIX (11). — Mya 1961, II, pl. 34-35. — PPPB II, pl. 56 (d, e).</t>
+  </si>
+  <si>
+    <t>2 or 3</t>
+  </si>
+  <si>
+    <t>ASI 1909-10, 123. — Mya 1961, II, 23. — PPPB II, 152.</t>
+  </si>
+  <si>
+    <r>
+      <t>ASI 1910-11, pl. XLVII</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (21). — PPPB II, pl. 62 (d, e).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tawateintha pagoda, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sriksetra</t>
+    </r>
+  </si>
+  <si>
+    <t>Blagden 1913-14 (B1). — ASB 1912, 7, 11. — ASI 1911-12, 147. — PR, 47 (B), 50. — PPPB I, 48, 57 n. 13, 126-7. — Shafer 1943, 339. — Guy 2014, 76-7 (cat. 24).</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>De Beylié 1907a, 9, 83, 108. — Blagden 1911 (A). — EB I, 1, 59-68 (A). —  Shafer 1943, 320-37,340-44, 357-63. — PR, 53-61. —</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> PPPB I, 62-4, 74 n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>15. — Krech 2012, 153-65 (A).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Blagden 1911 (B). — EB I, 1, 59-68 (B). —  Shafer 1943, 320-37, 340-44, 357-63. — PR, 63-71. — PPPB I, 62-4, 74 n. 15. — Krech 2012, 153-65 (B).</t>
+    </r>
+  </si>
+  <si>
+    <t>De Beylié 1907a, 82-3. — ASI 1909-10, p. 120. — Blagden 1913-14, 127 (2). — PPPB I, 129.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ASI 1927-28, 127-8, 145. — Ray 1936: 19-20. — PR, 41-3. — PPPB I, 51, 57 n. 24, 65, 74 n. 22, 131-132. — Guy 1997: 91-2. — Guy 2014, cat. 41.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HRC rubbing. — Rubbing in MHRJ 11. —</t>
     </r>
     <r>
       <rPr>
@@ -2547,18 +2745,21 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 1958, chart. —  PPPB II, pl. 35-36.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ASI 1909-10, 123. —ASB 1924, 26.</t>
+      <t xml:space="preserve"> RTI.</t>
+    </r>
+  </si>
+  <si>
+    <t>San Win 1998, 2000-1, 2003. — unnumbered pages in MHRJ 11. —Tun Aung Chain 2003.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ASI 1934-35, 45-6. —</t>
     </r>
     <r>
       <rPr>
@@ -2568,45 +2769,221 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> — PPPB I, 62, 74 n. 9, 140.</t>
-    </r>
-  </si>
-  <si>
-    <t>Myint Aung 1970, pl. 9a. — Aung Thaw 1972: 14.</t>
-  </si>
-  <si>
-    <t>Myint Aung 1970: 61. — Aung Thaw 1972: 14.</t>
-  </si>
-  <si>
-    <t>Myint Aung (and after him Aung Thaw) points out that an identical artefact has been found at Oc Eo. Apparently more than one specimen of this iytaglio was made; other intaglios with the same inscription but applied rather les artfully are shown and/or referred to  by Middleton 2005: 15, 159. Their provenance from 'Pyu' sites in uncertain.</t>
-  </si>
-  <si>
-    <t>Beikthano</t>
-  </si>
-  <si>
-    <t>saṁghasiri/sayasiri</t>
-  </si>
-  <si>
-    <t>whole piece 4 cm long; seal 1.5 cm diam.</t>
-  </si>
-  <si>
-    <t>National Museum, Yangon</t>
-  </si>
-  <si>
-    <t>Prakrit (?)</t>
-  </si>
-  <si>
-    <t>ASB 1959, pl. 16-17. — Aung Thaw 1968, fig. 79.9, pl. LIVab. — photos Bob Hudson.</t>
-  </si>
-  <si>
-    <t>ASB 1959, 19. — Aung Thaw 1968: 50-51. — Aung Thaw 1972: 4.</t>
+      <t xml:space="preserve"> R. le May, Culture of SEA, fig. 1. — </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PPPB I, 65, 75 n. 25, 131.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pyu </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(and Sanskrit?)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ASI 1929-30, pl. XLI (e). — IB IV, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>357</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a. — PPPB II, 52b.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">IB V, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>570</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>b. — PPPB II, pl. 8abc.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ASI 1911-12, pl. LXIX (1). — Blagden 1913-14 (D1). — ASB 1913, pl. I (1-2). — IB IV, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>354</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d. — PPPB II, pl. 5a, 6a.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Blagden 1913-14 (A). — ASI 1911-12, pl. LXIX (1). — IB IV, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>354</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a. — PPPB II, pl. 5d, 6c.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>De Beylié 1907a, pl. VIII. — EB I, 1, pl. IV (A). —</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> IB. — RTI</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>De Beylié 1907a, pl. VII (1). — ASI 1909-10, 121 fig. 3. —  PPPB II, pl. 21 (b).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>stone</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> funerary tablet</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">stone </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>funerary tablet</t>
+    </r>
+  </si>
+  <si>
+    <t>Blagden 1912, 127 (B2). — PPPB I, 126. — Guy 2014, cat. 24.</t>
+  </si>
+  <si>
+    <t>PPPB II, pl. 6 (d).</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Blagden 1913-14 (B1). — ASI 1911-12, pl. LXVIII (3). — IB IV, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>354</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>b. — PPPB II, pl. 5 (ef), 6 (d).</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2730,6 +3107,18 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="205"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -2763,7 +3152,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -2813,50 +3202,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -2866,7 +3211,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="99">
+  <cellStyleXfs count="229">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2966,8 +3311,138 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3032,9 +3507,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3131,13 +3603,23 @@
     <xf numFmtId="49" fontId="11" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3152,20 +3634,14 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="99">
+  <cellStyles count="229">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -3215,6 +3691,71 @@
     <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="228" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -3264,6 +3805,71 @@
     <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="227" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3556,10 +4162,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K124"/>
+  <dimension ref="A1:K126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C58" workbookViewId="0">
-      <selection activeCell="J67" sqref="J67"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -3569,14 +4175,14 @@
     <col min="4" max="4" width="12.5" style="5" customWidth="1"/>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.83203125" style="41" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.83203125" style="40" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="29.1640625" customWidth="1"/>
     <col min="11" max="11" width="22.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18">
       <c r="A1" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="4"/>
@@ -3584,10 +4190,10 @@
       <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="B2" s="63" t="s">
-        <v>461</v>
-      </c>
-      <c r="C2" s="63"/>
+      <c r="B2" s="66" t="s">
+        <v>399</v>
+      </c>
+      <c r="C2" s="66"/>
       <c r="D2" s="4"/>
       <c r="E2" s="3" t="s">
         <v>1</v>
@@ -3597,34 +4203,34 @@
       <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="66" t="s">
+      <c r="C3" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="66" t="s">
-        <v>125</v>
-      </c>
-      <c r="E3" s="68" t="s">
-        <v>100</v>
-      </c>
-      <c r="F3" s="70" t="s">
+      <c r="D3" s="69" t="s">
+        <v>117</v>
+      </c>
+      <c r="E3" s="71" t="s">
+        <v>94</v>
+      </c>
+      <c r="F3" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="64" t="s">
+      <c r="G3" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="64" t="s">
+      <c r="H3" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="64" t="s">
-        <v>99</v>
-      </c>
-      <c r="J3" s="64" t="s">
+      <c r="I3" s="67" t="s">
+        <v>93</v>
+      </c>
+      <c r="J3" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="64" t="s">
+      <c r="K3" s="67" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3632,47 +4238,47 @@
       <c r="A4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="65"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="65"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
     </row>
     <row r="5" spans="1:11" ht="59">
       <c r="A5" s="9">
         <v>1</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>103</v>
+        <v>448</v>
       </c>
       <c r="C5" s="11">
         <v>2</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>361</v>
+        <v>489</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>355</v>
+        <v>451</v>
       </c>
       <c r="K5" s="10"/>
     </row>
@@ -3681,99 +4287,99 @@
         <v>2</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="H6" s="10"/>
       <c r="I6" s="19" t="s">
-        <v>362</v>
+        <v>490</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>293</v>
+        <v>447</v>
       </c>
       <c r="K6" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="42">
+    <row r="7" spans="1:11" ht="84">
       <c r="A7" s="9">
         <v>3</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="C7" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="H7" s="10" t="s">
         <v>6</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>363</v>
+        <v>491</v>
       </c>
       <c r="J7" s="19" t="s">
-        <v>163</v>
+        <v>466</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="42">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="56">
       <c r="A8" s="9">
         <v>4</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="C8" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="H8" s="10" t="s">
         <v>7</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>364</v>
+        <v>449</v>
       </c>
       <c r="J8" s="19" t="s">
-        <v>164</v>
+        <v>465</v>
       </c>
       <c r="K8" s="10"/>
     </row>
@@ -3782,165 +4388,165 @@
         <v>5</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="C9" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="H9" s="10" t="s">
         <v>8</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>365</v>
+        <v>492</v>
       </c>
       <c r="J9" s="19" t="s">
-        <v>165</v>
+        <v>450</v>
       </c>
       <c r="K9" s="10"/>
     </row>
-    <row r="10" spans="1:11" ht="56">
+    <row r="10" spans="1:11" ht="70">
       <c r="A10" s="9">
         <v>6</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="C10" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="31" t="s">
-        <v>437</v>
+      <c r="D10" s="30" t="s">
+        <v>376</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="H10" s="10" t="s">
         <v>9</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>366</v>
+        <v>499</v>
       </c>
       <c r="J10" s="19" t="s">
-        <v>436</v>
+        <v>480</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="56">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="70">
       <c r="A11" s="9">
         <v>7</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="C11" s="31" t="s">
-        <v>390</v>
-      </c>
-      <c r="D11" s="31" t="s">
-        <v>268</v>
+        <v>103</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>339</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>248</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>389</v>
+        <v>338</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="49" t="s">
-        <v>265</v>
+        <v>21</v>
+      </c>
+      <c r="G11" s="48" t="s">
+        <v>245</v>
       </c>
       <c r="H11" s="10" t="s">
         <v>0</v>
       </c>
       <c r="I11" s="23" t="s">
-        <v>278</v>
+        <v>493</v>
       </c>
       <c r="J11" s="23" t="s">
-        <v>279</v>
+        <v>481</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="42">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="56">
       <c r="A12" s="9">
         <v>8</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="C12" s="31" t="s">
-        <v>391</v>
-      </c>
-      <c r="D12" s="31" t="s">
-        <v>267</v>
+        <v>103</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>340</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>247</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>389</v>
+        <v>338</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>282</v>
-      </c>
-      <c r="G12" s="49" t="s">
-        <v>22</v>
+        <v>256</v>
+      </c>
+      <c r="G12" s="48" t="s">
+        <v>21</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>281</v>
+        <v>255</v>
       </c>
       <c r="I12" s="23" t="s">
-        <v>278</v>
+        <v>452</v>
       </c>
       <c r="J12" s="23" t="s">
-        <v>280</v>
+        <v>482</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="56">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="42">
       <c r="A13" s="9">
         <v>9</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
       <c r="E13" s="19" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="35" t="s">
-        <v>158</v>
+      <c r="G13" s="34" t="s">
+        <v>149</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>359</v>
+        <v>494</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>274</v>
+        <v>455</v>
       </c>
       <c r="K13" s="10"/>
     </row>
@@ -3949,67 +4555,67 @@
         <v>10</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="F14" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="30" t="s">
-        <v>179</v>
-      </c>
-      <c r="H14" s="29" t="s">
-        <v>23</v>
+      <c r="G14" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="H14" s="28" t="s">
+        <v>22</v>
       </c>
       <c r="I14" s="23" t="s">
-        <v>360</v>
+        <v>456</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>166</v>
+        <v>483</v>
       </c>
       <c r="K14" s="10"/>
     </row>
-    <row r="15" spans="1:11" ht="28">
+    <row r="15" spans="1:11" ht="56">
       <c r="A15" s="9">
         <v>11</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="C15" s="55" t="s">
-        <v>129</v>
-      </c>
-      <c r="D15" s="31" t="s">
-        <v>269</v>
+        <v>83</v>
+      </c>
+      <c r="C15" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>249</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" s="49" t="s">
-        <v>266</v>
+        <v>24</v>
+      </c>
+      <c r="G15" s="48" t="s">
+        <v>246</v>
       </c>
       <c r="H15" s="10" t="s">
         <v>2</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>459</v>
+        <v>397</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>130</v>
+        <v>458</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>25</v>
+        <v>457</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="42">
@@ -4017,117 +4623,119 @@
         <v>12</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="H16" s="10"/>
       <c r="I16" s="23" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>173</v>
+        <v>459</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="28">
-      <c r="A17" s="47">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="42">
+      <c r="A17" s="46">
         <v>13</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="C17" s="56" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="33"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="49" t="s">
+        <v>233</v>
+      </c>
+      <c r="C17" s="55" t="s">
+        <v>476</v>
+      </c>
+      <c r="D17" s="32"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="48" t="s">
         <v>3</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49" t="s">
-        <v>284</v>
+        <v>228</v>
+      </c>
+      <c r="H17" s="48"/>
+      <c r="I17" s="48" t="s">
+        <v>475</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="K17" s="49"/>
-    </row>
-    <row r="18" spans="1:11" ht="28">
-      <c r="A18" s="47">
+        <v>477</v>
+      </c>
+      <c r="K17" s="48"/>
+    </row>
+    <row r="18" spans="1:11" ht="154">
+      <c r="A18" s="46">
         <v>14</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="C18" s="56" t="s">
+        <v>233</v>
+      </c>
+      <c r="C18" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="33"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="49" t="s">
-        <v>3</v>
+      <c r="D18" s="32"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="48" t="s">
+        <v>471</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="H18" s="49"/>
-      <c r="I18" s="49" t="s">
-        <v>285</v>
+        <v>228</v>
+      </c>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48" t="s">
+        <v>469</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="K18" s="49"/>
+        <v>470</v>
+      </c>
+      <c r="K18" s="48" t="s">
+        <v>468</v>
+      </c>
     </row>
     <row r="19" spans="1:11" ht="42">
-      <c r="A19" s="47">
+      <c r="A19" s="46">
         <v>15</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="C19" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="33"/>
-      <c r="E19" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="F19" s="49" t="s">
-        <v>335</v>
+        <v>233</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="32"/>
+      <c r="E19" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="F19" s="48" t="s">
+        <v>479</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="H19" s="49"/>
-      <c r="I19" s="49" t="s">
-        <v>380</v>
+        <v>228</v>
+      </c>
+      <c r="H19" s="48"/>
+      <c r="I19" s="48" t="s">
+        <v>478</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>382</v>
-      </c>
-      <c r="K19" s="48" t="s">
-        <v>381</v>
+        <v>331</v>
+      </c>
+      <c r="K19" s="47" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="56">
@@ -4135,29 +4743,29 @@
         <v>16</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="D20" s="31" t="s">
-        <v>435</v>
+        <v>198</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>375</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>441</v>
+        <v>380</v>
       </c>
       <c r="G20" s="24" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="H20" s="13"/>
       <c r="I20" s="19" t="s">
-        <v>383</v>
+        <v>332</v>
       </c>
       <c r="J20" s="13" t="s">
-        <v>428</v>
+        <v>484</v>
       </c>
       <c r="K20" s="13"/>
     </row>
@@ -4166,32 +4774,32 @@
         <v>17</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C21" s="20">
         <v>8</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>220</v>
+        <v>424</v>
       </c>
       <c r="G21" s="24" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="H21" s="13"/>
       <c r="I21" s="13" t="s">
-        <v>393</v>
+        <v>342</v>
       </c>
       <c r="J21" s="19" t="s">
-        <v>392</v>
+        <v>341</v>
       </c>
       <c r="K21" s="13" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="22" customFormat="1" ht="56">
@@ -4199,30 +4807,30 @@
         <v>18</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="C22" s="31" t="s">
-        <v>271</v>
-      </c>
-      <c r="D22" s="31" t="s">
-        <v>264</v>
+        <v>81</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>411</v>
+      </c>
+      <c r="D22" s="30" t="s">
+        <v>244</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>304</v>
+        <v>412</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="H22" s="13"/>
       <c r="I22" s="23" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="J22" s="19"/>
       <c r="K22" s="13" t="s">
-        <v>305</v>
+        <v>273</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="28">
@@ -4230,30 +4838,30 @@
         <v>19</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>89</v>
+        <v>427</v>
       </c>
       <c r="C23" s="20">
         <v>3</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F23" s="19" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G23" s="24" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="13" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="J23" s="22"/>
       <c r="K23" s="19" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:11" s="22" customFormat="1" ht="70">
@@ -4261,29 +4869,29 @@
         <v>20</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="C24" s="20">
         <v>5</v>
       </c>
-      <c r="D24" s="31" t="s">
-        <v>309</v>
+      <c r="D24" s="30" t="s">
+        <v>277</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F24" s="19" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>306</v>
+        <v>274</v>
       </c>
       <c r="H24" s="13"/>
       <c r="I24" s="13" t="s">
-        <v>273</v>
+        <v>485</v>
       </c>
       <c r="J24" s="13" t="s">
-        <v>283</v>
+        <v>486</v>
       </c>
       <c r="K24" s="13"/>
     </row>
@@ -4292,30 +4900,30 @@
         <v>21</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F25" s="19" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G25" s="24" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="H25" s="19"/>
-      <c r="I25" s="54" t="s">
-        <v>105</v>
+      <c r="I25" s="53" t="s">
+        <v>97</v>
       </c>
       <c r="J25" s="22"/>
       <c r="K25" s="19" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:11" s="6" customFormat="1" ht="42">
@@ -4323,32 +4931,32 @@
         <v>22</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>61</v>
+        <v>488</v>
       </c>
       <c r="F26" s="19" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G26" s="24" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="H26" s="13"/>
       <c r="I26" s="13" t="s">
-        <v>395</v>
+        <v>343</v>
       </c>
       <c r="J26" s="13" t="s">
-        <v>394</v>
+        <v>487</v>
       </c>
       <c r="K26" s="13" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="112">
@@ -4356,30 +4964,30 @@
         <v>23</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>354</v>
+        <v>317</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>353</v>
+        <v>316</v>
       </c>
       <c r="D27" s="20"/>
       <c r="E27" s="19" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F27" s="19" t="s">
-        <v>352</v>
+        <v>315</v>
       </c>
       <c r="G27" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H27" s="13"/>
       <c r="I27" s="19" t="s">
-        <v>240</v>
+        <v>425</v>
       </c>
       <c r="J27" s="19" t="s">
-        <v>275</v>
+        <v>252</v>
       </c>
       <c r="K27" s="13" t="s">
-        <v>351</v>
+        <v>314</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="70">
@@ -4387,29 +4995,29 @@
         <v>24</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D28" s="31" t="s">
-        <v>308</v>
+        <v>30</v>
+      </c>
+      <c r="D28" s="30" t="s">
+        <v>276</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F28" s="19" t="s">
-        <v>440</v>
+        <v>379</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>307</v>
+        <v>275</v>
       </c>
       <c r="H28" s="13"/>
       <c r="I28" s="19" t="s">
-        <v>460</v>
+        <v>398</v>
       </c>
       <c r="J28" s="13" t="s">
-        <v>443</v>
+        <v>382</v>
       </c>
       <c r="K28" s="13"/>
     </row>
@@ -4418,32 +5026,32 @@
         <v>25</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>410</v>
+        <v>355</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F29" s="19" t="s">
-        <v>92</v>
+        <v>426</v>
       </c>
       <c r="G29" s="24" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="H29" s="13"/>
       <c r="I29" s="13" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="J29" s="19" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="K29" s="19" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="28">
@@ -4451,32 +5059,32 @@
         <v>26</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="C30" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F30" s="19" t="s">
-        <v>92</v>
+        <v>426</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="H30" s="13"/>
-      <c r="I30" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="J30" s="13" t="s">
-        <v>423</v>
+      <c r="I30" s="19" t="s">
+        <v>498</v>
+      </c>
+      <c r="J30" s="19" t="s">
+        <v>497</v>
       </c>
       <c r="K30" s="13" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="28">
@@ -4484,29 +5092,29 @@
         <v>27</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D31" s="20" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="E31" s="19" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="H31" s="13"/>
       <c r="I31" s="13" t="s">
-        <v>415</v>
+        <v>359</v>
       </c>
       <c r="J31" s="13" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="K31" s="13"/>
     </row>
@@ -4515,30 +5123,30 @@
         <v>28</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="C32" s="31" t="s">
-        <v>112</v>
-      </c>
-      <c r="D32" s="31" t="s">
-        <v>386</v>
+        <v>103</v>
+      </c>
+      <c r="C32" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="D32" s="30" t="s">
+        <v>335</v>
       </c>
       <c r="E32" s="19" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F32" s="24" t="s">
-        <v>439</v>
+        <v>378</v>
       </c>
       <c r="G32" s="24" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="H32" s="13"/>
       <c r="I32" s="19"/>
       <c r="J32" s="13" t="s">
-        <v>438</v>
+        <v>377</v>
       </c>
       <c r="K32" s="13" t="s">
-        <v>243</v>
+        <v>224</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="28">
@@ -4546,59 +5154,61 @@
         <v>29</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C33" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="E33" s="19" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>344</v>
+        <v>307</v>
       </c>
       <c r="G33" s="12" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="H33" s="13"/>
-      <c r="I33" s="28" t="s">
-        <v>339</v>
+      <c r="I33" s="27" t="s">
+        <v>302</v>
       </c>
       <c r="J33" s="24"/>
-      <c r="K33" s="13"/>
+      <c r="K33" s="13" t="s">
+        <v>446</v>
+      </c>
     </row>
     <row r="34" spans="1:11" ht="28">
       <c r="A34" s="21">
         <v>30</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>104</v>
+        <v>495</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D34" s="20" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="E34" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="F34" s="24" t="s">
-        <v>33</v>
+        <v>57</v>
+      </c>
+      <c r="F34" s="27" t="s">
+        <v>439</v>
       </c>
       <c r="G34" s="24" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="H34" s="24"/>
       <c r="I34" s="13" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="J34" s="13"/>
       <c r="K34" s="24" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="28">
@@ -4606,58 +5216,58 @@
         <v>31</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>104</v>
+        <v>496</v>
       </c>
       <c r="C35" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D35" s="20" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E35" s="19" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="G35" s="24" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="H35" s="13"/>
       <c r="I35" s="13" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="J35" s="13"/>
       <c r="K35" s="13"/>
     </row>
-    <row r="36" spans="1:11" ht="28">
+    <row r="36" spans="1:11" ht="42">
       <c r="A36" s="21">
         <v>32</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="D36" s="20" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="E36" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="F36" s="26" t="s">
-        <v>337</v>
+        <v>57</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>434</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>416</v>
+        <v>360</v>
       </c>
       <c r="H36" s="13"/>
       <c r="I36" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="J36" s="27" t="s">
-        <v>338</v>
+        <v>97</v>
+      </c>
+      <c r="J36" s="26" t="s">
+        <v>436</v>
       </c>
       <c r="K36" s="13"/>
     </row>
@@ -4666,61 +5276,61 @@
         <v>33</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D37" s="31" t="s">
-        <v>303</v>
+        <v>31</v>
+      </c>
+      <c r="D37" s="30" t="s">
+        <v>272</v>
       </c>
       <c r="E37" s="19"/>
       <c r="F37" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>334</v>
+        <v>300</v>
       </c>
       <c r="H37" s="13"/>
       <c r="I37" s="19" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="J37" s="13" t="s">
-        <v>412</v>
+        <v>357</v>
       </c>
       <c r="K37" s="13"/>
     </row>
     <row r="38" spans="1:11" ht="42">
-      <c r="A38" s="47">
+      <c r="A38" s="46">
         <v>34</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>411</v>
-      </c>
-      <c r="C38" s="31" t="s">
+        <v>356</v>
+      </c>
+      <c r="C38" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D38" s="31" t="s">
-        <v>406</v>
+      <c r="D38" s="30" t="s">
+        <v>351</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="H38" s="12"/>
       <c r="I38" s="12" t="s">
-        <v>408</v>
+        <v>353</v>
       </c>
       <c r="J38" s="12" t="s">
-        <v>407</v>
+        <v>352</v>
       </c>
       <c r="K38" s="12" t="s">
-        <v>409</v>
+        <v>354</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="56">
@@ -4728,63 +5338,63 @@
         <v>35</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="D39" s="20" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="E39" s="19" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F39" s="19" t="s">
-        <v>224</v>
+        <v>428</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="H39" s="13"/>
       <c r="I39" s="13" t="s">
-        <v>356</v>
+        <v>318</v>
       </c>
       <c r="J39" s="13" t="s">
-        <v>357</v>
+        <v>319</v>
       </c>
       <c r="K39" s="13"/>
     </row>
     <row r="40" spans="1:11" ht="56">
-      <c r="A40" s="47">
+      <c r="A40" s="46">
         <v>36</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>426</v>
-      </c>
-      <c r="C40" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="D40" s="31" t="s">
-        <v>429</v>
+        <v>430</v>
+      </c>
+      <c r="C40" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D40" s="30" t="s">
+        <v>371</v>
       </c>
       <c r="E40" s="18" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>431</v>
+        <v>372</v>
       </c>
       <c r="H40" s="18"/>
       <c r="I40" s="18" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="J40" s="12" t="s">
-        <v>432</v>
+        <v>373</v>
       </c>
       <c r="K40" s="12" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="84">
@@ -4792,32 +5402,32 @@
         <v>37</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>426</v>
+        <v>369</v>
       </c>
       <c r="C41" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D41" s="51" t="s">
-        <v>425</v>
+      <c r="D41" s="50" t="s">
+        <v>368</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>427</v>
+        <v>370</v>
       </c>
       <c r="G41" s="12" t="s">
-        <v>69</v>
+        <v>431</v>
       </c>
       <c r="H41" s="13"/>
       <c r="I41" s="13" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="J41" s="13" t="s">
-        <v>424</v>
+        <v>367</v>
       </c>
       <c r="K41" s="19" t="s">
-        <v>433</v>
+        <v>374</v>
       </c>
     </row>
     <row r="42" spans="1:11" s="22" customFormat="1" ht="28">
@@ -4825,29 +5435,29 @@
         <v>38</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C42" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D42" s="20" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="E42" s="19" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F42" s="19" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="G42" s="19" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="H42" s="13"/>
       <c r="I42" s="13" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="J42" s="19" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="K42" s="13"/>
     </row>
@@ -4856,30 +5466,30 @@
         <v>39</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>66</v>
+        <v>432</v>
       </c>
       <c r="F43" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="G43" s="32" t="s">
-        <v>172</v>
+        <v>108</v>
+      </c>
+      <c r="G43" s="31" t="s">
+        <v>159</v>
       </c>
       <c r="H43" s="13"/>
       <c r="I43" s="13" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="J43" s="13"/>
       <c r="K43" s="13" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="42">
@@ -4887,32 +5497,32 @@
         <v>40</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D44" s="20" t="s">
-        <v>291</v>
+        <v>261</v>
       </c>
       <c r="E44" s="19" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>358</v>
+        <v>320</v>
       </c>
       <c r="G44" s="12" t="s">
-        <v>290</v>
+        <v>260</v>
       </c>
       <c r="H44" s="13"/>
       <c r="I44" s="19" t="s">
-        <v>387</v>
+        <v>336</v>
       </c>
       <c r="J44" s="13" t="s">
-        <v>388</v>
+        <v>337</v>
       </c>
       <c r="K44" s="19" t="s">
-        <v>292</v>
+        <v>262</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="28">
@@ -4920,29 +5530,29 @@
         <v>41</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E45" s="19" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F45" s="23" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="G45" s="19" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="H45" s="13"/>
       <c r="I45" s="13" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="J45" s="13" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="K45" s="13"/>
     </row>
@@ -4951,29 +5561,29 @@
         <v>42</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D46" s="20" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="E46" s="19" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F46" s="19" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="G46" s="12" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="H46" s="13"/>
       <c r="I46" s="13" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="J46" s="13" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="K46" s="13"/>
     </row>
@@ -4982,25 +5592,25 @@
         <v>43</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>374</v>
+        <v>326</v>
       </c>
       <c r="C47" s="14"/>
       <c r="D47" s="14"/>
       <c r="E47" s="13" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F47" s="19" t="s">
-        <v>375</v>
+        <v>327</v>
       </c>
       <c r="G47" s="12" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="H47" s="13"/>
       <c r="I47" s="19" t="s">
-        <v>373</v>
+        <v>460</v>
       </c>
       <c r="J47" s="19" t="s">
-        <v>421</v>
+        <v>365</v>
       </c>
       <c r="K47" s="13"/>
     </row>
@@ -5009,32 +5619,32 @@
         <v>44</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>454</v>
+        <v>393</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D48" s="20" t="s">
-        <v>302</v>
+        <v>271</v>
       </c>
       <c r="E48" s="19" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F48" s="19" t="s">
-        <v>376</v>
+        <v>328</v>
       </c>
       <c r="G48" s="12" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="H48" s="13"/>
       <c r="I48" s="19" t="s">
-        <v>340</v>
+        <v>303</v>
       </c>
       <c r="J48" s="10" t="s">
-        <v>453</v>
+        <v>392</v>
       </c>
       <c r="K48" s="13" t="s">
-        <v>301</v>
+        <v>270</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="42">
@@ -5042,29 +5652,29 @@
         <v>45</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="C49" s="31" t="s">
-        <v>456</v>
-      </c>
-      <c r="D49" s="31" t="s">
-        <v>455</v>
+        <v>254</v>
+      </c>
+      <c r="C49" s="30" t="s">
+        <v>395</v>
+      </c>
+      <c r="D49" s="30" t="s">
+        <v>394</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F49" s="19" t="s">
-        <v>440</v>
+        <v>379</v>
       </c>
       <c r="G49" s="12" t="s">
-        <v>458</v>
+        <v>396</v>
       </c>
       <c r="H49" s="13"/>
       <c r="I49" s="13" t="s">
-        <v>310</v>
+        <v>278</v>
       </c>
       <c r="J49" s="13" t="s">
-        <v>452</v>
+        <v>391</v>
       </c>
       <c r="K49" s="13"/>
     </row>
@@ -5073,80 +5683,80 @@
         <v>46</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="C50" s="31" t="s">
-        <v>330</v>
-      </c>
-      <c r="D50" s="31"/>
+        <v>253</v>
+      </c>
+      <c r="C50" s="30" t="s">
+        <v>296</v>
+      </c>
+      <c r="D50" s="30"/>
       <c r="E50" s="10" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F50" s="19" t="s">
-        <v>348</v>
+        <v>311</v>
       </c>
       <c r="G50" s="12" t="s">
-        <v>442</v>
+        <v>381</v>
       </c>
       <c r="H50" s="13"/>
       <c r="I50" s="19" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="J50" s="19" t="s">
-        <v>349</v>
+        <v>312</v>
       </c>
       <c r="K50" s="13"/>
     </row>
     <row r="51" spans="1:11">
-      <c r="A51" s="62">
+      <c r="A51" s="60">
         <v>47</v>
       </c>
-      <c r="B51" s="49" t="s">
-        <v>56</v>
-      </c>
-      <c r="C51" s="31" t="s">
+      <c r="B51" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="C51" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D51" s="31"/>
-      <c r="E51" s="49" t="s">
-        <v>61</v>
+      <c r="D51" s="30"/>
+      <c r="E51" s="48" t="s">
+        <v>57</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="G51" s="12" t="s">
-        <v>448</v>
+        <v>387</v>
       </c>
       <c r="H51" s="18"/>
       <c r="I51" s="12" t="s">
-        <v>451</v>
+        <v>390</v>
       </c>
       <c r="J51" s="12"/>
       <c r="K51" s="18"/>
     </row>
     <row r="52" spans="1:11">
-      <c r="A52" s="62">
+      <c r="A52" s="60">
         <v>48</v>
       </c>
-      <c r="B52" s="49" t="s">
-        <v>56</v>
-      </c>
-      <c r="C52" s="31" t="s">
+      <c r="B52" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="C52" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D52" s="31"/>
-      <c r="E52" s="49" t="s">
-        <v>61</v>
+      <c r="D52" s="30"/>
+      <c r="E52" s="48" t="s">
+        <v>57</v>
       </c>
       <c r="F52" s="12" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="G52" s="12" t="s">
-        <v>448</v>
+        <v>387</v>
       </c>
       <c r="H52" s="18"/>
       <c r="I52" s="12" t="s">
-        <v>451</v>
+        <v>390</v>
       </c>
       <c r="J52" s="12"/>
       <c r="K52" s="18"/>
@@ -5156,84 +5766,84 @@
         <v>49</v>
       </c>
       <c r="B53" s="19" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
       <c r="C53" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D53" s="20"/>
       <c r="E53" s="19" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="F53" s="19" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="G53" s="19"/>
-      <c r="H53" s="19"/>
+      <c r="H53" s="19" t="s">
+        <v>238</v>
+      </c>
       <c r="I53" s="19" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="J53" s="19" t="s">
-        <v>422</v>
-      </c>
-      <c r="K53" s="19" t="s">
-        <v>258</v>
-      </c>
+        <v>366</v>
+      </c>
+      <c r="K53" s="19"/>
     </row>
     <row r="54" spans="1:11" ht="28">
-      <c r="A54" s="47">
+      <c r="A54" s="46">
         <v>50</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="C54" s="31" t="s">
+        <v>231</v>
+      </c>
+      <c r="C54" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D54" s="31"/>
+      <c r="D54" s="30"/>
       <c r="E54" s="12" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="F54" s="12" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
       <c r="G54" s="12"/>
-      <c r="H54" s="12"/>
+      <c r="H54" s="12" t="s">
+        <v>237</v>
+      </c>
       <c r="I54" s="12" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="J54" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="K54" s="12" t="s">
-        <v>257</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="K54" s="12"/>
     </row>
     <row r="55" spans="1:11" ht="28">
       <c r="A55" s="21">
         <v>51</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D55" s="20" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="E55" s="19" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F55" s="19" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="G55" s="19" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="23" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="J55" s="19"/>
       <c r="K55" s="19"/>
@@ -5243,29 +5853,29 @@
         <v>52</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C56" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D56" s="20" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="E56" s="19" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F56" s="19" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G56" s="19" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="23" t="s">
-        <v>451</v>
+        <v>390</v>
       </c>
       <c r="J56" s="19" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="K56" s="19"/>
     </row>
@@ -5274,29 +5884,29 @@
         <v>53</v>
       </c>
       <c r="B57" s="19" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C57" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D57" s="20" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E57" s="19" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F57" s="19" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G57" s="19" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="23" t="s">
-        <v>451</v>
+        <v>390</v>
       </c>
       <c r="J57" s="19" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="K57" s="19"/>
     </row>
@@ -5305,29 +5915,29 @@
         <v>54</v>
       </c>
       <c r="B58" s="19" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C58" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D58" s="20" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E58" s="19" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F58" s="19" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G58" s="19" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="23" t="s">
-        <v>451</v>
+        <v>390</v>
       </c>
       <c r="J58" s="19" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="K58" s="19"/>
     </row>
@@ -5336,23 +5946,23 @@
         <v>55</v>
       </c>
       <c r="B59" s="19" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C59" s="20"/>
       <c r="D59" s="20" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="E59" s="23"/>
       <c r="F59" s="19"/>
       <c r="G59" s="19" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="J59" s="19" t="s">
-        <v>106</v>
+        <v>97</v>
+      </c>
+      <c r="J59" s="23" t="s">
+        <v>98</v>
       </c>
       <c r="K59" s="19"/>
     </row>
@@ -5361,20 +5971,20 @@
         <v>56</v>
       </c>
       <c r="B60" s="19" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C60" s="20"/>
       <c r="D60" s="20" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="E60" s="23"/>
       <c r="F60" s="19"/>
       <c r="G60" s="19" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="23" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="J60" s="19"/>
       <c r="K60" s="19"/>
@@ -5384,81 +5994,81 @@
         <v>57</v>
       </c>
       <c r="B61" s="19" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C61" s="20"/>
       <c r="D61" s="20" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="E61" s="23"/>
       <c r="F61" s="19"/>
       <c r="G61" s="19" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="23" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="J61" s="19"/>
       <c r="K61" s="19"/>
     </row>
     <row r="62" spans="1:11" s="22" customFormat="1" ht="28">
-      <c r="A62" s="47">
+      <c r="A62" s="46">
         <v>58</v>
       </c>
       <c r="B62" s="19" t="s">
-        <v>298</v>
+        <v>267</v>
       </c>
       <c r="C62" s="20" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D62" s="20" t="s">
-        <v>345</v>
+        <v>308</v>
       </c>
       <c r="E62" s="19" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F62" s="19" t="s">
-        <v>296</v>
+        <v>265</v>
       </c>
       <c r="G62" s="19" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19" t="s">
-        <v>295</v>
+        <v>264</v>
       </c>
       <c r="J62" s="19" t="s">
-        <v>297</v>
+        <v>266</v>
       </c>
       <c r="K62" s="23"/>
     </row>
-    <row r="63" spans="1:11" s="22" customFormat="1" ht="42">
+    <row r="63" spans="1:11" s="22" customFormat="1" ht="56">
       <c r="A63" s="21">
         <v>59</v>
       </c>
       <c r="B63" s="19" t="s">
-        <v>444</v>
+        <v>383</v>
       </c>
       <c r="C63" s="20" t="s">
-        <v>445</v>
+        <v>384</v>
       </c>
       <c r="D63" s="20"/>
       <c r="E63" s="19" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="F63" s="19" t="s">
-        <v>446</v>
+        <v>385</v>
       </c>
       <c r="G63" s="23" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="H63" s="23"/>
       <c r="I63" s="23" t="s">
-        <v>447</v>
+        <v>386</v>
       </c>
       <c r="J63" s="19" t="s">
-        <v>457</v>
+        <v>410</v>
       </c>
       <c r="K63" s="19"/>
     </row>
@@ -5467,24 +6077,24 @@
         <v>60</v>
       </c>
       <c r="B64" s="19" t="s">
-        <v>104</v>
+        <v>495</v>
       </c>
       <c r="C64" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D64" s="20" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="E64" s="19" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F64" s="23"/>
       <c r="G64" s="19" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="H64" s="23"/>
       <c r="I64" s="23" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="J64" s="19"/>
       <c r="K64" s="19"/>
@@ -5494,999 +6104,1057 @@
         <v>61</v>
       </c>
       <c r="B65" s="19" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C65" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D65" s="20" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="E65" s="19" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F65" s="23" t="s">
-        <v>228</v>
+        <v>433</v>
       </c>
       <c r="G65" s="23" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="H65" s="23"/>
       <c r="I65" s="23" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="J65" s="19"/>
       <c r="K65" s="19" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
     </row>
     <row r="66" spans="1:11" s="22" customFormat="1">
-      <c r="A66" s="47">
+      <c r="A66" s="46">
         <v>62</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>332</v>
-      </c>
-      <c r="C66" s="31"/>
-      <c r="D66" s="31"/>
+        <v>298</v>
+      </c>
+      <c r="C66" s="30"/>
+      <c r="D66" s="30"/>
       <c r="E66" s="12" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F66" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G66" s="12" t="s">
-        <v>333</v>
+        <v>299</v>
       </c>
       <c r="H66" s="12"/>
       <c r="I66" s="12" t="s">
-        <v>451</v>
+        <v>390</v>
       </c>
       <c r="J66" s="12"/>
       <c r="K66" s="12"/>
     </row>
-    <row r="67" spans="1:11" s="53" customFormat="1" ht="42">
-      <c r="A67" s="47">
+    <row r="67" spans="1:11" s="52" customFormat="1" ht="42">
+      <c r="A67" s="46">
         <v>63</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="C67" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="C67" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D67" s="31" t="s">
-        <v>469</v>
+      <c r="D67" s="30" t="s">
+        <v>405</v>
       </c>
       <c r="E67" s="12" t="s">
-        <v>471</v>
+        <v>407</v>
       </c>
       <c r="F67" s="12" t="s">
-        <v>467</v>
+        <v>403</v>
       </c>
       <c r="G67" s="12" t="s">
-        <v>470</v>
+        <v>406</v>
       </c>
       <c r="H67" s="12" t="s">
-        <v>468</v>
+        <v>404</v>
       </c>
       <c r="I67" s="12" t="s">
-        <v>472</v>
+        <v>408</v>
       </c>
       <c r="J67" s="12" t="s">
-        <v>473</v>
+        <v>409</v>
       </c>
       <c r="K67" s="12"/>
     </row>
-    <row r="68" spans="1:11" s="22" customFormat="1">
-      <c r="A68" s="47"/>
-      <c r="B68" s="12"/>
-      <c r="C68" s="31"/>
-      <c r="D68" s="31"/>
-      <c r="E68" s="12"/>
-      <c r="F68" s="12"/>
+    <row r="68" spans="1:11" s="22" customFormat="1" ht="70">
+      <c r="A68" s="46">
+        <v>64</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C68" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="D68" s="30"/>
+      <c r="E68" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F68" s="12" t="s">
+        <v>413</v>
+      </c>
       <c r="G68" s="12"/>
       <c r="H68" s="12"/>
       <c r="I68" s="12"/>
       <c r="J68" s="12"/>
-      <c r="K68" s="12"/>
-    </row>
-    <row r="69" spans="1:11" s="22" customFormat="1">
-      <c r="A69" s="44"/>
-      <c r="B69" s="45" t="s">
+      <c r="K68" s="12" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" s="22" customFormat="1" ht="42">
+      <c r="A69" s="46">
+        <v>65</v>
+      </c>
+      <c r="B69" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="C69" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D69" s="30"/>
+      <c r="E69" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F69" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="G69" s="12" t="s">
+        <v>422</v>
+      </c>
+      <c r="H69" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="I69" s="12" t="s">
+        <v>415</v>
+      </c>
+      <c r="J69" s="12" t="s">
+        <v>423</v>
+      </c>
+      <c r="K69" s="12"/>
+    </row>
+    <row r="70" spans="1:11" s="64" customFormat="1" ht="42">
+      <c r="A70" s="61">
+        <v>66</v>
+      </c>
+      <c r="B70" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="C70" s="62" t="s">
+        <v>259</v>
+      </c>
+      <c r="D70" s="62"/>
+      <c r="E70" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="F70" s="24" t="s">
+        <v>418</v>
+      </c>
+      <c r="G70" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="H70" s="63" t="s">
+        <v>417</v>
+      </c>
+      <c r="I70" s="24" t="s">
+        <v>358</v>
+      </c>
+      <c r="J70" s="24" t="s">
+        <v>419</v>
+      </c>
+      <c r="K70" s="63"/>
+    </row>
+    <row r="71" spans="1:11" s="51" customFormat="1" ht="42">
+      <c r="A71" s="46">
+        <v>67</v>
+      </c>
+      <c r="B71" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C71" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="D71" s="30" t="s">
+        <v>462</v>
+      </c>
+      <c r="E71" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F71" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="G71" s="12" t="s">
+        <v>463</v>
+      </c>
+      <c r="H71" s="12"/>
+      <c r="I71" s="12" t="s">
+        <v>464</v>
+      </c>
+      <c r="J71" s="12" t="s">
+        <v>461</v>
+      </c>
+      <c r="K71" s="18"/>
+    </row>
+    <row r="72" spans="1:11" s="51" customFormat="1">
+      <c r="A72" s="35"/>
+      <c r="B72" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="C72" s="37"/>
+      <c r="D72" s="37"/>
+      <c r="E72" s="38"/>
+      <c r="F72" s="38"/>
+      <c r="G72" s="38"/>
+      <c r="H72" s="38"/>
+      <c r="I72" s="38"/>
+      <c r="J72" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="K72" s="38"/>
+    </row>
+    <row r="73" spans="1:11" s="51" customFormat="1">
+      <c r="A73" s="35"/>
+      <c r="B73" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="C73" s="37"/>
+      <c r="D73" s="37"/>
+      <c r="E73" s="38"/>
+      <c r="F73" s="38"/>
+      <c r="G73" s="38"/>
+      <c r="H73" s="38"/>
+      <c r="I73" s="38"/>
+      <c r="J73" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="K73" s="38"/>
+    </row>
+    <row r="74" spans="1:11" s="22" customFormat="1" ht="28">
+      <c r="A74" s="43"/>
+      <c r="B74" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="C74" s="45"/>
+      <c r="D74" s="45"/>
+      <c r="E74" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="F74" s="44"/>
+      <c r="G74" s="44" t="s">
+        <v>329</v>
+      </c>
+      <c r="H74" s="44"/>
+      <c r="I74" s="65" t="s">
+        <v>416</v>
+      </c>
+      <c r="J74" s="44" t="s">
+        <v>420</v>
+      </c>
+      <c r="K74" s="44"/>
+    </row>
+    <row r="75" spans="1:11" s="22" customFormat="1">
+      <c r="A75" s="43"/>
+      <c r="B75" s="44" t="s">
+        <v>290</v>
+      </c>
+      <c r="C75" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="D75" s="45"/>
+      <c r="E75" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="F75" s="44"/>
+      <c r="G75" s="44" t="s">
+        <v>111</v>
+      </c>
+      <c r="H75" s="44"/>
+      <c r="I75" s="44"/>
+      <c r="J75" s="44" t="s">
+        <v>309</v>
+      </c>
+      <c r="K75" s="44" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" s="22" customFormat="1" ht="28">
+      <c r="A76" s="43"/>
+      <c r="B76" s="44" t="s">
+        <v>290</v>
+      </c>
+      <c r="C76" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="D76" s="45"/>
+      <c r="E76" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="F76" s="44" t="s">
+        <v>306</v>
+      </c>
+      <c r="G76" s="44" t="s">
+        <v>111</v>
+      </c>
+      <c r="H76" s="38"/>
+      <c r="I76" s="44" t="s">
+        <v>305</v>
+      </c>
+      <c r="J76" s="44" t="s">
+        <v>304</v>
+      </c>
+      <c r="K76" s="38"/>
+    </row>
+    <row r="77" spans="1:11" s="22" customFormat="1" ht="56">
+      <c r="A77" s="43"/>
+      <c r="B77" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="C77" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="D77" s="45"/>
+      <c r="E77" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="F77" s="44" t="s">
+        <v>361</v>
+      </c>
+      <c r="G77" s="44" t="s">
+        <v>111</v>
+      </c>
+      <c r="H77" s="44"/>
+      <c r="I77" s="44" t="s">
+        <v>362</v>
+      </c>
+      <c r="J77" s="44" t="s">
+        <v>364</v>
+      </c>
+      <c r="K77" s="44" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" s="22" customFormat="1" ht="28">
+      <c r="A78" s="43"/>
+      <c r="B78" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="C78" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="D78" s="45"/>
+      <c r="E78" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="F78" s="44"/>
+      <c r="G78" s="36"/>
+      <c r="H78" s="44"/>
+      <c r="I78" s="44" t="s">
+        <v>334</v>
+      </c>
+      <c r="J78" s="44" t="s">
+        <v>333</v>
+      </c>
+      <c r="K78" s="44"/>
+    </row>
+    <row r="79" spans="1:11" s="22" customFormat="1">
+      <c r="A79" s="43"/>
+      <c r="B79" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="C79" s="45"/>
+      <c r="D79" s="45"/>
+      <c r="E79" s="36"/>
+      <c r="F79" s="44"/>
+      <c r="G79" s="36"/>
+      <c r="H79" s="44"/>
+      <c r="I79" s="36" t="s">
+        <v>301</v>
+      </c>
+      <c r="J79" s="36" t="s">
+        <v>286</v>
+      </c>
+      <c r="K79" s="44"/>
+    </row>
+    <row r="80" spans="1:11" s="22" customFormat="1" ht="112">
+      <c r="A80" s="58"/>
+      <c r="B80" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="C80" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="D80" s="59"/>
+      <c r="E80" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="F80" s="44" t="s">
+        <v>281</v>
+      </c>
+      <c r="G80" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="H80" s="38"/>
+      <c r="I80" s="44" t="s">
+        <v>280</v>
+      </c>
+      <c r="J80" s="44" t="s">
+        <v>279</v>
+      </c>
+      <c r="K80" s="38" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" s="22" customFormat="1" ht="42">
+      <c r="A81" s="58" t="s">
+        <v>473</v>
+      </c>
+      <c r="B81" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="C81" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="D81" s="59"/>
+      <c r="E81" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="F81" s="44"/>
+      <c r="G81" s="44"/>
+      <c r="H81" s="38"/>
+      <c r="I81" s="44" t="s">
+        <v>472</v>
+      </c>
+      <c r="J81" s="44" t="s">
+        <v>282</v>
+      </c>
+      <c r="K81" s="38"/>
+    </row>
+    <row r="82" spans="1:11" s="22" customFormat="1" ht="28">
+      <c r="A82" s="43"/>
+      <c r="B82" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="C82" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="D82" s="45"/>
+      <c r="E82" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="F82" s="44"/>
+      <c r="G82" s="36"/>
+      <c r="H82" s="44"/>
+      <c r="I82" s="44" t="s">
+        <v>294</v>
+      </c>
+      <c r="J82" s="44" t="s">
+        <v>295</v>
+      </c>
+      <c r="K82" s="44"/>
+    </row>
+    <row r="83" spans="1:11" s="22" customFormat="1">
+      <c r="A83" s="43"/>
+      <c r="B83" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="C83" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="D83" s="45"/>
+      <c r="E83" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="F83" s="44"/>
+      <c r="G83" s="36"/>
+      <c r="H83" s="44"/>
+      <c r="I83" s="44" t="s">
+        <v>322</v>
+      </c>
+      <c r="J83" s="44" t="s">
+        <v>295</v>
+      </c>
+      <c r="K83" s="36" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" s="22" customFormat="1" ht="28">
+      <c r="A84" s="43"/>
+      <c r="B84" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="C84" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="D84" s="45"/>
+      <c r="E84" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="F84" s="44" t="s">
+        <v>285</v>
+      </c>
+      <c r="G84" s="36"/>
+      <c r="H84" s="44"/>
+      <c r="I84" s="44" t="s">
+        <v>283</v>
+      </c>
+      <c r="J84" s="44" t="s">
+        <v>284</v>
+      </c>
+      <c r="K84" s="44"/>
+    </row>
+    <row r="85" spans="1:11" s="22" customFormat="1">
+      <c r="A85" s="43"/>
+      <c r="B85" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="C85" s="45"/>
+      <c r="D85" s="45"/>
+      <c r="E85" s="36"/>
+      <c r="F85" s="44"/>
+      <c r="G85" s="36"/>
+      <c r="H85" s="44"/>
+      <c r="I85" s="36" t="s">
+        <v>287</v>
+      </c>
+      <c r="J85" s="36" t="s">
+        <v>286</v>
+      </c>
+      <c r="K85" s="44"/>
+    </row>
+    <row r="86" spans="1:11" s="22" customFormat="1" ht="28">
+      <c r="A86" s="43"/>
+      <c r="B86" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="C86" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="D86" s="45"/>
+      <c r="E86" s="36"/>
+      <c r="F86" s="44"/>
+      <c r="G86" s="36"/>
+      <c r="H86" s="44"/>
+      <c r="I86" s="44" t="s">
         <v>323</v>
       </c>
-      <c r="C69" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="D69" s="46"/>
-      <c r="E69" s="45" t="s">
+      <c r="J86" s="36" t="s">
+        <v>289</v>
+      </c>
+      <c r="K86" s="44"/>
+    </row>
+    <row r="87" spans="1:11" s="22" customFormat="1" ht="28">
+      <c r="A87" s="43"/>
+      <c r="B87" s="44" t="s">
+        <v>290</v>
+      </c>
+      <c r="C87" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="D87" s="45"/>
+      <c r="E87" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="F87" s="44" t="s">
+        <v>291</v>
+      </c>
+      <c r="G87" s="36"/>
+      <c r="H87" s="44"/>
+      <c r="I87" s="44" t="s">
+        <v>324</v>
+      </c>
+      <c r="J87" s="44" t="s">
+        <v>288</v>
+      </c>
+      <c r="K87" s="44"/>
+    </row>
+    <row r="88" spans="1:11" s="22" customFormat="1">
+      <c r="A88" s="43"/>
+      <c r="B88" s="44" t="s">
+        <v>290</v>
+      </c>
+      <c r="C88" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="D88" s="45"/>
+      <c r="E88" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="F88" s="44" t="s">
+        <v>291</v>
+      </c>
+      <c r="G88" s="36"/>
+      <c r="H88" s="44"/>
+      <c r="I88" s="44" t="s">
+        <v>325</v>
+      </c>
+      <c r="J88" s="44" t="s">
+        <v>293</v>
+      </c>
+      <c r="K88" s="44"/>
+    </row>
+    <row r="89" spans="1:11" s="22" customFormat="1" ht="154">
+      <c r="A89" s="43" t="s">
+        <v>474</v>
+      </c>
+      <c r="B89" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="C89" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="D89" s="45"/>
+      <c r="E89" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="F89" s="44" t="s">
+        <v>453</v>
+      </c>
+      <c r="G89" s="36"/>
+      <c r="H89" s="44"/>
+      <c r="I89" s="44" t="s">
+        <v>454</v>
+      </c>
+      <c r="J89" s="44" t="s">
+        <v>292</v>
+      </c>
+      <c r="K89" s="44" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" s="22" customFormat="1">
+      <c r="A90" s="35"/>
+      <c r="B90" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="C90" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="D90" s="37"/>
+      <c r="E90" s="38"/>
+      <c r="F90" s="38"/>
+      <c r="G90" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="H90" s="38"/>
+      <c r="I90" s="38"/>
+      <c r="J90" s="38"/>
+      <c r="K90" s="38"/>
+    </row>
+    <row r="91" spans="1:11" s="22" customFormat="1">
+      <c r="A91" s="35"/>
+      <c r="B91" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="C91" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="D91" s="37"/>
+      <c r="E91" s="38"/>
+      <c r="F91" s="38"/>
+      <c r="G91" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="H91" s="38"/>
+      <c r="I91" s="38"/>
+      <c r="J91" s="38"/>
+      <c r="K91" s="38"/>
+    </row>
+    <row r="92" spans="1:11" ht="42">
+      <c r="A92" s="35"/>
+      <c r="B92" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C92" s="37"/>
+      <c r="D92" s="37"/>
+      <c r="E92" s="38"/>
+      <c r="F92" s="38"/>
+      <c r="G92" s="38"/>
+      <c r="H92" s="38"/>
+      <c r="I92" s="38" t="s">
+        <v>269</v>
+      </c>
+      <c r="J92" s="38" t="s">
+        <v>268</v>
+      </c>
+      <c r="K92" s="38"/>
+    </row>
+    <row r="93" spans="1:11">
+      <c r="A93" s="35"/>
+      <c r="B93" s="36"/>
+      <c r="C93" s="37"/>
+      <c r="D93" s="37"/>
+      <c r="E93" s="38"/>
+      <c r="F93" s="38" t="s">
+        <v>437</v>
+      </c>
+      <c r="G93" s="38"/>
+      <c r="H93" s="38"/>
+      <c r="I93" s="38"/>
+      <c r="J93" s="38" t="s">
+        <v>438</v>
+      </c>
+      <c r="K93" s="38"/>
+    </row>
+    <row r="94" spans="1:11" ht="28">
+      <c r="A94" s="43"/>
+      <c r="B94" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="C94" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="D94" s="45"/>
+      <c r="E94" s="36"/>
+      <c r="F94" s="44"/>
+      <c r="G94" s="44" t="s">
+        <v>388</v>
+      </c>
+      <c r="H94" s="44"/>
+      <c r="I94" s="44"/>
+      <c r="J94" s="44"/>
+      <c r="K94" s="44" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" s="52" customFormat="1" ht="98">
+      <c r="A95" s="43"/>
+      <c r="B95" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="C95" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="D95" s="45"/>
+      <c r="E95" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="F95" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="G95" s="44" t="s">
+        <v>227</v>
+      </c>
+      <c r="H95" s="44"/>
+      <c r="I95" s="36" t="s">
+        <v>225</v>
+      </c>
+      <c r="J95" s="44"/>
+      <c r="K95" s="44" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" s="51" customFormat="1">
+      <c r="A96" s="43"/>
+      <c r="B96" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="F69" s="45" t="s">
-        <v>343</v>
-      </c>
-      <c r="G69" s="45" t="s">
-        <v>119</v>
-      </c>
-      <c r="H69" s="45"/>
-      <c r="I69" s="45"/>
-      <c r="J69" s="45" t="s">
+      <c r="C96" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="D96" s="45"/>
+      <c r="E96" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="F96" s="44"/>
+      <c r="G96" s="44" t="s">
+        <v>227</v>
+      </c>
+      <c r="H96" s="44"/>
+      <c r="I96" s="44"/>
+      <c r="J96" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="K96" s="44"/>
+    </row>
+    <row r="97" spans="1:11" s="52" customFormat="1">
+      <c r="A97" s="43"/>
+      <c r="B97" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="C97" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="D97" s="45"/>
+      <c r="E97" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="F97" s="44"/>
+      <c r="G97" s="44" t="s">
+        <v>227</v>
+      </c>
+      <c r="H97" s="44"/>
+      <c r="I97" s="44"/>
+      <c r="J97" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="K97" s="44"/>
+    </row>
+    <row r="98" spans="1:11" s="52" customFormat="1">
+      <c r="A98" s="43"/>
+      <c r="B98" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="C98" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="D98" s="45"/>
+      <c r="E98" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="F98" s="44"/>
+      <c r="G98" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="H98" s="44"/>
+      <c r="I98" s="44"/>
+      <c r="J98" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="K98" s="44"/>
+    </row>
+    <row r="99" spans="1:11" s="52" customFormat="1">
+      <c r="A99" s="43"/>
+      <c r="B99" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="C99" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="D99" s="45"/>
+      <c r="E99" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="F99" s="44"/>
+      <c r="G99" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="H99" s="44"/>
+      <c r="I99" s="44"/>
+      <c r="J99" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="K99" s="44" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" s="52" customFormat="1">
+      <c r="A100" s="43"/>
+      <c r="B100" s="44" t="s">
+        <v>241</v>
+      </c>
+      <c r="C100" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="D100" s="45"/>
+      <c r="E100" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="F100" s="44"/>
+      <c r="G100" s="44" t="s">
+        <v>239</v>
+      </c>
+      <c r="H100" s="44" t="s">
+        <v>240</v>
+      </c>
+      <c r="I100" s="44"/>
+      <c r="J100" s="44"/>
+      <c r="K100" s="44" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" s="52" customFormat="1" ht="28">
+      <c r="A101" s="43"/>
+      <c r="B101" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="C101" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="D101" s="45"/>
+      <c r="E101" s="44" t="s">
+        <v>110</v>
+      </c>
+      <c r="F101" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="G101" s="44" t="s">
+        <v>182</v>
+      </c>
+      <c r="H101" s="44" t="s">
+        <v>188</v>
+      </c>
+      <c r="I101" s="44"/>
+      <c r="J101" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="K101" s="44" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" s="52" customFormat="1" ht="28">
+      <c r="A102" s="43"/>
+      <c r="B102" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="C102" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="D102" s="45"/>
+      <c r="E102" s="44" t="s">
+        <v>110</v>
+      </c>
+      <c r="F102" s="44"/>
+      <c r="G102" s="44" t="s">
+        <v>239</v>
+      </c>
+      <c r="H102" s="44" t="s">
+        <v>242</v>
+      </c>
+      <c r="I102" s="44"/>
+      <c r="J102" s="44" t="s">
+        <v>443</v>
+      </c>
+      <c r="K102" s="44"/>
+    </row>
+    <row r="103" spans="1:11" s="52" customFormat="1" ht="28">
+      <c r="A103" s="43"/>
+      <c r="B103" s="44" t="s">
         <v>346</v>
       </c>
-      <c r="K69" s="45" t="s">
+      <c r="C103" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="D103" s="45"/>
+      <c r="E103" s="44" t="s">
+        <v>110</v>
+      </c>
+      <c r="F103" s="44"/>
+      <c r="G103" s="44" t="s">
+        <v>239</v>
+      </c>
+      <c r="H103" s="44" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" s="22" customFormat="1" ht="28">
-      <c r="A70" s="44"/>
-      <c r="B70" s="45" t="s">
-        <v>323</v>
-      </c>
-      <c r="C70" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="D70" s="46"/>
-      <c r="E70" s="45" t="s">
-        <v>64</v>
-      </c>
-      <c r="F70" s="45" t="s">
-        <v>343</v>
-      </c>
-      <c r="G70" s="45" t="s">
-        <v>119</v>
-      </c>
-      <c r="H70" s="39"/>
-      <c r="I70" s="45" t="s">
-        <v>342</v>
-      </c>
-      <c r="J70" s="45" t="s">
-        <v>341</v>
-      </c>
-      <c r="K70" s="39"/>
-    </row>
-    <row r="71" spans="1:11" s="22" customFormat="1" ht="28">
-      <c r="A71" s="44"/>
-      <c r="B71" s="45"/>
-      <c r="C71" s="46"/>
-      <c r="D71" s="46"/>
-      <c r="E71" s="45"/>
-      <c r="F71" s="45"/>
-      <c r="G71" s="45" t="s">
-        <v>377</v>
-      </c>
-      <c r="H71" s="39"/>
-      <c r="I71" s="61" t="s">
-        <v>379</v>
-      </c>
-      <c r="J71" s="37" t="s">
-        <v>378</v>
-      </c>
-      <c r="K71" s="39"/>
-    </row>
-    <row r="72" spans="1:11" s="22" customFormat="1" ht="56">
-      <c r="A72" s="44"/>
-      <c r="B72" s="45" t="s">
-        <v>117</v>
-      </c>
-      <c r="C72" s="46" t="s">
+      <c r="I103" s="44"/>
+      <c r="J103" s="44" t="s">
+        <v>442</v>
+      </c>
+      <c r="K103" s="44"/>
+    </row>
+    <row r="104" spans="1:11" s="52" customFormat="1" ht="28">
+      <c r="A104" s="43"/>
+      <c r="B104" s="44" t="s">
+        <v>345</v>
+      </c>
+      <c r="C104" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="D72" s="46"/>
-      <c r="E72" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="F72" s="45" t="s">
-        <v>417</v>
-      </c>
-      <c r="G72" s="45" t="s">
-        <v>119</v>
-      </c>
-      <c r="H72" s="45"/>
-      <c r="I72" s="45" t="s">
-        <v>418</v>
-      </c>
-      <c r="J72" s="45" t="s">
-        <v>420</v>
-      </c>
-      <c r="K72" s="45" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" s="22" customFormat="1" ht="28">
-      <c r="A73" s="44"/>
-      <c r="B73" s="45" t="s">
-        <v>117</v>
-      </c>
-      <c r="C73" s="46" t="s">
+      <c r="D104" s="45"/>
+      <c r="E104" s="44" t="s">
+        <v>110</v>
+      </c>
+      <c r="F104" s="44"/>
+      <c r="G104" s="44" t="s">
+        <v>239</v>
+      </c>
+      <c r="H104" s="44" t="s">
+        <v>344</v>
+      </c>
+      <c r="I104" s="44"/>
+      <c r="J104" s="44" t="s">
+        <v>441</v>
+      </c>
+      <c r="K104" s="44" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" s="52" customFormat="1" ht="182">
+      <c r="A105" s="43"/>
+      <c r="B105" s="44" t="s">
+        <v>189</v>
+      </c>
+      <c r="C105" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="D73" s="46"/>
-      <c r="E73" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="F73" s="45"/>
-      <c r="G73" s="37"/>
-      <c r="H73" s="45"/>
-      <c r="I73" s="45" t="s">
-        <v>385</v>
-      </c>
-      <c r="J73" s="45" t="s">
-        <v>384</v>
-      </c>
-      <c r="K73" s="45"/>
-    </row>
-    <row r="74" spans="1:11" s="22" customFormat="1">
-      <c r="A74" s="44"/>
-      <c r="B74" s="45" t="s">
-        <v>117</v>
-      </c>
-      <c r="C74" s="46"/>
-      <c r="D74" s="46"/>
-      <c r="E74" s="37"/>
-      <c r="F74" s="45"/>
-      <c r="G74" s="37"/>
-      <c r="H74" s="45"/>
-      <c r="I74" s="37" t="s">
-        <v>336</v>
-      </c>
-      <c r="J74" s="37" t="s">
-        <v>319</v>
-      </c>
-      <c r="K74" s="45"/>
-    </row>
-    <row r="75" spans="1:11" s="22" customFormat="1" ht="42">
-      <c r="A75" s="44"/>
-      <c r="B75" s="45" t="s">
-        <v>117</v>
-      </c>
-      <c r="C75" s="46" t="s">
-        <v>288</v>
-      </c>
-      <c r="D75" s="46"/>
-      <c r="E75" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="F75" s="37" t="s">
-        <v>289</v>
-      </c>
-      <c r="G75" s="37" t="s">
-        <v>119</v>
-      </c>
-      <c r="H75" s="39"/>
-      <c r="I75" s="45" t="s">
-        <v>414</v>
-      </c>
-      <c r="J75" s="45" t="s">
-        <v>413</v>
-      </c>
-      <c r="K75" s="39"/>
-    </row>
-    <row r="76" spans="1:11" s="22" customFormat="1" ht="112">
-      <c r="A76" s="59"/>
-      <c r="B76" s="40" t="s">
-        <v>117</v>
-      </c>
-      <c r="C76" s="60" t="s">
-        <v>19</v>
-      </c>
-      <c r="D76" s="60"/>
-      <c r="E76" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="F76" s="45" t="s">
-        <v>313</v>
-      </c>
-      <c r="G76" s="37" t="s">
-        <v>119</v>
-      </c>
-      <c r="H76" s="39"/>
-      <c r="I76" s="45" t="s">
-        <v>312</v>
-      </c>
-      <c r="J76" s="45" t="s">
-        <v>311</v>
-      </c>
-      <c r="K76" s="39" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" s="22" customFormat="1" ht="42">
-      <c r="A77" s="59"/>
-      <c r="B77" s="40" t="s">
-        <v>117</v>
-      </c>
-      <c r="C77" s="60" t="s">
-        <v>32</v>
-      </c>
-      <c r="D77" s="60"/>
-      <c r="E77" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="F77" s="45"/>
-      <c r="G77" s="45"/>
-      <c r="H77" s="39"/>
-      <c r="I77" s="45" t="s">
-        <v>315</v>
-      </c>
-      <c r="J77" s="45" t="s">
-        <v>314</v>
-      </c>
-      <c r="K77" s="39"/>
-    </row>
-    <row r="78" spans="1:11" s="22" customFormat="1" ht="28">
-      <c r="A78" s="44"/>
-      <c r="B78" s="45" t="s">
-        <v>117</v>
-      </c>
-      <c r="C78" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="D78" s="46"/>
-      <c r="E78" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="F78" s="45"/>
-      <c r="G78" s="37"/>
-      <c r="H78" s="45"/>
-      <c r="I78" s="45" t="s">
-        <v>328</v>
-      </c>
-      <c r="J78" s="45" t="s">
-        <v>329</v>
-      </c>
-      <c r="K78" s="45"/>
-    </row>
-    <row r="79" spans="1:11" s="22" customFormat="1">
-      <c r="A79" s="44"/>
-      <c r="B79" s="45" t="s">
-        <v>117</v>
-      </c>
-      <c r="C79" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="D79" s="46"/>
-      <c r="E79" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="F79" s="45"/>
-      <c r="G79" s="37"/>
-      <c r="H79" s="45"/>
-      <c r="I79" s="45" t="s">
-        <v>368</v>
-      </c>
-      <c r="J79" s="45" t="s">
-        <v>329</v>
-      </c>
-      <c r="K79" s="37" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" s="22" customFormat="1" ht="28">
-      <c r="A80" s="44"/>
-      <c r="B80" s="45" t="s">
-        <v>117</v>
-      </c>
-      <c r="C80" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="D80" s="46"/>
-      <c r="E80" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="F80" s="45" t="s">
-        <v>318</v>
-      </c>
-      <c r="G80" s="37"/>
-      <c r="H80" s="45"/>
-      <c r="I80" s="45" t="s">
-        <v>316</v>
-      </c>
-      <c r="J80" s="45" t="s">
-        <v>317</v>
-      </c>
-      <c r="K80" s="45"/>
-    </row>
-    <row r="81" spans="1:11" s="22" customFormat="1">
-      <c r="A81" s="44"/>
-      <c r="B81" s="45" t="s">
-        <v>117</v>
-      </c>
-      <c r="C81" s="46"/>
-      <c r="D81" s="46"/>
-      <c r="E81" s="37"/>
-      <c r="F81" s="45"/>
-      <c r="G81" s="37"/>
-      <c r="H81" s="45"/>
-      <c r="I81" s="37" t="s">
-        <v>320</v>
-      </c>
-      <c r="J81" s="37" t="s">
-        <v>319</v>
-      </c>
-      <c r="K81" s="45"/>
-    </row>
-    <row r="82" spans="1:11" s="22" customFormat="1" ht="28">
-      <c r="A82" s="44"/>
-      <c r="B82" s="45" t="s">
-        <v>117</v>
-      </c>
-      <c r="C82" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="D82" s="46"/>
-      <c r="E82" s="37"/>
-      <c r="F82" s="45"/>
-      <c r="G82" s="37"/>
-      <c r="H82" s="45"/>
-      <c r="I82" s="45" t="s">
-        <v>369</v>
-      </c>
-      <c r="J82" s="37" t="s">
-        <v>322</v>
-      </c>
-      <c r="K82" s="45"/>
-    </row>
-    <row r="83" spans="1:11" s="22" customFormat="1" ht="28">
-      <c r="A83" s="44"/>
-      <c r="B83" s="45" t="s">
-        <v>323</v>
-      </c>
-      <c r="C83" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="D83" s="46"/>
-      <c r="E83" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="F83" s="45" t="s">
-        <v>324</v>
-      </c>
-      <c r="G83" s="37"/>
-      <c r="H83" s="45"/>
-      <c r="I83" s="45" t="s">
-        <v>370</v>
-      </c>
-      <c r="J83" s="45" t="s">
-        <v>321</v>
-      </c>
-      <c r="K83" s="45"/>
-    </row>
-    <row r="84" spans="1:11" s="22" customFormat="1">
-      <c r="A84" s="44"/>
-      <c r="B84" s="45" t="s">
-        <v>323</v>
-      </c>
-      <c r="C84" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="D84" s="46"/>
-      <c r="E84" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="F84" s="45" t="s">
-        <v>324</v>
-      </c>
-      <c r="G84" s="37"/>
-      <c r="H84" s="45"/>
-      <c r="I84" s="45" t="s">
-        <v>371</v>
-      </c>
-      <c r="J84" s="45" t="s">
-        <v>327</v>
-      </c>
-      <c r="K84" s="45"/>
-    </row>
-    <row r="85" spans="1:11" s="22" customFormat="1" ht="56">
-      <c r="A85" s="44"/>
-      <c r="B85" s="45" t="s">
-        <v>117</v>
-      </c>
-      <c r="C85" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="D85" s="46"/>
-      <c r="E85" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="F85" s="45" t="s">
-        <v>325</v>
-      </c>
-      <c r="G85" s="37"/>
-      <c r="H85" s="45"/>
-      <c r="I85" s="45" t="s">
-        <v>372</v>
-      </c>
-      <c r="J85" s="45" t="s">
-        <v>326</v>
-      </c>
-      <c r="K85" s="45"/>
-    </row>
-    <row r="86" spans="1:11" s="22" customFormat="1">
-      <c r="A86" s="36"/>
-      <c r="B86" s="37" t="s">
-        <v>117</v>
-      </c>
-      <c r="C86" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="D86" s="38"/>
-      <c r="E86" s="39"/>
-      <c r="F86" s="39"/>
-      <c r="G86" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="H86" s="39"/>
-      <c r="I86" s="39"/>
-      <c r="J86" s="39"/>
-      <c r="K86" s="39"/>
-    </row>
-    <row r="87" spans="1:11" s="22" customFormat="1">
-      <c r="A87" s="36"/>
-      <c r="B87" s="37" t="s">
-        <v>117</v>
-      </c>
-      <c r="C87" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="D87" s="38"/>
-      <c r="E87" s="39"/>
-      <c r="F87" s="39"/>
-      <c r="G87" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="H87" s="39"/>
-      <c r="I87" s="39"/>
-      <c r="J87" s="39"/>
-      <c r="K87" s="39"/>
-    </row>
-    <row r="88" spans="1:11" ht="42">
-      <c r="A88" s="36"/>
-      <c r="B88" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="C88" s="38"/>
-      <c r="D88" s="38"/>
-      <c r="E88" s="39"/>
-      <c r="F88" s="39"/>
-      <c r="G88" s="39"/>
-      <c r="H88" s="39"/>
-      <c r="I88" s="39" t="s">
-        <v>300</v>
-      </c>
-      <c r="J88" s="39" t="s">
-        <v>299</v>
-      </c>
-      <c r="K88" s="39"/>
-    </row>
-    <row r="89" spans="1:11" ht="28">
-      <c r="A89" s="44"/>
-      <c r="B89" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="C89" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="D89" s="46"/>
-      <c r="E89" s="37"/>
-      <c r="F89" s="45"/>
-      <c r="G89" s="45" t="s">
-        <v>449</v>
-      </c>
-      <c r="H89" s="45"/>
-      <c r="I89" s="45"/>
-      <c r="J89" s="45"/>
-      <c r="K89" s="45" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" s="53" customFormat="1" ht="98">
-      <c r="A90" s="44"/>
-      <c r="B90" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="C90" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="D90" s="46"/>
-      <c r="E90" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="F90" s="45" t="s">
-        <v>60</v>
-      </c>
-      <c r="G90" s="45" t="s">
-        <v>246</v>
-      </c>
-      <c r="H90" s="45"/>
-      <c r="I90" s="37" t="s">
-        <v>244</v>
-      </c>
-      <c r="J90" s="45"/>
-      <c r="K90" s="45" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" s="52" customFormat="1">
-      <c r="A91" s="44"/>
-      <c r="B91" s="45" t="s">
-        <v>71</v>
-      </c>
-      <c r="C91" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="D91" s="46"/>
-      <c r="E91" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="F91" s="45"/>
-      <c r="G91" s="45" t="s">
-        <v>246</v>
-      </c>
-      <c r="H91" s="45"/>
-      <c r="I91" s="45"/>
-      <c r="J91" s="45" t="s">
-        <v>76</v>
-      </c>
-      <c r="K91" s="45"/>
-    </row>
-    <row r="92" spans="1:11" s="53" customFormat="1">
-      <c r="A92" s="44"/>
-      <c r="B92" s="45" t="s">
-        <v>71</v>
-      </c>
-      <c r="C92" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="D92" s="46"/>
-      <c r="E92" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="F92" s="45"/>
-      <c r="G92" s="45" t="s">
-        <v>246</v>
-      </c>
-      <c r="H92" s="45"/>
-      <c r="I92" s="45"/>
-      <c r="J92" s="45" t="s">
-        <v>76</v>
-      </c>
-      <c r="K92" s="45"/>
-    </row>
-    <row r="93" spans="1:11" s="53" customFormat="1">
-      <c r="A93" s="44"/>
-      <c r="B93" s="45" t="s">
-        <v>71</v>
-      </c>
-      <c r="C93" s="46" t="s">
-        <v>77</v>
-      </c>
-      <c r="D93" s="46"/>
-      <c r="E93" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="F93" s="45"/>
-      <c r="G93" s="45" t="s">
-        <v>72</v>
-      </c>
-      <c r="H93" s="45"/>
-      <c r="I93" s="45"/>
-      <c r="J93" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="K93" s="45"/>
-    </row>
-    <row r="94" spans="1:11" s="53" customFormat="1">
-      <c r="A94" s="44"/>
-      <c r="B94" s="45" t="s">
-        <v>73</v>
-      </c>
-      <c r="C94" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="D94" s="46"/>
-      <c r="E94" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="F94" s="45"/>
-      <c r="G94" s="45" t="s">
-        <v>72</v>
-      </c>
-      <c r="H94" s="45"/>
-      <c r="I94" s="45"/>
-      <c r="J94" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="K94" s="45" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" s="53" customFormat="1">
-      <c r="A95" s="44"/>
-      <c r="B95" s="45" t="s">
-        <v>261</v>
-      </c>
-      <c r="C95" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="D95" s="46"/>
-      <c r="E95" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="F95" s="45"/>
-      <c r="G95" s="45" t="s">
-        <v>259</v>
-      </c>
-      <c r="H95" s="45" t="s">
-        <v>260</v>
-      </c>
-      <c r="I95" s="45"/>
-      <c r="J95" s="45"/>
-      <c r="K95" s="45" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" s="53" customFormat="1" ht="28">
-      <c r="A96" s="44"/>
-      <c r="B96" s="45" t="s">
-        <v>80</v>
-      </c>
-      <c r="C96" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="D96" s="46"/>
-      <c r="E96" s="45" t="s">
-        <v>118</v>
-      </c>
-      <c r="F96" s="45" t="s">
-        <v>83</v>
-      </c>
-      <c r="G96" s="45" t="s">
-        <v>196</v>
-      </c>
-      <c r="H96" s="45" t="s">
-        <v>202</v>
-      </c>
-      <c r="I96" s="45"/>
-      <c r="J96" s="45" t="s">
-        <v>82</v>
-      </c>
-      <c r="K96" s="45" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" s="53" customFormat="1">
-      <c r="A97" s="44"/>
-      <c r="B97" s="45" t="s">
-        <v>263</v>
-      </c>
-      <c r="C97" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="D97" s="46"/>
-      <c r="E97" s="45" t="s">
-        <v>118</v>
-      </c>
-      <c r="F97" s="45"/>
-      <c r="G97" s="45" t="s">
-        <v>259</v>
-      </c>
-      <c r="H97" s="45" t="s">
-        <v>262</v>
-      </c>
-      <c r="I97" s="45"/>
-      <c r="J97" s="45" t="s">
+      <c r="D105" s="45"/>
+      <c r="E105" s="44" t="s">
+        <v>110</v>
+      </c>
+      <c r="F105" s="44"/>
+      <c r="G105" s="44" t="s">
+        <v>190</v>
+      </c>
+      <c r="H105" s="44" t="s">
+        <v>191</v>
+      </c>
+      <c r="I105" s="44" t="s">
         <v>402</v>
       </c>
-      <c r="K97" s="45"/>
-    </row>
-    <row r="98" spans="1:11" s="53" customFormat="1">
-      <c r="A98" s="44"/>
-      <c r="B98" s="45" t="s">
-        <v>398</v>
-      </c>
-      <c r="C98" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="D98" s="46"/>
-      <c r="E98" s="45" t="s">
-        <v>118</v>
-      </c>
-      <c r="F98" s="45"/>
-      <c r="G98" s="45" t="s">
-        <v>259</v>
-      </c>
-      <c r="H98" s="45" t="s">
-        <v>399</v>
-      </c>
-      <c r="I98" s="45"/>
-      <c r="J98" s="45" t="s">
+      <c r="J105" s="44" t="s">
+        <v>440</v>
+      </c>
+      <c r="K105" s="44" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" s="52" customFormat="1">
+      <c r="A106" s="43"/>
+      <c r="B106" s="44"/>
+      <c r="C106" s="45"/>
+      <c r="D106" s="45"/>
+      <c r="E106" s="44"/>
+      <c r="F106" s="44"/>
+      <c r="G106" s="44" t="s">
+        <v>348</v>
+      </c>
+      <c r="H106" s="36" t="s">
+        <v>349</v>
+      </c>
+      <c r="I106" s="44"/>
+      <c r="J106" s="44" t="s">
+        <v>350</v>
+      </c>
+      <c r="K106" s="44"/>
+    </row>
+    <row r="107" spans="1:11" s="51" customFormat="1" ht="42">
+      <c r="A107" s="35"/>
+      <c r="B107" s="44" t="s">
+        <v>229</v>
+      </c>
+      <c r="C107" s="37"/>
+      <c r="D107" s="37"/>
+      <c r="E107" s="38"/>
+      <c r="F107" s="38"/>
+      <c r="G107" s="38"/>
+      <c r="H107" s="38"/>
+      <c r="I107" s="38" t="s">
+        <v>400</v>
+      </c>
+      <c r="J107" s="38" t="s">
         <v>401</v>
       </c>
-      <c r="K98" s="45"/>
-    </row>
-    <row r="99" spans="1:11" s="53" customFormat="1">
-      <c r="A99" s="44"/>
-      <c r="B99" s="45" t="s">
-        <v>397</v>
-      </c>
-      <c r="C99" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="D99" s="46"/>
-      <c r="E99" s="45" t="s">
-        <v>118</v>
-      </c>
-      <c r="F99" s="45"/>
-      <c r="G99" s="37" t="s">
-        <v>259</v>
-      </c>
-      <c r="H99" s="45" t="s">
-        <v>396</v>
-      </c>
-      <c r="I99" s="45"/>
-      <c r="J99" s="45" t="s">
-        <v>400</v>
-      </c>
-      <c r="K99" s="45"/>
-    </row>
-    <row r="100" spans="1:11" s="53" customFormat="1" ht="182">
-      <c r="A100" s="44"/>
-      <c r="B100" s="45" t="s">
-        <v>203</v>
-      </c>
-      <c r="C100" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="D100" s="46"/>
-      <c r="E100" s="45" t="s">
-        <v>118</v>
-      </c>
-      <c r="F100" s="45"/>
-      <c r="G100" s="45" t="s">
-        <v>204</v>
-      </c>
-      <c r="H100" s="45" t="s">
-        <v>205</v>
-      </c>
-      <c r="I100" s="45" t="s">
-        <v>464</v>
-      </c>
-      <c r="J100" s="45" t="s">
-        <v>465</v>
-      </c>
-      <c r="K100" s="45" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" s="53" customFormat="1">
-      <c r="A101" s="44"/>
-      <c r="B101" s="45"/>
-      <c r="C101" s="46"/>
-      <c r="D101" s="46"/>
-      <c r="E101" s="45"/>
-      <c r="F101" s="45"/>
-      <c r="G101" s="45" t="s">
-        <v>403</v>
-      </c>
-      <c r="H101" s="37" t="s">
-        <v>404</v>
-      </c>
-      <c r="I101" s="45"/>
-      <c r="J101" s="45" t="s">
-        <v>405</v>
-      </c>
-      <c r="K101" s="45"/>
-    </row>
-    <row r="102" spans="1:11" s="52" customFormat="1">
-      <c r="A102" s="36"/>
-      <c r="B102" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="C102" s="38"/>
-      <c r="D102" s="38"/>
-      <c r="E102" s="39"/>
-      <c r="F102" s="39"/>
-      <c r="G102" s="39"/>
-      <c r="H102" s="39"/>
-      <c r="I102" s="39"/>
-      <c r="J102" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="K102" s="39"/>
-    </row>
-    <row r="103" spans="1:11" s="52" customFormat="1">
-      <c r="A103" s="36"/>
-      <c r="B103" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="C103" s="38"/>
-      <c r="D103" s="38"/>
-      <c r="E103" s="39"/>
-      <c r="F103" s="39"/>
-      <c r="G103" s="39"/>
-      <c r="H103" s="39"/>
-      <c r="I103" s="39"/>
-      <c r="J103" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="K103" s="39"/>
-    </row>
-    <row r="104" spans="1:11" s="52" customFormat="1">
-      <c r="A104" s="36"/>
-      <c r="B104" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="C104" s="38"/>
-      <c r="D104" s="38"/>
-      <c r="E104" s="39"/>
-      <c r="F104" s="39"/>
-      <c r="G104" s="39"/>
-      <c r="H104" s="39"/>
-      <c r="I104" s="39"/>
-      <c r="J104" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="K104" s="39"/>
-    </row>
-    <row r="105" spans="1:11" s="52" customFormat="1" ht="42">
-      <c r="A105" s="36"/>
-      <c r="B105" s="45" t="s">
-        <v>249</v>
-      </c>
-      <c r="C105" s="38"/>
-      <c r="D105" s="38"/>
-      <c r="E105" s="39"/>
-      <c r="F105" s="39"/>
-      <c r="G105" s="39"/>
-      <c r="H105" s="39"/>
-      <c r="I105" s="39" t="s">
-        <v>462</v>
-      </c>
-      <c r="J105" s="39" t="s">
-        <v>463</v>
-      </c>
-      <c r="K105" s="39"/>
-    </row>
-    <row r="106" spans="1:11" s="52" customFormat="1">
-      <c r="A106" s="15"/>
-      <c r="B106" s="15"/>
-      <c r="C106" s="15"/>
-      <c r="D106" s="15"/>
-      <c r="E106" s="15"/>
-      <c r="F106" s="15"/>
-      <c r="G106" s="42"/>
-      <c r="H106" s="15"/>
-      <c r="I106" s="15"/>
-      <c r="J106" s="15"/>
-      <c r="K106" s="15"/>
-    </row>
-    <row r="107" spans="1:11">
-      <c r="A107" s="15"/>
-      <c r="B107" s="15"/>
-      <c r="C107" s="16"/>
-      <c r="D107" s="16"/>
-      <c r="E107" s="15"/>
-      <c r="F107" s="15"/>
-      <c r="G107" s="42"/>
-      <c r="H107" s="15"/>
-      <c r="I107" s="15"/>
-      <c r="J107" s="15"/>
-      <c r="K107" s="15"/>
-    </row>
-    <row r="108" spans="1:11">
+      <c r="K107" s="38"/>
+    </row>
+    <row r="108" spans="1:11" s="51" customFormat="1">
       <c r="A108" s="15"/>
       <c r="B108" s="15"/>
-      <c r="C108" s="16"/>
-      <c r="D108" s="16"/>
+      <c r="C108" s="15"/>
+      <c r="D108" s="15"/>
       <c r="E108" s="15"/>
       <c r="F108" s="15"/>
-      <c r="G108" s="57" t="s">
-        <v>39</v>
-      </c>
-      <c r="H108" s="58" t="s">
-        <v>40</v>
-      </c>
+      <c r="G108" s="41"/>
+      <c r="H108" s="15"/>
       <c r="I108" s="15"/>
       <c r="J108" s="15"/>
       <c r="K108" s="15"/>
@@ -6498,12 +7166,8 @@
       <c r="D109" s="16"/>
       <c r="E109" s="15"/>
       <c r="F109" s="15"/>
-      <c r="G109" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="H109" s="34" t="s">
-        <v>42</v>
-      </c>
+      <c r="G109" s="41"/>
+      <c r="H109" s="15"/>
       <c r="I109" s="15"/>
       <c r="J109" s="15"/>
       <c r="K109" s="15"/>
@@ -6515,11 +7179,11 @@
       <c r="D110" s="16"/>
       <c r="E110" s="15"/>
       <c r="F110" s="15"/>
-      <c r="G110" s="42" t="s">
-        <v>167</v>
-      </c>
-      <c r="H110" s="15" t="s">
-        <v>43</v>
+      <c r="G110" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="H110" s="57" t="s">
+        <v>37</v>
       </c>
       <c r="I110" s="15"/>
       <c r="J110" s="15"/>
@@ -6533,10 +7197,10 @@
       <c r="E111" s="15"/>
       <c r="F111" s="15"/>
       <c r="G111" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="H111" s="15" t="s">
-        <v>45</v>
+        <v>38</v>
+      </c>
+      <c r="H111" s="33" t="s">
+        <v>39</v>
       </c>
       <c r="I111" s="15"/>
       <c r="J111" s="15"/>
@@ -6549,11 +7213,11 @@
       <c r="D112" s="16"/>
       <c r="E112" s="15"/>
       <c r="F112" s="15"/>
-      <c r="G112" s="42" t="s">
-        <v>46</v>
+      <c r="G112" s="41" t="s">
+        <v>154</v>
       </c>
       <c r="H112" s="15" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="I112" s="15"/>
       <c r="J112" s="15"/>
@@ -6566,11 +7230,11 @@
       <c r="D113" s="16"/>
       <c r="E113" s="15"/>
       <c r="F113" s="15"/>
-      <c r="G113" s="42" t="s">
-        <v>48</v>
+      <c r="G113" s="41" t="s">
+        <v>41</v>
       </c>
       <c r="H113" s="15" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I113" s="15"/>
       <c r="J113" s="15"/>
@@ -6583,11 +7247,11 @@
       <c r="D114" s="16"/>
       <c r="E114" s="15"/>
       <c r="F114" s="15"/>
-      <c r="G114" s="42" t="s">
-        <v>50</v>
+      <c r="G114" s="41" t="s">
+        <v>43</v>
       </c>
       <c r="H114" s="15" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="I114" s="15"/>
       <c r="J114" s="15"/>
@@ -6600,10 +7264,12 @@
       <c r="D115" s="16"/>
       <c r="E115" s="15"/>
       <c r="F115" s="15"/>
-      <c r="G115" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="H115" s="15"/>
+      <c r="G115" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H115" s="15" t="s">
+        <v>46</v>
+      </c>
       <c r="I115" s="15"/>
       <c r="J115" s="15"/>
       <c r="K115" s="15"/>
@@ -6615,11 +7281,11 @@
       <c r="D116" s="16"/>
       <c r="E116" s="15"/>
       <c r="F116" s="15"/>
-      <c r="G116" s="42" t="s">
-        <v>286</v>
+      <c r="G116" s="41" t="s">
+        <v>47</v>
       </c>
       <c r="H116" s="15" t="s">
-        <v>287</v>
+        <v>48</v>
       </c>
       <c r="I116" s="15"/>
       <c r="J116" s="15"/>
@@ -6632,12 +7298,10 @@
       <c r="D117" s="16"/>
       <c r="E117" s="15"/>
       <c r="F117" s="15"/>
-      <c r="G117" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="H117" s="15" t="s">
-        <v>123</v>
-      </c>
+      <c r="G117" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="H117" s="15"/>
       <c r="I117" s="15"/>
       <c r="J117" s="15"/>
       <c r="K117" s="15"/>
@@ -6649,11 +7313,11 @@
       <c r="D118" s="16"/>
       <c r="E118" s="15"/>
       <c r="F118" s="15"/>
-      <c r="G118" s="42" t="s">
-        <v>121</v>
+      <c r="G118" s="41" t="s">
+        <v>257</v>
       </c>
       <c r="H118" s="15" t="s">
-        <v>122</v>
+        <v>258</v>
       </c>
       <c r="I118" s="15"/>
       <c r="J118" s="15"/>
@@ -6666,11 +7330,11 @@
       <c r="D119" s="16"/>
       <c r="E119" s="15"/>
       <c r="F119" s="15"/>
-      <c r="G119" s="42" t="s">
-        <v>162</v>
+      <c r="G119" s="41" t="s">
+        <v>50</v>
       </c>
       <c r="H119" s="15" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="I119" s="15"/>
       <c r="J119" s="15"/>
@@ -6683,11 +7347,11 @@
       <c r="D120" s="16"/>
       <c r="E120" s="15"/>
       <c r="F120" s="15"/>
-      <c r="G120" s="42" t="s">
-        <v>54</v>
+      <c r="G120" s="41" t="s">
+        <v>113</v>
       </c>
       <c r="H120" s="15" t="s">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c r="I120" s="15"/>
       <c r="J120" s="15"/>
@@ -6700,25 +7364,59 @@
       <c r="D121" s="16"/>
       <c r="E121" s="15"/>
       <c r="F121" s="15"/>
-      <c r="G121" s="42"/>
-      <c r="H121" s="15"/>
+      <c r="G121" s="41" t="s">
+        <v>153</v>
+      </c>
+      <c r="H121" s="15" t="s">
+        <v>112</v>
+      </c>
       <c r="I121" s="15"/>
       <c r="J121" s="15"/>
       <c r="K121" s="15"/>
     </row>
     <row r="122" spans="1:11">
-      <c r="G122" s="42" t="s">
-        <v>124</v>
-      </c>
+      <c r="A122" s="15"/>
+      <c r="B122" s="15"/>
+      <c r="C122" s="16"/>
+      <c r="D122" s="16"/>
+      <c r="E122" s="15"/>
+      <c r="F122" s="15"/>
+      <c r="G122" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="H122" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="I122" s="15"/>
+      <c r="J122" s="15"/>
+      <c r="K122" s="15"/>
     </row>
     <row r="123" spans="1:11">
-      <c r="G123" s="42" t="s">
-        <v>126</v>
-      </c>
+      <c r="A123" s="15"/>
+      <c r="B123" s="15"/>
+      <c r="C123" s="16"/>
+      <c r="D123" s="16"/>
+      <c r="E123" s="15"/>
+      <c r="F123" s="15"/>
+      <c r="G123" s="41"/>
+      <c r="H123" s="15"/>
+      <c r="I123" s="15"/>
+      <c r="J123" s="15"/>
+      <c r="K123" s="15"/>
     </row>
     <row r="124" spans="1:11">
-      <c r="G124" s="42" t="s">
-        <v>139</v>
+      <c r="G124" s="41" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
+      <c r="G125" s="41" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
+      <c r="G126" s="41" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/inventory/INVENTORY OF PYU INSCRIPTIONS.xlsx
+++ b/inventory/INVENTORY OF PYU INSCRIPTIONS.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="496">
   <si>
     <r>
       <t>Building of a shrine by Prince R</t>
@@ -126,9 +126,6 @@
     <t>Halin</t>
   </si>
   <si>
-    <t>ca. 9</t>
-  </si>
-  <si>
     <t>8</t>
   </si>
   <si>
@@ -300,9 +297,6 @@
     <t>received in Museum in 1990</t>
   </si>
   <si>
-    <t>found in 1935</t>
-  </si>
-  <si>
     <t>Payagyi pagoda, near Pyay</t>
   </si>
   <si>
@@ -450,8 +444,120 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>A:</t>
+    <t>h:75, dia (bottom):78, dia (top) 84</t>
+  </si>
+  <si>
+    <t>h:95, dia:67</t>
+  </si>
+  <si>
+    <t>h:91, dia:64</t>
+  </si>
+  <si>
+    <t>h:250, w:195, d:45</t>
+  </si>
+  <si>
+    <t>h:50, w:48, d:15</t>
+  </si>
+  <si>
+    <t>h:72, w:57, d:6</t>
+  </si>
+  <si>
+    <t>h:99, w:48, d:10</t>
+  </si>
+  <si>
+    <t>many of the h dimensions are the measurable height, above cement casing</t>
+  </si>
+  <si>
+    <t>see PYU3</t>
+  </si>
+  <si>
+    <t>see PYU6</t>
+  </si>
+  <si>
+    <t>h:75, w:90, d:20</t>
+  </si>
+  <si>
+    <t>h:52, w:46, d:10</t>
+  </si>
+  <si>
+    <t>h:63, w:65, d:13</t>
+  </si>
+  <si>
+    <t>h:40, w:59, d:4</t>
+  </si>
+  <si>
+    <t>h:108, w:79, d:18/27</t>
+  </si>
+  <si>
+    <t>h:105, w:108, d:14</t>
+  </si>
+  <si>
+    <t>h:2.0, dia:18.6</t>
+  </si>
+  <si>
+    <t>h:3.5, dia:19.0</t>
+  </si>
+  <si>
+    <t>h:5.7, dia:19.0</t>
+  </si>
+  <si>
+    <t>h:1.5/2.2, w:22</t>
+  </si>
+  <si>
+    <t>h:1.5/1.9, w:15.2</t>
+  </si>
+  <si>
+    <t>fits in rectangle of 7.5 × 9.5</t>
+  </si>
+  <si>
+    <t>rough stone stela</t>
+  </si>
+  <si>
+    <t>h:115, w:93/18, d:10/19</t>
+  </si>
+  <si>
+    <t>formerly at Amarapura inscription shed</t>
+  </si>
+  <si>
+    <t>Inscription shed, Mandalay Palace Museum, nr. 12</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>in situ</t>
+    </r>
+  </si>
+  <si>
+    <t>stone urn</t>
+  </si>
+  <si>
+    <t>ASB 1964-65, pl. 19. — RTI</t>
+  </si>
+  <si>
+    <t>ASB</t>
+  </si>
+  <si>
+    <t>ASI</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>h:80, w:181, d:13</t>
+  </si>
+  <si>
+    <t>h:151, w:124, d:13</t>
+  </si>
+  <si>
+    <t>broken stone stela</t>
+  </si>
+  <si>
+    <r>
+      <t>in situ</t>
     </r>
     <r>
       <rPr>
@@ -460,148 +566,6 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t>±25</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, B:?</t>
-    </r>
-  </si>
-  <si>
-    <t>According to Luce, read by Blagden but his reading never published.</t>
-  </si>
-  <si>
-    <t>h:75, dia (bottom):78, dia (top) 84</t>
-  </si>
-  <si>
-    <t>h:95, dia:67</t>
-  </si>
-  <si>
-    <t>h:91, dia:64</t>
-  </si>
-  <si>
-    <t>h:250, w:195, d:45</t>
-  </si>
-  <si>
-    <t>h:50, w:48, d:15</t>
-  </si>
-  <si>
-    <t>h:72, w:57, d:6</t>
-  </si>
-  <si>
-    <t>h:99, w:48, d:10</t>
-  </si>
-  <si>
-    <t>many of the h dimensions are the measurable height, above cement casing</t>
-  </si>
-  <si>
-    <t>see PYU3</t>
-  </si>
-  <si>
-    <t>see PYU6</t>
-  </si>
-  <si>
-    <t>h:75, w:90, d:20</t>
-  </si>
-  <si>
-    <t>h:52, w:46, d:10</t>
-  </si>
-  <si>
-    <t>h:63, w:65, d:13</t>
-  </si>
-  <si>
-    <t>h:40, w:59, d:4</t>
-  </si>
-  <si>
-    <t>h:108, w:79, d:18/27</t>
-  </si>
-  <si>
-    <t>h:105, w:108, d:14</t>
-  </si>
-  <si>
-    <t>h:2.0, dia:18.6</t>
-  </si>
-  <si>
-    <t>h:3.5, dia:19.0</t>
-  </si>
-  <si>
-    <t>h:5.7, dia:19.0</t>
-  </si>
-  <si>
-    <t>h:1.5/2.2, w:22</t>
-  </si>
-  <si>
-    <t>h:1.5/1.9, w:15.2</t>
-  </si>
-  <si>
-    <t>fits in rectangle of 7.5 × 9.5</t>
-  </si>
-  <si>
-    <t>rough stone stela</t>
-  </si>
-  <si>
-    <t>h:115, w:93/18, d:10/19</t>
-  </si>
-  <si>
-    <t>formerly at Amarapura inscription shed</t>
-  </si>
-  <si>
-    <t>Inscription shed, Mandalay Palace Museum, nr. 12</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>in situ</t>
-    </r>
-  </si>
-  <si>
-    <t>stone urn</t>
-  </si>
-  <si>
-    <t>Blagden 1912, 127 (D2). —ASB 1913, 14. — PPPB I, 65, 75 n. 23, 127.</t>
-  </si>
-  <si>
-    <t>ASB 1964-65, pl. 19. — RTI</t>
-  </si>
-  <si>
-    <t>ASB</t>
-  </si>
-  <si>
-    <t>ASI</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>h:80, w:181, d:13</t>
-  </si>
-  <si>
-    <t>h:151, w:124, d:13</t>
-  </si>
-  <si>
-    <t>broken stone stela</t>
-  </si>
-  <si>
-    <r>
-      <t>in situ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>: Paytaw Monastery</t>
     </r>
   </si>
@@ -724,9 +688,6 @@
   </si>
   <si>
     <t>h:139, w:50, d:15</t>
-  </si>
-  <si>
-    <t>For sun+moon symbol, here damaged, see PYU61</t>
   </si>
   <si>
     <t>Halin inscription shed, nr. 8</t>
@@ -1109,9 +1070,6 @@
     <t>mound nr. 2957 near Nga Shin Gan, SW of Mahtaw village, Sriksetra</t>
   </si>
   <si>
-    <t>Mya 1961, II, p. 23. — PPPB II, 152.</t>
-  </si>
-  <si>
     <t>Mya 1961, II, pl. 60 (ka). — PPPB II, pl. 59 (b).</t>
   </si>
   <si>
@@ -1167,6 +1125,12 @@
     <t>Myinbahu pagoda, Sriksetra</t>
   </si>
   <si>
+    <t xml:space="preserve"> PPPB I, 155.</t>
+  </si>
+  <si>
+    <t>Mya 1961, II, pl. 61, 61ka. — PPPB II, pl. 58 (e).</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Mya 1961, II, </t>
     </r>
@@ -1186,18 +1150,199 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>. — PPPB I, 155.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve"> PPPB I, 155.</t>
-  </si>
-  <si>
-    <t>Mya 1961, II, pl. 61, 61ka. — PPPB II, pl. 58 (e).</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Mya 1961, II, </t>
+      <t>. — PPPB I, 154.</t>
+    </r>
+  </si>
+  <si>
+    <t>both 3</t>
+  </si>
+  <si>
+    <t>Not in U Mya?</t>
+  </si>
+  <si>
+    <t>earthenware pottery anvil</t>
+  </si>
+  <si>
+    <t>Win Maung, priv. coll.</t>
+  </si>
+  <si>
+    <t>unknown; reportedly Pagan Museum but not found there</t>
+  </si>
+  <si>
+    <t>ASB 1958, pl. 18.</t>
+  </si>
+  <si>
+    <t>IB IV, 356b. — RTI.</t>
+  </si>
+  <si>
+    <t>ASI 1910-11, pl. XLVII (1-2). — Finot 1913, plate. — PPPB II, pl. 98 (c).</t>
+  </si>
+  <si>
+    <t>ASI 1928-29, 107. — Mya 1961, II, 32.</t>
+  </si>
+  <si>
+    <t>ASI 1928-29, pl. LII (b). — Mya 1961, II, pl. 62.</t>
+  </si>
+  <si>
+    <t>Pyogingyi mound, Hmawza</t>
+  </si>
+  <si>
+    <t>Khin Ba mound</t>
+  </si>
+  <si>
+    <t>total length:8 ⅜ in. (ASI)</t>
+  </si>
+  <si>
+    <t>ASI 1928-29, 107.</t>
+  </si>
+  <si>
+    <t>no photo published?</t>
+  </si>
+  <si>
+    <t>Maunggan or Lèbaw village, 7 miles S of Sriksetra</t>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">un Nyein 1898-99. —ASI 1907-08, 41; 1909-10, 115. — Finot 1912: 131. — PR, 44-6. — PPPB I, 61, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>73 n. 2, 175.</t>
+    </r>
+  </si>
+  <si>
+    <t>EI 5, no. 11, pl. 8 — PPPB II, pl. 98 (b).</t>
+  </si>
+  <si>
+    <t>This inscription is A208 in the EFEO inventory of Arakanese inscriptions. Rediscovered in 2009. Written report from Kaw Minn Htin, 2 March 2012. Photos by Yu Mon Phyo sent by Ye Myat Lwin.</t>
+  </si>
+  <si>
+    <t>hill called “Phaya Taung” near the local monastery at Tondaw village, 30 miles from Sandoway town, Rakhine State</t>
+  </si>
+  <si>
+    <t>4(?)</t>
+  </si>
+  <si>
+    <t>menhir</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ASI 1929-30,  pl. XLI (b). — PPPB II, pl. 53a.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — RTI.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ASI 1929-30: 154-5.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — R. le May, Culture of SEA, fig. 3. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>— Aung Thaw 1972: 12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>— PPPB I, 53, 58 n. 43, 149.</t>
+    </r>
+  </si>
+  <si>
+    <t>Kunzeik, on bank of Sittaung river, Shwegyin township</t>
+  </si>
+  <si>
+    <t>Luce noted (PPPB I, 155f.): "There are at least 3 other damaged specimens (obverse and reverse) of this tablet, from the same site, at Mandalay Archaeological office". This information probably dates from 1960.</t>
+  </si>
+  <si>
+    <t>Mya 1961, II, pl. XX. — PPPB II, 58 (f).</t>
+  </si>
+  <si>
+    <t>Mya 1961, II, pl. 60 (kha). — PPPB II, 59 (c).</t>
+  </si>
+  <si>
+    <t>Mya 1961, II, pl. 60 (ga). — PPPB II, 59 (d).</t>
+  </si>
+  <si>
+    <t>PPPB II, 59 (e).</t>
+  </si>
+  <si>
+    <t>6 fragments of gold and silver  leaf</t>
+  </si>
+  <si>
+    <t>inside Bawbawgyi pagoda, Hmawza</t>
+  </si>
+  <si>
+    <t>around Bawbawgyi pagoda, Hmawza</t>
+  </si>
+  <si>
+    <t>1960: Mandalay Archaeological Office (Luce)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ASI 1927-28, pl. LIV (g, h). — IB IV, 356a. —PPPB II, pl. 16-7. — </t>
     </r>
     <r>
       <rPr>
@@ -1206,114 +1351,39 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t>XX</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. — PPPB I, 154.</t>
-    </r>
-  </si>
-  <si>
-    <t>both 3</t>
-  </si>
-  <si>
-    <t>Not in U Mya?</t>
-  </si>
-  <si>
-    <t>earthenware pottery anvil</t>
-  </si>
-  <si>
-    <t>Win Maung, priv. coll.</t>
-  </si>
-  <si>
-    <t>unknown; reportedly Pagan Museum but not found there</t>
-  </si>
-  <si>
-    <t>ASB 1958, pl. 18.</t>
-  </si>
-  <si>
-    <t>IB IV, 356b. — RTI.</t>
-  </si>
-  <si>
-    <t>ASI 1910-11, pl. XLVII (1-2). — Finot 1913, plate. — PPPB II, pl. 98 (c).</t>
-  </si>
-  <si>
-    <t>ASI 1928-29, 107. — Mya 1961, II, 32.</t>
-  </si>
-  <si>
-    <t>ASI 1928-29, pl. LII (b). — Mya 1961, II, pl. 62.</t>
-  </si>
-  <si>
-    <t>Pyogingyi mound, Hmawza</t>
-  </si>
-  <si>
-    <t>Khin Ba mound</t>
-  </si>
-  <si>
-    <t>total length:8 ⅜ in. (ASI)</t>
-  </si>
-  <si>
-    <t>ASI 1928-29, 107.</t>
-  </si>
-  <si>
-    <t>no photo published?</t>
-  </si>
-  <si>
-    <t>Maunggan or Lèbaw village, 7 miles S of Sriksetra</t>
-  </si>
-  <si>
-    <r>
-      <t>T</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">un Nyein 1898-99. —ASI 1907-08, 41; 1909-10, 115. — Finot 1912: 131. — PR, 44-6. — PPPB I, 61, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>73 n. 2, 175.</t>
-    </r>
-  </si>
-  <si>
-    <t>EI 5, no. 11, pl. 8 — PPPB II, pl. 98 (b).</t>
-  </si>
-  <si>
-    <t>This inscription is A208 in the EFEO inventory of Arakanese inscriptions. Rediscovered in 2009. Written report from Kaw Minn Htin, 2 March 2012. Photos by Yu Mon Phyo sent by Ye Myat Lwin.</t>
-  </si>
-  <si>
-    <t>hill called “Phaya Taung” near the local monastery at Tondaw village, 30 miles from Sandoway town, Rakhine State</t>
-  </si>
-  <si>
-    <t>4(?)</t>
-  </si>
-  <si>
-    <t>menhir</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ASI 1929-30,  pl. XLI (b). — PPPB II, pl. 53a.</t>
+      <t>RTI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>ASI 1927-28, 129. — Mya 1961, II, 65. — PPPB I, 156.</t>
+  </si>
+  <si>
+    <t>ASI 1927-28, pl. LVI (d). — Mya 1961, II, pl. 12. — PPPB II, pl. 60 (c).</t>
+  </si>
+  <si>
+    <t>h:195, w:47, d:31</t>
+  </si>
+  <si>
+    <t>Aung Tha 1972: 110, 116.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Aung Thaw 1972: 110-111. — Luce 1974: 126. —</t>
     </r>
     <r>
       <rPr>
@@ -1323,97 +1393,16 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> — RTI.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ASI 1929-30: 154-5.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> — R. le May, Culture of SEA, fig. 3. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>— Aung Thaw 1972: 12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>— PPPB I, 53, 58 n. 43, 149.</t>
-    </r>
-  </si>
-  <si>
-    <t>Kunzeik, on bank of Sittaung river, Shwegyin township</t>
-  </si>
-  <si>
-    <t>Luce noted (PPPB I, 155f.): "There are at least 3 other damaged specimens (obverse and reverse) of this tablet, from the same site, at Mandalay Archaeological office". This information probably dates from 1960.</t>
-  </si>
-  <si>
-    <t>Mya 1961, II, pl. XX. — PPPB II, 58 (f).</t>
-  </si>
-  <si>
-    <t>Mya 1961, II, pl. 60 (kha). — PPPB II, 59 (c).</t>
-  </si>
-  <si>
-    <t>Mya 1961, II, pl. 60 (ga). — PPPB II, 59 (d).</t>
-  </si>
-  <si>
-    <t>PPPB II, 59 (e).</t>
-  </si>
-  <si>
-    <t>6 fragments of gold and silver  leaf</t>
-  </si>
-  <si>
-    <t>inside Bawbawgyi pagoda, Hmawza</t>
-  </si>
-  <si>
-    <t>around Bawbawgyi pagoda, Hmawza</t>
-  </si>
-  <si>
-    <t>1960: Mandalay Archaeological Office (Luce)</t>
-  </si>
-  <si>
-    <t>Not in U Mya 1961? Wrongly ascribed to Bawbawgyi pagoda by Duroiselle (1921).</t>
-  </si>
-  <si>
-    <t>ASI 1910-11, 93. — PPPB I, 158.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ASI 1927-28, pl. LIV (g, h). — IB IV, 356a. —PPPB II, pl. 16-7. — </t>
+      <t xml:space="preserve"> von Hinüber 1991: 25 n. 53. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">— Skilling </t>
     </r>
     <r>
       <rPr>
@@ -1422,66 +1411,6 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t>RTI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>ASI 1927-28, 129. — Mya 1961, II, 65. — PPPB I, 156.</t>
-  </si>
-  <si>
-    <t>ASI 1927-28, pl. LVI (d). — Mya 1961, II, pl. 12. — PPPB II, pl. 60 (c).</t>
-  </si>
-  <si>
-    <t>h:195, w:47, d:31</t>
-  </si>
-  <si>
-    <t>Aung Tha 1972: 110, 116.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Aung Thaw 1972: 110-111. — Luce 1974: 126. —</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> von Hinüber 1991: 25 n. 53. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">— Skilling </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>1997a:</t>
     </r>
     <r>
@@ -1507,85 +1436,6 @@
     <t>ASI 1929-30, 152, 182. — PPPB I, 66, 75 n. 28, 149. — PR, 22.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ASI 1929-30, pl. XLI (a). —</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> IB IV, 357b. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">— PPPB II, pl. 52a. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>— RTI.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">ASI 1934-35, pl. XXII (a). — </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">IB V, 569. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>— PPPB II, pl. 15b. —</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> RTI.</t>
-    </r>
-  </si>
-  <si>
     <t>apramada</t>
   </si>
   <si>
@@ -1637,30 +1487,6 @@
   </si>
   <si>
     <t>ASI 1926-27, pl. XXXIX (b, e). — Mya 1961, I, pl. 29-30. — OBEP, pl. 34 (c, d).</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ASB 1964, pl. 25. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>— PPPB II, pl. 51. —</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> RTI.</t>
-    </r>
   </si>
   <si>
     <t>Shwemoktaw Pagoda, Myittha</t>
@@ -1735,8 +1561,29 @@
     <t>Khin Ba mound relic chamber</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Kan Wet Khaung mound, </t>
+    <t>London, British Library, nr. Or5340 A and B; formerly at British Museum</t>
+  </si>
+  <si>
+    <t>fragments of a stone slab (?)</t>
+  </si>
+  <si>
+    <t>at least 13</t>
+  </si>
+  <si>
+    <t>NW corner of “Beikthano Myo”, Sriksetra</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">estampages EFEO. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>— ASB 1960, fig. 13</t>
     </r>
     <r>
       <rPr>
@@ -1745,21 +1592,57 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Hmawza</t>
-    </r>
-  </si>
-  <si>
-    <t>London, British Library, nr. Or5340 A and B; formerly at British Museum</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">ASI 1926-27, 175-6. — PR, 34. — </t>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>private collection, Pyay</t>
+  </si>
+  <si>
+    <t>Shwe Phon Pwint Library &amp; Museum, Pyay</t>
+  </si>
+  <si>
+    <t>very similar to following item</t>
+  </si>
+  <si>
+    <t>photos Bob Hudson</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ASI 1927, 178-80, 200-1. — ASB 1939, 12-22. — </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PR, 25-33. — PPPB I, 139. —</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Falk 1997. — Stargardt 2000.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ASI 1910-11, 89. — Finot 1912: 134-135 — Finot 1913. — PR, 35-36. — PPPB I, 61, 74 n. 4, </t>
     </r>
     <r>
       <rPr>
@@ -1768,16 +1651,97 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t>R. le May, Culture of SEA, fig. 4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> — PPPB I, 51, 57 n. 23, 137. — Falk 1997: 88-91.</t>
+      <t>XX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. — Stargardt 1995: 201.</t>
+    </r>
+  </si>
+  <si>
+    <t>stone tablet in 3 fragments</t>
+  </si>
+  <si>
+    <t>h:3.1, l:16.5</t>
+  </si>
+  <si>
+    <t>leaves 1-18: 3 lines, leaf 19: 4 l., leaf 20: 2 l.</t>
+  </si>
+  <si>
+    <t>deposited by Department of Archaeology at National Museum, Yangon</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> IB V, 555-556 (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>check index of plates</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>). —</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> RTI</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Listed in continuation of Duroiselle, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A List of Inscriptions Found in Burma</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (1921), appendix B</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ASI 1909-10, pl. 49 (17-18). — ASB 1924,  pl. 3;</t>
     </r>
     <r>
       <rPr>
@@ -1787,6 +1751,1018 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t xml:space="preserve"> 1958, chart. —  PPPB II, pl. 35-36.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ASI 1909-10, 123. —ASB 1924, 26.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — PPPB I, 62, 74 n. 9, 140.</t>
+    </r>
+  </si>
+  <si>
+    <t>Myint Aung 1970, pl. 9a. — Aung Thaw 1972: 14.</t>
+  </si>
+  <si>
+    <t>Beikthano</t>
+  </si>
+  <si>
+    <t>saṁghasiri/sayasiri</t>
+  </si>
+  <si>
+    <t>whole piece 4 cm long; seal 1.5 cm diam.</t>
+  </si>
+  <si>
+    <t>National Museum, Yangon</t>
+  </si>
+  <si>
+    <t>Prakrit (?)</t>
+  </si>
+  <si>
+    <t>ASB 1959, pl. 16-17. — Aung Thaw 1968, fig. 79.9, pl. LIVab. — photos Bob Hudson.</t>
+  </si>
+  <si>
+    <t>ASB 1959, 19. — Aung Thaw 1968: 50-51. — Aung Thaw 1972: 4.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ASB 1960: 22. —Aung Thaw 1972: 32. — Sircar 1976: 210-217. — </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Aung Thaw et al. 1993: 134. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>— Gutman 2001: 109 n. 1.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sinlu village, Pwinbyu township </t>
+  </si>
+  <si>
+    <t>Sin Phyu Ywa village (Beinnaka old city), Pyawbwe</t>
+  </si>
+  <si>
+    <t>found on 20/05/2015 by Tampawaddy Win Maung and his group; information Kyam Minn Htin email on the same day.</t>
+  </si>
+  <si>
+    <t>ASI 1926-27, pl. XXXIX (f). — OBEP, pl. 444 (a, b).</t>
+  </si>
+  <si>
+    <t>OBEP, pl. 34 (c, d).</t>
+  </si>
+  <si>
+    <t>mentions Metriya</t>
+  </si>
+  <si>
+    <t>Pagan, Shwehsandaw pagoda, relic chamber</t>
+  </si>
+  <si>
+    <t>ASI 1926-27, 164. — PR, 77. — Mya 1961, I, 23-4. — OBEP I, 99; II, 25. — PPPB I, 66, 75 n. 30.</t>
+  </si>
+  <si>
+    <t>OBEP II, 26.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">read </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>baṁḥ metriya</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> by Duroiselle, but this reading not verifiable from the existing photos.</t>
+    </r>
+  </si>
+  <si>
+    <t>National Museum, Yangon, nr. 36</t>
+  </si>
+  <si>
+    <t>ASI 1926-27, 164-5. — OBEP I, 188; II, 204.</t>
+  </si>
+  <si>
+    <t>West bank of Nagayon lake, Halin</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PPPB II, pl. 54. — </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EFEO estampage n. XXX.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Payagyi pagoda</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, near Pyay</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>stone stela (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>or funerary tablet?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>South of Tagantha village, near Halin</t>
+  </si>
+  <si>
+    <t>presence of inscription not yet noted when catalogue entry was written for Guy 2014.</t>
+  </si>
+  <si>
+    <t>metal sculpture of preaching Buddha</t>
+  </si>
+  <si>
+    <t>Naional Museum, Nay Pyi Taw, 1/3/1994</t>
+  </si>
+  <si>
+    <t>Sanskrit in Gaudi; Pali in LSB and Pyu in Pyu scripts</t>
+  </si>
+  <si>
+    <t>400 ft. South of Shwegugyi (near HL26)</t>
+  </si>
+  <si>
+    <t>Myanadi village, 8 km east of Maingmaw, Myittha township, Kyaukse Dt., Mandalay Region</t>
+  </si>
+  <si>
+    <t>Aung Seigon pagoda, Innwa, Mandalay Region</t>
+  </si>
+  <si>
+    <t>Led-dwin, near Maingmaw</t>
+  </si>
+  <si>
+    <t>Moore 2009, 111.</t>
+  </si>
+  <si>
+    <t>Shwegyobin, Kyauktaga township, Bago region</t>
+  </si>
+  <si>
+    <t>Myint Aung 1970: 61. — Aung Thaw 1972: 14. — Skilling 2015: 66.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">White — </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Middleton 2005: 92. — Skilling 2015: 65.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>White —</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Middleton 2005: 91. — Skilling 2015: 66.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>White. —</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Middleton 2005: 90. — Skilling 2015: 66.</t>
+    </r>
+  </si>
+  <si>
+    <t>Myint Aung (as well as scholars after him) points out that an identical artefact has been found at Oc Eo. Apparently more than one specimen of this intaglio was made; other intaglios with the same inscription but applied rather les artfully are shown and/or referred to  by Middleton 2005: 15, 159. Their provenance from 'Pyu' sites in uncertain.</t>
+  </si>
+  <si>
+    <t>writing positive</t>
+  </si>
+  <si>
+    <t>must look up what IB says about this item.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> stone </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>funerary tablet</t>
+    </r>
+  </si>
+  <si>
+    <t>Blagden 1913-14 (C). — IB IV, 354c. — PPPB II, pl. 5bc, 6b.</t>
+  </si>
+  <si>
+    <t>Blagden 1913-14 (A). — ASB 1912, 7, 11. — ASI 1911-12, 147. — PR, 47 (A), 50. — PPPB I, 48, 57 n. 13, 126-7.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EB I, 1, pl. IV (B). —</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> IB. — RTI</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">De Beylié 1907a, 98. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>— ASI 1909-10, 120. — Blagden 1913-14, 127 (1). — PPPB, I, 54, 59 n. 51, 134.</t>
+    </r>
+  </si>
+  <si>
+    <t>During or after the Chinese invasion of Pagan in 1287 CE; but ASB 1916 suggests "probably dated 1284 A.D.".</t>
+  </si>
+  <si>
+    <t>ASI 1910-11, pl. 47 (4-8). — Mya 1961, II, pl. 72.</t>
+  </si>
+  <si>
+    <t>Chaem Kawklai 1992.</t>
+  </si>
+  <si>
+    <t>3.3 cm diam.</t>
+  </si>
+  <si>
+    <t>Ratchamangala Phisek National Library, Chiang Mai (Thailand), acc. nr. 034/2534</t>
+  </si>
+  <si>
+    <t>Chaem Kawklai 1992: 86, 88.</t>
+  </si>
+  <si>
+    <t>ASI 1912-13, pt. I, 29. — Blagden 1913-14 (C). — ASB 1913, 13-4; 1914, 20. — PR, 47 (C), 51. — PPPB I, 48, 57 n. 13, 126-7.</t>
+  </si>
+  <si>
+    <t>ASI 1911-12, 147. — ASI 1912-13, pt. I, 29. — ASB 1913, 9-10, 14. — Blagden 1913-14 (D1). — PR, 47 (D), 51. — PPPB I, 48, 57 n. 13, 126-7.</t>
+  </si>
+  <si>
+    <t>See also PYU25. — ASI 1911-12 fig. 1 on p. 149 shows Blagden’s D1 urn (but it is identified as being from the Bawbawgyi, which must be a mistake).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it seems to me (AG) that Luce was wrong in citing De Beylié 1907a, pl. V (3), for De Beylié does not say that that is the converse of the inscribed reverse copied in fig. 62. Comparing the other photos available, it seems obvious that de Beyilié's V (3) and 62 have no connection with each other. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">De Beylié 1907a, 89 fig. 62, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pl. V (3)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>; 1907b, 246 fig. 199. — ASI 1909-10, pl. XLIX (12, 13). — Mya 1961, II, pl. 60 (gha). — PPPB II, 59 (f).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lémyethna or Bawbawgyi (?)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> pagoda, Sriksetra</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ASI 1910-11, pl. XLVII</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (21). — PPPB II, pl. 62 (d, e).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HRC rubbing. — Rubbing in MHRJ 11. —</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> RTI.</t>
+    </r>
+  </si>
+  <si>
+    <t>San Win 1998, 2000-1, 2003. — unnumbered pages in MHRJ 11. —Tun Aung Chain 2003.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ASI 1929-30, pl. XLI (e). — IB IV, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>357</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a. — PPPB II, 52b.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">IB V, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>570</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>b. — PPPB II, pl. 8abc.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ASI 1911-12, pl. LXIX (1). — Blagden 1913-14 (D1). — ASB 1913, pl. I (1-2). — IB IV, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>354</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d. — PPPB II, pl. 5a, 6a.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Blagden 1913-14 (A). — ASI 1911-12, pl. LXIX (1). — IB IV, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>354</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a. — PPPB II, pl. 5d, 6c.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>De Beylié 1907a, pl. VIII. — EB I, 1, pl. IV (A). —</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> IB. — RTI</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>De Beylié 1907a, pl. VII (1). — ASI 1909-10, 121 fig. 3. —  PPPB II, pl. 21 (b).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>stone</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> funerary tablet</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">stone </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>funerary tablet</t>
+    </r>
+  </si>
+  <si>
+    <t>PPPB II, pl. 6 (d).</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Blagden 1913-14 (B1). — ASI 1911-12, pl. LXVIII (3). — IB IV, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>354</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>b. — PPPB II, pl. 5 (ef), 6 (d).</t>
+    </r>
+  </si>
+  <si>
+    <t>ƀaṁḥ sguḥ sa paṁ kdiḥ</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ASI 1909-10, pl. L (2). —</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> estampage HRC. — RTI.</t>
+    </r>
+  </si>
+  <si>
+    <t>A:25, B:25</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ASI 1909-10, pl. XLIX (11). — Mya 1961, II, pl. 34-35. — PPPB II, pl. 56 (d, e).</t>
+  </si>
+  <si>
+    <t>ASI 1909-10, 123. — Mya 1961, II, 23. — PPPB I, 152.</t>
+  </si>
+  <si>
+    <t>ASI 1909-10, 123. — Mya 1961, II, 31. — PPPB I, 155.</t>
+  </si>
+  <si>
+    <t>Not in U Mya 1961. Wrongly ascribed to Bawbawgyi pagoda by Duroiselle (1921).</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">||| ƀaṁḥ de / sa uttra pa / </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0091CE"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>ƀ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>iṁḥ co</t>
+    </r>
+  </si>
+  <si>
+    <t>Kan Wet Khaung mound, Sriksetra</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ASI 1929-30, pl. XLI (a). —</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> IB IV, 357b. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">— PPPB II, pl. 52 (a). </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>— RTI.</t>
+    </r>
+  </si>
+  <si>
+    <t>For another(more damaged) specimen of sun+moon symbol, see PYU61.</t>
+  </si>
+  <si>
+    <t>Tawadeintha (Tāvatiṁsa) pagoda in hills west of Sriksetra</t>
+  </si>
+  <si>
+    <t>ASI 1910-11, 93. — ASB 1911, 6, 44. — PPPB I, 158.</t>
+  </si>
+  <si>
+    <t>two words</t>
+  </si>
+  <si>
+    <t>Tawadeintha (Tāvatiṁsa) pagod, Sriksetra</t>
+  </si>
+  <si>
+    <t>ASB 1911, 6, 44.</t>
+  </si>
+  <si>
+    <t>Found in 1935. We do not believe this inscription comprises any parts in Sanskrit, despite statements in the literature to that effect.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ASI 1934-35, pl. XXII (a). — </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">IB V, 569. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>— Le May 1956, fig. 1.— PPPB II, pl. 15b. —</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> RTI.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ASI 1934-35, 45-6. — Le May 1956: 47. — PPPB I, 65, 75 n. 25, 131.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">According to Luce, read by Blagden but his reading never published. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Previous publications did not get the number of lines right.</t>
+    </r>
+  </si>
+  <si>
+    <t>Blagden 1913-14: 127 (D2). —ASB 1913, 14. — PPPB I, 65, 75 n. 23, 127.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ASB 1904-05, 8-9, 35; 1915, 21-23.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>— ASI 1929-30, 152. — PR, 21.—PPPB I, 66, 75 n. 27, 149. — Shafer 1943: 339.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Blagden 1913-14: 127 (E). — ASB 1913, 14-15; 1914-15, 21-23. —  PPPB I, 65, 75 n. 24, 127.</t>
+    </r>
+  </si>
+  <si>
+    <t>Blagden 1913-14 (B1). — ASB 1912, 7, 11. — ASI 1911-12, 147. — PR, 47 (B), 50. — PPPB I, 48, 57 n. 13, 126-7. — Shafer 1943: 339. — Guy 2014: 76-7 (cat. 24).</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>De Beylié 1907a: 9, 83, 108. — Blagden 1911 (A). — EB I, 1, 59-68 (A). —  Shafer 1943: 320-37,340-44, 357-63. — PR, 53-61. —</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> PPPB I, 62-4, 74 n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>15. — Krech 2012: 153-65 (A).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Blagden 1913-14 (B). — EB I, 1, 59-68 (B). —  Shafer 1943: 320-37, 340-44, 357-63. — PR, 63-71. — PPPB I, 62-4, 74 n. 15. — Krech 2012: 153-65 (B).</t>
+    </r>
+  </si>
+  <si>
+    <t>De Beylié 1907a: 82-3. — ASI 1909-10, 120. — Blagden 1913-14: 127 (2). — PPPB I, 129.</t>
+  </si>
+  <si>
+    <t>De Beylié 1907a: 83 (n. 1). — Blagden 1913-14: 127 (6). —ASB 1916, 18 (with n. ‡). — Chen Yi-Sein 1960. — PPPB I, 67, 76 n. 38-39.</t>
+  </si>
+  <si>
+    <r>
+      <t>Blagden 1913-14: 127 (5).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — ASB 1912, 12 §37.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ASI 1927-28, 127-8, 145. — Ray 1936: 19-20. — PR, 41-3. — PPPB I, 51, 57 n. 24, 65, 74 n. 22, 131-2. — Guy 1997: 91-2; 2014: 91-2 (cat. 41).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ASI 1926-27, pl. XXXVII (d), XXXVIII (c). — Le May 1956, fig. 4. — Mya 1961, II, pl. 1, 5, 6. — PPPB II, pl. 28-29. — Guy 2014: 66 (fig. 54), 81 (cat. 27). — </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RTI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ASI 1926-27, 175-6. — PR, 34. — Le May 1956: 48. — PPPB I, 51, 57 n. 23, 137. — Falk 1997: 88-91.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve"> — Stargardt. — </t>
     </r>
     <r>
@@ -1796,65 +2772,18 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Guy 2014, cat. 27.</t>
-    </r>
-  </si>
-  <si>
-    <t>fragments of a stone slab (?)</t>
-  </si>
-  <si>
-    <t>at least 13</t>
-  </si>
-  <si>
-    <t>NW corner of “Beikthano Myo”, Sriksetra</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">estampages EFEO. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>— ASB 1960, fig. 13</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>private collection, Pyay</t>
-  </si>
-  <si>
-    <t>Shwe Phon Pwint Library &amp; Museum, Pyay</t>
-  </si>
-  <si>
-    <t>very similar to following item</t>
-  </si>
-  <si>
-    <t>photos Bob Hudson</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ASI 1927, 178-80, 200-1. — ASB 1939, 12-22. — </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PR, 25-33. — PPPB I, 139. —</t>
+      <t>Guy 2014: 80-2 (cat. 27).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ASB 1964, pl. 25. — PPPB II, pl. 51. —</t>
     </r>
     <r>
       <rPr>
@@ -1864,1118 +2793,36 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Falk 1997. — Stargardt 2000.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ASI 1910-11, 89. — Finot 1912: 134-135 — Finot 1913. — PR, 35-36. — PPPB I, 61, 74 n. 4, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>XX</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. — Stargardt 1995: 201.</t>
-    </r>
-  </si>
-  <si>
-    <t>stone tablet in 3 fragments</t>
-  </si>
-  <si>
-    <t>h:3.1, l:16.5</t>
-  </si>
-  <si>
-    <t>leaves 1-18: 3 lines, leaf 19: 4 l., leaf 20: 2 l.</t>
-  </si>
-  <si>
-    <t>deposited by Department of Archaeology at National Museum, Yangon</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> IB V, 555-556 (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>check index of plates</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>). —</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> RTI</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ASI 1926-27, pl. XXXVII (d), XXXVIII (c). — Mya 1961, II, pl. 1, 5, 6. — PPPB II, pl. 28-29. — </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>RTI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Listed in continuation of Duroiselle, </t>
+      <t xml:space="preserve"> RTI.</t>
+    </r>
+  </si>
+  <si>
+    <t>Blagden 1913-14: 127 (B2). — PPPB I, 126.</t>
+  </si>
+  <si>
+    <t>found in 1982</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nyunt Han </t>
     </r>
     <r>
       <rPr>
         <i/>
         <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A List of Inscriptions Found in Burma</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (1921), appendix B</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ASI 1909-10, pl. 49 (17-18). — ASB 1924,  pl. 3;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 1958, chart. —  PPPB II, pl. 35-36.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ASI 1909-10, 123. —ASB 1924, 26.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> — PPPB I, 62, 74 n. 9, 140.</t>
-    </r>
-  </si>
-  <si>
-    <t>Myint Aung 1970, pl. 9a. — Aung Thaw 1972: 14.</t>
-  </si>
-  <si>
-    <t>Beikthano</t>
-  </si>
-  <si>
-    <t>saṁghasiri/sayasiri</t>
-  </si>
-  <si>
-    <t>whole piece 4 cm long; seal 1.5 cm diam.</t>
-  </si>
-  <si>
-    <t>National Museum, Yangon</t>
-  </si>
-  <si>
-    <t>Prakrit (?)</t>
-  </si>
-  <si>
-    <t>ASB 1959, pl. 16-17. — Aung Thaw 1968, fig. 79.9, pl. LIVab. — photos Bob Hudson.</t>
-  </si>
-  <si>
-    <t>ASB 1959, 19. — Aung Thaw 1968: 50-51. — Aung Thaw 1972: 4.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ASB 1960: 22. —Aung Thaw 1972: 32. — Sircar 1976: 210-217. — </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Aung Thaw et al. 1993: 134. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>— Gutman 2001: 109 n. 1.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sinlu village, Pwinbyu township </t>
-  </si>
-  <si>
-    <t>Sin Phyu Ywa village (Beinnaka old city), Pyawbwe</t>
-  </si>
-  <si>
-    <t>found on 20/05/2015 by Tampawaddy Win Maung and his group; information Kyam Minn Htin email on the same day.</t>
-  </si>
-  <si>
-    <t>ASI 1926-27, pl. XXXIX (f). — OBEP, pl. 444 (a, b).</t>
-  </si>
-  <si>
-    <t>OBEP, pl. 34 (c, d).</t>
-  </si>
-  <si>
-    <t>mentions Metriya</t>
-  </si>
-  <si>
-    <t>Pagan, Shwehsandaw pagoda, relic chamber</t>
-  </si>
-  <si>
-    <t>ASI 1926-27, 164. — PR, 77. — Mya 1961, I, 23-4. — OBEP I, 99; II, 25. — PPPB I, 66, 75 n. 30.</t>
-  </si>
-  <si>
-    <t>OBEP II, 26.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">read </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>baṁḥ metriya</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> by Duroiselle, but this reading not verifiable from the existing photos.</t>
-    </r>
-  </si>
-  <si>
-    <t>National Museum, Yangon, nr. 36</t>
-  </si>
-  <si>
-    <t>ASI 1926-27, 164-5. — OBEP I, 188; II, 204.</t>
-  </si>
-  <si>
-    <t>West bank of Nagayon lake, Halin</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">PPPB II, pl. 54. — </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>EFEO estampage n. XXX.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Payagyi pagoda</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, near Pyay</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>stone stela (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>or funerary tablet?</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>South of Tagantha village, near Halin</t>
-  </si>
-  <si>
-    <t>presence of inscription not yet noted when catalogue entry was written for Guy 2014.</t>
-  </si>
-  <si>
-    <t>metal sculpture of preaching Buddha</t>
-  </si>
-  <si>
-    <t>Naional Museum, Nay Pyi Taw, 1/3/1994</t>
-  </si>
-  <si>
-    <t>Sanskrit in Gaudi; Pali in LSB and Pyu in Pyu scripts</t>
-  </si>
-  <si>
-    <t>400 ft. South of Shwegugyi (near HL26)</t>
-  </si>
-  <si>
-    <t>Myanadi village, 8 km east of Maingmaw, Myittha township, Kyaukse Dt., Mandalay Region</t>
-  </si>
-  <si>
-    <t>Aung Seigon pagoda, Innwa, Mandalay Region</t>
-  </si>
-  <si>
-    <t>Myanmar. — Moore 2009, 111.</t>
-  </si>
-  <si>
-    <t>Led-dwin, near Maingmaw</t>
-  </si>
-  <si>
-    <t>Moore 2009, 111.</t>
-  </si>
-  <si>
-    <t>Shwegyobin, Kyauktaga township, Bago region</t>
-  </si>
-  <si>
-    <t>Myint Aung 1970: 61. — Aung Thaw 1972: 14. — Skilling 2015: 66.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">White — </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Middleton 2005: 92. — Skilling 2015: 65.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>White —</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Middleton 2005: 91. — Skilling 2015: 66.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>White. —</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Middleton 2005: 90. — Skilling 2015: 66.</t>
-    </r>
-  </si>
-  <si>
-    <t>Myint Aung (as well as scholars after him) points out that an identical artefact has been found at Oc Eo. Apparently more than one specimen of this intaglio was made; other intaglios with the same inscription but applied rather les artfully are shown and/or referred to  by Middleton 2005: 15, 159. Their provenance from 'Pyu' sites in uncertain.</t>
-  </si>
-  <si>
-    <t>writing positive</t>
-  </si>
-  <si>
-    <t>must look up what IB says about this item.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Blagden 1913-14, 127 (E). — ASB 1913, 14-15; 1914-15, 21-23. —  PPPB I, 65, 75 n. 24, 127.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> stone </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>funerary tablet</t>
-    </r>
-  </si>
-  <si>
-    <t>Blagden 1913-14 (C). — IB IV, 354c. — PPPB II, pl. 5bc, 6b.</t>
-  </si>
-  <si>
-    <t>Blagden 1913-14 (A). — ASB 1912, 7, 11. — ASI 1911-12, 147. — PR, 47 (A), 50. — PPPB I, 48, 57 n. 13, 126-7.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ASB 1904-05, 8-9, 35; 1915, 21-23.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>— ASI 1929-30, 152. — PR, 21.—PPPB I, 66, 75 n. 27, 149. — Shafer 1943, 339.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>EB I, 1, pl. IV (B). —</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> IB. — RTI</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Lémyethna or Bobobgyi</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (?) pagoda, Sriksetra</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>De Beylié 1907a, 89 fig. 62</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, pl. 5 (3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>); 1907b, 246 fig. 199. — ASI 1909-10, pl. XLIX (12, 13). — Mya 1961, II, pl. 60 (gha). — PPPB II, 59 (f).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">De Beylié 1907a, 98. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>— ASI 1909-10, 120. — Blagden 1913-14, 127 (1). — PPPB, I, 54, 59 n. 51, 134.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ASI 1909-10, pl. 50 (2). —</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> estampage HRC. — RTI.</t>
-    </r>
-  </si>
-  <si>
-    <t>During or after the Chinese invasion of Pagan in 1287 CE; but ASB 1916 suggests "probably dated 1284 A.D.".</t>
-  </si>
-  <si>
-    <t>De Beylié 1907a, 83 (n. 1). — Blagden 1913-14, 127 (6). —ASB 1916, 18 (with n. ‡). — Chen Yi-Sein 1960. — PPPB I, 67, 76 n. 38-39.</t>
-  </si>
-  <si>
-    <r>
-      <t>Blagden 1913-14, 127 (5).</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> — ASB 1912, 12 §37.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <t>ASI 1910-11, pl. 47 (4-8). — Mya 1961, II, pl. 72.</t>
-  </si>
-  <si>
-    <t>Chaem Kawklai 1992.</t>
-  </si>
-  <si>
-    <t>3.3 cm diam.</t>
-  </si>
-  <si>
-    <t>Ratchamangala Phisek National Library, Chiang Mai (Thailand), acc. nr. 034/2534</t>
-  </si>
-  <si>
-    <t>Chaem Kawklai 1992: 86, 88.</t>
-  </si>
-  <si>
-    <t>ASI 1912-13, pt. I, 29. — Blagden 1913-14 (C). — ASB 1913, 13-4; 1914, 20. — PR, 47 (C), 51. — PPPB I, 48, 57 n. 13, 126-7.</t>
-  </si>
-  <si>
-    <t>ASI 1911-12, 147. — ASI 1912-13, pt. I, 29. — ASB 1913, 9-10, 14. — Blagden 1913-14 (D1). — PR, 47 (D), 51. — PPPB I, 48, 57 n. 13, 126-7.</t>
-  </si>
-  <si>
-    <t>See also PYU25. — ASI 1911-12 fig. 1 on p. 149 shows Blagden’s D1 urn (but it is identified as being from the Bawbawgyi, which must be a mistake).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">it seems to me (AG) that Luce was wrong in citing De Beylié 1907a, pl. V (3), for De Beylié does not say that that is the converse of the inscribed reverse copied in fig. 62. Comparing the other photos available, it seems obvious that de Beyilié's V (3) and 62 have no connection with each other. </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">De Beylié 1907a, 89 fig. 62, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>pl. V (3)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>; 1907b, 246 fig. 199. — ASI 1909-10, pl. XLIX (12, 13). — Mya 1961, II, pl. 60 (gha). — PPPB II, 59 (f).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ASI 1909-10, 123. — Mya 1961, II, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>XX</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. — PPPB I, 155.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Lémyethna or Bawbawgyi (?)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> pagoda, Sriksetra</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ASI 1909-10, pl. XIX (11).</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> — Mya 1961, II, pl. 34-35. — PPPB II, pl. 56 (d, e).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">same as </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="205"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>PYU013</t>
-    </r>
-  </si>
-  <si>
-    <t>same as PYU014</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ASI 1909-10, pl. XIX (11). — Mya 1961, II, pl. 34-35. — PPPB II, pl. 56 (d, e).</t>
-  </si>
-  <si>
-    <t>2 or 3</t>
-  </si>
-  <si>
-    <t>ASI 1909-10, 123. — Mya 1961, II, 23. — PPPB II, 152.</t>
-  </si>
-  <si>
-    <r>
-      <t>ASI 1910-11, pl. XLVII</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (21). — PPPB II, pl. 62 (d, e).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Tawateintha pagoda, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Sriksetra</t>
-    </r>
-  </si>
-  <si>
-    <t>Blagden 1913-14 (B1). — ASB 1912, 7, 11. — ASI 1911-12, 147. — PR, 47 (B), 50. — PPPB I, 48, 57 n. 13, 126-7. — Shafer 1943, 339. — Guy 2014, 76-7 (cat. 24).</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>De Beylié 1907a, 9, 83, 108. — Blagden 1911 (A). — EB I, 1, 59-68 (A). —  Shafer 1943, 320-37,340-44, 357-63. — PR, 53-61. —</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> PPPB I, 62-4, 74 n. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>15. — Krech 2012, 153-65 (A).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Blagden 1911 (B). — EB I, 1, 59-68 (B). —  Shafer 1943, 320-37, 340-44, 357-63. — PR, 63-71. — PPPB I, 62-4, 74 n. 15. — Krech 2012, 153-65 (B).</t>
-    </r>
-  </si>
-  <si>
-    <t>De Beylié 1907a, 82-3. — ASI 1909-10, p. 120. — Blagden 1913-14, 127 (2). — PPPB I, 129.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ASI 1927-28, 127-8, 145. — Ray 1936: 19-20. — PR, 41-3. — PPPB I, 51, 57 n. 24, 65, 74 n. 22, 131-132. — Guy 1997: 91-2. — Guy 2014, cat. 41.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>HRC rubbing. — Rubbing in MHRJ 11. —</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> RTI.</t>
-    </r>
-  </si>
-  <si>
-    <t>San Win 1998, 2000-1, 2003. — unnumbered pages in MHRJ 11. —Tun Aung Chain 2003.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ASI 1934-35, 45-6. —</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> R. le May, Culture of SEA, fig. 1. — </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PPPB I, 65, 75 n. 25, 131.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Pyu </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(and Sanskrit?)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ASI 1929-30, pl. XLI (e). — IB IV, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>357</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>a. — PPPB II, 52b.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">IB V, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>570</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>b. — PPPB II, pl. 8abc.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ASI 1911-12, pl. LXIX (1). — Blagden 1913-14 (D1). — ASB 1913, pl. I (1-2). — IB IV, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>354</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>d. — PPPB II, pl. 5a, 6a.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Blagden 1913-14 (A). — ASI 1911-12, pl. LXIX (1). — IB IV, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>354</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>a. — PPPB II, pl. 5d, 6c.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>De Beylié 1907a, pl. VIII. — EB I, 1, pl. IV (A). —</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> IB. — RTI</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>De Beylié 1907a, pl. VII (1). — ASI 1909-10, 121 fig. 3. —  PPPB II, pl. 21 (b).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>stone</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> funerary tablet</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">stone </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>funerary tablet</t>
-    </r>
-  </si>
-  <si>
-    <t>Blagden 1912, 127 (B2). — PPPB I, 126. — Guy 2014, cat. 24.</t>
-  </si>
-  <si>
-    <t>PPPB II, pl. 6 (d).</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Blagden 1913-14 (B1). — ASI 1911-12, pl. LXVIII (3). — IB IV, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>354</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>b. — PPPB II, pl. 5 (ef), 6 (d).</t>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>et al</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. 2006: 13. — Moore 2009, 111-12.</t>
     </r>
   </si>
 </sst>
@@ -2983,7 +2830,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3114,10 +2961,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="205"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0091CE"/>
+      <name val="Times New Roman"/>
     </font>
   </fonts>
   <fills count="6">
@@ -3442,7 +3299,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3504,12 +3361,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3587,12 +3438,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3639,6 +3484,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="229">
@@ -4162,10 +4010,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K126"/>
+  <dimension ref="A1:K125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4175,14 +4023,14 @@
     <col min="4" max="4" width="12.5" style="5" customWidth="1"/>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.83203125" style="40" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.83203125" style="38" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="29.1640625" customWidth="1"/>
     <col min="11" max="11" width="22.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18">
       <c r="A1" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="4"/>
@@ -4190,10 +4038,10 @@
       <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="B2" s="66" t="s">
-        <v>399</v>
-      </c>
-      <c r="C2" s="66"/>
+      <c r="B2" s="62" t="s">
+        <v>383</v>
+      </c>
+      <c r="C2" s="62"/>
       <c r="D2" s="4"/>
       <c r="E2" s="3" t="s">
         <v>1</v>
@@ -4203,34 +4051,34 @@
       <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="69" t="s">
+      <c r="C3" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="69" t="s">
-        <v>117</v>
-      </c>
-      <c r="E3" s="71" t="s">
-        <v>94</v>
-      </c>
-      <c r="F3" s="72" t="s">
+      <c r="D3" s="65" t="s">
+        <v>115</v>
+      </c>
+      <c r="E3" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="F3" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="67" t="s">
+      <c r="G3" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="67" t="s">
+      <c r="H3" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="67" t="s">
-        <v>93</v>
-      </c>
-      <c r="J3" s="67" t="s">
+      <c r="I3" s="63" t="s">
+        <v>91</v>
+      </c>
+      <c r="J3" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="67" t="s">
+      <c r="K3" s="63" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4238,47 +4086,47 @@
       <c r="A4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="68"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
     </row>
     <row r="5" spans="1:11" ht="59">
       <c r="A5" s="9">
         <v>1</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>448</v>
+        <v>430</v>
       </c>
       <c r="C5" s="11">
         <v>2</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>489</v>
+        <v>450</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>451</v>
+        <v>481</v>
       </c>
       <c r="K5" s="10"/>
     </row>
@@ -4287,29 +4135,29 @@
         <v>2</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="H6" s="10"/>
       <c r="I6" s="19" t="s">
-        <v>490</v>
+        <v>451</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>447</v>
+        <v>482</v>
       </c>
       <c r="K6" s="10" t="s">
         <v>20</v>
@@ -4320,34 +4168,34 @@
         <v>3</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C7" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="H7" s="10" t="s">
         <v>6</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>491</v>
+        <v>452</v>
       </c>
       <c r="J7" s="19" t="s">
-        <v>466</v>
+        <v>442</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>467</v>
+        <v>443</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="56">
@@ -4355,31 +4203,31 @@
         <v>4</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C8" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="H8" s="10" t="s">
         <v>7</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="J8" s="19" t="s">
-        <v>465</v>
+        <v>441</v>
       </c>
       <c r="K8" s="10"/>
     </row>
@@ -4388,31 +4236,31 @@
         <v>5</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C9" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="H9" s="10" t="s">
         <v>8</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>492</v>
+        <v>453</v>
       </c>
       <c r="J9" s="19" t="s">
-        <v>450</v>
+        <v>432</v>
       </c>
       <c r="K9" s="10"/>
     </row>
@@ -4421,34 +4269,34 @@
         <v>6</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C10" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="30" t="s">
-        <v>376</v>
+      <c r="D10" s="28" t="s">
+        <v>363</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="H10" s="10" t="s">
         <v>9</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="J10" s="19" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="70">
@@ -4456,34 +4304,34 @@
         <v>7</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11" s="30" t="s">
-        <v>339</v>
-      </c>
-      <c r="D11" s="30" t="s">
-        <v>248</v>
+        <v>101</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>329</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>242</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="F11" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="48" t="s">
-        <v>245</v>
+      <c r="G11" s="46" t="s">
+        <v>239</v>
       </c>
       <c r="H11" s="10" t="s">
         <v>0</v>
       </c>
       <c r="I11" s="23" t="s">
-        <v>493</v>
+        <v>454</v>
       </c>
       <c r="J11" s="23" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="56">
@@ -4491,34 +4339,34 @@
         <v>8</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="C12" s="30" t="s">
-        <v>340</v>
-      </c>
-      <c r="D12" s="30" t="s">
-        <v>247</v>
+        <v>101</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>330</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>241</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="G12" s="48" t="s">
+        <v>250</v>
+      </c>
+      <c r="G12" s="46" t="s">
         <v>21</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="I12" s="23" t="s">
-        <v>452</v>
+        <v>433</v>
       </c>
       <c r="J12" s="23" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="42">
@@ -4526,27 +4374,27 @@
         <v>9</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
       <c r="E13" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="34" t="s">
-        <v>149</v>
+      <c r="G13" s="32" t="s">
+        <v>145</v>
       </c>
       <c r="H13" s="10" t="s">
         <v>22</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>494</v>
+        <v>455</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>455</v>
+        <v>434</v>
       </c>
       <c r="K13" s="10"/>
     </row>
@@ -4555,31 +4403,31 @@
         <v>10</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="F14" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="29" t="s">
-        <v>165</v>
-      </c>
-      <c r="H14" s="28" t="s">
+      <c r="G14" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="H14" s="26" t="s">
         <v>22</v>
       </c>
       <c r="I14" s="23" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="K14" s="10"/>
     </row>
@@ -4588,34 +4436,34 @@
         <v>11</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C15" s="54" t="s">
-        <v>121</v>
-      </c>
-      <c r="D15" s="30" t="s">
-        <v>249</v>
+        <v>82</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>462</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>243</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="48" t="s">
-        <v>246</v>
+      <c r="G15" s="46" t="s">
+        <v>240</v>
       </c>
       <c r="H15" s="10" t="s">
         <v>2</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>458</v>
+        <v>487</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>457</v>
+        <v>435</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="42">
@@ -4623,119 +4471,123 @@
         <v>12</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="H16" s="10"/>
       <c r="I16" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>459</v>
+        <v>488</v>
       </c>
       <c r="K16" s="10" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="42">
-      <c r="A17" s="46">
+      <c r="A17" s="44">
         <v>13</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="C17" s="55" t="s">
-        <v>476</v>
-      </c>
-      <c r="D17" s="32"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="48" t="s">
+        <v>227</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="30"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="46" t="s">
         <v>3</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48" t="s">
-        <v>475</v>
+        <v>222</v>
+      </c>
+      <c r="H17" s="69" t="s">
+        <v>467</v>
+      </c>
+      <c r="I17" s="46" t="s">
+        <v>463</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>477</v>
-      </c>
-      <c r="K17" s="48"/>
+        <v>464</v>
+      </c>
+      <c r="K17" s="46"/>
     </row>
     <row r="18" spans="1:11" ht="154">
-      <c r="A18" s="46">
+      <c r="A18" s="44">
         <v>14</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="C18" s="30" t="s">
+        <v>227</v>
+      </c>
+      <c r="C18" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="32"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="48" t="s">
+      <c r="D18" s="30"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="46" t="s">
+        <v>446</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="H18" s="45" t="s">
+        <v>460</v>
+      </c>
+      <c r="I18" s="46" t="s">
+        <v>445</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>465</v>
+      </c>
+      <c r="K18" s="46" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="42">
+      <c r="A19" s="44">
+        <v>15</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="30"/>
+      <c r="E19" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" s="12" t="s">
         <v>471</v>
       </c>
-      <c r="G18" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48" t="s">
-        <v>469</v>
-      </c>
-      <c r="J18" s="12" t="s">
-        <v>470</v>
-      </c>
-      <c r="K18" s="48" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="42">
-      <c r="A19" s="46">
-        <v>15</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="C19" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="32"/>
-      <c r="E19" s="49" t="s">
-        <v>57</v>
-      </c>
-      <c r="F19" s="48" t="s">
-        <v>479</v>
-      </c>
       <c r="G19" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="H19" s="48"/>
-      <c r="I19" s="48" t="s">
-        <v>478</v>
+        <v>222</v>
+      </c>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46" t="s">
+        <v>447</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>331</v>
-      </c>
-      <c r="K19" s="47" t="s">
-        <v>330</v>
+        <v>472</v>
+      </c>
+      <c r="K19" s="45" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="56">
@@ -4743,63 +4595,63 @@
         <v>16</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>198</v>
-      </c>
-      <c r="D20" s="30" t="s">
-        <v>375</v>
+        <v>193</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>362</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>380</v>
+        <v>468</v>
       </c>
       <c r="G20" s="24" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="H20" s="13"/>
       <c r="I20" s="19" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="J20" s="13" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="K20" s="13"/>
     </row>
-    <row r="21" spans="1:11" ht="28">
+    <row r="21" spans="1:11" ht="42">
       <c r="A21" s="21">
         <v>17</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C21" s="20">
         <v>8</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>424</v>
+        <v>408</v>
       </c>
       <c r="G21" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="H21" s="13"/>
       <c r="I21" s="13" t="s">
-        <v>342</v>
+        <v>469</v>
       </c>
       <c r="J21" s="19" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="K21" s="13" t="s">
-        <v>200</v>
+        <v>470</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="22" customFormat="1" ht="56">
@@ -4807,30 +4659,30 @@
         <v>18</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="C22" s="30" t="s">
-        <v>411</v>
-      </c>
-      <c r="D22" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>395</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>238</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>396</v>
+      </c>
+      <c r="G22" s="12" t="s">
         <v>244</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="F22" s="19" t="s">
-        <v>412</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>250</v>
       </c>
       <c r="H22" s="13"/>
       <c r="I22" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J22" s="19"/>
       <c r="K22" s="13" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="28">
@@ -4838,30 +4690,30 @@
         <v>19</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>427</v>
+        <v>411</v>
       </c>
       <c r="C23" s="20">
         <v>3</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F23" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G23" s="24" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J23" s="22"/>
       <c r="K23" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:11" s="22" customFormat="1" ht="70">
@@ -4869,29 +4721,29 @@
         <v>20</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C24" s="20">
         <v>5</v>
       </c>
-      <c r="D24" s="30" t="s">
-        <v>277</v>
+      <c r="D24" s="28" t="s">
+        <v>271</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F24" s="19" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="H24" s="13"/>
       <c r="I24" s="13" t="s">
-        <v>485</v>
+        <v>448</v>
       </c>
       <c r="J24" s="13" t="s">
-        <v>486</v>
+        <v>449</v>
       </c>
       <c r="K24" s="13"/>
     </row>
@@ -4900,63 +4752,63 @@
         <v>21</v>
       </c>
       <c r="B25" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="F25" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="C25" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="E25" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="F25" s="19" t="s">
-        <v>82</v>
-      </c>
       <c r="G25" s="24" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="H25" s="19"/>
-      <c r="I25" s="53" t="s">
-        <v>97</v>
+      <c r="I25" s="51" t="s">
+        <v>95</v>
       </c>
       <c r="J25" s="22"/>
       <c r="K25" s="19" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" s="6" customFormat="1" ht="42">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" s="6" customFormat="1" ht="84">
       <c r="A26" s="21">
         <v>22</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>28</v>
+        <v>180</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>27</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>488</v>
+        <v>56</v>
       </c>
       <c r="F26" s="19" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G26" s="24" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="H26" s="13"/>
       <c r="I26" s="13" t="s">
-        <v>343</v>
+        <v>477</v>
       </c>
       <c r="J26" s="13" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="K26" s="13" t="s">
-        <v>85</v>
+        <v>476</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="112">
@@ -4964,30 +4816,30 @@
         <v>23</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="D27" s="20"/>
       <c r="E27" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F27" s="19" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="G27" s="19" t="s">
         <v>23</v>
       </c>
       <c r="H27" s="13"/>
       <c r="I27" s="19" t="s">
-        <v>425</v>
+        <v>409</v>
       </c>
       <c r="J27" s="19" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="K27" s="13" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="70">
@@ -4995,96 +4847,96 @@
         <v>24</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="D28" s="30" t="s">
-        <v>276</v>
+        <v>29</v>
+      </c>
+      <c r="D28" s="28" t="s">
+        <v>270</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F28" s="19" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="H28" s="13"/>
       <c r="I28" s="19" t="s">
-        <v>398</v>
+        <v>490</v>
       </c>
       <c r="J28" s="13" t="s">
-        <v>382</v>
+        <v>491</v>
       </c>
       <c r="K28" s="13"/>
     </row>
-    <row r="29" spans="1:11" ht="42">
+    <row r="29" spans="1:11" ht="70">
       <c r="A29" s="21">
         <v>25</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>355</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>57</v>
+        <v>343</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>56</v>
       </c>
       <c r="F29" s="19" t="s">
-        <v>426</v>
+        <v>84</v>
       </c>
       <c r="G29" s="24" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="H29" s="13"/>
       <c r="I29" s="13" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="J29" s="19" t="s">
-        <v>151</v>
+        <v>480</v>
       </c>
       <c r="K29" s="19" t="s">
-        <v>122</v>
+        <v>479</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="28">
       <c r="A30" s="21">
         <v>26</v>
       </c>
-      <c r="B30" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="C30" s="14" t="s">
+      <c r="B30" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="C30" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D30" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>57</v>
+      <c r="D30" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>56</v>
       </c>
       <c r="F30" s="19" t="s">
-        <v>426</v>
+        <v>410</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="H30" s="13"/>
       <c r="I30" s="19" t="s">
-        <v>498</v>
+        <v>458</v>
       </c>
       <c r="J30" s="19" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="K30" s="13" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="28">
@@ -5092,29 +4944,29 @@
         <v>27</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D31" s="20" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="E31" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="H31" s="13"/>
       <c r="I31" s="13" t="s">
-        <v>359</v>
+        <v>492</v>
       </c>
       <c r="J31" s="13" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="K31" s="13"/>
     </row>
@@ -5123,30 +4975,30 @@
         <v>28</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="C32" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="D32" s="30" t="s">
-        <v>335</v>
+        <v>101</v>
+      </c>
+      <c r="C32" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="D32" s="28" t="s">
+        <v>325</v>
       </c>
       <c r="E32" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F32" s="24" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="G32" s="24" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="H32" s="13"/>
       <c r="I32" s="19"/>
       <c r="J32" s="13" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="K32" s="13" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="28">
@@ -5154,30 +5006,30 @@
         <v>29</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C33" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E33" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="G33" s="12" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="H33" s="13"/>
-      <c r="I33" s="27" t="s">
-        <v>302</v>
+      <c r="I33" s="25" t="s">
+        <v>294</v>
       </c>
       <c r="J33" s="24"/>
       <c r="K33" s="13" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="28">
@@ -5185,30 +5037,30 @@
         <v>30</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>495</v>
+        <v>456</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D34" s="20" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E34" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="F34" s="27" t="s">
-        <v>439</v>
+        <v>56</v>
+      </c>
+      <c r="F34" s="25" t="s">
+        <v>422</v>
       </c>
       <c r="G34" s="24" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="H34" s="24"/>
       <c r="I34" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J34" s="13"/>
       <c r="K34" s="24" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="28">
@@ -5216,26 +5068,26 @@
         <v>31</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>496</v>
+        <v>457</v>
       </c>
       <c r="C35" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D35" s="20" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E35" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G35" s="24" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="H35" s="13"/>
       <c r="I35" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J35" s="13"/>
       <c r="K35" s="13"/>
@@ -5245,92 +5097,94 @@
         <v>32</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D36" s="20" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E36" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>434</v>
+        <v>418</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="H36" s="13"/>
       <c r="I36" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="J36" s="26" t="s">
-        <v>436</v>
-      </c>
-      <c r="K36" s="13"/>
+        <v>95</v>
+      </c>
+      <c r="J36" s="12" t="s">
+        <v>495</v>
+      </c>
+      <c r="K36" s="13" t="s">
+        <v>494</v>
+      </c>
     </row>
     <row r="37" spans="1:11" ht="28">
       <c r="A37" s="21">
         <v>33</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="D37" s="30" t="s">
-        <v>272</v>
+        <v>30</v>
+      </c>
+      <c r="D37" s="28" t="s">
+        <v>266</v>
       </c>
       <c r="E37" s="19"/>
       <c r="F37" s="12" t="s">
         <v>26</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="H37" s="13"/>
       <c r="I37" s="19" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="J37" s="13" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="K37" s="13"/>
     </row>
     <row r="38" spans="1:11" ht="42">
-      <c r="A38" s="46">
+      <c r="A38" s="44">
         <v>34</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="C38" s="30" t="s">
+        <v>344</v>
+      </c>
+      <c r="C38" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="D38" s="30" t="s">
-        <v>351</v>
+      <c r="D38" s="28" t="s">
+        <v>339</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H38" s="12"/>
       <c r="I38" s="12" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="J38" s="12" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="K38" s="12" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="56">
@@ -5338,63 +5192,63 @@
         <v>35</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D39" s="20" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="E39" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F39" s="19" t="s">
-        <v>428</v>
+        <v>412</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="H39" s="13"/>
       <c r="I39" s="13" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="J39" s="13" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="K39" s="13"/>
     </row>
     <row r="40" spans="1:11" ht="56">
-      <c r="A40" s="46">
+      <c r="A40" s="44">
         <v>36</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>430</v>
-      </c>
-      <c r="C40" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="D40" s="30" t="s">
-        <v>371</v>
+        <v>414</v>
+      </c>
+      <c r="C40" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D40" s="28" t="s">
+        <v>358</v>
       </c>
       <c r="E40" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="H40" s="18"/>
       <c r="I40" s="18" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J40" s="12" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="K40" s="12" t="s">
-        <v>429</v>
+        <v>413</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="84">
@@ -5402,32 +5256,32 @@
         <v>37</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="C41" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D41" s="50" t="s">
-        <v>368</v>
+      <c r="D41" s="48" t="s">
+        <v>355</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="G41" s="12" t="s">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="H41" s="13"/>
       <c r="I41" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J41" s="13" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="K41" s="19" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
     </row>
     <row r="42" spans="1:11" s="22" customFormat="1" ht="28">
@@ -5435,29 +5289,29 @@
         <v>38</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C42" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D42" s="20" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="E42" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F42" s="19" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="G42" s="19" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="H42" s="13"/>
       <c r="I42" s="13" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="J42" s="19" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="K42" s="13"/>
     </row>
@@ -5466,30 +5320,30 @@
         <v>39</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="F43" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="G43" s="31" t="s">
-        <v>159</v>
+        <v>106</v>
+      </c>
+      <c r="G43" s="29" t="s">
+        <v>154</v>
       </c>
       <c r="H43" s="13"/>
       <c r="I43" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J43" s="13"/>
       <c r="K43" s="13" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="42">
@@ -5497,32 +5351,32 @@
         <v>40</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D44" s="20" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="E44" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="G44" s="12" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="H44" s="13"/>
       <c r="I44" s="19" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="J44" s="13" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="K44" s="19" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="28">
@@ -5530,29 +5384,29 @@
         <v>41</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E45" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F45" s="23" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G45" s="19" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="H45" s="13"/>
       <c r="I45" s="13" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="J45" s="13" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="K45" s="13"/>
     </row>
@@ -5561,29 +5415,29 @@
         <v>42</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D46" s="20" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E46" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F46" s="19" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="G46" s="12" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="H46" s="13"/>
       <c r="I46" s="13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J46" s="13" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="K46" s="13"/>
     </row>
@@ -5592,25 +5446,25 @@
         <v>43</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="C47" s="14"/>
       <c r="D47" s="14"/>
       <c r="E47" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F47" s="19" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="G47" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H47" s="13"/>
       <c r="I47" s="19" t="s">
-        <v>460</v>
+        <v>436</v>
       </c>
       <c r="J47" s="19" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="K47" s="13"/>
     </row>
@@ -5619,32 +5473,32 @@
         <v>44</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D48" s="20" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="E48" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F48" s="19" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="G48" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H48" s="13"/>
       <c r="I48" s="19" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="J48" s="10" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="K48" s="13" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="42">
@@ -5652,29 +5506,29 @@
         <v>45</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="C49" s="30" t="s">
-        <v>395</v>
-      </c>
-      <c r="D49" s="30" t="s">
-        <v>394</v>
+        <v>248</v>
+      </c>
+      <c r="C49" s="28" t="s">
+        <v>380</v>
+      </c>
+      <c r="D49" s="28" t="s">
+        <v>379</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F49" s="19" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="G49" s="12" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
       <c r="H49" s="13"/>
       <c r="I49" s="13" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="J49" s="13" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="K49" s="13"/>
     </row>
@@ -5683,80 +5537,80 @@
         <v>46</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="C50" s="30" t="s">
-        <v>296</v>
-      </c>
-      <c r="D50" s="30"/>
+        <v>247</v>
+      </c>
+      <c r="C50" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="D50" s="28"/>
       <c r="E50" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F50" s="19" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="G50" s="12" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="H50" s="13"/>
       <c r="I50" s="19" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="J50" s="19" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="K50" s="13"/>
     </row>
     <row r="51" spans="1:11">
-      <c r="A51" s="60">
+      <c r="A51" s="56">
         <v>47</v>
       </c>
-      <c r="B51" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="C51" s="30" t="s">
+      <c r="B51" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="D51" s="30"/>
-      <c r="E51" s="48" t="s">
-        <v>57</v>
+      <c r="D51" s="28"/>
+      <c r="E51" s="46" t="s">
+        <v>56</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G51" s="12" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="H51" s="18"/>
       <c r="I51" s="12" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="J51" s="12"/>
       <c r="K51" s="18"/>
     </row>
     <row r="52" spans="1:11">
-      <c r="A52" s="60">
+      <c r="A52" s="56">
         <v>48</v>
       </c>
-      <c r="B52" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="C52" s="30" t="s">
+      <c r="B52" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="D52" s="30"/>
-      <c r="E52" s="48" t="s">
-        <v>57</v>
+      <c r="D52" s="28"/>
+      <c r="E52" s="46" t="s">
+        <v>56</v>
       </c>
       <c r="F52" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G52" s="12" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="H52" s="18"/>
       <c r="I52" s="12" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="J52" s="12"/>
       <c r="K52" s="18"/>
@@ -5766,56 +5620,56 @@
         <v>49</v>
       </c>
       <c r="B53" s="19" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C53" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D53" s="20"/>
       <c r="E53" s="19" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F53" s="19" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G53" s="19"/>
       <c r="H53" s="19" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="I53" s="19" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="J53" s="19" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="K53" s="19"/>
     </row>
     <row r="54" spans="1:11" ht="28">
-      <c r="A54" s="46">
+      <c r="A54" s="44">
         <v>50</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>231</v>
-      </c>
-      <c r="C54" s="30" t="s">
+        <v>225</v>
+      </c>
+      <c r="C54" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="D54" s="30"/>
+      <c r="D54" s="28"/>
       <c r="E54" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F54" s="12" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="G54" s="12"/>
       <c r="H54" s="12" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="I54" s="12" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="J54" s="12" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="K54" s="12"/>
     </row>
@@ -5824,26 +5678,26 @@
         <v>51</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D55" s="20" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E55" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F55" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G55" s="19" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J55" s="19"/>
       <c r="K55" s="19"/>
@@ -5853,29 +5707,29 @@
         <v>52</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C56" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D56" s="20" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E56" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F56" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G56" s="19" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="23" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="J56" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K56" s="19"/>
     </row>
@@ -5884,29 +5738,29 @@
         <v>53</v>
       </c>
       <c r="B57" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C57" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D57" s="20" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E57" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F57" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G57" s="19" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="23" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="J57" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K57" s="19"/>
     </row>
@@ -5915,29 +5769,29 @@
         <v>54</v>
       </c>
       <c r="B58" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C58" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D58" s="20" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E58" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F58" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G58" s="19" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="23" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="J58" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K58" s="19"/>
     </row>
@@ -5946,23 +5800,23 @@
         <v>55</v>
       </c>
       <c r="B59" s="19" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C59" s="20"/>
       <c r="D59" s="20" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E59" s="23"/>
       <c r="F59" s="19"/>
       <c r="G59" s="19" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J59" s="23" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K59" s="19"/>
     </row>
@@ -5971,20 +5825,20 @@
         <v>56</v>
       </c>
       <c r="B60" s="19" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C60" s="20"/>
       <c r="D60" s="20" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E60" s="23"/>
       <c r="F60" s="19"/>
       <c r="G60" s="19" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J60" s="19"/>
       <c r="K60" s="19"/>
@@ -5994,52 +5848,52 @@
         <v>57</v>
       </c>
       <c r="B61" s="19" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C61" s="20"/>
       <c r="D61" s="20" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E61" s="23"/>
       <c r="F61" s="19"/>
       <c r="G61" s="19" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J61" s="19"/>
       <c r="K61" s="19"/>
     </row>
     <row r="62" spans="1:11" s="22" customFormat="1" ht="28">
-      <c r="A62" s="46">
+      <c r="A62" s="44">
         <v>58</v>
       </c>
       <c r="B62" s="19" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="C62" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D62" s="20" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="E62" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F62" s="19" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="G62" s="19" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="J62" s="19" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="K62" s="23"/>
     </row>
@@ -6048,27 +5902,27 @@
         <v>59</v>
       </c>
       <c r="B63" s="19" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="C63" s="20" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="D63" s="20"/>
       <c r="E63" s="19" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F63" s="19" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="G63" s="23" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H63" s="23"/>
       <c r="I63" s="23" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="J63" s="19" t="s">
-        <v>410</v>
+        <v>394</v>
       </c>
       <c r="K63" s="19"/>
     </row>
@@ -6077,24 +5931,24 @@
         <v>60</v>
       </c>
       <c r="B64" s="19" t="s">
-        <v>495</v>
+        <v>456</v>
       </c>
       <c r="C64" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D64" s="20" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E64" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F64" s="23"/>
       <c r="G64" s="19" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="H64" s="23"/>
       <c r="I64" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J64" s="19"/>
       <c r="K64" s="19"/>
@@ -6104,1056 +5958,1038 @@
         <v>61</v>
       </c>
       <c r="B65" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C65" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D65" s="20" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="E65" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F65" s="23" t="s">
-        <v>433</v>
+        <v>417</v>
       </c>
       <c r="G65" s="23" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="H65" s="23"/>
       <c r="I65" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J65" s="19"/>
       <c r="K65" s="19" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="66" spans="1:11" s="22" customFormat="1">
-      <c r="A66" s="46">
+      <c r="A66" s="44">
         <v>62</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="C66" s="30"/>
-      <c r="D66" s="30"/>
+        <v>290</v>
+      </c>
+      <c r="C66" s="28"/>
+      <c r="D66" s="28"/>
       <c r="E66" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F66" s="12" t="s">
         <v>26</v>
       </c>
       <c r="G66" s="12" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="H66" s="12"/>
       <c r="I66" s="12" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="J66" s="12"/>
       <c r="K66" s="12"/>
     </row>
-    <row r="67" spans="1:11" s="52" customFormat="1" ht="42">
-      <c r="A67" s="46">
+    <row r="67" spans="1:11" s="50" customFormat="1" ht="42">
+      <c r="A67" s="44">
         <v>63</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="C67" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="C67" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="D67" s="30" t="s">
-        <v>405</v>
+      <c r="D67" s="28" t="s">
+        <v>389</v>
       </c>
       <c r="E67" s="12" t="s">
-        <v>407</v>
+        <v>391</v>
       </c>
       <c r="F67" s="12" t="s">
-        <v>403</v>
+        <v>387</v>
       </c>
       <c r="G67" s="12" t="s">
-        <v>406</v>
+        <v>390</v>
       </c>
       <c r="H67" s="12" t="s">
-        <v>404</v>
+        <v>388</v>
       </c>
       <c r="I67" s="12" t="s">
-        <v>408</v>
+        <v>392</v>
       </c>
       <c r="J67" s="12" t="s">
-        <v>409</v>
+        <v>393</v>
       </c>
       <c r="K67" s="12"/>
     </row>
     <row r="68" spans="1:11" s="22" customFormat="1" ht="70">
-      <c r="A68" s="46">
+      <c r="A68" s="44">
         <v>64</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="C68" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="D68" s="30"/>
+        <v>80</v>
+      </c>
+      <c r="C68" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D68" s="28"/>
       <c r="E68" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F68" s="12" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="G68" s="12"/>
       <c r="H68" s="12"/>
       <c r="I68" s="12"/>
       <c r="J68" s="12"/>
       <c r="K68" s="12" t="s">
-        <v>414</v>
+        <v>398</v>
       </c>
     </row>
     <row r="69" spans="1:11" s="22" customFormat="1" ht="42">
-      <c r="A69" s="46">
+      <c r="A69" s="44">
         <v>65</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>231</v>
-      </c>
-      <c r="C69" s="30" t="s">
+        <v>225</v>
+      </c>
+      <c r="C69" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="D69" s="30"/>
+      <c r="D69" s="28"/>
       <c r="E69" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F69" s="12" t="s">
-        <v>418</v>
+        <v>402</v>
       </c>
       <c r="G69" s="12" t="s">
-        <v>422</v>
+        <v>406</v>
       </c>
       <c r="H69" s="12" t="s">
-        <v>421</v>
+        <v>405</v>
       </c>
       <c r="I69" s="12" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
       <c r="J69" s="12" t="s">
-        <v>423</v>
+        <v>407</v>
       </c>
       <c r="K69" s="12"/>
     </row>
-    <row r="70" spans="1:11" s="64" customFormat="1" ht="42">
-      <c r="A70" s="61">
+    <row r="70" spans="1:11" s="60" customFormat="1" ht="42">
+      <c r="A70" s="57">
         <v>66</v>
       </c>
       <c r="B70" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="C70" s="58" t="s">
+        <v>253</v>
+      </c>
+      <c r="D70" s="58"/>
+      <c r="E70" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="F70" s="24" t="s">
+        <v>402</v>
+      </c>
+      <c r="G70" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="C70" s="62" t="s">
-        <v>259</v>
-      </c>
-      <c r="D70" s="62"/>
-      <c r="E70" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="F70" s="24" t="s">
-        <v>418</v>
-      </c>
-      <c r="G70" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="H70" s="63" t="s">
-        <v>417</v>
+      <c r="H70" s="59" t="s">
+        <v>401</v>
       </c>
       <c r="I70" s="24" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="J70" s="24" t="s">
-        <v>419</v>
-      </c>
-      <c r="K70" s="63"/>
-    </row>
-    <row r="71" spans="1:11" s="51" customFormat="1" ht="42">
-      <c r="A71" s="46">
+        <v>403</v>
+      </c>
+      <c r="K70" s="59"/>
+    </row>
+    <row r="71" spans="1:11" s="49" customFormat="1" ht="42">
+      <c r="A71" s="44">
         <v>67</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C71" s="30" t="s">
-        <v>106</v>
-      </c>
-      <c r="D71" s="30" t="s">
-        <v>462</v>
+        <v>33</v>
+      </c>
+      <c r="C71" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D71" s="28" t="s">
+        <v>438</v>
       </c>
       <c r="E71" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F71" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G71" s="12" t="s">
-        <v>463</v>
+        <v>439</v>
       </c>
       <c r="H71" s="12"/>
       <c r="I71" s="12" t="s">
-        <v>464</v>
+        <v>440</v>
       </c>
       <c r="J71" s="12" t="s">
-        <v>461</v>
+        <v>437</v>
       </c>
       <c r="K71" s="18"/>
     </row>
-    <row r="72" spans="1:11" s="51" customFormat="1">
-      <c r="A72" s="35"/>
-      <c r="B72" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="C72" s="37"/>
-      <c r="D72" s="37"/>
-      <c r="E72" s="38"/>
-      <c r="F72" s="38"/>
-      <c r="G72" s="38"/>
-      <c r="H72" s="38"/>
-      <c r="I72" s="38"/>
-      <c r="J72" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="K72" s="38"/>
-    </row>
-    <row r="73" spans="1:11" s="51" customFormat="1">
-      <c r="A73" s="35"/>
-      <c r="B73" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="C73" s="37"/>
-      <c r="D73" s="37"/>
-      <c r="E73" s="38"/>
-      <c r="F73" s="38"/>
-      <c r="G73" s="38"/>
-      <c r="H73" s="38"/>
-      <c r="I73" s="38"/>
-      <c r="J73" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="K73" s="38"/>
+    <row r="72" spans="1:11" s="49" customFormat="1">
+      <c r="A72" s="33"/>
+      <c r="B72" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C72" s="35"/>
+      <c r="D72" s="35"/>
+      <c r="E72" s="36"/>
+      <c r="F72" s="36"/>
+      <c r="G72" s="36"/>
+      <c r="H72" s="36"/>
+      <c r="I72" s="36"/>
+      <c r="J72" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="K72" s="36"/>
+    </row>
+    <row r="73" spans="1:11" s="49" customFormat="1">
+      <c r="A73" s="33"/>
+      <c r="B73" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C73" s="35"/>
+      <c r="D73" s="35"/>
+      <c r="E73" s="36"/>
+      <c r="F73" s="36"/>
+      <c r="G73" s="36"/>
+      <c r="H73" s="36"/>
+      <c r="I73" s="36"/>
+      <c r="J73" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="K73" s="36"/>
     </row>
     <row r="74" spans="1:11" s="22" customFormat="1" ht="28">
-      <c r="A74" s="43"/>
-      <c r="B74" s="44" t="s">
+      <c r="A74" s="41"/>
+      <c r="B74" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="C74" s="43"/>
+      <c r="D74" s="43"/>
+      <c r="E74" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="F74" s="42"/>
+      <c r="G74" s="42" t="s">
+        <v>321</v>
+      </c>
+      <c r="H74" s="42"/>
+      <c r="I74" s="61" t="s">
+        <v>400</v>
+      </c>
+      <c r="J74" s="42" t="s">
+        <v>404</v>
+      </c>
+      <c r="K74" s="42"/>
+    </row>
+    <row r="75" spans="1:11" s="22" customFormat="1">
+      <c r="A75" s="41"/>
+      <c r="B75" s="42" t="s">
+        <v>283</v>
+      </c>
+      <c r="C75" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="D75" s="43"/>
+      <c r="E75" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="F75" s="42"/>
+      <c r="G75" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="C74" s="45"/>
-      <c r="D74" s="45"/>
-      <c r="E74" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="F74" s="44"/>
-      <c r="G74" s="44" t="s">
-        <v>329</v>
-      </c>
-      <c r="H74" s="44"/>
-      <c r="I74" s="65" t="s">
-        <v>416</v>
-      </c>
-      <c r="J74" s="44" t="s">
+      <c r="H75" s="42"/>
+      <c r="I75" s="42"/>
+      <c r="J75" s="42" t="s">
+        <v>301</v>
+      </c>
+      <c r="K75" s="42" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" s="22" customFormat="1" ht="28">
+      <c r="A76" s="41"/>
+      <c r="B76" s="42" t="s">
+        <v>283</v>
+      </c>
+      <c r="C76" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="D76" s="43"/>
+      <c r="E76" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="F76" s="42" t="s">
+        <v>298</v>
+      </c>
+      <c r="G76" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="H76" s="36"/>
+      <c r="I76" s="42" t="s">
+        <v>297</v>
+      </c>
+      <c r="J76" s="42" t="s">
+        <v>296</v>
+      </c>
+      <c r="K76" s="36"/>
+    </row>
+    <row r="77" spans="1:11" s="22" customFormat="1" ht="56">
+      <c r="A77" s="41"/>
+      <c r="B77" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="C77" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="D77" s="43"/>
+      <c r="E77" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="F77" s="42" t="s">
+        <v>348</v>
+      </c>
+      <c r="G77" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="H77" s="42"/>
+      <c r="I77" s="42" t="s">
+        <v>349</v>
+      </c>
+      <c r="J77" s="42" t="s">
+        <v>351</v>
+      </c>
+      <c r="K77" s="42" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" s="22" customFormat="1" ht="28">
+      <c r="A78" s="41"/>
+      <c r="B78" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="C78" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="D78" s="43"/>
+      <c r="E78" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="F78" s="42"/>
+      <c r="G78" s="34"/>
+      <c r="H78" s="42"/>
+      <c r="I78" s="42" t="s">
+        <v>324</v>
+      </c>
+      <c r="J78" s="42" t="s">
+        <v>323</v>
+      </c>
+      <c r="K78" s="42"/>
+    </row>
+    <row r="79" spans="1:11" s="22" customFormat="1">
+      <c r="A79" s="41"/>
+      <c r="B79" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="C79" s="43"/>
+      <c r="D79" s="43"/>
+      <c r="E79" s="34"/>
+      <c r="F79" s="42"/>
+      <c r="G79" s="34"/>
+      <c r="H79" s="42"/>
+      <c r="I79" s="34" t="s">
+        <v>293</v>
+      </c>
+      <c r="J79" s="34" t="s">
+        <v>279</v>
+      </c>
+      <c r="K79" s="42"/>
+    </row>
+    <row r="80" spans="1:11" s="22" customFormat="1" ht="112">
+      <c r="A80" s="54"/>
+      <c r="B80" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="C80" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="D80" s="55"/>
+      <c r="E80" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="F80" s="42" t="s">
+        <v>275</v>
+      </c>
+      <c r="G80" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="H80" s="36"/>
+      <c r="I80" s="42" t="s">
+        <v>274</v>
+      </c>
+      <c r="J80" s="42" t="s">
+        <v>273</v>
+      </c>
+      <c r="K80" s="36" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" s="22" customFormat="1" ht="28">
+      <c r="A81" s="41"/>
+      <c r="B81" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="C81" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="D81" s="43"/>
+      <c r="E81" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="F81" s="42"/>
+      <c r="G81" s="34"/>
+      <c r="H81" s="42"/>
+      <c r="I81" s="42" t="s">
+        <v>286</v>
+      </c>
+      <c r="J81" s="42" t="s">
+        <v>287</v>
+      </c>
+      <c r="K81" s="42"/>
+    </row>
+    <row r="82" spans="1:11" s="22" customFormat="1">
+      <c r="A82" s="41"/>
+      <c r="B82" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="D82" s="43"/>
+      <c r="E82" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="F82" s="42"/>
+      <c r="G82" s="34"/>
+      <c r="H82" s="42"/>
+      <c r="I82" s="42" t="s">
+        <v>314</v>
+      </c>
+      <c r="J82" s="42" t="s">
+        <v>287</v>
+      </c>
+      <c r="K82" s="34" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" s="22" customFormat="1" ht="28">
+      <c r="A83" s="41"/>
+      <c r="B83" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="C83" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="D83" s="43"/>
+      <c r="E83" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="F83" s="42" t="s">
+        <v>278</v>
+      </c>
+      <c r="G83" s="34"/>
+      <c r="H83" s="42"/>
+      <c r="I83" s="42" t="s">
+        <v>276</v>
+      </c>
+      <c r="J83" s="42" t="s">
+        <v>277</v>
+      </c>
+      <c r="K83" s="42"/>
+    </row>
+    <row r="84" spans="1:11" s="22" customFormat="1">
+      <c r="A84" s="41"/>
+      <c r="B84" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="C84" s="43"/>
+      <c r="D84" s="43"/>
+      <c r="E84" s="34"/>
+      <c r="F84" s="42"/>
+      <c r="G84" s="34"/>
+      <c r="H84" s="42"/>
+      <c r="I84" s="34" t="s">
+        <v>280</v>
+      </c>
+      <c r="J84" s="34" t="s">
+        <v>279</v>
+      </c>
+      <c r="K84" s="42"/>
+    </row>
+    <row r="85" spans="1:11" s="22" customFormat="1" ht="28">
+      <c r="A85" s="41"/>
+      <c r="B85" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="C85" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="D85" s="43"/>
+      <c r="E85" s="34"/>
+      <c r="F85" s="42"/>
+      <c r="G85" s="34"/>
+      <c r="H85" s="42"/>
+      <c r="I85" s="42" t="s">
+        <v>315</v>
+      </c>
+      <c r="J85" s="34" t="s">
+        <v>282</v>
+      </c>
+      <c r="K85" s="42"/>
+    </row>
+    <row r="86" spans="1:11" s="22" customFormat="1" ht="28">
+      <c r="A86" s="41"/>
+      <c r="B86" s="42" t="s">
+        <v>283</v>
+      </c>
+      <c r="C86" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="D86" s="43"/>
+      <c r="E86" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="F86" s="42" t="s">
+        <v>284</v>
+      </c>
+      <c r="G86" s="34"/>
+      <c r="H86" s="42"/>
+      <c r="I86" s="42" t="s">
+        <v>316</v>
+      </c>
+      <c r="J86" s="42" t="s">
+        <v>281</v>
+      </c>
+      <c r="K86" s="42"/>
+    </row>
+    <row r="87" spans="1:11" s="22" customFormat="1">
+      <c r="A87" s="41"/>
+      <c r="B87" s="42" t="s">
+        <v>283</v>
+      </c>
+      <c r="C87" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="D87" s="43"/>
+      <c r="E87" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="F87" s="42" t="s">
+        <v>284</v>
+      </c>
+      <c r="G87" s="34"/>
+      <c r="H87" s="42"/>
+      <c r="I87" s="42" t="s">
+        <v>317</v>
+      </c>
+      <c r="J87" s="42" t="s">
+        <v>285</v>
+      </c>
+      <c r="K87" s="42"/>
+    </row>
+    <row r="88" spans="1:11" s="22" customFormat="1" ht="28">
+      <c r="A88" s="41"/>
+      <c r="B88" s="42" t="s">
+        <v>283</v>
+      </c>
+      <c r="C88" s="43" t="s">
+        <v>473</v>
+      </c>
+      <c r="D88" s="43"/>
+      <c r="E88" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="F88" s="42" t="s">
+        <v>474</v>
+      </c>
+      <c r="G88" s="34"/>
+      <c r="H88" s="42"/>
+      <c r="I88" s="42"/>
+      <c r="J88" s="42" t="s">
+        <v>475</v>
+      </c>
+      <c r="K88" s="42"/>
+    </row>
+    <row r="89" spans="1:11" s="22" customFormat="1">
+      <c r="A89" s="33"/>
+      <c r="B89" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="C89" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="D89" s="35"/>
+      <c r="E89" s="36"/>
+      <c r="F89" s="36"/>
+      <c r="G89" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="H89" s="36"/>
+      <c r="I89" s="36"/>
+      <c r="J89" s="36"/>
+      <c r="K89" s="36"/>
+    </row>
+    <row r="90" spans="1:11" s="22" customFormat="1">
+      <c r="A90" s="33"/>
+      <c r="B90" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="C90" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="D90" s="35"/>
+      <c r="E90" s="36"/>
+      <c r="F90" s="36"/>
+      <c r="G90" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="H90" s="36"/>
+      <c r="I90" s="36"/>
+      <c r="J90" s="36"/>
+      <c r="K90" s="36"/>
+    </row>
+    <row r="91" spans="1:11" ht="42">
+      <c r="A91" s="33"/>
+      <c r="B91" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C91" s="35"/>
+      <c r="D91" s="35"/>
+      <c r="E91" s="36"/>
+      <c r="F91" s="36"/>
+      <c r="G91" s="36"/>
+      <c r="H91" s="36"/>
+      <c r="I91" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="J91" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="K91" s="36"/>
+    </row>
+    <row r="92" spans="1:11">
+      <c r="A92" s="33"/>
+      <c r="B92" s="34"/>
+      <c r="C92" s="35"/>
+      <c r="D92" s="35"/>
+      <c r="E92" s="36"/>
+      <c r="F92" s="36" t="s">
         <v>420</v>
       </c>
-      <c r="K74" s="44"/>
-    </row>
-    <row r="75" spans="1:11" s="22" customFormat="1">
-      <c r="A75" s="43"/>
-      <c r="B75" s="44" t="s">
-        <v>290</v>
-      </c>
-      <c r="C75" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="D75" s="45"/>
-      <c r="E75" s="44" t="s">
-        <v>61</v>
-      </c>
-      <c r="F75" s="44"/>
-      <c r="G75" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="H75" s="44"/>
-      <c r="I75" s="44"/>
-      <c r="J75" s="44" t="s">
-        <v>309</v>
-      </c>
-      <c r="K75" s="44" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" s="22" customFormat="1" ht="28">
-      <c r="A76" s="43"/>
-      <c r="B76" s="44" t="s">
-        <v>290</v>
-      </c>
-      <c r="C76" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="D76" s="45"/>
-      <c r="E76" s="44" t="s">
+      <c r="G92" s="36"/>
+      <c r="H92" s="36"/>
+      <c r="I92" s="36"/>
+      <c r="J92" s="36" t="s">
+        <v>421</v>
+      </c>
+      <c r="K92" s="36"/>
+    </row>
+    <row r="93" spans="1:11" ht="28">
+      <c r="A93" s="41"/>
+      <c r="B93" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="C93" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="D93" s="43"/>
+      <c r="E93" s="34"/>
+      <c r="F93" s="42"/>
+      <c r="G93" s="42" t="s">
+        <v>373</v>
+      </c>
+      <c r="H93" s="42"/>
+      <c r="I93" s="42"/>
+      <c r="J93" s="42"/>
+      <c r="K93" s="42" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" s="50" customFormat="1" ht="98">
+      <c r="A94" s="41"/>
+      <c r="B94" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="C94" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="D94" s="43"/>
+      <c r="E94" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="F94" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="G94" s="42" t="s">
+        <v>221</v>
+      </c>
+      <c r="H94" s="42"/>
+      <c r="I94" s="34" t="s">
+        <v>219</v>
+      </c>
+      <c r="J94" s="42"/>
+      <c r="K94" s="42" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" s="49" customFormat="1">
+      <c r="A95" s="41"/>
+      <c r="B95" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="C95" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="D95" s="43"/>
+      <c r="E95" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="F95" s="42"/>
+      <c r="G95" s="42" t="s">
+        <v>221</v>
+      </c>
+      <c r="H95" s="42"/>
+      <c r="I95" s="42"/>
+      <c r="J95" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="K95" s="42"/>
+    </row>
+    <row r="96" spans="1:11" s="50" customFormat="1">
+      <c r="A96" s="41"/>
+      <c r="B96" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="C96" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="D96" s="43"/>
+      <c r="E96" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="F96" s="42"/>
+      <c r="G96" s="42" t="s">
+        <v>221</v>
+      </c>
+      <c r="H96" s="42"/>
+      <c r="I96" s="42"/>
+      <c r="J96" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="K96" s="42"/>
+    </row>
+    <row r="97" spans="1:11" s="50" customFormat="1">
+      <c r="A97" s="41"/>
+      <c r="B97" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="C97" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="D97" s="43"/>
+      <c r="E97" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="F97" s="42"/>
+      <c r="G97" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="H97" s="42"/>
+      <c r="I97" s="42"/>
+      <c r="J97" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="K97" s="42"/>
+    </row>
+    <row r="98" spans="1:11" s="50" customFormat="1">
+      <c r="A98" s="41"/>
+      <c r="B98" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="C98" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="D98" s="43"/>
+      <c r="E98" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="F98" s="42"/>
+      <c r="G98" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="H98" s="42"/>
+      <c r="I98" s="42"/>
+      <c r="J98" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="K98" s="42" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" s="50" customFormat="1">
+      <c r="A99" s="41"/>
+      <c r="B99" s="42" t="s">
+        <v>235</v>
+      </c>
+      <c r="C99" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="D99" s="43"/>
+      <c r="E99" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="F76" s="44" t="s">
-        <v>306</v>
-      </c>
-      <c r="G76" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="H76" s="38"/>
-      <c r="I76" s="44" t="s">
-        <v>305</v>
-      </c>
-      <c r="J76" s="44" t="s">
-        <v>304</v>
-      </c>
-      <c r="K76" s="38"/>
-    </row>
-    <row r="77" spans="1:11" s="22" customFormat="1" ht="56">
-      <c r="A77" s="43"/>
-      <c r="B77" s="44" t="s">
-        <v>109</v>
-      </c>
-      <c r="C77" s="45" t="s">
+      <c r="F99" s="42"/>
+      <c r="G99" s="42" t="s">
+        <v>233</v>
+      </c>
+      <c r="H99" s="42" t="s">
+        <v>234</v>
+      </c>
+      <c r="I99" s="42"/>
+      <c r="J99" s="42"/>
+      <c r="K99" s="42" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" s="50" customFormat="1" ht="28">
+      <c r="A100" s="41"/>
+      <c r="B100" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="C100" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="D77" s="45"/>
-      <c r="E77" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="F77" s="44" t="s">
-        <v>361</v>
-      </c>
-      <c r="G77" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="H77" s="44"/>
-      <c r="I77" s="44" t="s">
-        <v>362</v>
-      </c>
-      <c r="J77" s="44" t="s">
-        <v>364</v>
-      </c>
-      <c r="K77" s="44" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" s="22" customFormat="1" ht="28">
-      <c r="A78" s="43"/>
-      <c r="B78" s="44" t="s">
-        <v>109</v>
-      </c>
-      <c r="C78" s="45" t="s">
+      <c r="D100" s="43"/>
+      <c r="E100" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="F100" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="G100" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="H100" s="42" t="s">
+        <v>183</v>
+      </c>
+      <c r="I100" s="42"/>
+      <c r="J100" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="K100" s="42" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" s="50" customFormat="1" ht="28">
+      <c r="A101" s="41"/>
+      <c r="B101" s="42" t="s">
+        <v>237</v>
+      </c>
+      <c r="C101" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="D78" s="45"/>
-      <c r="E78" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="F78" s="44"/>
-      <c r="G78" s="36"/>
-      <c r="H78" s="44"/>
-      <c r="I78" s="44" t="s">
+      <c r="D101" s="43"/>
+      <c r="E101" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="F101" s="42"/>
+      <c r="G101" s="42" t="s">
+        <v>233</v>
+      </c>
+      <c r="H101" s="42" t="s">
+        <v>236</v>
+      </c>
+      <c r="I101" s="42"/>
+      <c r="J101" s="42" t="s">
+        <v>426</v>
+      </c>
+      <c r="K101" s="42"/>
+    </row>
+    <row r="102" spans="1:11" s="50" customFormat="1" ht="28">
+      <c r="A102" s="41"/>
+      <c r="B102" s="42" t="s">
         <v>334</v>
       </c>
-      <c r="J78" s="44" t="s">
+      <c r="C102" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="D102" s="43"/>
+      <c r="E102" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="F102" s="42"/>
+      <c r="G102" s="42" t="s">
+        <v>233</v>
+      </c>
+      <c r="H102" s="42" t="s">
+        <v>335</v>
+      </c>
+      <c r="I102" s="42"/>
+      <c r="J102" s="42" t="s">
+        <v>425</v>
+      </c>
+      <c r="K102" s="42"/>
+    </row>
+    <row r="103" spans="1:11" s="50" customFormat="1" ht="28">
+      <c r="A103" s="41"/>
+      <c r="B103" s="42" t="s">
         <v>333</v>
       </c>
-      <c r="K78" s="44"/>
-    </row>
-    <row r="79" spans="1:11" s="22" customFormat="1">
-      <c r="A79" s="43"/>
-      <c r="B79" s="44" t="s">
-        <v>109</v>
-      </c>
-      <c r="C79" s="45"/>
-      <c r="D79" s="45"/>
-      <c r="E79" s="36"/>
-      <c r="F79" s="44"/>
-      <c r="G79" s="36"/>
-      <c r="H79" s="44"/>
-      <c r="I79" s="36" t="s">
-        <v>301</v>
-      </c>
-      <c r="J79" s="36" t="s">
-        <v>286</v>
-      </c>
-      <c r="K79" s="44"/>
-    </row>
-    <row r="80" spans="1:11" s="22" customFormat="1" ht="112">
-      <c r="A80" s="58"/>
-      <c r="B80" s="39" t="s">
-        <v>109</v>
-      </c>
-      <c r="C80" s="59" t="s">
+      <c r="C103" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="D80" s="59"/>
-      <c r="E80" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="F80" s="44" t="s">
-        <v>281</v>
-      </c>
-      <c r="G80" s="36" t="s">
-        <v>111</v>
-      </c>
-      <c r="H80" s="38"/>
-      <c r="I80" s="44" t="s">
-        <v>280</v>
-      </c>
-      <c r="J80" s="44" t="s">
-        <v>279</v>
-      </c>
-      <c r="K80" s="38" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" s="22" customFormat="1" ht="42">
-      <c r="A81" s="58" t="s">
-        <v>473</v>
-      </c>
-      <c r="B81" s="39" t="s">
-        <v>109</v>
-      </c>
-      <c r="C81" s="59" t="s">
-        <v>30</v>
-      </c>
-      <c r="D81" s="59"/>
-      <c r="E81" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="F81" s="44"/>
-      <c r="G81" s="44"/>
-      <c r="H81" s="38"/>
-      <c r="I81" s="44" t="s">
-        <v>472</v>
-      </c>
-      <c r="J81" s="44" t="s">
-        <v>282</v>
-      </c>
-      <c r="K81" s="38"/>
-    </row>
-    <row r="82" spans="1:11" s="22" customFormat="1" ht="28">
-      <c r="A82" s="43"/>
-      <c r="B82" s="44" t="s">
-        <v>109</v>
-      </c>
-      <c r="C82" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="D82" s="45"/>
-      <c r="E82" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="F82" s="44"/>
-      <c r="G82" s="36"/>
-      <c r="H82" s="44"/>
-      <c r="I82" s="44" t="s">
-        <v>294</v>
-      </c>
-      <c r="J82" s="44" t="s">
-        <v>295</v>
-      </c>
-      <c r="K82" s="44"/>
-    </row>
-    <row r="83" spans="1:11" s="22" customFormat="1">
-      <c r="A83" s="43"/>
-      <c r="B83" s="44" t="s">
-        <v>109</v>
-      </c>
-      <c r="C83" s="45" t="s">
+      <c r="D103" s="43"/>
+      <c r="E103" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="F103" s="42"/>
+      <c r="G103" s="42" t="s">
+        <v>233</v>
+      </c>
+      <c r="H103" s="42" t="s">
+        <v>332</v>
+      </c>
+      <c r="I103" s="42"/>
+      <c r="J103" s="42" t="s">
+        <v>424</v>
+      </c>
+      <c r="K103" s="42" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" s="50" customFormat="1" ht="182">
+      <c r="A104" s="41"/>
+      <c r="B104" s="42" t="s">
+        <v>184</v>
+      </c>
+      <c r="C104" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="D83" s="45"/>
-      <c r="E83" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="F83" s="44"/>
-      <c r="G83" s="36"/>
-      <c r="H83" s="44"/>
-      <c r="I83" s="44" t="s">
-        <v>322</v>
-      </c>
-      <c r="J83" s="44" t="s">
-        <v>295</v>
-      </c>
-      <c r="K83" s="36" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" s="22" customFormat="1" ht="28">
-      <c r="A84" s="43"/>
-      <c r="B84" s="44" t="s">
-        <v>109</v>
-      </c>
-      <c r="C84" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="D84" s="45"/>
-      <c r="E84" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="F84" s="44" t="s">
-        <v>285</v>
-      </c>
-      <c r="G84" s="36"/>
-      <c r="H84" s="44"/>
-      <c r="I84" s="44" t="s">
-        <v>283</v>
-      </c>
-      <c r="J84" s="44" t="s">
-        <v>284</v>
-      </c>
-      <c r="K84" s="44"/>
-    </row>
-    <row r="85" spans="1:11" s="22" customFormat="1">
-      <c r="A85" s="43"/>
-      <c r="B85" s="44" t="s">
-        <v>109</v>
-      </c>
-      <c r="C85" s="45"/>
-      <c r="D85" s="45"/>
-      <c r="E85" s="36"/>
-      <c r="F85" s="44"/>
-      <c r="G85" s="36"/>
-      <c r="H85" s="44"/>
-      <c r="I85" s="36" t="s">
-        <v>287</v>
-      </c>
-      <c r="J85" s="36" t="s">
-        <v>286</v>
-      </c>
-      <c r="K85" s="44"/>
-    </row>
-    <row r="86" spans="1:11" s="22" customFormat="1" ht="28">
-      <c r="A86" s="43"/>
-      <c r="B86" s="44" t="s">
-        <v>109</v>
-      </c>
-      <c r="C86" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="D86" s="45"/>
-      <c r="E86" s="36"/>
-      <c r="F86" s="44"/>
-      <c r="G86" s="36"/>
-      <c r="H86" s="44"/>
-      <c r="I86" s="44" t="s">
-        <v>323</v>
-      </c>
-      <c r="J86" s="36" t="s">
-        <v>289</v>
-      </c>
-      <c r="K86" s="44"/>
-    </row>
-    <row r="87" spans="1:11" s="22" customFormat="1" ht="28">
-      <c r="A87" s="43"/>
-      <c r="B87" s="44" t="s">
-        <v>290</v>
-      </c>
-      <c r="C87" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="D87" s="45"/>
-      <c r="E87" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="F87" s="44" t="s">
-        <v>291</v>
-      </c>
-      <c r="G87" s="36"/>
-      <c r="H87" s="44"/>
-      <c r="I87" s="44" t="s">
-        <v>324</v>
-      </c>
-      <c r="J87" s="44" t="s">
-        <v>288</v>
-      </c>
-      <c r="K87" s="44"/>
-    </row>
-    <row r="88" spans="1:11" s="22" customFormat="1">
-      <c r="A88" s="43"/>
-      <c r="B88" s="44" t="s">
-        <v>290</v>
-      </c>
-      <c r="C88" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="D88" s="45"/>
-      <c r="E88" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="F88" s="44" t="s">
-        <v>291</v>
-      </c>
-      <c r="G88" s="36"/>
-      <c r="H88" s="44"/>
-      <c r="I88" s="44" t="s">
-        <v>325</v>
-      </c>
-      <c r="J88" s="44" t="s">
-        <v>293</v>
-      </c>
-      <c r="K88" s="44"/>
-    </row>
-    <row r="89" spans="1:11" s="22" customFormat="1" ht="154">
-      <c r="A89" s="43" t="s">
-        <v>474</v>
-      </c>
-      <c r="B89" s="44" t="s">
-        <v>109</v>
-      </c>
-      <c r="C89" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="D89" s="45"/>
-      <c r="E89" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="F89" s="44" t="s">
-        <v>453</v>
-      </c>
-      <c r="G89" s="36"/>
-      <c r="H89" s="44"/>
-      <c r="I89" s="44" t="s">
-        <v>454</v>
-      </c>
-      <c r="J89" s="44" t="s">
-        <v>292</v>
-      </c>
-      <c r="K89" s="44" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" s="22" customFormat="1">
-      <c r="A90" s="35"/>
-      <c r="B90" s="36" t="s">
-        <v>109</v>
-      </c>
-      <c r="C90" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="D90" s="37"/>
-      <c r="E90" s="38"/>
-      <c r="F90" s="38"/>
-      <c r="G90" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="H90" s="38"/>
-      <c r="I90" s="38"/>
-      <c r="J90" s="38"/>
-      <c r="K90" s="38"/>
-    </row>
-    <row r="91" spans="1:11" s="22" customFormat="1">
-      <c r="A91" s="35"/>
-      <c r="B91" s="36" t="s">
-        <v>109</v>
-      </c>
-      <c r="C91" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="D91" s="37"/>
-      <c r="E91" s="38"/>
-      <c r="F91" s="38"/>
-      <c r="G91" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="H91" s="38"/>
-      <c r="I91" s="38"/>
-      <c r="J91" s="38"/>
-      <c r="K91" s="38"/>
-    </row>
-    <row r="92" spans="1:11" ht="42">
-      <c r="A92" s="35"/>
-      <c r="B92" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="C92" s="37"/>
-      <c r="D92" s="37"/>
-      <c r="E92" s="38"/>
-      <c r="F92" s="38"/>
-      <c r="G92" s="38"/>
-      <c r="H92" s="38"/>
-      <c r="I92" s="38" t="s">
-        <v>269</v>
-      </c>
-      <c r="J92" s="38" t="s">
-        <v>268</v>
-      </c>
-      <c r="K92" s="38"/>
-    </row>
-    <row r="93" spans="1:11">
-      <c r="A93" s="35"/>
-      <c r="B93" s="36"/>
-      <c r="C93" s="37"/>
-      <c r="D93" s="37"/>
-      <c r="E93" s="38"/>
-      <c r="F93" s="38" t="s">
-        <v>437</v>
-      </c>
-      <c r="G93" s="38"/>
-      <c r="H93" s="38"/>
-      <c r="I93" s="38"/>
-      <c r="J93" s="38" t="s">
-        <v>438</v>
-      </c>
-      <c r="K93" s="38"/>
-    </row>
-    <row r="94" spans="1:11" ht="28">
-      <c r="A94" s="43"/>
-      <c r="B94" s="44" t="s">
-        <v>53</v>
-      </c>
-      <c r="C94" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="D94" s="45"/>
-      <c r="E94" s="36"/>
-      <c r="F94" s="44"/>
-      <c r="G94" s="44" t="s">
-        <v>388</v>
-      </c>
-      <c r="H94" s="44"/>
-      <c r="I94" s="44"/>
-      <c r="J94" s="44"/>
-      <c r="K94" s="44" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" s="52" customFormat="1" ht="98">
-      <c r="A95" s="43"/>
-      <c r="B95" s="44" t="s">
-        <v>53</v>
-      </c>
-      <c r="C95" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="D95" s="45"/>
-      <c r="E95" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="F95" s="44" t="s">
-        <v>56</v>
-      </c>
-      <c r="G95" s="44" t="s">
-        <v>227</v>
-      </c>
-      <c r="H95" s="44"/>
-      <c r="I95" s="36" t="s">
-        <v>225</v>
-      </c>
-      <c r="J95" s="44"/>
-      <c r="K95" s="44" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" s="51" customFormat="1">
-      <c r="A96" s="43"/>
-      <c r="B96" s="44" t="s">
-        <v>65</v>
-      </c>
-      <c r="C96" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="D96" s="45"/>
-      <c r="E96" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="F96" s="44"/>
-      <c r="G96" s="44" t="s">
-        <v>227</v>
-      </c>
-      <c r="H96" s="44"/>
-      <c r="I96" s="44"/>
-      <c r="J96" s="44" t="s">
-        <v>70</v>
-      </c>
-      <c r="K96" s="44"/>
-    </row>
-    <row r="97" spans="1:11" s="52" customFormat="1">
-      <c r="A97" s="43"/>
-      <c r="B97" s="44" t="s">
-        <v>65</v>
-      </c>
-      <c r="C97" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="D97" s="45"/>
-      <c r="E97" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="F97" s="44"/>
-      <c r="G97" s="44" t="s">
-        <v>227</v>
-      </c>
-      <c r="H97" s="44"/>
-      <c r="I97" s="44"/>
-      <c r="J97" s="44" t="s">
-        <v>70</v>
-      </c>
-      <c r="K97" s="44"/>
-    </row>
-    <row r="98" spans="1:11" s="52" customFormat="1">
-      <c r="A98" s="43"/>
-      <c r="B98" s="44" t="s">
-        <v>65</v>
-      </c>
-      <c r="C98" s="45" t="s">
-        <v>71</v>
-      </c>
-      <c r="D98" s="45"/>
-      <c r="E98" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="F98" s="44"/>
-      <c r="G98" s="44" t="s">
-        <v>66</v>
-      </c>
-      <c r="H98" s="44"/>
-      <c r="I98" s="44"/>
-      <c r="J98" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="K98" s="44"/>
-    </row>
-    <row r="99" spans="1:11" s="52" customFormat="1">
-      <c r="A99" s="43"/>
-      <c r="B99" s="44" t="s">
-        <v>67</v>
-      </c>
-      <c r="C99" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="D99" s="45"/>
-      <c r="E99" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="F99" s="44"/>
-      <c r="G99" s="44" t="s">
-        <v>66</v>
-      </c>
-      <c r="H99" s="44"/>
-      <c r="I99" s="44"/>
-      <c r="J99" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="K99" s="44" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" s="52" customFormat="1">
-      <c r="A100" s="43"/>
-      <c r="B100" s="44" t="s">
-        <v>241</v>
-      </c>
-      <c r="C100" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="D100" s="45"/>
-      <c r="E100" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F100" s="44"/>
-      <c r="G100" s="44" t="s">
-        <v>239</v>
-      </c>
-      <c r="H100" s="44" t="s">
-        <v>240</v>
-      </c>
-      <c r="I100" s="44"/>
-      <c r="J100" s="44"/>
-      <c r="K100" s="44" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" s="52" customFormat="1" ht="28">
-      <c r="A101" s="43"/>
-      <c r="B101" s="44" t="s">
-        <v>74</v>
-      </c>
-      <c r="C101" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="D101" s="45"/>
-      <c r="E101" s="44" t="s">
-        <v>110</v>
-      </c>
-      <c r="F101" s="44" t="s">
-        <v>77</v>
-      </c>
-      <c r="G101" s="44" t="s">
-        <v>182</v>
-      </c>
-      <c r="H101" s="44" t="s">
-        <v>188</v>
-      </c>
-      <c r="I101" s="44"/>
-      <c r="J101" s="44" t="s">
-        <v>76</v>
-      </c>
-      <c r="K101" s="44" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" s="52" customFormat="1" ht="28">
-      <c r="A102" s="43"/>
-      <c r="B102" s="44" t="s">
-        <v>243</v>
-      </c>
-      <c r="C102" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="D102" s="45"/>
-      <c r="E102" s="44" t="s">
-        <v>110</v>
-      </c>
-      <c r="F102" s="44"/>
-      <c r="G102" s="44" t="s">
-        <v>239</v>
-      </c>
-      <c r="H102" s="44" t="s">
-        <v>242</v>
-      </c>
-      <c r="I102" s="44"/>
-      <c r="J102" s="44" t="s">
-        <v>443</v>
-      </c>
-      <c r="K102" s="44"/>
-    </row>
-    <row r="103" spans="1:11" s="52" customFormat="1" ht="28">
-      <c r="A103" s="43"/>
-      <c r="B103" s="44" t="s">
-        <v>346</v>
-      </c>
-      <c r="C103" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="D103" s="45"/>
-      <c r="E103" s="44" t="s">
-        <v>110</v>
-      </c>
-      <c r="F103" s="44"/>
-      <c r="G103" s="44" t="s">
-        <v>239</v>
-      </c>
-      <c r="H103" s="44" t="s">
-        <v>347</v>
-      </c>
-      <c r="I103" s="44"/>
-      <c r="J103" s="44" t="s">
-        <v>442</v>
-      </c>
-      <c r="K103" s="44"/>
-    </row>
-    <row r="104" spans="1:11" s="52" customFormat="1" ht="28">
-      <c r="A104" s="43"/>
-      <c r="B104" s="44" t="s">
-        <v>345</v>
-      </c>
-      <c r="C104" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="D104" s="45"/>
-      <c r="E104" s="44" t="s">
-        <v>110</v>
-      </c>
-      <c r="F104" s="44"/>
-      <c r="G104" s="44" t="s">
-        <v>239</v>
-      </c>
-      <c r="H104" s="44" t="s">
-        <v>344</v>
-      </c>
-      <c r="I104" s="44"/>
-      <c r="J104" s="44" t="s">
-        <v>441</v>
-      </c>
-      <c r="K104" s="44" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" s="52" customFormat="1" ht="182">
-      <c r="A105" s="43"/>
-      <c r="B105" s="44" t="s">
-        <v>189</v>
-      </c>
-      <c r="C105" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="D105" s="45"/>
-      <c r="E105" s="44" t="s">
-        <v>110</v>
-      </c>
-      <c r="F105" s="44"/>
-      <c r="G105" s="44" t="s">
-        <v>190</v>
-      </c>
-      <c r="H105" s="44" t="s">
-        <v>191</v>
-      </c>
-      <c r="I105" s="44" t="s">
-        <v>402</v>
-      </c>
-      <c r="J105" s="44" t="s">
-        <v>440</v>
-      </c>
-      <c r="K105" s="44" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" s="52" customFormat="1">
-      <c r="A106" s="43"/>
-      <c r="B106" s="44"/>
-      <c r="C106" s="45"/>
-      <c r="D106" s="45"/>
-      <c r="E106" s="44"/>
-      <c r="F106" s="44"/>
-      <c r="G106" s="44" t="s">
-        <v>348</v>
-      </c>
-      <c r="H106" s="36" t="s">
-        <v>349</v>
-      </c>
-      <c r="I106" s="44"/>
-      <c r="J106" s="44" t="s">
-        <v>350</v>
-      </c>
-      <c r="K106" s="44"/>
-    </row>
-    <row r="107" spans="1:11" s="51" customFormat="1" ht="42">
-      <c r="A107" s="35"/>
-      <c r="B107" s="44" t="s">
-        <v>229</v>
-      </c>
-      <c r="C107" s="37"/>
-      <c r="D107" s="37"/>
-      <c r="E107" s="38"/>
-      <c r="F107" s="38"/>
-      <c r="G107" s="38"/>
-      <c r="H107" s="38"/>
-      <c r="I107" s="38" t="s">
-        <v>400</v>
-      </c>
-      <c r="J107" s="38" t="s">
-        <v>401</v>
-      </c>
-      <c r="K107" s="38"/>
-    </row>
-    <row r="108" spans="1:11" s="51" customFormat="1">
+      <c r="D104" s="43"/>
+      <c r="E104" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="F104" s="42"/>
+      <c r="G104" s="42" t="s">
+        <v>185</v>
+      </c>
+      <c r="H104" s="42" t="s">
+        <v>186</v>
+      </c>
+      <c r="I104" s="42" t="s">
+        <v>386</v>
+      </c>
+      <c r="J104" s="42" t="s">
+        <v>423</v>
+      </c>
+      <c r="K104" s="42" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" s="50" customFormat="1">
+      <c r="A105" s="41"/>
+      <c r="B105" s="42"/>
+      <c r="C105" s="43"/>
+      <c r="D105" s="43"/>
+      <c r="E105" s="42"/>
+      <c r="F105" s="42"/>
+      <c r="G105" s="42" t="s">
+        <v>336</v>
+      </c>
+      <c r="H105" s="34" t="s">
+        <v>337</v>
+      </c>
+      <c r="I105" s="42"/>
+      <c r="J105" s="42" t="s">
+        <v>338</v>
+      </c>
+      <c r="K105" s="42"/>
+    </row>
+    <row r="106" spans="1:11" s="49" customFormat="1" ht="42">
+      <c r="A106" s="33"/>
+      <c r="B106" s="42" t="s">
+        <v>223</v>
+      </c>
+      <c r="C106" s="35"/>
+      <c r="D106" s="35"/>
+      <c r="E106" s="36"/>
+      <c r="F106" s="36"/>
+      <c r="G106" s="36"/>
+      <c r="H106" s="36"/>
+      <c r="I106" s="36" t="s">
+        <v>384</v>
+      </c>
+      <c r="J106" s="36" t="s">
+        <v>385</v>
+      </c>
+      <c r="K106" s="36"/>
+    </row>
+    <row r="107" spans="1:11" s="49" customFormat="1">
+      <c r="A107" s="15"/>
+      <c r="B107" s="15"/>
+      <c r="C107" s="15"/>
+      <c r="D107" s="15"/>
+      <c r="E107" s="15"/>
+      <c r="F107" s="15"/>
+      <c r="G107" s="39"/>
+      <c r="H107" s="15"/>
+      <c r="I107" s="15"/>
+      <c r="J107" s="15"/>
+      <c r="K107" s="15"/>
+    </row>
+    <row r="108" spans="1:11">
       <c r="A108" s="15"/>
       <c r="B108" s="15"/>
-      <c r="C108" s="15"/>
-      <c r="D108" s="15"/>
+      <c r="C108" s="16"/>
+      <c r="D108" s="16"/>
       <c r="E108" s="15"/>
       <c r="F108" s="15"/>
-      <c r="G108" s="41"/>
+      <c r="G108" s="39"/>
       <c r="H108" s="15"/>
       <c r="I108" s="15"/>
       <c r="J108" s="15"/>
@@ -7166,8 +7002,12 @@
       <c r="D109" s="16"/>
       <c r="E109" s="15"/>
       <c r="F109" s="15"/>
-      <c r="G109" s="41"/>
-      <c r="H109" s="15"/>
+      <c r="G109" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="H109" s="53" t="s">
+        <v>36</v>
+      </c>
       <c r="I109" s="15"/>
       <c r="J109" s="15"/>
       <c r="K109" s="15"/>
@@ -7179,11 +7019,11 @@
       <c r="D110" s="16"/>
       <c r="E110" s="15"/>
       <c r="F110" s="15"/>
-      <c r="G110" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="H110" s="57" t="s">
+      <c r="G110" s="40" t="s">
         <v>37</v>
+      </c>
+      <c r="H110" s="31" t="s">
+        <v>38</v>
       </c>
       <c r="I110" s="15"/>
       <c r="J110" s="15"/>
@@ -7196,10 +7036,10 @@
       <c r="D111" s="16"/>
       <c r="E111" s="15"/>
       <c r="F111" s="15"/>
-      <c r="G111" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="H111" s="33" t="s">
+      <c r="G111" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="H111" s="15" t="s">
         <v>39</v>
       </c>
       <c r="I111" s="15"/>
@@ -7213,11 +7053,11 @@
       <c r="D112" s="16"/>
       <c r="E112" s="15"/>
       <c r="F112" s="15"/>
-      <c r="G112" s="41" t="s">
-        <v>154</v>
+      <c r="G112" s="39" t="s">
+        <v>40</v>
       </c>
       <c r="H112" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I112" s="15"/>
       <c r="J112" s="15"/>
@@ -7230,11 +7070,11 @@
       <c r="D113" s="16"/>
       <c r="E113" s="15"/>
       <c r="F113" s="15"/>
-      <c r="G113" s="41" t="s">
-        <v>41</v>
+      <c r="G113" s="39" t="s">
+        <v>42</v>
       </c>
       <c r="H113" s="15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I113" s="15"/>
       <c r="J113" s="15"/>
@@ -7247,11 +7087,11 @@
       <c r="D114" s="16"/>
       <c r="E114" s="15"/>
       <c r="F114" s="15"/>
-      <c r="G114" s="41" t="s">
-        <v>43</v>
+      <c r="G114" s="39" t="s">
+        <v>44</v>
       </c>
       <c r="H114" s="15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I114" s="15"/>
       <c r="J114" s="15"/>
@@ -7264,11 +7104,11 @@
       <c r="D115" s="16"/>
       <c r="E115" s="15"/>
       <c r="F115" s="15"/>
-      <c r="G115" s="41" t="s">
-        <v>45</v>
+      <c r="G115" s="39" t="s">
+        <v>46</v>
       </c>
       <c r="H115" s="15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I115" s="15"/>
       <c r="J115" s="15"/>
@@ -7281,12 +7121,10 @@
       <c r="D116" s="16"/>
       <c r="E116" s="15"/>
       <c r="F116" s="15"/>
-      <c r="G116" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="H116" s="15" t="s">
+      <c r="G116" s="39" t="s">
         <v>48</v>
       </c>
+      <c r="H116" s="15"/>
       <c r="I116" s="15"/>
       <c r="J116" s="15"/>
       <c r="K116" s="15"/>
@@ -7298,10 +7136,12 @@
       <c r="D117" s="16"/>
       <c r="E117" s="15"/>
       <c r="F117" s="15"/>
-      <c r="G117" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="H117" s="15"/>
+      <c r="G117" s="39" t="s">
+        <v>251</v>
+      </c>
+      <c r="H117" s="15" t="s">
+        <v>252</v>
+      </c>
       <c r="I117" s="15"/>
       <c r="J117" s="15"/>
       <c r="K117" s="15"/>
@@ -7313,11 +7153,11 @@
       <c r="D118" s="16"/>
       <c r="E118" s="15"/>
       <c r="F118" s="15"/>
-      <c r="G118" s="41" t="s">
-        <v>257</v>
+      <c r="G118" s="39" t="s">
+        <v>49</v>
       </c>
       <c r="H118" s="15" t="s">
-        <v>258</v>
+        <v>113</v>
       </c>
       <c r="I118" s="15"/>
       <c r="J118" s="15"/>
@@ -7330,11 +7170,11 @@
       <c r="D119" s="16"/>
       <c r="E119" s="15"/>
       <c r="F119" s="15"/>
-      <c r="G119" s="41" t="s">
-        <v>50</v>
+      <c r="G119" s="39" t="s">
+        <v>111</v>
       </c>
       <c r="H119" s="15" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="I119" s="15"/>
       <c r="J119" s="15"/>
@@ -7347,11 +7187,11 @@
       <c r="D120" s="16"/>
       <c r="E120" s="15"/>
       <c r="F120" s="15"/>
-      <c r="G120" s="41" t="s">
-        <v>113</v>
+      <c r="G120" s="39" t="s">
+        <v>148</v>
       </c>
       <c r="H120" s="15" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="I120" s="15"/>
       <c r="J120" s="15"/>
@@ -7364,11 +7204,11 @@
       <c r="D121" s="16"/>
       <c r="E121" s="15"/>
       <c r="F121" s="15"/>
-      <c r="G121" s="41" t="s">
-        <v>153</v>
+      <c r="G121" s="39" t="s">
+        <v>50</v>
       </c>
       <c r="H121" s="15" t="s">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="I121" s="15"/>
       <c r="J121" s="15"/>
@@ -7381,42 +7221,25 @@
       <c r="D122" s="16"/>
       <c r="E122" s="15"/>
       <c r="F122" s="15"/>
-      <c r="G122" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="H122" s="15" t="s">
-        <v>52</v>
-      </c>
+      <c r="G122" s="39"/>
+      <c r="H122" s="15"/>
       <c r="I122" s="15"/>
       <c r="J122" s="15"/>
       <c r="K122" s="15"/>
     </row>
     <row r="123" spans="1:11">
-      <c r="A123" s="15"/>
-      <c r="B123" s="15"/>
-      <c r="C123" s="16"/>
-      <c r="D123" s="16"/>
-      <c r="E123" s="15"/>
-      <c r="F123" s="15"/>
-      <c r="G123" s="41"/>
-      <c r="H123" s="15"/>
-      <c r="I123" s="15"/>
-      <c r="J123" s="15"/>
-      <c r="K123" s="15"/>
+      <c r="G123" s="39" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="124" spans="1:11">
-      <c r="G124" s="41" t="s">
+      <c r="G124" s="39" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="125" spans="1:11">
-      <c r="G125" s="41" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11">
-      <c r="G126" s="41" t="s">
-        <v>130</v>
+      <c r="G125" s="39" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/inventory/INVENTORY OF PYU INSCRIPTIONS.xlsx
+++ b/inventory/INVENTORY OF PYU INSCRIPTIONS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="24030"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28460" windowHeight="9020"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28380" windowHeight="12480"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -699,26 +699,6 @@
     <t>Halin inscription shed, nr. 1</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ASB 1964, 59.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> — PPPB I, 65, 75 n. 26, 149.</t>
-    </r>
-  </si>
-  <si>
     <t>Halin, NE part of the city, 2 furlongs N of palace site</t>
   </si>
   <si>
@@ -1175,9 +1155,6 @@
     <t>IB IV, 356b. — RTI.</t>
   </si>
   <si>
-    <t>ASI 1910-11, pl. XLVII (1-2). — Finot 1913, plate. — PPPB II, pl. 98 (c).</t>
-  </si>
-  <si>
     <t>ASI 1928-29, 107. — Mya 1961, II, 32.</t>
   </si>
   <si>
@@ -1187,9 +1164,6 @@
     <t>Pyogingyi mound, Hmawza</t>
   </si>
   <si>
-    <t>Khin Ba mound</t>
-  </si>
-  <si>
     <t>total length:8 ⅜ in. (ASI)</t>
   </si>
   <si>
@@ -1371,57 +1345,6 @@
   </si>
   <si>
     <t>h:195, w:47, d:31</t>
-  </si>
-  <si>
-    <t>Aung Tha 1972: 110, 116.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Aung Thaw 1972: 110-111. — Luce 1974: 126. —</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> von Hinüber 1991: 25 n. 53. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">— Skilling </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1997a:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 95 n. 7.</t>
-    </r>
   </si>
   <si>
     <t>Old Burmese, Pali, Old Mon, Pyu</t>
@@ -1552,12 +1475,6 @@
     <t>h:83, dia:42</t>
   </si>
   <si>
-    <t>Aung Thaw et al. 1993: 135</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Minte mound, Hmawza</t>
-  </si>
-  <si>
     <t>Khin Ba mound relic chamber</t>
   </si>
   <si>
@@ -1641,8 +1558,20 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">ASI 1910-11, 89. — Finot 1912: 134-135 — Finot 1913. — PR, 35-36. — PPPB I, 61, 74 n. 4, </t>
+    <t>stone tablet in 3 fragments</t>
+  </si>
+  <si>
+    <t>h:3.1, l:16.5</t>
+  </si>
+  <si>
+    <t>leaves 1-18: 3 lines, leaf 19: 4 l., leaf 20: 2 l.</t>
+  </si>
+  <si>
+    <t>deposited by Department of Archaeology at National Museum, Yangon</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> IB V, 555-556 (</t>
     </r>
     <r>
       <rPr>
@@ -1651,7 +1580,7 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t>XX</t>
+      <t>check index of plates</t>
     </r>
     <r>
       <rPr>
@@ -1661,24 +1590,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>. — Stargardt 1995: 201.</t>
-    </r>
-  </si>
-  <si>
-    <t>stone tablet in 3 fragments</t>
-  </si>
-  <si>
-    <t>h:3.1, l:16.5</t>
-  </si>
-  <si>
-    <t>leaves 1-18: 3 lines, leaf 19: 4 l., leaf 20: 2 l.</t>
-  </si>
-  <si>
-    <t>deposited by Department of Archaeology at National Museum, Yangon</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> IB V, 555-556 (</t>
+      <t>). —</t>
     </r>
     <r>
       <rPr>
@@ -1687,7 +1599,389 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t>check index of plates</t>
+      <t xml:space="preserve"> RTI</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Listed in continuation of Duroiselle, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A List of Inscriptions Found in Burma</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (1921), appendix B</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ASI 1909-10, pl. 49 (17-18). — ASB 1924,  pl. 3;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 1958, chart. —  PPPB II, pl. 35-36.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ASI 1909-10, 123. —ASB 1924, 26.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — PPPB I, 62, 74 n. 9, 140.</t>
+    </r>
+  </si>
+  <si>
+    <t>Myint Aung 1970, pl. 9a. — Aung Thaw 1972: 14.</t>
+  </si>
+  <si>
+    <t>Beikthano</t>
+  </si>
+  <si>
+    <t>saṁghasiri/sayasiri</t>
+  </si>
+  <si>
+    <t>whole piece 4 cm long; seal 1.5 cm diam.</t>
+  </si>
+  <si>
+    <t>National Museum, Yangon</t>
+  </si>
+  <si>
+    <t>Prakrit (?)</t>
+  </si>
+  <si>
+    <t>ASB 1959, pl. 16-17. — Aung Thaw 1968, fig. 79.9, pl. LIVab. — photos Bob Hudson.</t>
+  </si>
+  <si>
+    <t>ASB 1959, 19. — Aung Thaw 1968: 50-51. — Aung Thaw 1972: 4.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ASB 1960: 22. —Aung Thaw 1972: 32. — Sircar 1976: 210-217. — </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Aung Thaw et al. 1993: 134. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>— Gutman 2001: 109 n. 1.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sinlu village, Pwinbyu township </t>
+  </si>
+  <si>
+    <t>Sin Phyu Ywa village (Beinnaka old city), Pyawbwe</t>
+  </si>
+  <si>
+    <t>found on 20/05/2015 by Tampawaddy Win Maung and his group; information Kyam Minn Htin email on the same day.</t>
+  </si>
+  <si>
+    <t>ASI 1926-27, pl. XXXIX (f). — OBEP, pl. 444 (a, b).</t>
+  </si>
+  <si>
+    <t>OBEP, pl. 34 (c, d).</t>
+  </si>
+  <si>
+    <t>mentions Metriya</t>
+  </si>
+  <si>
+    <t>Pagan, Shwehsandaw pagoda, relic chamber</t>
+  </si>
+  <si>
+    <t>ASI 1926-27, 164. — PR, 77. — Mya 1961, I, 23-4. — OBEP I, 99; II, 25. — PPPB I, 66, 75 n. 30.</t>
+  </si>
+  <si>
+    <t>OBEP II, 26.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">read </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>baṁḥ metriya</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> by Duroiselle, but this reading not verifiable from the existing photos.</t>
+    </r>
+  </si>
+  <si>
+    <t>National Museum, Yangon, nr. 36</t>
+  </si>
+  <si>
+    <t>ASI 1926-27, 164-5. — OBEP I, 188; II, 204.</t>
+  </si>
+  <si>
+    <t>West bank of Nagayon lake, Halin</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PPPB II, pl. 54. — </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EFEO estampage n. XXX.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Payagyi pagoda</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, near Pyay</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>stone stela (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>or funerary tablet?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>South of Tagantha village, near Halin</t>
+  </si>
+  <si>
+    <t>presence of inscription not yet noted when catalogue entry was written for Guy 2014.</t>
+  </si>
+  <si>
+    <t>metal sculpture of preaching Buddha</t>
+  </si>
+  <si>
+    <t>Naional Museum, Nay Pyi Taw, 1/3/1994</t>
+  </si>
+  <si>
+    <t>Sanskrit in Gaudi; Pali in LSB and Pyu in Pyu scripts</t>
+  </si>
+  <si>
+    <t>400 ft. South of Shwegugyi (near HL26)</t>
+  </si>
+  <si>
+    <t>Myanadi village, 8 km east of Maingmaw, Myittha township, Kyaukse Dt., Mandalay Region</t>
+  </si>
+  <si>
+    <t>Aung Seigon pagoda, Innwa, Mandalay Region</t>
+  </si>
+  <si>
+    <t>Led-dwin, near Maingmaw</t>
+  </si>
+  <si>
+    <t>Moore 2009, 111.</t>
+  </si>
+  <si>
+    <t>Shwegyobin, Kyauktaga township, Bago region</t>
+  </si>
+  <si>
+    <t>Myint Aung 1970: 61. — Aung Thaw 1972: 14. — Skilling 2015: 66.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">White — </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Middleton 2005: 92. — Skilling 2015: 65.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>White —</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Middleton 2005: 91. — Skilling 2015: 66.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>White. —</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Middleton 2005: 90. — Skilling 2015: 66.</t>
+    </r>
+  </si>
+  <si>
+    <t>Myint Aung (as well as scholars after him) points out that an identical artefact has been found at Oc Eo. Apparently more than one specimen of this intaglio was made; other intaglios with the same inscription but applied rather les artfully are shown and/or referred to  by Middleton 2005: 15, 159. Their provenance from 'Pyu' sites in uncertain.</t>
+  </si>
+  <si>
+    <t>writing positive</t>
+  </si>
+  <si>
+    <t>must look up what IB says about this item.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> stone </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>funerary tablet</t>
+    </r>
+  </si>
+  <si>
+    <t>Blagden 1913-14 (C). — IB IV, 354c. — PPPB II, pl. 5bc, 6b.</t>
+  </si>
+  <si>
+    <t>Blagden 1913-14 (A). — ASB 1912, 7, 11. — ASI 1911-12, 147. — PR, 47 (A), 50. — PPPB I, 48, 57 n. 13, 126-7.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EB I, 1, pl. IV (B). —</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> IB. — RTI</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">De Beylié 1907a, 98. </t>
     </r>
     <r>
       <rPr>
@@ -1697,7 +1991,39 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>). —</t>
+      <t>— ASI 1909-10, 120. — Blagden 1913-14, 127 (1). — PPPB, I, 54, 59 n. 51, 134.</t>
+    </r>
+  </si>
+  <si>
+    <t>During or after the Chinese invasion of Pagan in 1287 CE; but ASB 1916 suggests "probably dated 1284 A.D.".</t>
+  </si>
+  <si>
+    <t>ASI 1910-11, pl. 47 (4-8). — Mya 1961, II, pl. 72.</t>
+  </si>
+  <si>
+    <t>Chaem Kawklai 1992.</t>
+  </si>
+  <si>
+    <t>3.3 cm diam.</t>
+  </si>
+  <si>
+    <t>Ratchamangala Phisek National Library, Chiang Mai (Thailand), acc. nr. 034/2534</t>
+  </si>
+  <si>
+    <t>Chaem Kawklai 1992: 86, 88.</t>
+  </si>
+  <si>
+    <t>ASI 1912-13, pt. I, 29. — Blagden 1913-14 (C). — ASB 1913, 13-4; 1914, 20. — PR, 47 (C), 51. — PPPB I, 48, 57 n. 13, 126-7.</t>
+  </si>
+  <si>
+    <t>ASI 1911-12, 147. — ASI 1912-13, pt. I, 29. — ASB 1913, 9-10, 14. — Blagden 1913-14 (D1). — PR, 47 (D), 51. — PPPB I, 48, 57 n. 13, 126-7.</t>
+  </si>
+  <si>
+    <t>See also PYU25. — ASI 1911-12 fig. 1 on p. 149 shows Blagden’s D1 urn (but it is identified as being from the Bawbawgyi, which must be a mistake).</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -1706,42 +2032,42 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> RTI</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Listed in continuation of Duroiselle, </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A List of Inscriptions Found in Burma</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (1921), appendix B</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ASI 1909-10, pl. 49 (17-18). — ASB 1924,  pl. 3;</t>
+      <t>Lémyethna or Bawbawgyi (?)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> pagoda, Sriksetra</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ASI 1910-11, pl. XLVII</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (21). — PPPB II, pl. 62 (d, e).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HRC rubbing. — Rubbing in MHRJ 11. —</t>
     </r>
     <r>
       <rPr>
@@ -1751,57 +2077,15 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 1958, chart. —  PPPB II, pl. 35-36.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ASI 1909-10, 123. —ASB 1924, 26.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> — PPPB I, 62, 74 n. 9, 140.</t>
-    </r>
-  </si>
-  <si>
-    <t>Myint Aung 1970, pl. 9a. — Aung Thaw 1972: 14.</t>
-  </si>
-  <si>
-    <t>Beikthano</t>
-  </si>
-  <si>
-    <t>saṁghasiri/sayasiri</t>
-  </si>
-  <si>
-    <t>whole piece 4 cm long; seal 1.5 cm diam.</t>
-  </si>
-  <si>
-    <t>National Museum, Yangon</t>
-  </si>
-  <si>
-    <t>Prakrit (?)</t>
-  </si>
-  <si>
-    <t>ASB 1959, pl. 16-17. — Aung Thaw 1968, fig. 79.9, pl. LIVab. — photos Bob Hudson.</t>
-  </si>
-  <si>
-    <t>ASB 1959, 19. — Aung Thaw 1968: 50-51. — Aung Thaw 1972: 4.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ASB 1960: 22. —Aung Thaw 1972: 32. — Sircar 1976: 210-217. — </t>
+      <t xml:space="preserve"> RTI.</t>
+    </r>
+  </si>
+  <si>
+    <t>San Win 1998, 2000-1, 2003. — unnumbered pages in MHRJ 11. —Tun Aung Chain 2003.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ASI 1929-30, pl. XLI (e). — IB IV, </t>
     </r>
     <r>
       <rPr>
@@ -1810,83 +2094,21 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Aung Thaw et al. 1993: 134. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>— Gutman 2001: 109 n. 1.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sinlu village, Pwinbyu township </t>
-  </si>
-  <si>
-    <t>Sin Phyu Ywa village (Beinnaka old city), Pyawbwe</t>
-  </si>
-  <si>
-    <t>found on 20/05/2015 by Tampawaddy Win Maung and his group; information Kyam Minn Htin email on the same day.</t>
-  </si>
-  <si>
-    <t>ASI 1926-27, pl. XXXIX (f). — OBEP, pl. 444 (a, b).</t>
-  </si>
-  <si>
-    <t>OBEP, pl. 34 (c, d).</t>
-  </si>
-  <si>
-    <t>mentions Metriya</t>
-  </si>
-  <si>
-    <t>Pagan, Shwehsandaw pagoda, relic chamber</t>
-  </si>
-  <si>
-    <t>ASI 1926-27, 164. — PR, 77. — Mya 1961, I, 23-4. — OBEP I, 99; II, 25. — PPPB I, 66, 75 n. 30.</t>
-  </si>
-  <si>
-    <t>OBEP II, 26.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">read </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>baṁḥ metriya</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> by Duroiselle, but this reading not verifiable from the existing photos.</t>
-    </r>
-  </si>
-  <si>
-    <t>National Museum, Yangon, nr. 36</t>
-  </si>
-  <si>
-    <t>ASI 1926-27, 164-5. — OBEP I, 188; II, 204.</t>
-  </si>
-  <si>
-    <t>West bank of Nagayon lake, Halin</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">PPPB II, pl. 54. — </t>
+      <t>357</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a. — PPPB II, 52b.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">IB V, </t>
     </r>
     <r>
       <rPr>
@@ -1895,12 +2117,21 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t>EFEO estampage n. XXX.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Payagyi pagoda</t>
+      <t>570</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>b. — PPPB II, pl. 8abc.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ASI 1911-12, pl. LXIX (1). — Blagden 1913-14 (D1). — ASB 1913, pl. I (1-2). — IB IV, </t>
     </r>
     <r>
       <rPr>
@@ -1909,12 +2140,22 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t>, near Pyay</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>stone stela (</t>
+      <t>354</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d. — PPPB II, pl. 5a, 6a.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Blagden 1913-14 (A). — ASI 1911-12, pl. LXIX (1). — IB IV, </t>
     </r>
     <r>
       <rPr>
@@ -1923,55 +2164,29 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t>or funerary tablet?</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>South of Tagantha village, near Halin</t>
-  </si>
-  <si>
-    <t>presence of inscription not yet noted when catalogue entry was written for Guy 2014.</t>
-  </si>
-  <si>
-    <t>metal sculpture of preaching Buddha</t>
-  </si>
-  <si>
-    <t>Naional Museum, Nay Pyi Taw, 1/3/1994</t>
-  </si>
-  <si>
-    <t>Sanskrit in Gaudi; Pali in LSB and Pyu in Pyu scripts</t>
-  </si>
-  <si>
-    <t>400 ft. South of Shwegugyi (near HL26)</t>
-  </si>
-  <si>
-    <t>Myanadi village, 8 km east of Maingmaw, Myittha township, Kyaukse Dt., Mandalay Region</t>
-  </si>
-  <si>
-    <t>Aung Seigon pagoda, Innwa, Mandalay Region</t>
-  </si>
-  <si>
-    <t>Led-dwin, near Maingmaw</t>
-  </si>
-  <si>
-    <t>Moore 2009, 111.</t>
-  </si>
-  <si>
-    <t>Shwegyobin, Kyauktaga township, Bago region</t>
-  </si>
-  <si>
-    <t>Myint Aung 1970: 61. — Aung Thaw 1972: 14. — Skilling 2015: 66.</t>
-  </si>
-  <si>
+      <t>354</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a. — PPPB II, pl. 5d, 6c.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>De Beylié 1907a, pl. VIII. — EB I, 1, pl. IV (A). —</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1979,19 +2194,24 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">White — </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Middleton 2005: 92. — Skilling 2015: 65.</t>
-    </r>
-  </si>
-  <si>
+      <t xml:space="preserve"> IB. — RTI</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>De Beylié 1907a, pl. VII (1). — ASI 1909-10, 121 fig. 3. —  PPPB II, pl. 21 (b).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>stone</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1999,19 +2219,13 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t>White —</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Middleton 2005: 91. — Skilling 2015: 66.</t>
-    </r>
-  </si>
-  <si>
+      <t xml:space="preserve"> funerary tablet</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">stone </t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -2019,359 +2233,8 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t>White. —</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Middleton 2005: 90. — Skilling 2015: 66.</t>
-    </r>
-  </si>
-  <si>
-    <t>Myint Aung (as well as scholars after him) points out that an identical artefact has been found at Oc Eo. Apparently more than one specimen of this intaglio was made; other intaglios with the same inscription but applied rather les artfully are shown and/or referred to  by Middleton 2005: 15, 159. Their provenance from 'Pyu' sites in uncertain.</t>
-  </si>
-  <si>
-    <t>writing positive</t>
-  </si>
-  <si>
-    <t>must look up what IB says about this item.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> stone </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>funerary tablet</t>
     </r>
-  </si>
-  <si>
-    <t>Blagden 1913-14 (C). — IB IV, 354c. — PPPB II, pl. 5bc, 6b.</t>
-  </si>
-  <si>
-    <t>Blagden 1913-14 (A). — ASB 1912, 7, 11. — ASI 1911-12, 147. — PR, 47 (A), 50. — PPPB I, 48, 57 n. 13, 126-7.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>EB I, 1, pl. IV (B). —</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> IB. — RTI</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">De Beylié 1907a, 98. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>— ASI 1909-10, 120. — Blagden 1913-14, 127 (1). — PPPB, I, 54, 59 n. 51, 134.</t>
-    </r>
-  </si>
-  <si>
-    <t>During or after the Chinese invasion of Pagan in 1287 CE; but ASB 1916 suggests "probably dated 1284 A.D.".</t>
-  </si>
-  <si>
-    <t>ASI 1910-11, pl. 47 (4-8). — Mya 1961, II, pl. 72.</t>
-  </si>
-  <si>
-    <t>Chaem Kawklai 1992.</t>
-  </si>
-  <si>
-    <t>3.3 cm diam.</t>
-  </si>
-  <si>
-    <t>Ratchamangala Phisek National Library, Chiang Mai (Thailand), acc. nr. 034/2534</t>
-  </si>
-  <si>
-    <t>Chaem Kawklai 1992: 86, 88.</t>
-  </si>
-  <si>
-    <t>ASI 1912-13, pt. I, 29. — Blagden 1913-14 (C). — ASB 1913, 13-4; 1914, 20. — PR, 47 (C), 51. — PPPB I, 48, 57 n. 13, 126-7.</t>
-  </si>
-  <si>
-    <t>ASI 1911-12, 147. — ASI 1912-13, pt. I, 29. — ASB 1913, 9-10, 14. — Blagden 1913-14 (D1). — PR, 47 (D), 51. — PPPB I, 48, 57 n. 13, 126-7.</t>
-  </si>
-  <si>
-    <t>See also PYU25. — ASI 1911-12 fig. 1 on p. 149 shows Blagden’s D1 urn (but it is identified as being from the Bawbawgyi, which must be a mistake).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">it seems to me (AG) that Luce was wrong in citing De Beylié 1907a, pl. V (3), for De Beylié does not say that that is the converse of the inscribed reverse copied in fig. 62. Comparing the other photos available, it seems obvious that de Beyilié's V (3) and 62 have no connection with each other. </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">De Beylié 1907a, 89 fig. 62, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>pl. V (3)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>; 1907b, 246 fig. 199. — ASI 1909-10, pl. XLIX (12, 13). — Mya 1961, II, pl. 60 (gha). — PPPB II, 59 (f).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Lémyethna or Bawbawgyi (?)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> pagoda, Sriksetra</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>ASI 1910-11, pl. XLVII</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (21). — PPPB II, pl. 62 (d, e).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>HRC rubbing. — Rubbing in MHRJ 11. —</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> RTI.</t>
-    </r>
-  </si>
-  <si>
-    <t>San Win 1998, 2000-1, 2003. — unnumbered pages in MHRJ 11. —Tun Aung Chain 2003.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ASI 1929-30, pl. XLI (e). — IB IV, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>357</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>a. — PPPB II, 52b.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">IB V, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>570</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>b. — PPPB II, pl. 8abc.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ASI 1911-12, pl. LXIX (1). — Blagden 1913-14 (D1). — ASB 1913, pl. I (1-2). — IB IV, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>354</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>d. — PPPB II, pl. 5a, 6a.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Blagden 1913-14 (A). — ASI 1911-12, pl. LXIX (1). — IB IV, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>354</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>a. — PPPB II, pl. 5d, 6c.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>De Beylié 1907a, pl. VIII. — EB I, 1, pl. IV (A). —</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> IB. — RTI</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>De Beylié 1907a, pl. VII (1). — ASI 1909-10, 121 fig. 3. —  PPPB II, pl. 21 (b).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>stone</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> funerary tablet</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">stone </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>funerary tablet</t>
-    </r>
-  </si>
-  <si>
-    <t>PPPB II, pl. 6 (d).</t>
   </si>
   <si>
     <r>
@@ -2638,9 +2501,6 @@
     </r>
   </si>
   <si>
-    <t>Blagden 1913-14 (B1). — ASB 1912, 7, 11. — ASI 1911-12, 147. — PR, 47 (B), 50. — PPPB I, 48, 57 n. 13, 126-7. — Shafer 1943: 339. — Guy 2014: 76-7 (cat. 24).</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -2753,7 +2613,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ASI 1926-27, 175-6. — PR, 34. — Le May 1956: 48. — PPPB I, 51, 57 n. 23, 137. — Falk 1997: 88-91.</t>
+      <t>ASB 1964, pl. 25. — PPPB II, pl. 51. —</t>
     </r>
     <r>
       <rPr>
@@ -2763,27 +2623,136 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> — Stargardt. — </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Guy 2014: 80-2 (cat. 27).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ASB 1964, pl. 25. — PPPB II, pl. 51. —</t>
+      <t xml:space="preserve"> RTI.</t>
+    </r>
+  </si>
+  <si>
+    <t>Blagden 1913-14: 127 (B2). — PPPB I, 126.</t>
+  </si>
+  <si>
+    <t>found in 1982</t>
+  </si>
+  <si>
+    <t>De Beylié 1907a: 89 fig. 62. — ASI 1909-10, pl. XLIX (12, 13). — Mya 1961, II, pl. 60 (gha). — PPPB II, 59 (f).</t>
+  </si>
+  <si>
+    <t>Luce refers to De Beylié 1907a, pl. V (3); 246 fig. 199. The latter is an error for 1907b: 246 fig. 199. Luce was wrong in citing these photos published by De Beylié, for De Beylié does not say that they show the obverse of the inscribed reverse copied in his (1907a) fig. 62. Comparing the other photos available, it seems obvious that de Beylié's V (3) and 62 have no connection with each other. Delhine Desoutter has shown us three other specimens of tablets made from the same mold.</t>
+  </si>
+  <si>
+    <t>Blagden 1913-14 (B1). — ASI 1911-12, 147. — ASB 1912, 7, 11. — PR, 47 (B), 50. — PPPB I, 48, 57 n. 13, 126-7. — Shafer 1943: 339. — Guy 2014: 76-7 (cat. 24).</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Blagden 1913-14 (B2). — </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IB IV, 354b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. — PPPB II, pl. 6 (d).</t>
+    </r>
+  </si>
+  <si>
+    <t>ASB 1964, 19-20, 59. — PPPB I, 65, 75 n. 26, 149.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ASI 1926-27, 175-6. — PR, 34. — Le May 1956: 48. — PPPB I, 51, 57 n. 23, 137. — Falk 1997: 88-91. — Stargardt 2001: 498, 503-6. — Guy 2014: 80-2 (cat. 27).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nyunt Han </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>et al</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. 2006: 13. — Moore 2009: 111-12.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Aung Thaw </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>et al</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. 1993: 135.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> Minte mound, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hmawza</t>
+    </r>
+  </si>
+  <si>
+    <t>Khin Ba mound, Sriksetra</t>
+  </si>
+  <si>
+    <t>Aung Thaw 1972: 110, 116.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Aung Thaw 1972: 110-111. — Luce 1974: 126. — PPPB I, 176. —</t>
     </r>
     <r>
       <rPr>
@@ -2793,36 +2762,80 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> RTI.</t>
-    </r>
-  </si>
-  <si>
-    <t>Blagden 1913-14: 127 (B2). — PPPB I, 126.</t>
-  </si>
-  <si>
-    <t>found in 1982</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Nyunt Han </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>et al</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. 2006: 13. — Moore 2009, 111-12.</t>
+      <t xml:space="preserve"> von Hinüber 1991: 25 n. 53. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">— Skilling </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1997a:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 95 n. 7.</t>
+    </r>
+  </si>
+  <si>
+    <t>ASI 1910-11, pl. XLVII (1-2). — ASI 1911-12, pl. LXVIII (1). — Finot 1913, plate. — PPPB II, pl. 98 (c).</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ASI 1910-11, 89. — </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ASI 1911-12, 141-2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">— Finot 1912: 134-135 — Finot 1913. — PR, 35-36. — PPPB I, 61, 74 n. 4, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>XX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. — Stargardt 1995: 201.</t>
     </r>
   </si>
 </sst>
@@ -4012,8 +4025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="J48" sqref="J48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4039,7 +4052,7 @@
     </row>
     <row r="2" spans="1:11">
       <c r="B2" s="62" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="C2" s="62"/>
       <c r="D2" s="4"/>
@@ -4102,7 +4115,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="C5" s="11">
         <v>2</v>
@@ -4120,13 +4133,13 @@
         <v>190</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>481</v>
+        <v>470</v>
       </c>
       <c r="K5" s="10"/>
     </row>
@@ -4141,7 +4154,7 @@
         <v>19</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>56</v>
@@ -4154,10 +4167,10 @@
       </c>
       <c r="H6" s="10"/>
       <c r="I6" s="19" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>482</v>
+        <v>471</v>
       </c>
       <c r="K6" s="10" t="s">
         <v>20</v>
@@ -4189,13 +4202,13 @@
         <v>6</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="J7" s="19" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="56">
@@ -4224,10 +4237,10 @@
         <v>7</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="J8" s="19" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="K8" s="10"/>
     </row>
@@ -4257,10 +4270,10 @@
         <v>8</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="J9" s="19" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="K9" s="10"/>
     </row>
@@ -4275,7 +4288,7 @@
         <v>19</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="E10" s="17" t="s">
         <v>56</v>
@@ -4290,10 +4303,10 @@
         <v>9</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="J10" s="19" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="K10" s="10" t="s">
         <v>100</v>
@@ -4307,28 +4320,28 @@
         <v>101</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="F11" s="19" t="s">
         <v>21</v>
       </c>
       <c r="G11" s="46" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H11" s="10" t="s">
         <v>0</v>
       </c>
       <c r="I11" s="23" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="J11" s="23" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="K11" s="10" t="s">
         <v>117</v>
@@ -4342,28 +4355,28 @@
         <v>101</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G12" s="46" t="s">
         <v>21</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I12" s="23" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="J12" s="23" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="K12" s="10" t="s">
         <v>117</v>
@@ -4391,10 +4404,10 @@
         <v>22</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="K13" s="10"/>
     </row>
@@ -4424,10 +4437,10 @@
         <v>22</v>
       </c>
       <c r="I14" s="23" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="K14" s="10"/>
     </row>
@@ -4439,10 +4452,10 @@
         <v>82</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E15" s="17" t="s">
         <v>57</v>
@@ -4451,19 +4464,19 @@
         <v>24</v>
       </c>
       <c r="G15" s="46" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H15" s="10" t="s">
         <v>2</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="42">
@@ -4493,7 +4506,7 @@
         <v>95</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="K16" s="10" t="s">
         <v>25</v>
@@ -4504,7 +4517,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C17" s="28" t="s">
         <v>29</v>
@@ -4515,25 +4528,25 @@
         <v>3</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H17" s="69" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="I17" s="46" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="K17" s="46"/>
     </row>
-    <row r="18" spans="1:11" ht="154">
+    <row r="18" spans="1:11" ht="266">
       <c r="A18" s="44">
         <v>14</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C18" s="28" t="s">
         <v>19</v>
@@ -4541,22 +4554,22 @@
       <c r="D18" s="30"/>
       <c r="E18" s="47"/>
       <c r="F18" s="46" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H18" s="45" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="I18" s="46" t="s">
-        <v>445</v>
+        <v>482</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="K18" s="46" t="s">
-        <v>444</v>
+        <v>483</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="42">
@@ -4564,7 +4577,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C19" s="30" t="s">
         <v>29</v>
@@ -4574,20 +4587,20 @@
         <v>56</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H19" s="46"/>
       <c r="I19" s="46" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="K19" s="45" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="56">
@@ -4601,23 +4614,23 @@
         <v>193</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="E20" s="19" t="s">
         <v>58</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="G20" s="24" t="s">
         <v>161</v>
       </c>
       <c r="H20" s="13"/>
       <c r="I20" s="19" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="J20" s="13" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="K20" s="13"/>
     </row>
@@ -4638,20 +4651,20 @@
         <v>56</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="G21" s="24" t="s">
         <v>195</v>
       </c>
       <c r="H21" s="13"/>
       <c r="I21" s="13" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="J21" s="19" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="K21" s="13" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="22" customFormat="1" ht="56">
@@ -4662,19 +4675,19 @@
         <v>80</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E22" s="12" t="s">
         <v>56</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H22" s="13"/>
       <c r="I22" s="23" t="s">
@@ -4682,7 +4695,7 @@
       </c>
       <c r="J22" s="19"/>
       <c r="K22" s="13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="28">
@@ -4690,7 +4703,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="C23" s="20">
         <v>3</v>
@@ -4727,23 +4740,23 @@
         <v>5</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E24" s="19" t="s">
         <v>56</v>
       </c>
       <c r="F24" s="19" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H24" s="13"/>
       <c r="I24" s="13" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="J24" s="13" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="K24" s="13"/>
     </row>
@@ -4755,7 +4768,7 @@
         <v>80</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D25" s="20" t="s">
         <v>124</v>
@@ -4802,13 +4815,13 @@
       </c>
       <c r="H26" s="13"/>
       <c r="I26" s="13" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="J26" s="13" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="K26" s="13" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="112">
@@ -4816,30 +4829,30 @@
         <v>23</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D27" s="20"/>
       <c r="E27" s="19" t="s">
         <v>56</v>
       </c>
       <c r="F27" s="19" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="G27" s="19" t="s">
         <v>23</v>
       </c>
       <c r="H27" s="13"/>
       <c r="I27" s="19" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="J27" s="19" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K27" s="13" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="70">
@@ -4847,29 +4860,29 @@
         <v>24</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C28" s="14" t="s">
         <v>29</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E28" s="19" t="s">
         <v>59</v>
       </c>
       <c r="F28" s="19" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H28" s="13"/>
       <c r="I28" s="19" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="J28" s="13" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="K28" s="13"/>
     </row>
@@ -4878,7 +4891,7 @@
         <v>25</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C29" s="20" t="s">
         <v>28</v>
@@ -4897,13 +4910,13 @@
       </c>
       <c r="H29" s="13"/>
       <c r="I29" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J29" s="19" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="K29" s="19" t="s">
-        <v>479</v>
+        <v>468</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="28">
@@ -4923,17 +4936,17 @@
         <v>56</v>
       </c>
       <c r="F30" s="19" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="G30" s="12" t="s">
         <v>159</v>
       </c>
       <c r="H30" s="13"/>
       <c r="I30" s="19" t="s">
-        <v>458</v>
+        <v>485</v>
       </c>
       <c r="J30" s="19" t="s">
-        <v>493</v>
+        <v>480</v>
       </c>
       <c r="K30" s="13" t="s">
         <v>99</v>
@@ -4956,17 +4969,17 @@
         <v>56</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G31" s="12" t="s">
         <v>197</v>
       </c>
       <c r="H31" s="13"/>
       <c r="I31" s="13" t="s">
-        <v>492</v>
-      </c>
-      <c r="J31" s="13" t="s">
-        <v>198</v>
+        <v>479</v>
+      </c>
+      <c r="J31" s="19" t="s">
+        <v>486</v>
       </c>
       <c r="K31" s="13"/>
     </row>
@@ -4981,24 +4994,24 @@
         <v>102</v>
       </c>
       <c r="D32" s="28" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="E32" s="19" t="s">
         <v>56</v>
       </c>
       <c r="F32" s="24" t="s">
-        <v>365</v>
+        <v>490</v>
       </c>
       <c r="G32" s="24" t="s">
         <v>165</v>
       </c>
       <c r="H32" s="13"/>
       <c r="I32" s="19"/>
-      <c r="J32" s="13" t="s">
-        <v>364</v>
+      <c r="J32" s="19" t="s">
+        <v>489</v>
       </c>
       <c r="K32" s="13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="28">
@@ -5018,18 +5031,18 @@
         <v>56</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>299</v>
+        <v>491</v>
       </c>
       <c r="G33" s="12" t="s">
         <v>166</v>
       </c>
       <c r="H33" s="13"/>
       <c r="I33" s="25" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J33" s="24"/>
       <c r="K33" s="13" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="28">
@@ -5037,7 +5050,7 @@
         <v>30</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="C34" s="20" t="s">
         <v>29</v>
@@ -5049,7 +5062,7 @@
         <v>56</v>
       </c>
       <c r="F34" s="25" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="G34" s="24" t="s">
         <v>167</v>
@@ -5068,7 +5081,7 @@
         <v>31</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="C35" s="20" t="s">
         <v>19</v>
@@ -5109,20 +5122,20 @@
         <v>56</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="H36" s="13"/>
       <c r="I36" s="13" t="s">
         <v>95</v>
       </c>
       <c r="J36" s="12" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>494</v>
+        <v>481</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="28">
@@ -5136,21 +5149,21 @@
         <v>30</v>
       </c>
       <c r="D37" s="28" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E37" s="19"/>
       <c r="F37" s="12" t="s">
         <v>26</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H37" s="13"/>
       <c r="I37" s="19" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J37" s="13" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="K37" s="13"/>
     </row>
@@ -5159,13 +5172,13 @@
         <v>34</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C38" s="28" t="s">
         <v>19</v>
       </c>
       <c r="D38" s="28" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="E38" s="12" t="s">
         <v>56</v>
@@ -5178,13 +5191,13 @@
       </c>
       <c r="H38" s="12"/>
       <c r="I38" s="12" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="J38" s="12" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="K38" s="12" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="56">
@@ -5195,26 +5208,26 @@
         <v>181</v>
       </c>
       <c r="C39" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="D39" s="20" t="s">
         <v>200</v>
-      </c>
-      <c r="D39" s="20" t="s">
-        <v>201</v>
       </c>
       <c r="E39" s="19" t="s">
         <v>56</v>
       </c>
       <c r="F39" s="19" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H39" s="13"/>
       <c r="I39" s="13" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="J39" s="13" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="K39" s="13"/>
     </row>
@@ -5223,32 +5236,32 @@
         <v>36</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="C40" s="28" t="s">
         <v>30</v>
       </c>
       <c r="D40" s="28" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E40" s="18" t="s">
         <v>56</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="H40" s="18"/>
       <c r="I40" s="18" t="s">
         <v>95</v>
       </c>
       <c r="J40" s="12" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="K40" s="12" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="84">
@@ -5256,32 +5269,32 @@
         <v>37</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="C41" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D41" s="48" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="E41" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="G41" s="12" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="H41" s="13"/>
       <c r="I41" s="13" t="s">
         <v>95</v>
       </c>
       <c r="J41" s="13" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="K41" s="19" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="42" spans="1:11" s="22" customFormat="1" ht="28">
@@ -5301,17 +5314,17 @@
         <v>56</v>
       </c>
       <c r="F42" s="19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G42" s="19" t="s">
         <v>187</v>
       </c>
       <c r="H42" s="13"/>
       <c r="I42" s="13" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J42" s="19" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K42" s="13"/>
     </row>
@@ -5329,7 +5342,7 @@
         <v>152</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="F43" s="13" t="s">
         <v>106</v>
@@ -5346,7 +5359,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="42">
+    <row r="44" spans="1:11" ht="56">
       <c r="A44" s="21">
         <v>40</v>
       </c>
@@ -5357,26 +5370,26 @@
         <v>63</v>
       </c>
       <c r="D44" s="20" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E44" s="19" t="s">
         <v>60</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G44" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H44" s="13"/>
       <c r="I44" s="19" t="s">
-        <v>326</v>
+        <v>492</v>
       </c>
       <c r="J44" s="13" t="s">
-        <v>327</v>
+        <v>493</v>
       </c>
       <c r="K44" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="28">
@@ -5406,7 +5419,7 @@
         <v>147</v>
       </c>
       <c r="J45" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K45" s="13"/>
     </row>
@@ -5427,7 +5440,7 @@
         <v>60</v>
       </c>
       <c r="F46" s="19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G46" s="12" t="s">
         <v>170</v>
@@ -5437,7 +5450,7 @@
         <v>103</v>
       </c>
       <c r="J46" s="13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K46" s="13"/>
     </row>
@@ -5446,7 +5459,7 @@
         <v>43</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C47" s="14"/>
       <c r="D47" s="14"/>
@@ -5454,17 +5467,17 @@
         <v>62</v>
       </c>
       <c r="F47" s="19" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="G47" s="12" t="s">
         <v>109</v>
       </c>
       <c r="H47" s="13"/>
       <c r="I47" s="19" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="J47" s="19" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="K47" s="13"/>
     </row>
@@ -5473,32 +5486,32 @@
         <v>44</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="C48" s="20" t="s">
         <v>29</v>
       </c>
       <c r="D48" s="20" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E48" s="19" t="s">
         <v>60</v>
       </c>
       <c r="F48" s="19" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G48" s="12" t="s">
         <v>109</v>
       </c>
       <c r="H48" s="13"/>
       <c r="I48" s="19" t="s">
-        <v>295</v>
+        <v>494</v>
       </c>
       <c r="J48" s="10" t="s">
-        <v>377</v>
+        <v>495</v>
       </c>
       <c r="K48" s="13" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="42">
@@ -5506,29 +5519,29 @@
         <v>45</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C49" s="28" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="D49" s="28" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="E49" s="10" t="s">
         <v>60</v>
       </c>
       <c r="F49" s="19" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="G49" s="12" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="H49" s="13"/>
       <c r="I49" s="13" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J49" s="13" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="K49" s="13"/>
     </row>
@@ -5537,27 +5550,27 @@
         <v>46</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C50" s="28" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D50" s="28"/>
       <c r="E50" s="10" t="s">
         <v>60</v>
       </c>
       <c r="F50" s="19" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="G50" s="12" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="H50" s="13"/>
       <c r="I50" s="19" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="J50" s="19" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="K50" s="13"/>
     </row>
@@ -5579,11 +5592,11 @@
         <v>109</v>
       </c>
       <c r="G51" s="12" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="H51" s="18"/>
       <c r="I51" s="12" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="J51" s="12"/>
       <c r="K51" s="18"/>
@@ -5606,11 +5619,11 @@
         <v>109</v>
       </c>
       <c r="G52" s="12" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="H52" s="18"/>
       <c r="I52" s="12" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="J52" s="12"/>
       <c r="K52" s="18"/>
@@ -5620,7 +5633,7 @@
         <v>49</v>
       </c>
       <c r="B53" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C53" s="20" t="s">
         <v>19</v>
@@ -5634,13 +5647,13 @@
       </c>
       <c r="G53" s="19"/>
       <c r="H53" s="19" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I53" s="19" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J53" s="19" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="K53" s="19"/>
     </row>
@@ -5649,7 +5662,7 @@
         <v>50</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C54" s="28" t="s">
         <v>19</v>
@@ -5659,17 +5672,17 @@
         <v>108</v>
       </c>
       <c r="F54" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G54" s="12"/>
       <c r="H54" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I54" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="J54" s="12" t="s">
         <v>229</v>
-      </c>
-      <c r="J54" s="12" t="s">
-        <v>230</v>
       </c>
       <c r="K54" s="12"/>
     </row>
@@ -5693,7 +5706,7 @@
         <v>77</v>
       </c>
       <c r="G55" s="19" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="23" t="s">
@@ -5726,7 +5739,7 @@
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="23" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="J56" s="19" t="s">
         <v>75</v>
@@ -5757,7 +5770,7 @@
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="23" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="J57" s="19" t="s">
         <v>75</v>
@@ -5788,7 +5801,7 @@
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="23" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="J58" s="19" t="s">
         <v>75</v>
@@ -5871,29 +5884,29 @@
         <v>58</v>
       </c>
       <c r="B62" s="19" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C62" s="20" t="s">
         <v>30</v>
       </c>
       <c r="D62" s="20" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E62" s="19" t="s">
         <v>60</v>
       </c>
       <c r="F62" s="19" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G62" s="19" t="s">
         <v>109</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J62" s="19" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K62" s="23"/>
     </row>
@@ -5902,27 +5915,27 @@
         <v>59</v>
       </c>
       <c r="B63" s="19" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="C63" s="20" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="D63" s="20"/>
       <c r="E63" s="19" t="s">
         <v>108</v>
       </c>
       <c r="F63" s="19" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="G63" s="23" t="s">
         <v>109</v>
       </c>
       <c r="H63" s="23"/>
       <c r="I63" s="23" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="J63" s="19" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="K63" s="19"/>
     </row>
@@ -5931,20 +5944,20 @@
         <v>60</v>
       </c>
       <c r="B64" s="19" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="C64" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D64" s="20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E64" s="19" t="s">
         <v>56</v>
       </c>
       <c r="F64" s="23"/>
       <c r="G64" s="19" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H64" s="23"/>
       <c r="I64" s="23" t="s">
@@ -5964,13 +5977,13 @@
         <v>19</v>
       </c>
       <c r="D65" s="20" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E65" s="19" t="s">
         <v>56</v>
       </c>
       <c r="F65" s="23" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="G65" s="23" t="s">
         <v>185</v>
@@ -5981,7 +5994,7 @@
       </c>
       <c r="J65" s="19"/>
       <c r="K65" s="19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="66" spans="1:11" s="22" customFormat="1">
@@ -5989,7 +6002,7 @@
         <v>62</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C66" s="28"/>
       <c r="D66" s="28"/>
@@ -6000,11 +6013,11 @@
         <v>26</v>
       </c>
       <c r="G66" s="12" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H66" s="12"/>
       <c r="I66" s="12" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="J66" s="12"/>
       <c r="K66" s="12"/>
@@ -6020,25 +6033,25 @@
         <v>19</v>
       </c>
       <c r="D67" s="28" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="E67" s="12" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="F67" s="12" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="G67" s="12" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="H67" s="12" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="I67" s="12" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="J67" s="12" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="K67" s="12"/>
     </row>
@@ -6057,14 +6070,14 @@
         <v>56</v>
       </c>
       <c r="F68" s="12" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="G68" s="12"/>
       <c r="H68" s="12"/>
       <c r="I68" s="12"/>
       <c r="J68" s="12"/>
       <c r="K68" s="12" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
     </row>
     <row r="69" spans="1:11" s="22" customFormat="1" ht="42">
@@ -6072,7 +6085,7 @@
         <v>65</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C69" s="28" t="s">
         <v>19</v>
@@ -6082,19 +6095,19 @@
         <v>56</v>
       </c>
       <c r="F69" s="12" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="G69" s="12" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="H69" s="12" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="I69" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="J69" s="12" t="s">
         <v>399</v>
-      </c>
-      <c r="J69" s="12" t="s">
-        <v>407</v>
       </c>
       <c r="K69" s="12"/>
     </row>
@@ -6106,26 +6119,26 @@
         <v>107</v>
       </c>
       <c r="C70" s="58" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D70" s="58"/>
       <c r="E70" s="24" t="s">
         <v>56</v>
       </c>
       <c r="F70" s="24" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="G70" s="25" t="s">
         <v>109</v>
       </c>
       <c r="H70" s="59" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="I70" s="24" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="J70" s="24" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="K70" s="59"/>
     </row>
@@ -6140,7 +6153,7 @@
         <v>104</v>
       </c>
       <c r="D71" s="28" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="E71" s="12" t="s">
         <v>56</v>
@@ -6149,14 +6162,14 @@
         <v>109</v>
       </c>
       <c r="G71" s="12" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="H71" s="12"/>
       <c r="I71" s="12" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="J71" s="12" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="K71" s="18"/>
     </row>
@@ -6206,21 +6219,21 @@
       </c>
       <c r="F74" s="42"/>
       <c r="G74" s="42" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="H74" s="42"/>
       <c r="I74" s="61" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="J74" s="42" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="K74" s="42"/>
     </row>
     <row r="75" spans="1:11" s="22" customFormat="1">
       <c r="A75" s="41"/>
       <c r="B75" s="42" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C75" s="43" t="s">
         <v>30</v>
@@ -6236,16 +6249,16 @@
       <c r="H75" s="42"/>
       <c r="I75" s="42"/>
       <c r="J75" s="42" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="K75" s="42" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="76" spans="1:11" s="22" customFormat="1" ht="28">
       <c r="A76" s="41"/>
       <c r="B76" s="42" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C76" s="43" t="s">
         <v>29</v>
@@ -6255,17 +6268,17 @@
         <v>59</v>
       </c>
       <c r="F76" s="42" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G76" s="42" t="s">
         <v>109</v>
       </c>
       <c r="H76" s="36"/>
       <c r="I76" s="42" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="J76" s="42" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K76" s="36"/>
     </row>
@@ -6282,20 +6295,20 @@
         <v>56</v>
       </c>
       <c r="F77" s="42" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="G77" s="42" t="s">
         <v>109</v>
       </c>
       <c r="H77" s="42"/>
       <c r="I77" s="42" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="J77" s="42" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="K77" s="42" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="78" spans="1:11" s="22" customFormat="1" ht="28">
@@ -6314,10 +6327,10 @@
       <c r="G78" s="34"/>
       <c r="H78" s="42"/>
       <c r="I78" s="42" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="J78" s="42" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="K78" s="42"/>
     </row>
@@ -6333,10 +6346,10 @@
       <c r="G79" s="34"/>
       <c r="H79" s="42"/>
       <c r="I79" s="34" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J79" s="34" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="K79" s="42"/>
     </row>
@@ -6353,20 +6366,20 @@
         <v>56</v>
       </c>
       <c r="F80" s="42" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G80" s="34" t="s">
         <v>109</v>
       </c>
       <c r="H80" s="36"/>
       <c r="I80" s="42" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J80" s="42" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K80" s="36" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="81" spans="1:11" s="22" customFormat="1" ht="28">
@@ -6385,10 +6398,10 @@
       <c r="G81" s="34"/>
       <c r="H81" s="42"/>
       <c r="I81" s="42" t="s">
+        <v>285</v>
+      </c>
+      <c r="J81" s="42" t="s">
         <v>286</v>
-      </c>
-      <c r="J81" s="42" t="s">
-        <v>287</v>
       </c>
       <c r="K81" s="42"/>
     </row>
@@ -6408,13 +6421,13 @@
       <c r="G82" s="34"/>
       <c r="H82" s="42"/>
       <c r="I82" s="42" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="J82" s="42" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="K82" s="34" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="83" spans="1:11" s="22" customFormat="1" ht="28">
@@ -6430,15 +6443,15 @@
         <v>56</v>
       </c>
       <c r="F83" s="42" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G83" s="34"/>
       <c r="H83" s="42"/>
       <c r="I83" s="42" t="s">
+        <v>275</v>
+      </c>
+      <c r="J83" s="42" t="s">
         <v>276</v>
-      </c>
-      <c r="J83" s="42" t="s">
-        <v>277</v>
       </c>
       <c r="K83" s="42"/>
     </row>
@@ -6454,10 +6467,10 @@
       <c r="G84" s="34"/>
       <c r="H84" s="42"/>
       <c r="I84" s="34" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J84" s="34" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="K84" s="42"/>
     </row>
@@ -6475,17 +6488,17 @@
       <c r="G85" s="34"/>
       <c r="H85" s="42"/>
       <c r="I85" s="42" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="J85" s="34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K85" s="42"/>
     </row>
     <row r="86" spans="1:11" s="22" customFormat="1" ht="28">
       <c r="A86" s="41"/>
       <c r="B86" s="42" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C86" s="43" t="s">
         <v>19</v>
@@ -6495,22 +6508,22 @@
         <v>56</v>
       </c>
       <c r="F86" s="42" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G86" s="34"/>
       <c r="H86" s="42"/>
       <c r="I86" s="42" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="J86" s="42" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K86" s="42"/>
     </row>
     <row r="87" spans="1:11" s="22" customFormat="1">
       <c r="A87" s="41"/>
       <c r="B87" s="42" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C87" s="43" t="s">
         <v>19</v>
@@ -6520,38 +6533,38 @@
         <v>56</v>
       </c>
       <c r="F87" s="42" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G87" s="34"/>
       <c r="H87" s="42"/>
       <c r="I87" s="42" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="J87" s="42" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K87" s="42"/>
     </row>
     <row r="88" spans="1:11" s="22" customFormat="1" ht="28">
       <c r="A88" s="41"/>
       <c r="B88" s="42" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C88" s="43" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="D88" s="43"/>
       <c r="E88" s="34" t="s">
         <v>56</v>
       </c>
       <c r="F88" s="42" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="G88" s="34"/>
       <c r="H88" s="42"/>
       <c r="I88" s="42"/>
       <c r="J88" s="42" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
       <c r="K88" s="42"/>
     </row>
@@ -6605,10 +6618,10 @@
       <c r="G91" s="36"/>
       <c r="H91" s="36"/>
       <c r="I91" s="36" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J91" s="36" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K91" s="36"/>
     </row>
@@ -6619,13 +6632,13 @@
       <c r="D92" s="35"/>
       <c r="E92" s="36"/>
       <c r="F92" s="36" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="G92" s="36"/>
       <c r="H92" s="36"/>
       <c r="I92" s="36"/>
       <c r="J92" s="36" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="K92" s="36"/>
     </row>
@@ -6641,13 +6654,13 @@
       <c r="E93" s="34"/>
       <c r="F93" s="42"/>
       <c r="G93" s="42" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="H93" s="42"/>
       <c r="I93" s="42"/>
       <c r="J93" s="42"/>
       <c r="K93" s="42" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
     </row>
     <row r="94" spans="1:11" s="50" customFormat="1" ht="98">
@@ -6666,15 +6679,15 @@
         <v>55</v>
       </c>
       <c r="G94" s="42" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H94" s="42"/>
       <c r="I94" s="34" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J94" s="42"/>
       <c r="K94" s="42" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="95" spans="1:11" s="49" customFormat="1">
@@ -6691,7 +6704,7 @@
       </c>
       <c r="F95" s="42"/>
       <c r="G95" s="42" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H95" s="42"/>
       <c r="I95" s="42"/>
@@ -6714,7 +6727,7 @@
       </c>
       <c r="F96" s="42"/>
       <c r="G96" s="42" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H96" s="42"/>
       <c r="I96" s="42"/>
@@ -6774,7 +6787,7 @@
     <row r="99" spans="1:11" s="50" customFormat="1">
       <c r="A99" s="41"/>
       <c r="B99" s="42" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C99" s="43" t="s">
         <v>19</v>
@@ -6785,10 +6798,10 @@
       </c>
       <c r="F99" s="42"/>
       <c r="G99" s="42" t="s">
+        <v>232</v>
+      </c>
+      <c r="H99" s="42" t="s">
         <v>233</v>
-      </c>
-      <c r="H99" s="42" t="s">
-        <v>234</v>
       </c>
       <c r="I99" s="42"/>
       <c r="J99" s="42"/>
@@ -6828,7 +6841,7 @@
     <row r="101" spans="1:11" s="50" customFormat="1" ht="28">
       <c r="A101" s="41"/>
       <c r="B101" s="42" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C101" s="43" t="s">
         <v>19</v>
@@ -6839,21 +6852,21 @@
       </c>
       <c r="F101" s="42"/>
       <c r="G101" s="42" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H101" s="42" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I101" s="42"/>
       <c r="J101" s="42" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="K101" s="42"/>
     </row>
     <row r="102" spans="1:11" s="50" customFormat="1" ht="28">
       <c r="A102" s="41"/>
       <c r="B102" s="42" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="C102" s="43" t="s">
         <v>19</v>
@@ -6864,21 +6877,21 @@
       </c>
       <c r="F102" s="42"/>
       <c r="G102" s="42" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H102" s="42" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="I102" s="42"/>
       <c r="J102" s="42" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="K102" s="42"/>
     </row>
     <row r="103" spans="1:11" s="50" customFormat="1" ht="28">
       <c r="A103" s="41"/>
       <c r="B103" s="42" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="C103" s="43" t="s">
         <v>19</v>
@@ -6889,17 +6902,17 @@
       </c>
       <c r="F103" s="42"/>
       <c r="G103" s="42" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H103" s="42" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="I103" s="42"/>
       <c r="J103" s="42" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="K103" s="42" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
     </row>
     <row r="104" spans="1:11" s="50" customFormat="1" ht="182">
@@ -6922,13 +6935,13 @@
         <v>186</v>
       </c>
       <c r="I104" s="42" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="J104" s="42" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="K104" s="42" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
     </row>
     <row r="105" spans="1:11" s="50" customFormat="1">
@@ -6939,21 +6952,21 @@
       <c r="E105" s="42"/>
       <c r="F105" s="42"/>
       <c r="G105" s="42" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="H105" s="34" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="I105" s="42"/>
       <c r="J105" s="42" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="K105" s="42"/>
     </row>
     <row r="106" spans="1:11" s="49" customFormat="1" ht="42">
       <c r="A106" s="33"/>
       <c r="B106" s="42" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C106" s="35"/>
       <c r="D106" s="35"/>
@@ -6962,10 +6975,10 @@
       <c r="G106" s="36"/>
       <c r="H106" s="36"/>
       <c r="I106" s="36" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="J106" s="36" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="K106" s="36"/>
     </row>
@@ -7137,10 +7150,10 @@
       <c r="E117" s="15"/>
       <c r="F117" s="15"/>
       <c r="G117" s="39" t="s">
+        <v>250</v>
+      </c>
+      <c r="H117" s="15" t="s">
         <v>251</v>
-      </c>
-      <c r="H117" s="15" t="s">
-        <v>252</v>
       </c>
       <c r="I117" s="15"/>
       <c r="J117" s="15"/>

--- a/inventory/INVENTORY OF PYU INSCRIPTIONS.xlsx
+++ b/inventory/INVENTORY OF PYU INSCRIPTIONS.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="497">
   <si>
     <r>
       <t>Building of a shrine by Prince R</t>
@@ -204,9 +204,6 @@
     <t>silver bowl</t>
   </si>
   <si>
-    <t>Mahlo</t>
-  </si>
-  <si>
     <t>A:?, B:?</t>
   </si>
   <si>
@@ -1082,9 +1079,6 @@
     <t>ASB 1958, pl. 16, 17.</t>
   </si>
   <si>
-    <t>Mya 1961, II, 31. — PPPB I, 155.</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">ASB 1925, 18. — </t>
     </r>
@@ -2079,9 +2073,6 @@
       </rPr>
       <t xml:space="preserve"> RTI.</t>
     </r>
-  </si>
-  <si>
-    <t>San Win 1998, 2000-1, 2003. — unnumbered pages in MHRJ 11. —Tun Aung Chain 2003.</t>
   </si>
   <si>
     <r>
@@ -2378,18 +2369,12 @@
     <t>Tawadeintha (Tāvatiṁsa) pagoda in hills west of Sriksetra</t>
   </si>
   <si>
-    <t>ASI 1910-11, 93. — ASB 1911, 6, 44. — PPPB I, 158.</t>
-  </si>
-  <si>
     <t>two words</t>
   </si>
   <si>
     <t>Tawadeintha (Tāvatiṁsa) pagod, Sriksetra</t>
   </si>
   <si>
-    <t>ASB 1911, 6, 44.</t>
-  </si>
-  <si>
     <t>Found in 1935. We do not believe this inscription comprises any parts in Sanskrit, despite statements in the literature to that effect.</t>
   </si>
   <si>
@@ -2501,6 +2486,323 @@
     </r>
   </si>
   <si>
+    <t>De Beylié 1907a: 82-3. — ASI 1909-10, 120. — Blagden 1913-14: 127 (2). — PPPB I, 129.</t>
+  </si>
+  <si>
+    <t>De Beylié 1907a: 83 (n. 1). — Blagden 1913-14: 127 (6). —ASB 1916, 18 (with n. ‡). — Chen Yi-Sein 1960. — PPPB I, 67, 76 n. 38-39.</t>
+  </si>
+  <si>
+    <r>
+      <t>Blagden 1913-14: 127 (5).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — ASB 1912, 12 §37.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ASI 1926-27, pl. XXXVII (d), XXXVIII (c). — Le May 1956, fig. 4. — Mya 1961, II, pl. 1, 5, 6. — PPPB II, pl. 28-29. — Guy 2014: 66 (fig. 54), 81 (cat. 27). — </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RTI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ASB 1964, pl. 25. — PPPB II, pl. 51. —</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> RTI.</t>
+    </r>
+  </si>
+  <si>
+    <t>Blagden 1913-14: 127 (B2). — PPPB I, 126.</t>
+  </si>
+  <si>
+    <t>found in 1982</t>
+  </si>
+  <si>
+    <t>De Beylié 1907a: 89 fig. 62. — ASI 1909-10, pl. XLIX (12, 13). — Mya 1961, II, pl. 60 (gha). — PPPB II, 59 (f).</t>
+  </si>
+  <si>
+    <t>Luce refers to De Beylié 1907a, pl. V (3); 246 fig. 199. The latter is an error for 1907b: 246 fig. 199. Luce was wrong in citing these photos published by De Beylié, for De Beylié does not say that they show the obverse of the inscribed reverse copied in his (1907a) fig. 62. Comparing the other photos available, it seems obvious that de Beylié's V (3) and 62 have no connection with each other. Delhine Desoutter has shown us three other specimens of tablets made from the same mold.</t>
+  </si>
+  <si>
+    <t>Blagden 1913-14 (B1). — ASI 1911-12, 147. — ASB 1912, 7, 11. — PR, 47 (B), 50. — PPPB I, 48, 57 n. 13, 126-7. — Shafer 1943: 339. — Guy 2014: 76-7 (cat. 24).</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Blagden 1913-14 (B2). — </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IB IV, 354b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. — PPPB II, pl. 6 (d).</t>
+    </r>
+  </si>
+  <si>
+    <t>ASB 1964, 19-20, 59. — PPPB I, 65, 75 n. 26, 149.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ASI 1926-27, 175-6. — PR, 34. — Le May 1956: 48. — PPPB I, 51, 57 n. 23, 137. — Falk 1997: 88-91. — Stargardt 2001: 498, 503-6. — Guy 2014: 80-2 (cat. 27).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nyunt Han </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>et al</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. 2006: 13. — Moore 2009: 111-12.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Aung Thaw </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>et al</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. 1993: 135.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> Minte mound, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hmawza</t>
+    </r>
+  </si>
+  <si>
+    <t>Khin Ba mound, Sriksetra</t>
+  </si>
+  <si>
+    <t>Aung Thaw 1972: 110, 116.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Aung Thaw 1972: 110-111. — Luce 1974: 126. — PPPB I, 176. —</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> von Hinüber 1991: 25 n. 53. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">— Skilling </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1997a:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 95 n. 7.</t>
+    </r>
+  </si>
+  <si>
+    <t>ASI 1910-11, pl. XLVII (1-2). — ASI 1911-12, pl. LXVIII (1). — Finot 1913, plate. — PPPB II, pl. 98 (c).</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ASI 1910-11, 89. — </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ASI 1911-12, 141-2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">— Finot 1912: 134-135 — Finot 1913. — PR, 35-36. — PPPB I, 61, 74 n. 4, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>XX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. — Stargardt 1995: 201.</t>
+    </r>
+  </si>
+  <si>
+    <t>ASI 1910-11, 93. — ASB 1911, 6, 41. — PPPB I, 158.</t>
+  </si>
+  <si>
+    <t>ASB 1911, 6, 41.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mya 1961, II, 31. — PPPB I, 155. — </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tun Aung Chain 2003: 9.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ASI 1927-28, 127-8, 145. — Ray 1936: 19-20. — PR, 41-3. — PPPB I, 51, 57 n. 24, 65, 74 n. 22, 131-2. — Guy 1997: 91-2; 2014: 91-2 (cat. 41). — Tun Aung Chain 2003: 5-6.</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -2527,93 +2829,38 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>15. — Krech 2012: 153-65 (A).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Blagden 1913-14 (B). — EB I, 1, 59-68 (B). —  Shafer 1943: 320-37, 340-44, 357-63. — PR, 63-71. — PPPB I, 62-4, 74 n. 15. — Krech 2012: 153-65 (B).</t>
-    </r>
-  </si>
-  <si>
-    <t>De Beylié 1907a: 82-3. — ASI 1909-10, 120. — Blagden 1913-14: 127 (2). — PPPB I, 129.</t>
-  </si>
-  <si>
-    <t>De Beylié 1907a: 83 (n. 1). — Blagden 1913-14: 127 (6). —ASB 1916, 18 (with n. ‡). — Chen Yi-Sein 1960. — PPPB I, 67, 76 n. 38-39.</t>
-  </si>
-  <si>
-    <r>
-      <t>Blagden 1913-14: 127 (5).</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> — ASB 1912, 12 §37.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ASI 1927-28, 127-8, 145. — Ray 1936: 19-20. — PR, 41-3. — PPPB I, 51, 57 n. 24, 65, 74 n. 22, 131-2. — Guy 1997: 91-2; 2014: 91-2 (cat. 41).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ASI 1926-27, pl. XXXVII (d), XXXVIII (c). — Le May 1956, fig. 4. — Mya 1961, II, pl. 1, 5, 6. — PPPB II, pl. 28-29. — Guy 2014: 66 (fig. 54), 81 (cat. 27). — </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>RTI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ASB 1964, pl. 25. — PPPB II, pl. 51. —</t>
+      <t>15. — Tun Aung Chain 2003: 7-8. — Krech 2012: 153-65 (A).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Blagden 1913-14 (B). — EB I, 1, 59-68 (B). —  Shafer 1943: 320-37, 340-44, 357-63. — PR, 63-71. — PPPB I, 62-4, 74 n. 15. — Tun Aung Chain 2003: 7-8. — Krech 2012: 153-65 (B).</t>
+    </r>
+  </si>
+  <si>
+    <t>Mahlo 2012: 167 (app. 27.1).</t>
+  </si>
+  <si>
+    <t>Mahlo 2012: 167 (app. 27.2).</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">San Win 1998, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2000-1, 2003. —</t>
     </r>
     <r>
       <rPr>
@@ -2623,219 +2870,16 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> RTI.</t>
-    </r>
-  </si>
-  <si>
-    <t>Blagden 1913-14: 127 (B2). — PPPB I, 126.</t>
-  </si>
-  <si>
-    <t>found in 1982</t>
-  </si>
-  <si>
-    <t>De Beylié 1907a: 89 fig. 62. — ASI 1909-10, pl. XLIX (12, 13). — Mya 1961, II, pl. 60 (gha). — PPPB II, 59 (f).</t>
-  </si>
-  <si>
-    <t>Luce refers to De Beylié 1907a, pl. V (3); 246 fig. 199. The latter is an error for 1907b: 246 fig. 199. Luce was wrong in citing these photos published by De Beylié, for De Beylié does not say that they show the obverse of the inscribed reverse copied in his (1907a) fig. 62. Comparing the other photos available, it seems obvious that de Beylié's V (3) and 62 have no connection with each other. Delhine Desoutter has shown us three other specimens of tablets made from the same mold.</t>
-  </si>
-  <si>
-    <t>Blagden 1913-14 (B1). — ASI 1911-12, 147. — ASB 1912, 7, 11. — PR, 47 (B), 50. — PPPB I, 48, 57 n. 13, 126-7. — Shafer 1943: 339. — Guy 2014: 76-7 (cat. 24).</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Blagden 1913-14 (B2). — </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>IB IV, 354b</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. — PPPB II, pl. 6 (d).</t>
-    </r>
-  </si>
-  <si>
-    <t>ASB 1964, 19-20, 59. — PPPB I, 65, 75 n. 26, 149.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ASI 1926-27, 175-6. — PR, 34. — Le May 1956: 48. — PPPB I, 51, 57 n. 23, 137. — Falk 1997: 88-91. — Stargardt 2001: 498, 503-6. — Guy 2014: 80-2 (cat. 27).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Nyunt Han </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>et al</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. 2006: 13. — Moore 2009: 111-12.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Aung Thaw </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>et al</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. 1993: 135.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> Minte mound, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Hmawza</t>
-    </r>
-  </si>
-  <si>
-    <t>Khin Ba mound, Sriksetra</t>
-  </si>
-  <si>
-    <t>Aung Thaw 1972: 110, 116.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Aung Thaw 1972: 110-111. — Luce 1974: 126. — PPPB I, 176. —</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> von Hinüber 1991: 25 n. 53. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">— Skilling </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1997a:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 95 n. 7.</t>
-    </r>
-  </si>
-  <si>
-    <t>ASI 1910-11, pl. XLVII (1-2). — ASI 1911-12, pl. LXVIII (1). — Finot 1913, plate. — PPPB II, pl. 98 (c).</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ASI 1910-11, 89. — </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">ASI 1911-12, 141-2. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">— Finot 1912: 134-135 — Finot 1913. — PR, 35-36. — PPPB I, 61, 74 n. 4, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>XX</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. — Stargardt 1995: 201.</t>
+      <t xml:space="preserve"> unnumbered pages in MHRJ 11. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>—Tun Aung Chain 2003: 1-4.</t>
     </r>
   </si>
 </sst>
@@ -3081,7 +3125,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="229">
+  <cellStyleXfs count="231">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3311,8 +3355,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3477,6 +3523,9 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3498,11 +3547,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="229">
+  <cellStyles count="231">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -3617,6 +3666,7 @@
     <cellStyle name="Followed Hyperlink" xfId="224" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="226" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="230" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -3731,6 +3781,7 @@
     <cellStyle name="Hyperlink" xfId="223" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="225" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="229" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4023,10 +4074,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K125"/>
+  <dimension ref="A1:K126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="J48" sqref="J48"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4043,7 +4094,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="18">
       <c r="A1" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="4"/>
@@ -4051,10 +4102,10 @@
       <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="B2" s="62" t="s">
-        <v>375</v>
-      </c>
-      <c r="C2" s="62"/>
+      <c r="B2" s="63" t="s">
+        <v>373</v>
+      </c>
+      <c r="C2" s="63"/>
       <c r="D2" s="4"/>
       <c r="E2" s="3" t="s">
         <v>1</v>
@@ -4064,34 +4115,34 @@
       <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="65" t="s">
+      <c r="C3" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="65" t="s">
-        <v>115</v>
-      </c>
-      <c r="E3" s="67" t="s">
-        <v>92</v>
-      </c>
-      <c r="F3" s="68" t="s">
+      <c r="D3" s="66" t="s">
+        <v>114</v>
+      </c>
+      <c r="E3" s="68" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="63" t="s">
+      <c r="G3" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="63" t="s">
+      <c r="H3" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="63" t="s">
-        <v>91</v>
-      </c>
-      <c r="J3" s="63" t="s">
+      <c r="I3" s="64" t="s">
+        <v>90</v>
+      </c>
+      <c r="J3" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="63" t="s">
+      <c r="K3" s="64" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4099,47 +4150,47 @@
       <c r="A4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="65"/>
     </row>
     <row r="5" spans="1:11" ht="59">
       <c r="A5" s="9">
         <v>1</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C5" s="11">
         <v>2</v>
       </c>
       <c r="D5" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="G5" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="E5" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>190</v>
-      </c>
       <c r="H5" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="K5" s="10"/>
     </row>
@@ -4148,29 +4199,29 @@
         <v>2</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H6" s="10"/>
       <c r="I6" s="19" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="K6" s="10" t="s">
         <v>20</v>
@@ -4181,34 +4232,34 @@
         <v>3</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C7" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H7" s="10" t="s">
         <v>6</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="J7" s="19" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="56">
@@ -4216,31 +4267,31 @@
         <v>4</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C8" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H8" s="10" t="s">
         <v>7</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="J8" s="19" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="K8" s="10"/>
     </row>
@@ -4249,31 +4300,31 @@
         <v>5</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C9" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H9" s="10" t="s">
         <v>8</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="J9" s="19" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="K9" s="10"/>
     </row>
@@ -4282,104 +4333,104 @@
         <v>6</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C10" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H10" s="10" t="s">
         <v>9</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="J10" s="19" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="70">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="84">
       <c r="A11" s="9">
         <v>7</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F11" s="19" t="s">
         <v>21</v>
       </c>
       <c r="G11" s="46" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H11" s="10" t="s">
         <v>0</v>
       </c>
       <c r="I11" s="23" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="J11" s="23" t="s">
-        <v>472</v>
+        <v>492</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="56">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="70">
       <c r="A12" s="9">
         <v>8</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G12" s="46" t="s">
         <v>21</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I12" s="23" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="J12" s="23" t="s">
-        <v>473</v>
+        <v>493</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="42">
@@ -4387,27 +4438,27 @@
         <v>9</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
       <c r="E13" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>4</v>
       </c>
       <c r="G13" s="32" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H13" s="10" t="s">
         <v>22</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="K13" s="10"/>
     </row>
@@ -4416,31 +4467,31 @@
         <v>10</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F14" s="27" t="s">
         <v>5</v>
       </c>
       <c r="G14" s="27" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H14" s="26" t="s">
         <v>22</v>
       </c>
       <c r="I14" s="23" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="K14" s="10"/>
     </row>
@@ -4449,34 +4500,34 @@
         <v>11</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>24</v>
       </c>
       <c r="G15" s="46" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H15" s="10" t="s">
         <v>2</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="42">
@@ -4484,29 +4535,29 @@
         <v>12</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>29</v>
       </c>
       <c r="D16" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="E16" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="F16" s="10" t="s">
+      <c r="G16" s="10" t="s">
         <v>143</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>144</v>
       </c>
       <c r="H16" s="10"/>
       <c r="I16" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="K16" s="10" t="s">
         <v>25</v>
@@ -4517,7 +4568,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C17" s="28" t="s">
         <v>29</v>
@@ -4528,16 +4579,16 @@
         <v>3</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="H17" s="69" t="s">
-        <v>456</v>
+        <v>220</v>
+      </c>
+      <c r="H17" s="62" t="s">
+        <v>453</v>
       </c>
       <c r="I17" s="46" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="K17" s="46"/>
     </row>
@@ -4546,7 +4597,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C18" s="28" t="s">
         <v>19</v>
@@ -4554,22 +4605,22 @@
       <c r="D18" s="30"/>
       <c r="E18" s="47"/>
       <c r="F18" s="46" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H18" s="45" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="I18" s="46" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="K18" s="46" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="42">
@@ -4577,60 +4628,60 @@
         <v>15</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C19" s="30" t="s">
         <v>29</v>
       </c>
       <c r="D19" s="30"/>
       <c r="E19" s="47" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H19" s="46"/>
       <c r="I19" s="46" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>461</v>
+        <v>488</v>
       </c>
       <c r="K19" s="45" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="56">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="70">
       <c r="A20" s="21">
         <v>16</v>
       </c>
       <c r="B20" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="C20" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="C20" s="20" t="s">
-        <v>193</v>
-      </c>
       <c r="D20" s="28" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="G20" s="24" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H20" s="13"/>
       <c r="I20" s="19" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="J20" s="13" t="s">
-        <v>477</v>
+        <v>491</v>
       </c>
       <c r="K20" s="13"/>
     </row>
@@ -4639,32 +4690,32 @@
         <v>17</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C21" s="20">
         <v>8</v>
       </c>
       <c r="D21" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" s="24" t="s">
+        <v>398</v>
+      </c>
+      <c r="G21" s="24" t="s">
         <v>194</v>
-      </c>
-      <c r="E21" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="F21" s="24" t="s">
-        <v>400</v>
-      </c>
-      <c r="G21" s="24" t="s">
-        <v>195</v>
       </c>
       <c r="H21" s="13"/>
       <c r="I21" s="13" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="J21" s="19" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="K21" s="13" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="22" customFormat="1" ht="56">
@@ -4672,30 +4723,30 @@
         <v>18</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H22" s="13"/>
       <c r="I22" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J22" s="19"/>
       <c r="K22" s="13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="28">
@@ -4703,30 +4754,30 @@
         <v>19</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C23" s="20">
         <v>3</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F23" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G23" s="24" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J23" s="22"/>
       <c r="K23" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:11" s="22" customFormat="1" ht="70">
@@ -4734,29 +4785,29 @@
         <v>20</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C24" s="20">
         <v>5</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F24" s="19" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H24" s="13"/>
       <c r="I24" s="13" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="J24" s="13" t="s">
-        <v>439</v>
+        <v>496</v>
       </c>
       <c r="K24" s="13"/>
     </row>
@@ -4765,30 +4816,30 @@
         <v>21</v>
       </c>
       <c r="B25" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F25" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="C25" s="20" t="s">
-        <v>252</v>
-      </c>
-      <c r="D25" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="E25" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="F25" s="19" t="s">
-        <v>81</v>
-      </c>
       <c r="G25" s="24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="51" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J25" s="22"/>
       <c r="K25" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:11" s="6" customFormat="1" ht="84">
@@ -4796,32 +4847,32 @@
         <v>22</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C26" s="20" t="s">
         <v>27</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F26" s="19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G26" s="24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H26" s="13"/>
       <c r="I26" s="13" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="J26" s="13" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="K26" s="13" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="112">
@@ -4829,30 +4880,30 @@
         <v>23</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D27" s="20"/>
       <c r="E27" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F27" s="19" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G27" s="19" t="s">
         <v>23</v>
       </c>
       <c r="H27" s="13"/>
       <c r="I27" s="19" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="J27" s="19" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K27" s="13" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="70">
@@ -4860,29 +4911,29 @@
         <v>24</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C28" s="14" t="s">
         <v>29</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F28" s="19" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H28" s="13"/>
       <c r="I28" s="19" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="J28" s="13" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="K28" s="13"/>
     </row>
@@ -4891,32 +4942,32 @@
         <v>25</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C29" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E29" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F29" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G29" s="24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H29" s="13"/>
       <c r="I29" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J29" s="19" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="K29" s="19" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="28">
@@ -4924,32 +4975,32 @@
         <v>26</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C30" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E30" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F30" s="19" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H30" s="13"/>
       <c r="I30" s="19" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="J30" s="19" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="K30" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="28">
@@ -4957,29 +5008,29 @@
         <v>27</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C31" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D31" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="G31" s="12" t="s">
         <v>196</v>
-      </c>
-      <c r="E31" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="F31" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="G31" s="12" t="s">
-        <v>197</v>
       </c>
       <c r="H31" s="13"/>
       <c r="I31" s="13" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="J31" s="19" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="K31" s="13"/>
     </row>
@@ -4988,30 +5039,30 @@
         <v>28</v>
       </c>
       <c r="B32" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="C32" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="C32" s="28" t="s">
-        <v>102</v>
-      </c>
       <c r="D32" s="28" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E32" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F32" s="24" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="G32" s="24" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H32" s="13"/>
       <c r="I32" s="19"/>
       <c r="J32" s="19" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="K32" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="28">
@@ -5019,30 +5070,30 @@
         <v>29</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C33" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E33" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="G33" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H33" s="13"/>
       <c r="I33" s="25" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="J33" s="24"/>
       <c r="K33" s="13" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="28">
@@ -5050,30 +5101,30 @@
         <v>30</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C34" s="20" t="s">
         <v>29</v>
       </c>
       <c r="D34" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E34" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F34" s="25" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G34" s="24" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H34" s="24"/>
       <c r="I34" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J34" s="13"/>
       <c r="K34" s="24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="28">
@@ -5081,26 +5132,26 @@
         <v>31</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C35" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D35" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E35" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G35" s="24" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H35" s="13"/>
       <c r="I35" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J35" s="13"/>
       <c r="K35" s="13"/>
@@ -5110,32 +5161,32 @@
         <v>32</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C36" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="D36" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="D36" s="20" t="s">
-        <v>151</v>
-      </c>
       <c r="E36" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="H36" s="13"/>
       <c r="I36" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J36" s="12" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="28">
@@ -5143,27 +5194,27 @@
         <v>33</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C37" s="20" t="s">
         <v>30</v>
       </c>
       <c r="D37" s="28" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E37" s="19"/>
       <c r="F37" s="12" t="s">
         <v>26</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H37" s="13"/>
       <c r="I37" s="19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J37" s="13" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K37" s="13"/>
     </row>
@@ -5172,32 +5223,32 @@
         <v>34</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C38" s="28" t="s">
         <v>19</v>
       </c>
       <c r="D38" s="28" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H38" s="12"/>
       <c r="I38" s="12" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="J38" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="K38" s="12" t="s">
         <v>335</v>
-      </c>
-      <c r="K38" s="12" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="56">
@@ -5205,29 +5256,29 @@
         <v>35</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C39" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="D39" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="D39" s="20" t="s">
+      <c r="E39" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F39" s="19" t="s">
+        <v>402</v>
+      </c>
+      <c r="G39" s="12" t="s">
         <v>200</v>
-      </c>
-      <c r="E39" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="F39" s="19" t="s">
-        <v>404</v>
-      </c>
-      <c r="G39" s="12" t="s">
-        <v>201</v>
       </c>
       <c r="H39" s="13"/>
       <c r="I39" s="13" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="J39" s="13" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="K39" s="13"/>
     </row>
@@ -5236,32 +5287,32 @@
         <v>36</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C40" s="28" t="s">
         <v>30</v>
       </c>
       <c r="D40" s="28" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E40" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="H40" s="18"/>
       <c r="I40" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J40" s="12" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="K40" s="12" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="84">
@@ -5269,32 +5320,32 @@
         <v>37</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C41" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D41" s="48" t="s">
+        <v>348</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F41" s="13" t="s">
         <v>350</v>
       </c>
-      <c r="E41" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="F41" s="13" t="s">
-        <v>352</v>
-      </c>
       <c r="G41" s="12" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="H41" s="13"/>
       <c r="I41" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J41" s="13" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="K41" s="19" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="42" spans="1:11" s="22" customFormat="1" ht="28">
@@ -5308,23 +5359,23 @@
         <v>19</v>
       </c>
       <c r="D42" s="20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E42" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F42" s="19" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G42" s="19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H42" s="13"/>
       <c r="I42" s="13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J42" s="19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K42" s="13"/>
     </row>
@@ -5333,30 +5384,30 @@
         <v>39</v>
       </c>
       <c r="B43" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>406</v>
+      </c>
+      <c r="F43" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="G43" s="29" t="s">
         <v>153</v>
-      </c>
-      <c r="C43" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="D43" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="E43" s="13" t="s">
-        <v>408</v>
-      </c>
-      <c r="F43" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="G43" s="29" t="s">
-        <v>154</v>
       </c>
       <c r="H43" s="13"/>
       <c r="I43" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J43" s="13"/>
       <c r="K43" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="56">
@@ -5364,32 +5415,32 @@
         <v>40</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D44" s="20" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E44" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G44" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H44" s="13"/>
       <c r="I44" s="19" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="J44" s="13" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="K44" s="19" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="28">
@@ -5397,29 +5448,29 @@
         <v>41</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C45" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="D45" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="E45" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F45" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="D45" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="E45" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="F45" s="23" t="s">
-        <v>105</v>
-      </c>
       <c r="G45" s="19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H45" s="13"/>
       <c r="I45" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J45" s="13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K45" s="13"/>
     </row>
@@ -5428,29 +5479,29 @@
         <v>42</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D46" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E46" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F46" s="19" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G46" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H46" s="13"/>
       <c r="I46" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J46" s="13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K46" s="13"/>
     </row>
@@ -5459,25 +5510,25 @@
         <v>43</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C47" s="14"/>
       <c r="D47" s="14"/>
       <c r="E47" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F47" s="19" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G47" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H47" s="13"/>
       <c r="I47" s="19" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="J47" s="19" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="K47" s="13"/>
     </row>
@@ -5486,32 +5537,32 @@
         <v>44</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C48" s="20" t="s">
         <v>29</v>
       </c>
       <c r="D48" s="20" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E48" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F48" s="19" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G48" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H48" s="13"/>
       <c r="I48" s="19" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="J48" s="10" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="K48" s="13" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="42">
@@ -5519,29 +5570,29 @@
         <v>45</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C49" s="28" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D49" s="28" t="s">
+        <v>369</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F49" s="19" t="s">
+        <v>357</v>
+      </c>
+      <c r="G49" s="12" t="s">
         <v>371</v>
-      </c>
-      <c r="E49" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="F49" s="19" t="s">
-        <v>359</v>
-      </c>
-      <c r="G49" s="12" t="s">
-        <v>373</v>
       </c>
       <c r="H49" s="13"/>
       <c r="I49" s="13" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J49" s="13" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="K49" s="13"/>
     </row>
@@ -5550,27 +5601,27 @@
         <v>46</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C50" s="28" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D50" s="28"/>
       <c r="E50" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F50" s="19" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G50" s="12" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="H50" s="13"/>
       <c r="I50" s="19" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="J50" s="19" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K50" s="13"/>
     </row>
@@ -5586,17 +5637,17 @@
       </c>
       <c r="D51" s="28"/>
       <c r="E51" s="46" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G51" s="12" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H51" s="18"/>
       <c r="I51" s="12" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="J51" s="12"/>
       <c r="K51" s="18"/>
@@ -5613,17 +5664,17 @@
       </c>
       <c r="D52" s="28"/>
       <c r="E52" s="46" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F52" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G52" s="12" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H52" s="18"/>
       <c r="I52" s="12" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="J52" s="12"/>
       <c r="K52" s="18"/>
@@ -5633,27 +5684,27 @@
         <v>49</v>
       </c>
       <c r="B53" s="19" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C53" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D53" s="20"/>
       <c r="E53" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F53" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G53" s="19"/>
       <c r="H53" s="19" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I53" s="19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J53" s="19" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="K53" s="19"/>
     </row>
@@ -5662,27 +5713,27 @@
         <v>50</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C54" s="28" t="s">
         <v>19</v>
       </c>
       <c r="D54" s="28"/>
       <c r="E54" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F54" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G54" s="12"/>
       <c r="H54" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I54" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="J54" s="12" t="s">
         <v>228</v>
-      </c>
-      <c r="J54" s="12" t="s">
-        <v>229</v>
       </c>
       <c r="K54" s="12"/>
     </row>
@@ -5691,26 +5742,26 @@
         <v>51</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D55" s="20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E55" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F55" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G55" s="19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J55" s="19"/>
       <c r="K55" s="19"/>
@@ -5720,29 +5771,29 @@
         <v>52</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C56" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D56" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E56" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F56" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G56" s="19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="23" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="J56" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K56" s="19"/>
     </row>
@@ -5757,23 +5808,23 @@
         <v>19</v>
       </c>
       <c r="D57" s="20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E57" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F57" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G57" s="19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="23" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="J57" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K57" s="19"/>
     </row>
@@ -5788,23 +5839,23 @@
         <v>19</v>
       </c>
       <c r="D58" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E58" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F58" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G58" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="23" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="J58" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K58" s="19"/>
     </row>
@@ -5813,23 +5864,23 @@
         <v>55</v>
       </c>
       <c r="B59" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C59" s="20"/>
       <c r="D59" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E59" s="23"/>
       <c r="F59" s="19"/>
       <c r="G59" s="19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="J59" s="23" t="s">
         <v>95</v>
-      </c>
-      <c r="J59" s="23" t="s">
-        <v>96</v>
       </c>
       <c r="K59" s="19"/>
     </row>
@@ -5838,20 +5889,20 @@
         <v>56</v>
       </c>
       <c r="B60" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C60" s="20"/>
       <c r="D60" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E60" s="23"/>
       <c r="F60" s="19"/>
       <c r="G60" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J60" s="19"/>
       <c r="K60" s="19"/>
@@ -5861,20 +5912,20 @@
         <v>57</v>
       </c>
       <c r="B61" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C61" s="20"/>
       <c r="D61" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E61" s="23"/>
       <c r="F61" s="19"/>
       <c r="G61" s="19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J61" s="19"/>
       <c r="K61" s="19"/>
@@ -5884,29 +5935,29 @@
         <v>58</v>
       </c>
       <c r="B62" s="19" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C62" s="20" t="s">
         <v>30</v>
       </c>
       <c r="D62" s="20" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E62" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F62" s="19" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G62" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J62" s="19" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K62" s="23"/>
     </row>
@@ -5915,27 +5966,27 @@
         <v>59</v>
       </c>
       <c r="B63" s="19" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C63" s="20" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D63" s="20"/>
       <c r="E63" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="F63" s="19" t="s">
+        <v>361</v>
+      </c>
+      <c r="G63" s="23" t="s">
         <v>108</v>
-      </c>
-      <c r="F63" s="19" t="s">
-        <v>363</v>
-      </c>
-      <c r="G63" s="23" t="s">
-        <v>109</v>
       </c>
       <c r="H63" s="23"/>
       <c r="I63" s="23" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="J63" s="19" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K63" s="19"/>
     </row>
@@ -5944,24 +5995,24 @@
         <v>60</v>
       </c>
       <c r="B64" s="19" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C64" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D64" s="20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E64" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F64" s="23"/>
       <c r="G64" s="19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H64" s="23"/>
       <c r="I64" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J64" s="19"/>
       <c r="K64" s="19"/>
@@ -5977,24 +6028,24 @@
         <v>19</v>
       </c>
       <c r="D65" s="20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E65" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F65" s="23" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="G65" s="23" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H65" s="23"/>
       <c r="I65" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J65" s="19"/>
       <c r="K65" s="19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="66" spans="1:11" s="22" customFormat="1">
@@ -6002,22 +6053,22 @@
         <v>62</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C66" s="28"/>
       <c r="D66" s="28"/>
       <c r="E66" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F66" s="12" t="s">
         <v>26</v>
       </c>
       <c r="G66" s="12" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H66" s="12"/>
       <c r="I66" s="12" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="J66" s="12"/>
       <c r="K66" s="12"/>
@@ -6027,31 +6078,31 @@
         <v>63</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C67" s="28" t="s">
         <v>19</v>
       </c>
       <c r="D67" s="28" t="s">
+        <v>379</v>
+      </c>
+      <c r="E67" s="12" t="s">
         <v>381</v>
       </c>
-      <c r="E67" s="12" t="s">
+      <c r="F67" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="G67" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="H67" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="I67" s="12" t="s">
+        <v>382</v>
+      </c>
+      <c r="J67" s="12" t="s">
         <v>383</v>
-      </c>
-      <c r="F67" s="12" t="s">
-        <v>379</v>
-      </c>
-      <c r="G67" s="12" t="s">
-        <v>382</v>
-      </c>
-      <c r="H67" s="12" t="s">
-        <v>380</v>
-      </c>
-      <c r="I67" s="12" t="s">
-        <v>384</v>
-      </c>
-      <c r="J67" s="12" t="s">
-        <v>385</v>
       </c>
       <c r="K67" s="12"/>
     </row>
@@ -6060,24 +6111,24 @@
         <v>64</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C68" s="28" t="s">
         <v>27</v>
       </c>
       <c r="D68" s="28"/>
       <c r="E68" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F68" s="12" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="G68" s="12"/>
       <c r="H68" s="12"/>
       <c r="I68" s="12"/>
       <c r="J68" s="12"/>
       <c r="K68" s="12" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="69" spans="1:11" s="22" customFormat="1" ht="42">
@@ -6085,29 +6136,29 @@
         <v>65</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C69" s="28" t="s">
         <v>19</v>
       </c>
       <c r="D69" s="28"/>
       <c r="E69" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F69" s="12" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G69" s="12" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="H69" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="I69" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="J69" s="12" t="s">
         <v>397</v>
-      </c>
-      <c r="I69" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="J69" s="12" t="s">
-        <v>399</v>
       </c>
       <c r="K69" s="12"/>
     </row>
@@ -6116,29 +6167,29 @@
         <v>66</v>
       </c>
       <c r="B70" s="24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C70" s="58" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D70" s="58"/>
       <c r="E70" s="24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F70" s="24" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G70" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H70" s="59" t="s">
+        <v>391</v>
+      </c>
+      <c r="I70" s="24" t="s">
+        <v>339</v>
+      </c>
+      <c r="J70" s="24" t="s">
         <v>393</v>
-      </c>
-      <c r="I70" s="24" t="s">
-        <v>341</v>
-      </c>
-      <c r="J70" s="24" t="s">
-        <v>395</v>
       </c>
       <c r="K70" s="59"/>
     </row>
@@ -6150,447 +6201,438 @@
         <v>33</v>
       </c>
       <c r="C71" s="28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D71" s="28" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E71" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F71" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G71" s="12" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="H71" s="12"/>
       <c r="I71" s="12" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="J71" s="12" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="K71" s="18"/>
     </row>
     <row r="72" spans="1:11" s="49" customFormat="1">
-      <c r="A72" s="33"/>
+      <c r="A72" s="70">
+        <v>68</v>
+      </c>
       <c r="B72" s="36" t="s">
         <v>33</v>
       </c>
       <c r="C72" s="35"/>
       <c r="D72" s="35"/>
-      <c r="E72" s="36"/>
+      <c r="E72" s="36" t="s">
+        <v>55</v>
+      </c>
       <c r="F72" s="36"/>
       <c r="G72" s="36"/>
       <c r="H72" s="36"/>
       <c r="I72" s="36"/>
       <c r="J72" s="36" t="s">
-        <v>53</v>
+        <v>494</v>
       </c>
       <c r="K72" s="36"/>
     </row>
     <row r="73" spans="1:11" s="49" customFormat="1">
-      <c r="A73" s="33"/>
+      <c r="A73" s="70">
+        <v>69</v>
+      </c>
       <c r="B73" s="36" t="s">
         <v>33</v>
       </c>
       <c r="C73" s="35"/>
       <c r="D73" s="35"/>
-      <c r="E73" s="36"/>
+      <c r="E73" s="36" t="s">
+        <v>55</v>
+      </c>
       <c r="F73" s="36"/>
       <c r="G73" s="36"/>
       <c r="H73" s="36"/>
       <c r="I73" s="36"/>
       <c r="J73" s="36" t="s">
-        <v>53</v>
+        <v>495</v>
       </c>
       <c r="K73" s="36"/>
     </row>
     <row r="74" spans="1:11" s="22" customFormat="1" ht="28">
-      <c r="A74" s="41"/>
+      <c r="A74" s="70">
+        <v>70</v>
+      </c>
       <c r="B74" s="42" t="s">
-        <v>107</v>
-      </c>
-      <c r="C74" s="43"/>
+        <v>280</v>
+      </c>
+      <c r="C74" s="43" t="s">
+        <v>19</v>
+      </c>
       <c r="D74" s="43"/>
       <c r="E74" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="F74" s="42"/>
-      <c r="G74" s="42" t="s">
-        <v>318</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="F74" s="42" t="s">
+        <v>281</v>
+      </c>
+      <c r="G74" s="34"/>
       <c r="H74" s="42"/>
-      <c r="I74" s="61" t="s">
-        <v>392</v>
+      <c r="I74" s="42" t="s">
+        <v>311</v>
       </c>
       <c r="J74" s="42" t="s">
-        <v>396</v>
+        <v>490</v>
       </c>
       <c r="K74" s="42"/>
     </row>
-    <row r="75" spans="1:11" s="22" customFormat="1">
+    <row r="75" spans="1:11" s="22" customFormat="1" ht="28">
       <c r="A75" s="41"/>
       <c r="B75" s="42" t="s">
-        <v>282</v>
-      </c>
-      <c r="C75" s="43" t="s">
-        <v>30</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="C75" s="43"/>
       <c r="D75" s="43"/>
       <c r="E75" s="42" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F75" s="42"/>
       <c r="G75" s="42" t="s">
-        <v>109</v>
+        <v>316</v>
       </c>
       <c r="H75" s="42"/>
-      <c r="I75" s="42"/>
+      <c r="I75" s="61" t="s">
+        <v>390</v>
+      </c>
       <c r="J75" s="42" t="s">
-        <v>298</v>
-      </c>
-      <c r="K75" s="42" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" s="22" customFormat="1" ht="28">
+        <v>394</v>
+      </c>
+      <c r="K75" s="42"/>
+    </row>
+    <row r="76" spans="1:11" s="22" customFormat="1">
       <c r="A76" s="41"/>
       <c r="B76" s="42" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C76" s="43" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D76" s="43"/>
       <c r="E76" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="F76" s="42" t="s">
+      <c r="F76" s="42"/>
+      <c r="G76" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="H76" s="42"/>
+      <c r="I76" s="42"/>
+      <c r="J76" s="42" t="s">
         <v>296</v>
       </c>
-      <c r="G76" s="42" t="s">
-        <v>109</v>
-      </c>
-      <c r="H76" s="36"/>
-      <c r="I76" s="42" t="s">
-        <v>295</v>
-      </c>
-      <c r="J76" s="42" t="s">
-        <v>294</v>
-      </c>
-      <c r="K76" s="36"/>
-    </row>
-    <row r="77" spans="1:11" s="22" customFormat="1" ht="56">
+      <c r="K76" s="42" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" s="22" customFormat="1" ht="28">
       <c r="A77" s="41"/>
       <c r="B77" s="42" t="s">
-        <v>107</v>
+        <v>280</v>
       </c>
       <c r="C77" s="43" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D77" s="43"/>
       <c r="E77" s="42" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F77" s="42" t="s">
-        <v>343</v>
+        <v>294</v>
       </c>
       <c r="G77" s="42" t="s">
-        <v>109</v>
-      </c>
-      <c r="H77" s="42"/>
+        <v>108</v>
+      </c>
+      <c r="H77" s="36"/>
       <c r="I77" s="42" t="s">
-        <v>344</v>
+        <v>293</v>
       </c>
       <c r="J77" s="42" t="s">
-        <v>346</v>
-      </c>
-      <c r="K77" s="42" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" s="22" customFormat="1" ht="28">
+        <v>292</v>
+      </c>
+      <c r="K77" s="36"/>
+    </row>
+    <row r="78" spans="1:11" s="22" customFormat="1" ht="56">
       <c r="A78" s="41"/>
       <c r="B78" s="42" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C78" s="43" t="s">
         <v>19</v>
       </c>
       <c r="D78" s="43"/>
-      <c r="E78" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="F78" s="42"/>
-      <c r="G78" s="34"/>
+      <c r="E78" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="F78" s="42" t="s">
+        <v>341</v>
+      </c>
+      <c r="G78" s="42" t="s">
+        <v>108</v>
+      </c>
       <c r="H78" s="42"/>
       <c r="I78" s="42" t="s">
-        <v>321</v>
+        <v>342</v>
       </c>
       <c r="J78" s="42" t="s">
-        <v>320</v>
-      </c>
-      <c r="K78" s="42"/>
-    </row>
-    <row r="79" spans="1:11" s="22" customFormat="1">
+        <v>344</v>
+      </c>
+      <c r="K78" s="42" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" s="22" customFormat="1" ht="28">
       <c r="A79" s="41"/>
       <c r="B79" s="42" t="s">
-        <v>107</v>
-      </c>
-      <c r="C79" s="43"/>
+        <v>106</v>
+      </c>
+      <c r="C79" s="43" t="s">
+        <v>19</v>
+      </c>
       <c r="D79" s="43"/>
-      <c r="E79" s="34"/>
+      <c r="E79" s="34" t="s">
+        <v>55</v>
+      </c>
       <c r="F79" s="42"/>
       <c r="G79" s="34"/>
       <c r="H79" s="42"/>
-      <c r="I79" s="34" t="s">
-        <v>292</v>
-      </c>
-      <c r="J79" s="34" t="s">
-        <v>278</v>
+      <c r="I79" s="42" t="s">
+        <v>319</v>
+      </c>
+      <c r="J79" s="42" t="s">
+        <v>318</v>
       </c>
       <c r="K79" s="42"/>
     </row>
-    <row r="80" spans="1:11" s="22" customFormat="1" ht="112">
-      <c r="A80" s="54"/>
-      <c r="B80" s="37" t="s">
-        <v>107</v>
-      </c>
-      <c r="C80" s="55" t="s">
+    <row r="80" spans="1:11" s="22" customFormat="1">
+      <c r="A80" s="41"/>
+      <c r="B80" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="C80" s="43"/>
+      <c r="D80" s="43"/>
+      <c r="E80" s="34"/>
+      <c r="F80" s="42"/>
+      <c r="G80" s="34"/>
+      <c r="H80" s="42"/>
+      <c r="I80" s="34" t="s">
+        <v>290</v>
+      </c>
+      <c r="J80" s="34" t="s">
+        <v>277</v>
+      </c>
+      <c r="K80" s="42"/>
+    </row>
+    <row r="81" spans="1:11" s="22" customFormat="1" ht="112">
+      <c r="A81" s="54"/>
+      <c r="B81" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="D80" s="55"/>
-      <c r="E80" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="F80" s="42" t="s">
-        <v>274</v>
-      </c>
-      <c r="G80" s="34" t="s">
-        <v>109</v>
-      </c>
-      <c r="H80" s="36"/>
-      <c r="I80" s="42" t="s">
+      <c r="D81" s="55"/>
+      <c r="E81" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="F81" s="42" t="s">
         <v>273</v>
       </c>
-      <c r="J80" s="42" t="s">
+      <c r="G81" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="H81" s="36"/>
+      <c r="I81" s="42" t="s">
         <v>272</v>
       </c>
-      <c r="K80" s="36" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" s="22" customFormat="1" ht="28">
-      <c r="A81" s="41"/>
-      <c r="B81" s="42" t="s">
-        <v>107</v>
-      </c>
-      <c r="C81" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="D81" s="43"/>
-      <c r="E81" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="F81" s="42"/>
-      <c r="G81" s="34"/>
-      <c r="H81" s="42"/>
-      <c r="I81" s="42" t="s">
-        <v>285</v>
-      </c>
       <c r="J81" s="42" t="s">
-        <v>286</v>
-      </c>
-      <c r="K81" s="42"/>
-    </row>
-    <row r="82" spans="1:11" s="22" customFormat="1">
+        <v>271</v>
+      </c>
+      <c r="K81" s="36" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" s="22" customFormat="1" ht="28">
       <c r="A82" s="41"/>
       <c r="B82" s="42" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C82" s="43" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D82" s="43"/>
       <c r="E82" s="34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F82" s="42"/>
       <c r="G82" s="34"/>
       <c r="H82" s="42"/>
       <c r="I82" s="42" t="s">
-        <v>311</v>
+        <v>283</v>
       </c>
       <c r="J82" s="42" t="s">
-        <v>286</v>
-      </c>
-      <c r="K82" s="34" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" s="22" customFormat="1" ht="28">
+        <v>284</v>
+      </c>
+      <c r="K82" s="42"/>
+    </row>
+    <row r="83" spans="1:11" s="22" customFormat="1">
       <c r="A83" s="41"/>
       <c r="B83" s="42" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C83" s="43" t="s">
         <v>19</v>
       </c>
       <c r="D83" s="43"/>
       <c r="E83" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="F83" s="42" t="s">
-        <v>277</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="F83" s="42"/>
       <c r="G83" s="34"/>
       <c r="H83" s="42"/>
       <c r="I83" s="42" t="s">
-        <v>275</v>
+        <v>309</v>
       </c>
       <c r="J83" s="42" t="s">
-        <v>276</v>
-      </c>
-      <c r="K83" s="42"/>
-    </row>
-    <row r="84" spans="1:11" s="22" customFormat="1">
+        <v>284</v>
+      </c>
+      <c r="K83" s="34" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" s="22" customFormat="1" ht="28">
       <c r="A84" s="41"/>
       <c r="B84" s="42" t="s">
-        <v>107</v>
-      </c>
-      <c r="C84" s="43"/>
+        <v>106</v>
+      </c>
+      <c r="C84" s="43" t="s">
+        <v>19</v>
+      </c>
       <c r="D84" s="43"/>
-      <c r="E84" s="34"/>
-      <c r="F84" s="42"/>
+      <c r="E84" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="F84" s="42" t="s">
+        <v>276</v>
+      </c>
       <c r="G84" s="34"/>
       <c r="H84" s="42"/>
-      <c r="I84" s="34" t="s">
-        <v>279</v>
-      </c>
-      <c r="J84" s="34" t="s">
-        <v>278</v>
+      <c r="I84" s="42" t="s">
+        <v>274</v>
+      </c>
+      <c r="J84" s="42" t="s">
+        <v>275</v>
       </c>
       <c r="K84" s="42"/>
     </row>
-    <row r="85" spans="1:11" s="22" customFormat="1" ht="28">
+    <row r="85" spans="1:11" s="22" customFormat="1">
       <c r="A85" s="41"/>
       <c r="B85" s="42" t="s">
-        <v>107</v>
-      </c>
-      <c r="C85" s="43" t="s">
-        <v>19</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="C85" s="43"/>
       <c r="D85" s="43"/>
       <c r="E85" s="34"/>
       <c r="F85" s="42"/>
       <c r="G85" s="34"/>
       <c r="H85" s="42"/>
-      <c r="I85" s="42" t="s">
-        <v>312</v>
+      <c r="I85" s="34" t="s">
+        <v>278</v>
       </c>
       <c r="J85" s="34" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="K85" s="42"/>
     </row>
     <row r="86" spans="1:11" s="22" customFormat="1" ht="28">
       <c r="A86" s="41"/>
       <c r="B86" s="42" t="s">
-        <v>282</v>
+        <v>106</v>
       </c>
       <c r="C86" s="43" t="s">
         <v>19</v>
       </c>
       <c r="D86" s="43"/>
-      <c r="E86" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="F86" s="42" t="s">
-        <v>283</v>
-      </c>
+      <c r="E86" s="34"/>
+      <c r="F86" s="42"/>
       <c r="G86" s="34"/>
       <c r="H86" s="42"/>
       <c r="I86" s="42" t="s">
-        <v>313</v>
-      </c>
-      <c r="J86" s="42" t="s">
-        <v>280</v>
+        <v>310</v>
+      </c>
+      <c r="J86" s="34" t="s">
+        <v>279</v>
       </c>
       <c r="K86" s="42"/>
     </row>
-    <row r="87" spans="1:11" s="22" customFormat="1">
-      <c r="A87" s="41"/>
-      <c r="B87" s="42" t="s">
-        <v>282</v>
-      </c>
-      <c r="C87" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="D87" s="43"/>
-      <c r="E87" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="F87" s="42" t="s">
-        <v>283</v>
-      </c>
-      <c r="G87" s="34"/>
-      <c r="H87" s="42"/>
-      <c r="I87" s="42" t="s">
-        <v>314</v>
-      </c>
-      <c r="J87" s="42" t="s">
-        <v>284</v>
-      </c>
-      <c r="K87" s="42"/>
-    </row>
-    <row r="88" spans="1:11" s="22" customFormat="1" ht="28">
+    <row r="88" spans="1:11" s="22" customFormat="1">
       <c r="A88" s="41"/>
       <c r="B88" s="42" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C88" s="43" t="s">
-        <v>462</v>
+        <v>19</v>
       </c>
       <c r="D88" s="43"/>
       <c r="E88" s="34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F88" s="42" t="s">
-        <v>463</v>
+        <v>281</v>
       </c>
       <c r="G88" s="34"/>
       <c r="H88" s="42"/>
-      <c r="I88" s="42"/>
+      <c r="I88" s="42" t="s">
+        <v>312</v>
+      </c>
       <c r="J88" s="42" t="s">
-        <v>464</v>
+        <v>282</v>
       </c>
       <c r="K88" s="42"/>
     </row>
-    <row r="89" spans="1:11" s="22" customFormat="1">
-      <c r="A89" s="33"/>
-      <c r="B89" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="C89" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="D89" s="35"/>
-      <c r="E89" s="36"/>
-      <c r="F89" s="36"/>
-      <c r="G89" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="H89" s="36"/>
-      <c r="I89" s="36"/>
-      <c r="J89" s="36"/>
-      <c r="K89" s="36"/>
+    <row r="89" spans="1:11" s="22" customFormat="1" ht="28">
+      <c r="A89" s="41"/>
+      <c r="B89" s="42" t="s">
+        <v>280</v>
+      </c>
+      <c r="C89" s="43" t="s">
+        <v>458</v>
+      </c>
+      <c r="D89" s="43"/>
+      <c r="E89" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="F89" s="42" t="s">
+        <v>459</v>
+      </c>
+      <c r="G89" s="34"/>
+      <c r="H89" s="42"/>
+      <c r="I89" s="42"/>
+      <c r="J89" s="42" t="s">
+        <v>489</v>
+      </c>
+      <c r="K89" s="42"/>
     </row>
     <row r="90" spans="1:11" s="22" customFormat="1">
       <c r="A90" s="33"/>
       <c r="B90" s="34" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C90" s="35" t="s">
         <v>30</v>
@@ -6606,64 +6648,62 @@
       <c r="J90" s="36"/>
       <c r="K90" s="36"/>
     </row>
-    <row r="91" spans="1:11" ht="42">
+    <row r="91" spans="1:11" s="22" customFormat="1">
       <c r="A91" s="33"/>
       <c r="B91" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="C91" s="35"/>
+        <v>106</v>
+      </c>
+      <c r="C91" s="35" t="s">
+        <v>30</v>
+      </c>
       <c r="D91" s="35"/>
       <c r="E91" s="36"/>
       <c r="F91" s="36"/>
-      <c r="G91" s="36"/>
+      <c r="G91" s="36" t="s">
+        <v>31</v>
+      </c>
       <c r="H91" s="36"/>
-      <c r="I91" s="36" t="s">
-        <v>262</v>
-      </c>
-      <c r="J91" s="36" t="s">
-        <v>261</v>
-      </c>
+      <c r="I91" s="36"/>
+      <c r="J91" s="36"/>
       <c r="K91" s="36"/>
     </row>
-    <row r="92" spans="1:11">
+    <row r="92" spans="1:11" ht="42">
       <c r="A92" s="33"/>
-      <c r="B92" s="34"/>
+      <c r="B92" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="C92" s="35"/>
       <c r="D92" s="35"/>
       <c r="E92" s="36"/>
-      <c r="F92" s="36" t="s">
-        <v>412</v>
-      </c>
+      <c r="F92" s="36"/>
       <c r="G92" s="36"/>
       <c r="H92" s="36"/>
-      <c r="I92" s="36"/>
+      <c r="I92" s="36" t="s">
+        <v>261</v>
+      </c>
       <c r="J92" s="36" t="s">
-        <v>413</v>
+        <v>260</v>
       </c>
       <c r="K92" s="36"/>
     </row>
-    <row r="93" spans="1:11" ht="28">
-      <c r="A93" s="41"/>
-      <c r="B93" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="C93" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="D93" s="43"/>
-      <c r="E93" s="34"/>
-      <c r="F93" s="42"/>
-      <c r="G93" s="42" t="s">
-        <v>366</v>
-      </c>
-      <c r="H93" s="42"/>
-      <c r="I93" s="42"/>
-      <c r="J93" s="42"/>
-      <c r="K93" s="42" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" s="50" customFormat="1" ht="98">
+    <row r="93" spans="1:11">
+      <c r="A93" s="33"/>
+      <c r="B93" s="34"/>
+      <c r="C93" s="35"/>
+      <c r="D93" s="35"/>
+      <c r="E93" s="36"/>
+      <c r="F93" s="36" t="s">
+        <v>410</v>
+      </c>
+      <c r="G93" s="36"/>
+      <c r="H93" s="36"/>
+      <c r="I93" s="36"/>
+      <c r="J93" s="36" t="s">
+        <v>411</v>
+      </c>
+      <c r="K93" s="36"/>
+    </row>
+    <row r="94" spans="1:11" ht="28">
       <c r="A94" s="41"/>
       <c r="B94" s="42" t="s">
         <v>52</v>
@@ -6672,85 +6712,83 @@
         <v>19</v>
       </c>
       <c r="D94" s="43"/>
-      <c r="E94" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="F94" s="42" t="s">
-        <v>55</v>
-      </c>
+      <c r="E94" s="34"/>
+      <c r="F94" s="42"/>
       <c r="G94" s="42" t="s">
-        <v>220</v>
+        <v>364</v>
       </c>
       <c r="H94" s="42"/>
-      <c r="I94" s="34" t="s">
-        <v>218</v>
-      </c>
+      <c r="I94" s="42"/>
       <c r="J94" s="42"/>
       <c r="K94" s="42" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" s="49" customFormat="1">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" s="50" customFormat="1" ht="98">
       <c r="A95" s="41"/>
       <c r="B95" s="42" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C95" s="43" t="s">
         <v>19</v>
       </c>
       <c r="D95" s="43"/>
       <c r="E95" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="F95" s="42"/>
+        <v>55</v>
+      </c>
+      <c r="F95" s="42" t="s">
+        <v>54</v>
+      </c>
       <c r="G95" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H95" s="42"/>
-      <c r="I95" s="42"/>
-      <c r="J95" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="K95" s="42"/>
-    </row>
-    <row r="96" spans="1:11" s="50" customFormat="1">
+      <c r="I95" s="34" t="s">
+        <v>217</v>
+      </c>
+      <c r="J95" s="42"/>
+      <c r="K95" s="42" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" s="49" customFormat="1">
       <c r="A96" s="41"/>
       <c r="B96" s="42" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C96" s="43" t="s">
         <v>19</v>
       </c>
       <c r="D96" s="43"/>
       <c r="E96" s="42" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F96" s="42"/>
       <c r="G96" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H96" s="42"/>
       <c r="I96" s="42"/>
       <c r="J96" s="42" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K96" s="42"/>
     </row>
     <row r="97" spans="1:11" s="50" customFormat="1">
       <c r="A97" s="41"/>
       <c r="B97" s="42" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C97" s="43" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="D97" s="43"/>
       <c r="E97" s="42" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F97" s="42"/>
       <c r="G97" s="42" t="s">
-        <v>65</v>
+        <v>219</v>
       </c>
       <c r="H97" s="42"/>
       <c r="I97" s="42"/>
@@ -6762,244 +6800,254 @@
     <row r="98" spans="1:11" s="50" customFormat="1">
       <c r="A98" s="41"/>
       <c r="B98" s="42" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C98" s="43" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="D98" s="43"/>
       <c r="E98" s="42" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F98" s="42"/>
       <c r="G98" s="42" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H98" s="42"/>
       <c r="I98" s="42"/>
       <c r="J98" s="42" t="s">
-        <v>68</v>
-      </c>
-      <c r="K98" s="42" t="s">
         <v>67</v>
       </c>
+      <c r="K98" s="42"/>
     </row>
     <row r="99" spans="1:11" s="50" customFormat="1">
       <c r="A99" s="41"/>
       <c r="B99" s="42" t="s">
-        <v>234</v>
+        <v>65</v>
       </c>
       <c r="C99" s="43" t="s">
         <v>19</v>
       </c>
       <c r="D99" s="43"/>
-      <c r="E99" s="34" t="s">
-        <v>60</v>
+      <c r="E99" s="42" t="s">
+        <v>55</v>
       </c>
       <c r="F99" s="42"/>
       <c r="G99" s="42" t="s">
-        <v>232</v>
-      </c>
-      <c r="H99" s="42" t="s">
-        <v>233</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="H99" s="42"/>
       <c r="I99" s="42"/>
-      <c r="J99" s="42"/>
+      <c r="J99" s="42" t="s">
+        <v>67</v>
+      </c>
       <c r="K99" s="42" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" s="50" customFormat="1" ht="28">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" s="50" customFormat="1">
       <c r="A100" s="41"/>
       <c r="B100" s="42" t="s">
-        <v>73</v>
+        <v>233</v>
       </c>
       <c r="C100" s="43" t="s">
         <v>19</v>
       </c>
       <c r="D100" s="43"/>
-      <c r="E100" s="42" t="s">
-        <v>108</v>
-      </c>
-      <c r="F100" s="42" t="s">
-        <v>76</v>
-      </c>
+      <c r="E100" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="F100" s="42"/>
       <c r="G100" s="42" t="s">
-        <v>177</v>
+        <v>231</v>
       </c>
       <c r="H100" s="42" t="s">
-        <v>183</v>
+        <v>232</v>
       </c>
       <c r="I100" s="42"/>
-      <c r="J100" s="42" t="s">
-        <v>75</v>
-      </c>
+      <c r="J100" s="42"/>
       <c r="K100" s="42" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="101" spans="1:11" s="50" customFormat="1" ht="28">
       <c r="A101" s="41"/>
       <c r="B101" s="42" t="s">
-        <v>236</v>
+        <v>72</v>
       </c>
       <c r="C101" s="43" t="s">
         <v>19</v>
       </c>
       <c r="D101" s="43"/>
       <c r="E101" s="42" t="s">
-        <v>108</v>
-      </c>
-      <c r="F101" s="42"/>
+        <v>107</v>
+      </c>
+      <c r="F101" s="42" t="s">
+        <v>75</v>
+      </c>
       <c r="G101" s="42" t="s">
-        <v>232</v>
+        <v>176</v>
       </c>
       <c r="H101" s="42" t="s">
-        <v>235</v>
+        <v>182</v>
       </c>
       <c r="I101" s="42"/>
       <c r="J101" s="42" t="s">
-        <v>418</v>
-      </c>
-      <c r="K101" s="42"/>
+        <v>74</v>
+      </c>
+      <c r="K101" s="42" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="102" spans="1:11" s="50" customFormat="1" ht="28">
       <c r="A102" s="41"/>
       <c r="B102" s="42" t="s">
-        <v>329</v>
+        <v>235</v>
       </c>
       <c r="C102" s="43" t="s">
         <v>19</v>
       </c>
       <c r="D102" s="43"/>
       <c r="E102" s="42" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F102" s="42"/>
       <c r="G102" s="42" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H102" s="42" t="s">
-        <v>330</v>
+        <v>234</v>
       </c>
       <c r="I102" s="42"/>
       <c r="J102" s="42" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="K102" s="42"/>
     </row>
     <row r="103" spans="1:11" s="50" customFormat="1" ht="28">
       <c r="A103" s="41"/>
       <c r="B103" s="42" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C103" s="43" t="s">
         <v>19</v>
       </c>
       <c r="D103" s="43"/>
       <c r="E103" s="42" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F103" s="42"/>
       <c r="G103" s="42" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H103" s="42" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="I103" s="42"/>
       <c r="J103" s="42" t="s">
-        <v>416</v>
-      </c>
-      <c r="K103" s="42" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" s="50" customFormat="1" ht="182">
+        <v>415</v>
+      </c>
+      <c r="K103" s="42"/>
+    </row>
+    <row r="104" spans="1:11" s="50" customFormat="1" ht="28">
       <c r="A104" s="41"/>
       <c r="B104" s="42" t="s">
-        <v>184</v>
+        <v>326</v>
       </c>
       <c r="C104" s="43" t="s">
         <v>19</v>
       </c>
       <c r="D104" s="43"/>
       <c r="E104" s="42" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F104" s="42"/>
       <c r="G104" s="42" t="s">
-        <v>185</v>
+        <v>231</v>
       </c>
       <c r="H104" s="42" t="s">
-        <v>186</v>
-      </c>
-      <c r="I104" s="42" t="s">
-        <v>378</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="I104" s="42"/>
       <c r="J104" s="42" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="K104" s="42" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" s="50" customFormat="1">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" s="50" customFormat="1" ht="182">
       <c r="A105" s="41"/>
-      <c r="B105" s="42"/>
-      <c r="C105" s="43"/>
+      <c r="B105" s="42" t="s">
+        <v>183</v>
+      </c>
+      <c r="C105" s="43" t="s">
+        <v>19</v>
+      </c>
       <c r="D105" s="43"/>
-      <c r="E105" s="42"/>
+      <c r="E105" s="42" t="s">
+        <v>107</v>
+      </c>
       <c r="F105" s="42"/>
       <c r="G105" s="42" t="s">
+        <v>184</v>
+      </c>
+      <c r="H105" s="42" t="s">
+        <v>185</v>
+      </c>
+      <c r="I105" s="42" t="s">
+        <v>376</v>
+      </c>
+      <c r="J105" s="42" t="s">
+        <v>413</v>
+      </c>
+      <c r="K105" s="42" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" s="50" customFormat="1">
+      <c r="A106" s="41"/>
+      <c r="B106" s="42"/>
+      <c r="C106" s="43"/>
+      <c r="D106" s="43"/>
+      <c r="E106" s="42"/>
+      <c r="F106" s="42"/>
+      <c r="G106" s="42" t="s">
+        <v>329</v>
+      </c>
+      <c r="H106" s="34" t="s">
+        <v>330</v>
+      </c>
+      <c r="I106" s="42"/>
+      <c r="J106" s="42" t="s">
         <v>331</v>
       </c>
-      <c r="H105" s="34" t="s">
-        <v>332</v>
-      </c>
-      <c r="I105" s="42"/>
-      <c r="J105" s="42" t="s">
-        <v>333</v>
-      </c>
-      <c r="K105" s="42"/>
-    </row>
-    <row r="106" spans="1:11" s="49" customFormat="1" ht="42">
-      <c r="A106" s="33"/>
-      <c r="B106" s="42" t="s">
-        <v>222</v>
-      </c>
-      <c r="C106" s="35"/>
-      <c r="D106" s="35"/>
-      <c r="E106" s="36"/>
-      <c r="F106" s="36"/>
-      <c r="G106" s="36"/>
-      <c r="H106" s="36"/>
-      <c r="I106" s="36" t="s">
-        <v>376</v>
-      </c>
-      <c r="J106" s="36" t="s">
-        <v>377</v>
-      </c>
-      <c r="K106" s="36"/>
-    </row>
-    <row r="107" spans="1:11" s="49" customFormat="1">
-      <c r="A107" s="15"/>
-      <c r="B107" s="15"/>
-      <c r="C107" s="15"/>
-      <c r="D107" s="15"/>
-      <c r="E107" s="15"/>
-      <c r="F107" s="15"/>
-      <c r="G107" s="39"/>
-      <c r="H107" s="15"/>
-      <c r="I107" s="15"/>
-      <c r="J107" s="15"/>
-      <c r="K107" s="15"/>
-    </row>
-    <row r="108" spans="1:11">
+      <c r="K106" s="42"/>
+    </row>
+    <row r="107" spans="1:11" s="49" customFormat="1" ht="42">
+      <c r="A107" s="33"/>
+      <c r="B107" s="42" t="s">
+        <v>221</v>
+      </c>
+      <c r="C107" s="35"/>
+      <c r="D107" s="35"/>
+      <c r="E107" s="36"/>
+      <c r="F107" s="36"/>
+      <c r="G107" s="36"/>
+      <c r="H107" s="36"/>
+      <c r="I107" s="36" t="s">
+        <v>374</v>
+      </c>
+      <c r="J107" s="36" t="s">
+        <v>375</v>
+      </c>
+      <c r="K107" s="36"/>
+    </row>
+    <row r="108" spans="1:11" s="49" customFormat="1">
       <c r="A108" s="15"/>
       <c r="B108" s="15"/>
-      <c r="C108" s="16"/>
-      <c r="D108" s="16"/>
+      <c r="C108" s="15"/>
+      <c r="D108" s="15"/>
       <c r="E108" s="15"/>
       <c r="F108" s="15"/>
       <c r="G108" s="39"/>
@@ -7015,12 +7063,8 @@
       <c r="D109" s="16"/>
       <c r="E109" s="15"/>
       <c r="F109" s="15"/>
-      <c r="G109" s="52" t="s">
-        <v>35</v>
-      </c>
-      <c r="H109" s="53" t="s">
-        <v>36</v>
-      </c>
+      <c r="G109" s="39"/>
+      <c r="H109" s="15"/>
       <c r="I109" s="15"/>
       <c r="J109" s="15"/>
       <c r="K109" s="15"/>
@@ -7032,11 +7076,11 @@
       <c r="D110" s="16"/>
       <c r="E110" s="15"/>
       <c r="F110" s="15"/>
-      <c r="G110" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="H110" s="31" t="s">
-        <v>38</v>
+      <c r="G110" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="H110" s="53" t="s">
+        <v>36</v>
       </c>
       <c r="I110" s="15"/>
       <c r="J110" s="15"/>
@@ -7049,11 +7093,11 @@
       <c r="D111" s="16"/>
       <c r="E111" s="15"/>
       <c r="F111" s="15"/>
-      <c r="G111" s="39" t="s">
-        <v>149</v>
-      </c>
-      <c r="H111" s="15" t="s">
-        <v>39</v>
+      <c r="G111" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="H111" s="31" t="s">
+        <v>38</v>
       </c>
       <c r="I111" s="15"/>
       <c r="J111" s="15"/>
@@ -7067,10 +7111,10 @@
       <c r="E112" s="15"/>
       <c r="F112" s="15"/>
       <c r="G112" s="39" t="s">
-        <v>40</v>
+        <v>148</v>
       </c>
       <c r="H112" s="15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I112" s="15"/>
       <c r="J112" s="15"/>
@@ -7084,10 +7128,10 @@
       <c r="E113" s="15"/>
       <c r="F113" s="15"/>
       <c r="G113" s="39" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H113" s="15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I113" s="15"/>
       <c r="J113" s="15"/>
@@ -7101,10 +7145,10 @@
       <c r="E114" s="15"/>
       <c r="F114" s="15"/>
       <c r="G114" s="39" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H114" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I114" s="15"/>
       <c r="J114" s="15"/>
@@ -7118,10 +7162,10 @@
       <c r="E115" s="15"/>
       <c r="F115" s="15"/>
       <c r="G115" s="39" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H115" s="15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I115" s="15"/>
       <c r="J115" s="15"/>
@@ -7135,9 +7179,11 @@
       <c r="E116" s="15"/>
       <c r="F116" s="15"/>
       <c r="G116" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="H116" s="15"/>
+        <v>46</v>
+      </c>
+      <c r="H116" s="15" t="s">
+        <v>47</v>
+      </c>
       <c r="I116" s="15"/>
       <c r="J116" s="15"/>
       <c r="K116" s="15"/>
@@ -7150,11 +7196,9 @@
       <c r="E117" s="15"/>
       <c r="F117" s="15"/>
       <c r="G117" s="39" t="s">
-        <v>250</v>
-      </c>
-      <c r="H117" s="15" t="s">
-        <v>251</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="H117" s="15"/>
       <c r="I117" s="15"/>
       <c r="J117" s="15"/>
       <c r="K117" s="15"/>
@@ -7167,10 +7211,10 @@
       <c r="E118" s="15"/>
       <c r="F118" s="15"/>
       <c r="G118" s="39" t="s">
-        <v>49</v>
+        <v>249</v>
       </c>
       <c r="H118" s="15" t="s">
-        <v>113</v>
+        <v>250</v>
       </c>
       <c r="I118" s="15"/>
       <c r="J118" s="15"/>
@@ -7184,7 +7228,7 @@
       <c r="E119" s="15"/>
       <c r="F119" s="15"/>
       <c r="G119" s="39" t="s">
-        <v>111</v>
+        <v>49</v>
       </c>
       <c r="H119" s="15" t="s">
         <v>112</v>
@@ -7201,10 +7245,10 @@
       <c r="E120" s="15"/>
       <c r="F120" s="15"/>
       <c r="G120" s="39" t="s">
-        <v>148</v>
+        <v>110</v>
       </c>
       <c r="H120" s="15" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I120" s="15"/>
       <c r="J120" s="15"/>
@@ -7218,10 +7262,10 @@
       <c r="E121" s="15"/>
       <c r="F121" s="15"/>
       <c r="G121" s="39" t="s">
-        <v>50</v>
+        <v>147</v>
       </c>
       <c r="H121" s="15" t="s">
-        <v>51</v>
+        <v>109</v>
       </c>
       <c r="I121" s="15"/>
       <c r="J121" s="15"/>
@@ -7234,25 +7278,42 @@
       <c r="D122" s="16"/>
       <c r="E122" s="15"/>
       <c r="F122" s="15"/>
-      <c r="G122" s="39"/>
-      <c r="H122" s="15"/>
+      <c r="G122" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="H122" s="15" t="s">
+        <v>51</v>
+      </c>
       <c r="I122" s="15"/>
       <c r="J122" s="15"/>
       <c r="K122" s="15"/>
     </row>
     <row r="123" spans="1:11">
-      <c r="G123" s="39" t="s">
-        <v>114</v>
-      </c>
+      <c r="A123" s="15"/>
+      <c r="B123" s="15"/>
+      <c r="C123" s="16"/>
+      <c r="D123" s="16"/>
+      <c r="E123" s="15"/>
+      <c r="F123" s="15"/>
+      <c r="G123" s="39"/>
+      <c r="H123" s="15"/>
+      <c r="I123" s="15"/>
+      <c r="J123" s="15"/>
+      <c r="K123" s="15"/>
     </row>
     <row r="124" spans="1:11">
       <c r="G124" s="39" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="125" spans="1:11">
       <c r="G125" s="39" t="s">
-        <v>126</v>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
+      <c r="G126" s="39" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/inventory/INVENTORY OF PYU INSCRIPTIONS.xlsx
+++ b/inventory/INVENTORY OF PYU INSCRIPTIONS.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="24030"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26311"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arlogriffiths/Documents/git-repositories/pyu-inscriptions/inventory/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28380" windowHeight="12480"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25540" windowHeight="14520"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -1380,9 +1385,6 @@
     <t>Middleton 2005: 173.</t>
   </si>
   <si>
-    <t>Middleton 2005, App.58</t>
-  </si>
-  <si>
     <t>Middleton's statement that the inscription is in Pali is incorrect.</t>
   </si>
   <si>
@@ -2881,13 +2883,16 @@
       </rPr>
       <t>—Tun Aung Chain 2003: 1-4.</t>
     </r>
+  </si>
+  <si>
+    <t>Middleton 2005, App.58, pp. 173-4.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3032,6 +3037,12 @@
       <sz val="12"/>
       <color rgb="FF0091CE"/>
       <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -3526,6 +3537,9 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3547,245 +3561,247 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="231">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="220" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="222" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="224" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="226" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="228" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="230" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="215" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="217" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="219" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="221" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="223" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="225" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="227" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="230" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -4074,13 +4090,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:K126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.5" style="5" bestFit="1" customWidth="1"/>
@@ -4092,7 +4111,7 @@
     <col min="11" max="11" width="22.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18">
+    <row r="1" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>70</v>
       </c>
@@ -4101,72 +4120,72 @@
       <c r="D1" s="4"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:11">
-      <c r="B2" s="63" t="s">
-        <v>373</v>
-      </c>
-      <c r="C2" s="63"/>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B2" s="64" t="s">
+        <v>372</v>
+      </c>
+      <c r="C2" s="64"/>
       <c r="D2" s="4"/>
       <c r="E2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="66" t="s">
+      <c r="C3" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="66" t="s">
+      <c r="D3" s="67" t="s">
         <v>114</v>
       </c>
-      <c r="E3" s="68" t="s">
+      <c r="E3" s="69" t="s">
         <v>91</v>
       </c>
-      <c r="F3" s="69" t="s">
+      <c r="F3" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="64" t="s">
+      <c r="G3" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="64" t="s">
+      <c r="H3" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="64" t="s">
+      <c r="I3" s="65" t="s">
         <v>90</v>
       </c>
-      <c r="J3" s="64" t="s">
+      <c r="J3" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="64" t="s">
+      <c r="K3" s="65" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="65"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="65"/>
-    </row>
-    <row r="5" spans="1:11" ht="59">
+      <c r="B4" s="66"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
+    </row>
+    <row r="5" spans="1:11" ht="60" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <v>1</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C5" s="11">
         <v>2</v>
@@ -4187,14 +4206,14 @@
         <v>208</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="K5" s="10"/>
     </row>
-    <row r="6" spans="1:11" ht="70">
+    <row r="6" spans="1:11" ht="75" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <v>2</v>
       </c>
@@ -4218,16 +4237,16 @@
       </c>
       <c r="H6" s="10"/>
       <c r="I6" s="19" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="K6" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="84">
+    <row r="7" spans="1:11" ht="90" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <v>3</v>
       </c>
@@ -4253,16 +4272,16 @@
         <v>6</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="J7" s="19" t="s">
+        <v>431</v>
+      </c>
+      <c r="K7" s="10" t="s">
         <v>432</v>
       </c>
-      <c r="K7" s="10" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="56">
+    </row>
+    <row r="8" spans="1:11" ht="60" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <v>4</v>
       </c>
@@ -4288,14 +4307,14 @@
         <v>7</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="J8" s="19" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="K8" s="10"/>
     </row>
-    <row r="9" spans="1:11" ht="42">
+    <row r="9" spans="1:11" ht="45" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <v>5</v>
       </c>
@@ -4321,14 +4340,14 @@
         <v>8</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="J9" s="19" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="K9" s="10"/>
     </row>
-    <row r="10" spans="1:11" ht="70">
+    <row r="10" spans="1:11" ht="75" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <v>6</v>
       </c>
@@ -4339,7 +4358,7 @@
         <v>19</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E10" s="17" t="s">
         <v>55</v>
@@ -4354,16 +4373,16 @@
         <v>9</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="J10" s="19" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="K10" s="10" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="84">
+    <row r="11" spans="1:11" ht="90" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <v>7</v>
       </c>
@@ -4389,16 +4408,16 @@
         <v>0</v>
       </c>
       <c r="I11" s="23" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="J11" s="23" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="K11" s="10" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="70">
+    <row r="12" spans="1:11" ht="75" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <v>8</v>
       </c>
@@ -4424,16 +4443,16 @@
         <v>247</v>
       </c>
       <c r="I12" s="23" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="J12" s="23" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="K12" s="10" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="42">
+    <row r="13" spans="1:11" ht="45" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <v>9</v>
       </c>
@@ -4455,14 +4474,14 @@
         <v>22</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="K13" s="10"/>
     </row>
-    <row r="14" spans="1:11" ht="42">
+    <row r="14" spans="1:11" ht="45" x14ac:dyDescent="0.2">
       <c r="A14" s="9">
         <v>10</v>
       </c>
@@ -4488,14 +4507,14 @@
         <v>22</v>
       </c>
       <c r="I14" s="23" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="K14" s="10"/>
     </row>
-    <row r="15" spans="1:11" ht="56">
+    <row r="15" spans="1:11" ht="60" x14ac:dyDescent="0.2">
       <c r="A15" s="9">
         <v>11</v>
       </c>
@@ -4503,7 +4522,7 @@
         <v>81</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D15" s="28" t="s">
         <v>241</v>
@@ -4521,16 +4540,16 @@
         <v>2</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="42">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="45" x14ac:dyDescent="0.2">
       <c r="A16" s="9">
         <v>12</v>
       </c>
@@ -4557,13 +4576,13 @@
         <v>94</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="K16" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="42">
+    <row r="17" spans="1:11" ht="45" x14ac:dyDescent="0.2">
       <c r="A17" s="44">
         <v>13</v>
       </c>
@@ -4582,17 +4601,17 @@
         <v>220</v>
       </c>
       <c r="H17" s="62" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="I17" s="46" t="s">
+        <v>448</v>
+      </c>
+      <c r="J17" s="12" t="s">
         <v>449</v>
       </c>
-      <c r="J17" s="12" t="s">
-        <v>450</v>
-      </c>
       <c r="K17" s="46"/>
     </row>
-    <row r="18" spans="1:11" ht="266">
+    <row r="18" spans="1:11" ht="285" x14ac:dyDescent="0.2">
       <c r="A18" s="44">
         <v>14</v>
       </c>
@@ -4605,25 +4624,25 @@
       <c r="D18" s="30"/>
       <c r="E18" s="47"/>
       <c r="F18" s="46" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="G18" s="12" t="s">
         <v>220</v>
       </c>
       <c r="H18" s="45" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="I18" s="46" t="s">
+        <v>473</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>450</v>
+      </c>
+      <c r="K18" s="46" t="s">
         <v>474</v>
       </c>
-      <c r="J18" s="12" t="s">
-        <v>451</v>
-      </c>
-      <c r="K18" s="46" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="42">
+    </row>
+    <row r="19" spans="1:11" ht="45" x14ac:dyDescent="0.2">
       <c r="A19" s="44">
         <v>15</v>
       </c>
@@ -4638,23 +4657,23 @@
         <v>55</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G19" s="12" t="s">
         <v>220</v>
       </c>
       <c r="H19" s="46"/>
       <c r="I19" s="46" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K19" s="45" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="70">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="75" x14ac:dyDescent="0.2">
       <c r="A20" s="21">
         <v>16</v>
       </c>
@@ -4665,13 +4684,13 @@
         <v>192</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E20" s="19" t="s">
         <v>57</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G20" s="24" t="s">
         <v>160</v>
@@ -4681,11 +4700,11 @@
         <v>317</v>
       </c>
       <c r="J20" s="13" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="K20" s="13"/>
     </row>
-    <row r="21" spans="1:11" ht="42">
+    <row r="21" spans="1:11" ht="45" x14ac:dyDescent="0.2">
       <c r="A21" s="21">
         <v>17</v>
       </c>
@@ -4702,23 +4721,23 @@
         <v>55</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G21" s="24" t="s">
         <v>194</v>
       </c>
       <c r="H21" s="13"/>
       <c r="I21" s="13" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="J21" s="19" t="s">
         <v>324</v>
       </c>
       <c r="K21" s="13" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" s="22" customFormat="1" ht="56">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" s="22" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A22" s="21">
         <v>18</v>
       </c>
@@ -4726,7 +4745,7 @@
         <v>79</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D22" s="28" t="s">
         <v>236</v>
@@ -4735,7 +4754,7 @@
         <v>55</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G22" s="12" t="s">
         <v>242</v>
@@ -4749,12 +4768,12 @@
         <v>265</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="28">
+    <row r="23" spans="1:11" ht="30" x14ac:dyDescent="0.2">
       <c r="A23" s="21">
         <v>19</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C23" s="20">
         <v>3</v>
@@ -4780,7 +4799,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="22" customFormat="1" ht="70">
+    <row r="24" spans="1:11" s="22" customFormat="1" ht="75" x14ac:dyDescent="0.2">
       <c r="A24" s="21">
         <v>20</v>
       </c>
@@ -4804,14 +4823,14 @@
       </c>
       <c r="H24" s="13"/>
       <c r="I24" s="13" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="J24" s="13" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="K24" s="13"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="21">
         <v>21</v>
       </c>
@@ -4842,7 +4861,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="6" customFormat="1" ht="84">
+    <row r="26" spans="1:11" s="6" customFormat="1" ht="90" x14ac:dyDescent="0.2">
       <c r="A26" s="21">
         <v>22</v>
       </c>
@@ -4866,16 +4885,16 @@
       </c>
       <c r="H26" s="13"/>
       <c r="I26" s="13" t="s">
+        <v>460</v>
+      </c>
+      <c r="J26" s="13" t="s">
         <v>461</v>
       </c>
-      <c r="J26" s="13" t="s">
-        <v>462</v>
-      </c>
       <c r="K26" s="13" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="112">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="105" x14ac:dyDescent="0.2">
       <c r="A27" s="21">
         <v>23</v>
       </c>
@@ -4897,7 +4916,7 @@
       </c>
       <c r="H27" s="13"/>
       <c r="I27" s="19" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="J27" s="19" t="s">
         <v>244</v>
@@ -4906,7 +4925,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="70">
+    <row r="28" spans="1:11" ht="75" x14ac:dyDescent="0.2">
       <c r="A28" s="21">
         <v>24</v>
       </c>
@@ -4923,26 +4942,26 @@
         <v>58</v>
       </c>
       <c r="F28" s="19" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G28" s="12" t="s">
         <v>267</v>
       </c>
       <c r="H28" s="13"/>
       <c r="I28" s="19" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="J28" s="13" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="K28" s="13"/>
     </row>
-    <row r="29" spans="1:11" ht="70">
+    <row r="29" spans="1:11" ht="75" x14ac:dyDescent="0.2">
       <c r="A29" s="21">
         <v>25</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C29" s="20" t="s">
         <v>28</v>
@@ -4964,13 +4983,13 @@
         <v>215</v>
       </c>
       <c r="J29" s="19" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="K29" s="19" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="28">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="30" x14ac:dyDescent="0.2">
       <c r="A30" s="21">
         <v>26</v>
       </c>
@@ -4987,23 +5006,23 @@
         <v>55</v>
       </c>
       <c r="F30" s="19" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G30" s="12" t="s">
         <v>158</v>
       </c>
       <c r="H30" s="13"/>
       <c r="I30" s="19" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="J30" s="19" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="K30" s="13" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="28">
+    <row r="31" spans="1:11" ht="30" x14ac:dyDescent="0.2">
       <c r="A31" s="21">
         <v>27</v>
       </c>
@@ -5027,14 +5046,14 @@
       </c>
       <c r="H31" s="13"/>
       <c r="I31" s="13" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="J31" s="19" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="K31" s="13"/>
     </row>
-    <row r="32" spans="1:11" ht="42">
+    <row r="32" spans="1:11" ht="45" x14ac:dyDescent="0.2">
       <c r="A32" s="21">
         <v>28</v>
       </c>
@@ -5051,7 +5070,7 @@
         <v>55</v>
       </c>
       <c r="F32" s="24" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G32" s="24" t="s">
         <v>164</v>
@@ -5059,13 +5078,13 @@
       <c r="H32" s="13"/>
       <c r="I32" s="19"/>
       <c r="J32" s="19" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="K32" s="13" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="28">
+    <row r="33" spans="1:11" ht="30" x14ac:dyDescent="0.2">
       <c r="A33" s="21">
         <v>29</v>
       </c>
@@ -5082,7 +5101,7 @@
         <v>55</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G33" s="12" t="s">
         <v>165</v>
@@ -5093,15 +5112,15 @@
       </c>
       <c r="J33" s="24"/>
       <c r="K33" s="13" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="28">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="30" x14ac:dyDescent="0.2">
       <c r="A34" s="21">
         <v>30</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C34" s="20" t="s">
         <v>29</v>
@@ -5113,7 +5132,7 @@
         <v>55</v>
       </c>
       <c r="F34" s="25" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G34" s="24" t="s">
         <v>166</v>
@@ -5127,12 +5146,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="28">
+    <row r="35" spans="1:11" ht="30" x14ac:dyDescent="0.2">
       <c r="A35" s="21">
         <v>31</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C35" s="20" t="s">
         <v>19</v>
@@ -5156,7 +5175,7 @@
       <c r="J35" s="13"/>
       <c r="K35" s="13"/>
     </row>
-    <row r="36" spans="1:11" ht="42">
+    <row r="36" spans="1:11" ht="45" x14ac:dyDescent="0.2">
       <c r="A36" s="21">
         <v>32</v>
       </c>
@@ -5173,23 +5192,23 @@
         <v>55</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H36" s="13"/>
       <c r="I36" s="13" t="s">
         <v>94</v>
       </c>
       <c r="J36" s="12" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="28">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="30" x14ac:dyDescent="0.2">
       <c r="A37" s="21">
         <v>33</v>
       </c>
@@ -5214,16 +5233,16 @@
         <v>205</v>
       </c>
       <c r="J37" s="13" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K37" s="13"/>
     </row>
-    <row r="38" spans="1:11" ht="42">
+    <row r="38" spans="1:11" ht="45" x14ac:dyDescent="0.2">
       <c r="A38" s="44">
         <v>34</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C38" s="28" t="s">
         <v>19</v>
@@ -5242,16 +5261,16 @@
       </c>
       <c r="H38" s="12"/>
       <c r="I38" s="12" t="s">
-        <v>334</v>
+        <v>496</v>
       </c>
       <c r="J38" s="12" t="s">
         <v>333</v>
       </c>
       <c r="K38" s="12" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="56">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="45" x14ac:dyDescent="0.2">
       <c r="A39" s="21">
         <v>35</v>
       </c>
@@ -5268,7 +5287,7 @@
         <v>55</v>
       </c>
       <c r="F39" s="19" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G39" s="12" t="s">
         <v>200</v>
@@ -5282,73 +5301,73 @@
       </c>
       <c r="K39" s="13"/>
     </row>
-    <row r="40" spans="1:11" ht="56">
+    <row r="40" spans="1:11" ht="60" x14ac:dyDescent="0.2">
       <c r="A40" s="44">
         <v>36</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C40" s="28" t="s">
         <v>30</v>
       </c>
       <c r="D40" s="28" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E40" s="18" t="s">
         <v>55</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H40" s="18"/>
       <c r="I40" s="18" t="s">
         <v>94</v>
       </c>
       <c r="J40" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="K40" s="12" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="84">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="90" x14ac:dyDescent="0.2">
       <c r="A41" s="21">
         <v>37</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C41" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D41" s="48" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E41" s="13" t="s">
         <v>55</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G41" s="12" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H41" s="13"/>
       <c r="I41" s="13" t="s">
         <v>94</v>
       </c>
       <c r="J41" s="13" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K41" s="19" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" s="22" customFormat="1" ht="28">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A42" s="21">
         <v>38</v>
       </c>
@@ -5379,7 +5398,7 @@
       </c>
       <c r="K42" s="13"/>
     </row>
-    <row r="43" spans="1:11" ht="42">
+    <row r="43" spans="1:11" ht="45" x14ac:dyDescent="0.2">
       <c r="A43" s="21">
         <v>39</v>
       </c>
@@ -5393,7 +5412,7 @@
         <v>151</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F43" s="13" t="s">
         <v>105</v>
@@ -5410,7 +5429,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="56">
+    <row r="44" spans="1:11" ht="60" x14ac:dyDescent="0.2">
       <c r="A44" s="21">
         <v>40</v>
       </c>
@@ -5434,16 +5453,16 @@
       </c>
       <c r="H44" s="13"/>
       <c r="I44" s="19" t="s">
+        <v>483</v>
+      </c>
+      <c r="J44" s="13" t="s">
         <v>484</v>
-      </c>
-      <c r="J44" s="13" t="s">
-        <v>485</v>
       </c>
       <c r="K44" s="19" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="28">
+    <row r="45" spans="1:11" ht="30" x14ac:dyDescent="0.2">
       <c r="A45" s="21">
         <v>41</v>
       </c>
@@ -5474,7 +5493,7 @@
       </c>
       <c r="K45" s="13"/>
     </row>
-    <row r="46" spans="1:11" ht="42">
+    <row r="46" spans="1:11" ht="45" x14ac:dyDescent="0.2">
       <c r="A46" s="21">
         <v>42</v>
       </c>
@@ -5505,7 +5524,7 @@
       </c>
       <c r="K46" s="13"/>
     </row>
-    <row r="47" spans="1:11" ht="28">
+    <row r="47" spans="1:11" ht="30" x14ac:dyDescent="0.2">
       <c r="A47" s="21">
         <v>43</v>
       </c>
@@ -5525,19 +5544,19 @@
       </c>
       <c r="H47" s="13"/>
       <c r="I47" s="19" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="J47" s="19" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K47" s="13"/>
     </row>
-    <row r="48" spans="1:11" ht="56">
+    <row r="48" spans="1:11" ht="60" x14ac:dyDescent="0.2">
       <c r="A48" s="21">
         <v>44</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C48" s="20" t="s">
         <v>29</v>
@@ -5556,16 +5575,16 @@
       </c>
       <c r="H48" s="13"/>
       <c r="I48" s="19" t="s">
+        <v>485</v>
+      </c>
+      <c r="J48" s="10" t="s">
         <v>486</v>
-      </c>
-      <c r="J48" s="10" t="s">
-        <v>487</v>
       </c>
       <c r="K48" s="13" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="42">
+    <row r="49" spans="1:11" ht="45" x14ac:dyDescent="0.2">
       <c r="A49" s="9">
         <v>45</v>
       </c>
@@ -5573,30 +5592,30 @@
         <v>246</v>
       </c>
       <c r="C49" s="28" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D49" s="28" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E49" s="10" t="s">
         <v>59</v>
       </c>
       <c r="F49" s="19" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G49" s="12" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H49" s="13"/>
       <c r="I49" s="13" t="s">
         <v>270</v>
       </c>
       <c r="J49" s="13" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="K49" s="13"/>
     </row>
-    <row r="50" spans="1:11" ht="56">
+    <row r="50" spans="1:11" ht="60" x14ac:dyDescent="0.2">
       <c r="A50" s="9">
         <v>46</v>
       </c>
@@ -5614,7 +5633,7 @@
         <v>298</v>
       </c>
       <c r="G50" s="12" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H50" s="13"/>
       <c r="I50" s="19" t="s">
@@ -5625,7 +5644,7 @@
       </c>
       <c r="K50" s="13"/>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="56">
         <v>47</v>
       </c>
@@ -5643,16 +5662,16 @@
         <v>108</v>
       </c>
       <c r="G51" s="12" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H51" s="18"/>
       <c r="I51" s="12" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J51" s="12"/>
       <c r="K51" s="18"/>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="56">
         <v>48</v>
       </c>
@@ -5670,16 +5689,16 @@
         <v>108</v>
       </c>
       <c r="G52" s="12" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H52" s="18"/>
       <c r="I52" s="12" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J52" s="12"/>
       <c r="K52" s="18"/>
     </row>
-    <row r="53" spans="1:11" ht="28">
+    <row r="53" spans="1:11" ht="30" x14ac:dyDescent="0.2">
       <c r="A53" s="21">
         <v>49</v>
       </c>
@@ -5704,11 +5723,11 @@
         <v>222</v>
       </c>
       <c r="J53" s="19" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K53" s="19"/>
     </row>
-    <row r="54" spans="1:11" ht="28">
+    <row r="54" spans="1:11" ht="30" x14ac:dyDescent="0.2">
       <c r="A54" s="44">
         <v>50</v>
       </c>
@@ -5737,7 +5756,7 @@
       </c>
       <c r="K54" s="12"/>
     </row>
-    <row r="55" spans="1:11" ht="28">
+    <row r="55" spans="1:11" ht="30" x14ac:dyDescent="0.2">
       <c r="A55" s="21">
         <v>51</v>
       </c>
@@ -5766,7 +5785,7 @@
       <c r="J55" s="19"/>
       <c r="K55" s="19"/>
     </row>
-    <row r="56" spans="1:11" ht="28">
+    <row r="56" spans="1:11" ht="30" x14ac:dyDescent="0.2">
       <c r="A56" s="21">
         <v>52</v>
       </c>
@@ -5790,14 +5809,14 @@
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="23" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J56" s="19" t="s">
         <v>74</v>
       </c>
       <c r="K56" s="19"/>
     </row>
-    <row r="57" spans="1:11" s="22" customFormat="1" ht="28">
+    <row r="57" spans="1:11" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A57" s="21">
         <v>53</v>
       </c>
@@ -5821,14 +5840,14 @@
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="23" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J57" s="19" t="s">
         <v>74</v>
       </c>
       <c r="K57" s="19"/>
     </row>
-    <row r="58" spans="1:11" s="22" customFormat="1" ht="28">
+    <row r="58" spans="1:11" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A58" s="21">
         <v>54</v>
       </c>
@@ -5852,14 +5871,14 @@
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="23" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J58" s="19" t="s">
         <v>74</v>
       </c>
       <c r="K58" s="19"/>
     </row>
-    <row r="59" spans="1:11" s="22" customFormat="1" ht="28">
+    <row r="59" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="21">
         <v>55</v>
       </c>
@@ -5884,7 +5903,7 @@
       </c>
       <c r="K59" s="19"/>
     </row>
-    <row r="60" spans="1:11" s="22" customFormat="1" ht="28">
+    <row r="60" spans="1:11" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A60" s="21">
         <v>56</v>
       </c>
@@ -5907,7 +5926,7 @@
       <c r="J60" s="19"/>
       <c r="K60" s="19"/>
     </row>
-    <row r="61" spans="1:11" s="22" customFormat="1" ht="42">
+    <row r="61" spans="1:11" s="22" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A61" s="21">
         <v>57</v>
       </c>
@@ -5930,7 +5949,7 @@
       <c r="J61" s="19"/>
       <c r="K61" s="19"/>
     </row>
-    <row r="62" spans="1:11" s="22" customFormat="1" ht="28">
+    <row r="62" spans="1:11" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A62" s="44">
         <v>58</v>
       </c>
@@ -5961,41 +5980,41 @@
       </c>
       <c r="K62" s="23"/>
     </row>
-    <row r="63" spans="1:11" s="22" customFormat="1" ht="56">
+    <row r="63" spans="1:11" s="22" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A63" s="21">
         <v>59</v>
       </c>
       <c r="B63" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="C63" s="20" t="s">
         <v>359</v>
-      </c>
-      <c r="C63" s="20" t="s">
-        <v>360</v>
       </c>
       <c r="D63" s="20"/>
       <c r="E63" s="19" t="s">
         <v>107</v>
       </c>
       <c r="F63" s="19" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G63" s="23" t="s">
         <v>108</v>
       </c>
       <c r="H63" s="23"/>
       <c r="I63" s="23" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="J63" s="19" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="K63" s="19"/>
     </row>
-    <row r="64" spans="1:11" s="22" customFormat="1" ht="28">
+    <row r="64" spans="1:11" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A64" s="21">
         <v>60</v>
       </c>
       <c r="B64" s="19" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C64" s="20" t="s">
         <v>19</v>
@@ -6017,7 +6036,7 @@
       <c r="J64" s="19"/>
       <c r="K64" s="19"/>
     </row>
-    <row r="65" spans="1:11" s="22" customFormat="1" ht="56">
+    <row r="65" spans="1:11" s="22" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A65" s="21">
         <v>61</v>
       </c>
@@ -6034,7 +6053,7 @@
         <v>55</v>
       </c>
       <c r="F65" s="23" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G65" s="23" t="s">
         <v>184</v>
@@ -6048,7 +6067,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="66" spans="1:11" s="22" customFormat="1">
+    <row r="66" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="44">
         <v>62</v>
       </c>
@@ -6068,12 +6087,12 @@
       </c>
       <c r="H66" s="12"/>
       <c r="I66" s="12" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J66" s="12"/>
       <c r="K66" s="12"/>
     </row>
-    <row r="67" spans="1:11" s="50" customFormat="1" ht="42">
+    <row r="67" spans="1:11" s="50" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A67" s="44">
         <v>63</v>
       </c>
@@ -6084,29 +6103,29 @@
         <v>19</v>
       </c>
       <c r="D67" s="28" t="s">
+        <v>378</v>
+      </c>
+      <c r="E67" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="F67" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="G67" s="12" t="s">
         <v>379</v>
       </c>
-      <c r="E67" s="12" t="s">
+      <c r="H67" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="I67" s="12" t="s">
         <v>381</v>
       </c>
-      <c r="F67" s="12" t="s">
-        <v>377</v>
-      </c>
-      <c r="G67" s="12" t="s">
-        <v>380</v>
-      </c>
-      <c r="H67" s="12" t="s">
-        <v>378</v>
-      </c>
-      <c r="I67" s="12" t="s">
+      <c r="J67" s="12" t="s">
         <v>382</v>
       </c>
-      <c r="J67" s="12" t="s">
-        <v>383</v>
-      </c>
       <c r="K67" s="12"/>
     </row>
-    <row r="68" spans="1:11" s="22" customFormat="1" ht="70">
+    <row r="68" spans="1:11" s="22" customFormat="1" ht="75" x14ac:dyDescent="0.2">
       <c r="A68" s="44">
         <v>64</v>
       </c>
@@ -6121,17 +6140,17 @@
         <v>55</v>
       </c>
       <c r="F68" s="12" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G68" s="12"/>
       <c r="H68" s="12"/>
       <c r="I68" s="12"/>
       <c r="J68" s="12"/>
       <c r="K68" s="12" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" s="22" customFormat="1" ht="42">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" s="22" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A69" s="44">
         <v>65</v>
       </c>
@@ -6146,23 +6165,23 @@
         <v>55</v>
       </c>
       <c r="F69" s="12" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G69" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="H69" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="I69" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="J69" s="12" t="s">
         <v>396</v>
       </c>
-      <c r="H69" s="12" t="s">
-        <v>395</v>
-      </c>
-      <c r="I69" s="12" t="s">
-        <v>389</v>
-      </c>
-      <c r="J69" s="12" t="s">
-        <v>397</v>
-      </c>
       <c r="K69" s="12"/>
     </row>
-    <row r="70" spans="1:11" s="60" customFormat="1" ht="42">
+    <row r="70" spans="1:11" s="60" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A70" s="57">
         <v>66</v>
       </c>
@@ -6177,23 +6196,23 @@
         <v>55</v>
       </c>
       <c r="F70" s="24" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G70" s="25" t="s">
         <v>108</v>
       </c>
       <c r="H70" s="59" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I70" s="24" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J70" s="24" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K70" s="59"/>
     </row>
-    <row r="71" spans="1:11" s="49" customFormat="1" ht="42">
+    <row r="71" spans="1:11" s="49" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A71" s="44">
         <v>67</v>
       </c>
@@ -6204,7 +6223,7 @@
         <v>103</v>
       </c>
       <c r="D71" s="28" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E71" s="12" t="s">
         <v>55</v>
@@ -6213,19 +6232,19 @@
         <v>108</v>
       </c>
       <c r="G71" s="12" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H71" s="12"/>
       <c r="I71" s="12" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="J71" s="12" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="K71" s="18"/>
     </row>
-    <row r="72" spans="1:11" s="49" customFormat="1">
-      <c r="A72" s="70">
+    <row r="72" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="63">
         <v>68</v>
       </c>
       <c r="B72" s="36" t="s">
@@ -6241,12 +6260,12 @@
       <c r="H72" s="36"/>
       <c r="I72" s="36"/>
       <c r="J72" s="36" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="K72" s="36"/>
     </row>
-    <row r="73" spans="1:11" s="49" customFormat="1">
-      <c r="A73" s="70">
+    <row r="73" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="63">
         <v>69</v>
       </c>
       <c r="B73" s="36" t="s">
@@ -6262,12 +6281,12 @@
       <c r="H73" s="36"/>
       <c r="I73" s="36"/>
       <c r="J73" s="36" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="K73" s="36"/>
     </row>
-    <row r="74" spans="1:11" s="22" customFormat="1" ht="28">
-      <c r="A74" s="70">
+    <row r="74" spans="1:11" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A74" s="63">
         <v>70</v>
       </c>
       <c r="B74" s="42" t="s">
@@ -6289,11 +6308,11 @@
         <v>311</v>
       </c>
       <c r="J74" s="42" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="K74" s="42"/>
     </row>
-    <row r="75" spans="1:11" s="22" customFormat="1" ht="28">
+    <row r="75" spans="1:11" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A75" s="41"/>
       <c r="B75" s="42" t="s">
         <v>106</v>
@@ -6309,14 +6328,14 @@
       </c>
       <c r="H75" s="42"/>
       <c r="I75" s="61" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J75" s="42" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="K75" s="42"/>
     </row>
-    <row r="76" spans="1:11" s="22" customFormat="1">
+    <row r="76" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="41"/>
       <c r="B76" s="42" t="s">
         <v>280</v>
@@ -6341,7 +6360,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="77" spans="1:11" s="22" customFormat="1" ht="28">
+    <row r="77" spans="1:11" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A77" s="41"/>
       <c r="B77" s="42" t="s">
         <v>280</v>
@@ -6368,7 +6387,7 @@
       </c>
       <c r="K77" s="36"/>
     </row>
-    <row r="78" spans="1:11" s="22" customFormat="1" ht="56">
+    <row r="78" spans="1:11" s="22" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A78" s="41"/>
       <c r="B78" s="42" t="s">
         <v>106</v>
@@ -6381,23 +6400,23 @@
         <v>55</v>
       </c>
       <c r="F78" s="42" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G78" s="42" t="s">
         <v>108</v>
       </c>
       <c r="H78" s="42"/>
       <c r="I78" s="42" t="s">
+        <v>341</v>
+      </c>
+      <c r="J78" s="42" t="s">
+        <v>343</v>
+      </c>
+      <c r="K78" s="42" t="s">
         <v>342</v>
       </c>
-      <c r="J78" s="42" t="s">
-        <v>344</v>
-      </c>
-      <c r="K78" s="42" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" s="22" customFormat="1" ht="28">
+    </row>
+    <row r="79" spans="1:11" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A79" s="41"/>
       <c r="B79" s="42" t="s">
         <v>106</v>
@@ -6420,7 +6439,7 @@
       </c>
       <c r="K79" s="42"/>
     </row>
-    <row r="80" spans="1:11" s="22" customFormat="1">
+    <row r="80" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="41"/>
       <c r="B80" s="42" t="s">
         <v>106</v>
@@ -6439,7 +6458,7 @@
       </c>
       <c r="K80" s="42"/>
     </row>
-    <row r="81" spans="1:11" s="22" customFormat="1" ht="112">
+    <row r="81" spans="1:11" s="22" customFormat="1" ht="120" x14ac:dyDescent="0.2">
       <c r="A81" s="54"/>
       <c r="B81" s="37" t="s">
         <v>106</v>
@@ -6468,7 +6487,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="82" spans="1:11" s="22" customFormat="1" ht="28">
+    <row r="82" spans="1:11" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A82" s="41"/>
       <c r="B82" s="42" t="s">
         <v>106</v>
@@ -6491,7 +6510,7 @@
       </c>
       <c r="K82" s="42"/>
     </row>
-    <row r="83" spans="1:11" s="22" customFormat="1">
+    <row r="83" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="41"/>
       <c r="B83" s="42" t="s">
         <v>106</v>
@@ -6516,7 +6535,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="84" spans="1:11" s="22" customFormat="1" ht="28">
+    <row r="84" spans="1:11" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A84" s="41"/>
       <c r="B84" s="42" t="s">
         <v>106</v>
@@ -6541,7 +6560,7 @@
       </c>
       <c r="K84" s="42"/>
     </row>
-    <row r="85" spans="1:11" s="22" customFormat="1">
+    <row r="85" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="41"/>
       <c r="B85" s="42" t="s">
         <v>106</v>
@@ -6560,7 +6579,7 @@
       </c>
       <c r="K85" s="42"/>
     </row>
-    <row r="86" spans="1:11" s="22" customFormat="1" ht="28">
+    <row r="86" spans="1:11" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A86" s="41"/>
       <c r="B86" s="42" t="s">
         <v>106</v>
@@ -6581,7 +6600,7 @@
       </c>
       <c r="K86" s="42"/>
     </row>
-    <row r="88" spans="1:11" s="22" customFormat="1">
+    <row r="88" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="41"/>
       <c r="B88" s="42" t="s">
         <v>280</v>
@@ -6606,30 +6625,30 @@
       </c>
       <c r="K88" s="42"/>
     </row>
-    <row r="89" spans="1:11" s="22" customFormat="1" ht="28">
+    <row r="89" spans="1:11" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A89" s="41"/>
       <c r="B89" s="42" t="s">
         <v>280</v>
       </c>
       <c r="C89" s="43" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D89" s="43"/>
       <c r="E89" s="34" t="s">
         <v>55</v>
       </c>
       <c r="F89" s="42" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G89" s="34"/>
       <c r="H89" s="42"/>
       <c r="I89" s="42"/>
       <c r="J89" s="42" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="K89" s="42"/>
     </row>
-    <row r="90" spans="1:11" s="22" customFormat="1">
+    <row r="90" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="33"/>
       <c r="B90" s="34" t="s">
         <v>106</v>
@@ -6648,7 +6667,7 @@
       <c r="J90" s="36"/>
       <c r="K90" s="36"/>
     </row>
-    <row r="91" spans="1:11" s="22" customFormat="1">
+    <row r="91" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="33"/>
       <c r="B91" s="34" t="s">
         <v>106</v>
@@ -6667,7 +6686,7 @@
       <c r="J91" s="36"/>
       <c r="K91" s="36"/>
     </row>
-    <row r="92" spans="1:11" ht="42">
+    <row r="92" spans="1:11" ht="45" x14ac:dyDescent="0.2">
       <c r="A92" s="33"/>
       <c r="B92" s="34" t="s">
         <v>32</v>
@@ -6686,24 +6705,24 @@
       </c>
       <c r="K92" s="36"/>
     </row>
-    <row r="93" spans="1:11">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" s="33"/>
       <c r="B93" s="34"/>
       <c r="C93" s="35"/>
       <c r="D93" s="35"/>
       <c r="E93" s="36"/>
       <c r="F93" s="36" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G93" s="36"/>
       <c r="H93" s="36"/>
       <c r="I93" s="36"/>
       <c r="J93" s="36" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K93" s="36"/>
     </row>
-    <row r="94" spans="1:11" ht="28">
+    <row r="94" spans="1:11" ht="30" x14ac:dyDescent="0.2">
       <c r="A94" s="41"/>
       <c r="B94" s="42" t="s">
         <v>52</v>
@@ -6715,16 +6734,16 @@
       <c r="E94" s="34"/>
       <c r="F94" s="42"/>
       <c r="G94" s="42" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H94" s="42"/>
       <c r="I94" s="42"/>
       <c r="J94" s="42"/>
       <c r="K94" s="42" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" s="50" customFormat="1" ht="98">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" s="50" customFormat="1" ht="105" x14ac:dyDescent="0.2">
       <c r="A95" s="41"/>
       <c r="B95" s="42" t="s">
         <v>52</v>
@@ -6751,7 +6770,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="96" spans="1:11" s="49" customFormat="1">
+    <row r="96" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="41"/>
       <c r="B96" s="42" t="s">
         <v>63</v>
@@ -6774,7 +6793,7 @@
       </c>
       <c r="K96" s="42"/>
     </row>
-    <row r="97" spans="1:11" s="50" customFormat="1">
+    <row r="97" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="41"/>
       <c r="B97" s="42" t="s">
         <v>63</v>
@@ -6797,7 +6816,7 @@
       </c>
       <c r="K97" s="42"/>
     </row>
-    <row r="98" spans="1:11" s="50" customFormat="1">
+    <row r="98" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="41"/>
       <c r="B98" s="42" t="s">
         <v>63</v>
@@ -6820,7 +6839,7 @@
       </c>
       <c r="K98" s="42"/>
     </row>
-    <row r="99" spans="1:11" s="50" customFormat="1">
+    <row r="99" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="41"/>
       <c r="B99" s="42" t="s">
         <v>65</v>
@@ -6845,7 +6864,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="100" spans="1:11" s="50" customFormat="1">
+    <row r="100" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="41"/>
       <c r="B100" s="42" t="s">
         <v>233</v>
@@ -6870,7 +6889,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="101" spans="1:11" s="50" customFormat="1" ht="28">
+    <row r="101" spans="1:11" s="50" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A101" s="41"/>
       <c r="B101" s="42" t="s">
         <v>72</v>
@@ -6899,7 +6918,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="102" spans="1:11" s="50" customFormat="1" ht="28">
+    <row r="102" spans="1:11" s="50" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A102" s="41"/>
       <c r="B102" s="42" t="s">
         <v>235</v>
@@ -6920,11 +6939,11 @@
       </c>
       <c r="I102" s="42"/>
       <c r="J102" s="42" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="K102" s="42"/>
     </row>
-    <row r="103" spans="1:11" s="50" customFormat="1" ht="28">
+    <row r="103" spans="1:11" s="50" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A103" s="41"/>
       <c r="B103" s="42" t="s">
         <v>327</v>
@@ -6945,11 +6964,11 @@
       </c>
       <c r="I103" s="42"/>
       <c r="J103" s="42" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="K103" s="42"/>
     </row>
-    <row r="104" spans="1:11" s="50" customFormat="1" ht="28">
+    <row r="104" spans="1:11" s="50" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A104" s="41"/>
       <c r="B104" s="42" t="s">
         <v>326</v>
@@ -6970,13 +6989,13 @@
       </c>
       <c r="I104" s="42"/>
       <c r="J104" s="42" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="K104" s="42" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" s="50" customFormat="1" ht="182">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" s="50" customFormat="1" ht="195" x14ac:dyDescent="0.2">
       <c r="A105" s="41"/>
       <c r="B105" s="42" t="s">
         <v>183</v>
@@ -6996,16 +7015,16 @@
         <v>185</v>
       </c>
       <c r="I105" s="42" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J105" s="42" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="K105" s="42" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" s="50" customFormat="1">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="41"/>
       <c r="B106" s="42"/>
       <c r="C106" s="43"/>
@@ -7024,7 +7043,7 @@
       </c>
       <c r="K106" s="42"/>
     </row>
-    <row r="107" spans="1:11" s="49" customFormat="1" ht="42">
+    <row r="107" spans="1:11" s="49" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A107" s="33"/>
       <c r="B107" s="42" t="s">
         <v>221</v>
@@ -7036,14 +7055,14 @@
       <c r="G107" s="36"/>
       <c r="H107" s="36"/>
       <c r="I107" s="36" t="s">
+        <v>373</v>
+      </c>
+      <c r="J107" s="36" t="s">
         <v>374</v>
       </c>
-      <c r="J107" s="36" t="s">
-        <v>375</v>
-      </c>
       <c r="K107" s="36"/>
     </row>
-    <row r="108" spans="1:11" s="49" customFormat="1">
+    <row r="108" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A108" s="15"/>
       <c r="B108" s="15"/>
       <c r="C108" s="15"/>
@@ -7056,7 +7075,7 @@
       <c r="J108" s="15"/>
       <c r="K108" s="15"/>
     </row>
-    <row r="109" spans="1:11">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" s="15"/>
       <c r="B109" s="15"/>
       <c r="C109" s="16"/>
@@ -7069,7 +7088,7 @@
       <c r="J109" s="15"/>
       <c r="K109" s="15"/>
     </row>
-    <row r="110" spans="1:11">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" s="15"/>
       <c r="B110" s="15"/>
       <c r="C110" s="16"/>
@@ -7086,7 +7105,7 @@
       <c r="J110" s="15"/>
       <c r="K110" s="15"/>
     </row>
-    <row r="111" spans="1:11">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" s="15"/>
       <c r="B111" s="15"/>
       <c r="C111" s="16"/>
@@ -7103,7 +7122,7 @@
       <c r="J111" s="15"/>
       <c r="K111" s="15"/>
     </row>
-    <row r="112" spans="1:11">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" s="15"/>
       <c r="B112" s="15"/>
       <c r="C112" s="16"/>
@@ -7120,7 +7139,7 @@
       <c r="J112" s="15"/>
       <c r="K112" s="15"/>
     </row>
-    <row r="113" spans="1:11">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" s="15"/>
       <c r="B113" s="15"/>
       <c r="C113" s="16"/>
@@ -7137,7 +7156,7 @@
       <c r="J113" s="15"/>
       <c r="K113" s="15"/>
     </row>
-    <row r="114" spans="1:11">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" s="15"/>
       <c r="B114" s="15"/>
       <c r="C114" s="16"/>
@@ -7154,7 +7173,7 @@
       <c r="J114" s="15"/>
       <c r="K114" s="15"/>
     </row>
-    <row r="115" spans="1:11">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" s="15"/>
       <c r="B115" s="15"/>
       <c r="C115" s="16"/>
@@ -7171,7 +7190,7 @@
       <c r="J115" s="15"/>
       <c r="K115" s="15"/>
     </row>
-    <row r="116" spans="1:11">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" s="15"/>
       <c r="B116" s="15"/>
       <c r="C116" s="16"/>
@@ -7188,7 +7207,7 @@
       <c r="J116" s="15"/>
       <c r="K116" s="15"/>
     </row>
-    <row r="117" spans="1:11">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" s="15"/>
       <c r="B117" s="15"/>
       <c r="C117" s="16"/>
@@ -7203,7 +7222,7 @@
       <c r="J117" s="15"/>
       <c r="K117" s="15"/>
     </row>
-    <row r="118" spans="1:11">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" s="15"/>
       <c r="B118" s="15"/>
       <c r="C118" s="16"/>
@@ -7220,7 +7239,7 @@
       <c r="J118" s="15"/>
       <c r="K118" s="15"/>
     </row>
-    <row r="119" spans="1:11">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" s="15"/>
       <c r="B119" s="15"/>
       <c r="C119" s="16"/>
@@ -7237,7 +7256,7 @@
       <c r="J119" s="15"/>
       <c r="K119" s="15"/>
     </row>
-    <row r="120" spans="1:11">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" s="15"/>
       <c r="B120" s="15"/>
       <c r="C120" s="16"/>
@@ -7254,7 +7273,7 @@
       <c r="J120" s="15"/>
       <c r="K120" s="15"/>
     </row>
-    <row r="121" spans="1:11">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" s="15"/>
       <c r="B121" s="15"/>
       <c r="C121" s="16"/>
@@ -7271,7 +7290,7 @@
       <c r="J121" s="15"/>
       <c r="K121" s="15"/>
     </row>
-    <row r="122" spans="1:11">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" s="15"/>
       <c r="B122" s="15"/>
       <c r="C122" s="16"/>
@@ -7288,7 +7307,7 @@
       <c r="J122" s="15"/>
       <c r="K122" s="15"/>
     </row>
-    <row r="123" spans="1:11">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" s="15"/>
       <c r="B123" s="15"/>
       <c r="C123" s="16"/>
@@ -7301,17 +7320,17 @@
       <c r="J123" s="15"/>
       <c r="K123" s="15"/>
     </row>
-    <row r="124" spans="1:11">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G124" s="39" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="125" spans="1:11">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G125" s="39" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="126" spans="1:11">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G126" s="39" t="s">
         <v>125</v>
       </c>
@@ -7332,12 +7351,7 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageSetup paperSize="9" scale="14" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
 </file>
 
@@ -7347,14 +7361,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
+  <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -7364,13 +7375,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
+  <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/inventory/INVENTORY OF PYU INSCRIPTIONS.xlsx
+++ b/inventory/INVENTORY OF PYU INSCRIPTIONS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25540" windowHeight="14520"/>
+    <workbookView xWindow="10280" yWindow="460" windowWidth="18900" windowHeight="14460"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="501">
   <si>
     <r>
       <t>Building of a shrine by Prince R</t>
@@ -53,7 +53,7 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>[Illegible] The reverse of the stone bears another inscription in Chinese.</t>
@@ -110,9 +110,6 @@
     <t>1</t>
   </si>
   <si>
-    <t>Duroiselle indicates that the urn was in the Archaeological Office at Mandalay at the time he wrote.</t>
-  </si>
-  <si>
     <t>Myazedi pagoda, Myinkaba, Pagan</t>
   </si>
   <si>
@@ -125,9 +122,6 @@
     <t>Near the Tharaba gate, Pagan</t>
   </si>
   <si>
-    <t>Removed to Amarapura by King Bodawpaya (1781-1819 CE).</t>
-  </si>
-  <si>
     <t>Halin</t>
   </si>
   <si>
@@ -347,9 +341,6 @@
     <t>Separated by Blagden from his B1 = PYU6.</t>
   </si>
   <si>
-    <t>See also PYU26.</t>
-  </si>
-  <si>
     <t>stone pillar</t>
   </si>
   <si>
@@ -518,9 +509,6 @@
     <t>h:115, w:93/18, d:10/19</t>
   </si>
   <si>
-    <t>formerly at Amarapura inscription shed</t>
-  </si>
-  <si>
     <t>Inscription shed, Mandalay Palace Museum, nr. 12</t>
   </si>
   <si>
@@ -677,9 +665,6 @@
     <t>h:&gt;67, w:38, d:20</t>
   </si>
   <si>
-    <t xml:space="preserve">formerly Pagan Museum, nr. 96; presently Halin Museum, nr. 2014/1/25 </t>
-  </si>
-  <si>
     <t>±12</t>
   </si>
   <si>
@@ -734,20 +719,6 @@
     <t>Naing Zaw 2011: 87.</t>
   </si>
   <si>
-    <r>
-      <t>"These are the bones of the deceased, Lord Rū</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Minion Pro IE"/>
-        <family val="2"/>
-      </rPr>
-      <t>ḅa, grandson of Nga Kno, son of Lord Davinimli".</t>
-    </r>
-  </si>
-  <si>
     <t>Sriksetra Museum, without nr.</t>
   </si>
   <si>
@@ -801,18 +772,179 @@
     <t>ASB 1964-65, 37 §9. — Skilling 1997b: 153. — Maung Maung Swe.</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">IB IV, 355a. — </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">PR, 49. — PPPB II, pl. 7. — </t>
-    </r>
+    <t>photos received from owner</t>
+  </si>
+  <si>
+    <t>silver-gilt relic casket</t>
+  </si>
+  <si>
+    <t>Joost Buschman, priv. collection</t>
+  </si>
+  <si>
+    <t>unknown; formerly at Archaeological office, Mandalay</t>
+  </si>
+  <si>
+    <t>bricks</t>
+  </si>
+  <si>
+    <t>ASI 198-29, pl. 51 (b). — PPPB II, pl. 45 (e-h).</t>
+  </si>
+  <si>
+    <t>bronze Buddha</t>
+  </si>
+  <si>
+    <t>headless bronze Buddha</t>
+  </si>
+  <si>
+    <t>terracotta votive tablet</t>
+  </si>
+  <si>
+    <t>Myinbahu, SW of wall at Sriksetra</t>
+  </si>
+  <si>
+    <t>ASI 1934-35, pl. 22 (i).</t>
+  </si>
+  <si>
+    <t>ASI 1934-35, 47.</t>
+  </si>
+  <si>
+    <t>Only the first five akṣaras of the ye dharmāḥ formula.</t>
+  </si>
+  <si>
+    <t>The ye dharmāḥ formula runs along the base.</t>
+  </si>
+  <si>
+    <t>F. Mandeville, priv. collection</t>
+  </si>
+  <si>
+    <t>dhānyarakkha</t>
+  </si>
+  <si>
+    <t>yellow intaglio</t>
+  </si>
+  <si>
+    <t>nanditavyaṁ</t>
+  </si>
+  <si>
+    <t>black intaglio</t>
+  </si>
+  <si>
+    <t>h:88, w:53, d:8</t>
+  </si>
+  <si>
+    <t>Pagan Museum, nr. 1</t>
+  </si>
+  <si>
+    <t>Pagan Museum, nr. 7;  formerly nr. 3</t>
+  </si>
+  <si>
+    <t>h:215, w:34, d:56</t>
+  </si>
+  <si>
+    <t>h:142, w:36, d:36</t>
+  </si>
+  <si>
+    <t>h:138, w:66, d:23</t>
+  </si>
+  <si>
+    <t>Pagan Museum, nr. 74</t>
+  </si>
+  <si>
+    <t>h:39, dia:38</t>
+  </si>
+  <si>
+    <t>PR, 78. — PPPB I, 50, 57 n. 22, 150.</t>
+  </si>
+  <si>
+    <t>2 gold leaves</t>
+  </si>
+  <si>
+    <t>20 gold leaves</t>
+  </si>
+  <si>
+    <t>Ditto. Duplicate of PYU07.</t>
+  </si>
+  <si>
+    <t>in parts near the Kubyaukkyi temple and in the Myazedi pagoda, Myinkaba, Pagan</t>
+  </si>
+  <si>
+    <t>OBEP</t>
+  </si>
+  <si>
+    <t>Old Burma-Early Pagán</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Bago Archaeological Museum, nr. 284</t>
+  </si>
+  <si>
+    <t>h:42, w:59, d:7</t>
+  </si>
+  <si>
+    <t>face B written upside-down compared with A</t>
+  </si>
+  <si>
+    <t>Perhaps this is the second silver bowl (besides PYU38) referred to by Sein Maung Oo 1989. But: a very similar bowl, obviously by the same artisan, was/is held at Shwe Phon Pwint Library.</t>
+  </si>
+  <si>
+    <t>ASI 1928-29, pl. LI (a).</t>
+  </si>
+  <si>
+    <t>Kyundawzu village, Sriksetra</t>
+  </si>
+  <si>
+    <t>ASI 1928-29, 108. — PPPB I, 139.</t>
+  </si>
+  <si>
+    <t>7 fragments of a gold leaf</t>
+  </si>
+  <si>
+    <t>ASI 1928-29, 107; 1934-35, 47. — OBEP I, 100. — PPPB I, 152; 154; 155; 156; 158.</t>
+  </si>
+  <si>
+    <t>OBEP, pl. 55 (abc).</t>
+  </si>
+  <si>
+    <t>The references feature contradictory statements on the  nature of the material.</t>
+  </si>
+  <si>
+    <t>l:37 (Finot)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 13x10x3 in. (Luce)</t>
+  </si>
+  <si>
+    <t>Found about 35 years ago, and kept in monastery until taken to Pagan Museum. Information Aung Kyaing.</t>
+  </si>
+  <si>
+    <t>National Museum, Yangon, nr. 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> National Museum, Yangon, nr. 1640</t>
+  </si>
+  <si>
+    <t>h:58, circumference at bottom: 127, circ. at top: 104</t>
+  </si>
+  <si>
+    <t>h:106, max. circumference:273, max. depth of cavity:55</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ASI 1927, pl. XLII (g, h). — ASB 1939, pl. 4c, 5, 6. — </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mya 1961, II, pl. 4. — PPPB II, pl. 33-34.</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -820,192 +952,16 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t>RTI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>found in 1966; text almost entirely obliterated.</t>
-  </si>
-  <si>
-    <t>photos received from owner</t>
-  </si>
-  <si>
-    <t>silver-gilt relic casket</t>
-  </si>
-  <si>
-    <t>Joost Buschman, priv. collection</t>
-  </si>
-  <si>
-    <t>unknown; formerly at Archaeological office, Mandalay</t>
-  </si>
-  <si>
-    <t>bricks</t>
-  </si>
-  <si>
-    <t>ASI 198-29, pl. 51 (b). — PPPB II, pl. 45 (e-h).</t>
-  </si>
-  <si>
-    <t>bronze Buddha</t>
-  </si>
-  <si>
-    <t>headless bronze Buddha</t>
-  </si>
-  <si>
-    <t>terracotta votive tablet</t>
-  </si>
-  <si>
-    <t>Myinbahu, SW of wall at Sriksetra</t>
-  </si>
-  <si>
-    <t>ASI 1934-35, pl. 22 (i).</t>
-  </si>
-  <si>
-    <t>ASI 1934-35, 47.</t>
-  </si>
-  <si>
-    <t>Only the first five akṣaras of the ye dharmāḥ formula.</t>
-  </si>
-  <si>
-    <t>The ye dharmāḥ formula runs along the base.</t>
-  </si>
-  <si>
-    <t>F. Mandeville, priv. collection</t>
-  </si>
-  <si>
-    <t>dhānyarakkha</t>
-  </si>
-  <si>
-    <t>yellow intaglio</t>
-  </si>
-  <si>
-    <t>nanditavyaṁ</t>
-  </si>
-  <si>
-    <t>black intaglio</t>
-  </si>
-  <si>
-    <t>h:88, w:53, d:8</t>
-  </si>
-  <si>
-    <t>Pagan Museum, nr. 1</t>
-  </si>
-  <si>
-    <t>Pagan Museum, nr. 7;  formerly nr. 3</t>
-  </si>
-  <si>
-    <t>h:215, w:34, d:56</t>
-  </si>
-  <si>
-    <t>h:142, w:36, d:36</t>
-  </si>
-  <si>
-    <t>h:138, w:66, d:23</t>
-  </si>
-  <si>
-    <t>Pagan Museum, nr. 74</t>
-  </si>
-  <si>
-    <t>h:39, dia:38</t>
-  </si>
-  <si>
-    <t>PR, 78. — PPPB I, 50, 57 n. 22, 150.</t>
-  </si>
-  <si>
-    <t>2 gold leaves</t>
-  </si>
-  <si>
-    <t>20 gold leaves</t>
-  </si>
-  <si>
-    <t>Ditto. Duplicate of PYU07.</t>
-  </si>
-  <si>
-    <t>in parts near the Kubyaukkyi temple and in the Myazedi pagoda, Myinkaba, Pagan</t>
-  </si>
-  <si>
-    <t>OBEP</t>
-  </si>
-  <si>
-    <t>Old Burma-Early Pagán</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Bago Archaeological Museum, nr. 284</t>
-  </si>
-  <si>
-    <t>h:42, w:59, d:7</t>
-  </si>
-  <si>
-    <t>face B written upside-down compared with A</t>
-  </si>
-  <si>
-    <t>Perhaps this is the second silver bowl (besides PYU38) referred to by Sein Maung Oo 1989. But: a very similar bowl, obviously by the same artisan, was/is held at Shwe Phon Pwint Library.</t>
-  </si>
-  <si>
-    <t>ASI 1928-29, pl. LI (a).</t>
-  </si>
-  <si>
-    <t>Kyundawzu village, Sriksetra</t>
-  </si>
-  <si>
-    <t>ASI 1928-29, 108. — PPPB I, 139.</t>
-  </si>
-  <si>
-    <t>7 fragments of a gold leaf</t>
-  </si>
-  <si>
-    <t>ASI 1928-29, 107; 1934-35, 47. — OBEP I, 100. — PPPB I, 152; 154; 155; 156; 158.</t>
-  </si>
-  <si>
-    <t>OBEP, pl. 55 (abc).</t>
-  </si>
-  <si>
-    <t>The references feature contradictory statements on the  nature of the material.</t>
-  </si>
-  <si>
-    <t>l:37 (Finot)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 13x10x3 in. (Luce)</t>
-  </si>
-  <si>
-    <t>Found about 35 years ago, and kept in monastery until taken to Pagan Museum. Information Aung Kyaing.</t>
-  </si>
-  <si>
-    <t>National Museum, Yangon, nr. 9</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> National Museum, Yangon, nr. 1640</t>
-  </si>
-  <si>
-    <t>h:58, circumference at bottom: 127, circ. at top: 104</t>
-  </si>
-  <si>
-    <t>h:106, max. circumference:273, max. depth of cavity:55</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ASI 1927, pl. XLII (g, h). — ASB 1939, pl. 4c, 5, 6. — </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Mya 1961, II, pl. 4. — PPPB II, pl. 33-34.</t>
+      <t>ASI 1927-28, 129. —</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Mya 1961, II, p. 17. — PPPB II, 155.</t>
     </r>
   </si>
   <si>
@@ -1016,17 +972,23 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ASI 1927-28, 129. —</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Mya 1961, II, p. 17. — PPPB II, 155.</t>
-    </r>
+      <t>ASI 1927-28, pl. LV(1), LVI(d)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. — Mya 1961, II, pl. 17, 17ka. — PPPB II, pl. 60 (a, b).</t>
+    </r>
+  </si>
+  <si>
+    <t>mound nr. 2957 near Nga Shin Gan, SW of Mahtaw village, Sriksetra</t>
+  </si>
+  <si>
+    <t>Mya 1961, II, pl. 60 (ka). — PPPB II, pl. 59 (b).</t>
   </si>
   <si>
     <r>
@@ -1036,25 +998,57 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ASI 1927-28, pl. LV(1), LVI(d)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. — Mya 1961, II, pl. 17, 17ka. — PPPB II, pl. 60 (a, b).</t>
-    </r>
-  </si>
-  <si>
-    <t>mound nr. 2957 near Nga Shin Gan, SW of Mahtaw village, Sriksetra</t>
-  </si>
-  <si>
-    <t>Mya 1961, II, pl. 60 (ka). — PPPB II, pl. 59 (b).</t>
-  </si>
-  <si>
+      <t>ASB 1925, 18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. — Mya 1961, II, 31. — PPPB I, 155.</t>
+    </r>
+  </si>
+  <si>
+    <t>N of Palace, Sriksetra</t>
+  </si>
+  <si>
+    <t>ASB 1958, 65.</t>
+  </si>
+  <si>
+    <t>ASB 1958, pl. 16, 17.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ASB 1925, 18. — </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mya 1961, II, 31. — PPPB I, 155.</t>
+    </r>
+  </si>
+  <si>
+    <t>fragment of votive tablet</t>
+  </si>
+  <si>
+    <t>Myinbahu pagoda, Sriksetra</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PPPB I, 155.</t>
+  </si>
+  <si>
+    <t>Mya 1961, II, pl. 61, 61ka. — PPPB II, pl. 58 (e).</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mya 1961, II, </t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1062,64 +1056,6 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ASB 1925, 18</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. — Mya 1961, II, 31. — PPPB I, 155.</t>
-    </r>
-  </si>
-  <si>
-    <t>N of Palace, Sriksetra</t>
-  </si>
-  <si>
-    <t>ASB 1958, 65.</t>
-  </si>
-  <si>
-    <t>ASB 1958, pl. 16, 17.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ASB 1925, 18. — </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Mya 1961, II, 31. — PPPB I, 155.</t>
-    </r>
-  </si>
-  <si>
-    <t>fragment of votive tablet</t>
-  </si>
-  <si>
-    <t>Myinbahu pagoda, Sriksetra</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> PPPB I, 155.</t>
-  </si>
-  <si>
-    <t>Mya 1961, II, pl. 61, 61ka. — PPPB II, pl. 58 (e).</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Mya 1961, II, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>XX</t>
     </r>
     <r>
@@ -1151,9 +1087,6 @@
     <t>ASB 1958, pl. 18.</t>
   </si>
   <si>
-    <t>IB IV, 356b. — RTI.</t>
-  </si>
-  <si>
     <t>ASI 1928-29, 107. — Mya 1961, II, 32.</t>
   </si>
   <si>
@@ -1312,29 +1245,6 @@
   </si>
   <si>
     <t>1960: Mandalay Archaeological Office (Luce)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ASI 1927-28, pl. LIV (g, h). — IB IV, 356a. —PPPB II, pl. 16-7. — </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>RTI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
   </si>
   <si>
     <t>ASI 1927-28, 129. — Mya 1961, II, 65. — PPPB I, 156.</t>
@@ -1567,7 +1477,97 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve"> IB V, 555-556 (</t>
+      <t xml:space="preserve">Listed in continuation of Duroiselle, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A List of Inscriptions Found in Burma</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (1921), appendix B</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ASI 1909-10, pl. 49 (17-18). — ASB 1924,  pl. 3;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 1958, chart. —  PPPB II, pl. 35-36.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ASI 1909-10, 123. —ASB 1924, 26.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — PPPB I, 62, 74 n. 9, 140.</t>
+    </r>
+  </si>
+  <si>
+    <t>Myint Aung 1970, pl. 9a. — Aung Thaw 1972: 14.</t>
+  </si>
+  <si>
+    <t>Beikthano</t>
+  </si>
+  <si>
+    <t>saṁghasiri/sayasiri</t>
+  </si>
+  <si>
+    <t>whole piece 4 cm long; seal 1.5 cm diam.</t>
+  </si>
+  <si>
+    <t>National Museum, Yangon</t>
+  </si>
+  <si>
+    <t>Prakrit (?)</t>
+  </si>
+  <si>
+    <t>ASB 1959, pl. 16-17. — Aung Thaw 1968, fig. 79.9, pl. LIVab. — photos Bob Hudson.</t>
+  </si>
+  <si>
+    <t>ASB 1959, 19. — Aung Thaw 1968: 50-51. — Aung Thaw 1972: 4.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ASB 1960: 22. —Aung Thaw 1972: 32. — Sircar 1976: 210-217. — </t>
     </r>
     <r>
       <rPr>
@@ -1576,7 +1576,256 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t>check index of plates</t>
+      <t xml:space="preserve">Aung Thaw et al. 1993: 134. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>— Gutman 2001: 109 n. 1.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sinlu village, Pwinbyu township </t>
+  </si>
+  <si>
+    <t>Sin Phyu Ywa village (Beinnaka old city), Pyawbwe</t>
+  </si>
+  <si>
+    <t>found on 20/05/2015 by Tampawaddy Win Maung and his group; information Kyam Minn Htin email on the same day.</t>
+  </si>
+  <si>
+    <t>ASI 1926-27, pl. XXXIX (f). — OBEP, pl. 444 (a, b).</t>
+  </si>
+  <si>
+    <t>OBEP, pl. 34 (c, d).</t>
+  </si>
+  <si>
+    <t>mentions Metriya</t>
+  </si>
+  <si>
+    <t>Pagan, Shwehsandaw pagoda, relic chamber</t>
+  </si>
+  <si>
+    <t>ASI 1926-27, 164. — PR, 77. — Mya 1961, I, 23-4. — OBEP I, 99; II, 25. — PPPB I, 66, 75 n. 30.</t>
+  </si>
+  <si>
+    <t>OBEP II, 26.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">read </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>baṁḥ metriya</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> by Duroiselle, but this reading not verifiable from the existing photos.</t>
+    </r>
+  </si>
+  <si>
+    <t>National Museum, Yangon, nr. 36</t>
+  </si>
+  <si>
+    <t>ASI 1926-27, 164-5. — OBEP I, 188; II, 204.</t>
+  </si>
+  <si>
+    <t>West bank of Nagayon lake, Halin</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PPPB II, pl. 54. — </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EFEO estampage n. XXX.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Payagyi pagoda</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, near Pyay</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>stone stela (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>or funerary tablet?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>South of Tagantha village, near Halin</t>
+  </si>
+  <si>
+    <t>presence of inscription not yet noted when catalogue entry was written for Guy 2014.</t>
+  </si>
+  <si>
+    <t>metal sculpture of preaching Buddha</t>
+  </si>
+  <si>
+    <t>Naional Museum, Nay Pyi Taw, 1/3/1994</t>
+  </si>
+  <si>
+    <t>Sanskrit in Gaudi; Pali in LSB and Pyu in Pyu scripts</t>
+  </si>
+  <si>
+    <t>400 ft. South of Shwegugyi (near HL26)</t>
+  </si>
+  <si>
+    <t>Myanadi village, 8 km east of Maingmaw, Myittha township, Kyaukse Dt., Mandalay Region</t>
+  </si>
+  <si>
+    <t>Aung Seigon pagoda, Innwa, Mandalay Region</t>
+  </si>
+  <si>
+    <t>Led-dwin, near Maingmaw</t>
+  </si>
+  <si>
+    <t>Moore 2009, 111.</t>
+  </si>
+  <si>
+    <t>Shwegyobin, Kyauktaga township, Bago region</t>
+  </si>
+  <si>
+    <t>Myint Aung 1970: 61. — Aung Thaw 1972: 14. — Skilling 2015: 66.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">White — </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Middleton 2005: 92. — Skilling 2015: 65.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>White —</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Middleton 2005: 91. — Skilling 2015: 66.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>White. —</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Middleton 2005: 90. — Skilling 2015: 66.</t>
+    </r>
+  </si>
+  <si>
+    <t>Myint Aung (as well as scholars after him) points out that an identical artefact has been found at Oc Eo. Apparently more than one specimen of this intaglio was made; other intaglios with the same inscription but applied rather les artfully are shown and/or referred to  by Middleton 2005: 15, 159. Their provenance from 'Pyu' sites in uncertain.</t>
+  </si>
+  <si>
+    <t>writing positive</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> stone </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>funerary tablet</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">De Beylié 1907a, 98. </t>
     </r>
     <r>
       <rPr>
@@ -1586,7 +1835,30 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>). —</t>
+      <t>— ASI 1909-10, 120. — Blagden 1913-14, 127 (1). — PPPB, I, 54, 59 n. 51, 134.</t>
+    </r>
+  </si>
+  <si>
+    <t>During or after the Chinese invasion of Pagan in 1287 CE; but ASB 1916 suggests "probably dated 1284 A.D.".</t>
+  </si>
+  <si>
+    <t>ASI 1910-11, pl. 47 (4-8). — Mya 1961, II, pl. 72.</t>
+  </si>
+  <si>
+    <t>Chaem Kawklai 1992.</t>
+  </si>
+  <si>
+    <t>3.3 cm diam.</t>
+  </si>
+  <si>
+    <t>Ratchamangala Phisek National Library, Chiang Mai (Thailand), acc. nr. 034/2534</t>
+  </si>
+  <si>
+    <t>Chaem Kawklai 1992: 86, 88.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -1595,42 +1867,42 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> RTI</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Listed in continuation of Duroiselle, </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A List of Inscriptions Found in Burma</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (1921), appendix B</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ASI 1909-10, pl. 49 (17-18). — ASB 1924,  pl. 3;</t>
+      <t>Lémyethna or Bawbawgyi (?)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> pagoda, Sriksetra</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ASI 1910-11, pl. XLVII</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (21). — PPPB II, pl. 62 (d, e).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HRC rubbing. — Rubbing in MHRJ 11. —</t>
     </r>
     <r>
       <rPr>
@@ -1640,57 +1912,23 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 1958, chart. —  PPPB II, pl. 35-36.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ASI 1909-10, 123. —ASB 1924, 26.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> — PPPB I, 62, 74 n. 9, 140.</t>
-    </r>
-  </si>
-  <si>
-    <t>Myint Aung 1970, pl. 9a. — Aung Thaw 1972: 14.</t>
-  </si>
-  <si>
-    <t>Beikthano</t>
-  </si>
-  <si>
-    <t>saṁghasiri/sayasiri</t>
-  </si>
-  <si>
-    <t>whole piece 4 cm long; seal 1.5 cm diam.</t>
-  </si>
-  <si>
-    <t>National Museum, Yangon</t>
-  </si>
-  <si>
-    <t>Prakrit (?)</t>
-  </si>
-  <si>
-    <t>ASB 1959, pl. 16-17. — Aung Thaw 1968, fig. 79.9, pl. LIVab. — photos Bob Hudson.</t>
-  </si>
-  <si>
-    <t>ASB 1959, 19. — Aung Thaw 1968: 50-51. — Aung Thaw 1972: 4.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ASB 1960: 22. —Aung Thaw 1972: 32. — Sircar 1976: 210-217. — </t>
+      <t xml:space="preserve"> RTI.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>De Beylié 1907a, pl. VII (1). — ASI 1909-10, 121 fig. 3. —  PPPB II, pl. 21 (b).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>stone</t>
     </r>
     <r>
       <rPr>
@@ -1699,83 +1937,12 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Aung Thaw et al. 1993: 134. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>— Gutman 2001: 109 n. 1.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sinlu village, Pwinbyu township </t>
-  </si>
-  <si>
-    <t>Sin Phyu Ywa village (Beinnaka old city), Pyawbwe</t>
-  </si>
-  <si>
-    <t>found on 20/05/2015 by Tampawaddy Win Maung and his group; information Kyam Minn Htin email on the same day.</t>
-  </si>
-  <si>
-    <t>ASI 1926-27, pl. XXXIX (f). — OBEP, pl. 444 (a, b).</t>
-  </si>
-  <si>
-    <t>OBEP, pl. 34 (c, d).</t>
-  </si>
-  <si>
-    <t>mentions Metriya</t>
-  </si>
-  <si>
-    <t>Pagan, Shwehsandaw pagoda, relic chamber</t>
-  </si>
-  <si>
-    <t>ASI 1926-27, 164. — PR, 77. — Mya 1961, I, 23-4. — OBEP I, 99; II, 25. — PPPB I, 66, 75 n. 30.</t>
-  </si>
-  <si>
-    <t>OBEP II, 26.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">read </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>baṁḥ metriya</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> by Duroiselle, but this reading not verifiable from the existing photos.</t>
-    </r>
-  </si>
-  <si>
-    <t>National Museum, Yangon, nr. 36</t>
-  </si>
-  <si>
-    <t>ASI 1926-27, 164-5. — OBEP I, 188; II, 204.</t>
-  </si>
-  <si>
-    <t>West bank of Nagayon lake, Halin</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">PPPB II, pl. 54. — </t>
+      <t xml:space="preserve"> funerary tablet</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">stone </t>
     </r>
     <r>
       <rPr>
@@ -1784,473 +1951,7 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t>EFEO estampage n. XXX.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Payagyi pagoda</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, near Pyay</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>stone stela (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>or funerary tablet?</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>South of Tagantha village, near Halin</t>
-  </si>
-  <si>
-    <t>presence of inscription not yet noted when catalogue entry was written for Guy 2014.</t>
-  </si>
-  <si>
-    <t>metal sculpture of preaching Buddha</t>
-  </si>
-  <si>
-    <t>Naional Museum, Nay Pyi Taw, 1/3/1994</t>
-  </si>
-  <si>
-    <t>Sanskrit in Gaudi; Pali in LSB and Pyu in Pyu scripts</t>
-  </si>
-  <si>
-    <t>400 ft. South of Shwegugyi (near HL26)</t>
-  </si>
-  <si>
-    <t>Myanadi village, 8 km east of Maingmaw, Myittha township, Kyaukse Dt., Mandalay Region</t>
-  </si>
-  <si>
-    <t>Aung Seigon pagoda, Innwa, Mandalay Region</t>
-  </si>
-  <si>
-    <t>Led-dwin, near Maingmaw</t>
-  </si>
-  <si>
-    <t>Moore 2009, 111.</t>
-  </si>
-  <si>
-    <t>Shwegyobin, Kyauktaga township, Bago region</t>
-  </si>
-  <si>
-    <t>Myint Aung 1970: 61. — Aung Thaw 1972: 14. — Skilling 2015: 66.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">White — </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Middleton 2005: 92. — Skilling 2015: 65.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>White —</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Middleton 2005: 91. — Skilling 2015: 66.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>White. —</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Middleton 2005: 90. — Skilling 2015: 66.</t>
-    </r>
-  </si>
-  <si>
-    <t>Myint Aung (as well as scholars after him) points out that an identical artefact has been found at Oc Eo. Apparently more than one specimen of this intaglio was made; other intaglios with the same inscription but applied rather les artfully are shown and/or referred to  by Middleton 2005: 15, 159. Their provenance from 'Pyu' sites in uncertain.</t>
-  </si>
-  <si>
-    <t>writing positive</t>
-  </si>
-  <si>
-    <t>must look up what IB says about this item.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> stone </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>funerary tablet</t>
-    </r>
-  </si>
-  <si>
-    <t>Blagden 1913-14 (C). — IB IV, 354c. — PPPB II, pl. 5bc, 6b.</t>
-  </si>
-  <si>
-    <t>Blagden 1913-14 (A). — ASB 1912, 7, 11. — ASI 1911-12, 147. — PR, 47 (A), 50. — PPPB I, 48, 57 n. 13, 126-7.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>EB I, 1, pl. IV (B). —</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> IB. — RTI</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">De Beylié 1907a, 98. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>— ASI 1909-10, 120. — Blagden 1913-14, 127 (1). — PPPB, I, 54, 59 n. 51, 134.</t>
-    </r>
-  </si>
-  <si>
-    <t>During or after the Chinese invasion of Pagan in 1287 CE; but ASB 1916 suggests "probably dated 1284 A.D.".</t>
-  </si>
-  <si>
-    <t>ASI 1910-11, pl. 47 (4-8). — Mya 1961, II, pl. 72.</t>
-  </si>
-  <si>
-    <t>Chaem Kawklai 1992.</t>
-  </si>
-  <si>
-    <t>3.3 cm diam.</t>
-  </si>
-  <si>
-    <t>Ratchamangala Phisek National Library, Chiang Mai (Thailand), acc. nr. 034/2534</t>
-  </si>
-  <si>
-    <t>Chaem Kawklai 1992: 86, 88.</t>
-  </si>
-  <si>
-    <t>ASI 1912-13, pt. I, 29. — Blagden 1913-14 (C). — ASB 1913, 13-4; 1914, 20. — PR, 47 (C), 51. — PPPB I, 48, 57 n. 13, 126-7.</t>
-  </si>
-  <si>
-    <t>ASI 1911-12, 147. — ASI 1912-13, pt. I, 29. — ASB 1913, 9-10, 14. — Blagden 1913-14 (D1). — PR, 47 (D), 51. — PPPB I, 48, 57 n. 13, 126-7.</t>
-  </si>
-  <si>
-    <t>See also PYU25. — ASI 1911-12 fig. 1 on p. 149 shows Blagden’s D1 urn (but it is identified as being from the Bawbawgyi, which must be a mistake).</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Lémyethna or Bawbawgyi (?)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> pagoda, Sriksetra</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>ASI 1910-11, pl. XLVII</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (21). — PPPB II, pl. 62 (d, e).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>HRC rubbing. — Rubbing in MHRJ 11. —</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> RTI.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ASI 1929-30, pl. XLI (e). — IB IV, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>357</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>a. — PPPB II, 52b.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">IB V, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>570</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>b. — PPPB II, pl. 8abc.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ASI 1911-12, pl. LXIX (1). — Blagden 1913-14 (D1). — ASB 1913, pl. I (1-2). — IB IV, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>354</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>d. — PPPB II, pl. 5a, 6a.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Blagden 1913-14 (A). — ASI 1911-12, pl. LXIX (1). — IB IV, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>354</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>a. — PPPB II, pl. 5d, 6c.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>De Beylié 1907a, pl. VIII. — EB I, 1, pl. IV (A). —</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> IB. — RTI</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>De Beylié 1907a, pl. VII (1). — ASI 1909-10, 121 fig. 3. —  PPPB II, pl. 21 (b).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>stone</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> funerary tablet</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">stone </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>funerary tablet</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Blagden 1913-14 (B1). — ASI 1911-12, pl. LXVIII (3). — IB IV, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>354</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>b. — PPPB II, pl. 5 (ef), 6 (d).</t>
     </r>
   </si>
   <si>
@@ -2325,14 +2026,90 @@
     <t>Kan Wet Khaung mound, Sriksetra</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ASI 1929-30, pl. XLI (a). —</t>
+    <t>For another(more damaged) specimen of sun+moon symbol, see PYU61.</t>
+  </si>
+  <si>
+    <t>Tawadeintha (Tāvatiṁsa) pagoda in hills west of Sriksetra</t>
+  </si>
+  <si>
+    <t>two words</t>
+  </si>
+  <si>
+    <t>Tawadeintha (Tāvatiṁsa) pagod, Sriksetra</t>
+  </si>
+  <si>
+    <t>Found in 1935. We do not believe this inscription comprises any parts in Sanskrit, despite statements in the literature to that effect.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ASI 1934-35, 45-6. — Le May 1956: 47. — PPPB I, 65, 75 n. 25, 131.</t>
+    </r>
+  </si>
+  <si>
+    <t>De Beylié 1907a: 82-3. — ASI 1909-10, 120. — Blagden 1913-14: 127 (2). — PPPB I, 129.</t>
+  </si>
+  <si>
+    <r>
+      <t>Blagden 1913-14: 127 (5).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — ASB 1912, 12 §37.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ASI 1926-27, pl. XXXVII (d), XXXVIII (c). — Le May 1956, fig. 4. — Mya 1961, II, pl. 1, 5, 6. — PPPB II, pl. 28-29. — Guy 2014: 66 (fig. 54), 81 (cat. 27). — </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RTI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ASB 1964, pl. 25. — PPPB II, pl. 51. —</t>
     </r>
     <r>
       <rPr>
@@ -2342,7 +2119,328 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> IB IV, 357b. </t>
+      <t xml:space="preserve"> RTI.</t>
+    </r>
+  </si>
+  <si>
+    <t>Blagden 1913-14: 127 (B2). — PPPB I, 126.</t>
+  </si>
+  <si>
+    <t>found in 1982</t>
+  </si>
+  <si>
+    <t>De Beylié 1907a: 89 fig. 62. — ASI 1909-10, pl. XLIX (12, 13). — Mya 1961, II, pl. 60 (gha). — PPPB II, 59 (f).</t>
+  </si>
+  <si>
+    <t>Luce refers to De Beylié 1907a, pl. V (3); 246 fig. 199. The latter is an error for 1907b: 246 fig. 199. Luce was wrong in citing these photos published by De Beylié, for De Beylié does not say that they show the obverse of the inscribed reverse copied in his (1907a) fig. 62. Comparing the other photos available, it seems obvious that de Beylié's V (3) and 62 have no connection with each other. Delhine Desoutter has shown us three other specimens of tablets made from the same mold.</t>
+  </si>
+  <si>
+    <t>ASB 1964, 19-20, 59. — PPPB I, 65, 75 n. 26, 149.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nyunt Han </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>et al</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. 2006: 13. — Moore 2009: 111-12.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Aung Thaw </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>et al</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. 1993: 135.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> Minte mound, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hmawza</t>
+    </r>
+  </si>
+  <si>
+    <t>Khin Ba mound, Sriksetra</t>
+  </si>
+  <si>
+    <t>Aung Thaw 1972: 110, 116.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Aung Thaw 1972: 110-111. — Luce 1974: 126. — PPPB I, 176. —</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> von Hinüber 1991: 25 n. 53. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">— Skilling </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1997a:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 95 n. 7.</t>
+    </r>
+  </si>
+  <si>
+    <t>ASI 1910-11, pl. XLVII (1-2). — ASI 1911-12, pl. LXVIII (1). — Finot 1913, plate. — PPPB II, pl. 98 (c).</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ASI 1910-11, 89. — </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ASI 1911-12, 141-2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">— Finot 1912: 134-135 — Finot 1913. — PR, 35-36. — PPPB I, 61, 74 n. 4, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>XX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. — Stargardt 1995: 201.</t>
+    </r>
+  </si>
+  <si>
+    <t>ASI 1910-11, 93. — ASB 1911, 6, 41. — PPPB I, 158.</t>
+  </si>
+  <si>
+    <t>ASB 1911, 6, 41.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mya 1961, II, 31. — PPPB I, 155. — </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tun Aung Chain 2003: 9.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ASI 1927-28, 127-8, 145. — Ray 1936: 19-20. — PR, 41-3. — PPPB I, 51, 57 n. 24, 65, 74 n. 22, 131-2. — Guy 1997: 91-2; 2014: 91-2 (cat. 41). — Tun Aung Chain 2003: 5-6.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>De Beylié 1907a: 9, 83, 108. — Blagden 1911 (A). — EB I, 1, 59-68 (A). —  Shafer 1943: 320-37,340-44, 357-63. — PR, 53-61. —</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> PPPB I, 62-4, 74 n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>15. — Tun Aung Chain 2003: 7-8. — Krech 2012: 153-65 (A).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Blagden 1913-14 (B). — EB I, 1, 59-68 (B). —  Shafer 1943: 320-37, 340-44, 357-63. — PR, 63-71. — PPPB I, 62-4, 74 n. 15. — Tun Aung Chain 2003: 7-8. — Krech 2012: 153-65 (B).</t>
+    </r>
+  </si>
+  <si>
+    <t>Mahlo 2012: 167 (app. 27.1).</t>
+  </si>
+  <si>
+    <t>Mahlo 2012: 167 (app. 27.2).</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">San Win 1998, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2000-1, 2003. —</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> unnumbered pages in MHRJ 11. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>—Tun Aung Chain 2003: 1-4.</t>
+    </r>
+  </si>
+  <si>
+    <t>Middleton 2005, App.58, pp. 173-4.</t>
+  </si>
+  <si>
+    <t>ASI 1929-30, pl. XLI (e). — IB IV, CCCLVII (a). — PPPB II, 52b.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ASI 1929-30, pl. XLI (a).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Corps)"/>
+      </rPr>
+      <t xml:space="preserve"> — IB IV, CCCLVII (b).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -2365,29 +2463,73 @@
     </r>
   </si>
   <si>
-    <t>For another(more damaged) specimen of sun+moon symbol, see PYU61.</t>
-  </si>
-  <si>
-    <t>Tawadeintha (Tāvatiṁsa) pagoda in hills west of Sriksetra</t>
-  </si>
-  <si>
-    <t>two words</t>
-  </si>
-  <si>
-    <t>Tawadeintha (Tāvatiṁsa) pagod, Sriksetra</t>
-  </si>
-  <si>
-    <t>Found in 1935. We do not believe this inscription comprises any parts in Sanskrit, despite statements in the literature to that effect.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">ASI 1934-35, pl. XXII (a). — </t>
+    <t>ASI 1911-12, pl. LXIX (1). — Blagden 1913-14 (D1). — ASB 1913, pl. I (1-2). — IB IV, CCCLIV (d). — PPPB II, pl. 5a, 6a.</t>
+  </si>
+  <si>
+    <t>Blagden 1913-14 (C). — IB IV, CCCLIV (c). — PPPB II, pl. 5bc, 6b.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Blagden 1913-14 (A). — ASI 1911-12, pl. LXIX (1). — IB IV, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CCCLIV (a). — PPPB II, pl. 5d, 6c.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Blagden 1913-14 (B1). — ASI 1911-12, pl. LXVIII (3). — IB IV, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CCCLIV (b). — PPPB II, pl. 5 (ef), 6 (d).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Blagden 1913-14 (B2). — </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IB IV, CCCLIV (b). — PPPB II, pl. 6 (d).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Corps)"/>
+      </rPr>
+      <t xml:space="preserve">IB IV, CCCLV (a). — </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">PR, 49. — PPPB II, pl. 7. — </t>
     </r>
     <r>
       <rPr>
@@ -2396,7 +2538,121 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">IB V, 569. </t>
+      <t>RTI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>ASI 1926-27, 175-6. — PR, 34. — Le May 1956: 48. — PPPB I, 51, 57 n. 23, 137. — Falk 1997: 88-91. — Stargardt 2001: 498, 503-6. — Guy 2014: 80-2 (cat. 27).</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ASI 1927-28, pl. LIV (g, h). — IB IV, CCCLVI (a). —PPPB II, pl. 16-7. — </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RTI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Corps)"/>
+      </rPr>
+      <t>IB IV, CCCLVI (b).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> —</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> RTI.</t>
+    </r>
+  </si>
+  <si>
+    <t>IB V, DLXX (b). — PPPB II, pl. 8abc.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Corps)"/>
+      </rPr>
+      <t xml:space="preserve">IB V, DLXX (a). — </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RTI.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ASI 1934-35, pl. XXII (a). —</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Corps)"/>
+      </rPr>
+      <t xml:space="preserve"> IB V, DLXIX.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -2415,28 +2671,418 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Corps)"/>
+      </rPr>
+      <t>RTI.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B V,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Corps)"/>
+      </rPr>
+      <t xml:space="preserve"> DLV and DLVI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> —</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve"> RTI.</t>
     </r>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ASI 1934-35, 45-6. — Le May 1956: 47. — PPPB I, 65, 75 n. 25, 131.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">According to Luce, read by Blagden but his reading never published. </t>
+      <t xml:space="preserve">De Beylié 1907a: 83 (n. 1). — </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Corps)"/>
+      </rPr>
+      <t>ASB 1907, 10; 1910, 21; 1913, 15;  1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Corps)"/>
+      </rPr>
+      <t>916, 18 (with n. ‡),</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Corps)"/>
+      </rPr>
+      <t xml:space="preserve"> 55; 1917, 25; 1922, 17.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — Blagden 1913-14: 127 (6). — Chen Yi-Sein 1960. — PPPB I, 67, 76 n. 38-39.</t>
+    </r>
+  </si>
+  <si>
+    <t>Blagden 1913-14: 127 (E). — ASB 1913, 14-5; 1914-15, 21-3. —  PPPB I, 65, 75 n. 24, 127.</t>
+  </si>
+  <si>
+    <t>Indicated in IB IV (1956) to be held at Archaeological Office, Mandalay.</t>
+  </si>
+  <si>
+    <t>Duroiselle indicated that the urn was in the Archaeological Office at Mandalay at the time he wrote; the same was still indicated in IB V (1956).</t>
+  </si>
+  <si>
+    <t>Removed to Amarapura by King Bodawpaya in 1793 CE; from there to Mandalay in 1941 (see IB IV, p. 21).</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>De Beylié 1907a, pl. VIII. — EB I, 1, pl. IV (A). —</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Corps)"/>
+      </rPr>
+      <t xml:space="preserve"> IB IV, CCCCLXIII (a). </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>— RTI.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">EB I, 1, pl. IV (B). </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Corps)"/>
+      </rPr>
+      <t>—  IB IV, CCCCLXIII (b).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  — RTI.</t>
+    </r>
+  </si>
+  <si>
+    <t>Dated 1112 CE. But see extensive debate on actual date of the inscription.</t>
+  </si>
+  <si>
+    <r>
+      <t>"These are the bones of the deceased, Lord Rū</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ḅa, grandson of Nga Kno, son of Lord Davinimli".</t>
+    </r>
+  </si>
+  <si>
+    <t>Formerly Pagan Museum, nr. 96.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Halin Museum, nr. 2014/1/25 </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ASB 1904-05, 8-9, 35; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Corps)"/>
+      </rPr>
+      <t>1915, 21-3; 1913, 15; 1915, 21-3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">— ASI </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Corps)"/>
+      </rPr>
+      <t>1904-05, 126</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>; 1929-30, 152. — PR, 21.—PPPB I, 66, 75 n. 27, 149. — Shafer 1943: 339.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">See also PYU25. — ASI 1911-12 fig. 1 on p. 149 shows Blagden’s D1 urn (but it is identified as being from the Bawbawgyi, which must be a mistake). </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Corps)"/>
+      </rPr>
+      <t>IB IV, p. 39, assigns the absolute date 35 BE, but the interpretation as a date in that era is uncertain (see Frasch 20??).</t>
+    </r>
+  </si>
+  <si>
+    <t>IB IV, p. 39, assigns the absolute date 57 BE, but the interpretation as a date in that era is uncertain (see Frasch 20??).</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">See also PYU26. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Corps)"/>
+      </rPr>
+      <t>IB IV, p. 39, assigns the absolute date 80 BE, but the interpretation as a date in that era is uncertain (see Frasch 20??).</t>
+    </r>
+  </si>
+  <si>
+    <t>Wrongly said to come from Bawbawgyi in ASI 1911-12, 147. IB IV, p. 39, assigns the absolute date 50 BE, but the interpretation as a date in that era is uncertain (see Frasch 20??).</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ASI 1912-13, pt. I, 29. — Blagden 1913-14 (C). — ASB </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Corps)"/>
+      </rPr>
+      <t>1912, 7, 11-2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>; 1913, 13-4; 1914, 20. — PR, 47 (C), 51. — PPPB I, 48, 57 n. 13, 126-7.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ASI 1911-12, 147. — ASB 1912, 7, 11; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Corps)"/>
+      </rPr>
+      <t>1913, 13-5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. — Blagden 1913-14 (B1). — PR, 47 (B), 50. — PPPB I, 48, 57 n. 13, 126-7. — Shafer 1943: 339. — Guy 2014: 76-7 (cat. 24).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ASI 1911-12, 147; 1912-13, pt. I, 29. — ASB </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Corps)"/>
+      </rPr>
+      <t>1912, 7, 11-2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>; 1913, 9-10, 14. — Blagden 1913-14 (D1). — PR, 47 (D), 51. — PPPB I, 48, 57 n. 13, 126-7.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ASI 1911-12, 147. — ASB 1912, 7, 11; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Corps)"/>
+      </rPr>
+      <t>1913, 13-5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. — Blagden 1913-14 (A). — PR, 47 (A), 50. — PPPB I, 48, 57 n. 13, 126-7.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>According to Luce (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>where</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Corps)"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">), read by Blagden but his reading was never published. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
@@ -2444,455 +3090,36 @@
     </r>
   </si>
   <si>
-    <t>Blagden 1913-14: 127 (D2). —ASB 1913, 14. — PPPB I, 65, 75 n. 23, 127.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ASB 1904-05, 8-9, 35; 1915, 21-23.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>— ASI 1929-30, 152. — PR, 21.—PPPB I, 66, 75 n. 27, 149. — Shafer 1943: 339.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Blagden 1913-14: 127 (E). — ASB 1913, 14-15; 1914-15, 21-23. —  PPPB I, 65, 75 n. 24, 127.</t>
-    </r>
-  </si>
-  <si>
-    <t>De Beylié 1907a: 82-3. — ASI 1909-10, 120. — Blagden 1913-14: 127 (2). — PPPB I, 129.</t>
-  </si>
-  <si>
-    <t>De Beylié 1907a: 83 (n. 1). — Blagden 1913-14: 127 (6). —ASB 1916, 18 (with n. ‡). — Chen Yi-Sein 1960. — PPPB I, 67, 76 n. 38-39.</t>
-  </si>
-  <si>
-    <r>
-      <t>Blagden 1913-14: 127 (5).</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> — ASB 1912, 12 §37.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ASI 1926-27, pl. XXXVII (d), XXXVIII (c). — Le May 1956, fig. 4. — Mya 1961, II, pl. 1, 5, 6. — PPPB II, pl. 28-29. — Guy 2014: 66 (fig. 54), 81 (cat. 27). — </t>
+    <r>
+      <t xml:space="preserve">Blagden 1913-14: 127 (D2). —ASB 1913, 14, </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>RTI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ASB 1964, pl. 25. — PPPB II, pl. 51. —</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> RTI.</t>
-    </r>
-  </si>
-  <si>
-    <t>Blagden 1913-14: 127 (B2). — PPPB I, 126.</t>
-  </si>
-  <si>
-    <t>found in 1982</t>
-  </si>
-  <si>
-    <t>De Beylié 1907a: 89 fig. 62. — ASI 1909-10, pl. XLIX (12, 13). — Mya 1961, II, pl. 60 (gha). — PPPB II, 59 (f).</t>
-  </si>
-  <si>
-    <t>Luce refers to De Beylié 1907a, pl. V (3); 246 fig. 199. The latter is an error for 1907b: 246 fig. 199. Luce was wrong in citing these photos published by De Beylié, for De Beylié does not say that they show the obverse of the inscribed reverse copied in his (1907a) fig. 62. Comparing the other photos available, it seems obvious that de Beylié's V (3) and 62 have no connection with each other. Delhine Desoutter has shown us three other specimens of tablets made from the same mold.</t>
-  </si>
-  <si>
-    <t>Blagden 1913-14 (B1). — ASI 1911-12, 147. — ASB 1912, 7, 11. — PR, 47 (B), 50. — PPPB I, 48, 57 n. 13, 126-7. — Shafer 1943: 339. — Guy 2014: 76-7 (cat. 24).</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Blagden 1913-14 (B2). — </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>IB IV, 354b</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. — PPPB II, pl. 6 (d).</t>
-    </r>
-  </si>
-  <si>
-    <t>ASB 1964, 19-20, 59. — PPPB I, 65, 75 n. 26, 149.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ASI 1926-27, 175-6. — PR, 34. — Le May 1956: 48. — PPPB I, 51, 57 n. 23, 137. — Falk 1997: 88-91. — Stargardt 2001: 498, 503-6. — Guy 2014: 80-2 (cat. 27).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Nyunt Han </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>et al</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. 2006: 13. — Moore 2009: 111-12.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Aung Thaw </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>et al</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. 1993: 135.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> Minte mound, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Hmawza</t>
-    </r>
-  </si>
-  <si>
-    <t>Khin Ba mound, Sriksetra</t>
-  </si>
-  <si>
-    <t>Aung Thaw 1972: 110, 116.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Aung Thaw 1972: 110-111. — Luce 1974: 126. — PPPB I, 176. —</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> von Hinüber 1991: 25 n. 53. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">— Skilling </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1997a:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 95 n. 7.</t>
-    </r>
-  </si>
-  <si>
-    <t>ASI 1910-11, pl. XLVII (1-2). — ASI 1911-12, pl. LXVIII (1). — Finot 1913, plate. — PPPB II, pl. 98 (c).</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ASI 1910-11, 89. — </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">ASI 1911-12, 141-2. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">— Finot 1912: 134-135 — Finot 1913. — PR, 35-36. — PPPB I, 61, 74 n. 4, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>XX</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. — Stargardt 1995: 201.</t>
-    </r>
-  </si>
-  <si>
-    <t>ASI 1910-11, 93. — ASB 1911, 6, 41. — PPPB I, 158.</t>
-  </si>
-  <si>
-    <t>ASB 1911, 6, 41.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Mya 1961, II, 31. — PPPB I, 155. — </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Tun Aung Chain 2003: 9.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ASI 1927-28, 127-8, 145. — Ray 1936: 19-20. — PR, 41-3. — PPPB I, 51, 57 n. 24, 65, 74 n. 22, 131-2. — Guy 1997: 91-2; 2014: 91-2 (cat. 41). — Tun Aung Chain 2003: 5-6.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>De Beylié 1907a: 9, 83, 108. — Blagden 1911 (A). — EB I, 1, 59-68 (A). —  Shafer 1943: 320-37,340-44, 357-63. — PR, 53-61. —</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> PPPB I, 62-4, 74 n. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>15. — Tun Aung Chain 2003: 7-8. — Krech 2012: 153-65 (A).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Blagden 1913-14 (B). — EB I, 1, 59-68 (B). —  Shafer 1943: 320-37, 340-44, 357-63. — PR, 63-71. — PPPB I, 62-4, 74 n. 15. — Tun Aung Chain 2003: 7-8. — Krech 2012: 153-65 (B).</t>
-    </r>
-  </si>
-  <si>
-    <t>Mahlo 2012: 167 (app. 27.1).</t>
-  </si>
-  <si>
-    <t>Mahlo 2012: 167 (app. 27.2).</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">San Win 1998, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2000-1, 2003. —</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> unnumbered pages in MHRJ 11. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>—Tun Aung Chain 2003: 1-4.</t>
-    </r>
-  </si>
-  <si>
-    <t>Middleton 2005, App.58, pp. 173-4.</t>
+        <rFont val="Calibri (Corps)"/>
+      </rPr>
+      <t>41</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. — PPPB I, 65, 75 n. 23, 127.</t>
+    </r>
+  </si>
+  <si>
+    <t>Found in 1966; text almost entirely obliterated.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2919,12 +3146,6 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Minion Pro IE"/>
       <family val="2"/>
     </font>
     <font>
@@ -3044,6 +3265,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri (Corps)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri (Corps)"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -3138,238 +3376,238 @@
   </borders>
   <cellStyleXfs count="231">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3395,10 +3633,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3407,64 +3661,48 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3476,36 +3714,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3515,32 +3753,32 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3549,17 +3787,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="231">
@@ -4095,8 +4351,8 @@
   </sheetPr>
   <dimension ref="A1:K126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4113,7 +4369,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="4"/>
@@ -4122,7 +4378,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2" s="64" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="C2" s="64"/>
       <c r="D2" s="4"/>
@@ -4141,10 +4397,10 @@
         <v>15</v>
       </c>
       <c r="D3" s="67" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E3" s="69" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F3" s="70" t="s">
         <v>11</v>
@@ -4156,7 +4412,7 @@
         <v>13</v>
       </c>
       <c r="I3" s="65" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J3" s="65" t="s">
         <v>16</v>
@@ -4180,206 +4436,212 @@
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
     </row>
-    <row r="5" spans="1:11" ht="60" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="75" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <v>1</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="C5" s="11">
         <v>2</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>189</v>
+        <v>488</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>208</v>
+        <v>486</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>436</v>
+        <v>463</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>464</v>
-      </c>
-      <c r="K5" s="10"/>
-    </row>
-    <row r="6" spans="1:11" ht="75" x14ac:dyDescent="0.2">
+        <v>489</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="90" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <v>2</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="H6" s="10"/>
       <c r="I6" s="19" t="s">
-        <v>437</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>465</v>
+        <v>474</v>
+      </c>
+      <c r="J6" s="19" t="s">
+        <v>479</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="90" x14ac:dyDescent="0.2">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="150" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <v>3</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C7" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H7" s="10" t="s">
         <v>6</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>438</v>
+        <v>465</v>
       </c>
       <c r="J7" s="19" t="s">
-        <v>431</v>
+        <v>496</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="60" x14ac:dyDescent="0.2">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="105" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <v>4</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C8" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="H8" s="10" t="s">
         <v>7</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>420</v>
+        <v>466</v>
       </c>
       <c r="J8" s="19" t="s">
-        <v>430</v>
-      </c>
-      <c r="K8" s="10"/>
-    </row>
-    <row r="9" spans="1:11" ht="45" x14ac:dyDescent="0.2">
+        <v>494</v>
+      </c>
+      <c r="K8" s="23" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="75" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <v>5</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C9" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="H9" s="10" t="s">
         <v>8</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>439</v>
+        <v>467</v>
       </c>
       <c r="J9" s="19" t="s">
-        <v>421</v>
-      </c>
-      <c r="K9" s="10"/>
+        <v>497</v>
+      </c>
+      <c r="K9" s="23" t="s">
+        <v>491</v>
+      </c>
     </row>
     <row r="10" spans="1:11" ht="75" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <v>6</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C10" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="H10" s="10" t="s">
         <v>9</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>444</v>
+        <v>468</v>
       </c>
       <c r="J10" s="19" t="s">
-        <v>475</v>
-      </c>
-      <c r="K10" s="10" t="s">
-        <v>99</v>
+        <v>495</v>
+      </c>
+      <c r="K10" s="75" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="90" x14ac:dyDescent="0.2">
@@ -4387,34 +4649,34 @@
         <v>7</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G11" s="46" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="H11" s="10" t="s">
         <v>0</v>
       </c>
       <c r="I11" s="23" t="s">
-        <v>440</v>
+        <v>483</v>
       </c>
       <c r="J11" s="23" t="s">
-        <v>491</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>116</v>
+        <v>457</v>
+      </c>
+      <c r="K11" s="76" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="75" x14ac:dyDescent="0.2">
@@ -4422,34 +4684,34 @@
         <v>8</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="D12" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="G12" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="E12" s="17" t="s">
-        <v>321</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="G12" s="46" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>247</v>
-      </c>
       <c r="I12" s="23" t="s">
-        <v>422</v>
+        <v>484</v>
       </c>
       <c r="J12" s="23" t="s">
-        <v>492</v>
+        <v>458</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="45" x14ac:dyDescent="0.2">
@@ -4457,27 +4719,27 @@
         <v>9</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
       <c r="E13" s="19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>4</v>
       </c>
       <c r="G13" s="32" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>441</v>
+        <v>418</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="K13" s="10"/>
     </row>
@@ -4486,100 +4748,100 @@
         <v>10</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F14" s="27" t="s">
         <v>5</v>
       </c>
       <c r="G14" s="27" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H14" s="26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I14" s="23" t="s">
-        <v>446</v>
+        <v>422</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>466</v>
+        <v>436</v>
       </c>
       <c r="K14" s="10"/>
     </row>
-    <row r="15" spans="1:11" ht="60" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="90" x14ac:dyDescent="0.2">
       <c r="A15" s="9">
         <v>11</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>447</v>
+        <v>423</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G15" s="46" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="H15" s="10" t="s">
         <v>2</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>371</v>
+        <v>477</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>467</v>
+        <v>478</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="45" x14ac:dyDescent="0.2">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="60" x14ac:dyDescent="0.2">
       <c r="A16" s="9">
         <v>12</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>142</v>
+        <v>105</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H16" s="10"/>
       <c r="I16" s="23" t="s">
-        <v>94</v>
+        <v>475</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>468</v>
+        <v>437</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>25</v>
+        <v>482</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="45" x14ac:dyDescent="0.2">
@@ -4587,10 +4849,10 @@
         <v>13</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D17" s="30"/>
       <c r="E17" s="47"/>
@@ -4598,16 +4860,16 @@
         <v>3</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="H17" s="62" t="s">
-        <v>452</v>
+        <v>428</v>
       </c>
       <c r="I17" s="46" t="s">
-        <v>448</v>
+        <v>424</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>449</v>
+        <v>425</v>
       </c>
       <c r="K17" s="46"/>
     </row>
@@ -4616,7 +4878,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C18" s="28" t="s">
         <v>19</v>
@@ -4624,22 +4886,22 @@
       <c r="D18" s="30"/>
       <c r="E18" s="47"/>
       <c r="F18" s="46" t="s">
-        <v>433</v>
+        <v>415</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="H18" s="45" t="s">
-        <v>445</v>
+        <v>421</v>
       </c>
       <c r="I18" s="46" t="s">
-        <v>473</v>
+        <v>442</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>450</v>
+        <v>426</v>
       </c>
       <c r="K18" s="46" t="s">
-        <v>474</v>
+        <v>443</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="45" x14ac:dyDescent="0.2">
@@ -4647,30 +4909,30 @@
         <v>15</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C19" s="30" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D19" s="30"/>
       <c r="E19" s="47" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>456</v>
+        <v>431</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="H19" s="46"/>
       <c r="I19" s="46" t="s">
-        <v>434</v>
+        <v>416</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>487</v>
+        <v>453</v>
       </c>
       <c r="K19" s="45" t="s">
-        <v>451</v>
+        <v>427</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="75" x14ac:dyDescent="0.2">
@@ -4678,63 +4940,65 @@
         <v>16</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>453</v>
+        <v>429</v>
       </c>
       <c r="G20" s="24" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="H20" s="13"/>
       <c r="I20" s="19" t="s">
-        <v>317</v>
+        <v>472</v>
       </c>
       <c r="J20" s="13" t="s">
-        <v>490</v>
-      </c>
-      <c r="K20" s="13"/>
+        <v>456</v>
+      </c>
+      <c r="K20" s="13" t="s">
+        <v>480</v>
+      </c>
     </row>
     <row r="21" spans="1:11" ht="45" x14ac:dyDescent="0.2">
       <c r="A21" s="21">
         <v>17</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C21" s="20">
         <v>8</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="G21" s="24" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H21" s="13"/>
       <c r="I21" s="13" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="J21" s="19" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="K21" s="13" t="s">
-        <v>455</v>
+        <v>430</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="22" customFormat="1" ht="60" x14ac:dyDescent="0.2">
@@ -4742,30 +5006,30 @@
         <v>18</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="H22" s="13"/>
       <c r="I22" s="23" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J22" s="19"/>
       <c r="K22" s="13" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="30" x14ac:dyDescent="0.2">
@@ -4773,30 +5037,30 @@
         <v>19</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="C23" s="20">
         <v>3</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F23" s="19" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G23" s="24" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J23" s="22"/>
       <c r="K23" s="19" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:11" s="22" customFormat="1" ht="75" x14ac:dyDescent="0.2">
@@ -4804,29 +5068,29 @@
         <v>20</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C24" s="20">
         <v>5</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F24" s="19" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="H24" s="13"/>
       <c r="I24" s="13" t="s">
-        <v>435</v>
+        <v>417</v>
       </c>
       <c r="J24" s="13" t="s">
-        <v>495</v>
+        <v>461</v>
       </c>
       <c r="K24" s="13"/>
     </row>
@@ -4835,30 +5099,30 @@
         <v>21</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F25" s="19" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G25" s="24" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="51" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J25" s="22"/>
       <c r="K25" s="19" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:11" s="6" customFormat="1" ht="90" x14ac:dyDescent="0.2">
@@ -4866,32 +5130,32 @@
         <v>22</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F26" s="19" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G26" s="24" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H26" s="13"/>
       <c r="I26" s="13" t="s">
-        <v>460</v>
+        <v>476</v>
       </c>
       <c r="J26" s="13" t="s">
-        <v>461</v>
-      </c>
-      <c r="K26" s="13" t="s">
-        <v>459</v>
+        <v>435</v>
+      </c>
+      <c r="K26" s="10" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="105" x14ac:dyDescent="0.2">
@@ -4899,30 +5163,30 @@
         <v>23</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="D27" s="20"/>
       <c r="E27" s="19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F27" s="19" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="G27" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H27" s="13"/>
       <c r="I27" s="19" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="J27" s="19" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="K27" s="13" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="75" x14ac:dyDescent="0.2">
@@ -4930,29 +5194,29 @@
         <v>24</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F28" s="19" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="H28" s="13"/>
       <c r="I28" s="19" t="s">
-        <v>469</v>
-      </c>
-      <c r="J28" s="13" t="s">
-        <v>478</v>
+        <v>438</v>
+      </c>
+      <c r="J28" s="19" t="s">
+        <v>471</v>
       </c>
       <c r="K28" s="13"/>
     </row>
@@ -4961,65 +5225,65 @@
         <v>25</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E29" s="19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F29" s="19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G29" s="24" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H29" s="13"/>
       <c r="I29" s="13" t="s">
-        <v>215</v>
+        <v>470</v>
       </c>
       <c r="J29" s="19" t="s">
-        <v>463</v>
+        <v>499</v>
       </c>
       <c r="K29" s="19" t="s">
-        <v>462</v>
+        <v>498</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="30" x14ac:dyDescent="0.2">
-      <c r="A30" s="21">
+      <c r="A30" s="71">
         <v>26</v>
       </c>
-      <c r="B30" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="C30" s="20" t="s">
+      <c r="B30" s="72" t="s">
+        <v>141</v>
+      </c>
+      <c r="C30" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="D30" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="E30" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="F30" s="19" t="s">
-        <v>399</v>
-      </c>
-      <c r="G30" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="H30" s="13"/>
-      <c r="I30" s="19" t="s">
-        <v>476</v>
-      </c>
-      <c r="J30" s="19" t="s">
-        <v>471</v>
-      </c>
-      <c r="K30" s="13" t="s">
-        <v>98</v>
+      <c r="D30" s="73" t="s">
+        <v>124</v>
+      </c>
+      <c r="E30" s="72" t="s">
+        <v>53</v>
+      </c>
+      <c r="F30" s="72" t="s">
+        <v>388</v>
+      </c>
+      <c r="G30" s="72" t="s">
+        <v>154</v>
+      </c>
+      <c r="H30" s="74"/>
+      <c r="I30" s="75" t="s">
+        <v>469</v>
+      </c>
+      <c r="J30" s="72" t="s">
+        <v>440</v>
+      </c>
+      <c r="K30" s="74" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="30" x14ac:dyDescent="0.2">
@@ -5027,29 +5291,29 @@
         <v>27</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D31" s="20" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E31" s="19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="H31" s="13"/>
       <c r="I31" s="13" t="s">
-        <v>470</v>
+        <v>439</v>
       </c>
       <c r="J31" s="19" t="s">
-        <v>477</v>
+        <v>444</v>
       </c>
       <c r="K31" s="13"/>
     </row>
@@ -5058,30 +5322,30 @@
         <v>28</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C32" s="28" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D32" s="28" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="E32" s="19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F32" s="24" t="s">
-        <v>481</v>
+        <v>447</v>
       </c>
       <c r="G32" s="24" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="H32" s="13"/>
       <c r="I32" s="19"/>
       <c r="J32" s="19" t="s">
-        <v>480</v>
+        <v>446</v>
       </c>
       <c r="K32" s="13" t="s">
-        <v>216</v>
+        <v>500</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="30" x14ac:dyDescent="0.2">
@@ -5089,61 +5353,59 @@
         <v>29</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C33" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E33" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="F33" s="13" t="s">
-        <v>482</v>
+        <v>53</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>448</v>
       </c>
       <c r="G33" s="12" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="H33" s="13"/>
       <c r="I33" s="25" t="s">
-        <v>291</v>
+        <v>473</v>
       </c>
       <c r="J33" s="24"/>
-      <c r="K33" s="13" t="s">
-        <v>418</v>
-      </c>
+      <c r="K33" s="13"/>
     </row>
     <row r="34" spans="1:11" ht="30" x14ac:dyDescent="0.2">
       <c r="A34" s="21">
         <v>30</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>442</v>
+        <v>419</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D34" s="20" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E34" s="19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F34" s="25" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="G34" s="24" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H34" s="24"/>
       <c r="I34" s="13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J34" s="13"/>
       <c r="K34" s="24" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="30" x14ac:dyDescent="0.2">
@@ -5151,26 +5413,26 @@
         <v>31</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>443</v>
+        <v>420</v>
       </c>
       <c r="C35" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D35" s="20" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E35" s="19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G35" s="24" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="H35" s="13"/>
       <c r="I35" s="13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J35" s="13"/>
       <c r="K35" s="13"/>
@@ -5180,32 +5442,32 @@
         <v>32</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D36" s="20" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E36" s="19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="H36" s="13"/>
       <c r="I36" s="13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J36" s="12" t="s">
-        <v>479</v>
+        <v>445</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>472</v>
+        <v>441</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="30" x14ac:dyDescent="0.2">
@@ -5213,27 +5475,27 @@
         <v>33</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D37" s="28" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="E37" s="19"/>
       <c r="F37" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="H37" s="13"/>
       <c r="I37" s="19" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="J37" s="13" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="K37" s="13"/>
     </row>
@@ -5242,32 +5504,32 @@
         <v>34</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="C38" s="28" t="s">
         <v>19</v>
       </c>
       <c r="D38" s="28" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H38" s="12"/>
       <c r="I38" s="12" t="s">
-        <v>496</v>
+        <v>462</v>
       </c>
       <c r="J38" s="12" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="K38" s="12" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="45" x14ac:dyDescent="0.2">
@@ -5275,29 +5537,29 @@
         <v>35</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D39" s="20" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="E39" s="19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F39" s="19" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="H39" s="13"/>
       <c r="I39" s="13" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="J39" s="13" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="K39" s="13"/>
     </row>
@@ -5306,32 +5568,32 @@
         <v>36</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="C40" s="28" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D40" s="28" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="E40" s="18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="H40" s="18"/>
       <c r="I40" s="18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J40" s="12" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="K40" s="12" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="90" x14ac:dyDescent="0.2">
@@ -5339,32 +5601,32 @@
         <v>37</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="C41" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D41" s="48" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="G41" s="12" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="H41" s="13"/>
       <c r="I41" s="13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J41" s="13" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="K41" s="19" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
     </row>
     <row r="42" spans="1:11" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.2">
@@ -5372,29 +5634,29 @@
         <v>38</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C42" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D42" s="20" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E42" s="19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F42" s="19" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="G42" s="19" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="H42" s="13"/>
       <c r="I42" s="13" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="J42" s="19" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="K42" s="13"/>
     </row>
@@ -5403,30 +5665,30 @@
         <v>39</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="F43" s="13" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G43" s="29" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H43" s="13"/>
       <c r="I43" s="13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J43" s="13"/>
       <c r="K43" s="13" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="60" x14ac:dyDescent="0.2">
@@ -5434,32 +5696,32 @@
         <v>40</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D44" s="20" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="E44" s="19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="G44" s="12" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="H44" s="13"/>
       <c r="I44" s="19" t="s">
-        <v>483</v>
+        <v>449</v>
       </c>
       <c r="J44" s="13" t="s">
-        <v>484</v>
+        <v>450</v>
       </c>
       <c r="K44" s="19" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="30" x14ac:dyDescent="0.2">
@@ -5467,29 +5729,29 @@
         <v>41</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E45" s="19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F45" s="23" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G45" s="19" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="H45" s="13"/>
       <c r="I45" s="13" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="J45" s="13" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="K45" s="13"/>
     </row>
@@ -5498,29 +5760,29 @@
         <v>42</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D46" s="20" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E46" s="19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F46" s="19" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G46" s="12" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="H46" s="13"/>
       <c r="I46" s="13" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J46" s="13" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="K46" s="13"/>
     </row>
@@ -5529,25 +5791,25 @@
         <v>43</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="C47" s="14"/>
       <c r="D47" s="14"/>
       <c r="E47" s="13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F47" s="19" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="G47" s="12" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H47" s="13"/>
       <c r="I47" s="19" t="s">
-        <v>425</v>
+        <v>410</v>
       </c>
       <c r="J47" s="19" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="K47" s="13"/>
     </row>
@@ -5556,32 +5818,32 @@
         <v>44</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D48" s="20" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="E48" s="19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F48" s="19" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="G48" s="12" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H48" s="13"/>
       <c r="I48" s="19" t="s">
-        <v>485</v>
+        <v>451</v>
       </c>
       <c r="J48" s="10" t="s">
-        <v>486</v>
+        <v>452</v>
       </c>
       <c r="K48" s="13" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="45" x14ac:dyDescent="0.2">
@@ -5589,29 +5851,29 @@
         <v>45</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="C49" s="28" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="D49" s="28" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F49" s="19" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="G49" s="12" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="H49" s="13"/>
       <c r="I49" s="13" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="J49" s="13" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="K49" s="13"/>
     </row>
@@ -5620,27 +5882,27 @@
         <v>46</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="C50" s="28" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="D50" s="28"/>
       <c r="E50" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F50" s="19" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="G50" s="12" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="H50" s="13"/>
       <c r="I50" s="19" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="J50" s="19" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="K50" s="13"/>
     </row>
@@ -5649,24 +5911,24 @@
         <v>47</v>
       </c>
       <c r="B51" s="46" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C51" s="28" t="s">
         <v>19</v>
       </c>
       <c r="D51" s="28"/>
       <c r="E51" s="46" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G51" s="12" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="H51" s="18"/>
       <c r="I51" s="12" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="J51" s="12"/>
       <c r="K51" s="18"/>
@@ -5676,24 +5938,24 @@
         <v>48</v>
       </c>
       <c r="B52" s="46" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C52" s="28" t="s">
         <v>19</v>
       </c>
       <c r="D52" s="28"/>
       <c r="E52" s="46" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F52" s="12" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G52" s="12" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="H52" s="18"/>
       <c r="I52" s="12" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="J52" s="12"/>
       <c r="K52" s="18"/>
@@ -5703,27 +5965,27 @@
         <v>49</v>
       </c>
       <c r="B53" s="19" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C53" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D53" s="20"/>
       <c r="E53" s="19" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F53" s="19" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G53" s="19"/>
       <c r="H53" s="19" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="I53" s="19" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="J53" s="19" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="K53" s="19"/>
     </row>
@@ -5732,27 +5994,27 @@
         <v>50</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C54" s="28" t="s">
         <v>19</v>
       </c>
       <c r="D54" s="28"/>
       <c r="E54" s="12" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F54" s="12" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="G54" s="12"/>
       <c r="H54" s="12" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="I54" s="12" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="J54" s="12" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="K54" s="12"/>
     </row>
@@ -5761,26 +6023,26 @@
         <v>51</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D55" s="20" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E55" s="19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F55" s="19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G55" s="19" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="23" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J55" s="19"/>
       <c r="K55" s="19"/>
@@ -5790,29 +6052,29 @@
         <v>52</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C56" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D56" s="20" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E56" s="19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F56" s="19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G56" s="19" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="23" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="J56" s="19" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K56" s="19"/>
     </row>
@@ -5821,29 +6083,29 @@
         <v>53</v>
       </c>
       <c r="B57" s="19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C57" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D57" s="20" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E57" s="19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F57" s="19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G57" s="19" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="23" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="J57" s="19" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K57" s="19"/>
     </row>
@@ -5852,29 +6114,29 @@
         <v>54</v>
       </c>
       <c r="B58" s="19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C58" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D58" s="20" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E58" s="19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F58" s="19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G58" s="19" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="23" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="J58" s="19" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K58" s="19"/>
     </row>
@@ -5883,23 +6145,23 @@
         <v>55</v>
       </c>
       <c r="B59" s="19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C59" s="20"/>
       <c r="D59" s="20" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E59" s="23"/>
       <c r="F59" s="19"/>
       <c r="G59" s="19" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="23" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J59" s="23" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K59" s="19"/>
     </row>
@@ -5908,20 +6170,20 @@
         <v>56</v>
       </c>
       <c r="B60" s="19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C60" s="20"/>
       <c r="D60" s="20" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E60" s="23"/>
       <c r="F60" s="19"/>
       <c r="G60" s="19" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="23" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J60" s="19"/>
       <c r="K60" s="19"/>
@@ -5931,20 +6193,20 @@
         <v>57</v>
       </c>
       <c r="B61" s="19" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C61" s="20"/>
       <c r="D61" s="20" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E61" s="23"/>
       <c r="F61" s="19"/>
       <c r="G61" s="19" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="23" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J61" s="19"/>
       <c r="K61" s="19"/>
@@ -5954,29 +6216,29 @@
         <v>58</v>
       </c>
       <c r="B62" s="19" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="C62" s="20" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D62" s="20" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="E62" s="19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F62" s="19" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="G62" s="19" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="J62" s="19" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="K62" s="23"/>
     </row>
@@ -5985,27 +6247,27 @@
         <v>59</v>
       </c>
       <c r="B63" s="19" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="C63" s="20" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="D63" s="20"/>
       <c r="E63" s="19" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F63" s="19" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="G63" s="23" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H63" s="23"/>
       <c r="I63" s="23" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="J63" s="19" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="K63" s="19"/>
     </row>
@@ -6014,24 +6276,24 @@
         <v>60</v>
       </c>
       <c r="B64" s="19" t="s">
-        <v>442</v>
+        <v>419</v>
       </c>
       <c r="C64" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D64" s="20" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E64" s="19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F64" s="23"/>
       <c r="G64" s="19" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="H64" s="23"/>
       <c r="I64" s="23" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J64" s="19"/>
       <c r="K64" s="19"/>
@@ -6041,30 +6303,30 @@
         <v>61</v>
       </c>
       <c r="B65" s="19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C65" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D65" s="20" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E65" s="19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F65" s="23" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="G65" s="23" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="H65" s="23"/>
       <c r="I65" s="23" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J65" s="19"/>
       <c r="K65" s="19" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="66" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -6072,22 +6334,22 @@
         <v>62</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="C66" s="28"/>
       <c r="D66" s="28"/>
       <c r="E66" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F66" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G66" s="12" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="H66" s="12"/>
       <c r="I66" s="12" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="J66" s="12"/>
       <c r="K66" s="12"/>
@@ -6097,31 +6359,31 @@
         <v>63</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C67" s="28" t="s">
         <v>19</v>
       </c>
       <c r="D67" s="28" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="E67" s="12" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="F67" s="12" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="G67" s="12" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="H67" s="12" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="I67" s="12" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="J67" s="12" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="K67" s="12"/>
     </row>
@@ -6130,24 +6392,24 @@
         <v>64</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C68" s="28" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D68" s="28"/>
       <c r="E68" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F68" s="12" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="G68" s="12"/>
       <c r="H68" s="12"/>
       <c r="I68" s="12"/>
       <c r="J68" s="12"/>
       <c r="K68" s="12" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
     </row>
     <row r="69" spans="1:11" s="22" customFormat="1" ht="45" x14ac:dyDescent="0.2">
@@ -6155,29 +6417,29 @@
         <v>65</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C69" s="28" t="s">
         <v>19</v>
       </c>
       <c r="D69" s="28"/>
       <c r="E69" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F69" s="12" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="G69" s="12" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="H69" s="12" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="I69" s="12" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="J69" s="12" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="K69" s="12"/>
     </row>
@@ -6186,29 +6448,29 @@
         <v>66</v>
       </c>
       <c r="B70" s="24" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C70" s="58" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="D70" s="58"/>
       <c r="E70" s="24" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F70" s="24" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="G70" s="25" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H70" s="59" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="I70" s="24" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="J70" s="24" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="K70" s="59"/>
     </row>
@@ -6217,29 +6479,29 @@
         <v>67</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C71" s="28" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D71" s="28" t="s">
-        <v>427</v>
+        <v>412</v>
       </c>
       <c r="E71" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F71" s="12" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G71" s="12" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="H71" s="12"/>
       <c r="I71" s="12" t="s">
-        <v>429</v>
+        <v>414</v>
       </c>
       <c r="J71" s="12" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="K71" s="18"/>
     </row>
@@ -6248,19 +6510,19 @@
         <v>68</v>
       </c>
       <c r="B72" s="36" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C72" s="35"/>
       <c r="D72" s="35"/>
       <c r="E72" s="36" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F72" s="36"/>
       <c r="G72" s="36"/>
       <c r="H72" s="36"/>
       <c r="I72" s="36"/>
       <c r="J72" s="36" t="s">
-        <v>493</v>
+        <v>459</v>
       </c>
       <c r="K72" s="36"/>
     </row>
@@ -6269,19 +6531,19 @@
         <v>69</v>
       </c>
       <c r="B73" s="36" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C73" s="35"/>
       <c r="D73" s="35"/>
       <c r="E73" s="36" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F73" s="36"/>
       <c r="G73" s="36"/>
       <c r="H73" s="36"/>
       <c r="I73" s="36"/>
       <c r="J73" s="36" t="s">
-        <v>494</v>
+        <v>460</v>
       </c>
       <c r="K73" s="36"/>
     </row>
@@ -6290,159 +6552,159 @@
         <v>70</v>
       </c>
       <c r="B74" s="42" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C74" s="43" t="s">
         <v>19</v>
       </c>
       <c r="D74" s="43"/>
       <c r="E74" s="42" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F74" s="42" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="G74" s="34"/>
       <c r="H74" s="42"/>
       <c r="I74" s="42" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="J74" s="42" t="s">
-        <v>489</v>
+        <v>455</v>
       </c>
       <c r="K74" s="42"/>
     </row>
     <row r="75" spans="1:11" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A75" s="41"/>
       <c r="B75" s="42" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C75" s="43"/>
       <c r="D75" s="43"/>
       <c r="E75" s="42" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F75" s="42"/>
       <c r="G75" s="42" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="H75" s="42"/>
       <c r="I75" s="61" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="J75" s="42" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="K75" s="42"/>
     </row>
     <row r="76" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="41"/>
       <c r="B76" s="42" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C76" s="43" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D76" s="43"/>
       <c r="E76" s="42" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F76" s="42"/>
       <c r="G76" s="42" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H76" s="42"/>
       <c r="I76" s="42"/>
       <c r="J76" s="42" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="K76" s="42" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
     </row>
     <row r="77" spans="1:11" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A77" s="41"/>
       <c r="B77" s="42" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C77" s="43" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D77" s="43"/>
       <c r="E77" s="42" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F77" s="42" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="G77" s="42" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H77" s="36"/>
       <c r="I77" s="42" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="J77" s="42" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="K77" s="36"/>
     </row>
     <row r="78" spans="1:11" s="22" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A78" s="41"/>
       <c r="B78" s="42" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C78" s="43" t="s">
         <v>19</v>
       </c>
       <c r="D78" s="43"/>
       <c r="E78" s="42" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F78" s="42" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="G78" s="42" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H78" s="42"/>
       <c r="I78" s="42" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="J78" s="42" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="K78" s="42" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
     </row>
     <row r="79" spans="1:11" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A79" s="41"/>
       <c r="B79" s="42" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C79" s="43" t="s">
         <v>19</v>
       </c>
       <c r="D79" s="43"/>
       <c r="E79" s="34" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F79" s="42"/>
       <c r="G79" s="34"/>
       <c r="H79" s="42"/>
       <c r="I79" s="42" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="J79" s="42" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="K79" s="42"/>
     </row>
     <row r="80" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="41"/>
       <c r="B80" s="42" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C80" s="43"/>
       <c r="D80" s="43"/>
@@ -6451,119 +6713,119 @@
       <c r="G80" s="34"/>
       <c r="H80" s="42"/>
       <c r="I80" s="34" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="J80" s="34" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="K80" s="42"/>
     </row>
     <row r="81" spans="1:11" s="22" customFormat="1" ht="120" x14ac:dyDescent="0.2">
       <c r="A81" s="54"/>
       <c r="B81" s="37" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C81" s="55" t="s">
         <v>19</v>
       </c>
       <c r="D81" s="55"/>
       <c r="E81" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F81" s="42" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="G81" s="34" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H81" s="36"/>
       <c r="I81" s="42" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="J81" s="42" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="K81" s="36" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
     </row>
     <row r="82" spans="1:11" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A82" s="41"/>
       <c r="B82" s="42" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C82" s="43" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D82" s="43"/>
       <c r="E82" s="34" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F82" s="42"/>
       <c r="G82" s="34"/>
       <c r="H82" s="42"/>
       <c r="I82" s="42" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="J82" s="42" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="K82" s="42"/>
     </row>
     <row r="83" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="41"/>
       <c r="B83" s="42" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C83" s="43" t="s">
         <v>19</v>
       </c>
       <c r="D83" s="43"/>
       <c r="E83" s="34" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F83" s="42"/>
       <c r="G83" s="34"/>
       <c r="H83" s="42"/>
       <c r="I83" s="42" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="J83" s="42" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="K83" s="34" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
     </row>
     <row r="84" spans="1:11" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A84" s="41"/>
       <c r="B84" s="42" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C84" s="43" t="s">
         <v>19</v>
       </c>
       <c r="D84" s="43"/>
       <c r="E84" s="34" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F84" s="42" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="G84" s="34"/>
       <c r="H84" s="42"/>
       <c r="I84" s="42" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="J84" s="42" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="K84" s="42"/>
     </row>
     <row r="85" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="41"/>
       <c r="B85" s="42" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C85" s="43"/>
       <c r="D85" s="43"/>
@@ -6572,17 +6834,17 @@
       <c r="G85" s="34"/>
       <c r="H85" s="42"/>
       <c r="I85" s="34" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="J85" s="34" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="K85" s="42"/>
     </row>
     <row r="86" spans="1:11" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A86" s="41"/>
       <c r="B86" s="42" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C86" s="43" t="s">
         <v>19</v>
@@ -6593,74 +6855,74 @@
       <c r="G86" s="34"/>
       <c r="H86" s="42"/>
       <c r="I86" s="42" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="J86" s="34" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="K86" s="42"/>
     </row>
     <row r="88" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="41"/>
       <c r="B88" s="42" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C88" s="43" t="s">
         <v>19</v>
       </c>
       <c r="D88" s="43"/>
       <c r="E88" s="34" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F88" s="42" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="G88" s="34"/>
       <c r="H88" s="42"/>
       <c r="I88" s="42" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="J88" s="42" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="K88" s="42"/>
     </row>
     <row r="89" spans="1:11" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A89" s="41"/>
       <c r="B89" s="42" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C89" s="43" t="s">
-        <v>457</v>
+        <v>432</v>
       </c>
       <c r="D89" s="43"/>
       <c r="E89" s="34" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F89" s="42" t="s">
-        <v>458</v>
+        <v>433</v>
       </c>
       <c r="G89" s="34"/>
       <c r="H89" s="42"/>
       <c r="I89" s="42"/>
       <c r="J89" s="42" t="s">
-        <v>488</v>
+        <v>454</v>
       </c>
       <c r="K89" s="42"/>
     </row>
     <row r="90" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="33"/>
       <c r="B90" s="34" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C90" s="35" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D90" s="35"/>
       <c r="E90" s="36"/>
       <c r="F90" s="36"/>
       <c r="G90" s="36" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H90" s="36"/>
       <c r="I90" s="36"/>
@@ -6670,16 +6932,16 @@
     <row r="91" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="33"/>
       <c r="B91" s="34" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C91" s="35" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D91" s="35"/>
       <c r="E91" s="36"/>
       <c r="F91" s="36"/>
       <c r="G91" s="36" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H91" s="36"/>
       <c r="I91" s="36"/>
@@ -6689,7 +6951,7 @@
     <row r="92" spans="1:11" ht="45" x14ac:dyDescent="0.2">
       <c r="A92" s="33"/>
       <c r="B92" s="34" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C92" s="35"/>
       <c r="D92" s="35"/>
@@ -6698,10 +6960,10 @@
       <c r="G92" s="36"/>
       <c r="H92" s="36"/>
       <c r="I92" s="36" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="J92" s="36" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="K92" s="36"/>
     </row>
@@ -6712,20 +6974,20 @@
       <c r="D93" s="35"/>
       <c r="E93" s="36"/>
       <c r="F93" s="36" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="G93" s="36"/>
       <c r="H93" s="36"/>
       <c r="I93" s="36"/>
       <c r="J93" s="36" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="K93" s="36"/>
     </row>
     <row r="94" spans="1:11" ht="30" x14ac:dyDescent="0.2">
       <c r="A94" s="41"/>
       <c r="B94" s="42" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C94" s="43" t="s">
         <v>19</v>
@@ -6734,294 +6996,294 @@
       <c r="E94" s="34"/>
       <c r="F94" s="42"/>
       <c r="G94" s="42" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="H94" s="42"/>
       <c r="I94" s="42"/>
       <c r="J94" s="42"/>
       <c r="K94" s="42" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
     </row>
     <row r="95" spans="1:11" s="50" customFormat="1" ht="105" x14ac:dyDescent="0.2">
       <c r="A95" s="41"/>
       <c r="B95" s="42" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C95" s="43" t="s">
         <v>19</v>
       </c>
       <c r="D95" s="43"/>
       <c r="E95" s="42" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F95" s="42" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G95" s="42" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="H95" s="42"/>
       <c r="I95" s="34" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="J95" s="42"/>
       <c r="K95" s="42" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
     </row>
     <row r="96" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="41"/>
       <c r="B96" s="42" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C96" s="43" t="s">
         <v>19</v>
       </c>
       <c r="D96" s="43"/>
       <c r="E96" s="42" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F96" s="42"/>
       <c r="G96" s="42" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="H96" s="42"/>
       <c r="I96" s="42"/>
       <c r="J96" s="42" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K96" s="42"/>
     </row>
     <row r="97" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="41"/>
       <c r="B97" s="42" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C97" s="43" t="s">
         <v>19</v>
       </c>
       <c r="D97" s="43"/>
       <c r="E97" s="42" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F97" s="42"/>
       <c r="G97" s="42" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="H97" s="42"/>
       <c r="I97" s="42"/>
       <c r="J97" s="42" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K97" s="42"/>
     </row>
     <row r="98" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="41"/>
       <c r="B98" s="42" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C98" s="43" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D98" s="43"/>
       <c r="E98" s="42" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F98" s="42"/>
       <c r="G98" s="42" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H98" s="42"/>
       <c r="I98" s="42"/>
       <c r="J98" s="42" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K98" s="42"/>
     </row>
     <row r="99" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="41"/>
       <c r="B99" s="42" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C99" s="43" t="s">
         <v>19</v>
       </c>
       <c r="D99" s="43"/>
       <c r="E99" s="42" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F99" s="42"/>
       <c r="G99" s="42" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H99" s="42"/>
       <c r="I99" s="42"/>
       <c r="J99" s="42" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K99" s="42" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="100" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="41"/>
       <c r="B100" s="42" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C100" s="43" t="s">
         <v>19</v>
       </c>
       <c r="D100" s="43"/>
       <c r="E100" s="34" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F100" s="42"/>
       <c r="G100" s="42" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="H100" s="42" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="I100" s="42"/>
       <c r="J100" s="42"/>
       <c r="K100" s="42" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="101" spans="1:11" s="50" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A101" s="41"/>
       <c r="B101" s="42" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C101" s="43" t="s">
         <v>19</v>
       </c>
       <c r="D101" s="43"/>
       <c r="E101" s="42" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F101" s="42" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G101" s="42" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H101" s="42" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="I101" s="42"/>
       <c r="J101" s="42" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K101" s="42" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="102" spans="1:11" s="50" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A102" s="41"/>
       <c r="B102" s="42" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C102" s="43" t="s">
         <v>19</v>
       </c>
       <c r="D102" s="43"/>
       <c r="E102" s="42" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F102" s="42"/>
       <c r="G102" s="42" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="H102" s="42" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="I102" s="42"/>
       <c r="J102" s="42" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="K102" s="42"/>
     </row>
     <row r="103" spans="1:11" s="50" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A103" s="41"/>
       <c r="B103" s="42" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="C103" s="43" t="s">
         <v>19</v>
       </c>
       <c r="D103" s="43"/>
       <c r="E103" s="42" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F103" s="42"/>
       <c r="G103" s="42" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="H103" s="42" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="I103" s="42"/>
       <c r="J103" s="42" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="K103" s="42"/>
     </row>
     <row r="104" spans="1:11" s="50" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A104" s="41"/>
       <c r="B104" s="42" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="C104" s="43" t="s">
         <v>19</v>
       </c>
       <c r="D104" s="43"/>
       <c r="E104" s="42" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F104" s="42"/>
       <c r="G104" s="42" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="H104" s="42" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="I104" s="42"/>
       <c r="J104" s="42" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="K104" s="42" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
     </row>
     <row r="105" spans="1:11" s="50" customFormat="1" ht="195" x14ac:dyDescent="0.2">
       <c r="A105" s="41"/>
       <c r="B105" s="42" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C105" s="43" t="s">
         <v>19</v>
       </c>
       <c r="D105" s="43"/>
       <c r="E105" s="42" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F105" s="42"/>
       <c r="G105" s="42" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="H105" s="42" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="I105" s="42" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="J105" s="42" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="K105" s="42" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
     </row>
     <row r="106" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.2">
@@ -7032,21 +7294,21 @@
       <c r="E106" s="42"/>
       <c r="F106" s="42"/>
       <c r="G106" s="42" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="H106" s="34" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="I106" s="42"/>
       <c r="J106" s="42" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="K106" s="42"/>
     </row>
     <row r="107" spans="1:11" s="49" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A107" s="33"/>
       <c r="B107" s="42" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C107" s="35"/>
       <c r="D107" s="35"/>
@@ -7055,10 +7317,10 @@
       <c r="G107" s="36"/>
       <c r="H107" s="36"/>
       <c r="I107" s="36" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="J107" s="36" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="K107" s="36"/>
     </row>
@@ -7096,10 +7358,10 @@
       <c r="E110" s="15"/>
       <c r="F110" s="15"/>
       <c r="G110" s="52" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H110" s="53" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I110" s="15"/>
       <c r="J110" s="15"/>
@@ -7113,10 +7375,10 @@
       <c r="E111" s="15"/>
       <c r="F111" s="15"/>
       <c r="G111" s="40" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H111" s="31" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I111" s="15"/>
       <c r="J111" s="15"/>
@@ -7130,10 +7392,10 @@
       <c r="E112" s="15"/>
       <c r="F112" s="15"/>
       <c r="G112" s="39" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="H112" s="15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I112" s="15"/>
       <c r="J112" s="15"/>
@@ -7147,10 +7409,10 @@
       <c r="E113" s="15"/>
       <c r="F113" s="15"/>
       <c r="G113" s="39" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H113" s="15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I113" s="15"/>
       <c r="J113" s="15"/>
@@ -7164,10 +7426,10 @@
       <c r="E114" s="15"/>
       <c r="F114" s="15"/>
       <c r="G114" s="39" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H114" s="15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I114" s="15"/>
       <c r="J114" s="15"/>
@@ -7181,10 +7443,10 @@
       <c r="E115" s="15"/>
       <c r="F115" s="15"/>
       <c r="G115" s="39" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H115" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I115" s="15"/>
       <c r="J115" s="15"/>
@@ -7198,10 +7460,10 @@
       <c r="E116" s="15"/>
       <c r="F116" s="15"/>
       <c r="G116" s="39" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H116" s="15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I116" s="15"/>
       <c r="J116" s="15"/>
@@ -7215,7 +7477,7 @@
       <c r="E117" s="15"/>
       <c r="F117" s="15"/>
       <c r="G117" s="39" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H117" s="15"/>
       <c r="I117" s="15"/>
@@ -7230,10 +7492,10 @@
       <c r="E118" s="15"/>
       <c r="F118" s="15"/>
       <c r="G118" s="39" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="H118" s="15" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="I118" s="15"/>
       <c r="J118" s="15"/>
@@ -7247,10 +7509,10 @@
       <c r="E119" s="15"/>
       <c r="F119" s="15"/>
       <c r="G119" s="39" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H119" s="15" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="I119" s="15"/>
       <c r="J119" s="15"/>
@@ -7264,10 +7526,10 @@
       <c r="E120" s="15"/>
       <c r="F120" s="15"/>
       <c r="G120" s="39" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H120" s="15" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I120" s="15"/>
       <c r="J120" s="15"/>
@@ -7281,10 +7543,10 @@
       <c r="E121" s="15"/>
       <c r="F121" s="15"/>
       <c r="G121" s="39" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H121" s="15" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="I121" s="15"/>
       <c r="J121" s="15"/>
@@ -7298,10 +7560,10 @@
       <c r="E122" s="15"/>
       <c r="F122" s="15"/>
       <c r="G122" s="39" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H122" s="15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I122" s="15"/>
       <c r="J122" s="15"/>
@@ -7322,17 +7584,17 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G124" s="39" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G125" s="39" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G126" s="39" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -7349,7 +7611,7 @@
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="D3:D4"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="14" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -7363,7 +7625,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
-  <phoneticPr fontId="23" type="noConversion"/>
+  <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -7377,7 +7639,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
-  <phoneticPr fontId="23" type="noConversion"/>
+  <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/inventory/INVENTORY OF PYU INSCRIPTIONS.xlsx
+++ b/inventory/INVENTORY OF PYU INSCRIPTIONS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10280" yWindow="460" windowWidth="18900" windowHeight="14460"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14660"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="504">
   <si>
     <r>
       <t>Building of a shrine by Prince R</t>
@@ -1332,9 +1332,6 @@
   </si>
   <si>
     <t>ASI 1927-28, 125. — Mya 1961, I, 69. — OBEP II, 44-5.</t>
-  </si>
-  <si>
-    <t>ASI 1910-11, 90. — Mya 1961, II, 33.</t>
   </si>
   <si>
     <t>ASI 1928-29, 108. — Ray 1936: 20. — PPPB I, 146.</t>
@@ -2139,7 +2136,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Nyunt Han </t>
+      <t xml:space="preserve">Aung Thaw </t>
     </r>
     <r>
       <rPr>
@@ -2157,29 +2154,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>. 2006: 13. — Moore 2009: 111-12.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Aung Thaw </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>et al</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>. 1993: 135.</t>
     </r>
   </si>
@@ -2202,54 +2176,6 @@
   </si>
   <si>
     <t>Aung Thaw 1972: 110, 116.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Aung Thaw 1972: 110-111. — Luce 1974: 126. — PPPB I, 176. —</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> von Hinüber 1991: 25 n. 53. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">— Skilling </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1997a:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 95 n. 7.</t>
-    </r>
   </si>
   <si>
     <t>ASI 1910-11, pl. XLVII (1-2). — ASI 1911-12, pl. LXVIII (1). — Finot 1913, plate. — PPPB II, pl. 98 (c).</t>
@@ -3113,13 +3039,102 @@
   </si>
   <si>
     <t>Found in 1966; text almost entirely obliterated.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nyunt Han </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>et al</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. 2006: 13. — Moore 2009: 111-12. — </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Corps)"/>
+      </rPr>
+      <t>Naing Zaw 2011: 525.</t>
+    </r>
+  </si>
+  <si>
+    <t>ASI 1910-11, 90. — Mya 1961, II, 33. — PPPB I, 128 (pl. 8f).</t>
+  </si>
+  <si>
+    <t>Pyay public library</t>
+  </si>
+  <si>
+    <t>photo Don Stadtner</t>
+  </si>
+  <si>
+    <t>brick</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Aung Thaw 1972: 110-111. — Luce 1974: 126. — PPPB I, 176.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Corps)"/>
+      </rPr>
+      <t xml:space="preserve"> — von Hinüber 1991: 25 n. 53. —</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Skilling </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1997a:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 95 n. 7. — Stadtner 2011: 48-9.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3269,13 +3284,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri (Corps)"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3778,6 +3786,24 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3798,24 +3824,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="231">
@@ -4349,10 +4357,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K126"/>
+  <dimension ref="A1:K127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4377,10 +4385,10 @@
       <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B2" s="64" t="s">
-        <v>361</v>
-      </c>
-      <c r="C2" s="64"/>
+      <c r="B2" s="70" t="s">
+        <v>360</v>
+      </c>
+      <c r="C2" s="70"/>
       <c r="D2" s="4"/>
       <c r="E2" s="3" t="s">
         <v>1</v>
@@ -4390,34 +4398,34 @@
       <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="67" t="s">
+      <c r="C3" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="67" t="s">
+      <c r="D3" s="73" t="s">
         <v>111</v>
       </c>
-      <c r="E3" s="69" t="s">
+      <c r="E3" s="75" t="s">
         <v>89</v>
       </c>
-      <c r="F3" s="70" t="s">
+      <c r="F3" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="65" t="s">
+      <c r="G3" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="65" t="s">
+      <c r="H3" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="65" t="s">
+      <c r="I3" s="71" t="s">
         <v>88</v>
       </c>
-      <c r="J3" s="65" t="s">
+      <c r="J3" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="65" t="s">
+      <c r="K3" s="71" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4425,23 +4433,23 @@
       <c r="A4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="72"/>
     </row>
     <row r="5" spans="1:11" ht="75" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <v>1</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C5" s="11">
         <v>2</v>
@@ -4456,19 +4464,19 @@
         <v>90</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="H5" s="10" t="s">
+        <v>483</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>460</v>
+      </c>
+      <c r="J5" s="13" t="s">
         <v>486</v>
       </c>
-      <c r="I5" s="19" t="s">
-        <v>463</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>489</v>
-      </c>
       <c r="K5" s="10" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="90" x14ac:dyDescent="0.2">
@@ -4495,13 +4503,13 @@
       </c>
       <c r="H6" s="10"/>
       <c r="I6" s="19" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="J6" s="19" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="150" x14ac:dyDescent="0.2">
@@ -4530,13 +4538,13 @@
         <v>6</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="J7" s="19" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="105" x14ac:dyDescent="0.2">
@@ -4565,13 +4573,13 @@
         <v>7</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="J8" s="19" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="K8" s="23" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="75" x14ac:dyDescent="0.2">
@@ -4600,13 +4608,13 @@
         <v>8</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="J9" s="19" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="K9" s="23" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="75" x14ac:dyDescent="0.2">
@@ -4620,7 +4628,7 @@
         <v>19</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E10" s="17" t="s">
         <v>53</v>
@@ -4635,13 +4643,13 @@
         <v>9</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="J10" s="19" t="s">
-        <v>495</v>
-      </c>
-      <c r="K10" s="75" t="s">
         <v>492</v>
+      </c>
+      <c r="K10" s="68" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="90" x14ac:dyDescent="0.2">
@@ -4670,13 +4678,13 @@
         <v>0</v>
       </c>
       <c r="I11" s="23" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="J11" s="23" t="s">
-        <v>457</v>
-      </c>
-      <c r="K11" s="76" t="s">
-        <v>485</v>
+        <v>454</v>
+      </c>
+      <c r="K11" s="69" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="75" x14ac:dyDescent="0.2">
@@ -4705,10 +4713,10 @@
         <v>239</v>
       </c>
       <c r="I12" s="23" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="J12" s="23" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="K12" s="10" t="s">
         <v>113</v>
@@ -4736,10 +4744,10 @@
         <v>21</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="K13" s="10"/>
     </row>
@@ -4769,10 +4777,10 @@
         <v>21</v>
       </c>
       <c r="I14" s="23" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="K14" s="10"/>
     </row>
@@ -4784,7 +4792,7 @@
         <v>79</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D15" s="28" t="s">
         <v>233</v>
@@ -4802,13 +4810,13 @@
         <v>2</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="60" x14ac:dyDescent="0.2">
@@ -4835,13 +4843,13 @@
       </c>
       <c r="H16" s="10"/>
       <c r="I16" s="23" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="45" x14ac:dyDescent="0.2">
@@ -4863,13 +4871,13 @@
         <v>212</v>
       </c>
       <c r="H17" s="62" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="I17" s="46" t="s">
+        <v>423</v>
+      </c>
+      <c r="J17" s="12" t="s">
         <v>424</v>
-      </c>
-      <c r="J17" s="12" t="s">
-        <v>425</v>
       </c>
       <c r="K17" s="46"/>
     </row>
@@ -4886,22 +4894,22 @@
       <c r="D18" s="30"/>
       <c r="E18" s="47"/>
       <c r="F18" s="46" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G18" s="12" t="s">
         <v>212</v>
       </c>
       <c r="H18" s="45" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="I18" s="46" t="s">
+        <v>441</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>425</v>
+      </c>
+      <c r="K18" s="46" t="s">
         <v>442</v>
-      </c>
-      <c r="J18" s="12" t="s">
-        <v>426</v>
-      </c>
-      <c r="K18" s="46" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="45" x14ac:dyDescent="0.2">
@@ -4919,20 +4927,20 @@
         <v>53</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G19" s="12" t="s">
         <v>212</v>
       </c>
       <c r="H19" s="46"/>
       <c r="I19" s="46" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="K19" s="45" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="75" x14ac:dyDescent="0.2">
@@ -4946,26 +4954,26 @@
         <v>187</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E20" s="19" t="s">
         <v>55</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G20" s="24" t="s">
         <v>156</v>
       </c>
       <c r="H20" s="13"/>
       <c r="I20" s="19" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="J20" s="13" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="K20" s="13" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="45" x14ac:dyDescent="0.2">
@@ -4985,20 +4993,20 @@
         <v>53</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G21" s="24" t="s">
         <v>189</v>
       </c>
       <c r="H21" s="13"/>
       <c r="I21" s="13" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="J21" s="19" t="s">
         <v>314</v>
       </c>
       <c r="K21" s="13" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="22" customFormat="1" ht="60" x14ac:dyDescent="0.2">
@@ -5009,7 +5017,7 @@
         <v>77</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D22" s="28" t="s">
         <v>228</v>
@@ -5018,7 +5026,7 @@
         <v>53</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G22" s="12" t="s">
         <v>234</v>
@@ -5037,7 +5045,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C23" s="20">
         <v>3</v>
@@ -5087,10 +5095,10 @@
       </c>
       <c r="H24" s="13"/>
       <c r="I24" s="13" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="J24" s="13" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="K24" s="13"/>
     </row>
@@ -5149,13 +5157,13 @@
       </c>
       <c r="H26" s="13"/>
       <c r="I26" s="13" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="J26" s="13" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="K26" s="10" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="105" x14ac:dyDescent="0.2">
@@ -5180,7 +5188,7 @@
       </c>
       <c r="H27" s="13"/>
       <c r="I27" s="19" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="J27" s="19" t="s">
         <v>236</v>
@@ -5206,17 +5214,17 @@
         <v>56</v>
       </c>
       <c r="F28" s="19" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G28" s="12" t="s">
         <v>259</v>
       </c>
       <c r="H28" s="13"/>
       <c r="I28" s="19" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="J28" s="19" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="K28" s="13"/>
     </row>
@@ -5244,45 +5252,45 @@
       </c>
       <c r="H29" s="13"/>
       <c r="I29" s="13" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="J29" s="19" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="K29" s="19" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="30" x14ac:dyDescent="0.2">
-      <c r="A30" s="71">
+      <c r="A30" s="64">
         <v>26</v>
       </c>
-      <c r="B30" s="72" t="s">
+      <c r="B30" s="65" t="s">
         <v>141</v>
       </c>
-      <c r="C30" s="73" t="s">
+      <c r="C30" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="D30" s="73" t="s">
+      <c r="D30" s="66" t="s">
         <v>124</v>
       </c>
-      <c r="E30" s="72" t="s">
+      <c r="E30" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="F30" s="72" t="s">
-        <v>388</v>
-      </c>
-      <c r="G30" s="72" t="s">
+      <c r="F30" s="65" t="s">
+        <v>387</v>
+      </c>
+      <c r="G30" s="65" t="s">
         <v>154</v>
       </c>
-      <c r="H30" s="74"/>
-      <c r="I30" s="75" t="s">
-        <v>469</v>
-      </c>
-      <c r="J30" s="72" t="s">
-        <v>440</v>
-      </c>
-      <c r="K30" s="74" t="s">
+      <c r="H30" s="67"/>
+      <c r="I30" s="68" t="s">
+        <v>466</v>
+      </c>
+      <c r="J30" s="65" t="s">
+        <v>439</v>
+      </c>
+      <c r="K30" s="67" t="s">
         <v>96</v>
       </c>
     </row>
@@ -5310,10 +5318,10 @@
       </c>
       <c r="H31" s="13"/>
       <c r="I31" s="13" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="J31" s="19" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="K31" s="13"/>
     </row>
@@ -5334,7 +5342,7 @@
         <v>53</v>
       </c>
       <c r="F32" s="24" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="G32" s="24" t="s">
         <v>160</v>
@@ -5342,10 +5350,10 @@
       <c r="H32" s="13"/>
       <c r="I32" s="19"/>
       <c r="J32" s="19" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="K32" s="13" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="30" x14ac:dyDescent="0.2">
@@ -5365,14 +5373,14 @@
         <v>53</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G33" s="12" t="s">
         <v>161</v>
       </c>
       <c r="H33" s="13"/>
       <c r="I33" s="25" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="J33" s="24"/>
       <c r="K33" s="13"/>
@@ -5382,7 +5390,7 @@
         <v>30</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C34" s="20" t="s">
         <v>27</v>
@@ -5394,7 +5402,7 @@
         <v>53</v>
       </c>
       <c r="F34" s="25" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G34" s="24" t="s">
         <v>162</v>
@@ -5413,7 +5421,7 @@
         <v>31</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C35" s="20" t="s">
         <v>19</v>
@@ -5454,7 +5462,7 @@
         <v>53</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G36" s="12" t="s">
         <v>329</v>
@@ -5464,10 +5472,10 @@
         <v>92</v>
       </c>
       <c r="J36" s="12" t="s">
-        <v>445</v>
+        <v>498</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="30" x14ac:dyDescent="0.2">
@@ -5523,7 +5531,7 @@
       </c>
       <c r="H38" s="12"/>
       <c r="I38" s="12" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="J38" s="12" t="s">
         <v>323</v>
@@ -5549,7 +5557,7 @@
         <v>53</v>
       </c>
       <c r="F39" s="19" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G39" s="12" t="s">
         <v>195</v>
@@ -5568,32 +5576,32 @@
         <v>36</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C40" s="28" t="s">
         <v>28</v>
       </c>
       <c r="D40" s="28" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E40" s="18" t="s">
         <v>53</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H40" s="18"/>
       <c r="I40" s="18" t="s">
         <v>92</v>
       </c>
       <c r="J40" s="12" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K40" s="12" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="90" x14ac:dyDescent="0.2">
@@ -5601,32 +5609,32 @@
         <v>37</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C41" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D41" s="48" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E41" s="13" t="s">
         <v>53</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G41" s="12" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H41" s="13"/>
       <c r="I41" s="13" t="s">
         <v>92</v>
       </c>
       <c r="J41" s="13" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K41" s="19" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="42" spans="1:11" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.2">
@@ -5674,7 +5682,7 @@
         <v>147</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F43" s="13" t="s">
         <v>102</v>
@@ -5691,7 +5699,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="60" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" ht="75" x14ac:dyDescent="0.2">
       <c r="A44" s="21">
         <v>40</v>
       </c>
@@ -5715,10 +5723,10 @@
       </c>
       <c r="H44" s="13"/>
       <c r="I44" s="19" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="J44" s="13" t="s">
-        <v>450</v>
+        <v>503</v>
       </c>
       <c r="K44" s="19" t="s">
         <v>246</v>
@@ -5806,10 +5814,10 @@
       </c>
       <c r="H47" s="13"/>
       <c r="I47" s="19" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="J47" s="19" t="s">
-        <v>334</v>
+        <v>499</v>
       </c>
       <c r="K47" s="13"/>
     </row>
@@ -5818,7 +5826,7 @@
         <v>44</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C48" s="20" t="s">
         <v>27</v>
@@ -5837,10 +5845,10 @@
       </c>
       <c r="H48" s="13"/>
       <c r="I48" s="19" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="J48" s="10" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="K48" s="13" t="s">
         <v>254</v>
@@ -5854,26 +5862,26 @@
         <v>238</v>
       </c>
       <c r="C49" s="28" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D49" s="28" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E49" s="10" t="s">
         <v>57</v>
       </c>
       <c r="F49" s="19" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G49" s="12" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H49" s="13"/>
       <c r="I49" s="13" t="s">
         <v>262</v>
       </c>
       <c r="J49" s="13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K49" s="13"/>
     </row>
@@ -5895,7 +5903,7 @@
         <v>289</v>
       </c>
       <c r="G50" s="12" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H50" s="13"/>
       <c r="I50" s="19" t="s">
@@ -5924,11 +5932,11 @@
         <v>105</v>
       </c>
       <c r="G51" s="12" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H51" s="18"/>
       <c r="I51" s="12" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J51" s="12"/>
       <c r="K51" s="18"/>
@@ -5951,11 +5959,11 @@
         <v>105</v>
       </c>
       <c r="G52" s="12" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H52" s="18"/>
       <c r="I52" s="12" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J52" s="12"/>
       <c r="K52" s="18"/>
@@ -5985,7 +5993,7 @@
         <v>214</v>
       </c>
       <c r="J53" s="19" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K53" s="19"/>
     </row>
@@ -6071,7 +6079,7 @@
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="23" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J56" s="19" t="s">
         <v>72</v>
@@ -6102,7 +6110,7 @@
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="23" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J57" s="19" t="s">
         <v>72</v>
@@ -6133,7 +6141,7 @@
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="23" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J58" s="19" t="s">
         <v>72</v>
@@ -6247,27 +6255,27 @@
         <v>59</v>
       </c>
       <c r="B63" s="19" t="s">
+        <v>347</v>
+      </c>
+      <c r="C63" s="20" t="s">
         <v>348</v>
-      </c>
-      <c r="C63" s="20" t="s">
-        <v>349</v>
       </c>
       <c r="D63" s="20"/>
       <c r="E63" s="19" t="s">
         <v>104</v>
       </c>
       <c r="F63" s="19" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G63" s="23" t="s">
         <v>105</v>
       </c>
       <c r="H63" s="23"/>
       <c r="I63" s="23" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="J63" s="19" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K63" s="19"/>
     </row>
@@ -6276,7 +6284,7 @@
         <v>60</v>
       </c>
       <c r="B64" s="19" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C64" s="20" t="s">
         <v>19</v>
@@ -6315,7 +6323,7 @@
         <v>53</v>
       </c>
       <c r="F65" s="23" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G65" s="23" t="s">
         <v>180</v>
@@ -6349,7 +6357,7 @@
       </c>
       <c r="H66" s="12"/>
       <c r="I66" s="12" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J66" s="12"/>
       <c r="K66" s="12"/>
@@ -6365,25 +6373,25 @@
         <v>19</v>
       </c>
       <c r="D67" s="28" t="s">
+        <v>366</v>
+      </c>
+      <c r="E67" s="12" t="s">
+        <v>368</v>
+      </c>
+      <c r="F67" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="G67" s="12" t="s">
         <v>367</v>
       </c>
-      <c r="E67" s="12" t="s">
+      <c r="H67" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="I67" s="12" t="s">
         <v>369</v>
       </c>
-      <c r="F67" s="12" t="s">
-        <v>365</v>
-      </c>
-      <c r="G67" s="12" t="s">
-        <v>368</v>
-      </c>
-      <c r="H67" s="12" t="s">
-        <v>366</v>
-      </c>
-      <c r="I67" s="12" t="s">
+      <c r="J67" s="12" t="s">
         <v>370</v>
-      </c>
-      <c r="J67" s="12" t="s">
-        <v>371</v>
       </c>
       <c r="K67" s="12"/>
     </row>
@@ -6402,14 +6410,14 @@
         <v>53</v>
       </c>
       <c r="F68" s="12" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G68" s="12"/>
       <c r="H68" s="12"/>
       <c r="I68" s="12"/>
       <c r="J68" s="12"/>
       <c r="K68" s="12" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="69" spans="1:11" s="22" customFormat="1" ht="45" x14ac:dyDescent="0.2">
@@ -6427,19 +6435,19 @@
         <v>53</v>
       </c>
       <c r="F69" s="12" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G69" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="H69" s="12" t="s">
+        <v>382</v>
+      </c>
+      <c r="I69" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="J69" s="12" t="s">
         <v>384</v>
-      </c>
-      <c r="H69" s="12" t="s">
-        <v>383</v>
-      </c>
-      <c r="I69" s="12" t="s">
-        <v>377</v>
-      </c>
-      <c r="J69" s="12" t="s">
-        <v>385</v>
       </c>
       <c r="K69" s="12"/>
     </row>
@@ -6458,19 +6466,19 @@
         <v>53</v>
       </c>
       <c r="F70" s="24" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G70" s="25" t="s">
         <v>105</v>
       </c>
       <c r="H70" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I70" s="24" t="s">
         <v>328</v>
       </c>
       <c r="J70" s="24" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="K70" s="59"/>
     </row>
@@ -6485,7 +6493,7 @@
         <v>100</v>
       </c>
       <c r="D71" s="28" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E71" s="12" t="s">
         <v>53</v>
@@ -6494,14 +6502,14 @@
         <v>105</v>
       </c>
       <c r="G71" s="12" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H71" s="12"/>
       <c r="I71" s="12" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="J71" s="12" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K71" s="18"/>
     </row>
@@ -6522,7 +6530,7 @@
       <c r="H72" s="36"/>
       <c r="I72" s="36"/>
       <c r="J72" s="36" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="K72" s="36"/>
     </row>
@@ -6543,7 +6551,7 @@
       <c r="H73" s="36"/>
       <c r="I73" s="36"/>
       <c r="J73" s="36" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="K73" s="36"/>
     </row>
@@ -6570,7 +6578,7 @@
         <v>302</v>
       </c>
       <c r="J74" s="42" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="K74" s="42"/>
     </row>
@@ -6590,10 +6598,10 @@
       </c>
       <c r="H75" s="42"/>
       <c r="I75" s="61" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="J75" s="42" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="K75" s="42"/>
     </row>
@@ -6893,20 +6901,20 @@
         <v>272</v>
       </c>
       <c r="C89" s="43" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D89" s="43"/>
       <c r="E89" s="34" t="s">
         <v>53</v>
       </c>
       <c r="F89" s="42" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G89" s="34"/>
       <c r="H89" s="42"/>
       <c r="I89" s="42"/>
       <c r="J89" s="42" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="K89" s="42"/>
     </row>
@@ -6974,13 +6982,13 @@
       <c r="D93" s="35"/>
       <c r="E93" s="36"/>
       <c r="F93" s="36" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G93" s="36"/>
       <c r="H93" s="36"/>
       <c r="I93" s="36"/>
       <c r="J93" s="36" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="K93" s="36"/>
     </row>
@@ -6996,13 +7004,13 @@
       <c r="E94" s="34"/>
       <c r="F94" s="42"/>
       <c r="G94" s="42" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H94" s="42"/>
       <c r="I94" s="42"/>
       <c r="J94" s="42"/>
       <c r="K94" s="42" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="95" spans="1:11" s="50" customFormat="1" ht="105" x14ac:dyDescent="0.2">
@@ -7201,7 +7209,7 @@
       </c>
       <c r="I102" s="42"/>
       <c r="J102" s="42" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K102" s="42"/>
     </row>
@@ -7226,7 +7234,7 @@
       </c>
       <c r="I103" s="42"/>
       <c r="J103" s="42" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="K103" s="42"/>
     </row>
@@ -7251,10 +7259,10 @@
       </c>
       <c r="I104" s="42"/>
       <c r="J104" s="42" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="K104" s="42" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="105" spans="1:11" s="50" customFormat="1" ht="195" x14ac:dyDescent="0.2">
@@ -7277,13 +7285,13 @@
         <v>181</v>
       </c>
       <c r="I105" s="42" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="J105" s="42" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="K105" s="42" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="106" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.2">
@@ -7305,43 +7313,49 @@
       </c>
       <c r="K106" s="42"/>
     </row>
-    <row r="107" spans="1:11" s="49" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="A107" s="33"/>
+    <row r="107" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="41"/>
       <c r="B107" s="42" t="s">
+        <v>502</v>
+      </c>
+      <c r="C107" s="43"/>
+      <c r="D107" s="43"/>
+      <c r="E107" s="42"/>
+      <c r="F107" s="42"/>
+      <c r="G107" s="42" t="s">
+        <v>500</v>
+      </c>
+      <c r="H107" s="34"/>
+      <c r="I107" s="42" t="s">
+        <v>501</v>
+      </c>
+      <c r="J107" s="42"/>
+      <c r="K107" s="42"/>
+    </row>
+    <row r="108" spans="1:11" s="49" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A108" s="33"/>
+      <c r="B108" s="42" t="s">
         <v>213</v>
       </c>
-      <c r="C107" s="35"/>
-      <c r="D107" s="35"/>
-      <c r="E107" s="36"/>
-      <c r="F107" s="36"/>
-      <c r="G107" s="36"/>
-      <c r="H107" s="36"/>
-      <c r="I107" s="36" t="s">
+      <c r="C108" s="35"/>
+      <c r="D108" s="35"/>
+      <c r="E108" s="36"/>
+      <c r="F108" s="36"/>
+      <c r="G108" s="36"/>
+      <c r="H108" s="36"/>
+      <c r="I108" s="36" t="s">
+        <v>361</v>
+      </c>
+      <c r="J108" s="36" t="s">
         <v>362</v>
       </c>
-      <c r="J107" s="36" t="s">
-        <v>363</v>
-      </c>
-      <c r="K107" s="36"/>
-    </row>
-    <row r="108" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="15"/>
-      <c r="B108" s="15"/>
-      <c r="C108" s="15"/>
-      <c r="D108" s="15"/>
-      <c r="E108" s="15"/>
-      <c r="F108" s="15"/>
-      <c r="G108" s="39"/>
-      <c r="H108" s="15"/>
-      <c r="I108" s="15"/>
-      <c r="J108" s="15"/>
-      <c r="K108" s="15"/>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K108" s="36"/>
+    </row>
+    <row r="109" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="15"/>
       <c r="B109" s="15"/>
-      <c r="C109" s="16"/>
-      <c r="D109" s="16"/>
+      <c r="C109" s="15"/>
+      <c r="D109" s="15"/>
       <c r="E109" s="15"/>
       <c r="F109" s="15"/>
       <c r="G109" s="39"/>
@@ -7357,12 +7371,8 @@
       <c r="D110" s="16"/>
       <c r="E110" s="15"/>
       <c r="F110" s="15"/>
-      <c r="G110" s="52" t="s">
-        <v>33</v>
-      </c>
-      <c r="H110" s="53" t="s">
-        <v>34</v>
-      </c>
+      <c r="G110" s="39"/>
+      <c r="H110" s="15"/>
       <c r="I110" s="15"/>
       <c r="J110" s="15"/>
       <c r="K110" s="15"/>
@@ -7374,11 +7384,11 @@
       <c r="D111" s="16"/>
       <c r="E111" s="15"/>
       <c r="F111" s="15"/>
-      <c r="G111" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="H111" s="31" t="s">
-        <v>36</v>
+      <c r="G111" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="H111" s="53" t="s">
+        <v>34</v>
       </c>
       <c r="I111" s="15"/>
       <c r="J111" s="15"/>
@@ -7391,11 +7401,11 @@
       <c r="D112" s="16"/>
       <c r="E112" s="15"/>
       <c r="F112" s="15"/>
-      <c r="G112" s="39" t="s">
-        <v>144</v>
-      </c>
-      <c r="H112" s="15" t="s">
-        <v>37</v>
+      <c r="G112" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="H112" s="31" t="s">
+        <v>36</v>
       </c>
       <c r="I112" s="15"/>
       <c r="J112" s="15"/>
@@ -7409,10 +7419,10 @@
       <c r="E113" s="15"/>
       <c r="F113" s="15"/>
       <c r="G113" s="39" t="s">
-        <v>38</v>
+        <v>144</v>
       </c>
       <c r="H113" s="15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I113" s="15"/>
       <c r="J113" s="15"/>
@@ -7426,10 +7436,10 @@
       <c r="E114" s="15"/>
       <c r="F114" s="15"/>
       <c r="G114" s="39" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H114" s="15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I114" s="15"/>
       <c r="J114" s="15"/>
@@ -7443,10 +7453,10 @@
       <c r="E115" s="15"/>
       <c r="F115" s="15"/>
       <c r="G115" s="39" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H115" s="15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I115" s="15"/>
       <c r="J115" s="15"/>
@@ -7460,10 +7470,10 @@
       <c r="E116" s="15"/>
       <c r="F116" s="15"/>
       <c r="G116" s="39" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H116" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I116" s="15"/>
       <c r="J116" s="15"/>
@@ -7477,9 +7487,11 @@
       <c r="E117" s="15"/>
       <c r="F117" s="15"/>
       <c r="G117" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H117" s="15"/>
+        <v>44</v>
+      </c>
+      <c r="H117" s="15" t="s">
+        <v>45</v>
+      </c>
       <c r="I117" s="15"/>
       <c r="J117" s="15"/>
       <c r="K117" s="15"/>
@@ -7492,11 +7504,9 @@
       <c r="E118" s="15"/>
       <c r="F118" s="15"/>
       <c r="G118" s="39" t="s">
-        <v>241</v>
-      </c>
-      <c r="H118" s="15" t="s">
-        <v>242</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="H118" s="15"/>
       <c r="I118" s="15"/>
       <c r="J118" s="15"/>
       <c r="K118" s="15"/>
@@ -7509,10 +7519,10 @@
       <c r="E119" s="15"/>
       <c r="F119" s="15"/>
       <c r="G119" s="39" t="s">
-        <v>47</v>
+        <v>241</v>
       </c>
       <c r="H119" s="15" t="s">
-        <v>109</v>
+        <v>242</v>
       </c>
       <c r="I119" s="15"/>
       <c r="J119" s="15"/>
@@ -7526,10 +7536,10 @@
       <c r="E120" s="15"/>
       <c r="F120" s="15"/>
       <c r="G120" s="39" t="s">
-        <v>107</v>
+        <v>47</v>
       </c>
       <c r="H120" s="15" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I120" s="15"/>
       <c r="J120" s="15"/>
@@ -7543,10 +7553,10 @@
       <c r="E121" s="15"/>
       <c r="F121" s="15"/>
       <c r="G121" s="39" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="H121" s="15" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I121" s="15"/>
       <c r="J121" s="15"/>
@@ -7560,10 +7570,10 @@
       <c r="E122" s="15"/>
       <c r="F122" s="15"/>
       <c r="G122" s="39" t="s">
-        <v>48</v>
+        <v>143</v>
       </c>
       <c r="H122" s="15" t="s">
-        <v>49</v>
+        <v>106</v>
       </c>
       <c r="I122" s="15"/>
       <c r="J122" s="15"/>
@@ -7576,24 +7586,41 @@
       <c r="D123" s="16"/>
       <c r="E123" s="15"/>
       <c r="F123" s="15"/>
-      <c r="G123" s="39"/>
-      <c r="H123" s="15"/>
+      <c r="G123" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="H123" s="15" t="s">
+        <v>49</v>
+      </c>
       <c r="I123" s="15"/>
       <c r="J123" s="15"/>
       <c r="K123" s="15"/>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="G124" s="39" t="s">
-        <v>110</v>
-      </c>
+      <c r="A124" s="15"/>
+      <c r="B124" s="15"/>
+      <c r="C124" s="16"/>
+      <c r="D124" s="16"/>
+      <c r="E124" s="15"/>
+      <c r="F124" s="15"/>
+      <c r="G124" s="39"/>
+      <c r="H124" s="15"/>
+      <c r="I124" s="15"/>
+      <c r="J124" s="15"/>
+      <c r="K124" s="15"/>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G125" s="39" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G126" s="39" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G127" s="39" t="s">
         <v>122</v>
       </c>
     </row>

--- a/inventory/INVENTORY OF PYU INSCRIPTIONS.xlsx
+++ b/inventory/INVENTORY OF PYU INSCRIPTIONS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14660"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25320" windowHeight="8680"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="506">
   <si>
     <r>
       <t>Building of a shrine by Prince R</t>
@@ -338,9 +338,6 @@
     <t>fragment of reused stone</t>
   </si>
   <si>
-    <t>Separated by Blagden from his B1 = PYU6.</t>
-  </si>
-  <si>
     <t>stone pillar</t>
   </si>
   <si>
@@ -464,9 +461,6 @@
     <t>see PYU3</t>
   </si>
   <si>
-    <t>see PYU6</t>
-  </si>
-  <si>
     <t>h:75, w:90, d:20</t>
   </si>
   <si>
@@ -886,9 +880,6 @@
     <t>face B written upside-down compared with A</t>
   </si>
   <si>
-    <t>Perhaps this is the second silver bowl (besides PYU38) referred to by Sein Maung Oo 1989. But: a very similar bowl, obviously by the same artisan, was/is held at Shwe Phon Pwint Library.</t>
-  </si>
-  <si>
     <t>ASI 1928-29, pl. LI (a).</t>
   </si>
   <si>
@@ -1145,76 +1136,6 @@
   </si>
   <si>
     <t>menhir</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ASI 1929-30,  pl. XLI (b). — PPPB II, pl. 53a.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> — RTI.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ASI 1929-30: 154-5.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> — R. le May, Culture of SEA, fig. 3. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>— Aung Thaw 1972: 12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>— PPPB I, 53, 58 n. 43, 149.</t>
-    </r>
   </si>
   <si>
     <t>Kunzeik, on bank of Sittaung river, Shwegyin township</t>
@@ -1337,20 +1258,6 @@
     <t>ASI 1928-29, 108. — Ray 1936: 20. — PPPB I, 146.</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Sein Win 1997; photo Don Stadtner, Ancient Pagan; Naing Zaw 2011: 546-7 — </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Guy 2014, cat. 39.</t>
-    </r>
-  </si>
-  <si>
     <t>h:7.7, w:15.6</t>
   </si>
   <si>
@@ -1366,9 +1273,6 @@
     <t>Yangon, Dept. of Archaeology and Museums</t>
   </si>
   <si>
-    <t>Guy 2014, cat. 40.</t>
-  </si>
-  <si>
     <t>found in 1994; the measurements are cited from Guy 2014, but are almost certainly incorrect, for the piece is taller than it is wide.</t>
   </si>
   <si>
@@ -1419,9 +1323,6 @@
     <t>private collection, Pyay</t>
   </si>
   <si>
-    <t>Shwe Phon Pwint Library &amp; Museum, Pyay</t>
-  </si>
-  <si>
     <t>very similar to following item</t>
   </si>
   <si>
@@ -1663,7 +1564,7 @@
   </si>
   <si>
     <r>
-      <t>Payagyi pagoda</t>
+      <t>stone stela (</t>
     </r>
     <r>
       <rPr>
@@ -1672,13 +1573,49 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t>, near Pyay</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>stone stela (</t>
-    </r>
+      <t>or funerary tablet?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>South of Tagantha village, near Halin</t>
+  </si>
+  <si>
+    <t>presence of inscription not yet noted when catalogue entry was written for Guy 2014.</t>
+  </si>
+  <si>
+    <t>metal sculpture of preaching Buddha</t>
+  </si>
+  <si>
+    <t>Sanskrit in Gaudi; Pali in LSB and Pyu in Pyu scripts</t>
+  </si>
+  <si>
+    <t>400 ft. South of Shwegugyi (near HL26)</t>
+  </si>
+  <si>
+    <t>Myanadi village, 8 km east of Maingmaw, Myittha township, Kyaukse Dt., Mandalay Region</t>
+  </si>
+  <si>
+    <t>Aung Seigon pagoda, Innwa, Mandalay Region</t>
+  </si>
+  <si>
+    <t>Led-dwin, near Maingmaw</t>
+  </si>
+  <si>
+    <t>Moore 2009, 111.</t>
+  </si>
+  <si>
+    <t>Shwegyobin, Kyauktaga township, Bago region</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1686,53 +1623,17 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t>or funerary tablet?</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>South of Tagantha village, near Halin</t>
-  </si>
-  <si>
-    <t>presence of inscription not yet noted when catalogue entry was written for Guy 2014.</t>
-  </si>
-  <si>
-    <t>metal sculpture of preaching Buddha</t>
-  </si>
-  <si>
-    <t>Naional Museum, Nay Pyi Taw, 1/3/1994</t>
-  </si>
-  <si>
-    <t>Sanskrit in Gaudi; Pali in LSB and Pyu in Pyu scripts</t>
-  </si>
-  <si>
-    <t>400 ft. South of Shwegugyi (near HL26)</t>
-  </si>
-  <si>
-    <t>Myanadi village, 8 km east of Maingmaw, Myittha township, Kyaukse Dt., Mandalay Region</t>
-  </si>
-  <si>
-    <t>Aung Seigon pagoda, Innwa, Mandalay Region</t>
-  </si>
-  <si>
-    <t>Led-dwin, near Maingmaw</t>
-  </si>
-  <si>
-    <t>Moore 2009, 111.</t>
-  </si>
-  <si>
-    <t>Shwegyobin, Kyauktaga township, Bago region</t>
-  </si>
-  <si>
-    <t>Myint Aung 1970: 61. — Aung Thaw 1972: 14. — Skilling 2015: 66.</t>
+      <t xml:space="preserve">White — </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Middleton 2005: 92. — Skilling 2015: 65.</t>
+    </r>
   </si>
   <si>
     <r>
@@ -1742,16 +1643,16 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">White — </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Middleton 2005: 92. — Skilling 2015: 65.</t>
+      <t>White —</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Middleton 2005: 91. — Skilling 2015: 66.</t>
     </r>
   </si>
   <si>
@@ -1762,19 +1663,28 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t>White —</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Middleton 2005: 91. — Skilling 2015: 66.</t>
-    </r>
-  </si>
-  <si>
+      <t>White. —</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Middleton 2005: 90. — Skilling 2015: 66.</t>
+    </r>
+  </si>
+  <si>
+    <t>Myint Aung (as well as scholars after him) points out that an identical artefact has been found at Oc Eo. Apparently more than one specimen of this intaglio was made; other intaglios with the same inscription but applied rather les artfully are shown and/or referred to  by Middleton 2005: 15, 159. Their provenance from 'Pyu' sites in uncertain.</t>
+  </si>
+  <si>
+    <t>writing positive</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> stone </t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1782,27 +1692,48 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t>White. —</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Middleton 2005: 90. — Skilling 2015: 66.</t>
-    </r>
-  </si>
-  <si>
-    <t>Myint Aung (as well as scholars after him) points out that an identical artefact has been found at Oc Eo. Apparently more than one specimen of this intaglio was made; other intaglios with the same inscription but applied rather les artfully are shown and/or referred to  by Middleton 2005: 15, 159. Their provenance from 'Pyu' sites in uncertain.</t>
-  </si>
-  <si>
-    <t>writing positive</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> stone </t>
+      <t>funerary tablet</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">De Beylié 1907a, 98. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>— ASI 1909-10, 120. — Blagden 1913-14, 127 (1). — PPPB, I, 54, 59 n. 51, 134.</t>
+    </r>
+  </si>
+  <si>
+    <t>ASI 1910-11, pl. 47 (4-8). — Mya 1961, II, pl. 72.</t>
+  </si>
+  <si>
+    <t>Chaem Kawklai 1992.</t>
+  </si>
+  <si>
+    <t>3.3 cm diam.</t>
+  </si>
+  <si>
+    <t>Ratchamangala Phisek National Library, Chiang Mai (Thailand), acc. nr. 034/2534</t>
+  </si>
+  <si>
+    <t>Chaem Kawklai 1992: 86, 88.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -1811,18 +1742,7 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t>funerary tablet</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">De Beylié 1907a, 98. </t>
+      <t>Lémyethna or Bawbawgyi (?)</t>
     </r>
     <r>
       <rPr>
@@ -1832,48 +1752,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>— ASI 1909-10, 120. — Blagden 1913-14, 127 (1). — PPPB, I, 54, 59 n. 51, 134.</t>
-    </r>
-  </si>
-  <si>
-    <t>During or after the Chinese invasion of Pagan in 1287 CE; but ASB 1916 suggests "probably dated 1284 A.D.".</t>
-  </si>
-  <si>
-    <t>ASI 1910-11, pl. 47 (4-8). — Mya 1961, II, pl. 72.</t>
-  </si>
-  <si>
-    <t>Chaem Kawklai 1992.</t>
-  </si>
-  <si>
-    <t>3.3 cm diam.</t>
-  </si>
-  <si>
-    <t>Ratchamangala Phisek National Library, Chiang Mai (Thailand), acc. nr. 034/2534</t>
-  </si>
-  <si>
-    <t>Chaem Kawklai 1992: 86, 88.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Lémyethna or Bawbawgyi (?)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve"> pagoda, Sriksetra</t>
     </r>
   </si>
@@ -1889,27 +1767,6 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> (21). — PPPB II, pl. 62 (d, e).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>HRC rubbing. — Rubbing in MHRJ 11. —</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> RTI.</t>
     </r>
   </si>
   <si>
@@ -2120,9 +1977,6 @@
     </r>
   </si>
   <si>
-    <t>Blagden 1913-14: 127 (B2). — PPPB I, 126.</t>
-  </si>
-  <si>
     <t>found in 1982</t>
   </si>
   <si>
@@ -2300,39 +2154,6 @@
   </si>
   <si>
     <t>Mahlo 2012: 167 (app. 27.2).</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">San Win 1998, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2000-1, 2003. —</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> unnumbered pages in MHRJ 11. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>—Tun Aung Chain 2003: 1-4.</t>
-    </r>
   </si>
   <si>
     <t>Middleton 2005, App.58, pp. 173-4.</t>
@@ -2389,9 +2210,6 @@
     </r>
   </si>
   <si>
-    <t>ASI 1911-12, pl. LXIX (1). — Blagden 1913-14 (D1). — ASB 1913, pl. I (1-2). — IB IV, CCCLIV (d). — PPPB II, pl. 5a, 6a.</t>
-  </si>
-  <si>
     <t>Blagden 1913-14 (C). — IB IV, CCCLIV (c). — PPPB II, pl. 5bc, 6b.</t>
   </si>
   <si>
@@ -2407,36 +2225,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>CCCLIV (a). — PPPB II, pl. 5d, 6c.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Blagden 1913-14 (B1). — ASI 1911-12, pl. LXVIII (3). — IB IV, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CCCLIV (b). — PPPB II, pl. 5 (ef), 6 (d).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Blagden 1913-14 (B2). — </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>IB IV, CCCLIV (b). — PPPB II, pl. 6 (d).</t>
     </r>
   </si>
   <si>
@@ -2661,8 +2449,109 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">De Beylié 1907a: 83 (n. 1). — </t>
+    <t>Blagden 1913-14: 127 (E). — ASB 1913, 14-5; 1914-15, 21-3. —  PPPB I, 65, 75 n. 24, 127.</t>
+  </si>
+  <si>
+    <t>Indicated in IB IV (1956) to be held at Archaeological Office, Mandalay.</t>
+  </si>
+  <si>
+    <t>Duroiselle indicated that the urn was in the Archaeological Office at Mandalay at the time he wrote; the same was still indicated in IB V (1956).</t>
+  </si>
+  <si>
+    <t>Removed to Amarapura by King Bodawpaya in 1793 CE; from there to Mandalay in 1941 (see IB IV, p. 21).</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>De Beylié 1907a, pl. VIII. — EB I, 1, pl. IV (A). —</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Corps)"/>
+      </rPr>
+      <t xml:space="preserve"> IB IV, CCCCLXIII (a). </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>— RTI.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">EB I, 1, pl. IV (B). </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Corps)"/>
+      </rPr>
+      <t>—  IB IV, CCCCLXIII (b).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  — RTI.</t>
+    </r>
+  </si>
+  <si>
+    <t>Dated 1112 CE. But see extensive debate on actual date of the inscription.</t>
+  </si>
+  <si>
+    <r>
+      <t>"These are the bones of the deceased, Lord Rū</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ḅa, grandson of Nga Kno, son of Lord Davinimli".</t>
+    </r>
+  </si>
+  <si>
+    <t>Formerly Pagan Museum, nr. 96.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Halin Museum, nr. 2014/1/25 </t>
+  </si>
+  <si>
+    <r>
+      <t>According to Luce (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>where</t>
     </r>
     <r>
       <rPr>
@@ -2670,7 +2559,104 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri (Corps)"/>
       </rPr>
-      <t>ASB 1907, 10; 1910, 21; 1913, 15;  1</t>
+      <t>?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">), read by Blagden but his reading was never published. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Previous publications did not get the number of lines right.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Blagden 1913-14: 127 (D2). —ASB 1913, 14, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Corps)"/>
+      </rPr>
+      <t>41</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. — PPPB I, 65, 75 n. 23, 127.</t>
+    </r>
+  </si>
+  <si>
+    <t>Found in 1966; text almost entirely obliterated.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nyunt Han </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>et al</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. 2006: 13. — Moore 2009: 111-12. — </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Corps)"/>
+      </rPr>
+      <t>Naing Zaw 2011: 525.</t>
+    </r>
+  </si>
+  <si>
+    <t>ASI 1910-11, 90. — Mya 1961, II, 33. — PPPB I, 128 (pl. 8f).</t>
+  </si>
+  <si>
+    <t>Pyay public library</t>
+  </si>
+  <si>
+    <t>photo Don Stadtner</t>
+  </si>
+  <si>
+    <t>brick</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Aung Thaw 1972: 110-111. — Luce 1974: 126. — PPPB I, 176.</t>
     </r>
     <r>
       <rPr>
@@ -2678,7 +2664,131 @@
         <color theme="1"/>
         <rFont val="Calibri (Corps)"/>
       </rPr>
-      <t>916, 18 (with n. ‡),</t>
+      <t xml:space="preserve"> — von Hinüber 1991: 25 n. 53. —</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Skilling </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1997a:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 95 n. 7. — Stadtner 2011: 48-9.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ASB 1904-05, 8-9, 35;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Corps)"/>
+      </rPr>
+      <t xml:space="preserve"> 1915, 21-3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. —</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ASI </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Corps)"/>
+      </rPr>
+      <t>1904-05, 126</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>; 19</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>29-30, 152. — PR, 21.—PPPB I, 66, 75 n. 27, 149. — Shafer 1943: 339.</t>
+    </r>
+  </si>
+  <si>
+    <t>Blagden 1913-14 (D1). — ASB 1913, pl. I (1-2). — IB IV, CCCLIV (d). — PPPB II, pl. 5a, 6a.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ASI 1912-13, pt. I, 29. — ASB </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 1913, 9-10, 14. — Blagden 1913-14 (D1). — PR, 47 (D), 51. — PPPB I, 48, 57 n. 13, 126-7.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">See also PYU25. — </t>
     </r>
     <r>
       <rPr>
@@ -2686,40 +2796,33 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri (Corps)"/>
       </rPr>
-      <t xml:space="preserve"> 55; 1917, 25; 1922, 17.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> — Blagden 1913-14: 127 (6). — Chen Yi-Sein 1960. — PPPB I, 67, 76 n. 38-39.</t>
-    </r>
-  </si>
-  <si>
-    <t>Blagden 1913-14: 127 (E). — ASB 1913, 14-5; 1914-15, 21-3. —  PPPB I, 65, 75 n. 24, 127.</t>
-  </si>
-  <si>
-    <t>Indicated in IB IV (1956) to be held at Archaeological Office, Mandalay.</t>
-  </si>
-  <si>
-    <t>Duroiselle indicated that the urn was in the Archaeological Office at Mandalay at the time he wrote; the same was still indicated in IB V (1956).</t>
-  </si>
-  <si>
-    <t>Removed to Amarapura by King Bodawpaya in 1793 CE; from there to Mandalay in 1941 (see IB IV, p. 21).</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>De Beylié 1907a, pl. VIII. — EB I, 1, pl. IV (A). —</t>
+      <t>IB IV, p. 39, assigns the absolute date 35 BE, but the interpretation as a date in that era is uncertain (see Frasch 20??).</t>
+    </r>
+  </si>
+  <si>
+    <t>ASI 1911-12 fig. 1 on pl. LXIX shows Blagden’s A urn (but it is identified in the caption as being from the Bawbawgyi, which must be a mistake). IB IV, p. 39, assigns the absolute date 57 BE, but the interpretation as a date in that era is uncertain (see Frasch 20??).</t>
+  </si>
+  <si>
+    <t>ASI 1912-13, pt. I, 29. — ASB 1913, 13-4. — Blagden 1913-14 (C). — PR, 47 (C), 51. — PPPB I, 48, 57 n. 13, 126-7.</t>
+  </si>
+  <si>
+    <t>ASI 1911-12, 147. — ASB 1912, 7, 11. — Blagden 1913-14 (A). — PR, 47 (A), 50. — PPPB I, 48, 57 n. 13, 126-7.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wrongly said to come from Bawbawgyi in ASI 1911-12, 147. IB IV, p. 39, assigns the absolute date 50 BE, but the interpretation as a date in that era is uncertain (see Frasch 20??). — For the urns, the dimensions given in ASB and ASI don’t correspond very closely to those in the inventory. E.g., ASB 1913, 13-4, talking about 004, gives dimensions of : 2’11” (h), 3’6” (dia). Inventory gives h. 95 (3’1”) - close, dia. 67 (2’2”) – not so close. Perhaps there’s confusion between internal and external diameter. </t>
+  </si>
+  <si>
+    <t>During or after the Chinese invasion of Pagan in 1287 CE; but ASB 1916 suggests "probably dated 1284 A.D.". The reference to a "bilibgual inscription in Chinese and Mongol" in ASB 1910 must be a slip of the pen for "Chinese and Pyu".</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">HRC rubbing. — </t>
     </r>
     <r>
       <rPr>
@@ -2727,79 +2830,86 @@
         <color theme="1"/>
         <rFont val="Calibri (Corps)"/>
       </rPr>
-      <t xml:space="preserve"> IB IV, CCCCLXIII (a). </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>— RTI.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">EB I, 1, pl. IV (B). </t>
-    </r>
+      <t>MHRJ 11, pp. 133ff. —</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> RTI.</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri (Corps)"/>
       </rPr>
-      <t>—  IB IV, CCCCLXIII (b).</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  — RTI.</t>
-    </r>
-  </si>
-  <si>
-    <t>Dated 1112 CE. But see extensive debate on actual date of the inscription.</t>
-  </si>
-  <si>
-    <r>
-      <t>"These are the bones of the deceased, Lord Rū</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ḅa, grandson of Nga Kno, son of Lord Davinimli".</t>
-    </r>
-  </si>
-  <si>
-    <t>Formerly Pagan Museum, nr. 96.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Halin Museum, nr. 2014/1/25 </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">ASB 1904-05, 8-9, 35; </t>
+      <t>San Win 1998, 20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00-1, 2003.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>—Tun Aung Chain 2003: 1-4, Appendix. — MHRJ 11, pp. 133ff.</t>
+    </r>
+  </si>
+  <si>
+    <t>San Win 2000-1 is an English version of 1998. The complete reading furnished in the Document section of MHRJ 11, pp. 133ff., was probably done by Than Tun, Nyein Maung and San Win to whom the reading in Appendix to Tun Aung Chain's article in the same issue is ascribed.</t>
+  </si>
+  <si>
+    <t>Le May 1956 fig. 2 mis-cited as 3 by Luce PPPB I, 150.</t>
+  </si>
+  <si>
+    <t>Guy 2014: 91 (cat. 40).</t>
+  </si>
+  <si>
+    <t>National Museum, Nay Pyi Taw, 1/3/1994</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sein Win 1997; photo Don Stadtner, Ancient Pagan. — Naing Zaw 2011: 546-7 — </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Guy 2014: 90-1 (cat. 39).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Myint Aung 1970: 61. — Aung Thaw 1972: 14. — </t>
     </r>
     <r>
       <rPr>
@@ -2807,35 +2917,62 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri (Corps)"/>
       </rPr>
-      <t>1915, 21-3; 1913, 15; 1915, 21-3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">— ASI </t>
+      <t>Naing Zaw 2011: 495.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — Skilling 2015: 66.</t>
+    </r>
+  </si>
+  <si>
+    <t>photo Thein Lwin received from Bob</t>
+  </si>
+  <si>
+    <t>Perhaps this is the second silver bowl (besides PYU38) referred to by Sein Maung Oo 1989.</t>
+  </si>
+  <si>
+    <t>photo Bob Hudson</t>
+  </si>
+  <si>
+    <t>Naing Zaw 2011: 614.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Blagden 1913-14 (B). — ASI 1911-12, pl. LXVIII (3). — IB IV, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CCCLIV (b). — PPPB II, pl. 5 (ef), 6 (d).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ASI 1911-12, 147. — ASB 1912, 7, 11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. — Blagden 1913-14 (B). — PR, 47 (B), 50. — PPPB I, 48, 57 n. 13, 126-7. — Shafer 1943: 339. — Guy 2014: 76-7 (cat. 24).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Comprises two texts of which only the first has been read (Blagden's B1); the second is almost entirely illegible on available rubbings. For text B1, </t>
     </r>
     <r>
       <rPr>
@@ -2843,255 +2980,31 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri (Corps)"/>
       </rPr>
-      <t>1904-05, 126</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>; 1929-30, 152. — PR, 21.—PPPB I, 66, 75 n. 27, 149. — Shafer 1943: 339.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">See also PYU25. — ASI 1911-12 fig. 1 on p. 149 shows Blagden’s D1 urn (but it is identified as being from the Bawbawgyi, which must be a mistake). </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Corps)"/>
-      </rPr>
-      <t>IB IV, p. 39, assigns the absolute date 35 BE, but the interpretation as a date in that era is uncertain (see Frasch 20??).</t>
-    </r>
-  </si>
-  <si>
-    <t>IB IV, p. 39, assigns the absolute date 57 BE, but the interpretation as a date in that era is uncertain (see Frasch 20??).</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">See also PYU26. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Corps)"/>
-      </rPr>
       <t>IB IV, p. 39, assigns the absolute date 80 BE, but the interpretation as a date in that era is uncertain (see Frasch 20??).</t>
     </r>
   </si>
   <si>
-    <t>Wrongly said to come from Bawbawgyi in ASI 1911-12, 147. IB IV, p. 39, assigns the absolute date 50 BE, but the interpretation as a date in that era is uncertain (see Frasch 20??).</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ASI 1912-13, pt. I, 29. — Blagden 1913-14 (C). — ASB </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Corps)"/>
-      </rPr>
-      <t>1912, 7, 11-2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>; 1913, 13-4; 1914, 20. — PR, 47 (C), 51. — PPPB I, 48, 57 n. 13, 126-7.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ASI 1911-12, 147. — ASB 1912, 7, 11; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Corps)"/>
-      </rPr>
-      <t>1913, 13-5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. — Blagden 1913-14 (B1). — PR, 47 (B), 50. — PPPB I, 48, 57 n. 13, 126-7. — Shafer 1943: 339. — Guy 2014: 76-7 (cat. 24).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ASI 1911-12, 147; 1912-13, pt. I, 29. — ASB </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Corps)"/>
-      </rPr>
-      <t>1912, 7, 11-2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>; 1913, 9-10, 14. — Blagden 1913-14 (D1). — PR, 47 (D), 51. — PPPB I, 48, 57 n. 13, 126-7.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ASI 1911-12, 147. — ASB 1912, 7, 11; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Corps)"/>
-      </rPr>
-      <t>1913, 13-5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. — Blagden 1913-14 (A). — PR, 47 (A), 50. — PPPB I, 48, 57 n. 13, 126-7.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>According to Luce (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>where</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Corps)"/>
-      </rPr>
-      <t>?</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">), read by Blagden but his reading was never published. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Previous publications did not get the number of lines right.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Blagden 1913-14: 127 (D2). —ASB 1913, 14, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Corps)"/>
-      </rPr>
-      <t>41</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. — PPPB I, 65, 75 n. 23, 127.</t>
-    </r>
-  </si>
-  <si>
-    <t>Found in 1966; text almost entirely obliterated.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Nyunt Han </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>et al</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. 2006: 13. — Moore 2009: 111-12. — </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Corps)"/>
-      </rPr>
-      <t>Naing Zaw 2011: 525.</t>
-    </r>
-  </si>
-  <si>
-    <t>ASI 1910-11, 90. — Mya 1961, II, 33. — PPPB I, 128 (pl. 8f).</t>
-  </si>
-  <si>
-    <t>Pyay public library</t>
-  </si>
-  <si>
-    <t>photo Don Stadtner</t>
-  </si>
-  <si>
-    <t>brick</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Aung Thaw 1972: 110-111. — Luce 1974: 126. — PPPB I, 176.</t>
+    <t>unknown site at Pagan</t>
+  </si>
+  <si>
+    <t>"B.G."</t>
+  </si>
+  <si>
+    <t>&lt;°ūvasri&gt;?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">De Beylié 1907a: 83 (n. 1). </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">— </t>
     </r>
     <r>
       <rPr>
@@ -3099,34 +3012,87 @@
         <color theme="1"/>
         <rFont val="Calibri (Corps)"/>
       </rPr>
-      <t xml:space="preserve"> — von Hinüber 1991: 25 n. 53. —</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Skilling </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1997a:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 95 n. 7. — Stadtner 2011: 48-9.</t>
+      <t>ASB 1907, 10; 1910, 21;  1916, 18 (with n. ‡), 20, 55; 1917, 24-5; 1922, 17.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — Blagden 1913-14: 127 (6). — Chen Yi-Sein 1960. — PPPB I, 67, 76 n. 38-39.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ASI 1929-30,  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">pl. XLI (b). — </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Corps)"/>
+      </rPr>
+      <t xml:space="preserve"> Le May 1956, fig. 2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>— PPP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B II, pl. 53a.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — RTI.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ASI 1929-30: 154-5. — Le May 1956: 47. — Aung Thaw 1972: 12. — PPPB I, 53, 58 n. 43, 149-50.</t>
     </r>
   </si>
 </sst>
@@ -3134,7 +3100,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3290,6 +3256,13 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri (Corps)"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -3615,7 +3588,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3785,18 +3758,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4359,8 +4320,8 @@
   </sheetPr>
   <dimension ref="A1:K127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="J44" sqref="J44"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4385,10 +4346,10 @@
       <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B2" s="70" t="s">
-        <v>360</v>
-      </c>
-      <c r="C2" s="70"/>
+      <c r="B2" s="66" t="s">
+        <v>352</v>
+      </c>
+      <c r="C2" s="66"/>
       <c r="D2" s="4"/>
       <c r="E2" s="3" t="s">
         <v>1</v>
@@ -4398,34 +4359,34 @@
       <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="73" t="s">
+      <c r="C3" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="73" t="s">
-        <v>111</v>
-      </c>
-      <c r="E3" s="75" t="s">
+      <c r="D3" s="69" t="s">
+        <v>110</v>
+      </c>
+      <c r="E3" s="71" t="s">
         <v>89</v>
       </c>
-      <c r="F3" s="76" t="s">
+      <c r="F3" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="71" t="s">
+      <c r="G3" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="71" t="s">
+      <c r="H3" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="71" t="s">
+      <c r="I3" s="67" t="s">
         <v>88</v>
       </c>
-      <c r="J3" s="71" t="s">
+      <c r="J3" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="71" t="s">
+      <c r="K3" s="67" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4433,29 +4394,29 @@
       <c r="A4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72"/>
-    </row>
-    <row r="5" spans="1:11" ht="75" x14ac:dyDescent="0.2">
+      <c r="B4" s="68"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+    </row>
+    <row r="5" spans="1:11" ht="60" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <v>1</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="C5" s="11">
         <v>2</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>53</v>
@@ -4464,19 +4425,19 @@
         <v>90</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>485</v>
+        <v>466</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>483</v>
+        <v>464</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>460</v>
+        <v>445</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>484</v>
+        <v>465</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="90" x14ac:dyDescent="0.2">
@@ -4490,7 +4451,7 @@
         <v>19</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>53</v>
@@ -4499,31 +4460,31 @@
         <v>81</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H6" s="10"/>
       <c r="I6" s="19" t="s">
-        <v>471</v>
+        <v>453</v>
       </c>
       <c r="J6" s="19" t="s">
-        <v>476</v>
+        <v>457</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="150" x14ac:dyDescent="0.2">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="75" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <v>3</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C7" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>53</v>
@@ -4532,33 +4493,33 @@
         <v>81</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H7" s="10" t="s">
         <v>6</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>462</v>
+        <v>477</v>
       </c>
       <c r="J7" s="19" t="s">
-        <v>493</v>
+        <v>478</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="105" x14ac:dyDescent="0.2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="285" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <v>4</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C8" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>53</v>
@@ -4567,33 +4528,33 @@
         <v>81</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H8" s="10" t="s">
         <v>7</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>463</v>
+        <v>447</v>
       </c>
       <c r="J8" s="19" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="K8" s="23" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="75" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="150" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <v>5</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C9" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E9" s="17" t="s">
         <v>53</v>
@@ -4602,33 +4563,33 @@
         <v>81</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H9" s="10" t="s">
         <v>8</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>464</v>
+        <v>448</v>
       </c>
       <c r="J9" s="19" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="K9" s="23" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="75" x14ac:dyDescent="0.2">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="165" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <v>6</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C10" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="E10" s="17" t="s">
         <v>53</v>
@@ -4637,19 +4598,19 @@
         <v>81</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H10" s="10" t="s">
         <v>9</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>465</v>
+        <v>497</v>
       </c>
       <c r="J10" s="19" t="s">
-        <v>492</v>
-      </c>
-      <c r="K10" s="68" t="s">
-        <v>489</v>
+        <v>498</v>
+      </c>
+      <c r="K10" s="64" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="90" x14ac:dyDescent="0.2">
@@ -4657,34 +4618,34 @@
         <v>7</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="F11" s="19" t="s">
         <v>20</v>
       </c>
       <c r="G11" s="46" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H11" s="10" t="s">
         <v>0</v>
       </c>
       <c r="I11" s="23" t="s">
-        <v>480</v>
+        <v>461</v>
       </c>
       <c r="J11" s="23" t="s">
-        <v>454</v>
-      </c>
-      <c r="K11" s="69" t="s">
-        <v>482</v>
+        <v>440</v>
+      </c>
+      <c r="K11" s="65" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="75" x14ac:dyDescent="0.2">
@@ -4692,34 +4653,34 @@
         <v>8</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G12" s="46" t="s">
         <v>20</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="I12" s="23" t="s">
-        <v>481</v>
+        <v>462</v>
       </c>
       <c r="J12" s="23" t="s">
-        <v>455</v>
+        <v>441</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="45" x14ac:dyDescent="0.2">
@@ -4727,7 +4688,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
@@ -4738,16 +4699,16 @@
         <v>4</v>
       </c>
       <c r="G13" s="32" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H13" s="10" t="s">
         <v>21</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="K13" s="10"/>
     </row>
@@ -4756,13 +4717,13 @@
         <v>10</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E14" s="19" t="s">
         <v>53</v>
@@ -4771,20 +4732,20 @@
         <v>5</v>
       </c>
       <c r="G14" s="27" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H14" s="26" t="s">
         <v>21</v>
       </c>
       <c r="I14" s="23" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="K14" s="10"/>
     </row>
-    <row r="15" spans="1:11" ht="90" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="135" x14ac:dyDescent="0.2">
       <c r="A15" s="9">
         <v>11</v>
       </c>
@@ -4792,10 +4753,10 @@
         <v>79</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E15" s="17" t="s">
         <v>54</v>
@@ -4804,19 +4765,19 @@
         <v>23</v>
       </c>
       <c r="G15" s="46" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H15" s="10" t="s">
         <v>2</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>475</v>
+        <v>503</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>408</v>
+        <v>484</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="60" x14ac:dyDescent="0.2">
@@ -4824,32 +4785,32 @@
         <v>12</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>27</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E16" s="17" t="s">
         <v>53</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H16" s="10"/>
       <c r="I16" s="23" t="s">
-        <v>472</v>
+        <v>454</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>479</v>
+        <v>460</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="45" x14ac:dyDescent="0.2">
@@ -4857,7 +4818,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C17" s="28" t="s">
         <v>27</v>
@@ -4868,16 +4829,16 @@
         <v>3</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H17" s="62" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="I17" s="46" t="s">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="K17" s="46"/>
     </row>
@@ -4886,7 +4847,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C18" s="28" t="s">
         <v>19</v>
@@ -4894,22 +4855,22 @@
       <c r="D18" s="30"/>
       <c r="E18" s="47"/>
       <c r="F18" s="46" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H18" s="45" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="I18" s="46" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="K18" s="46" t="s">
-        <v>442</v>
+        <v>428</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="45" x14ac:dyDescent="0.2">
@@ -4917,7 +4878,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C19" s="30" t="s">
         <v>27</v>
@@ -4927,20 +4888,20 @@
         <v>53</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>430</v>
+        <v>417</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H19" s="46"/>
       <c r="I19" s="46" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="K19" s="45" t="s">
-        <v>426</v>
+        <v>413</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="75" x14ac:dyDescent="0.2">
@@ -4948,32 +4909,32 @@
         <v>16</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="E20" s="19" t="s">
         <v>55</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>428</v>
+        <v>415</v>
       </c>
       <c r="G20" s="24" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H20" s="13"/>
       <c r="I20" s="19" t="s">
-        <v>469</v>
+        <v>451</v>
       </c>
       <c r="J20" s="13" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
       <c r="K20" s="13" t="s">
-        <v>477</v>
+        <v>458</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="45" x14ac:dyDescent="0.2">
@@ -4987,26 +4948,26 @@
         <v>8</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E21" s="19" t="s">
         <v>53</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="G21" s="24" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H21" s="13"/>
       <c r="I21" s="13" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="J21" s="19" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="K21" s="13" t="s">
-        <v>429</v>
+        <v>416</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="22" customFormat="1" ht="60" x14ac:dyDescent="0.2">
@@ -5017,19 +4978,19 @@
         <v>77</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E22" s="12" t="s">
         <v>53</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H22" s="13"/>
       <c r="I22" s="23" t="s">
@@ -5037,7 +4998,7 @@
       </c>
       <c r="J22" s="19"/>
       <c r="K22" s="13" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="30" x14ac:dyDescent="0.2">
@@ -5045,13 +5006,13 @@
         <v>19</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="C23" s="20">
         <v>3</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E23" s="19" t="s">
         <v>53</v>
@@ -5060,7 +5021,7 @@
         <v>76</v>
       </c>
       <c r="G23" s="24" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="13" t="s">
@@ -5071,36 +5032,38 @@
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="22" customFormat="1" ht="75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" s="22" customFormat="1" ht="165" x14ac:dyDescent="0.2">
       <c r="A24" s="21">
         <v>20</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C24" s="20">
         <v>5</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E24" s="19" t="s">
         <v>53</v>
       </c>
       <c r="F24" s="19" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H24" s="13"/>
       <c r="I24" s="13" t="s">
-        <v>416</v>
+        <v>485</v>
       </c>
       <c r="J24" s="13" t="s">
-        <v>458</v>
-      </c>
-      <c r="K24" s="13"/>
+        <v>486</v>
+      </c>
+      <c r="K24" s="13" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="21">
@@ -5110,10 +5073,10 @@
         <v>77</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E25" s="19" t="s">
         <v>53</v>
@@ -5122,7 +5085,7 @@
         <v>78</v>
       </c>
       <c r="G25" s="24" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="51" t="s">
@@ -5138,13 +5101,13 @@
         <v>22</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C26" s="20" t="s">
         <v>25</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E26" s="19" t="s">
         <v>53</v>
@@ -5153,17 +5116,17 @@
         <v>82</v>
       </c>
       <c r="G26" s="24" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H26" s="13"/>
       <c r="I26" s="13" t="s">
-        <v>473</v>
+        <v>455</v>
       </c>
       <c r="J26" s="13" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="K26" s="10" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="105" x14ac:dyDescent="0.2">
@@ -5171,30 +5134,30 @@
         <v>23</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D27" s="20"/>
       <c r="E27" s="19" t="s">
         <v>53</v>
       </c>
       <c r="F27" s="19" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="G27" s="19" t="s">
         <v>22</v>
       </c>
       <c r="H27" s="13"/>
       <c r="I27" s="19" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="J27" s="19" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K27" s="13" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="75" x14ac:dyDescent="0.2">
@@ -5202,29 +5165,29 @@
         <v>24</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C28" s="14" t="s">
         <v>27</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E28" s="19" t="s">
         <v>56</v>
       </c>
       <c r="F28" s="19" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H28" s="13"/>
       <c r="I28" s="19" t="s">
-        <v>437</v>
+        <v>424</v>
       </c>
       <c r="J28" s="19" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="K28" s="13"/>
     </row>
@@ -5233,13 +5196,13 @@
         <v>25</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C29" s="20" t="s">
         <v>26</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E29" s="19" t="s">
         <v>53</v>
@@ -5248,80 +5211,78 @@
         <v>81</v>
       </c>
       <c r="G29" s="24" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H29" s="13"/>
       <c r="I29" s="13" t="s">
+        <v>449</v>
+      </c>
+      <c r="J29" s="19" t="s">
+        <v>468</v>
+      </c>
+      <c r="K29" s="19" t="s">
         <v>467</v>
       </c>
-      <c r="J29" s="19" t="s">
-        <v>496</v>
-      </c>
-      <c r="K29" s="19" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="30" x14ac:dyDescent="0.2">
-      <c r="A30" s="64">
+    </row>
+    <row r="30" spans="1:11" s="49" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A30" s="44">
         <v>26</v>
       </c>
-      <c r="B30" s="65" t="s">
-        <v>141</v>
-      </c>
-      <c r="C30" s="66" t="s">
-        <v>19</v>
-      </c>
-      <c r="D30" s="66" t="s">
-        <v>124</v>
-      </c>
-      <c r="E30" s="65" t="s">
+      <c r="B30" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="D30" s="28" t="s">
+        <v>399</v>
+      </c>
+      <c r="E30" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="F30" s="65" t="s">
-        <v>387</v>
-      </c>
-      <c r="G30" s="65" t="s">
-        <v>154</v>
-      </c>
-      <c r="H30" s="67"/>
-      <c r="I30" s="68" t="s">
-        <v>466</v>
-      </c>
-      <c r="J30" s="65" t="s">
-        <v>439</v>
-      </c>
-      <c r="K30" s="67" t="s">
-        <v>96</v>
-      </c>
+      <c r="F30" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="J30" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="K30" s="18"/>
     </row>
     <row r="31" spans="1:11" ht="30" x14ac:dyDescent="0.2">
       <c r="A31" s="21">
         <v>27</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C31" s="20" t="s">
         <v>26</v>
       </c>
       <c r="D31" s="20" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E31" s="19" t="s">
         <v>53</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H31" s="13"/>
       <c r="I31" s="13" t="s">
-        <v>438</v>
+        <v>425</v>
       </c>
       <c r="J31" s="19" t="s">
-        <v>443</v>
+        <v>429</v>
       </c>
       <c r="K31" s="13"/>
     </row>
@@ -5330,30 +5291,30 @@
         <v>28</v>
       </c>
       <c r="B32" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="C32" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="C32" s="28" t="s">
-        <v>98</v>
-      </c>
       <c r="D32" s="28" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="E32" s="19" t="s">
         <v>53</v>
       </c>
       <c r="F32" s="24" t="s">
-        <v>445</v>
+        <v>431</v>
       </c>
       <c r="G32" s="24" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H32" s="13"/>
       <c r="I32" s="19"/>
       <c r="J32" s="19" t="s">
-        <v>444</v>
+        <v>430</v>
       </c>
       <c r="K32" s="13" t="s">
-        <v>497</v>
+        <v>469</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="30" x14ac:dyDescent="0.2">
@@ -5367,20 +5328,20 @@
         <v>19</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E33" s="19" t="s">
         <v>53</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="G33" s="12" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H33" s="13"/>
       <c r="I33" s="25" t="s">
-        <v>470</v>
+        <v>452</v>
       </c>
       <c r="J33" s="24"/>
       <c r="K33" s="13"/>
@@ -5390,22 +5351,22 @@
         <v>30</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="C34" s="20" t="s">
         <v>27</v>
       </c>
       <c r="D34" s="20" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E34" s="19" t="s">
         <v>53</v>
       </c>
       <c r="F34" s="25" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="G34" s="24" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H34" s="24"/>
       <c r="I34" s="13" t="s">
@@ -5421,13 +5382,13 @@
         <v>31</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="C35" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D35" s="20" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E35" s="19" t="s">
         <v>53</v>
@@ -5436,7 +5397,7 @@
         <v>85</v>
       </c>
       <c r="G35" s="24" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H35" s="13"/>
       <c r="I35" s="13" t="s">
@@ -5453,29 +5414,29 @@
         <v>77</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D36" s="20" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E36" s="19" t="s">
         <v>53</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="H36" s="13"/>
       <c r="I36" s="13" t="s">
         <v>92</v>
       </c>
       <c r="J36" s="12" t="s">
-        <v>498</v>
+        <v>470</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>440</v>
+        <v>426</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="30" x14ac:dyDescent="0.2">
@@ -5483,27 +5444,27 @@
         <v>33</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C37" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D37" s="28" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E37" s="19"/>
       <c r="F37" s="12" t="s">
         <v>24</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="H37" s="13"/>
       <c r="I37" s="19" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J37" s="13" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="K37" s="13"/>
     </row>
@@ -5512,32 +5473,32 @@
         <v>34</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C38" s="28" t="s">
         <v>19</v>
       </c>
       <c r="D38" s="28" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="E38" s="12" t="s">
         <v>53</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H38" s="12"/>
       <c r="I38" s="12" t="s">
-        <v>459</v>
+        <v>444</v>
       </c>
       <c r="J38" s="12" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="K38" s="12" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="45" x14ac:dyDescent="0.2">
@@ -5545,63 +5506,65 @@
         <v>35</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D39" s="20" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E39" s="19" t="s">
         <v>53</v>
       </c>
       <c r="F39" s="19" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H39" s="13"/>
       <c r="I39" s="13" t="s">
-        <v>296</v>
-      </c>
-      <c r="J39" s="13" t="s">
-        <v>297</v>
-      </c>
-      <c r="K39" s="13"/>
+        <v>504</v>
+      </c>
+      <c r="J39" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="K39" s="10" t="s">
+        <v>488</v>
+      </c>
     </row>
     <row r="40" spans="1:11" ht="60" x14ac:dyDescent="0.2">
       <c r="A40" s="44">
         <v>36</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="C40" s="28" t="s">
         <v>28</v>
       </c>
       <c r="D40" s="28" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="E40" s="18" t="s">
         <v>53</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="H40" s="18"/>
       <c r="I40" s="18" t="s">
         <v>92</v>
       </c>
       <c r="J40" s="12" t="s">
-        <v>341</v>
+        <v>489</v>
       </c>
       <c r="K40" s="12" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="90" x14ac:dyDescent="0.2">
@@ -5609,32 +5572,32 @@
         <v>37</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="C41" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D41" s="48" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="E41" s="13" t="s">
         <v>53</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="G41" s="12" t="s">
-        <v>392</v>
+        <v>490</v>
       </c>
       <c r="H41" s="13"/>
       <c r="I41" s="13" t="s">
         <v>92</v>
       </c>
       <c r="J41" s="13" t="s">
+        <v>491</v>
+      </c>
+      <c r="K41" s="19" t="s">
         <v>335</v>
-      </c>
-      <c r="K41" s="19" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="42" spans="1:11" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.2">
@@ -5648,23 +5611,23 @@
         <v>19</v>
       </c>
       <c r="D42" s="20" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E42" s="19" t="s">
         <v>53</v>
       </c>
       <c r="F42" s="19" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G42" s="19" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H42" s="13"/>
       <c r="I42" s="13" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J42" s="19" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K42" s="13"/>
     </row>
@@ -5673,22 +5636,22 @@
         <v>39</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C43" s="14" t="s">
         <v>51</v>
       </c>
       <c r="D43" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="F43" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G43" s="29" t="s">
         <v>147</v>
-      </c>
-      <c r="E43" s="13" t="s">
-        <v>393</v>
-      </c>
-      <c r="F43" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="G43" s="29" t="s">
-        <v>149</v>
       </c>
       <c r="H43" s="13"/>
       <c r="I43" s="13" t="s">
@@ -5696,7 +5659,7 @@
       </c>
       <c r="J43" s="13"/>
       <c r="K43" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="75" x14ac:dyDescent="0.2">
@@ -5710,26 +5673,26 @@
         <v>60</v>
       </c>
       <c r="D44" s="20" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E44" s="19" t="s">
         <v>57</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="G44" s="12" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H44" s="13"/>
       <c r="I44" s="19" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
       <c r="J44" s="13" t="s">
-        <v>503</v>
+        <v>475</v>
       </c>
       <c r="K44" s="19" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="30" x14ac:dyDescent="0.2">
@@ -5740,26 +5703,26 @@
         <v>79</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E45" s="19" t="s">
         <v>57</v>
       </c>
       <c r="F45" s="23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G45" s="19" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H45" s="13"/>
       <c r="I45" s="13" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J45" s="13" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K45" s="13"/>
     </row>
@@ -5774,23 +5737,23 @@
         <v>58</v>
       </c>
       <c r="D46" s="20" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E46" s="19" t="s">
         <v>57</v>
       </c>
       <c r="F46" s="19" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G46" s="12" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H46" s="13"/>
       <c r="I46" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J46" s="13" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K46" s="13"/>
     </row>
@@ -5799,7 +5762,7 @@
         <v>43</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C47" s="14"/>
       <c r="D47" s="14"/>
@@ -5807,17 +5770,17 @@
         <v>59</v>
       </c>
       <c r="F47" s="19" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="G47" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H47" s="13"/>
       <c r="I47" s="19" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="J47" s="19" t="s">
-        <v>499</v>
+        <v>471</v>
       </c>
       <c r="K47" s="13"/>
     </row>
@@ -5826,32 +5789,32 @@
         <v>44</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="C48" s="20" t="s">
         <v>27</v>
       </c>
       <c r="D48" s="20" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E48" s="19" t="s">
         <v>57</v>
       </c>
       <c r="F48" s="19" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="G48" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H48" s="13"/>
       <c r="I48" s="19" t="s">
-        <v>448</v>
+        <v>434</v>
       </c>
       <c r="J48" s="10" t="s">
-        <v>449</v>
+        <v>435</v>
       </c>
       <c r="K48" s="13" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="45" x14ac:dyDescent="0.2">
@@ -5859,29 +5822,29 @@
         <v>45</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C49" s="28" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="D49" s="28" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="E49" s="10" t="s">
         <v>57</v>
       </c>
       <c r="F49" s="19" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="G49" s="12" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="H49" s="13"/>
       <c r="I49" s="13" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="J49" s="13" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="K49" s="13"/>
     </row>
@@ -5890,27 +5853,27 @@
         <v>46</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C50" s="28" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D50" s="28"/>
       <c r="E50" s="10" t="s">
         <v>57</v>
       </c>
       <c r="F50" s="19" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G50" s="12" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="H50" s="13"/>
       <c r="I50" s="19" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="J50" s="19" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="K50" s="13"/>
     </row>
@@ -5929,14 +5892,14 @@
         <v>53</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G51" s="12" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="H51" s="18"/>
       <c r="I51" s="12" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="J51" s="12"/>
       <c r="K51" s="18"/>
@@ -5956,14 +5919,14 @@
         <v>53</v>
       </c>
       <c r="F52" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G52" s="12" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="H52" s="18"/>
       <c r="I52" s="12" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="J52" s="12"/>
       <c r="K52" s="18"/>
@@ -5973,27 +5936,27 @@
         <v>49</v>
       </c>
       <c r="B53" s="19" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C53" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D53" s="20"/>
       <c r="E53" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F53" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G53" s="19"/>
       <c r="H53" s="19" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I53" s="19" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="J53" s="19" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="K53" s="19"/>
     </row>
@@ -6002,27 +5965,27 @@
         <v>50</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C54" s="28" t="s">
         <v>19</v>
       </c>
       <c r="D54" s="28"/>
       <c r="E54" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F54" s="12" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G54" s="12"/>
       <c r="H54" s="12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="I54" s="12" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J54" s="12" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K54" s="12"/>
     </row>
@@ -6037,7 +6000,7 @@
         <v>69</v>
       </c>
       <c r="D55" s="20" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E55" s="19" t="s">
         <v>53</v>
@@ -6046,7 +6009,7 @@
         <v>74</v>
       </c>
       <c r="G55" s="19" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="23" t="s">
@@ -6066,7 +6029,7 @@
         <v>19</v>
       </c>
       <c r="D56" s="20" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E56" s="19" t="s">
         <v>53</v>
@@ -6075,11 +6038,11 @@
         <v>71</v>
       </c>
       <c r="G56" s="19" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="23" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="J56" s="19" t="s">
         <v>72</v>
@@ -6097,7 +6060,7 @@
         <v>19</v>
       </c>
       <c r="D57" s="20" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E57" s="19" t="s">
         <v>53</v>
@@ -6106,11 +6069,11 @@
         <v>71</v>
       </c>
       <c r="G57" s="19" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="23" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="J57" s="19" t="s">
         <v>72</v>
@@ -6128,7 +6091,7 @@
         <v>19</v>
       </c>
       <c r="D58" s="20" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E58" s="19" t="s">
         <v>53</v>
@@ -6137,11 +6100,11 @@
         <v>71</v>
       </c>
       <c r="G58" s="19" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="23" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="J58" s="19" t="s">
         <v>72</v>
@@ -6157,12 +6120,12 @@
       </c>
       <c r="C59" s="20"/>
       <c r="D59" s="20" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E59" s="23"/>
       <c r="F59" s="19"/>
       <c r="G59" s="19" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="23" t="s">
@@ -6182,12 +6145,12 @@
       </c>
       <c r="C60" s="20"/>
       <c r="D60" s="20" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E60" s="23"/>
       <c r="F60" s="19"/>
       <c r="G60" s="19" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="23" t="s">
@@ -6205,12 +6168,12 @@
       </c>
       <c r="C61" s="20"/>
       <c r="D61" s="20" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E61" s="23"/>
       <c r="F61" s="19"/>
       <c r="G61" s="19" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="23" t="s">
@@ -6224,29 +6187,29 @@
         <v>58</v>
       </c>
       <c r="B62" s="19" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C62" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D62" s="20" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E62" s="19" t="s">
         <v>57</v>
       </c>
       <c r="F62" s="19" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G62" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="J62" s="19" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="K62" s="23"/>
     </row>
@@ -6255,27 +6218,27 @@
         <v>59</v>
       </c>
       <c r="B63" s="19" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="C63" s="20" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="D63" s="20"/>
       <c r="E63" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="F63" s="19" t="s">
+        <v>342</v>
+      </c>
+      <c r="G63" s="23" t="s">
         <v>104</v>
-      </c>
-      <c r="F63" s="19" t="s">
-        <v>349</v>
-      </c>
-      <c r="G63" s="23" t="s">
-        <v>105</v>
       </c>
       <c r="H63" s="23"/>
       <c r="I63" s="23" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="J63" s="19" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="K63" s="19"/>
     </row>
@@ -6284,20 +6247,20 @@
         <v>60</v>
       </c>
       <c r="B64" s="19" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="C64" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D64" s="20" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E64" s="19" t="s">
         <v>53</v>
       </c>
       <c r="F64" s="23"/>
       <c r="G64" s="19" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H64" s="23"/>
       <c r="I64" s="23" t="s">
@@ -6317,16 +6280,16 @@
         <v>19</v>
       </c>
       <c r="D65" s="20" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E65" s="19" t="s">
         <v>53</v>
       </c>
       <c r="F65" s="23" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="G65" s="23" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H65" s="23"/>
       <c r="I65" s="23" t="s">
@@ -6334,7 +6297,7 @@
       </c>
       <c r="J65" s="19"/>
       <c r="K65" s="19" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="66" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -6342,7 +6305,7 @@
         <v>62</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C66" s="28"/>
       <c r="D66" s="28"/>
@@ -6353,11 +6316,11 @@
         <v>24</v>
       </c>
       <c r="G66" s="12" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="H66" s="12"/>
       <c r="I66" s="12" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="J66" s="12"/>
       <c r="K66" s="12"/>
@@ -6373,25 +6336,25 @@
         <v>19</v>
       </c>
       <c r="D67" s="28" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="E67" s="12" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="F67" s="12" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="G67" s="12" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="H67" s="12" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="I67" s="12" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="J67" s="12" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="K67" s="12"/>
     </row>
@@ -6410,14 +6373,14 @@
         <v>53</v>
       </c>
       <c r="F68" s="12" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="G68" s="12"/>
       <c r="H68" s="12"/>
       <c r="I68" s="12"/>
       <c r="J68" s="12"/>
       <c r="K68" s="12" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
     </row>
     <row r="69" spans="1:11" s="22" customFormat="1" ht="45" x14ac:dyDescent="0.2">
@@ -6425,7 +6388,7 @@
         <v>65</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C69" s="28" t="s">
         <v>19</v>
@@ -6435,19 +6398,19 @@
         <v>53</v>
       </c>
       <c r="F69" s="12" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="G69" s="12" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="H69" s="12" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="I69" s="12" t="s">
+        <v>368</v>
+      </c>
+      <c r="J69" s="12" t="s">
         <v>376</v>
-      </c>
-      <c r="J69" s="12" t="s">
-        <v>384</v>
       </c>
       <c r="K69" s="12"/>
     </row>
@@ -6456,60 +6419,58 @@
         <v>66</v>
       </c>
       <c r="B70" s="24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C70" s="58" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D70" s="58"/>
       <c r="E70" s="24" t="s">
         <v>53</v>
       </c>
       <c r="F70" s="24" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="G70" s="25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H70" s="59" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="I70" s="24" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="J70" s="24" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="K70" s="59"/>
     </row>
-    <row r="71" spans="1:11" s="49" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="44">
         <v>67</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C71" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="D71" s="28" t="s">
-        <v>411</v>
-      </c>
+        <v>474</v>
+      </c>
+      <c r="C71" s="28"/>
+      <c r="D71" s="28"/>
       <c r="E71" s="12" t="s">
         <v>53</v>
       </c>
       <c r="F71" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="G71" s="12" t="s">
-        <v>412</v>
-      </c>
-      <c r="H71" s="12"/>
+        <v>500</v>
+      </c>
+      <c r="G71" s="45" t="s">
+        <v>501</v>
+      </c>
+      <c r="H71" s="45" t="s">
+        <v>502</v>
+      </c>
       <c r="I71" s="12" t="s">
-        <v>413</v>
-      </c>
-      <c r="J71" s="12" t="s">
-        <v>410</v>
+        <v>495</v>
+      </c>
+      <c r="J71" s="45" t="s">
+        <v>496</v>
       </c>
       <c r="K71" s="18"/>
     </row>
@@ -6530,7 +6491,7 @@
       <c r="H72" s="36"/>
       <c r="I72" s="36"/>
       <c r="J72" s="36" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="K72" s="36"/>
     </row>
@@ -6551,7 +6512,7 @@
       <c r="H73" s="36"/>
       <c r="I73" s="36"/>
       <c r="J73" s="36" t="s">
-        <v>457</v>
+        <v>443</v>
       </c>
       <c r="K73" s="36"/>
     </row>
@@ -6560,7 +6521,7 @@
         <v>70</v>
       </c>
       <c r="B74" s="42" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C74" s="43" t="s">
         <v>19</v>
@@ -6570,22 +6531,22 @@
         <v>53</v>
       </c>
       <c r="F74" s="42" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="G74" s="34"/>
       <c r="H74" s="42"/>
       <c r="I74" s="42" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="J74" s="42" t="s">
-        <v>452</v>
+        <v>438</v>
       </c>
       <c r="K74" s="42"/>
     </row>
     <row r="75" spans="1:11" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A75" s="41"/>
       <c r="B75" s="42" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C75" s="43"/>
       <c r="D75" s="43"/>
@@ -6594,21 +6555,21 @@
       </c>
       <c r="F75" s="42"/>
       <c r="G75" s="42" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="H75" s="42"/>
       <c r="I75" s="61" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="J75" s="42" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="K75" s="42"/>
     </row>
     <row r="76" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="41"/>
       <c r="B76" s="42" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C76" s="43" t="s">
         <v>28</v>
@@ -6619,21 +6580,21 @@
       </c>
       <c r="F76" s="42"/>
       <c r="G76" s="42" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H76" s="42"/>
       <c r="I76" s="42"/>
       <c r="J76" s="42" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="K76" s="42" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="77" spans="1:11" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A77" s="41"/>
       <c r="B77" s="42" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C77" s="43" t="s">
         <v>27</v>
@@ -6643,24 +6604,24 @@
         <v>56</v>
       </c>
       <c r="F77" s="42" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="G77" s="42" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H77" s="36"/>
       <c r="I77" s="42" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="J77" s="42" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="K77" s="36"/>
     </row>
     <row r="78" spans="1:11" s="22" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A78" s="41"/>
       <c r="B78" s="42" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C78" s="43" t="s">
         <v>19</v>
@@ -6670,26 +6631,26 @@
         <v>53</v>
       </c>
       <c r="F78" s="42" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="G78" s="42" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H78" s="42"/>
       <c r="I78" s="42" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="J78" s="42" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="K78" s="42" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
     </row>
     <row r="79" spans="1:11" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A79" s="41"/>
       <c r="B79" s="42" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C79" s="43" t="s">
         <v>19</v>
@@ -6702,17 +6663,17 @@
       <c r="G79" s="34"/>
       <c r="H79" s="42"/>
       <c r="I79" s="42" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="J79" s="42" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="K79" s="42"/>
     </row>
     <row r="80" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="41"/>
       <c r="B80" s="42" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C80" s="43"/>
       <c r="D80" s="43"/>
@@ -6721,17 +6682,17 @@
       <c r="G80" s="34"/>
       <c r="H80" s="42"/>
       <c r="I80" s="34" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="J80" s="34" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="K80" s="42"/>
     </row>
     <row r="81" spans="1:11" s="22" customFormat="1" ht="120" x14ac:dyDescent="0.2">
       <c r="A81" s="54"/>
       <c r="B81" s="37" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C81" s="55" t="s">
         <v>19</v>
@@ -6741,26 +6702,26 @@
         <v>53</v>
       </c>
       <c r="F81" s="42" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="G81" s="34" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H81" s="36"/>
       <c r="I81" s="42" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="J81" s="42" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="K81" s="36" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="82" spans="1:11" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A82" s="41"/>
       <c r="B82" s="42" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C82" s="43" t="s">
         <v>28</v>
@@ -6773,17 +6734,17 @@
       <c r="G82" s="34"/>
       <c r="H82" s="42"/>
       <c r="I82" s="42" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="J82" s="42" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="K82" s="42"/>
     </row>
     <row r="83" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="41"/>
       <c r="B83" s="42" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C83" s="43" t="s">
         <v>19</v>
@@ -6796,19 +6757,19 @@
       <c r="G83" s="34"/>
       <c r="H83" s="42"/>
       <c r="I83" s="42" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="J83" s="42" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="K83" s="34" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="84" spans="1:11" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A84" s="41"/>
       <c r="B84" s="42" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C84" s="43" t="s">
         <v>19</v>
@@ -6818,22 +6779,22 @@
         <v>53</v>
       </c>
       <c r="F84" s="42" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G84" s="34"/>
       <c r="H84" s="42"/>
       <c r="I84" s="42" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="J84" s="42" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="K84" s="42"/>
     </row>
     <row r="85" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="41"/>
       <c r="B85" s="42" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C85" s="43"/>
       <c r="D85" s="43"/>
@@ -6842,17 +6803,17 @@
       <c r="G85" s="34"/>
       <c r="H85" s="42"/>
       <c r="I85" s="34" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="J85" s="34" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="K85" s="42"/>
     </row>
     <row r="86" spans="1:11" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A86" s="41"/>
       <c r="B86" s="42" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C86" s="43" t="s">
         <v>19</v>
@@ -6863,17 +6824,17 @@
       <c r="G86" s="34"/>
       <c r="H86" s="42"/>
       <c r="I86" s="42" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="J86" s="34" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="K86" s="42"/>
     </row>
     <row r="88" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="41"/>
       <c r="B88" s="42" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C88" s="43" t="s">
         <v>19</v>
@@ -6883,45 +6844,45 @@
         <v>53</v>
       </c>
       <c r="F88" s="42" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="G88" s="34"/>
       <c r="H88" s="42"/>
       <c r="I88" s="42" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="J88" s="42" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="K88" s="42"/>
     </row>
     <row r="89" spans="1:11" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A89" s="41"/>
       <c r="B89" s="42" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C89" s="43" t="s">
-        <v>431</v>
+        <v>418</v>
       </c>
       <c r="D89" s="43"/>
       <c r="E89" s="34" t="s">
         <v>53</v>
       </c>
       <c r="F89" s="42" t="s">
-        <v>432</v>
+        <v>419</v>
       </c>
       <c r="G89" s="34"/>
       <c r="H89" s="42"/>
       <c r="I89" s="42"/>
       <c r="J89" s="42" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="K89" s="42"/>
     </row>
     <row r="90" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="33"/>
       <c r="B90" s="34" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C90" s="35" t="s">
         <v>28</v>
@@ -6940,7 +6901,7 @@
     <row r="91" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="33"/>
       <c r="B91" s="34" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C91" s="35" t="s">
         <v>28</v>
@@ -6968,10 +6929,10 @@
       <c r="G92" s="36"/>
       <c r="H92" s="36"/>
       <c r="I92" s="36" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="J92" s="36" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="K92" s="36"/>
     </row>
@@ -6982,17 +6943,17 @@
       <c r="D93" s="35"/>
       <c r="E93" s="36"/>
       <c r="F93" s="36" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="G93" s="36"/>
       <c r="H93" s="36"/>
       <c r="I93" s="36"/>
       <c r="J93" s="36" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="K93" s="36"/>
     </row>
-    <row r="94" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" s="41"/>
       <c r="B94" s="42" t="s">
         <v>50</v>
@@ -7003,17 +6964,17 @@
       <c r="D94" s="43"/>
       <c r="E94" s="34"/>
       <c r="F94" s="42"/>
-      <c r="G94" s="42" t="s">
-        <v>352</v>
-      </c>
+      <c r="G94" s="42"/>
       <c r="H94" s="42"/>
-      <c r="I94" s="42"/>
+      <c r="I94" s="34" t="s">
+        <v>493</v>
+      </c>
       <c r="J94" s="42"/>
       <c r="K94" s="42" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" s="50" customFormat="1" ht="105" x14ac:dyDescent="0.2">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" s="50" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A95" s="41"/>
       <c r="B95" s="42" t="s">
         <v>50</v>
@@ -7029,15 +6990,15 @@
         <v>52</v>
       </c>
       <c r="G95" s="42" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H95" s="42"/>
       <c r="I95" s="34" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J95" s="42"/>
       <c r="K95" s="42" t="s">
-        <v>247</v>
+        <v>494</v>
       </c>
     </row>
     <row r="96" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.2">
@@ -7054,7 +7015,7 @@
       </c>
       <c r="F96" s="42"/>
       <c r="G96" s="42" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H96" s="42"/>
       <c r="I96" s="42"/>
@@ -7077,7 +7038,7 @@
       </c>
       <c r="F97" s="42"/>
       <c r="G97" s="42" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H97" s="42"/>
       <c r="I97" s="42"/>
@@ -7137,7 +7098,7 @@
     <row r="100" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="41"/>
       <c r="B100" s="42" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C100" s="43" t="s">
         <v>19</v>
@@ -7148,10 +7109,10 @@
       </c>
       <c r="F100" s="42"/>
       <c r="G100" s="42" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H100" s="42" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="I100" s="42"/>
       <c r="J100" s="42"/>
@@ -7169,16 +7130,16 @@
       </c>
       <c r="D101" s="43"/>
       <c r="E101" s="42" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F101" s="42" t="s">
         <v>73</v>
       </c>
       <c r="G101" s="42" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H101" s="42" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I101" s="42"/>
       <c r="J101" s="42" t="s">
@@ -7191,107 +7152,107 @@
     <row r="102" spans="1:11" s="50" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A102" s="41"/>
       <c r="B102" s="42" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C102" s="43" t="s">
         <v>19</v>
       </c>
       <c r="D102" s="43"/>
       <c r="E102" s="42" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F102" s="42"/>
       <c r="G102" s="42" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H102" s="42" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="I102" s="42"/>
       <c r="J102" s="42" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="K102" s="42"/>
     </row>
     <row r="103" spans="1:11" s="50" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A103" s="41"/>
       <c r="B103" s="42" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C103" s="43" t="s">
         <v>19</v>
       </c>
       <c r="D103" s="43"/>
       <c r="E103" s="42" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F103" s="42"/>
       <c r="G103" s="42" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H103" s="42" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="I103" s="42"/>
       <c r="J103" s="42" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="K103" s="42"/>
     </row>
     <row r="104" spans="1:11" s="50" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A104" s="41"/>
       <c r="B104" s="42" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C104" s="43" t="s">
         <v>19</v>
       </c>
       <c r="D104" s="43"/>
       <c r="E104" s="42" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F104" s="42"/>
       <c r="G104" s="42" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H104" s="42" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="I104" s="42"/>
       <c r="J104" s="42" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="K104" s="42" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
     </row>
     <row r="105" spans="1:11" s="50" customFormat="1" ht="195" x14ac:dyDescent="0.2">
       <c r="A105" s="41"/>
       <c r="B105" s="42" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C105" s="43" t="s">
         <v>19</v>
       </c>
       <c r="D105" s="43"/>
       <c r="E105" s="42" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F105" s="42"/>
       <c r="G105" s="42" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H105" s="42" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I105" s="42" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="J105" s="42" t="s">
-        <v>400</v>
+        <v>492</v>
       </c>
       <c r="K105" s="42" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
     </row>
     <row r="106" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.2">
@@ -7302,32 +7263,32 @@
       <c r="E106" s="42"/>
       <c r="F106" s="42"/>
       <c r="G106" s="42" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="H106" s="34" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="I106" s="42"/>
       <c r="J106" s="42" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="K106" s="42"/>
     </row>
     <row r="107" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="41"/>
       <c r="B107" s="42" t="s">
-        <v>502</v>
+        <v>474</v>
       </c>
       <c r="C107" s="43"/>
       <c r="D107" s="43"/>
       <c r="E107" s="42"/>
       <c r="F107" s="42"/>
       <c r="G107" s="42" t="s">
-        <v>500</v>
+        <v>472</v>
       </c>
       <c r="H107" s="34"/>
       <c r="I107" s="42" t="s">
-        <v>501</v>
+        <v>473</v>
       </c>
       <c r="J107" s="42"/>
       <c r="K107" s="42"/>
@@ -7335,7 +7296,7 @@
     <row r="108" spans="1:11" s="49" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A108" s="33"/>
       <c r="B108" s="42" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C108" s="35"/>
       <c r="D108" s="35"/>
@@ -7344,10 +7305,10 @@
       <c r="G108" s="36"/>
       <c r="H108" s="36"/>
       <c r="I108" s="36" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="J108" s="36" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="K108" s="36"/>
     </row>
@@ -7419,7 +7380,7 @@
       <c r="E113" s="15"/>
       <c r="F113" s="15"/>
       <c r="G113" s="39" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H113" s="15" t="s">
         <v>37</v>
@@ -7519,10 +7480,10 @@
       <c r="E119" s="15"/>
       <c r="F119" s="15"/>
       <c r="G119" s="39" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H119" s="15" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I119" s="15"/>
       <c r="J119" s="15"/>
@@ -7539,7 +7500,7 @@
         <v>47</v>
       </c>
       <c r="H120" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I120" s="15"/>
       <c r="J120" s="15"/>
@@ -7553,10 +7514,10 @@
       <c r="E121" s="15"/>
       <c r="F121" s="15"/>
       <c r="G121" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="H121" s="15" t="s">
         <v>107</v>
-      </c>
-      <c r="H121" s="15" t="s">
-        <v>108</v>
       </c>
       <c r="I121" s="15"/>
       <c r="J121" s="15"/>
@@ -7570,10 +7531,10 @@
       <c r="E122" s="15"/>
       <c r="F122" s="15"/>
       <c r="G122" s="39" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H122" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I122" s="15"/>
       <c r="J122" s="15"/>
@@ -7611,17 +7572,17 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G125" s="39" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G126" s="39" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G127" s="39" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/inventory/INVENTORY OF PYU INSCRIPTIONS.xlsx
+++ b/inventory/INVENTORY OF PYU INSCRIPTIONS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25320" windowHeight="8680"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="11360"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="509">
   <si>
     <r>
       <t>Building of a shrine by Prince R</t>
@@ -155,12 +155,6 @@
     <t>Epigraphia Indica</t>
   </si>
   <si>
-    <t>JRAS</t>
-  </si>
-  <si>
-    <t>Journal of the Royal Asiatic Society</t>
-  </si>
-  <si>
     <t>Archaeological Survey of India, Annual Report</t>
   </si>
   <si>
@@ -194,12 +188,6 @@
     <t>PPPB</t>
   </si>
   <si>
-    <t>Duroiselle 1923</t>
-  </si>
-  <si>
-    <t>Appendix B</t>
-  </si>
-  <si>
     <t>silver bowl</t>
   </si>
   <si>
@@ -398,9 +386,6 @@
     <t>Phases of Pre-Pagan Burma, Luce</t>
   </si>
   <si>
-    <t>roman plate numers converted into arabic</t>
-  </si>
-  <si>
     <t>Dimensions (cm)</t>
   </si>
   <si>
@@ -540,9 +525,351 @@
     <t>broken stone stela</t>
   </si>
   <si>
-    <r>
-      <t>in situ</t>
-    </r>
+    <t>Sriksetra Museum, nr. 2013/6/39</t>
+  </si>
+  <si>
+    <t>Sriksetra Museum, nr. 2013/1/2</t>
+  </si>
+  <si>
+    <t>Sriksetra Museum, nr. 2013/1/1</t>
+  </si>
+  <si>
+    <t>Sriksetra Museum, nr. 2013/1/3</t>
+  </si>
+  <si>
+    <t>Sriksetra Museum, nr. 2014/1/4</t>
+  </si>
+  <si>
+    <t>in situ: Sriksetra Museum, nr. 2013/1/72</t>
+  </si>
+  <si>
+    <t>Sriksetra Museum, nr. 2013/1/48</t>
+  </si>
+  <si>
+    <t>Sriksetra Museum, nr. 2013/1/51</t>
+  </si>
+  <si>
+    <t>Sriksetra Museum, nr. 2013/1/52</t>
+  </si>
+  <si>
+    <t>Sriksetra Museum, nr. 2014/1/47</t>
+  </si>
+  <si>
+    <t>Sriksetra Museum, nr. 2013/1/76 in first Kyauk Ka Thein shed</t>
+  </si>
+  <si>
+    <t>Sriksetra Museum, nr. 2013/1/78, in second Kyauk Ka Thein shed</t>
+  </si>
+  <si>
+    <t>Sriksetra Museum, nr. 2013/1/49</t>
+  </si>
+  <si>
+    <t>Sriksetra Museum, nr. 2013/1/50</t>
+  </si>
+  <si>
+    <t>Sriksetra Museum, nr. 2013/1/53</t>
+  </si>
+  <si>
+    <t>Sriksetra Museum, nr. 2013/1/75, in first Kyaukkathein shed</t>
+  </si>
+  <si>
+    <t>Sriksetra Museum, nr. 2013/5/19</t>
+  </si>
+  <si>
+    <t>Sriksetra Museum, nr. 2013/5/20</t>
+  </si>
+  <si>
+    <t>Sriksetra Museum, nr. 2013/5/22</t>
+  </si>
+  <si>
+    <t>Sriksetra Museum, nr. 2013/5/25a</t>
+  </si>
+  <si>
+    <t>Sriksetra Museum, nr. 2013/5/25b</t>
+  </si>
+  <si>
+    <t>Sriksetra Museum, nr. 2013/5/25.4</t>
+  </si>
+  <si>
+    <t>Sriksetra Museum, nr. 2013/4/5</t>
+  </si>
+  <si>
+    <t>horse-shoe shaped stone</t>
+  </si>
+  <si>
+    <t>stone fragment</t>
+  </si>
+  <si>
+    <t>stone relief-sculpture</t>
+  </si>
+  <si>
+    <t>megalithic relief sculpture</t>
+  </si>
+  <si>
+    <t>base of megalithic relief sculpture</t>
+  </si>
+  <si>
+    <t>kumbharāśi</t>
+  </si>
+  <si>
+    <t>white intaglio</t>
+  </si>
+  <si>
+    <t>Nyaung Ku Pay monastery, Halin</t>
+  </si>
+  <si>
+    <t>dayādānaṁ</t>
+  </si>
+  <si>
+    <t>Halin Museum, without nr.</t>
+  </si>
+  <si>
+    <t>h:4.5, dia:21</t>
+  </si>
+  <si>
+    <t>h:&gt;67, w:38, d:20</t>
+  </si>
+  <si>
+    <t>±12</t>
+  </si>
+  <si>
+    <t>socle of stone Buddha image</t>
+  </si>
+  <si>
+    <t>A:6, B:5, C:5, D:5</t>
+  </si>
+  <si>
+    <t>h:139, w:50, d:15</t>
+  </si>
+  <si>
+    <t>Halin inscription shed, nr. 8</t>
+  </si>
+  <si>
+    <t>h:148, w:136, d:30</t>
+  </si>
+  <si>
+    <t>Halin inscription shed, nr. 1</t>
+  </si>
+  <si>
+    <t>Halin, NE part of the city, 2 furlongs N of palace site</t>
+  </si>
+  <si>
+    <t>traces of 3</t>
+  </si>
+  <si>
+    <t>h:120, w:132, d:19</t>
+  </si>
+  <si>
+    <t>Halin inscription shed, nr. 9</t>
+  </si>
+  <si>
+    <t>Halin inscription shed, nr. 17</t>
+  </si>
+  <si>
+    <t>h:33, w:39, d:13</t>
+  </si>
+  <si>
+    <t>h:34, w:22, d:11</t>
+  </si>
+  <si>
+    <t>a well-preserved specimen of the type of sun+moon symbol seen, in damaged from, on PYU17</t>
+  </si>
+  <si>
+    <t>PPPB II, pl. 52c.</t>
+  </si>
+  <si>
+    <t>near Hpayahtaung pagoda, Hmawza</t>
+  </si>
+  <si>
+    <t>Naing Zaw 2011: 87.</t>
+  </si>
+  <si>
+    <t>Sriksetra Museum, without nr.</t>
+  </si>
+  <si>
+    <t>U Hnaung Kone village, Myinmu township</t>
+  </si>
+  <si>
+    <t>Shwedaga gate of the city-wall, Sriksetra</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ASB 1964-75, p. 37, nr. 8.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — Aung Thaw et al. 1993: 234. — Skilling 1997b: 153.</t>
+    </r>
+  </si>
+  <si>
+    <t>ASB 1964-65, 37 §9. — Skilling 1997b: 153. — Maung Maung Swe.</t>
+  </si>
+  <si>
+    <t>photos received from owner</t>
+  </si>
+  <si>
+    <t>silver-gilt relic casket</t>
+  </si>
+  <si>
+    <t>Joost Buschman, priv. collection</t>
+  </si>
+  <si>
+    <t>unknown; formerly at Archaeological office, Mandalay</t>
+  </si>
+  <si>
+    <t>bricks</t>
+  </si>
+  <si>
+    <t>ASI 198-29, pl. 51 (b). — PPPB II, pl. 45 (e-h).</t>
+  </si>
+  <si>
+    <t>bronze Buddha</t>
+  </si>
+  <si>
+    <t>headless bronze Buddha</t>
+  </si>
+  <si>
+    <t>terracotta votive tablet</t>
+  </si>
+  <si>
+    <t>Myinbahu, SW of wall at Sriksetra</t>
+  </si>
+  <si>
+    <t>ASI 1934-35, pl. 22 (i).</t>
+  </si>
+  <si>
+    <t>ASI 1934-35, 47.</t>
+  </si>
+  <si>
+    <t>Only the first five akṣaras of the ye dharmāḥ formula.</t>
+  </si>
+  <si>
+    <t>The ye dharmāḥ formula runs along the base.</t>
+  </si>
+  <si>
+    <t>F. Mandeville, priv. collection</t>
+  </si>
+  <si>
+    <t>dhānyarakkha</t>
+  </si>
+  <si>
+    <t>yellow intaglio</t>
+  </si>
+  <si>
+    <t>nanditavyaṁ</t>
+  </si>
+  <si>
+    <t>black intaglio</t>
+  </si>
+  <si>
+    <t>h:88, w:53, d:8</t>
+  </si>
+  <si>
+    <t>Pagan Museum, nr. 1</t>
+  </si>
+  <si>
+    <t>Pagan Museum, nr. 7;  formerly nr. 3</t>
+  </si>
+  <si>
+    <t>h:215, w:34, d:56</t>
+  </si>
+  <si>
+    <t>h:142, w:36, d:36</t>
+  </si>
+  <si>
+    <t>h:138, w:66, d:23</t>
+  </si>
+  <si>
+    <t>Pagan Museum, nr. 74</t>
+  </si>
+  <si>
+    <t>h:39, dia:38</t>
+  </si>
+  <si>
+    <t>PR, 78. — PPPB I, 50, 57 n. 22, 150.</t>
+  </si>
+  <si>
+    <t>2 gold leaves</t>
+  </si>
+  <si>
+    <t>20 gold leaves</t>
+  </si>
+  <si>
+    <t>Ditto. Duplicate of PYU07.</t>
+  </si>
+  <si>
+    <t>in parts near the Kubyaukkyi temple and in the Myazedi pagoda, Myinkaba, Pagan</t>
+  </si>
+  <si>
+    <t>OBEP</t>
+  </si>
+  <si>
+    <t>Old Burma-Early Pagán</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Bago Archaeological Museum, nr. 284</t>
+  </si>
+  <si>
+    <t>h:42, w:59, d:7</t>
+  </si>
+  <si>
+    <t>face B written upside-down compared with A</t>
+  </si>
+  <si>
+    <t>ASI 1928-29, pl. LI (a).</t>
+  </si>
+  <si>
+    <t>Kyundawzu village, Sriksetra</t>
+  </si>
+  <si>
+    <t>ASI 1928-29, 108. — PPPB I, 139.</t>
+  </si>
+  <si>
+    <t>ASI 1928-29, 107; 1934-35, 47. — OBEP I, 100. — PPPB I, 152; 154; 155; 156; 158.</t>
+  </si>
+  <si>
+    <t>OBEP, pl. 55 (abc).</t>
+  </si>
+  <si>
+    <t>The references feature contradictory statements on the  nature of the material.</t>
+  </si>
+  <si>
+    <t>l:37 (Finot)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 13x10x3 in. (Luce)</t>
+  </si>
+  <si>
+    <t>Found about 35 years ago, and kept in monastery until taken to Pagan Museum. Information Aung Kyaing.</t>
+  </si>
+  <si>
+    <t>National Museum, Yangon, nr. 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> National Museum, Yangon, nr. 1640</t>
+  </si>
+  <si>
+    <t>h:58, circumference at bottom: 127, circ. at top: 104</t>
+  </si>
+  <si>
+    <t>h:106, max. circumference:273, max. depth of cavity:55</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -550,173 +877,17 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: Paytaw Monastery</t>
-    </r>
-  </si>
-  <si>
-    <t>Sriksetra Museum, nr. 2013/6/39</t>
-  </si>
-  <si>
-    <t>Sriksetra Museum, nr. 2013/1/2</t>
-  </si>
-  <si>
-    <t>Sriksetra Museum, nr. 2013/1/1</t>
-  </si>
-  <si>
-    <t>Sriksetra Museum, nr. 2013/1/3</t>
-  </si>
-  <si>
-    <t>Sriksetra Museum, nr. 2014/1/4</t>
-  </si>
-  <si>
-    <t>in situ: Sriksetra Museum, nr. 2013/1/72</t>
-  </si>
-  <si>
-    <t>Sriksetra Museum, nr. 2013/1/48</t>
-  </si>
-  <si>
-    <t>Sriksetra Museum, nr. 2013/1/51</t>
-  </si>
-  <si>
-    <t>Sriksetra Museum, nr. 2013/1/52</t>
-  </si>
-  <si>
-    <t>Sriksetra Museum, nr. 2014/1/47</t>
-  </si>
-  <si>
-    <t>Sriksetra Museum, nr. 2013/1/76 in first Kyauk Ka Thein shed</t>
-  </si>
-  <si>
-    <t>Sriksetra Museum, nr. 2013/1/78, in second Kyauk Ka Thein shed</t>
-  </si>
-  <si>
-    <t>Sriksetra Museum, nr. 2013/1/49</t>
-  </si>
-  <si>
-    <t>Sriksetra Museum, nr. 2013/1/50</t>
-  </si>
-  <si>
-    <t>Sriksetra Museum, nr. 2013/1/53</t>
-  </si>
-  <si>
-    <t>Sriksetra Museum, nr. 2013/1/75, in first Kyaukkathein shed</t>
-  </si>
-  <si>
-    <t>Sriksetra Museum, nr. 2013/5/19</t>
-  </si>
-  <si>
-    <t>Sriksetra Museum, nr. 2013/5/20</t>
-  </si>
-  <si>
-    <t>Sriksetra Museum, nr. 2013/5/22</t>
-  </si>
-  <si>
-    <t>Sriksetra Museum, nr. 2013/5/25a</t>
-  </si>
-  <si>
-    <t>Sriksetra Museum, nr. 2013/5/25b</t>
-  </si>
-  <si>
-    <t>Sriksetra Museum, nr. 2013/5/25.4</t>
-  </si>
-  <si>
-    <t>Sriksetra Museum, nr. 2013/4/5</t>
-  </si>
-  <si>
-    <t>horse-shoe shaped stone</t>
-  </si>
-  <si>
-    <t>stone fragment</t>
-  </si>
-  <si>
-    <t>stone relief-sculpture</t>
-  </si>
-  <si>
-    <t>megalithic relief sculpture</t>
-  </si>
-  <si>
-    <t>base of megalithic relief sculpture</t>
-  </si>
-  <si>
-    <t>kumbharāśi</t>
-  </si>
-  <si>
-    <t>white intaglio</t>
-  </si>
-  <si>
-    <t>Nyaung Ku Pay monastery, Halin</t>
-  </si>
-  <si>
-    <t>dayādānaṁ</t>
-  </si>
-  <si>
-    <t>Halin Museum, without nr.</t>
-  </si>
-  <si>
-    <t>h:4.5, dia:21</t>
-  </si>
-  <si>
-    <t>h:&gt;67, w:38, d:20</t>
-  </si>
-  <si>
-    <t>±12</t>
-  </si>
-  <si>
-    <t>socle of stone Buddha image</t>
-  </si>
-  <si>
-    <t>A:6, B:5, C:5, D:5</t>
-  </si>
-  <si>
-    <t>h:139, w:50, d:15</t>
-  </si>
-  <si>
-    <t>Halin inscription shed, nr. 8</t>
-  </si>
-  <si>
-    <t>h:148, w:136, d:30</t>
-  </si>
-  <si>
-    <t>Halin inscription shed, nr. 1</t>
-  </si>
-  <si>
-    <t>Halin, NE part of the city, 2 furlongs N of palace site</t>
-  </si>
-  <si>
-    <t>traces of 3</t>
-  </si>
-  <si>
-    <t>h:120, w:132, d:19</t>
-  </si>
-  <si>
-    <t>Halin inscription shed, nr. 9</t>
-  </si>
-  <si>
-    <t>Halin inscription shed, nr. 17</t>
-  </si>
-  <si>
-    <t>h:33, w:39, d:13</t>
-  </si>
-  <si>
-    <t>h:34, w:22, d:11</t>
-  </si>
-  <si>
-    <t>a well-preserved specimen of the type of sun+moon symbol seen, in damaged from, on PYU17</t>
-  </si>
-  <si>
-    <t>PPPB II, pl. 52c.</t>
-  </si>
-  <si>
-    <t>near Hpayahtaung pagoda, Hmawza</t>
-  </si>
-  <si>
-    <t>Naing Zaw 2011: 87.</t>
-  </si>
-  <si>
-    <t>Sriksetra Museum, without nr.</t>
-  </si>
-  <si>
-    <t>U Hnaung Kone village, Myinmu township</t>
+      <t>ASI 1927-28, 129. —</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Mya 1961, II, p. 17. — PPPB II, 155.</t>
+    </r>
   </si>
   <si>
     <r>
@@ -726,214 +897,23 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Myint Aung 1978. — Sein Maung Oo 1981; 1989. —</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Naing Zaw 2011: 87.</t>
-    </r>
-  </si>
-  <si>
-    <t>Shwedaga gate of the city-wall, Sriksetra</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ASB 1964-75, p. 37, nr. 8.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> — Aung Thaw et al. 1993: 234. — Skilling 1997b: 153.</t>
-    </r>
-  </si>
-  <si>
-    <t>ASB 1964-65, 37 §9. — Skilling 1997b: 153. — Maung Maung Swe.</t>
-  </si>
-  <si>
-    <t>photos received from owner</t>
-  </si>
-  <si>
-    <t>silver-gilt relic casket</t>
-  </si>
-  <si>
-    <t>Joost Buschman, priv. collection</t>
-  </si>
-  <si>
-    <t>unknown; formerly at Archaeological office, Mandalay</t>
-  </si>
-  <si>
-    <t>bricks</t>
-  </si>
-  <si>
-    <t>ASI 198-29, pl. 51 (b). — PPPB II, pl. 45 (e-h).</t>
-  </si>
-  <si>
-    <t>bronze Buddha</t>
-  </si>
-  <si>
-    <t>headless bronze Buddha</t>
-  </si>
-  <si>
-    <t>terracotta votive tablet</t>
-  </si>
-  <si>
-    <t>Myinbahu, SW of wall at Sriksetra</t>
-  </si>
-  <si>
-    <t>ASI 1934-35, pl. 22 (i).</t>
-  </si>
-  <si>
-    <t>ASI 1934-35, 47.</t>
-  </si>
-  <si>
-    <t>Only the first five akṣaras of the ye dharmāḥ formula.</t>
-  </si>
-  <si>
-    <t>The ye dharmāḥ formula runs along the base.</t>
-  </si>
-  <si>
-    <t>F. Mandeville, priv. collection</t>
-  </si>
-  <si>
-    <t>dhānyarakkha</t>
-  </si>
-  <si>
-    <t>yellow intaglio</t>
-  </si>
-  <si>
-    <t>nanditavyaṁ</t>
-  </si>
-  <si>
-    <t>black intaglio</t>
-  </si>
-  <si>
-    <t>h:88, w:53, d:8</t>
-  </si>
-  <si>
-    <t>Pagan Museum, nr. 1</t>
-  </si>
-  <si>
-    <t>Pagan Museum, nr. 7;  formerly nr. 3</t>
-  </si>
-  <si>
-    <t>h:215, w:34, d:56</t>
-  </si>
-  <si>
-    <t>h:142, w:36, d:36</t>
-  </si>
-  <si>
-    <t>h:138, w:66, d:23</t>
-  </si>
-  <si>
-    <t>Pagan Museum, nr. 74</t>
-  </si>
-  <si>
-    <t>h:39, dia:38</t>
-  </si>
-  <si>
-    <t>PR, 78. — PPPB I, 50, 57 n. 22, 150.</t>
-  </si>
-  <si>
-    <t>2 gold leaves</t>
-  </si>
-  <si>
-    <t>20 gold leaves</t>
-  </si>
-  <si>
-    <t>Ditto. Duplicate of PYU07.</t>
-  </si>
-  <si>
-    <t>in parts near the Kubyaukkyi temple and in the Myazedi pagoda, Myinkaba, Pagan</t>
-  </si>
-  <si>
-    <t>OBEP</t>
-  </si>
-  <si>
-    <t>Old Burma-Early Pagán</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Bago Archaeological Museum, nr. 284</t>
-  </si>
-  <si>
-    <t>h:42, w:59, d:7</t>
-  </si>
-  <si>
-    <t>face B written upside-down compared with A</t>
-  </si>
-  <si>
-    <t>ASI 1928-29, pl. LI (a).</t>
-  </si>
-  <si>
-    <t>Kyundawzu village, Sriksetra</t>
-  </si>
-  <si>
-    <t>ASI 1928-29, 108. — PPPB I, 139.</t>
-  </si>
-  <si>
-    <t>7 fragments of a gold leaf</t>
-  </si>
-  <si>
-    <t>ASI 1928-29, 107; 1934-35, 47. — OBEP I, 100. — PPPB I, 152; 154; 155; 156; 158.</t>
-  </si>
-  <si>
-    <t>OBEP, pl. 55 (abc).</t>
-  </si>
-  <si>
-    <t>The references feature contradictory statements on the  nature of the material.</t>
-  </si>
-  <si>
-    <t>l:37 (Finot)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 13x10x3 in. (Luce)</t>
-  </si>
-  <si>
-    <t>Found about 35 years ago, and kept in monastery until taken to Pagan Museum. Information Aung Kyaing.</t>
-  </si>
-  <si>
-    <t>National Museum, Yangon, nr. 9</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> National Museum, Yangon, nr. 1640</t>
-  </si>
-  <si>
-    <t>h:58, circumference at bottom: 127, circ. at top: 104</t>
-  </si>
-  <si>
-    <t>h:106, max. circumference:273, max. depth of cavity:55</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ASI 1927, pl. XLII (g, h). — ASB 1939, pl. 4c, 5, 6. — </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Mya 1961, II, pl. 4. — PPPB II, pl. 33-34.</t>
-    </r>
+      <t>ASI 1927-28, pl. LV(1), LVI(d)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. — Mya 1961, II, pl. 17, 17ka. — PPPB II, pl. 60 (a, b).</t>
+    </r>
+  </si>
+  <si>
+    <t>mound nr. 2957 near Nga Shin Gan, SW of Mahtaw village, Sriksetra</t>
+  </si>
+  <si>
+    <t>Mya 1961, II, pl. 60 (ka). — PPPB II, pl. 59 (b).</t>
   </si>
   <si>
     <r>
@@ -943,19 +923,57 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ASI 1927-28, 129. —</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Mya 1961, II, p. 17. — PPPB II, 155.</t>
-    </r>
-  </si>
-  <si>
+      <t>ASB 1925, 18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. — Mya 1961, II, 31. — PPPB I, 155.</t>
+    </r>
+  </si>
+  <si>
+    <t>N of Palace, Sriksetra</t>
+  </si>
+  <si>
+    <t>ASB 1958, 65.</t>
+  </si>
+  <si>
+    <t>ASB 1958, pl. 16, 17.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ASB 1925, 18. — </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mya 1961, II, 31. — PPPB I, 155.</t>
+    </r>
+  </si>
+  <si>
+    <t>fragment of votive tablet</t>
+  </si>
+  <si>
+    <t>Myinbahu pagoda, Sriksetra</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PPPB I, 155.</t>
+  </si>
+  <si>
+    <t>Mya 1961, II, pl. 61, 61ka. — PPPB II, pl. 58 (e).</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mya 1961, II, </t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -963,90 +981,6 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ASI 1927-28, pl. LV(1), LVI(d)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. — Mya 1961, II, pl. 17, 17ka. — PPPB II, pl. 60 (a, b).</t>
-    </r>
-  </si>
-  <si>
-    <t>mound nr. 2957 near Nga Shin Gan, SW of Mahtaw village, Sriksetra</t>
-  </si>
-  <si>
-    <t>Mya 1961, II, pl. 60 (ka). — PPPB II, pl. 59 (b).</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ASB 1925, 18</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. — Mya 1961, II, 31. — PPPB I, 155.</t>
-    </r>
-  </si>
-  <si>
-    <t>N of Palace, Sriksetra</t>
-  </si>
-  <si>
-    <t>ASB 1958, 65.</t>
-  </si>
-  <si>
-    <t>ASB 1958, pl. 16, 17.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ASB 1925, 18. — </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Mya 1961, II, 31. — PPPB I, 155.</t>
-    </r>
-  </si>
-  <si>
-    <t>fragment of votive tablet</t>
-  </si>
-  <si>
-    <t>Myinbahu pagoda, Sriksetra</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> PPPB I, 155.</t>
-  </si>
-  <si>
-    <t>Mya 1961, II, pl. 61, 61ka. — PPPB II, pl. 58 (e).</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Mya 1961, II, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>XX</t>
     </r>
     <r>
@@ -1138,13 +1072,7 @@
     <t>menhir</t>
   </si>
   <si>
-    <t>Kunzeik, on bank of Sittaung river, Shwegyin township</t>
-  </si>
-  <si>
     <t>Luce noted (PPPB I, 155f.): "There are at least 3 other damaged specimens (obverse and reverse) of this tablet, from the same site, at Mandalay Archaeological office". This information probably dates from 1960.</t>
-  </si>
-  <si>
-    <t>Mya 1961, II, pl. XX. — PPPB II, 58 (f).</t>
   </si>
   <si>
     <t>Mya 1961, II, pl. 60 (kha). — PPPB II, 59 (c).</t>
@@ -1329,17 +1257,50 @@
     <t>photos Bob Hudson</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">ASI 1927, 178-80, 200-1. — ASB 1939, 12-22. — </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PR, 25-33. — PPPB I, 139. —</t>
+    <t>stone tablet in 3 fragments</t>
+  </si>
+  <si>
+    <t>h:3.1, l:16.5</t>
+  </si>
+  <si>
+    <t>leaves 1-18: 3 lines, leaf 19: 4 l., leaf 20: 2 l.</t>
+  </si>
+  <si>
+    <t>deposited by Department of Archaeology at National Museum, Yangon</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Listed in continuation of Duroiselle, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A List of Inscriptions Found in Burma</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (1921), appendix B</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ASI 1909-10, pl. 49 (17-18). — ASB 1924,  pl. 3;</t>
     </r>
     <r>
       <rPr>
@@ -1349,123 +1310,142 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Falk 1997. — Stargardt 2000.</t>
-    </r>
-  </si>
-  <si>
-    <t>stone tablet in 3 fragments</t>
-  </si>
-  <si>
-    <t>h:3.1, l:16.5</t>
-  </si>
-  <si>
-    <t>leaves 1-18: 3 lines, leaf 19: 4 l., leaf 20: 2 l.</t>
-  </si>
-  <si>
-    <t>deposited by Department of Archaeology at National Museum, Yangon</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Listed in continuation of Duroiselle, </t>
+      <t xml:space="preserve"> 1958, chart. —  PPPB II, pl. 35-36.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ASI 1909-10, 123. —ASB 1924, 26.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — PPPB I, 62, 74 n. 9, 140.</t>
+    </r>
+  </si>
+  <si>
+    <t>Myint Aung 1970, pl. 9a. — Aung Thaw 1972: 14.</t>
+  </si>
+  <si>
+    <t>Beikthano</t>
+  </si>
+  <si>
+    <t>saṁghasiri/sayasiri</t>
+  </si>
+  <si>
+    <t>whole piece 4 cm long; seal 1.5 cm diam.</t>
+  </si>
+  <si>
+    <t>National Museum, Yangon</t>
+  </si>
+  <si>
+    <t>Prakrit (?)</t>
+  </si>
+  <si>
+    <t>ASB 1959, pl. 16-17. — Aung Thaw 1968, fig. 79.9, pl. LIVab. — photos Bob Hudson.</t>
+  </si>
+  <si>
+    <t>ASB 1959, 19. — Aung Thaw 1968: 50-51. — Aung Thaw 1972: 4.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ASB 1960: 22. —Aung Thaw 1972: 32. — Sircar 1976: 210-217. — </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Aung Thaw et al. 1993: 134. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>— Gutman 2001: 109 n. 1.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sinlu village, Pwinbyu township </t>
+  </si>
+  <si>
+    <t>Sin Phyu Ywa village (Beinnaka old city), Pyawbwe</t>
+  </si>
+  <si>
+    <t>found on 20/05/2015 by Tampawaddy Win Maung and his group; information Kyam Minn Htin email on the same day.</t>
+  </si>
+  <si>
+    <t>ASI 1926-27, pl. XXXIX (f). — OBEP, pl. 444 (a, b).</t>
+  </si>
+  <si>
+    <t>OBEP, pl. 34 (c, d).</t>
+  </si>
+  <si>
+    <t>mentions Metriya</t>
+  </si>
+  <si>
+    <t>Pagan, Shwehsandaw pagoda, relic chamber</t>
+  </si>
+  <si>
+    <t>ASI 1926-27, 164. — PR, 77. — Mya 1961, I, 23-4. — OBEP I, 99; II, 25. — PPPB I, 66, 75 n. 30.</t>
+  </si>
+  <si>
+    <t>OBEP II, 26.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">read </t>
     </r>
     <r>
       <rPr>
         <i/>
         <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A List of Inscriptions Found in Burma</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (1921), appendix B</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ASI 1909-10, pl. 49 (17-18). — ASB 1924,  pl. 3;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 1958, chart. —  PPPB II, pl. 35-36.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ASI 1909-10, 123. —ASB 1924, 26.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> — PPPB I, 62, 74 n. 9, 140.</t>
-    </r>
-  </si>
-  <si>
-    <t>Myint Aung 1970, pl. 9a. — Aung Thaw 1972: 14.</t>
-  </si>
-  <si>
-    <t>Beikthano</t>
-  </si>
-  <si>
-    <t>saṁghasiri/sayasiri</t>
-  </si>
-  <si>
-    <t>whole piece 4 cm long; seal 1.5 cm diam.</t>
-  </si>
-  <si>
-    <t>National Museum, Yangon</t>
-  </si>
-  <si>
-    <t>Prakrit (?)</t>
-  </si>
-  <si>
-    <t>ASB 1959, pl. 16-17. — Aung Thaw 1968, fig. 79.9, pl. LIVab. — photos Bob Hudson.</t>
-  </si>
-  <si>
-    <t>ASB 1959, 19. — Aung Thaw 1968: 50-51. — Aung Thaw 1972: 4.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ASB 1960: 22. —Aung Thaw 1972: 32. — Sircar 1976: 210-217. — </t>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>baṁḥ metriya</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> by Duroiselle, but this reading not verifiable from the existing photos.</t>
+    </r>
+  </si>
+  <si>
+    <t>National Museum, Yangon, nr. 36</t>
+  </si>
+  <si>
+    <t>ASI 1926-27, 164-5. — OBEP I, 188; II, 204.</t>
+  </si>
+  <si>
+    <t>West bank of Nagayon lake, Halin</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PPPB II, pl. 54. — </t>
     </r>
     <r>
       <rPr>
@@ -1474,83 +1454,12 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Aung Thaw et al. 1993: 134. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>— Gutman 2001: 109 n. 1.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sinlu village, Pwinbyu township </t>
-  </si>
-  <si>
-    <t>Sin Phyu Ywa village (Beinnaka old city), Pyawbwe</t>
-  </si>
-  <si>
-    <t>found on 20/05/2015 by Tampawaddy Win Maung and his group; information Kyam Minn Htin email on the same day.</t>
-  </si>
-  <si>
-    <t>ASI 1926-27, pl. XXXIX (f). — OBEP, pl. 444 (a, b).</t>
-  </si>
-  <si>
-    <t>OBEP, pl. 34 (c, d).</t>
-  </si>
-  <si>
-    <t>mentions Metriya</t>
-  </si>
-  <si>
-    <t>Pagan, Shwehsandaw pagoda, relic chamber</t>
-  </si>
-  <si>
-    <t>ASI 1926-27, 164. — PR, 77. — Mya 1961, I, 23-4. — OBEP I, 99; II, 25. — PPPB I, 66, 75 n. 30.</t>
-  </si>
-  <si>
-    <t>OBEP II, 26.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">read </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>baṁḥ metriya</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> by Duroiselle, but this reading not verifiable from the existing photos.</t>
-    </r>
-  </si>
-  <si>
-    <t>National Museum, Yangon, nr. 36</t>
-  </si>
-  <si>
-    <t>ASI 1926-27, 164-5. — OBEP I, 188; II, 204.</t>
-  </si>
-  <si>
-    <t>West bank of Nagayon lake, Halin</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">PPPB II, pl. 54. — </t>
+      <t>EFEO estampage n. XXX.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>stone stela (</t>
     </r>
     <r>
       <rPr>
@@ -1559,20 +1468,6 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t>EFEO estampage n. XXX.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>stone stela (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>or funerary tablet?</t>
     </r>
     <r>
@@ -1587,9 +1482,6 @@
   </si>
   <si>
     <t>South of Tagantha village, near Halin</t>
-  </si>
-  <si>
-    <t>presence of inscription not yet noted when catalogue entry was written for Guy 2014.</t>
   </si>
   <si>
     <t>metal sculpture of preaching Buddha</t>
@@ -2012,8 +1904,36 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve"> Minte mound, </t>
+    <t>Khin Ba mound, Sriksetra</t>
+  </si>
+  <si>
+    <t>Aung Thaw 1972: 110, 116.</t>
+  </si>
+  <si>
+    <t>ASI 1910-11, pl. XLVII (1-2). — ASI 1911-12, pl. LXVIII (1). — Finot 1913, plate. — PPPB II, pl. 98 (c).</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ASI 1910-11, 89. — </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ASI 1911-12, 141-2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">— Finot 1912: 134-135 — Finot 1913. — PR, 35-36. — PPPB I, 61, 74 n. 4, </t>
     </r>
     <r>
       <rPr>
@@ -2022,30 +1942,7 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Hmawza</t>
-    </r>
-  </si>
-  <si>
-    <t>Khin Ba mound, Sriksetra</t>
-  </si>
-  <si>
-    <t>Aung Thaw 1972: 110, 116.</t>
-  </si>
-  <si>
-    <t>ASI 1910-11, pl. XLVII (1-2). — ASI 1911-12, pl. LXVIII (1). — Finot 1913, plate. — PPPB II, pl. 98 (c).</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ASI 1910-11, 89. — </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">ASI 1911-12, 141-2. </t>
+      <t>XX</t>
     </r>
     <r>
       <rPr>
@@ -2055,7 +1952,18 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">— Finot 1912: 134-135 — Finot 1913. — PR, 35-36. — PPPB I, 61, 74 n. 4, </t>
+      <t>. — Stargardt 1995: 201.</t>
+    </r>
+  </si>
+  <si>
+    <t>ASI 1910-11, 93. — ASB 1911, 6, 41. — PPPB I, 158.</t>
+  </si>
+  <si>
+    <t>ASB 1911, 6, 41.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mya 1961, II, 31. — PPPB I, 155. — </t>
     </r>
     <r>
       <rPr>
@@ -2064,7 +1972,29 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t>XX</t>
+      <t>Tun Aung Chain 2003: 9.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ASI 1927-28, 127-8, 145. — Ray 1936: 19-20. — PR, 41-3. — PPPB I, 51, 57 n. 24, 65, 74 n. 22, 131-2. — Guy 1997: 91-2; 2014: 91-2 (cat. 41). — Tun Aung Chain 2003: 5-6.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>De Beylié 1907a: 9, 83, 108. — Blagden 1911 (A). — EB I, 1, 59-68 (A). —  Shafer 1943: 320-37,340-44, 357-63. — PR, 53-61. —</t>
     </r>
     <r>
       <rPr>
@@ -2074,58 +2004,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>. — Stargardt 1995: 201.</t>
-    </r>
-  </si>
-  <si>
-    <t>ASI 1910-11, 93. — ASB 1911, 6, 41. — PPPB I, 158.</t>
-  </si>
-  <si>
-    <t>ASB 1911, 6, 41.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Mya 1961, II, 31. — PPPB I, 155. — </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Tun Aung Chain 2003: 9.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ASI 1927-28, 127-8, 145. — Ray 1936: 19-20. — PR, 41-3. — PPPB I, 51, 57 n. 24, 65, 74 n. 22, 131-2. — Guy 1997: 91-2; 2014: 91-2 (cat. 41). — Tun Aung Chain 2003: 5-6.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>De Beylié 1907a: 9, 83, 108. — Blagden 1911 (A). — EB I, 1, 59-68 (A). —  Shafer 1943: 320-37,340-44, 357-63. — PR, 53-61. —</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve"> PPPB I, 62-4, 74 n. </t>
     </r>
     <r>
@@ -2154,9 +2032,6 @@
   </si>
   <si>
     <t>Mahlo 2012: 167 (app. 27.2).</t>
-  </si>
-  <si>
-    <t>Middleton 2005, App.58, pp. 173-4.</t>
   </si>
   <si>
     <t>ASI 1929-30, pl. XLI (e). — IB IV, CCCLVII (a). — PPPB II, 52b.</t>
@@ -2265,9 +2140,6 @@
     </r>
   </si>
   <si>
-    <t>ASI 1926-27, 175-6. — PR, 34. — Le May 1956: 48. — PPPB I, 51, 57 n. 23, 137. — Falk 1997: 88-91. — Stargardt 2001: 498, 503-6. — Guy 2014: 80-2 (cat. 27).</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">ASI 1927-28, pl. LIV (g, h). — IB IV, CCCLVI (a). —PPPB II, pl. 16-7. — </t>
     </r>
@@ -2541,17 +2413,29 @@
     <t xml:space="preserve">Halin Museum, nr. 2014/1/25 </t>
   </si>
   <si>
-    <r>
-      <t>According to Luce (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>where</t>
+    <t>Found in 1966; text almost entirely obliterated.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nyunt Han </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>et al</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. 2006: 13. — Moore 2009: 111-12. — </t>
     </r>
     <r>
       <rPr>
@@ -2559,16 +2443,47 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri (Corps)"/>
       </rPr>
-      <t>?</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">), read by Blagden but his reading was never published. </t>
+      <t>Naing Zaw 2011: 525.</t>
+    </r>
+  </si>
+  <si>
+    <t>ASI 1910-11, 90. — Mya 1961, II, 33. — PPPB I, 128 (pl. 8f).</t>
+  </si>
+  <si>
+    <t>Pyay public library</t>
+  </si>
+  <si>
+    <t>photo Don Stadtner</t>
+  </si>
+  <si>
+    <t>brick</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Aung Thaw 1972: 110-111. — Luce 1974: 126. — PPPB I, 176.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Corps)"/>
+      </rPr>
+      <t xml:space="preserve"> — von Hinüber 1991: 25 n. 53. —</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Skilling </t>
     </r>
     <r>
       <rPr>
@@ -2577,12 +2492,113 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Previous publications did not get the number of lines right.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Blagden 1913-14: 127 (D2). —ASB 1913, 14, </t>
+      <t>1997a:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 95 n. 7. — Stadtner 2011: 48-9.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ASB 1904-05, 8-9, 35;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Corps)"/>
+      </rPr>
+      <t xml:space="preserve"> 1915, 21-3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. —</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ASI </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Corps)"/>
+      </rPr>
+      <t>1904-05, 126</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>; 19</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>29-30, 152. — PR, 21.—PPPB I, 66, 75 n. 27, 149. — Shafer 1943: 339.</t>
+    </r>
+  </si>
+  <si>
+    <t>Blagden 1913-14 (D1). — ASB 1913, pl. I (1-2). — IB IV, CCCLIV (d). — PPPB II, pl. 5a, 6a.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ASI 1912-13, pt. I, 29. — ASB </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 1913, 9-10, 14. — Blagden 1913-14 (D1). — PR, 47 (D), 51. — PPPB I, 48, 57 n. 13, 126-7.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">See also PYU25. — </t>
     </r>
     <r>
       <rPr>
@@ -2590,42 +2606,106 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri (Corps)"/>
       </rPr>
-      <t>41</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. — PPPB I, 65, 75 n. 23, 127.</t>
-    </r>
-  </si>
-  <si>
-    <t>Found in 1966; text almost entirely obliterated.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Nyunt Han </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>et al</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. 2006: 13. — Moore 2009: 111-12. — </t>
+      <t>IB IV, p. 39, assigns the absolute date 35 BE, but the interpretation as a date in that era is uncertain (see Frasch 20??).</t>
+    </r>
+  </si>
+  <si>
+    <t>ASI 1911-12 fig. 1 on pl. LXIX shows Blagden’s A urn (but it is identified in the caption as being from the Bawbawgyi, which must be a mistake). IB IV, p. 39, assigns the absolute date 57 BE, but the interpretation as a date in that era is uncertain (see Frasch 20??).</t>
+  </si>
+  <si>
+    <t>ASI 1912-13, pt. I, 29. — ASB 1913, 13-4. — Blagden 1913-14 (C). — PR, 47 (C), 51. — PPPB I, 48, 57 n. 13, 126-7.</t>
+  </si>
+  <si>
+    <t>ASI 1911-12, 147. — ASB 1912, 7, 11. — Blagden 1913-14 (A). — PR, 47 (A), 50. — PPPB I, 48, 57 n. 13, 126-7.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wrongly said to come from Bawbawgyi in ASI 1911-12, 147. IB IV, p. 39, assigns the absolute date 50 BE, but the interpretation as a date in that era is uncertain (see Frasch 20??). — For the urns, the dimensions given in ASB and ASI don’t correspond very closely to those in the inventory. E.g., ASB 1913, 13-4, talking about 004, gives dimensions of : 2’11” (h), 3’6” (dia). Inventory gives h. 95 (3’1”) - close, dia. 67 (2’2”) – not so close. Perhaps there’s confusion between internal and external diameter. </t>
+  </si>
+  <si>
+    <t>During or after the Chinese invasion of Pagan in 1287 CE; but ASB 1916 suggests "probably dated 1284 A.D.". The reference to a "bilibgual inscription in Chinese and Mongol" in ASB 1910 must be a slip of the pen for "Chinese and Pyu".</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">HRC rubbing. — </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Corps)"/>
+      </rPr>
+      <t>MHRJ 11, pp. 133ff. —</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> RTI.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Corps)"/>
+      </rPr>
+      <t>San Win 1998, 20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00-1, 2003.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>—Tun Aung Chain 2003: 1-4, Appendix. — MHRJ 11, pp. 133ff.</t>
+    </r>
+  </si>
+  <si>
+    <t>San Win 2000-1 is an English version of 1998. The complete reading furnished in the Document section of MHRJ 11, pp. 133ff., was probably done by Than Tun, Nyein Maung and San Win to whom the reading in Appendix to Tun Aung Chain's article in the same issue is ascribed.</t>
+  </si>
+  <si>
+    <t>Le May 1956 fig. 2 mis-cited as 3 by Luce PPPB I, 150.</t>
+  </si>
+  <si>
+    <t>Guy 2014: 91 (cat. 40).</t>
+  </si>
+  <si>
+    <t>National Museum, Nay Pyi Taw, 1/3/1994</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Myint Aung 1970: 61. — Aung Thaw 1972: 14. — </t>
     </r>
     <r>
       <rPr>
@@ -2633,30 +2713,94 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri (Corps)"/>
       </rPr>
-      <t>Naing Zaw 2011: 525.</t>
-    </r>
-  </si>
-  <si>
-    <t>ASI 1910-11, 90. — Mya 1961, II, 33. — PPPB I, 128 (pl. 8f).</t>
-  </si>
-  <si>
-    <t>Pyay public library</t>
-  </si>
-  <si>
-    <t>photo Don Stadtner</t>
-  </si>
-  <si>
-    <t>brick</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Aung Thaw 1972: 110-111. — Luce 1974: 126. — PPPB I, 176.</t>
+      <t>Naing Zaw 2011: 495.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — Skilling 2015: 66.</t>
+    </r>
+  </si>
+  <si>
+    <t>photo Thein Lwin received from Bob</t>
+  </si>
+  <si>
+    <t>Perhaps this is the second silver bowl (besides PYU38) referred to by Sein Maung Oo 1989.</t>
+  </si>
+  <si>
+    <t>photo Bob Hudson</t>
+  </si>
+  <si>
+    <t>Naing Zaw 2011: 614.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Blagden 1913-14 (B). — ASI 1911-12, pl. LXVIII (3). — IB IV, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CCCLIV (b). — PPPB II, pl. 5 (ef), 6 (d).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ASI 1911-12, 147. — ASB 1912, 7, 11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. — Blagden 1913-14 (B). — PR, 47 (B), 50. — PPPB I, 48, 57 n. 13, 126-7. — Shafer 1943: 339. — Guy 2014: 76-7 (cat. 24).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Comprises two texts of which only the first has been read (Blagden's B1); the second is almost entirely illegible on available rubbings. For text B1, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Corps)"/>
+      </rPr>
+      <t>IB IV, p. 39, assigns the absolute date 80 BE, but the interpretation as a date in that era is uncertain (see Frasch 20??).</t>
+    </r>
+  </si>
+  <si>
+    <t>unknown site at Pagan</t>
+  </si>
+  <si>
+    <t>"B.G."</t>
+  </si>
+  <si>
+    <t>&lt;°ūvasri&gt;?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">De Beylié 1907a: 83 (n. 1). </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">— </t>
     </r>
     <r>
       <rPr>
@@ -2664,45 +2808,38 @@
         <color theme="1"/>
         <rFont val="Calibri (Corps)"/>
       </rPr>
-      <t xml:space="preserve"> — von Hinüber 1991: 25 n. 53. —</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Skilling </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1997a:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 95 n. 7. — Stadtner 2011: 48-9.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ASB 1904-05, 8-9, 35;</t>
+      <t>ASB 1907, 10; 1910, 21;  1916, 18 (with n. ‡), 20, 55; 1917, 24-5; 1922, 17.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — Blagden 1913-14: 127 (6). — Chen Yi-Sein 1960. — PPPB I, 67, 76 n. 38-39.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ASI 1929-30,  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">pl. XLI (b). — </t>
     </r>
     <r>
       <rPr>
@@ -2710,7 +2847,7 @@
         <color theme="1"/>
         <rFont val="Calibri (Corps)"/>
       </rPr>
-      <t xml:space="preserve"> 1915, 21-3</t>
+      <t xml:space="preserve"> Le May 1956, fig. 2. </t>
     </r>
     <r>
       <rPr>
@@ -2720,17 +2857,29 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>. —</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
+      <t>— PPP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B II, pl. 53a.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — RTI.</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -2739,7 +2888,37 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">ASI </t>
+      <t>ASI 1929-30: 154-5. — Le May 1956: 47. — Aung Thaw 1972: 12. — PPPB I, 53, 58 n. 43, 149-50.</t>
+    </r>
+  </si>
+  <si>
+    <t>7 fragments of a gold foil</t>
+  </si>
+  <si>
+    <t>gold foil</t>
+  </si>
+  <si>
+    <t>ASI 1926-27, 175-6, 201. — PR, 34. — Le May 1956: 48. — PPPB I, 51, 57 n. 23, 137. — Falk 1997: 88-91. — Stargardt 2001: 498, 503-6. — Guy 2014: 80-2 (cat. 27).</t>
+  </si>
+  <si>
+    <t>ASI 1927, 180 (no. 38), 201. — Stargardt 2000: 52 (no. 38).</t>
+  </si>
+  <si>
+    <t>Arch. Neg. 2865-6.</t>
+  </si>
+  <si>
+    <t>same as 070?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ASI 1926-27, 178-80, 200-1. —</t>
     </r>
     <r>
       <rPr>
@@ -2747,48 +2926,95 @@
         <color theme="1"/>
         <rFont val="Calibri (Corps)"/>
       </rPr>
-      <t>1904-05, 126</t>
+      <t xml:space="preserve"> ASB 1939, 12-22. —</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PR, 25-33. — PPPB I, 139. —</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Falk 1997. — Stargardt 2000.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ASI 1926-27, pl. XLII (g, h). — </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>; 19</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>29-30, 152. — PR, 21.—PPPB I, 66, 75 n. 27, 149. — Shafer 1943: 339.</t>
-    </r>
-  </si>
-  <si>
-    <t>Blagden 1913-14 (D1). — ASB 1913, pl. I (1-2). — IB IV, CCCLIV (d). — PPPB II, pl. 5a, 6a.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ASI 1912-13, pt. I, 29. — ASB </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 1913, 9-10, 14. — Blagden 1913-14 (D1). — PR, 47 (D), 51. — PPPB I, 48, 57 n. 13, 126-7.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">See also PYU25. — </t>
+        <rFont val="Calibri (Corps)"/>
+      </rPr>
+      <t>ASB 1939</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> pl. 4c, 5, 6. — </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mya 1961, II, pl. 4. — PPPB II, pl. 33-34.</t>
+    </r>
+  </si>
+  <si>
+    <t>cite also Than Hswe 1991 and 1992?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mya 1961, II, pl. </t>
     </r>
     <r>
       <rPr>
@@ -2796,33 +3022,21 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri (Corps)"/>
       </rPr>
-      <t>IB IV, p. 39, assigns the absolute date 35 BE, but the interpretation as a date in that era is uncertain (see Frasch 20??).</t>
-    </r>
-  </si>
-  <si>
-    <t>ASI 1911-12 fig. 1 on pl. LXIX shows Blagden’s A urn (but it is identified in the caption as being from the Bawbawgyi, which must be a mistake). IB IV, p. 39, assigns the absolute date 57 BE, but the interpretation as a date in that era is uncertain (see Frasch 20??).</t>
-  </si>
-  <si>
-    <t>ASI 1912-13, pt. I, 29. — ASB 1913, 13-4. — Blagden 1913-14 (C). — PR, 47 (C), 51. — PPPB I, 48, 57 n. 13, 126-7.</t>
-  </si>
-  <si>
-    <t>ASI 1911-12, 147. — ASB 1912, 7, 11. — Blagden 1913-14 (A). — PR, 47 (A), 50. — PPPB I, 48, 57 n. 13, 126-7.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wrongly said to come from Bawbawgyi in ASI 1911-12, 147. IB IV, p. 39, assigns the absolute date 50 BE, but the interpretation as a date in that era is uncertain (see Frasch 20??). — For the urns, the dimensions given in ASB and ASI don’t correspond very closely to those in the inventory. E.g., ASB 1913, 13-4, talking about 004, gives dimensions of : 2’11” (h), 3’6” (dia). Inventory gives h. 95 (3’1”) - close, dia. 67 (2’2”) – not so close. Perhaps there’s confusion between internal and external diameter. </t>
-  </si>
-  <si>
-    <t>During or after the Chinese invasion of Pagan in 1287 CE; but ASB 1916 suggests "probably dated 1284 A.D.". The reference to a "bilibgual inscription in Chinese and Mongol" in ASB 1910 must be a slip of the pen for "Chinese and Pyu".</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">HRC rubbing. — </t>
+      <t>XX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. — PPPB II, 58 (f).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Blagden 1913-14: 127 (D2). —ASB 1913, 14, </t>
     </r>
     <r>
       <rPr>
@@ -2830,277 +3044,116 @@
         <color theme="1"/>
         <rFont val="Calibri (Corps)"/>
       </rPr>
-      <t>MHRJ 11, pp. 133ff. —</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> RTI.</t>
-    </r>
-  </si>
-  <si>
+      <t>41</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. — PPPB I, 65, 75 n. 23, 127.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">According to Luce PPPB I, 75 n. 23: “Blagden transcribed this inscription but never published his readings”. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Previous publications did not get the number of lines right.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> Minte mound, Sriksetra</t>
+  </si>
+  <si>
+    <t>Middleton 2005, App. 58, pp. 173-4.</t>
+  </si>
+  <si>
+    <t>Presence of inscription not yet noted when catalogue entry was written for Guy 2014.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sein Win 1997. — Naing Zaw 2011: 546-7 — </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Guy 2014: 90-1 (cat. 39).</t>
+    </r>
+  </si>
+  <si>
+    <t>photo Don Stadtner, Ancient Pagan. — RTI.</t>
+  </si>
+  <si>
+    <r>
+      <t>in situ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Petaw Monastery</t>
+    </r>
+  </si>
+  <si>
+    <t>Ni Tut 2013-4.</t>
+  </si>
+  <si>
+    <t>Kunzeik, on east bank of Sittaung river, Shwegyin township</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Myint Aung 1978. — Sein Maung Oo 1981; </t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri (Corps)"/>
       </rPr>
-      <t>San Win 1998, 20</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00-1, 2003.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>—Tun Aung Chain 2003: 1-4, Appendix. — MHRJ 11, pp. 133ff.</t>
-    </r>
-  </si>
-  <si>
-    <t>San Win 2000-1 is an English version of 1998. The complete reading furnished in the Document section of MHRJ 11, pp. 133ff., was probably done by Than Tun, Nyein Maung and San Win to whom the reading in Appendix to Tun Aung Chain's article in the same issue is ascribed.</t>
-  </si>
-  <si>
-    <t>Le May 1956 fig. 2 mis-cited as 3 by Luce PPPB I, 150.</t>
-  </si>
-  <si>
-    <t>Guy 2014: 91 (cat. 40).</t>
-  </si>
-  <si>
-    <t>National Museum, Nay Pyi Taw, 1/3/1994</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Sein Win 1997; photo Don Stadtner, Ancient Pagan. — Naing Zaw 2011: 546-7 — </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Guy 2014: 90-1 (cat. 39).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Myint Aung 1970: 61. — Aung Thaw 1972: 14. — </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Corps)"/>
-      </rPr>
-      <t>Naing Zaw 2011: 495.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> — Skilling 2015: 66.</t>
-    </r>
-  </si>
-  <si>
-    <t>photo Thein Lwin received from Bob</t>
-  </si>
-  <si>
-    <t>Perhaps this is the second silver bowl (besides PYU38) referred to by Sein Maung Oo 1989.</t>
-  </si>
-  <si>
-    <t>photo Bob Hudson</t>
-  </si>
-  <si>
-    <t>Naing Zaw 2011: 614.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Blagden 1913-14 (B). — ASI 1911-12, pl. LXVIII (3). — IB IV, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CCCLIV (b). — PPPB II, pl. 5 (ef), 6 (d).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>ASI 1911-12, 147. — ASB 1912, 7, 11</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. — Blagden 1913-14 (B). — PR, 47 (B), 50. — PPPB I, 48, 57 n. 13, 126-7. — Shafer 1943: 339. — Guy 2014: 76-7 (cat. 24).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Comprises two texts of which only the first has been read (Blagden's B1); the second is almost entirely illegible on available rubbings. For text B1, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Corps)"/>
-      </rPr>
-      <t>IB IV, p. 39, assigns the absolute date 80 BE, but the interpretation as a date in that era is uncertain (see Frasch 20??).</t>
-    </r>
-  </si>
-  <si>
-    <t>unknown site at Pagan</t>
-  </si>
-  <si>
-    <t>"B.G."</t>
-  </si>
-  <si>
-    <t>&lt;°ūvasri&gt;?</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">De Beylié 1907a: 83 (n. 1). </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">— </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Corps)"/>
-      </rPr>
-      <t>ASB 1907, 10; 1910, 21;  1916, 18 (with n. ‡), 20, 55; 1917, 24-5; 1922, 17.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> — Blagden 1913-14: 127 (6). — Chen Yi-Sein 1960. — PPPB I, 67, 76 n. 38-39.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">ASI 1929-30,  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">pl. XLI (b). — </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Corps)"/>
-      </rPr>
-      <t xml:space="preserve"> Le May 1956, fig. 2. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>— PPP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>B II, pl. 53a.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> — RTI.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ASI 1929-30: 154-5. — Le May 1956: 47. — Aung Thaw 1972: 12. — PPPB I, 53, 58 n. 43, 149-50.</t>
-    </r>
+      <t>1989: 138. —</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Naing Zaw 2011: 87.</t>
+    </r>
+  </si>
+  <si>
+    <t>numbering of vol., page, plate, etc. follows the distinction between roman/arabic in the source in question</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3199,13 +3252,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <strike/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -3255,13 +3301,6 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri (Corps)"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -3588,7 +3627,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3670,7 +3709,6 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3693,9 +3731,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3753,11 +3788,8 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3765,7 +3797,13 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4320,8 +4358,8 @@
   </sheetPr>
   <dimension ref="A1:K127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="F119" sqref="F119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4331,14 +4369,14 @@
     <col min="4" max="4" width="12.5" style="5" customWidth="1"/>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.83203125" style="38" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.83203125" style="37" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="29.1640625" customWidth="1"/>
     <col min="11" max="11" width="22.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="4"/>
@@ -4346,10 +4384,10 @@
       <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B2" s="66" t="s">
-        <v>352</v>
-      </c>
-      <c r="C2" s="66"/>
+      <c r="B2" s="65" t="s">
+        <v>340</v>
+      </c>
+      <c r="C2" s="65"/>
       <c r="D2" s="4"/>
       <c r="E2" s="3" t="s">
         <v>1</v>
@@ -4359,34 +4397,34 @@
       <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="69" t="s">
+      <c r="C3" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="69" t="s">
-        <v>110</v>
-      </c>
-      <c r="E3" s="71" t="s">
-        <v>89</v>
-      </c>
-      <c r="F3" s="72" t="s">
+      <c r="D3" s="68" t="s">
+        <v>105</v>
+      </c>
+      <c r="E3" s="70" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="67" t="s">
+      <c r="G3" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="67" t="s">
+      <c r="H3" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="67" t="s">
-        <v>88</v>
-      </c>
-      <c r="J3" s="67" t="s">
+      <c r="I3" s="66" t="s">
+        <v>84</v>
+      </c>
+      <c r="J3" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="67" t="s">
+      <c r="K3" s="66" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4394,50 +4432,50 @@
       <c r="A4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="68"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="67"/>
     </row>
     <row r="5" spans="1:11" ht="60" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <v>1</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="C5" s="11">
         <v>2</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>466</v>
+        <v>450</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>464</v>
+        <v>448</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>476</v>
+        <v>458</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>465</v>
+        <v>449</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="90" x14ac:dyDescent="0.2">
@@ -4445,32 +4483,32 @@
         <v>2</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="H6" s="10"/>
       <c r="I6" s="19" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
       <c r="J6" s="19" t="s">
-        <v>457</v>
+        <v>441</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>459</v>
+        <v>443</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="75" x14ac:dyDescent="0.2">
@@ -4478,34 +4516,34 @@
         <v>3</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C7" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="H7" s="10" t="s">
         <v>6</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>477</v>
+        <v>459</v>
       </c>
       <c r="J7" s="19" t="s">
-        <v>478</v>
+        <v>460</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>479</v>
+        <v>461</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="285" x14ac:dyDescent="0.2">
@@ -4513,34 +4551,34 @@
         <v>4</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C8" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="H8" s="10" t="s">
         <v>7</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>447</v>
+        <v>432</v>
       </c>
       <c r="J8" s="19" t="s">
-        <v>481</v>
+        <v>463</v>
       </c>
       <c r="K8" s="23" t="s">
-        <v>483</v>
+        <v>465</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="150" x14ac:dyDescent="0.2">
@@ -4548,34 +4586,34 @@
         <v>5</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C9" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="H9" s="10" t="s">
         <v>8</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="J9" s="19" t="s">
-        <v>482</v>
+        <v>464</v>
       </c>
       <c r="K9" s="23" t="s">
-        <v>480</v>
+        <v>462</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="165" x14ac:dyDescent="0.2">
@@ -4583,34 +4621,34 @@
         <v>6</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C10" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="H10" s="10" t="s">
         <v>9</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>497</v>
+        <v>478</v>
       </c>
       <c r="J10" s="19" t="s">
-        <v>498</v>
-      </c>
-      <c r="K10" s="64" t="s">
-        <v>499</v>
+        <v>479</v>
+      </c>
+      <c r="K10" s="61" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="90" x14ac:dyDescent="0.2">
@@ -4618,34 +4656,34 @@
         <v>7</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="F11" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="46" t="s">
-        <v>227</v>
+      <c r="G11" s="44" t="s">
+        <v>220</v>
       </c>
       <c r="H11" s="10" t="s">
         <v>0</v>
       </c>
       <c r="I11" s="23" t="s">
-        <v>461</v>
+        <v>445</v>
       </c>
       <c r="J11" s="23" t="s">
-        <v>440</v>
-      </c>
-      <c r="K11" s="65" t="s">
-        <v>463</v>
+        <v>426</v>
+      </c>
+      <c r="K11" s="62" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="75" x14ac:dyDescent="0.2">
@@ -4653,34 +4691,34 @@
         <v>8</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="G12" s="46" t="s">
+        <v>231</v>
+      </c>
+      <c r="G12" s="44" t="s">
         <v>20</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="I12" s="23" t="s">
-        <v>462</v>
+        <v>446</v>
       </c>
       <c r="J12" s="23" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="45" x14ac:dyDescent="0.2">
@@ -4688,27 +4726,27 @@
         <v>9</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
       <c r="E13" s="19" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="32" t="s">
-        <v>138</v>
+      <c r="G13" s="31" t="s">
+        <v>133</v>
       </c>
       <c r="H13" s="10" t="s">
         <v>21</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="K13" s="10"/>
     </row>
@@ -4717,31 +4755,31 @@
         <v>10</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F14" s="27" t="s">
         <v>5</v>
       </c>
       <c r="G14" s="27" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="H14" s="26" t="s">
         <v>21</v>
       </c>
       <c r="I14" s="23" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="K14" s="10"/>
     </row>
@@ -4750,34 +4788,34 @@
         <v>11</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="46" t="s">
-        <v>228</v>
+      <c r="G15" s="44" t="s">
+        <v>221</v>
       </c>
       <c r="H15" s="10" t="s">
         <v>2</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>503</v>
+        <v>484</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>484</v>
+        <v>466</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="60" x14ac:dyDescent="0.2">
@@ -4785,123 +4823,123 @@
         <v>12</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>27</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H16" s="10"/>
       <c r="I16" s="23" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="45" x14ac:dyDescent="0.2">
-      <c r="A17" s="44">
+      <c r="A17" s="42">
         <v>13</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C17" s="28" t="s">
         <v>27</v>
       </c>
       <c r="D17" s="30"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="46" t="s">
+      <c r="E17" s="45"/>
+      <c r="F17" s="44" t="s">
         <v>3</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="H17" s="62" t="s">
-        <v>414</v>
-      </c>
-      <c r="I17" s="46" t="s">
-        <v>410</v>
+        <v>203</v>
+      </c>
+      <c r="H17" s="60" t="s">
+        <v>401</v>
+      </c>
+      <c r="I17" s="44" t="s">
+        <v>397</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>411</v>
-      </c>
-      <c r="K17" s="46"/>
+        <v>398</v>
+      </c>
+      <c r="K17" s="44"/>
     </row>
     <row r="18" spans="1:11" ht="285" x14ac:dyDescent="0.2">
-      <c r="A18" s="44">
+      <c r="A18" s="42">
         <v>14</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C18" s="28" t="s">
         <v>19</v>
       </c>
       <c r="D18" s="30"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="46" t="s">
-        <v>402</v>
+      <c r="E18" s="45"/>
+      <c r="F18" s="44" t="s">
+        <v>389</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="H18" s="45" t="s">
-        <v>407</v>
-      </c>
-      <c r="I18" s="46" t="s">
-        <v>427</v>
+        <v>203</v>
+      </c>
+      <c r="H18" s="43" t="s">
+        <v>394</v>
+      </c>
+      <c r="I18" s="44" t="s">
+        <v>414</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>412</v>
-      </c>
-      <c r="K18" s="46" t="s">
-        <v>428</v>
+        <v>399</v>
+      </c>
+      <c r="K18" s="44" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="45" x14ac:dyDescent="0.2">
-      <c r="A19" s="44">
+      <c r="A19" s="42">
         <v>15</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C19" s="30" t="s">
         <v>27</v>
       </c>
       <c r="D19" s="30"/>
-      <c r="E19" s="47" t="s">
-        <v>53</v>
+      <c r="E19" s="45" t="s">
+        <v>49</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46" t="s">
-        <v>403</v>
+        <v>203</v>
+      </c>
+      <c r="H19" s="44"/>
+      <c r="I19" s="44" t="s">
+        <v>390</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>436</v>
-      </c>
-      <c r="K19" s="45" t="s">
-        <v>413</v>
+        <v>422</v>
+      </c>
+      <c r="K19" s="43" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="75" x14ac:dyDescent="0.2">
@@ -4909,32 +4947,32 @@
         <v>16</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="G20" s="24" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="H20" s="13"/>
       <c r="I20" s="19" t="s">
-        <v>451</v>
+        <v>435</v>
       </c>
       <c r="J20" s="13" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="K20" s="13" t="s">
-        <v>458</v>
+        <v>442</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="45" x14ac:dyDescent="0.2">
@@ -4942,32 +4980,32 @@
         <v>17</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C21" s="20">
         <v>8</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="G21" s="24" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="H21" s="13"/>
       <c r="I21" s="13" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="J21" s="19" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="K21" s="13" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="22" customFormat="1" ht="60" x14ac:dyDescent="0.2">
@@ -4975,30 +5013,30 @@
         <v>18</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="H22" s="13"/>
       <c r="I22" s="23" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J22" s="19"/>
       <c r="K22" s="13" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="30" x14ac:dyDescent="0.2">
@@ -5006,30 +5044,30 @@
         <v>19</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="C23" s="20">
         <v>3</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F23" s="19" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G23" s="24" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="13" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J23" s="22"/>
       <c r="K23" s="19" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:11" s="22" customFormat="1" ht="165" x14ac:dyDescent="0.2">
@@ -5037,32 +5075,32 @@
         <v>20</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C24" s="20">
         <v>5</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F24" s="19" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="H24" s="13"/>
       <c r="I24" s="13" t="s">
-        <v>485</v>
+        <v>467</v>
       </c>
       <c r="J24" s="13" t="s">
-        <v>486</v>
+        <v>468</v>
       </c>
       <c r="K24" s="13" t="s">
-        <v>487</v>
+        <v>469</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
@@ -5070,30 +5108,30 @@
         <v>21</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F25" s="19" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G25" s="24" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="H25" s="19"/>
-      <c r="I25" s="51" t="s">
-        <v>92</v>
+      <c r="I25" s="49" t="s">
+        <v>88</v>
       </c>
       <c r="J25" s="22"/>
       <c r="K25" s="19" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:11" s="6" customFormat="1" ht="90" x14ac:dyDescent="0.2">
@@ -5101,32 +5139,32 @@
         <v>22</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C26" s="20" t="s">
         <v>25</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F26" s="19" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G26" s="24" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="H26" s="13"/>
       <c r="I26" s="13" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
       <c r="J26" s="13" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="K26" s="10" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="105" x14ac:dyDescent="0.2">
@@ -5134,30 +5172,30 @@
         <v>23</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="D27" s="20"/>
       <c r="E27" s="19" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F27" s="19" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="G27" s="19" t="s">
         <v>22</v>
       </c>
       <c r="H27" s="13"/>
       <c r="I27" s="19" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="J27" s="19" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="K27" s="13" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="75" x14ac:dyDescent="0.2">
@@ -5165,93 +5203,93 @@
         <v>24</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C28" s="14" t="s">
         <v>27</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F28" s="19" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="H28" s="13"/>
       <c r="I28" s="19" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="J28" s="19" t="s">
-        <v>450</v>
+        <v>489</v>
       </c>
       <c r="K28" s="13"/>
     </row>
-    <row r="29" spans="1:11" ht="75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" ht="90" x14ac:dyDescent="0.2">
       <c r="A29" s="21">
         <v>25</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="C29" s="20" t="s">
         <v>26</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E29" s="19" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F29" s="19" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G29" s="24" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="H29" s="13"/>
       <c r="I29" s="13" t="s">
-        <v>449</v>
-      </c>
-      <c r="J29" s="19" t="s">
-        <v>468</v>
+        <v>434</v>
+      </c>
+      <c r="J29" s="10" t="s">
+        <v>497</v>
       </c>
       <c r="K29" s="19" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" s="49" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="A30" s="44">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" s="47" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A30" s="42">
         <v>26</v>
       </c>
       <c r="B30" s="12" t="s">
         <v>31</v>
       </c>
       <c r="C30" s="28" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D30" s="28" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="H30" s="12"/>
       <c r="I30" s="12" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="J30" s="12" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="K30" s="18"/>
     </row>
@@ -5260,29 +5298,29 @@
         <v>27</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C31" s="20" t="s">
         <v>26</v>
       </c>
       <c r="D31" s="20" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E31" s="19" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="H31" s="13"/>
       <c r="I31" s="13" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="J31" s="19" t="s">
-        <v>429</v>
+        <v>416</v>
       </c>
       <c r="K31" s="13"/>
     </row>
@@ -5291,30 +5329,30 @@
         <v>28</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C32" s="28" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D32" s="28" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="E32" s="19" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F32" s="24" t="s">
-        <v>431</v>
+        <v>499</v>
       </c>
       <c r="G32" s="24" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="H32" s="13"/>
       <c r="I32" s="19"/>
       <c r="J32" s="19" t="s">
-        <v>430</v>
-      </c>
-      <c r="K32" s="13" t="s">
-        <v>469</v>
+        <v>417</v>
+      </c>
+      <c r="K32" s="10" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="30" x14ac:dyDescent="0.2">
@@ -5322,26 +5360,26 @@
         <v>29</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C33" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E33" s="19" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
       <c r="G33" s="12" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="H33" s="13"/>
       <c r="I33" s="25" t="s">
-        <v>452</v>
+        <v>436</v>
       </c>
       <c r="J33" s="24"/>
       <c r="K33" s="13"/>
@@ -5351,30 +5389,30 @@
         <v>30</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="C34" s="20" t="s">
         <v>27</v>
       </c>
       <c r="D34" s="20" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E34" s="19" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F34" s="25" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="G34" s="24" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="H34" s="24"/>
       <c r="I34" s="13" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J34" s="13"/>
       <c r="K34" s="24" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="30" x14ac:dyDescent="0.2">
@@ -5382,26 +5420,26 @@
         <v>31</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="C35" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D35" s="20" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E35" s="19" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G35" s="24" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="H35" s="13"/>
       <c r="I35" s="13" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J35" s="13"/>
       <c r="K35" s="13"/>
@@ -5411,32 +5449,32 @@
         <v>32</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D36" s="20" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E36" s="19" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="H36" s="13"/>
       <c r="I36" s="13" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J36" s="12" t="s">
-        <v>470</v>
+        <v>452</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>426</v>
+        <v>413</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="30" x14ac:dyDescent="0.2">
@@ -5444,61 +5482,61 @@
         <v>33</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C37" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D37" s="28" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="E37" s="19"/>
       <c r="F37" s="12" t="s">
         <v>24</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="H37" s="13"/>
       <c r="I37" s="19" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="J37" s="13" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="K37" s="13"/>
     </row>
     <row r="38" spans="1:11" ht="45" x14ac:dyDescent="0.2">
-      <c r="A38" s="44">
+      <c r="A38" s="42">
         <v>34</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="C38" s="28" t="s">
         <v>19</v>
       </c>
       <c r="D38" s="28" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="H38" s="12"/>
       <c r="I38" s="12" t="s">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="J38" s="12" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="K38" s="12" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="45" x14ac:dyDescent="0.2">
@@ -5506,65 +5544,65 @@
         <v>35</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D39" s="20" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E39" s="19" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F39" s="19" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="H39" s="13"/>
       <c r="I39" s="13" t="s">
-        <v>504</v>
+        <v>485</v>
       </c>
       <c r="J39" s="10" t="s">
-        <v>505</v>
+        <v>486</v>
       </c>
       <c r="K39" s="10" t="s">
-        <v>488</v>
+        <v>470</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="60" x14ac:dyDescent="0.2">
-      <c r="A40" s="44">
+      <c r="A40" s="42">
         <v>36</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="C40" s="28" t="s">
         <v>28</v>
       </c>
       <c r="D40" s="28" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="E40" s="18" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="H40" s="18"/>
       <c r="I40" s="18" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J40" s="12" t="s">
-        <v>489</v>
+        <v>471</v>
       </c>
       <c r="K40" s="12" t="s">
-        <v>381</v>
+        <v>501</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="90" x14ac:dyDescent="0.2">
@@ -5572,62 +5610,62 @@
         <v>37</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="C41" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D41" s="48" t="s">
-        <v>330</v>
+      <c r="D41" s="46" t="s">
+        <v>319</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="G41" s="12" t="s">
-        <v>490</v>
+        <v>472</v>
       </c>
       <c r="H41" s="13"/>
       <c r="I41" s="13" t="s">
-        <v>92</v>
+        <v>503</v>
       </c>
       <c r="J41" s="13" t="s">
-        <v>491</v>
+        <v>502</v>
       </c>
       <c r="K41" s="19" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" s="22" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A42" s="21">
         <v>38</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C42" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D42" s="20" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="E42" s="19" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F42" s="19" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="G42" s="19" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="H42" s="13"/>
       <c r="I42" s="13" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="J42" s="19" t="s">
-        <v>203</v>
+        <v>507</v>
       </c>
       <c r="K42" s="13"/>
     </row>
@@ -5636,30 +5674,32 @@
         <v>39</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="F43" s="13" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G43" s="29" t="s">
-        <v>147</v>
+        <v>504</v>
       </c>
       <c r="H43" s="13"/>
       <c r="I43" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="J43" s="13"/>
+        <v>88</v>
+      </c>
+      <c r="J43" s="13" t="s">
+        <v>505</v>
+      </c>
       <c r="K43" s="13" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="75" x14ac:dyDescent="0.2">
@@ -5667,32 +5707,32 @@
         <v>40</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D44" s="20" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="E44" s="19" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>293</v>
+        <v>506</v>
       </c>
       <c r="G44" s="12" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="H44" s="13"/>
       <c r="I44" s="19" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="J44" s="13" t="s">
-        <v>475</v>
+        <v>457</v>
       </c>
       <c r="K44" s="19" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="30" x14ac:dyDescent="0.2">
@@ -5700,29 +5740,29 @@
         <v>41</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E45" s="19" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F45" s="23" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G45" s="19" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="H45" s="13"/>
       <c r="I45" s="13" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="J45" s="13" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="K45" s="13"/>
     </row>
@@ -5731,29 +5771,29 @@
         <v>42</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D46" s="20" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E46" s="19" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F46" s="19" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="G46" s="12" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="H46" s="13"/>
       <c r="I46" s="13" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="J46" s="13" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="K46" s="13"/>
     </row>
@@ -5762,25 +5802,25 @@
         <v>43</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="C47" s="14"/>
       <c r="D47" s="14"/>
       <c r="E47" s="13" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F47" s="19" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="G47" s="12" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="H47" s="13"/>
       <c r="I47" s="19" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="J47" s="19" t="s">
-        <v>471</v>
+        <v>453</v>
       </c>
       <c r="K47" s="13"/>
     </row>
@@ -5789,32 +5829,32 @@
         <v>44</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="C48" s="20" t="s">
         <v>27</v>
       </c>
       <c r="D48" s="20" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="E48" s="19" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F48" s="19" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="G48" s="12" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="H48" s="13"/>
       <c r="I48" s="19" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="J48" s="10" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="K48" s="13" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="45" x14ac:dyDescent="0.2">
@@ -5822,111 +5862,113 @@
         <v>45</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="C49" s="28" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="D49" s="28" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F49" s="19" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="G49" s="12" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="H49" s="13"/>
       <c r="I49" s="13" t="s">
-        <v>259</v>
+        <v>494</v>
       </c>
       <c r="J49" s="13" t="s">
-        <v>347</v>
-      </c>
-      <c r="K49" s="13"/>
+        <v>493</v>
+      </c>
+      <c r="K49" s="13" t="s">
+        <v>495</v>
+      </c>
     </row>
     <row r="50" spans="1:11" ht="60" x14ac:dyDescent="0.2">
       <c r="A50" s="9">
         <v>46</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="C50" s="28" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="D50" s="28"/>
       <c r="E50" s="10" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F50" s="19" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="G50" s="12" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="H50" s="13"/>
       <c r="I50" s="19" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="J50" s="19" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="K50" s="13"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A51" s="56">
+      <c r="A51" s="54">
         <v>47</v>
       </c>
-      <c r="B51" s="46" t="s">
-        <v>50</v>
+      <c r="B51" s="44" t="s">
+        <v>46</v>
       </c>
       <c r="C51" s="28" t="s">
         <v>19</v>
       </c>
       <c r="D51" s="28"/>
-      <c r="E51" s="46" t="s">
-        <v>53</v>
+      <c r="E51" s="44" t="s">
+        <v>49</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G51" s="12" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="H51" s="18"/>
       <c r="I51" s="12" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="J51" s="12"/>
       <c r="K51" s="18"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A52" s="56">
+      <c r="A52" s="54">
         <v>48</v>
       </c>
-      <c r="B52" s="46" t="s">
-        <v>50</v>
+      <c r="B52" s="44" t="s">
+        <v>46</v>
       </c>
       <c r="C52" s="28" t="s">
         <v>19</v>
       </c>
       <c r="D52" s="28"/>
-      <c r="E52" s="46" t="s">
-        <v>53</v>
+      <c r="E52" s="44" t="s">
+        <v>49</v>
       </c>
       <c r="F52" s="12" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G52" s="12" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="H52" s="18"/>
       <c r="I52" s="12" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="J52" s="12"/>
       <c r="K52" s="18"/>
@@ -5936,56 +5978,56 @@
         <v>49</v>
       </c>
       <c r="B53" s="19" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C53" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D53" s="20"/>
       <c r="E53" s="19" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F53" s="19" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G53" s="19"/>
       <c r="H53" s="19" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="I53" s="19" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="J53" s="19" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="K53" s="19"/>
     </row>
     <row r="54" spans="1:11" ht="30" x14ac:dyDescent="0.2">
-      <c r="A54" s="44">
+      <c r="A54" s="42">
         <v>50</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C54" s="28" t="s">
         <v>19</v>
       </c>
       <c r="D54" s="28"/>
       <c r="E54" s="12" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F54" s="12" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="G54" s="12"/>
       <c r="H54" s="12" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="I54" s="12" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="J54" s="12" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="K54" s="12"/>
     </row>
@@ -5994,26 +6036,26 @@
         <v>51</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D55" s="20" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E55" s="19" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F55" s="19" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G55" s="19" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="23" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J55" s="19"/>
       <c r="K55" s="19"/>
@@ -6023,29 +6065,29 @@
         <v>52</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C56" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D56" s="20" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E56" s="19" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F56" s="19" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G56" s="19" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="23" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="J56" s="19" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="K56" s="19"/>
     </row>
@@ -6054,29 +6096,29 @@
         <v>53</v>
       </c>
       <c r="B57" s="19" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C57" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D57" s="20" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E57" s="19" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F57" s="19" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G57" s="19" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="23" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="J57" s="19" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="K57" s="19"/>
     </row>
@@ -6085,29 +6127,29 @@
         <v>54</v>
       </c>
       <c r="B58" s="19" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C58" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D58" s="20" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E58" s="19" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F58" s="19" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G58" s="19" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="23" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="J58" s="19" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="K58" s="19"/>
     </row>
@@ -6116,23 +6158,23 @@
         <v>55</v>
       </c>
       <c r="B59" s="19" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C59" s="20"/>
       <c r="D59" s="20" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E59" s="23"/>
       <c r="F59" s="19"/>
       <c r="G59" s="19" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="23" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J59" s="23" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="K59" s="19"/>
     </row>
@@ -6141,20 +6183,20 @@
         <v>56</v>
       </c>
       <c r="B60" s="19" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C60" s="20"/>
       <c r="D60" s="20" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E60" s="23"/>
       <c r="F60" s="19"/>
       <c r="G60" s="19" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="23" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J60" s="19"/>
       <c r="K60" s="19"/>
@@ -6164,52 +6206,52 @@
         <v>57</v>
       </c>
       <c r="B61" s="19" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C61" s="20"/>
       <c r="D61" s="20" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E61" s="23"/>
       <c r="F61" s="19"/>
       <c r="G61" s="19" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="23" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J61" s="19"/>
       <c r="K61" s="19"/>
     </row>
     <row r="62" spans="1:11" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A62" s="44">
+      <c r="A62" s="42">
         <v>58</v>
       </c>
       <c r="B62" s="19" t="s">
-        <v>248</v>
+        <v>487</v>
       </c>
       <c r="C62" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D62" s="20" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="E62" s="19" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F62" s="19" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="G62" s="19" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="J62" s="19" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="K62" s="23"/>
     </row>
@@ -6218,27 +6260,27 @@
         <v>59</v>
       </c>
       <c r="B63" s="19" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="C63" s="20" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="D63" s="20"/>
       <c r="E63" s="19" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F63" s="19" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="G63" s="23" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="H63" s="23"/>
       <c r="I63" s="23" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="J63" s="19" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="K63" s="19"/>
     </row>
@@ -6247,24 +6289,24 @@
         <v>60</v>
       </c>
       <c r="B64" s="19" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="C64" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D64" s="20" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="E64" s="19" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F64" s="23"/>
       <c r="G64" s="19" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="H64" s="23"/>
       <c r="I64" s="23" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J64" s="19"/>
       <c r="K64" s="19"/>
@@ -6280,1059 +6322,1077 @@
         <v>19</v>
       </c>
       <c r="D65" s="20" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="E65" s="19" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F65" s="23" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="G65" s="23" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="H65" s="23"/>
       <c r="I65" s="23" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J65" s="19"/>
       <c r="K65" s="19" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="66" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="44">
+      <c r="A66" s="42">
         <v>62</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C66" s="28"/>
       <c r="D66" s="28"/>
       <c r="E66" s="12" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F66" s="12" t="s">
         <v>24</v>
       </c>
       <c r="G66" s="12" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="H66" s="12"/>
       <c r="I66" s="12" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="J66" s="12"/>
       <c r="K66" s="12"/>
     </row>
-    <row r="67" spans="1:11" s="50" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="A67" s="44">
+    <row r="67" spans="1:11" s="48" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A67" s="42">
         <v>63</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C67" s="28" t="s">
         <v>19</v>
       </c>
       <c r="D67" s="28" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="E67" s="12" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="F67" s="12" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="G67" s="12" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="H67" s="12" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="I67" s="12" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="J67" s="12" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="K67" s="12"/>
     </row>
     <row r="68" spans="1:11" s="22" customFormat="1" ht="75" x14ac:dyDescent="0.2">
-      <c r="A68" s="44">
+      <c r="A68" s="42">
         <v>64</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C68" s="28" t="s">
         <v>25</v>
       </c>
       <c r="D68" s="28"/>
       <c r="E68" s="12" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F68" s="12" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="G68" s="12"/>
       <c r="H68" s="12"/>
       <c r="I68" s="12"/>
       <c r="J68" s="12"/>
       <c r="K68" s="12" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
     </row>
     <row r="69" spans="1:11" s="22" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="A69" s="44">
+      <c r="A69" s="42">
         <v>65</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C69" s="28" t="s">
         <v>19</v>
       </c>
       <c r="D69" s="28"/>
       <c r="E69" s="12" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F69" s="12" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="G69" s="12" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="H69" s="12" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="I69" s="12" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="J69" s="12" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="K69" s="12"/>
     </row>
-    <row r="70" spans="1:11" s="60" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="A70" s="57">
+    <row r="70" spans="1:11" s="58" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A70" s="55">
         <v>66</v>
       </c>
       <c r="B70" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="C70" s="58" t="s">
-        <v>241</v>
-      </c>
-      <c r="D70" s="58"/>
+        <v>98</v>
+      </c>
+      <c r="C70" s="56" t="s">
+        <v>234</v>
+      </c>
+      <c r="D70" s="56"/>
       <c r="E70" s="24" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F70" s="24" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="G70" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="H70" s="59" t="s">
-        <v>370</v>
+        <v>100</v>
+      </c>
+      <c r="H70" s="57" t="s">
+        <v>358</v>
       </c>
       <c r="I70" s="24" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="J70" s="24" t="s">
-        <v>372</v>
-      </c>
-      <c r="K70" s="59"/>
-    </row>
-    <row r="71" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="44">
+        <v>360</v>
+      </c>
+      <c r="K70" s="57"/>
+    </row>
+    <row r="71" spans="1:11" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="54">
         <v>67</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="C71" s="28"/>
       <c r="D71" s="28"/>
       <c r="E71" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F71" s="12" t="s">
+        <v>481</v>
+      </c>
+      <c r="G71" s="43" t="s">
+        <v>482</v>
+      </c>
+      <c r="H71" s="43" t="s">
+        <v>483</v>
+      </c>
+      <c r="I71" s="12" t="s">
+        <v>476</v>
+      </c>
+      <c r="J71" s="43" t="s">
+        <v>477</v>
+      </c>
+      <c r="K71" s="18"/>
+    </row>
+    <row r="72" spans="1:11" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="54">
+        <v>68</v>
+      </c>
+      <c r="B72" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C72" s="63"/>
+      <c r="D72" s="63"/>
+      <c r="E72" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F72" s="18"/>
+      <c r="G72" s="18"/>
+      <c r="H72" s="18"/>
+      <c r="I72" s="18"/>
+      <c r="J72" s="18" t="s">
+        <v>428</v>
+      </c>
+      <c r="K72" s="18"/>
+    </row>
+    <row r="73" spans="1:11" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="54">
+        <v>69</v>
+      </c>
+      <c r="B73" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C73" s="63"/>
+      <c r="D73" s="63"/>
+      <c r="E73" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F73" s="18"/>
+      <c r="G73" s="18"/>
+      <c r="H73" s="18"/>
+      <c r="I73" s="18"/>
+      <c r="J73" s="18" t="s">
+        <v>429</v>
+      </c>
+      <c r="K73" s="18"/>
+    </row>
+    <row r="74" spans="1:11" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A74" s="54">
+        <v>70</v>
+      </c>
+      <c r="B74" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="C74" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="D74" s="28"/>
+      <c r="E74" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F74" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="G74" s="43"/>
+      <c r="H74" s="12"/>
+      <c r="I74" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="J74" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="K74" s="12"/>
+    </row>
+    <row r="75" spans="1:11" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A75" s="54">
+        <v>71</v>
+      </c>
+      <c r="B75" s="12" t="s">
+        <v>488</v>
+      </c>
+      <c r="C75" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="D75" s="28"/>
+      <c r="E75" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F75" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="G75" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="H75" s="12"/>
+      <c r="I75" s="43" t="s">
+        <v>491</v>
+      </c>
+      <c r="J75" s="64" t="s">
+        <v>490</v>
+      </c>
+      <c r="K75" s="12"/>
+    </row>
+    <row r="76" spans="1:11" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A76" s="39"/>
+      <c r="B76" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="C76" s="41"/>
+      <c r="D76" s="41"/>
+      <c r="E76" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="F76" s="40"/>
+      <c r="G76" s="40" t="s">
+        <v>291</v>
+      </c>
+      <c r="H76" s="40"/>
+      <c r="I76" s="59" t="s">
+        <v>357</v>
+      </c>
+      <c r="J76" s="40" t="s">
+        <v>361</v>
+      </c>
+      <c r="K76" s="40"/>
+    </row>
+    <row r="77" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="39"/>
+      <c r="B77" s="40" t="s">
+        <v>260</v>
+      </c>
+      <c r="C77" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="D77" s="41"/>
+      <c r="E77" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="F71" s="12" t="s">
-        <v>500</v>
-      </c>
-      <c r="G71" s="45" t="s">
-        <v>501</v>
-      </c>
-      <c r="H71" s="45" t="s">
-        <v>502</v>
-      </c>
-      <c r="I71" s="12" t="s">
-        <v>495</v>
-      </c>
-      <c r="J71" s="45" t="s">
+      <c r="F77" s="40"/>
+      <c r="G77" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="H77" s="40"/>
+      <c r="I77" s="40"/>
+      <c r="J77" s="40" t="s">
+        <v>275</v>
+      </c>
+      <c r="K77" s="40" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A78" s="39"/>
+      <c r="B78" s="40" t="s">
+        <v>260</v>
+      </c>
+      <c r="C78" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="D78" s="41"/>
+      <c r="E78" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="F78" s="40" t="s">
+        <v>273</v>
+      </c>
+      <c r="G78" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="H78" s="35"/>
+      <c r="I78" s="40" t="s">
+        <v>272</v>
+      </c>
+      <c r="J78" s="40" t="s">
+        <v>271</v>
+      </c>
+      <c r="K78" s="35"/>
+    </row>
+    <row r="79" spans="1:11" s="22" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+      <c r="A79" s="39"/>
+      <c r="B79" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="C79" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="D79" s="41"/>
+      <c r="E79" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="F79" s="40" t="s">
+        <v>314</v>
+      </c>
+      <c r="G79" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="H79" s="40"/>
+      <c r="I79" s="40" t="s">
+        <v>315</v>
+      </c>
+      <c r="J79" s="40" t="s">
+        <v>317</v>
+      </c>
+      <c r="K79" s="40" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A80" s="39"/>
+      <c r="B80" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="C80" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="D80" s="41"/>
+      <c r="E80" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="F80" s="40"/>
+      <c r="G80" s="33"/>
+      <c r="H80" s="40"/>
+      <c r="I80" s="40" t="s">
+        <v>293</v>
+      </c>
+      <c r="J80" s="40" t="s">
+        <v>292</v>
+      </c>
+      <c r="K80" s="40"/>
+    </row>
+    <row r="81" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="39"/>
+      <c r="B81" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="C81" s="41"/>
+      <c r="D81" s="41"/>
+      <c r="E81" s="33"/>
+      <c r="F81" s="40"/>
+      <c r="G81" s="33"/>
+      <c r="H81" s="40"/>
+      <c r="I81" s="33" t="s">
+        <v>270</v>
+      </c>
+      <c r="J81" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="K81" s="40"/>
+    </row>
+    <row r="82" spans="1:11" s="22" customFormat="1" ht="120" x14ac:dyDescent="0.2">
+      <c r="A82" s="52"/>
+      <c r="B82" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="C82" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="D82" s="53"/>
+      <c r="E82" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="F82" s="40" t="s">
+        <v>253</v>
+      </c>
+      <c r="G82" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="H82" s="35"/>
+      <c r="I82" s="40" t="s">
+        <v>252</v>
+      </c>
+      <c r="J82" s="40" t="s">
+        <v>251</v>
+      </c>
+      <c r="K82" s="35" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A83" s="39"/>
+      <c r="B83" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="C83" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="D83" s="41"/>
+      <c r="E83" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="F83" s="40"/>
+      <c r="G83" s="33"/>
+      <c r="H83" s="40"/>
+      <c r="I83" s="40" t="s">
+        <v>263</v>
+      </c>
+      <c r="J83" s="40" t="s">
+        <v>264</v>
+      </c>
+      <c r="K83" s="40"/>
+    </row>
+    <row r="84" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="39"/>
+      <c r="B84" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="C84" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="D84" s="41"/>
+      <c r="E84" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="F84" s="40"/>
+      <c r="G84" s="33"/>
+      <c r="H84" s="40"/>
+      <c r="I84" s="40" t="s">
         <v>496</v>
       </c>
-      <c r="K71" s="18"/>
-    </row>
-    <row r="72" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="63">
+      <c r="J84" s="40" t="s">
+        <v>264</v>
+      </c>
+      <c r="K84" s="33" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A85" s="39"/>
+      <c r="B85" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="C85" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="D85" s="41"/>
+      <c r="E85" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="F85" s="40" t="s">
+        <v>256</v>
+      </c>
+      <c r="G85" s="33"/>
+      <c r="H85" s="40"/>
+      <c r="I85" s="40" t="s">
+        <v>254</v>
+      </c>
+      <c r="J85" s="40" t="s">
+        <v>255</v>
+      </c>
+      <c r="K85" s="40"/>
+    </row>
+    <row r="86" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="39"/>
+      <c r="B86" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="C86" s="41"/>
+      <c r="D86" s="41"/>
+      <c r="E86" s="33"/>
+      <c r="F86" s="40"/>
+      <c r="G86" s="33"/>
+      <c r="H86" s="40"/>
+      <c r="I86" s="33" t="s">
+        <v>258</v>
+      </c>
+      <c r="J86" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="K86" s="40"/>
+    </row>
+    <row r="87" spans="1:11" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A87" s="39"/>
+      <c r="B87" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="C87" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="D87" s="41"/>
+      <c r="E87" s="33"/>
+      <c r="F87" s="40"/>
+      <c r="G87" s="33"/>
+      <c r="H87" s="40"/>
+      <c r="I87" s="40" t="s">
+        <v>285</v>
+      </c>
+      <c r="J87" s="33" t="s">
+        <v>259</v>
+      </c>
+      <c r="K87" s="40"/>
+    </row>
+    <row r="89" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="39"/>
+      <c r="B89" s="40" t="s">
+        <v>260</v>
+      </c>
+      <c r="C89" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="D89" s="41"/>
+      <c r="E89" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="F89" s="40" t="s">
+        <v>261</v>
+      </c>
+      <c r="G89" s="33"/>
+      <c r="H89" s="40"/>
+      <c r="I89" s="40" t="s">
+        <v>287</v>
+      </c>
+      <c r="J89" s="40" t="s">
+        <v>262</v>
+      </c>
+      <c r="K89" s="33" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A90" s="39"/>
+      <c r="B90" s="40" t="s">
+        <v>260</v>
+      </c>
+      <c r="C90" s="41" t="s">
+        <v>405</v>
+      </c>
+      <c r="D90" s="41"/>
+      <c r="E90" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="F90" s="40" t="s">
+        <v>406</v>
+      </c>
+      <c r="G90" s="33"/>
+      <c r="H90" s="40"/>
+      <c r="I90" s="40"/>
+      <c r="J90" s="40" t="s">
+        <v>423</v>
+      </c>
+      <c r="K90" s="40"/>
+    </row>
+    <row r="91" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="32"/>
+      <c r="B91" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="C91" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="D91" s="34"/>
+      <c r="E91" s="35"/>
+      <c r="F91" s="35"/>
+      <c r="G91" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="H91" s="35"/>
+      <c r="I91" s="35"/>
+      <c r="J91" s="35"/>
+      <c r="K91" s="35"/>
+    </row>
+    <row r="92" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="32"/>
+      <c r="B92" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="C92" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="D92" s="34"/>
+      <c r="E92" s="35"/>
+      <c r="F92" s="35"/>
+      <c r="G92" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="H92" s="35"/>
+      <c r="I92" s="35"/>
+      <c r="J92" s="35"/>
+      <c r="K92" s="35"/>
+    </row>
+    <row r="93" spans="1:11" ht="45" x14ac:dyDescent="0.2">
+      <c r="A93" s="32"/>
+      <c r="B93" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C93" s="34"/>
+      <c r="D93" s="34"/>
+      <c r="E93" s="35"/>
+      <c r="F93" s="35"/>
+      <c r="G93" s="35"/>
+      <c r="H93" s="35"/>
+      <c r="I93" s="35" t="s">
+        <v>242</v>
+      </c>
+      <c r="J93" s="35" t="s">
+        <v>241</v>
+      </c>
+      <c r="K93" s="35"/>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A94" s="32"/>
+      <c r="B94" s="33"/>
+      <c r="C94" s="34"/>
+      <c r="D94" s="34"/>
+      <c r="E94" s="35"/>
+      <c r="F94" s="35" t="s">
+        <v>374</v>
+      </c>
+      <c r="G94" s="35"/>
+      <c r="H94" s="35"/>
+      <c r="I94" s="35"/>
+      <c r="J94" s="35" t="s">
+        <v>375</v>
+      </c>
+      <c r="K94" s="35"/>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A95" s="39"/>
+      <c r="B95" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="C95" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="D95" s="41"/>
+      <c r="E95" s="33"/>
+      <c r="F95" s="40"/>
+      <c r="G95" s="40"/>
+      <c r="H95" s="40"/>
+      <c r="I95" s="33" t="s">
+        <v>474</v>
+      </c>
+      <c r="J95" s="40"/>
+      <c r="K95" s="40" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" s="48" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+      <c r="A96" s="39"/>
+      <c r="B96" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="C96" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="D96" s="41"/>
+      <c r="E96" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="F96" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="G96" s="40" t="s">
+        <v>202</v>
+      </c>
+      <c r="H96" s="40"/>
+      <c r="I96" s="33" t="s">
+        <v>200</v>
+      </c>
+      <c r="J96" s="40"/>
+      <c r="K96" s="40" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="39"/>
+      <c r="B97" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="C97" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="D97" s="41"/>
+      <c r="E97" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="F97" s="40"/>
+      <c r="G97" s="40" t="s">
+        <v>202</v>
+      </c>
+      <c r="H97" s="40"/>
+      <c r="I97" s="40"/>
+      <c r="J97" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="K97" s="40"/>
+    </row>
+    <row r="98" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="39"/>
+      <c r="B98" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="C98" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="D98" s="41"/>
+      <c r="E98" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="F98" s="40"/>
+      <c r="G98" s="40" t="s">
+        <v>202</v>
+      </c>
+      <c r="H98" s="40"/>
+      <c r="I98" s="40"/>
+      <c r="J98" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="K98" s="40"/>
+    </row>
+    <row r="99" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="39"/>
+      <c r="B99" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="C99" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="D99" s="41"/>
+      <c r="E99" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="F99" s="40"/>
+      <c r="G99" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="H99" s="40"/>
+      <c r="I99" s="40"/>
+      <c r="J99" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="K99" s="40"/>
+    </row>
+    <row r="100" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="39"/>
+      <c r="B100" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="C100" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="D100" s="41"/>
+      <c r="E100" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="F100" s="40"/>
+      <c r="G100" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="H100" s="40"/>
+      <c r="I100" s="40"/>
+      <c r="J100" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="K100" s="40" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="39"/>
+      <c r="B101" s="40" t="s">
+        <v>216</v>
+      </c>
+      <c r="C101" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="D101" s="41"/>
+      <c r="E101" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="F101" s="40"/>
+      <c r="G101" s="40" t="s">
+        <v>214</v>
+      </c>
+      <c r="H101" s="40" t="s">
+        <v>215</v>
+      </c>
+      <c r="I101" s="40"/>
+      <c r="J101" s="40"/>
+      <c r="K101" s="40" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" s="48" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A102" s="39"/>
+      <c r="B102" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="C102" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="D102" s="41"/>
+      <c r="E102" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="F102" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="G102" s="40" t="s">
+        <v>164</v>
+      </c>
+      <c r="H102" s="40" t="s">
+        <v>170</v>
+      </c>
+      <c r="I102" s="40"/>
+      <c r="J102" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="B72" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="C72" s="35"/>
-      <c r="D72" s="35"/>
-      <c r="E72" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="F72" s="36"/>
-      <c r="G72" s="36"/>
-      <c r="H72" s="36"/>
-      <c r="I72" s="36"/>
-      <c r="J72" s="36" t="s">
-        <v>442</v>
-      </c>
-      <c r="K72" s="36"/>
-    </row>
-    <row r="73" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="63">
-        <v>69</v>
-      </c>
-      <c r="B73" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="C73" s="35"/>
-      <c r="D73" s="35"/>
-      <c r="E73" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="F73" s="36"/>
-      <c r="G73" s="36"/>
-      <c r="H73" s="36"/>
-      <c r="I73" s="36"/>
-      <c r="J73" s="36" t="s">
-        <v>443</v>
-      </c>
-      <c r="K73" s="36"/>
-    </row>
-    <row r="74" spans="1:11" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A74" s="63">
-        <v>70</v>
-      </c>
-      <c r="B74" s="42" t="s">
-        <v>269</v>
-      </c>
-      <c r="C74" s="43" t="s">
+      <c r="K102" s="40" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" s="48" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A103" s="39"/>
+      <c r="B103" s="40" t="s">
+        <v>218</v>
+      </c>
+      <c r="C103" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="D74" s="43"/>
-      <c r="E74" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="F74" s="42" t="s">
-        <v>270</v>
-      </c>
-      <c r="G74" s="34"/>
-      <c r="H74" s="42"/>
-      <c r="I74" s="42" t="s">
-        <v>297</v>
-      </c>
-      <c r="J74" s="42" t="s">
-        <v>438</v>
-      </c>
-      <c r="K74" s="42"/>
-    </row>
-    <row r="75" spans="1:11" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A75" s="41"/>
-      <c r="B75" s="42" t="s">
-        <v>102</v>
-      </c>
-      <c r="C75" s="43"/>
-      <c r="D75" s="43"/>
-      <c r="E75" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="F75" s="42"/>
-      <c r="G75" s="42" t="s">
+      <c r="D103" s="41"/>
+      <c r="E103" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="F103" s="40"/>
+      <c r="G103" s="40" t="s">
+        <v>214</v>
+      </c>
+      <c r="H103" s="40" t="s">
+        <v>217</v>
+      </c>
+      <c r="I103" s="40"/>
+      <c r="J103" s="40" t="s">
+        <v>379</v>
+      </c>
+      <c r="K103" s="40"/>
+    </row>
+    <row r="104" spans="1:11" s="48" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A104" s="39"/>
+      <c r="B104" s="40" t="s">
+        <v>301</v>
+      </c>
+      <c r="C104" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="D104" s="41"/>
+      <c r="E104" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="F104" s="40"/>
+      <c r="G104" s="40" t="s">
+        <v>214</v>
+      </c>
+      <c r="H104" s="40" t="s">
         <v>302</v>
       </c>
-      <c r="H75" s="42"/>
-      <c r="I75" s="61" t="s">
-        <v>369</v>
-      </c>
-      <c r="J75" s="42" t="s">
-        <v>373</v>
-      </c>
-      <c r="K75" s="42"/>
-    </row>
-    <row r="76" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="41"/>
-      <c r="B76" s="42" t="s">
-        <v>269</v>
-      </c>
-      <c r="C76" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="D76" s="43"/>
-      <c r="E76" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="F76" s="42"/>
-      <c r="G76" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="H76" s="42"/>
-      <c r="I76" s="42"/>
-      <c r="J76" s="42" t="s">
-        <v>284</v>
-      </c>
-      <c r="K76" s="42" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A77" s="41"/>
-      <c r="B77" s="42" t="s">
-        <v>269</v>
-      </c>
-      <c r="C77" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="D77" s="43"/>
-      <c r="E77" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="F77" s="42" t="s">
-        <v>282</v>
-      </c>
-      <c r="G77" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="H77" s="36"/>
-      <c r="I77" s="42" t="s">
-        <v>281</v>
-      </c>
-      <c r="J77" s="42" t="s">
-        <v>280</v>
-      </c>
-      <c r="K77" s="36"/>
-    </row>
-    <row r="78" spans="1:11" s="22" customFormat="1" ht="60" x14ac:dyDescent="0.2">
-      <c r="A78" s="41"/>
-      <c r="B78" s="42" t="s">
-        <v>102</v>
-      </c>
-      <c r="C78" s="43" t="s">
+      <c r="I104" s="40"/>
+      <c r="J104" s="40" t="s">
+        <v>378</v>
+      </c>
+      <c r="K104" s="40"/>
+    </row>
+    <row r="105" spans="1:11" s="48" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A105" s="39"/>
+      <c r="B105" s="40" t="s">
+        <v>300</v>
+      </c>
+      <c r="C105" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="D78" s="43"/>
-      <c r="E78" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="F78" s="42" t="s">
-        <v>325</v>
-      </c>
-      <c r="G78" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="H78" s="42"/>
-      <c r="I78" s="42" t="s">
-        <v>326</v>
-      </c>
-      <c r="J78" s="42" t="s">
-        <v>328</v>
-      </c>
-      <c r="K78" s="42" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A79" s="41"/>
-      <c r="B79" s="42" t="s">
-        <v>102</v>
-      </c>
-      <c r="C79" s="43" t="s">
+      <c r="D105" s="41"/>
+      <c r="E105" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="F105" s="40"/>
+      <c r="G105" s="40" t="s">
+        <v>214</v>
+      </c>
+      <c r="H105" s="40" t="s">
+        <v>299</v>
+      </c>
+      <c r="I105" s="40"/>
+      <c r="J105" s="40" t="s">
+        <v>377</v>
+      </c>
+      <c r="K105" s="40" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" s="48" customFormat="1" ht="195" x14ac:dyDescent="0.2">
+      <c r="A106" s="39"/>
+      <c r="B106" s="40" t="s">
+        <v>171</v>
+      </c>
+      <c r="C106" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="D79" s="43"/>
-      <c r="E79" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="F79" s="42"/>
-      <c r="G79" s="34"/>
-      <c r="H79" s="42"/>
-      <c r="I79" s="42" t="s">
+      <c r="D106" s="41"/>
+      <c r="E106" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="F106" s="40"/>
+      <c r="G106" s="40" t="s">
+        <v>172</v>
+      </c>
+      <c r="H106" s="40" t="s">
+        <v>173</v>
+      </c>
+      <c r="I106" s="40" t="s">
+        <v>343</v>
+      </c>
+      <c r="J106" s="40" t="s">
+        <v>473</v>
+      </c>
+      <c r="K106" s="40" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="39"/>
+      <c r="B107" s="40"/>
+      <c r="C107" s="41"/>
+      <c r="D107" s="41"/>
+      <c r="E107" s="40"/>
+      <c r="F107" s="40"/>
+      <c r="G107" s="40" t="s">
+        <v>303</v>
+      </c>
+      <c r="H107" s="33" t="s">
         <v>304</v>
       </c>
-      <c r="J79" s="42" t="s">
-        <v>303</v>
-      </c>
-      <c r="K79" s="42"/>
-    </row>
-    <row r="80" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="41"/>
-      <c r="B80" s="42" t="s">
-        <v>102</v>
-      </c>
-      <c r="C80" s="43"/>
-      <c r="D80" s="43"/>
-      <c r="E80" s="34"/>
-      <c r="F80" s="42"/>
-      <c r="G80" s="34"/>
-      <c r="H80" s="42"/>
-      <c r="I80" s="34" t="s">
-        <v>279</v>
-      </c>
-      <c r="J80" s="34" t="s">
-        <v>266</v>
-      </c>
-      <c r="K80" s="42"/>
-    </row>
-    <row r="81" spans="1:11" s="22" customFormat="1" ht="120" x14ac:dyDescent="0.2">
-      <c r="A81" s="54"/>
-      <c r="B81" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="C81" s="55" t="s">
-        <v>19</v>
-      </c>
-      <c r="D81" s="55"/>
-      <c r="E81" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="F81" s="42" t="s">
-        <v>262</v>
-      </c>
-      <c r="G81" s="34" t="s">
-        <v>104</v>
-      </c>
-      <c r="H81" s="36"/>
-      <c r="I81" s="42" t="s">
-        <v>261</v>
-      </c>
-      <c r="J81" s="42" t="s">
-        <v>260</v>
-      </c>
-      <c r="K81" s="36" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A82" s="41"/>
-      <c r="B82" s="42" t="s">
-        <v>102</v>
-      </c>
-      <c r="C82" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="D82" s="43"/>
-      <c r="E82" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="F82" s="42"/>
-      <c r="G82" s="34"/>
-      <c r="H82" s="42"/>
-      <c r="I82" s="42" t="s">
-        <v>272</v>
-      </c>
-      <c r="J82" s="42" t="s">
-        <v>273</v>
-      </c>
-      <c r="K82" s="42"/>
-    </row>
-    <row r="83" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="41"/>
-      <c r="B83" s="42" t="s">
-        <v>102</v>
-      </c>
-      <c r="C83" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="D83" s="43"/>
-      <c r="E83" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="F83" s="42"/>
-      <c r="G83" s="34"/>
-      <c r="H83" s="42"/>
-      <c r="I83" s="42" t="s">
-        <v>295</v>
-      </c>
-      <c r="J83" s="42" t="s">
-        <v>273</v>
-      </c>
-      <c r="K83" s="34" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A84" s="41"/>
-      <c r="B84" s="42" t="s">
-        <v>102</v>
-      </c>
-      <c r="C84" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="D84" s="43"/>
-      <c r="E84" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="F84" s="42" t="s">
-        <v>265</v>
-      </c>
-      <c r="G84" s="34"/>
-      <c r="H84" s="42"/>
-      <c r="I84" s="42" t="s">
-        <v>263</v>
-      </c>
-      <c r="J84" s="42" t="s">
-        <v>264</v>
-      </c>
-      <c r="K84" s="42"/>
-    </row>
-    <row r="85" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="41"/>
-      <c r="B85" s="42" t="s">
-        <v>102</v>
-      </c>
-      <c r="C85" s="43"/>
-      <c r="D85" s="43"/>
-      <c r="E85" s="34"/>
-      <c r="F85" s="42"/>
-      <c r="G85" s="34"/>
-      <c r="H85" s="42"/>
-      <c r="I85" s="34" t="s">
-        <v>267</v>
-      </c>
-      <c r="J85" s="34" t="s">
-        <v>266</v>
-      </c>
-      <c r="K85" s="42"/>
-    </row>
-    <row r="86" spans="1:11" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A86" s="41"/>
-      <c r="B86" s="42" t="s">
-        <v>102</v>
-      </c>
-      <c r="C86" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="D86" s="43"/>
-      <c r="E86" s="34"/>
-      <c r="F86" s="42"/>
-      <c r="G86" s="34"/>
-      <c r="H86" s="42"/>
-      <c r="I86" s="42" t="s">
-        <v>296</v>
-      </c>
-      <c r="J86" s="34" t="s">
-        <v>268</v>
-      </c>
-      <c r="K86" s="42"/>
-    </row>
-    <row r="88" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="41"/>
-      <c r="B88" s="42" t="s">
-        <v>269</v>
-      </c>
-      <c r="C88" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="D88" s="43"/>
-      <c r="E88" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="F88" s="42" t="s">
-        <v>270</v>
-      </c>
-      <c r="G88" s="34"/>
-      <c r="H88" s="42"/>
-      <c r="I88" s="42" t="s">
-        <v>298</v>
-      </c>
-      <c r="J88" s="42" t="s">
-        <v>271</v>
-      </c>
-      <c r="K88" s="42"/>
-    </row>
-    <row r="89" spans="1:11" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A89" s="41"/>
-      <c r="B89" s="42" t="s">
-        <v>269</v>
-      </c>
-      <c r="C89" s="43" t="s">
-        <v>418</v>
-      </c>
-      <c r="D89" s="43"/>
-      <c r="E89" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="F89" s="42" t="s">
-        <v>419</v>
-      </c>
-      <c r="G89" s="34"/>
-      <c r="H89" s="42"/>
-      <c r="I89" s="42"/>
-      <c r="J89" s="42" t="s">
-        <v>437</v>
-      </c>
-      <c r="K89" s="42"/>
-    </row>
-    <row r="90" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="33"/>
-      <c r="B90" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="C90" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="D90" s="35"/>
-      <c r="E90" s="36"/>
-      <c r="F90" s="36"/>
-      <c r="G90" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="H90" s="36"/>
-      <c r="I90" s="36"/>
-      <c r="J90" s="36"/>
-      <c r="K90" s="36"/>
-    </row>
-    <row r="91" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="33"/>
-      <c r="B91" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="C91" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="D91" s="35"/>
-      <c r="E91" s="36"/>
-      <c r="F91" s="36"/>
-      <c r="G91" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="H91" s="36"/>
-      <c r="I91" s="36"/>
-      <c r="J91" s="36"/>
-      <c r="K91" s="36"/>
-    </row>
-    <row r="92" spans="1:11" ht="45" x14ac:dyDescent="0.2">
-      <c r="A92" s="33"/>
-      <c r="B92" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="C92" s="35"/>
-      <c r="D92" s="35"/>
-      <c r="E92" s="36"/>
-      <c r="F92" s="36"/>
-      <c r="G92" s="36"/>
-      <c r="H92" s="36"/>
-      <c r="I92" s="36" t="s">
-        <v>250</v>
-      </c>
-      <c r="J92" s="36" t="s">
-        <v>249</v>
-      </c>
-      <c r="K92" s="36"/>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A93" s="33"/>
-      <c r="B93" s="34"/>
-      <c r="C93" s="35"/>
-      <c r="D93" s="35"/>
-      <c r="E93" s="36"/>
-      <c r="F93" s="36" t="s">
-        <v>387</v>
-      </c>
-      <c r="G93" s="36"/>
-      <c r="H93" s="36"/>
-      <c r="I93" s="36"/>
-      <c r="J93" s="36" t="s">
-        <v>388</v>
-      </c>
-      <c r="K93" s="36"/>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A94" s="41"/>
-      <c r="B94" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="C94" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="D94" s="43"/>
-      <c r="E94" s="34"/>
-      <c r="F94" s="42"/>
-      <c r="G94" s="42"/>
-      <c r="H94" s="42"/>
-      <c r="I94" s="34" t="s">
-        <v>493</v>
-      </c>
-      <c r="J94" s="42"/>
-      <c r="K94" s="42" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" s="50" customFormat="1" ht="60" x14ac:dyDescent="0.2">
-      <c r="A95" s="41"/>
-      <c r="B95" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="C95" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="D95" s="43"/>
-      <c r="E95" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="F95" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="G95" s="42" t="s">
-        <v>209</v>
-      </c>
-      <c r="H95" s="42"/>
-      <c r="I95" s="34" t="s">
-        <v>207</v>
-      </c>
-      <c r="J95" s="42"/>
-      <c r="K95" s="42" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="41"/>
-      <c r="B96" s="42" t="s">
-        <v>61</v>
-      </c>
-      <c r="C96" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="D96" s="43"/>
-      <c r="E96" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="F96" s="42"/>
-      <c r="G96" s="42" t="s">
-        <v>209</v>
-      </c>
-      <c r="H96" s="42"/>
-      <c r="I96" s="42"/>
-      <c r="J96" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="K96" s="42"/>
-    </row>
-    <row r="97" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="41"/>
-      <c r="B97" s="42" t="s">
-        <v>61</v>
-      </c>
-      <c r="C97" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="D97" s="43"/>
-      <c r="E97" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="F97" s="42"/>
-      <c r="G97" s="42" t="s">
-        <v>209</v>
-      </c>
-      <c r="H97" s="42"/>
-      <c r="I97" s="42"/>
-      <c r="J97" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="K97" s="42"/>
-    </row>
-    <row r="98" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="41"/>
-      <c r="B98" s="42" t="s">
-        <v>61</v>
-      </c>
-      <c r="C98" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="D98" s="43"/>
-      <c r="E98" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="F98" s="42"/>
-      <c r="G98" s="42" t="s">
-        <v>62</v>
-      </c>
-      <c r="H98" s="42"/>
-      <c r="I98" s="42"/>
-      <c r="J98" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="K98" s="42"/>
-    </row>
-    <row r="99" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="41"/>
-      <c r="B99" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="C99" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="D99" s="43"/>
-      <c r="E99" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="F99" s="42"/>
-      <c r="G99" s="42" t="s">
-        <v>62</v>
-      </c>
-      <c r="H99" s="42"/>
-      <c r="I99" s="42"/>
-      <c r="J99" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="K99" s="42" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="41"/>
-      <c r="B100" s="42" t="s">
-        <v>223</v>
-      </c>
-      <c r="C100" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="D100" s="43"/>
-      <c r="E100" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="F100" s="42"/>
-      <c r="G100" s="42" t="s">
-        <v>221</v>
-      </c>
-      <c r="H100" s="42" t="s">
-        <v>222</v>
-      </c>
-      <c r="I100" s="42"/>
-      <c r="J100" s="42"/>
-      <c r="K100" s="42" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" s="50" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A101" s="41"/>
-      <c r="B101" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="C101" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="D101" s="43"/>
-      <c r="E101" s="42" t="s">
-        <v>103</v>
-      </c>
-      <c r="F101" s="42" t="s">
-        <v>73</v>
-      </c>
-      <c r="G101" s="42" t="s">
-        <v>170</v>
-      </c>
-      <c r="H101" s="42" t="s">
-        <v>176</v>
-      </c>
-      <c r="I101" s="42"/>
-      <c r="J101" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="K101" s="42" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" s="50" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A102" s="41"/>
-      <c r="B102" s="42" t="s">
-        <v>225</v>
-      </c>
-      <c r="C102" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="D102" s="43"/>
-      <c r="E102" s="42" t="s">
-        <v>103</v>
-      </c>
-      <c r="F102" s="42"/>
-      <c r="G102" s="42" t="s">
-        <v>221</v>
-      </c>
-      <c r="H102" s="42" t="s">
-        <v>224</v>
-      </c>
-      <c r="I102" s="42"/>
-      <c r="J102" s="42" t="s">
-        <v>392</v>
-      </c>
-      <c r="K102" s="42"/>
-    </row>
-    <row r="103" spans="1:11" s="50" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A103" s="41"/>
-      <c r="B103" s="42" t="s">
-        <v>312</v>
-      </c>
-      <c r="C103" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="D103" s="43"/>
-      <c r="E103" s="42" t="s">
-        <v>103</v>
-      </c>
-      <c r="F103" s="42"/>
-      <c r="G103" s="42" t="s">
-        <v>221</v>
-      </c>
-      <c r="H103" s="42" t="s">
-        <v>313</v>
-      </c>
-      <c r="I103" s="42"/>
-      <c r="J103" s="42" t="s">
-        <v>391</v>
-      </c>
-      <c r="K103" s="42"/>
-    </row>
-    <row r="104" spans="1:11" s="50" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A104" s="41"/>
-      <c r="B104" s="42" t="s">
-        <v>311</v>
-      </c>
-      <c r="C104" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="D104" s="43"/>
-      <c r="E104" s="42" t="s">
-        <v>103</v>
-      </c>
-      <c r="F104" s="42"/>
-      <c r="G104" s="42" t="s">
-        <v>221</v>
-      </c>
-      <c r="H104" s="42" t="s">
-        <v>310</v>
-      </c>
-      <c r="I104" s="42"/>
-      <c r="J104" s="42" t="s">
-        <v>390</v>
-      </c>
-      <c r="K104" s="42" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" s="50" customFormat="1" ht="195" x14ac:dyDescent="0.2">
-      <c r="A105" s="41"/>
-      <c r="B105" s="42" t="s">
-        <v>177</v>
-      </c>
-      <c r="C105" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="D105" s="43"/>
-      <c r="E105" s="42" t="s">
-        <v>103</v>
-      </c>
-      <c r="F105" s="42"/>
-      <c r="G105" s="42" t="s">
-        <v>178</v>
-      </c>
-      <c r="H105" s="42" t="s">
-        <v>179</v>
-      </c>
-      <c r="I105" s="42" t="s">
-        <v>355</v>
-      </c>
-      <c r="J105" s="42" t="s">
-        <v>492</v>
-      </c>
-      <c r="K105" s="42" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="41"/>
-      <c r="B106" s="42"/>
-      <c r="C106" s="43"/>
-      <c r="D106" s="43"/>
-      <c r="E106" s="42"/>
-      <c r="F106" s="42"/>
-      <c r="G106" s="42" t="s">
-        <v>314</v>
-      </c>
-      <c r="H106" s="34" t="s">
-        <v>315</v>
-      </c>
-      <c r="I106" s="42"/>
-      <c r="J106" s="42" t="s">
-        <v>316</v>
-      </c>
-      <c r="K106" s="42"/>
-    </row>
-    <row r="107" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="41"/>
-      <c r="B107" s="42" t="s">
-        <v>474</v>
-      </c>
-      <c r="C107" s="43"/>
-      <c r="D107" s="43"/>
-      <c r="E107" s="42"/>
-      <c r="F107" s="42"/>
-      <c r="G107" s="42" t="s">
-        <v>472</v>
-      </c>
-      <c r="H107" s="34"/>
-      <c r="I107" s="42" t="s">
-        <v>473</v>
-      </c>
-      <c r="J107" s="42"/>
-      <c r="K107" s="42"/>
-    </row>
-    <row r="108" spans="1:11" s="49" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="A108" s="33"/>
-      <c r="B108" s="42" t="s">
-        <v>211</v>
-      </c>
-      <c r="C108" s="35"/>
-      <c r="D108" s="35"/>
-      <c r="E108" s="36"/>
-      <c r="F108" s="36"/>
-      <c r="G108" s="36"/>
-      <c r="H108" s="36"/>
-      <c r="I108" s="36" t="s">
-        <v>353</v>
-      </c>
-      <c r="J108" s="36" t="s">
-        <v>354</v>
-      </c>
-      <c r="K108" s="36"/>
-    </row>
-    <row r="109" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="15"/>
-      <c r="B109" s="15"/>
-      <c r="C109" s="15"/>
-      <c r="D109" s="15"/>
-      <c r="E109" s="15"/>
-      <c r="F109" s="15"/>
-      <c r="G109" s="39"/>
-      <c r="H109" s="15"/>
-      <c r="I109" s="15"/>
-      <c r="J109" s="15"/>
-      <c r="K109" s="15"/>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I107" s="40"/>
+      <c r="J107" s="40" t="s">
+        <v>305</v>
+      </c>
+      <c r="K107" s="40"/>
+    </row>
+    <row r="108" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="39"/>
+      <c r="B108" s="40" t="s">
+        <v>456</v>
+      </c>
+      <c r="C108" s="41"/>
+      <c r="D108" s="41"/>
+      <c r="E108" s="40"/>
+      <c r="F108" s="40"/>
+      <c r="G108" s="40" t="s">
+        <v>454</v>
+      </c>
+      <c r="H108" s="33"/>
+      <c r="I108" s="40" t="s">
+        <v>455</v>
+      </c>
+      <c r="J108" s="40"/>
+      <c r="K108" s="40"/>
+    </row>
+    <row r="109" spans="1:11" s="47" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A109" s="32"/>
+      <c r="B109" s="40" t="s">
+        <v>204</v>
+      </c>
+      <c r="C109" s="34"/>
+      <c r="D109" s="34"/>
+      <c r="E109" s="35"/>
+      <c r="F109" s="35"/>
+      <c r="G109" s="35"/>
+      <c r="H109" s="35"/>
+      <c r="I109" s="35" t="s">
+        <v>341</v>
+      </c>
+      <c r="J109" s="35" t="s">
+        <v>342</v>
+      </c>
+      <c r="K109" s="35"/>
+    </row>
+    <row r="110" spans="1:11" s="47" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="15"/>
       <c r="B110" s="15"/>
-      <c r="C110" s="16"/>
-      <c r="D110" s="16"/>
+      <c r="C110" s="15"/>
+      <c r="D110" s="15"/>
       <c r="E110" s="15"/>
       <c r="F110" s="15"/>
-      <c r="G110" s="39"/>
+      <c r="G110" s="38"/>
       <c r="H110" s="15"/>
       <c r="I110" s="15"/>
       <c r="J110" s="15"/>
@@ -7345,12 +7405,8 @@
       <c r="D111" s="16"/>
       <c r="E111" s="15"/>
       <c r="F111" s="15"/>
-      <c r="G111" s="52" t="s">
-        <v>33</v>
-      </c>
-      <c r="H111" s="53" t="s">
-        <v>34</v>
-      </c>
+      <c r="G111" s="38"/>
+      <c r="H111" s="15"/>
       <c r="I111" s="15"/>
       <c r="J111" s="15"/>
       <c r="K111" s="15"/>
@@ -7362,11 +7418,11 @@
       <c r="D112" s="16"/>
       <c r="E112" s="15"/>
       <c r="F112" s="15"/>
-      <c r="G112" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="H112" s="31" t="s">
-        <v>36</v>
+      <c r="G112" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="H112" s="51" t="s">
+        <v>34</v>
       </c>
       <c r="I112" s="15"/>
       <c r="J112" s="15"/>
@@ -7379,11 +7435,11 @@
       <c r="D113" s="16"/>
       <c r="E113" s="15"/>
       <c r="F113" s="15"/>
-      <c r="G113" s="39" t="s">
-        <v>142</v>
+      <c r="G113" s="38" t="s">
+        <v>137</v>
       </c>
       <c r="H113" s="15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I113" s="15"/>
       <c r="J113" s="15"/>
@@ -7396,11 +7452,11 @@
       <c r="D114" s="16"/>
       <c r="E114" s="15"/>
       <c r="F114" s="15"/>
-      <c r="G114" s="39" t="s">
-        <v>38</v>
+      <c r="G114" s="38" t="s">
+        <v>36</v>
       </c>
       <c r="H114" s="15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I114" s="15"/>
       <c r="J114" s="15"/>
@@ -7413,11 +7469,11 @@
       <c r="D115" s="16"/>
       <c r="E115" s="15"/>
       <c r="F115" s="15"/>
-      <c r="G115" s="39" t="s">
-        <v>40</v>
+      <c r="G115" s="38" t="s">
+        <v>38</v>
       </c>
       <c r="H115" s="15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I115" s="15"/>
       <c r="J115" s="15"/>
@@ -7430,11 +7486,11 @@
       <c r="D116" s="16"/>
       <c r="E116" s="15"/>
       <c r="F116" s="15"/>
-      <c r="G116" s="39" t="s">
-        <v>42</v>
+      <c r="G116" s="38" t="s">
+        <v>40</v>
       </c>
       <c r="H116" s="15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I116" s="15"/>
       <c r="J116" s="15"/>
@@ -7447,11 +7503,11 @@
       <c r="D117" s="16"/>
       <c r="E117" s="15"/>
       <c r="F117" s="15"/>
-      <c r="G117" s="39" t="s">
-        <v>44</v>
+      <c r="G117" s="38" t="s">
+        <v>42</v>
       </c>
       <c r="H117" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I117" s="15"/>
       <c r="J117" s="15"/>
@@ -7464,8 +7520,8 @@
       <c r="D118" s="16"/>
       <c r="E118" s="15"/>
       <c r="F118" s="15"/>
-      <c r="G118" s="39" t="s">
-        <v>46</v>
+      <c r="G118" s="38" t="s">
+        <v>44</v>
       </c>
       <c r="H118" s="15"/>
       <c r="I118" s="15"/>
@@ -7479,11 +7535,11 @@
       <c r="D119" s="16"/>
       <c r="E119" s="15"/>
       <c r="F119" s="15"/>
-      <c r="G119" s="39" t="s">
-        <v>239</v>
+      <c r="G119" s="38" t="s">
+        <v>232</v>
       </c>
       <c r="H119" s="15" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="I119" s="15"/>
       <c r="J119" s="15"/>
@@ -7496,11 +7552,11 @@
       <c r="D120" s="16"/>
       <c r="E120" s="15"/>
       <c r="F120" s="15"/>
-      <c r="G120" s="39" t="s">
-        <v>47</v>
+      <c r="G120" s="38" t="s">
+        <v>45</v>
       </c>
       <c r="H120" s="15" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="I120" s="15"/>
       <c r="J120" s="15"/>
@@ -7513,11 +7569,11 @@
       <c r="D121" s="16"/>
       <c r="E121" s="15"/>
       <c r="F121" s="15"/>
-      <c r="G121" s="39" t="s">
-        <v>106</v>
+      <c r="G121" s="38" t="s">
+        <v>102</v>
       </c>
       <c r="H121" s="15" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="I121" s="15"/>
       <c r="J121" s="15"/>
@@ -7530,11 +7586,11 @@
       <c r="D122" s="16"/>
       <c r="E122" s="15"/>
       <c r="F122" s="15"/>
-      <c r="G122" s="39" t="s">
-        <v>141</v>
+      <c r="G122" s="38" t="s">
+        <v>136</v>
       </c>
       <c r="H122" s="15" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="I122" s="15"/>
       <c r="J122" s="15"/>
@@ -7547,12 +7603,8 @@
       <c r="D123" s="16"/>
       <c r="E123" s="15"/>
       <c r="F123" s="15"/>
-      <c r="G123" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="H123" s="15" t="s">
-        <v>49</v>
-      </c>
+      <c r="G123" s="38"/>
+      <c r="H123" s="15"/>
       <c r="I123" s="15"/>
       <c r="J123" s="15"/>
       <c r="K123" s="15"/>
@@ -7564,25 +7616,25 @@
       <c r="D124" s="16"/>
       <c r="E124" s="15"/>
       <c r="F124" s="15"/>
-      <c r="G124" s="39"/>
+      <c r="G124" s="38"/>
       <c r="H124" s="15"/>
       <c r="I124" s="15"/>
       <c r="J124" s="15"/>
       <c r="K124" s="15"/>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="G125" s="39" t="s">
-        <v>109</v>
+      <c r="G125" s="38" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="G126" s="39" t="s">
-        <v>111</v>
+      <c r="G126" s="38" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="G127" s="39" t="s">
-        <v>121</v>
+      <c r="G127" s="38" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -7613,7 +7665,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
-  <phoneticPr fontId="22" type="noConversion"/>
+  <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -7627,7 +7679,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
-  <phoneticPr fontId="22" type="noConversion"/>
+  <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/inventory/INVENTORY OF PYU INSCRIPTIONS.xlsx
+++ b/inventory/INVENTORY OF PYU INSCRIPTIONS.xlsx
@@ -2321,9 +2321,6 @@
     </r>
   </si>
   <si>
-    <t>Blagden 1913-14: 127 (E). — ASB 1913, 14-5; 1914-15, 21-3. —  PPPB I, 65, 75 n. 24, 127.</t>
-  </si>
-  <si>
     <t>Indicated in IB IV (1956) to be held at Archaeological Office, Mandalay.</t>
   </si>
   <si>
@@ -3147,6 +3144,9 @@
   </si>
   <si>
     <t>numbering of vol., page, plate, etc. follows the distinction between roman/arabic in the source in question</t>
+  </si>
+  <si>
+    <t>Blagden 1913-14: 127 (E). — ASB 1913, 14-5; 1915, 21-3. —  PPPB I, 65, 75 n. 24, 127.</t>
   </si>
 </sst>
 </file>
@@ -4358,8 +4358,8 @@
   </sheetPr>
   <dimension ref="A1:K127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="F119" sqref="F119"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4463,19 +4463,19 @@
         <v>86</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I5" s="19" t="s">
         <v>430</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="90" x14ac:dyDescent="0.2">
@@ -4505,10 +4505,10 @@
         <v>437</v>
       </c>
       <c r="J6" s="19" t="s">
-        <v>441</v>
+        <v>508</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="75" x14ac:dyDescent="0.2">
@@ -4537,13 +4537,13 @@
         <v>6</v>
       </c>
       <c r="I7" s="10" t="s">
+        <v>458</v>
+      </c>
+      <c r="J7" s="19" t="s">
         <v>459</v>
       </c>
-      <c r="J7" s="19" t="s">
+      <c r="K7" s="10" t="s">
         <v>460</v>
-      </c>
-      <c r="K7" s="10" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="285" x14ac:dyDescent="0.2">
@@ -4575,10 +4575,10 @@
         <v>432</v>
       </c>
       <c r="J8" s="19" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="K8" s="23" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="150" x14ac:dyDescent="0.2">
@@ -4610,10 +4610,10 @@
         <v>433</v>
       </c>
       <c r="J9" s="19" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="K9" s="23" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="165" x14ac:dyDescent="0.2">
@@ -4642,13 +4642,13 @@
         <v>9</v>
       </c>
       <c r="I10" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="J10" s="19" t="s">
         <v>478</v>
       </c>
-      <c r="J10" s="19" t="s">
+      <c r="K10" s="61" t="s">
         <v>479</v>
-      </c>
-      <c r="K10" s="61" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="90" x14ac:dyDescent="0.2">
@@ -4677,13 +4677,13 @@
         <v>0</v>
       </c>
       <c r="I11" s="23" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="J11" s="23" t="s">
         <v>426</v>
       </c>
       <c r="K11" s="62" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="75" x14ac:dyDescent="0.2">
@@ -4712,7 +4712,7 @@
         <v>230</v>
       </c>
       <c r="I12" s="23" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J12" s="23" t="s">
         <v>427</v>
@@ -4812,10 +4812,10 @@
         <v>440</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="60" x14ac:dyDescent="0.2">
@@ -4848,7 +4848,7 @@
         <v>410</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="45" x14ac:dyDescent="0.2">
@@ -4972,7 +4972,7 @@
         <v>425</v>
       </c>
       <c r="K20" s="13" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="45" x14ac:dyDescent="0.2">
@@ -5094,13 +5094,13 @@
       </c>
       <c r="H24" s="13"/>
       <c r="I24" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="J24" s="13" t="s">
         <v>467</v>
       </c>
-      <c r="J24" s="13" t="s">
+      <c r="K24" s="13" t="s">
         <v>468</v>
-      </c>
-      <c r="K24" s="13" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
@@ -5225,7 +5225,7 @@
         <v>411</v>
       </c>
       <c r="J28" s="19" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="K28" s="13"/>
     </row>
@@ -5256,10 +5256,10 @@
         <v>434</v>
       </c>
       <c r="J29" s="10" t="s">
+        <v>496</v>
+      </c>
+      <c r="K29" s="19" t="s">
         <v>497</v>
-      </c>
-      <c r="K29" s="19" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="30" spans="1:11" s="47" customFormat="1" ht="45" x14ac:dyDescent="0.2">
@@ -5341,7 +5341,7 @@
         <v>49</v>
       </c>
       <c r="F32" s="24" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G32" s="24" t="s">
         <v>152</v>
@@ -5352,7 +5352,7 @@
         <v>417</v>
       </c>
       <c r="K32" s="10" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="30" x14ac:dyDescent="0.2">
@@ -5471,7 +5471,7 @@
         <v>88</v>
       </c>
       <c r="J36" s="12" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="K36" s="13" t="s">
         <v>413</v>
@@ -5530,7 +5530,7 @@
       </c>
       <c r="H38" s="12"/>
       <c r="I38" s="12" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="J38" s="12" t="s">
         <v>307</v>
@@ -5563,13 +5563,13 @@
       </c>
       <c r="H39" s="13"/>
       <c r="I39" s="13" t="s">
+        <v>484</v>
+      </c>
+      <c r="J39" s="10" t="s">
         <v>485</v>
       </c>
-      <c r="J39" s="10" t="s">
-        <v>486</v>
-      </c>
       <c r="K39" s="10" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="60" x14ac:dyDescent="0.2">
@@ -5599,10 +5599,10 @@
         <v>88</v>
       </c>
       <c r="J40" s="12" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="K40" s="12" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="90" x14ac:dyDescent="0.2">
@@ -5625,14 +5625,14 @@
         <v>321</v>
       </c>
       <c r="G41" s="12" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H41" s="13"/>
       <c r="I41" s="13" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="J41" s="13" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="K41" s="19" t="s">
         <v>324</v>
@@ -5665,7 +5665,7 @@
         <v>194</v>
       </c>
       <c r="J42" s="19" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="K42" s="13"/>
     </row>
@@ -5689,14 +5689,14 @@
         <v>97</v>
       </c>
       <c r="G43" s="29" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H43" s="13"/>
       <c r="I43" s="13" t="s">
         <v>88</v>
       </c>
       <c r="J43" s="13" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="K43" s="13" t="s">
         <v>108</v>
@@ -5719,7 +5719,7 @@
         <v>53</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G44" s="12" t="s">
         <v>235</v>
@@ -5729,7 +5729,7 @@
         <v>419</v>
       </c>
       <c r="J44" s="13" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K44" s="19" t="s">
         <v>237</v>
@@ -5820,7 +5820,7 @@
         <v>384</v>
       </c>
       <c r="J47" s="19" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="K47" s="13"/>
     </row>
@@ -5881,13 +5881,13 @@
       </c>
       <c r="H49" s="13"/>
       <c r="I49" s="13" t="s">
+        <v>493</v>
+      </c>
+      <c r="J49" s="13" t="s">
+        <v>492</v>
+      </c>
+      <c r="K49" s="13" t="s">
         <v>494</v>
-      </c>
-      <c r="J49" s="13" t="s">
-        <v>493</v>
-      </c>
-      <c r="K49" s="13" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="60" x14ac:dyDescent="0.2">
@@ -6229,7 +6229,7 @@
         <v>58</v>
       </c>
       <c r="B62" s="19" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C62" s="20" t="s">
         <v>28</v>
@@ -6492,7 +6492,7 @@
         <v>67</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C71" s="28"/>
       <c r="D71" s="28"/>
@@ -6500,19 +6500,19 @@
         <v>49</v>
       </c>
       <c r="F71" s="12" t="s">
+        <v>480</v>
+      </c>
+      <c r="G71" s="43" t="s">
         <v>481</v>
       </c>
-      <c r="G71" s="43" t="s">
+      <c r="H71" s="43" t="s">
         <v>482</v>
       </c>
-      <c r="H71" s="43" t="s">
-        <v>483</v>
-      </c>
       <c r="I71" s="12" t="s">
+        <v>475</v>
+      </c>
+      <c r="J71" s="43" t="s">
         <v>476</v>
-      </c>
-      <c r="J71" s="43" t="s">
-        <v>477</v>
       </c>
       <c r="K71" s="18"/>
     </row>
@@ -6590,7 +6590,7 @@
         <v>71</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C75" s="28" t="s">
         <v>19</v>
@@ -6607,10 +6607,10 @@
       </c>
       <c r="H75" s="12"/>
       <c r="I75" s="43" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="J75" s="64" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="K75" s="12"/>
     </row>
@@ -6828,7 +6828,7 @@
       <c r="G84" s="33"/>
       <c r="H84" s="40"/>
       <c r="I84" s="40" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="J84" s="40" t="s">
         <v>264</v>
@@ -6926,7 +6926,7 @@
         <v>262</v>
       </c>
       <c r="K89" s="33" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="90" spans="1:11" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.2">
@@ -7040,7 +7040,7 @@
       <c r="G95" s="40"/>
       <c r="H95" s="40"/>
       <c r="I95" s="33" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="J95" s="40"/>
       <c r="K95" s="40" t="s">
@@ -7071,7 +7071,7 @@
       </c>
       <c r="J96" s="40"/>
       <c r="K96" s="40" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="97" spans="1:11" s="47" customFormat="1" x14ac:dyDescent="0.2">
@@ -7322,7 +7322,7 @@
         <v>343</v>
       </c>
       <c r="J106" s="40" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="K106" s="40" t="s">
         <v>380</v>
@@ -7350,18 +7350,18 @@
     <row r="108" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A108" s="39"/>
       <c r="B108" s="40" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C108" s="41"/>
       <c r="D108" s="41"/>
       <c r="E108" s="40"/>
       <c r="F108" s="40"/>
       <c r="G108" s="40" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H108" s="33"/>
       <c r="I108" s="40" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="J108" s="40"/>
       <c r="K108" s="40"/>
@@ -7624,7 +7624,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G125" s="38" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.2">

--- a/inventory/INVENTORY OF PYU INSCRIPTIONS.xlsx
+++ b/inventory/INVENTORY OF PYU INSCRIPTIONS.xlsx
@@ -2104,21 +2104,45 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">ASI 1927-28, pl. LIV (g, h). — IB IV, CCCLVI (a). —PPPB II, pl. 16-7. — </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RTI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri (Corps)"/>
       </rPr>
-      <t xml:space="preserve">IB IV, CCCLV (a). — </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">PR, 49. — PPPB II, pl. 7. — </t>
+      <t>IB IV, CCCLVI (b).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> —</t>
     </r>
     <r>
       <rPr>
@@ -2127,40 +2151,11 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t>RTI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ASI 1927-28, pl. LIV (g, h). — IB IV, CCCLVI (a). —PPPB II, pl. 16-7. — </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>RTI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
+      <t xml:space="preserve"> RTI.</t>
+    </r>
+  </si>
+  <si>
+    <t>IB V, DLXX (b). — PPPB II, pl. 8abc.</t>
   </si>
   <si>
     <r>
@@ -2169,17 +2164,7 @@
         <color theme="1"/>
         <rFont val="Calibri (Corps)"/>
       </rPr>
-      <t>IB IV, CCCLVI (b).</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> —</t>
+      <t xml:space="preserve">IB V, DLXX (a). — </t>
     </r>
     <r>
       <rPr>
@@ -2188,20 +2173,26 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> RTI.</t>
-    </r>
-  </si>
-  <si>
-    <t>IB V, DLXX (b). — PPPB II, pl. 8abc.</t>
-  </si>
-  <si>
+      <t>RTI.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ASI 1934-35, pl. XXII (a). —</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri (Corps)"/>
       </rPr>
-      <t xml:space="preserve">IB V, DLXX (a). — </t>
+      <t xml:space="preserve"> IB V, DLXIX.</t>
     </r>
     <r>
       <rPr>
@@ -2210,18 +2201,49 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>— Le May 1956, fig. 1.— PPPB II, pl. 15b. —</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Corps)"/>
+      </rPr>
       <t>RTI.</t>
     </r>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ASI 1934-35, pl. XXII (a). —</t>
+      <t xml:space="preserve"> I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B V,</t>
     </r>
     <r>
       <rPr>
@@ -2229,7 +2251,27 @@
         <color theme="1"/>
         <rFont val="Calibri (Corps)"/>
       </rPr>
-      <t xml:space="preserve"> IB V, DLXIX.</t>
+      <t xml:space="preserve"> DLV and DLVI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> —</t>
     </r>
     <r>
       <rPr>
@@ -2238,26 +2280,122 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>— Le May 1956, fig. 1.— PPPB II, pl. 15b. —</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
+      <t xml:space="preserve"> RTI.</t>
+    </r>
+  </si>
+  <si>
+    <t>Indicated in IB IV (1956) to be held at Archaeological Office, Mandalay.</t>
+  </si>
+  <si>
+    <t>Duroiselle indicated that the urn was in the Archaeological Office at Mandalay at the time he wrote; the same was still indicated in IB V (1956).</t>
+  </si>
+  <si>
+    <t>Removed to Amarapura by King Bodawpaya in 1793 CE; from there to Mandalay in 1941 (see IB IV, p. 21).</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>De Beylié 1907a, pl. VIII. — EB I, 1, pl. IV (A). —</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Corps)"/>
+      </rPr>
+      <t xml:space="preserve"> IB IV, CCCCLXIII (a). </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>— RTI.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">EB I, 1, pl. IV (B). </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Corps)"/>
+      </rPr>
+      <t>—  IB IV, CCCCLXIII (b).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  — RTI.</t>
+    </r>
+  </si>
+  <si>
+    <t>Dated 1112 CE. But see extensive debate on actual date of the inscription.</t>
+  </si>
+  <si>
+    <r>
+      <t>"These are the bones of the deceased, Lord Rū</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ḅa, grandson of Nga Kno, son of Lord Davinimli".</t>
+    </r>
+  </si>
+  <si>
+    <t>Formerly Pagan Museum, nr. 96.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Halin Museum, nr. 2014/1/25 </t>
+  </si>
+  <si>
+    <t>Found in 1966; text almost entirely obliterated.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nyunt Han </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>et al</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. 2006: 13. — Moore 2009: 111-12. — </t>
     </r>
     <r>
       <rPr>
@@ -2265,22 +2403,30 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri (Corps)"/>
       </rPr>
-      <t>RTI.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> I</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>B V,</t>
+      <t>Naing Zaw 2011: 525.</t>
+    </r>
+  </si>
+  <si>
+    <t>ASI 1910-11, 90. — Mya 1961, II, 33. — PPPB I, 128 (pl. 8f).</t>
+  </si>
+  <si>
+    <t>Pyay public library</t>
+  </si>
+  <si>
+    <t>photo Don Stadtner</t>
+  </si>
+  <si>
+    <t>brick</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Aung Thaw 1972: 110-111. — Luce 1974: 126. — PPPB I, 176.</t>
     </r>
     <r>
       <rPr>
@@ -2288,27 +2434,16 @@
         <color theme="1"/>
         <rFont val="Calibri (Corps)"/>
       </rPr>
-      <t xml:space="preserve"> DLV and DLVI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> —</t>
+      <t xml:space="preserve"> — von Hinüber 1991: 25 n. 53. —</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Skilling </t>
     </r>
     <r>
       <rPr>
@@ -2317,27 +2452,27 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> RTI.</t>
-    </r>
-  </si>
-  <si>
-    <t>Indicated in IB IV (1956) to be held at Archaeological Office, Mandalay.</t>
-  </si>
-  <si>
-    <t>Duroiselle indicated that the urn was in the Archaeological Office at Mandalay at the time he wrote; the same was still indicated in IB V (1956).</t>
-  </si>
-  <si>
-    <t>Removed to Amarapura by King Bodawpaya in 1793 CE; from there to Mandalay in 1941 (see IB IV, p. 21).</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>De Beylié 1907a, pl. VIII. — EB I, 1, pl. IV (A). —</t>
+      <t>1997a:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 95 n. 7. — Stadtner 2011: 48-9.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ASB 1904-05, 8-9, 35;</t>
     </r>
     <r>
       <rPr>
@@ -2345,27 +2480,36 @@
         <color theme="1"/>
         <rFont val="Calibri (Corps)"/>
       </rPr>
-      <t xml:space="preserve"> IB IV, CCCCLXIII (a). </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>— RTI.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">EB I, 1, pl. IV (B). </t>
+      <t xml:space="preserve"> 1915, 21-3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. —</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ASI </t>
     </r>
     <r>
       <rPr>
@@ -2373,66 +2517,48 @@
         <color theme="1"/>
         <rFont val="Calibri (Corps)"/>
       </rPr>
-      <t>—  IB IV, CCCCLXIII (b).</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  — RTI.</t>
-    </r>
-  </si>
-  <si>
-    <t>Dated 1112 CE. But see extensive debate on actual date of the inscription.</t>
-  </si>
-  <si>
-    <r>
-      <t>"These are the bones of the deceased, Lord Rū</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ḅa, grandson of Nga Kno, son of Lord Davinimli".</t>
-    </r>
-  </si>
-  <si>
-    <t>Formerly Pagan Museum, nr. 96.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Halin Museum, nr. 2014/1/25 </t>
-  </si>
-  <si>
-    <t>Found in 1966; text almost entirely obliterated.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Nyunt Han </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>et al</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. 2006: 13. — Moore 2009: 111-12. — </t>
+      <t>1904-05, 126</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>; 19</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>29-30, 152. — PR, 21.—PPPB I, 66, 75 n. 27, 149. — Shafer 1943: 339.</t>
+    </r>
+  </si>
+  <si>
+    <t>Blagden 1913-14 (D1). — ASB 1913, pl. I (1-2). — IB IV, CCCLIV (d). — PPPB II, pl. 5a, 6a.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ASI 1912-13, pt. I, 29. — ASB </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 1913, 9-10, 14. — Blagden 1913-14 (D1). — PR, 47 (D), 51. — PPPB I, 48, 57 n. 13, 126-7.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">See also PYU25. — </t>
     </r>
     <r>
       <rPr>
@@ -2440,30 +2566,33 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri (Corps)"/>
       </rPr>
-      <t>Naing Zaw 2011: 525.</t>
-    </r>
-  </si>
-  <si>
-    <t>ASI 1910-11, 90. — Mya 1961, II, 33. — PPPB I, 128 (pl. 8f).</t>
-  </si>
-  <si>
-    <t>Pyay public library</t>
-  </si>
-  <si>
-    <t>photo Don Stadtner</t>
-  </si>
-  <si>
-    <t>brick</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Aung Thaw 1972: 110-111. — Luce 1974: 126. — PPPB I, 176.</t>
+      <t>IB IV, p. 39, assigns the absolute date 35 BE, but the interpretation as a date in that era is uncertain (see Frasch 20??).</t>
+    </r>
+  </si>
+  <si>
+    <t>ASI 1911-12 fig. 1 on pl. LXIX shows Blagden’s A urn (but it is identified in the caption as being from the Bawbawgyi, which must be a mistake). IB IV, p. 39, assigns the absolute date 57 BE, but the interpretation as a date in that era is uncertain (see Frasch 20??).</t>
+  </si>
+  <si>
+    <t>ASI 1912-13, pt. I, 29. — ASB 1913, 13-4. — Blagden 1913-14 (C). — PR, 47 (C), 51. — PPPB I, 48, 57 n. 13, 126-7.</t>
+  </si>
+  <si>
+    <t>ASI 1911-12, 147. — ASB 1912, 7, 11. — Blagden 1913-14 (A). — PR, 47 (A), 50. — PPPB I, 48, 57 n. 13, 126-7.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wrongly said to come from Bawbawgyi in ASI 1911-12, 147. IB IV, p. 39, assigns the absolute date 50 BE, but the interpretation as a date in that era is uncertain (see Frasch 20??). — For the urns, the dimensions given in ASB and ASI don’t correspond very closely to those in the inventory. E.g., ASB 1913, 13-4, talking about 004, gives dimensions of : 2’11” (h), 3’6” (dia). Inventory gives h. 95 (3’1”) - close, dia. 67 (2’2”) – not so close. Perhaps there’s confusion between internal and external diameter. </t>
+  </si>
+  <si>
+    <t>During or after the Chinese invasion of Pagan in 1287 CE; but ASB 1916 suggests "probably dated 1284 A.D.". The reference to a "bilibgual inscription in Chinese and Mongol" in ASB 1910 must be a slip of the pen for "Chinese and Pyu".</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">HRC rubbing. — </t>
     </r>
     <r>
       <rPr>
@@ -2471,53 +2600,106 @@
         <color theme="1"/>
         <rFont val="Calibri (Corps)"/>
       </rPr>
-      <t xml:space="preserve"> — von Hinüber 1991: 25 n. 53. —</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Skilling </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1997a:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 95 n. 7. — Stadtner 2011: 48-9.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ASB 1904-05, 8-9, 35;</t>
-    </r>
+      <t>MHRJ 11, pp. 133ff. —</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> RTI.</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri (Corps)"/>
       </rPr>
-      <t xml:space="preserve"> 1915, 21-3</t>
+      <t>San Win 1998, 20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00-1, 2003.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>—Tun Aung Chain 2003: 1-4, Appendix. — MHRJ 11, pp. 133ff.</t>
+    </r>
+  </si>
+  <si>
+    <t>San Win 2000-1 is an English version of 1998. The complete reading furnished in the Document section of MHRJ 11, pp. 133ff., was probably done by Than Tun, Nyein Maung and San Win to whom the reading in Appendix to Tun Aung Chain's article in the same issue is ascribed.</t>
+  </si>
+  <si>
+    <t>Le May 1956 fig. 2 mis-cited as 3 by Luce PPPB I, 150.</t>
+  </si>
+  <si>
+    <t>Guy 2014: 91 (cat. 40).</t>
+  </si>
+  <si>
+    <t>National Museum, Nay Pyi Taw, 1/3/1994</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Myint Aung 1970: 61. — Aung Thaw 1972: 14. — </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Corps)"/>
+      </rPr>
+      <t>Naing Zaw 2011: 495.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — Skilling 2015: 66.</t>
+    </r>
+  </si>
+  <si>
+    <t>photo Thein Lwin received from Bob</t>
+  </si>
+  <si>
+    <t>Perhaps this is the second silver bowl (besides PYU38) referred to by Sein Maung Oo 1989.</t>
+  </si>
+  <si>
+    <t>photo Bob Hudson</t>
+  </si>
+  <si>
+    <t>Naing Zaw 2011: 614.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Blagden 1913-14 (B). — ASI 1911-12, pl. LXVIII (3). — IB IV, </t>
     </r>
     <r>
       <rPr>
@@ -2527,16 +2709,48 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>. —</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
+      <t>CCCLIV (b). — PPPB II, pl. 5 (ef), 6 (d).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ASI 1911-12, 147. — ASB 1912, 7, 11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. — Blagden 1913-14 (B). — PR, 47 (B), 50. — PPPB I, 48, 57 n. 13, 126-7. — Shafer 1943: 339. — Guy 2014: 76-7 (cat. 24).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Comprises two texts of which only the first has been read (Blagden's B1); the second is almost entirely illegible on available rubbings. For text B1, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Corps)"/>
+      </rPr>
+      <t>IB IV, p. 39, assigns the absolute date 80 BE, but the interpretation as a date in that era is uncertain (see Frasch 20??).</t>
+    </r>
+  </si>
+  <si>
+    <t>unknown site at Pagan</t>
+  </si>
+  <si>
+    <t>"B.G."</t>
+  </si>
+  <si>
+    <t>&lt;°ūvasri&gt;?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">De Beylié 1907a: 83 (n. 1). </t>
     </r>
     <r>
       <rPr>
@@ -2546,7 +2760,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">ASI </t>
+      <t xml:space="preserve">— </t>
     </r>
     <r>
       <rPr>
@@ -2554,7 +2768,7 @@
         <color theme="1"/>
         <rFont val="Calibri (Corps)"/>
       </rPr>
-      <t>1904-05, 126</t>
+      <t>ASB 1907, 10; 1910, 21;  1916, 18 (with n. ‡), 20, 55; 1917, 24-5; 1922, 17.</t>
     </r>
     <r>
       <rPr>
@@ -2564,38 +2778,203 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>; 19</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>29-30, 152. — PR, 21.—PPPB I, 66, 75 n. 27, 149. — Shafer 1943: 339.</t>
-    </r>
-  </si>
-  <si>
-    <t>Blagden 1913-14 (D1). — ASB 1913, pl. I (1-2). — IB IV, CCCLIV (d). — PPPB II, pl. 5a, 6a.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ASI 1912-13, pt. I, 29. — ASB </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 1913, 9-10, 14. — Blagden 1913-14 (D1). — PR, 47 (D), 51. — PPPB I, 48, 57 n. 13, 126-7.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">See also PYU25. — </t>
+      <t xml:space="preserve"> — Blagden 1913-14: 127 (6). — Chen Yi-Sein 1960. — PPPB I, 67, 76 n. 38-39.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ASI 1929-30,  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">pl. XLI (b). — </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Corps)"/>
+      </rPr>
+      <t xml:space="preserve"> Le May 1956, fig. 2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>— PPP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B II, pl. 53a.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — RTI.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ASI 1929-30: 154-5. — Le May 1956: 47. — Aung Thaw 1972: 12. — PPPB I, 53, 58 n. 43, 149-50.</t>
+    </r>
+  </si>
+  <si>
+    <t>7 fragments of a gold foil</t>
+  </si>
+  <si>
+    <t>gold foil</t>
+  </si>
+  <si>
+    <t>ASI 1926-27, 175-6, 201. — PR, 34. — Le May 1956: 48. — PPPB I, 51, 57 n. 23, 137. — Falk 1997: 88-91. — Stargardt 2001: 498, 503-6. — Guy 2014: 80-2 (cat. 27).</t>
+  </si>
+  <si>
+    <t>ASI 1927, 180 (no. 38), 201. — Stargardt 2000: 52 (no. 38).</t>
+  </si>
+  <si>
+    <t>Arch. Neg. 2865-6.</t>
+  </si>
+  <si>
+    <t>same as 070?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ASI 1926-27, 178-80, 200-1. —</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Corps)"/>
+      </rPr>
+      <t xml:space="preserve"> ASB 1939, 12-22. —</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PR, 25-33. — PPPB I, 139. —</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Falk 1997. — Stargardt 2000.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ASI 1926-27, pl. XLII (g, h). — </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Corps)"/>
+      </rPr>
+      <t>ASB 1939</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> pl. 4c, 5, 6. — </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mya 1961, II, pl. 4. — PPPB II, pl. 33-34.</t>
+    </r>
+  </si>
+  <si>
+    <t>cite also Than Hswe 1991 and 1992?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mya 1961, II, pl. </t>
     </r>
     <r>
       <rPr>
@@ -2603,33 +2982,21 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri (Corps)"/>
       </rPr>
-      <t>IB IV, p. 39, assigns the absolute date 35 BE, but the interpretation as a date in that era is uncertain (see Frasch 20??).</t>
-    </r>
-  </si>
-  <si>
-    <t>ASI 1911-12 fig. 1 on pl. LXIX shows Blagden’s A urn (but it is identified in the caption as being from the Bawbawgyi, which must be a mistake). IB IV, p. 39, assigns the absolute date 57 BE, but the interpretation as a date in that era is uncertain (see Frasch 20??).</t>
-  </si>
-  <si>
-    <t>ASI 1912-13, pt. I, 29. — ASB 1913, 13-4. — Blagden 1913-14 (C). — PR, 47 (C), 51. — PPPB I, 48, 57 n. 13, 126-7.</t>
-  </si>
-  <si>
-    <t>ASI 1911-12, 147. — ASB 1912, 7, 11. — Blagden 1913-14 (A). — PR, 47 (A), 50. — PPPB I, 48, 57 n. 13, 126-7.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wrongly said to come from Bawbawgyi in ASI 1911-12, 147. IB IV, p. 39, assigns the absolute date 50 BE, but the interpretation as a date in that era is uncertain (see Frasch 20??). — For the urns, the dimensions given in ASB and ASI don’t correspond very closely to those in the inventory. E.g., ASB 1913, 13-4, talking about 004, gives dimensions of : 2’11” (h), 3’6” (dia). Inventory gives h. 95 (3’1”) - close, dia. 67 (2’2”) – not so close. Perhaps there’s confusion between internal and external diameter. </t>
-  </si>
-  <si>
-    <t>During or after the Chinese invasion of Pagan in 1287 CE; but ASB 1916 suggests "probably dated 1284 A.D.". The reference to a "bilibgual inscription in Chinese and Mongol" in ASB 1910 must be a slip of the pen for "Chinese and Pyu".</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">HRC rubbing. — </t>
+      <t>XX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. — PPPB II, 58 (f).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Blagden 1913-14: 127 (D2). —ASB 1913, 14, </t>
     </r>
     <r>
       <rPr>
@@ -2637,72 +3004,130 @@
         <color theme="1"/>
         <rFont val="Calibri (Corps)"/>
       </rPr>
-      <t>MHRJ 11, pp. 133ff. —</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> RTI.</t>
-    </r>
-  </si>
-  <si>
+      <t>41</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. — PPPB I, 65, 75 n. 23, 127.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">According to Luce PPPB I, 75 n. 23: “Blagden transcribed this inscription but never published his readings”. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Previous publications did not get the number of lines right.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> Minte mound, Sriksetra</t>
+  </si>
+  <si>
+    <t>Middleton 2005, App. 58, pp. 173-4.</t>
+  </si>
+  <si>
+    <t>Presence of inscription not yet noted when catalogue entry was written for Guy 2014.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sein Win 1997. — Naing Zaw 2011: 546-7 — </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Guy 2014: 90-1 (cat. 39).</t>
+    </r>
+  </si>
+  <si>
+    <t>photo Don Stadtner, Ancient Pagan. — RTI.</t>
+  </si>
+  <si>
+    <r>
+      <t>in situ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Petaw Monastery</t>
+    </r>
+  </si>
+  <si>
+    <t>Ni Tut 2013-4.</t>
+  </si>
+  <si>
+    <t>Kunzeik, on east bank of Sittaung river, Shwegyin township</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Myint Aung 1978. — Sein Maung Oo 1981; </t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri (Corps)"/>
       </rPr>
-      <t>San Win 1998, 20</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00-1, 2003.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>—Tun Aung Chain 2003: 1-4, Appendix. — MHRJ 11, pp. 133ff.</t>
-    </r>
-  </si>
-  <si>
-    <t>San Win 2000-1 is an English version of 1998. The complete reading furnished in the Document section of MHRJ 11, pp. 133ff., was probably done by Than Tun, Nyein Maung and San Win to whom the reading in Appendix to Tun Aung Chain's article in the same issue is ascribed.</t>
-  </si>
-  <si>
-    <t>Le May 1956 fig. 2 mis-cited as 3 by Luce PPPB I, 150.</t>
-  </si>
-  <si>
-    <t>Guy 2014: 91 (cat. 40).</t>
-  </si>
-  <si>
-    <t>National Museum, Nay Pyi Taw, 1/3/1994</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Myint Aung 1970: 61. — Aung Thaw 1972: 14. — </t>
+      <t>1989: 138. —</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Naing Zaw 2011: 87.</t>
+    </r>
+  </si>
+  <si>
+    <t>numbering of vol., page, plate, etc. follows the distinction between roman/arabic in the source in question</t>
+  </si>
+  <si>
+    <t>Blagden 1913-14: 127 (E). — ASB 1913, 14-5; 1915, 21-3. —  PPPB I, 65, 75 n. 24, 127.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Corps)"/>
+      </rPr>
+      <t xml:space="preserve">IB IV, CCCLV (a). — </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">PR, 49. — PPPB II, pl. 7. — </t>
     </r>
     <r>
       <rPr>
@@ -2710,443 +3135,35 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri (Corps)"/>
       </rPr>
-      <t>Naing Zaw 2011: 495.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> — Skilling 2015: 66.</t>
-    </r>
-  </si>
-  <si>
-    <t>photo Thein Lwin received from Bob</t>
-  </si>
-  <si>
-    <t>Perhaps this is the second silver bowl (besides PYU38) referred to by Sein Maung Oo 1989.</t>
-  </si>
-  <si>
-    <t>photo Bob Hudson</t>
-  </si>
-  <si>
-    <t>Naing Zaw 2011: 614.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Blagden 1913-14 (B). — ASI 1911-12, pl. LXVIII (3). — IB IV, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CCCLIV (b). — PPPB II, pl. 5 (ef), 6 (d).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>ASI 1911-12, 147. — ASB 1912, 7, 11</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. — Blagden 1913-14 (B). — PR, 47 (B), 50. — PPPB I, 48, 57 n. 13, 126-7. — Shafer 1943: 339. — Guy 2014: 76-7 (cat. 24).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Comprises two texts of which only the first has been read (Blagden's B1); the second is almost entirely illegible on available rubbings. For text B1, </t>
+      <t>EFEO estampage n. XXXX.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Corps)"/>
-      </rPr>
-      <t>IB IV, p. 39, assigns the absolute date 80 BE, but the interpretation as a date in that era is uncertain (see Frasch 20??).</t>
-    </r>
-  </si>
-  <si>
-    <t>unknown site at Pagan</t>
-  </si>
-  <si>
-    <t>"B.G."</t>
-  </si>
-  <si>
-    <t>&lt;°ūvasri&gt;?</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">De Beylié 1907a: 83 (n. 1). </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">— </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Corps)"/>
-      </rPr>
-      <t>ASB 1907, 10; 1910, 21;  1916, 18 (with n. ‡), 20, 55; 1917, 24-5; 1922, 17.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> — Blagden 1913-14: 127 (6). — Chen Yi-Sein 1960. — PPPB I, 67, 76 n. 38-39.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">ASI 1929-30,  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">pl. XLI (b). — </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Corps)"/>
-      </rPr>
-      <t xml:space="preserve"> Le May 1956, fig. 2. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>— PPP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>B II, pl. 53a.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> — RTI.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ASI 1929-30: 154-5. — Le May 1956: 47. — Aung Thaw 1972: 12. — PPPB I, 53, 58 n. 43, 149-50.</t>
-    </r>
-  </si>
-  <si>
-    <t>7 fragments of a gold foil</t>
-  </si>
-  <si>
-    <t>gold foil</t>
-  </si>
-  <si>
-    <t>ASI 1926-27, 175-6, 201. — PR, 34. — Le May 1956: 48. — PPPB I, 51, 57 n. 23, 137. — Falk 1997: 88-91. — Stargardt 2001: 498, 503-6. — Guy 2014: 80-2 (cat. 27).</t>
-  </si>
-  <si>
-    <t>ASI 1927, 180 (no. 38), 201. — Stargardt 2000: 52 (no. 38).</t>
-  </si>
-  <si>
-    <t>Arch. Neg. 2865-6.</t>
-  </si>
-  <si>
-    <t>same as 070?</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ASI 1926-27, 178-80, 200-1. —</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Corps)"/>
-      </rPr>
-      <t xml:space="preserve"> ASB 1939, 12-22. —</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PR, 25-33. — PPPB I, 139. —</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Falk 1997. — Stargardt 2000.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ASI 1926-27, pl. XLII (g, h). — </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Corps)"/>
-      </rPr>
-      <t>ASB 1939</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> pl. 4c, 5, 6. — </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Mya 1961, II, pl. 4. — PPPB II, pl. 33-34.</t>
-    </r>
-  </si>
-  <si>
-    <t>cite also Than Hswe 1991 and 1992?</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Mya 1961, II, pl. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Corps)"/>
-      </rPr>
-      <t>XX</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. — PPPB II, 58 (f).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Blagden 1913-14: 127 (D2). —ASB 1913, 14, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Corps)"/>
-      </rPr>
-      <t>41</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. — PPPB I, 65, 75 n. 23, 127.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">According to Luce PPPB I, 75 n. 23: “Blagden transcribed this inscription but never published his readings”. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Previous publications did not get the number of lines right.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve"> Minte mound, Sriksetra</t>
-  </si>
-  <si>
-    <t>Middleton 2005, App. 58, pp. 173-4.</t>
-  </si>
-  <si>
-    <t>Presence of inscription not yet noted when catalogue entry was written for Guy 2014.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Sein Win 1997. — Naing Zaw 2011: 546-7 — </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Guy 2014: 90-1 (cat. 39).</t>
-    </r>
-  </si>
-  <si>
-    <t>photo Don Stadtner, Ancient Pagan. — RTI.</t>
-  </si>
-  <si>
-    <r>
-      <t>in situ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Petaw Monastery</t>
-    </r>
-  </si>
-  <si>
-    <t>Ni Tut 2013-4.</t>
-  </si>
-  <si>
-    <t>Kunzeik, on east bank of Sittaung river, Shwegyin township</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Myint Aung 1978. — Sein Maung Oo 1981; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Corps)"/>
-      </rPr>
-      <t>1989: 138. —</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Naing Zaw 2011: 87.</t>
-    </r>
-  </si>
-  <si>
-    <t>numbering of vol., page, plate, etc. follows the distinction between roman/arabic in the source in question</t>
-  </si>
-  <si>
-    <t>Blagden 1913-14: 127 (E). — ASB 1913, 14-5; 1915, 21-3. —  PPPB I, 65, 75 n. 24, 127.</t>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RTI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -4358,8 +4375,8 @@
   </sheetPr>
   <dimension ref="A1:K127"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4463,19 +4480,19 @@
         <v>86</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="I5" s="19" t="s">
         <v>430</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="90" x14ac:dyDescent="0.2">
@@ -4502,13 +4519,13 @@
       </c>
       <c r="H6" s="10"/>
       <c r="I6" s="19" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="J6" s="19" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="75" x14ac:dyDescent="0.2">
@@ -4537,13 +4554,13 @@
         <v>6</v>
       </c>
       <c r="I7" s="10" t="s">
+        <v>457</v>
+      </c>
+      <c r="J7" s="19" t="s">
         <v>458</v>
       </c>
-      <c r="J7" s="19" t="s">
+      <c r="K7" s="10" t="s">
         <v>459</v>
-      </c>
-      <c r="K7" s="10" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="285" x14ac:dyDescent="0.2">
@@ -4575,10 +4592,10 @@
         <v>432</v>
       </c>
       <c r="J8" s="19" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="K8" s="23" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="150" x14ac:dyDescent="0.2">
@@ -4610,10 +4627,10 @@
         <v>433</v>
       </c>
       <c r="J9" s="19" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="K9" s="23" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="165" x14ac:dyDescent="0.2">
@@ -4642,13 +4659,13 @@
         <v>9</v>
       </c>
       <c r="I10" s="10" t="s">
+        <v>476</v>
+      </c>
+      <c r="J10" s="19" t="s">
         <v>477</v>
       </c>
-      <c r="J10" s="19" t="s">
+      <c r="K10" s="61" t="s">
         <v>478</v>
-      </c>
-      <c r="K10" s="61" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="90" x14ac:dyDescent="0.2">
@@ -4677,13 +4694,13 @@
         <v>0</v>
       </c>
       <c r="I11" s="23" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J11" s="23" t="s">
         <v>426</v>
       </c>
       <c r="K11" s="62" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="75" x14ac:dyDescent="0.2">
@@ -4712,7 +4729,7 @@
         <v>230</v>
       </c>
       <c r="I12" s="23" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="J12" s="23" t="s">
         <v>427</v>
@@ -4809,13 +4826,13 @@
         <v>2</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="60" x14ac:dyDescent="0.2">
@@ -4842,13 +4859,13 @@
       </c>
       <c r="H16" s="10"/>
       <c r="I16" s="23" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="J16" s="10" t="s">
         <v>410</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="45" x14ac:dyDescent="0.2">
@@ -4966,13 +4983,13 @@
       </c>
       <c r="H20" s="13"/>
       <c r="I20" s="19" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="J20" s="13" t="s">
         <v>425</v>
       </c>
       <c r="K20" s="13" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="45" x14ac:dyDescent="0.2">
@@ -5094,13 +5111,13 @@
       </c>
       <c r="H24" s="13"/>
       <c r="I24" s="13" t="s">
+        <v>465</v>
+      </c>
+      <c r="J24" s="13" t="s">
         <v>466</v>
       </c>
-      <c r="J24" s="13" t="s">
+      <c r="K24" s="13" t="s">
         <v>467</v>
-      </c>
-      <c r="K24" s="13" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
@@ -5158,7 +5175,7 @@
       </c>
       <c r="H26" s="13"/>
       <c r="I26" s="13" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="J26" s="13" t="s">
         <v>408</v>
@@ -5225,7 +5242,7 @@
         <v>411</v>
       </c>
       <c r="J28" s="19" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K28" s="13"/>
     </row>
@@ -5253,13 +5270,13 @@
       </c>
       <c r="H29" s="13"/>
       <c r="I29" s="13" t="s">
-        <v>434</v>
+        <v>508</v>
       </c>
       <c r="J29" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="K29" s="19" t="s">
         <v>496</v>
-      </c>
-      <c r="K29" s="19" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="30" spans="1:11" s="47" customFormat="1" ht="45" x14ac:dyDescent="0.2">
@@ -5341,7 +5358,7 @@
         <v>49</v>
       </c>
       <c r="F32" s="24" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G32" s="24" t="s">
         <v>152</v>
@@ -5352,7 +5369,7 @@
         <v>417</v>
       </c>
       <c r="K32" s="10" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="30" x14ac:dyDescent="0.2">
@@ -5379,7 +5396,7 @@
       </c>
       <c r="H33" s="13"/>
       <c r="I33" s="25" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="J33" s="24"/>
       <c r="K33" s="13"/>
@@ -5471,7 +5488,7 @@
         <v>88</v>
       </c>
       <c r="J36" s="12" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="K36" s="13" t="s">
         <v>413</v>
@@ -5530,7 +5547,7 @@
       </c>
       <c r="H38" s="12"/>
       <c r="I38" s="12" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J38" s="12" t="s">
         <v>307</v>
@@ -5563,13 +5580,13 @@
       </c>
       <c r="H39" s="13"/>
       <c r="I39" s="13" t="s">
+        <v>483</v>
+      </c>
+      <c r="J39" s="10" t="s">
         <v>484</v>
       </c>
-      <c r="J39" s="10" t="s">
-        <v>485</v>
-      </c>
       <c r="K39" s="10" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="60" x14ac:dyDescent="0.2">
@@ -5599,10 +5616,10 @@
         <v>88</v>
       </c>
       <c r="J40" s="12" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="K40" s="12" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="90" x14ac:dyDescent="0.2">
@@ -5625,14 +5642,14 @@
         <v>321</v>
       </c>
       <c r="G41" s="12" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H41" s="13"/>
       <c r="I41" s="13" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="J41" s="13" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K41" s="19" t="s">
         <v>324</v>
@@ -5665,7 +5682,7 @@
         <v>194</v>
       </c>
       <c r="J42" s="19" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="K42" s="13"/>
     </row>
@@ -5689,14 +5706,14 @@
         <v>97</v>
       </c>
       <c r="G43" s="29" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H43" s="13"/>
       <c r="I43" s="13" t="s">
         <v>88</v>
       </c>
       <c r="J43" s="13" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="K43" s="13" t="s">
         <v>108</v>
@@ -5719,7 +5736,7 @@
         <v>53</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G44" s="12" t="s">
         <v>235</v>
@@ -5729,7 +5746,7 @@
         <v>419</v>
       </c>
       <c r="J44" s="13" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="K44" s="19" t="s">
         <v>237</v>
@@ -5820,7 +5837,7 @@
         <v>384</v>
       </c>
       <c r="J47" s="19" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="K47" s="13"/>
     </row>
@@ -5881,13 +5898,13 @@
       </c>
       <c r="H49" s="13"/>
       <c r="I49" s="13" t="s">
+        <v>492</v>
+      </c>
+      <c r="J49" s="13" t="s">
+        <v>491</v>
+      </c>
+      <c r="K49" s="13" t="s">
         <v>493</v>
-      </c>
-      <c r="J49" s="13" t="s">
-        <v>492</v>
-      </c>
-      <c r="K49" s="13" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="60" x14ac:dyDescent="0.2">
@@ -6229,7 +6246,7 @@
         <v>58</v>
       </c>
       <c r="B62" s="19" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C62" s="20" t="s">
         <v>28</v>
@@ -6492,7 +6509,7 @@
         <v>67</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C71" s="28"/>
       <c r="D71" s="28"/>
@@ -6500,19 +6517,19 @@
         <v>49</v>
       </c>
       <c r="F71" s="12" t="s">
+        <v>479</v>
+      </c>
+      <c r="G71" s="43" t="s">
         <v>480</v>
       </c>
-      <c r="G71" s="43" t="s">
+      <c r="H71" s="43" t="s">
         <v>481</v>
       </c>
-      <c r="H71" s="43" t="s">
-        <v>482</v>
-      </c>
       <c r="I71" s="12" t="s">
+        <v>474</v>
+      </c>
+      <c r="J71" s="43" t="s">
         <v>475</v>
-      </c>
-      <c r="J71" s="43" t="s">
-        <v>476</v>
       </c>
       <c r="K71" s="18"/>
     </row>
@@ -6590,7 +6607,7 @@
         <v>71</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C75" s="28" t="s">
         <v>19</v>
@@ -6607,10 +6624,10 @@
       </c>
       <c r="H75" s="12"/>
       <c r="I75" s="43" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="J75" s="64" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="K75" s="12"/>
     </row>
@@ -6828,7 +6845,7 @@
       <c r="G84" s="33"/>
       <c r="H84" s="40"/>
       <c r="I84" s="40" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="J84" s="40" t="s">
         <v>264</v>
@@ -6926,7 +6943,7 @@
         <v>262</v>
       </c>
       <c r="K89" s="33" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="90" spans="1:11" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.2">
@@ -7040,7 +7057,7 @@
       <c r="G95" s="40"/>
       <c r="H95" s="40"/>
       <c r="I95" s="33" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="J95" s="40"/>
       <c r="K95" s="40" t="s">
@@ -7071,7 +7088,7 @@
       </c>
       <c r="J96" s="40"/>
       <c r="K96" s="40" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="97" spans="1:11" s="47" customFormat="1" x14ac:dyDescent="0.2">
@@ -7322,7 +7339,7 @@
         <v>343</v>
       </c>
       <c r="J106" s="40" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="K106" s="40" t="s">
         <v>380</v>
@@ -7350,18 +7367,18 @@
     <row r="108" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A108" s="39"/>
       <c r="B108" s="40" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C108" s="41"/>
       <c r="D108" s="41"/>
       <c r="E108" s="40"/>
       <c r="F108" s="40"/>
       <c r="G108" s="40" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H108" s="33"/>
       <c r="I108" s="40" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="J108" s="40"/>
       <c r="K108" s="40"/>
@@ -7624,7 +7641,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G125" s="38" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.2">
